--- a/template.xlsx
+++ b/template.xlsx
@@ -1,193 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33956F7B-DCAD-487D-AF1A-57BD5CA09176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4080" windowHeight="6960" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary Sheet" sheetId="2" r:id="rId1"/>
-    <sheet name="BOM" sheetId="1" r:id="rId2"/>
+    <sheet name="BOM DC" sheetId="1" r:id="rId1"/>
+    <sheet name="BOM DR" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="106">
-  <si>
-    <t>Service Components</t>
-  </si>
-  <si>
-    <t>Monthly Service Pay</t>
-  </si>
-  <si>
-    <t>Months</t>
-  </si>
-  <si>
-    <t>Total Cost</t>
-  </si>
-  <si>
-    <t>One Time Service Pay</t>
-  </si>
-  <si>
-    <t>ESDS' eNlight Cloud Hosting Services - BOM</t>
-  </si>
-  <si>
-    <t>₹ 18,35,397</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>₹ 36,70,794</t>
-  </si>
-  <si>
-    <t>₹ 11,01,238.19</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="112">
   <si>
     <t/>
   </si>
   <si>
-    <t>Total Cost for BOM ( Exclusive of Taxes ).</t>
-  </si>
-  <si>
-    <t>₹ 47,72,032.20</t>
-  </si>
-  <si>
-    <t>Terms and Conditions</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-All prices are in Indian Rupee without Taxes. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-Any change in the taxes, duties or levies due to change in government policies will be borne by the customer. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-Billing shall start from the date of infrastructure hand-over in partial or full, irrespective of the Go-Live of the project, for e.g Dev environment is setup and released to client/partner for development activity, then the billing for the Dev environment will start immediately after Development environment is handed over to department / partner, similarly for any other environment, what ever is handed over, billing will start immediately after that. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-The quote is valid for 15 days from the date of submission of offer. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-Above best prices are for the minimum commitment of 60 months. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-Infrastructure setup will be done based on the finalized and approved BoM and architecture, in case any change need to be done, then it will be considered as a change request and charges for the same will be additional. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-Prices are composite for the total Bill of Material and may vary with change in the Bill of Material due to increase or decrease in quantity/service period at the time of ordering </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-Software which are proposed in the BoM with default features, if any specific features is required then the charges for the same would be extra. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-Any changes to the proposed solution, architecture, bill of material, scope of work after PO issuance and sign-off on all these points will be considered as additional requirement and will be considered as change request and shall be processed only if applicable charges are accepted and written acceptance is submitted. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-In case the client requires any new or additional item/service/license except what is mentioned in the proposal, will be charged at additional prices. Rates/Prices &amp; Scope for all such additional/new requirements over and above the BoM/BoQ/Proposal submitted at the time of finalization will be additional and such Rates/Prices &amp; Scope will be submitted to the client based on the actual requirement. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-For any such additional item or service required over and above the BoM/BoQ/Proposal submitted at the time of finalization, the client will have to either raise PO or Confirm over email with acceptance to the new requirement and its applicable charges submitted by ESDS post receiving the additional requirement. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-Payment to all such new requirements to be done by the client along with other ongoing invoices. Billing for any such additional requirement will be included either in the upcoming invoices from ESDS or for any item or service if any advance payment is required, then client will have to make the advance payment along with PO or email confirmation for any kind of additional item or service or anything that is required from ESDS as part of the service.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-ESDS will provision the items/services/devices based on the available make &amp; model of that particular item at the time of delivery. The client will not stop project Go-Live or Project acceptance or Payments for asking items/products/services of different make &amp; model besides what ESDS has provisioned. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-In case of any disputes at the time of PO acceptance or during the contract period related to any requirement not covered in the proposal / BoM / BoQ submitted by ESDS, both parties that is Client &amp; ESDS will mutually discuss and check the requirement and come to conclusion to proceed further &amp; how, further to this, in case there is dispute due to any such additional/new/change requirement for which there’s commercial impact, the client should not hold the project implementation/completion and payments to ESDS. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-Anything that is not mentioned in the proposal/commercial/BoQ/BoM submitted by ESDS at the time of finalization of PO, will not be delivered for whatsoever reason. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-PO to be issued along with sign-off from customer on the scope of work, SLA, RACI matrix, terms &amp; conditions mentioned in the proposal submitted by ESDS. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-The Unit rates mentioned for different phases/years are subject to the usage of the overall capacity planned for that particular phase/year, if the resource utilization is not till the capacity planned for that particular phase/year, then the 1st year’s rates would be applicable and not that specific years/phase unit rates.
- </t>
-  </si>
-  <si>
-    <t>ESDS's Assumptions and Considerations</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-Enter your Assumptions.
- </t>
-  </si>
-  <si>
-    <t>ESDS's Exclusions</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-Enter your Exclusions.
- </t>
-  </si>
-  <si>
     <t>eNlight Cloud Hosting</t>
   </si>
   <si>
-    <t>VM1</t>
-  </si>
-  <si>
-    <t>M11 : vCores 14 | RAM 28 GB | Disk - 1000 IOPS - 100 GB | OS : Windows Standard Edition | DB : MS SQL Enterprise</t>
-  </si>
-  <si>
-    <t>VM 2</t>
-  </si>
-  <si>
-    <t>L5 : vCores 32 | RAM 256 GB | Disk - 1000 IOPS - 100 GB | OS : Linux : RHEL | DB : MS SQL Standard</t>
+    <t>Application Server</t>
+  </si>
+  <si>
+    <t>Virtual Machine - a - Standalone</t>
   </si>
   <si>
     <t>Software Licenses</t>
   </si>
   <si>
-    <t>Operating System</t>
+    <t>Database</t>
   </si>
   <si>
     <t>Windows Standard Edition</t>
   </si>
   <si>
-    <t>Linux : RHEL</t>
-  </si>
-  <si>
-    <t>Database</t>
-  </si>
-  <si>
-    <t>MS SQL Enterprise</t>
-  </si>
-  <si>
-    <t>MS SQL Standard</t>
-  </si>
-  <si>
-    <t>Software</t>
-  </si>
-  <si>
-    <t>Backup Agent</t>
+    <t>Linux : SUSE</t>
+  </si>
+  <si>
+    <t>MSSQL-STD</t>
+  </si>
+  <si>
+    <t>MSSQL-Enterprise</t>
   </si>
   <si>
     <t>Storage and Backup Services</t>
@@ -196,28 +53,85 @@
     <t>Additional Storage</t>
   </si>
   <si>
-    <t>Storage Space with 300 IOPS</t>
-  </si>
-  <si>
-    <t>Storage Space with 1000 IOPS</t>
-  </si>
-  <si>
-    <t>Storage Space with 3000 IOPS</t>
-  </si>
-  <si>
-    <t>Storage Space with 5000 IOPS</t>
-  </si>
-  <si>
-    <t>Storage Space with 8000 IOPS</t>
-  </si>
-  <si>
-    <t>Storage Space with 10000 IOPS</t>
+    <t>Object Storage 0.3 IOPS per GB</t>
+  </si>
+  <si>
+    <t>Object Storage 10 IOPS per GB</t>
+  </si>
+  <si>
+    <t>Object Storage 1 IOPS per GB</t>
+  </si>
+  <si>
+    <t>Object Storage 3 IOPS per GB</t>
+  </si>
+  <si>
+    <t>Object Storage 5 IOPS per GB</t>
+  </si>
+  <si>
+    <t>Object Storage 8 IOPS per GB</t>
+  </si>
+  <si>
+    <t>Block Storage 0.3 IOPS per GB</t>
+  </si>
+  <si>
+    <t>Block Storage 10 IOPS per GB</t>
+  </si>
+  <si>
+    <t>Block Storage 1 IOPS per GB</t>
+  </si>
+  <si>
+    <t>Block Storage 3 IOPS per GB</t>
+  </si>
+  <si>
+    <t>Block Storage 5 IOPS per GB</t>
+  </si>
+  <si>
+    <t>Block Storage 8 IOPS per GB</t>
+  </si>
+  <si>
+    <t>File Storage 0.3 IOPS per GB</t>
+  </si>
+  <si>
+    <t>File Storage 10 IOPS per GB</t>
+  </si>
+  <si>
+    <t>File Storage 1 IOPS per GB</t>
+  </si>
+  <si>
+    <t>File Storage 3 IOPS per GB</t>
+  </si>
+  <si>
+    <t>File Storage 5 IOPS per GB</t>
+  </si>
+  <si>
+    <t>File Storage 8 IOPS per GB</t>
+  </si>
+  <si>
+    <t>Block Storage 15 IOPS per GB</t>
+  </si>
+  <si>
+    <t>Block Storage 20 IOPS per GB</t>
+  </si>
+  <si>
+    <t>Block Storage 25 IOPS per GB</t>
+  </si>
+  <si>
+    <t>Block Storage 30 IOPS per GB</t>
+  </si>
+  <si>
+    <t>Block Storage 40 IOPS per GB</t>
+  </si>
+  <si>
+    <t>Block Storage 50 IOPS per GB</t>
+  </si>
+  <si>
+    <t>Block Storage 100 IOPS per GB</t>
   </si>
   <si>
     <t>Backup Storage</t>
   </si>
   <si>
-    <t>Backup Space</t>
+    <t>Backup Storage - Per GB 0.3 IOPS</t>
   </si>
   <si>
     <t>Archival Storage</t>
@@ -226,6 +140,141 @@
     <t>Archival Space</t>
   </si>
   <si>
+    <t>Network and Connectivity Services</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Speed Based Internet Bandwidth</t>
+  </si>
+  <si>
+    <t>Cross Connect and Port Termination</t>
+  </si>
+  <si>
+    <t>Security Solution</t>
+  </si>
+  <si>
+    <t>Anti-Virus</t>
+  </si>
+  <si>
+    <t>Alpha SSL Wild Card</t>
+  </si>
+  <si>
+    <t>Palo alto - Physical UTM- 1 Gpbs</t>
+  </si>
+  <si>
+    <t>VTMScan - 60Scan</t>
+  </si>
+  <si>
+    <t>SECEON - SIEM-Internal Security</t>
+  </si>
+  <si>
+    <t>NON CERT IN- VAPT Audit</t>
+  </si>
+  <si>
+    <t>DDOS Mitigation - 1Gbps</t>
+  </si>
+  <si>
+    <t>Security orchestration, automation and response</t>
+  </si>
+  <si>
+    <t>Other- VWAF - 2Gbps</t>
+  </si>
+  <si>
+    <t>Fortinet - Virtual Internal Firewall - 2 Gpbs</t>
+  </si>
+  <si>
+    <t>Fortinet - Virtual External Firewall - 2 Gpbs</t>
+  </si>
+  <si>
+    <t>Hardware Security Module - Shared</t>
+  </si>
+  <si>
+    <t>DLP VM - End Point</t>
+  </si>
+  <si>
+    <t>iRaje- Priviledge Identity Management-OEM</t>
+  </si>
+  <si>
+    <t>Identity Access Management</t>
+  </si>
+  <si>
+    <t>Endpoint Detection &amp; Response Service</t>
+  </si>
+  <si>
+    <t>McAfee - Database activity monitoring</t>
+  </si>
+  <si>
+    <t>OEM MFA Fortinet</t>
+  </si>
+  <si>
+    <t>Managed Services</t>
+  </si>
+  <si>
+    <t>One Time Infrastructure Setup</t>
+  </si>
+  <si>
+    <t>Windows Operating System Managed Services</t>
+  </si>
+  <si>
+    <t>SUSE - OSMng- Managed Services</t>
+  </si>
+  <si>
+    <t>MSSQL Database Managed Services (Up to 100 GB)</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Storage Management Per TB</t>
+  </si>
+  <si>
+    <t>Backup Management - per Instance</t>
+  </si>
+  <si>
+    <t>Load Balancer Management</t>
+  </si>
+  <si>
+    <t>FireWall Management</t>
+  </si>
+  <si>
+    <t>Web Application Firewall Management</t>
+  </si>
+  <si>
+    <t>eMagic Monitoring Basic</t>
+  </si>
+  <si>
+    <t>efewfwef</t>
+  </si>
+  <si>
+    <t>vCores 2 | RAM 2 GB | Disk - obj_03 IOPS/GB - 2 GB | OS : Linux : CentOS | DB : PostgreSQL-DB-Enterprise</t>
+  </si>
+  <si>
+    <t>dwdw</t>
+  </si>
+  <si>
+    <t>vCores 1 | RAM 2 GB | Disk - obj_03 IOPS/GB - 100 GB | OS : Windows Standard Edition | DB : DB2 - Advanced</t>
+  </si>
+  <si>
+    <t>dwdwd</t>
+  </si>
+  <si>
+    <t>vCores 12 | RAM 20 GB | Disk - obj_03 IOPS/GB - 1000 GB | OS : Linux : CentOS | DB : PostgreSQL-DB-Community</t>
+  </si>
+  <si>
+    <t>Linux : CentOS</t>
+  </si>
+  <si>
+    <t>PostgreSQL-DB-Enterprise</t>
+  </si>
+  <si>
+    <t>DB2 - Advanced</t>
+  </si>
+  <si>
+    <t>PostgreSQL-DB-Community</t>
+  </si>
+  <si>
     <t>Offline Backup</t>
   </si>
   <si>
@@ -238,24 +287,12 @@
     <t>Offline Backup Solution Fireproof cabinate</t>
   </si>
   <si>
-    <t>Network and Connectivity Services</t>
-  </si>
-  <si>
-    <t>Services</t>
-  </si>
-  <si>
-    <t>Public IP Address : Public IPv6</t>
-  </si>
-  <si>
-    <t>Speed Based Internet Bandwidth</t>
-  </si>
-  <si>
-    <t>Cross Connect and Port Termination</t>
-  </si>
-  <si>
     <t>Replication Link</t>
   </si>
   <si>
+    <t>Mbps</t>
+  </si>
+  <si>
     <t>Virtual Private Network (VPN) : IPSEC</t>
   </si>
   <si>
@@ -265,79 +302,40 @@
     <t>Load Balancer</t>
   </si>
   <si>
-    <t>Security Solution</t>
-  </si>
-  <si>
-    <t>vUTM External Firewall - 1GBPS Throughput</t>
-  </si>
-  <si>
-    <t>Internal Firewall - 1GBPS Throughput</t>
-  </si>
-  <si>
-    <t>DDoS Mitigation up to 1 Gbps Mitigation</t>
-  </si>
-  <si>
-    <t>eNlight : Web App Firewall</t>
-  </si>
-  <si>
-    <t>Two Factor Authentication</t>
-  </si>
-  <si>
-    <t>SSL Certificate : Domain WildCard SSL Certificate</t>
-  </si>
-  <si>
-    <t>SIEM</t>
-  </si>
-  <si>
-    <t>PIM</t>
-  </si>
-  <si>
-    <t>VTM Scan ( 30 scans per month )</t>
-  </si>
-  <si>
-    <t>CERTIN- VAPT Audit Quarterly 2</t>
-  </si>
-  <si>
-    <t>Array</t>
-  </si>
-  <si>
-    <t>IAM</t>
-  </si>
-  <si>
-    <t>DLP</t>
-  </si>
-  <si>
-    <t>EDR</t>
-  </si>
-  <si>
-    <t>DAM</t>
-  </si>
-  <si>
-    <t>SOR</t>
-  </si>
-  <si>
-    <t>Managed Services</t>
-  </si>
-  <si>
-    <t>One Time Infrastructure Setup</t>
-  </si>
-  <si>
-    <t>Windows OS Managed Services</t>
-  </si>
-  <si>
-    <t>RHEL OS Managed Services</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>MS SQL Database Managed Services (Up to 100 GB)</t>
-  </si>
-  <si>
-    <t>Storage Management Per TB'</t>
-  </si>
-  <si>
-    <t>Backup Management - per Instance</t>
+    <t>tm_av_basic</t>
+  </si>
+  <si>
+    <t>Organizational SSL Wild Card</t>
+  </si>
+  <si>
+    <t>CheckPoint - Virtual UTM- 2 Gpbs</t>
+  </si>
+  <si>
+    <t>KHIKA - SIEM-Internal Security</t>
+  </si>
+  <si>
+    <t>CERTIN- VAPT Audit</t>
+  </si>
+  <si>
+    <t>Checkpoint -VWAF - 2Gbps</t>
+  </si>
+  <si>
+    <t>Fortinet - Virtual Internal Firewall - 1 Gpbs</t>
+  </si>
+  <si>
+    <t>Fortinet - Virtual External Firewall - 1 Gpbs</t>
+  </si>
+  <si>
+    <t>DLP VM - Fortinet</t>
+  </si>
+  <si>
+    <t>ARCON- Priviledge Identity Management-OEM</t>
+  </si>
+  <si>
+    <t>CENTOS Operating System Managed Services</t>
+  </si>
+  <si>
+    <t>PostgresSQL Database Managed Services (Up to 100 GB)</t>
   </si>
   <si>
     <t>Replication Service Management</t>
@@ -346,23 +344,20 @@
     <t>DR Drill Per Year</t>
   </si>
   <si>
-    <t>Load Balancer Management</t>
-  </si>
-  <si>
-    <t>vUTM FireWall Management</t>
-  </si>
-  <si>
-    <t>Web Application Firewall Management</t>
-  </si>
-  <si>
-    <t>eMagic Monitoring Basic</t>
+    <t>dwefefe</t>
+  </si>
+  <si>
+    <t>vCores : 2 | RAM : 2 GB | Disk - obj_03 IOPS/GB : 2 GB | OS : Windows Standard Edition | DB : MSSQL-STD</t>
+  </si>
+  <si>
+    <t>vCores : 2 | RAM : 2 GB | Disk - obj_03 IOPS/GB : 2 GB | OS : Linux : SUSE | DB : MSSQL-Enterprise</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,7 +370,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,11 +380,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6E0B4"/>
       </patternFill>
     </fill>
     <fill>
@@ -498,46 +488,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -557,55 +532,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -617,44 +543,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -684,12 +610,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -728,217 +654,169 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CB100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z93"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:80">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="1">
+        <v>1</v>
+      </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -962,10 +840,16 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:80">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -990,10 +874,16 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:80">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1018,10 +908,12 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:80">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1046,10 +938,16 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:80">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1074,10 +972,16 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:80">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1102,22 +1006,18 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:80">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1140,22 +1040,18 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:80">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1178,22 +1074,14 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:80">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1216,16 +1104,18 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:80">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1248,10 +1138,16 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:80">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1276,10 +1172,16 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:80">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1304,10 +1206,16 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:80">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1332,10 +1240,16 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:80">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1360,10 +1274,16 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:80">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1388,96 +1308,50 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:80">
-      <c r="A16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="8"/>
-      <c r="AD16" s="8"/>
-      <c r="AE16" s="8"/>
-      <c r="AF16" s="8"/>
-      <c r="AG16" s="8"/>
-      <c r="AH16" s="8"/>
-      <c r="AI16" s="8"/>
-      <c r="AJ16" s="8"/>
-      <c r="AK16" s="8"/>
-      <c r="AL16" s="8"/>
-      <c r="AM16" s="8"/>
-      <c r="AN16" s="8"/>
-      <c r="AO16" s="8"/>
-      <c r="AP16" s="8"/>
-      <c r="AQ16" s="8"/>
-      <c r="AR16" s="8"/>
-      <c r="AS16" s="8"/>
-      <c r="AT16" s="8"/>
-      <c r="AU16" s="8"/>
-      <c r="AV16" s="8"/>
-      <c r="AW16" s="8"/>
-      <c r="AX16" s="8"/>
-      <c r="AY16" s="8"/>
-      <c r="AZ16" s="8"/>
-      <c r="BA16" s="8"/>
-      <c r="BB16" s="8"/>
-      <c r="BC16" s="8"/>
-      <c r="BD16" s="8"/>
-      <c r="BE16" s="8"/>
-      <c r="BF16" s="8"/>
-      <c r="BG16" s="8"/>
-      <c r="BH16" s="8"/>
-      <c r="BI16" s="8"/>
-      <c r="BJ16" s="8"/>
-      <c r="BK16" s="8"/>
-      <c r="BL16" s="8"/>
-      <c r="BM16" s="8"/>
-      <c r="BN16" s="8"/>
-      <c r="BO16" s="8"/>
-      <c r="BP16" s="8"/>
-      <c r="BQ16" s="8"/>
-      <c r="BR16" s="8"/>
-      <c r="BS16" s="8"/>
-      <c r="BT16" s="8"/>
-      <c r="BU16" s="8"/>
-      <c r="BV16" s="8"/>
-      <c r="BW16" s="8"/>
-      <c r="BX16" s="8"/>
-      <c r="BY16" s="8"/>
-      <c r="BZ16" s="8"/>
-      <c r="CA16" s="8"/>
-      <c r="CB16" s="8"/>
-    </row>
-    <row r="17" spans="1:26">
-      <c r="A17" s="4" t="s">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="B16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1502,12 +1376,16 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26">
-      <c r="A18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1532,12 +1410,16 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26">
-      <c r="A19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1562,12 +1444,16 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26">
-      <c r="A20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1592,12 +1478,16 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26">
-      <c r="A21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1622,12 +1512,16 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26">
-      <c r="A22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2</v>
+      </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1652,12 +1546,16 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26">
-      <c r="A23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1682,12 +1580,16 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26">
-      <c r="A24" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2</v>
+      </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1712,12 +1614,16 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26">
-      <c r="A25" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2</v>
+      </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1742,12 +1648,16 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26">
-      <c r="A26" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="2">
+        <v>2</v>
+      </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1772,12 +1682,16 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26">
-      <c r="A27" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="2">
+        <v>2</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1802,12 +1716,16 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26">
-      <c r="A28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2</v>
+      </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1832,12 +1750,16 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26">
-      <c r="A29" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2</v>
+      </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1862,12 +1784,16 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26">
-      <c r="A30" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2</v>
+      </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1892,12 +1818,16 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26">
-      <c r="A31" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2</v>
+      </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1922,12 +1852,16 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26">
-      <c r="A32" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2</v>
+      </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1952,12 +1886,16 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:80">
-      <c r="A33" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2</v>
+      </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1982,12 +1920,16 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:80">
-      <c r="A34" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="2">
+        <v>2</v>
+      </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -2012,12 +1954,16 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:80">
-      <c r="A35" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="2">
+        <v>2</v>
+      </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -2042,10 +1988,16 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:80">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2</v>
+      </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2070,10 +2022,12 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:80">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="9"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2098,94 +2052,50 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:80">
-      <c r="A38" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="8"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="8"/>
-      <c r="X38" s="8"/>
-      <c r="Y38" s="8"/>
-      <c r="Z38" s="8"/>
-      <c r="AA38" s="8"/>
-      <c r="AB38" s="8"/>
-      <c r="AC38" s="8"/>
-      <c r="AD38" s="8"/>
-      <c r="AE38" s="8"/>
-      <c r="AF38" s="8"/>
-      <c r="AG38" s="8"/>
-      <c r="AH38" s="8"/>
-      <c r="AI38" s="8"/>
-      <c r="AJ38" s="8"/>
-      <c r="AK38" s="8"/>
-      <c r="AL38" s="8"/>
-      <c r="AM38" s="8"/>
-      <c r="AN38" s="8"/>
-      <c r="AO38" s="8"/>
-      <c r="AP38" s="8"/>
-      <c r="AQ38" s="8"/>
-      <c r="AR38" s="8"/>
-      <c r="AS38" s="8"/>
-      <c r="AT38" s="8"/>
-      <c r="AU38" s="8"/>
-      <c r="AV38" s="8"/>
-      <c r="AW38" s="8"/>
-      <c r="AX38" s="8"/>
-      <c r="AY38" s="8"/>
-      <c r="AZ38" s="8"/>
-      <c r="BA38" s="8"/>
-      <c r="BB38" s="8"/>
-      <c r="BC38" s="8"/>
-      <c r="BD38" s="8"/>
-      <c r="BE38" s="8"/>
-      <c r="BF38" s="8"/>
-      <c r="BG38" s="8"/>
-      <c r="BH38" s="8"/>
-      <c r="BI38" s="8"/>
-      <c r="BJ38" s="8"/>
-      <c r="BK38" s="8"/>
-      <c r="BL38" s="8"/>
-      <c r="BM38" s="8"/>
-      <c r="BN38" s="8"/>
-      <c r="BO38" s="8"/>
-      <c r="BP38" s="8"/>
-      <c r="BQ38" s="8"/>
-      <c r="BR38" s="8"/>
-      <c r="BS38" s="8"/>
-      <c r="BT38" s="8"/>
-      <c r="BU38" s="8"/>
-      <c r="BV38" s="8"/>
-      <c r="BW38" s="8"/>
-      <c r="BX38" s="8"/>
-      <c r="BY38" s="8"/>
-      <c r="BZ38" s="8"/>
-      <c r="CA38" s="8"/>
-      <c r="CB38" s="8"/>
-    </row>
-    <row r="39" spans="1:80">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="2">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="2">
+        <v>2</v>
+      </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -2210,12 +2120,12 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:80">
-      <c r="A40" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="9"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -2240,10 +2150,16 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:80">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="2">
+        <v>2</v>
+      </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -2268,10 +2184,16 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:80">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0</v>
+      </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -2296,94 +2218,50 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:80">
-      <c r="A43" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="8"/>
-      <c r="V43" s="8"/>
-      <c r="W43" s="8"/>
-      <c r="X43" s="8"/>
-      <c r="Y43" s="8"/>
-      <c r="Z43" s="8"/>
-      <c r="AA43" s="8"/>
-      <c r="AB43" s="8"/>
-      <c r="AC43" s="8"/>
-      <c r="AD43" s="8"/>
-      <c r="AE43" s="8"/>
-      <c r="AF43" s="8"/>
-      <c r="AG43" s="8"/>
-      <c r="AH43" s="8"/>
-      <c r="AI43" s="8"/>
-      <c r="AJ43" s="8"/>
-      <c r="AK43" s="8"/>
-      <c r="AL43" s="8"/>
-      <c r="AM43" s="8"/>
-      <c r="AN43" s="8"/>
-      <c r="AO43" s="8"/>
-      <c r="AP43" s="8"/>
-      <c r="AQ43" s="8"/>
-      <c r="AR43" s="8"/>
-      <c r="AS43" s="8"/>
-      <c r="AT43" s="8"/>
-      <c r="AU43" s="8"/>
-      <c r="AV43" s="8"/>
-      <c r="AW43" s="8"/>
-      <c r="AX43" s="8"/>
-      <c r="AY43" s="8"/>
-      <c r="AZ43" s="8"/>
-      <c r="BA43" s="8"/>
-      <c r="BB43" s="8"/>
-      <c r="BC43" s="8"/>
-      <c r="BD43" s="8"/>
-      <c r="BE43" s="8"/>
-      <c r="BF43" s="8"/>
-      <c r="BG43" s="8"/>
-      <c r="BH43" s="8"/>
-      <c r="BI43" s="8"/>
-      <c r="BJ43" s="8"/>
-      <c r="BK43" s="8"/>
-      <c r="BL43" s="8"/>
-      <c r="BM43" s="8"/>
-      <c r="BN43" s="8"/>
-      <c r="BO43" s="8"/>
-      <c r="BP43" s="8"/>
-      <c r="BQ43" s="8"/>
-      <c r="BR43" s="8"/>
-      <c r="BS43" s="8"/>
-      <c r="BT43" s="8"/>
-      <c r="BU43" s="8"/>
-      <c r="BV43" s="8"/>
-      <c r="BW43" s="8"/>
-      <c r="BX43" s="8"/>
-      <c r="BY43" s="8"/>
-      <c r="BZ43" s="8"/>
-      <c r="CA43" s="8"/>
-      <c r="CB43" s="8"/>
-    </row>
-    <row r="44" spans="1:80">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0</v>
+      </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -2408,12 +2286,16 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:80">
-      <c r="A45" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0</v>
+      </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -2438,10 +2320,16 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:80">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0</v>
+      </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -2466,10 +2354,16 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:80">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0</v>
+      </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -2494,10 +2388,16 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:80">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0</v>
+      </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -2522,10 +2422,16 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" spans="1:26">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0</v>
+      </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -2550,10 +2456,16 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="1:26">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0</v>
+      </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -2578,10 +2490,16 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" spans="1:26">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0</v>
+      </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -2606,10 +2524,16 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" spans="1:26">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0</v>
+      </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -2634,10 +2558,16 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" spans="1:26">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0</v>
+      </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -2662,10 +2592,16 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" spans="1:26">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0</v>
+      </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -2690,10 +2626,16 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" spans="1:26">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0</v>
+      </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -2718,10 +2660,16 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="1:26">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0</v>
+      </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -2746,10 +2694,16 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" spans="1:26">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0</v>
+      </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -2774,10 +2728,16 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" spans="1:26">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0</v>
+      </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -2802,10 +2762,12 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" spans="1:26">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="8"/>
+      <c r="C59" s="9"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -2830,10 +2792,16 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" spans="1:26">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -2858,10 +2826,16 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" spans="1:26">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" s="2">
+        <v>2</v>
+      </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -2886,10 +2860,16 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" spans="1:26">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" s="2">
+        <v>2</v>
+      </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -2914,10 +2894,16 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" spans="1:26">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="2">
+        <v>4</v>
+      </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -2942,10 +2928,16 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" spans="1:26">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" s="2">
+        <v>25</v>
+      </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -2970,10 +2962,16 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" spans="1:26">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" s="2">
+        <v>4</v>
+      </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -2998,10 +2996,16 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66" spans="1:26">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66" s="2">
+        <v>2</v>
+      </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -3026,10 +3030,16 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" spans="1:26">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" s="2">
+        <v>0</v>
+      </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -3054,10 +3064,16 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" spans="1:26">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0</v>
+      </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -3082,10 +3098,16 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69" spans="1:26">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" s="2">
+        <v>9</v>
+      </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -3110,7 +3132,7 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3138,7 +3160,7 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3166,7 +3188,7 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72" spans="1:26">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3194,7 +3216,7 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3222,7 +3244,7 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3250,7 +3272,7 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3278,7 +3300,7 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" spans="1:26">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3306,7 +3328,7 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77" spans="1:26">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3334,7 +3356,7 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78" spans="1:26">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3362,7 +3384,7 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79" spans="1:26">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3390,7 +3412,7 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80" spans="1:26">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3418,7 +3440,7 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81" spans="1:26">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3446,7 +3468,7 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82" spans="1:26">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3474,7 +3496,7 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
     </row>
-    <row r="83" spans="1:26">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3502,7 +3524,7 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
     </row>
-    <row r="84" spans="1:26">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3530,7 +3552,7 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
     </row>
-    <row r="85" spans="1:26">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3558,7 +3580,7 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
     </row>
-    <row r="86" spans="1:26">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3586,7 +3608,7 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87" spans="1:26">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3614,7 +3636,7 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" spans="1:26">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3642,7 +3664,7 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3670,7 +3692,7 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" spans="1:26">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3698,7 +3720,7 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" spans="1:26">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3726,7 +3748,7 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" spans="1:26">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3754,7 +3776,7 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
     </row>
-    <row r="93" spans="1:26">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3782,236 +3804,41 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" spans="1:26">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
-      <c r="L94" s="1"/>
-      <c r="M94" s="1"/>
-      <c r="N94" s="1"/>
-      <c r="O94" s="1"/>
-      <c r="P94" s="1"/>
-      <c r="Q94" s="1"/>
-      <c r="R94" s="1"/>
-      <c r="S94" s="1"/>
-      <c r="T94" s="1"/>
-      <c r="U94" s="1"/>
-      <c r="V94" s="1"/>
-      <c r="W94" s="1"/>
-      <c r="X94" s="1"/>
-      <c r="Y94" s="1"/>
-      <c r="Z94" s="1"/>
-    </row>
-    <row r="95" spans="1:26">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-      <c r="K95" s="1"/>
-      <c r="L95" s="1"/>
-      <c r="M95" s="1"/>
-      <c r="N95" s="1"/>
-      <c r="O95" s="1"/>
-      <c r="P95" s="1"/>
-      <c r="Q95" s="1"/>
-      <c r="R95" s="1"/>
-      <c r="S95" s="1"/>
-      <c r="T95" s="1"/>
-      <c r="U95" s="1"/>
-      <c r="V95" s="1"/>
-      <c r="W95" s="1"/>
-      <c r="X95" s="1"/>
-      <c r="Y95" s="1"/>
-      <c r="Z95" s="1"/>
-    </row>
-    <row r="96" spans="1:26">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
-      <c r="L96" s="1"/>
-      <c r="M96" s="1"/>
-      <c r="N96" s="1"/>
-      <c r="O96" s="1"/>
-      <c r="P96" s="1"/>
-      <c r="Q96" s="1"/>
-      <c r="R96" s="1"/>
-      <c r="S96" s="1"/>
-      <c r="T96" s="1"/>
-      <c r="U96" s="1"/>
-      <c r="V96" s="1"/>
-      <c r="W96" s="1"/>
-      <c r="X96" s="1"/>
-      <c r="Y96" s="1"/>
-      <c r="Z96" s="1"/>
-    </row>
-    <row r="97" spans="1:26">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
-      <c r="L97" s="1"/>
-      <c r="M97" s="1"/>
-      <c r="N97" s="1"/>
-      <c r="O97" s="1"/>
-      <c r="P97" s="1"/>
-      <c r="Q97" s="1"/>
-      <c r="R97" s="1"/>
-      <c r="S97" s="1"/>
-      <c r="T97" s="1"/>
-      <c r="U97" s="1"/>
-      <c r="V97" s="1"/>
-      <c r="W97" s="1"/>
-      <c r="X97" s="1"/>
-      <c r="Y97" s="1"/>
-      <c r="Z97" s="1"/>
-    </row>
-    <row r="98" spans="1:26">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="1"/>
-      <c r="M98" s="1"/>
-      <c r="N98" s="1"/>
-      <c r="O98" s="1"/>
-      <c r="P98" s="1"/>
-      <c r="Q98" s="1"/>
-      <c r="R98" s="1"/>
-      <c r="S98" s="1"/>
-      <c r="T98" s="1"/>
-      <c r="U98" s="1"/>
-      <c r="V98" s="1"/>
-      <c r="W98" s="1"/>
-      <c r="X98" s="1"/>
-      <c r="Y98" s="1"/>
-      <c r="Z98" s="1"/>
-    </row>
-    <row r="99" spans="1:26">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
-      <c r="L99" s="1"/>
-      <c r="M99" s="1"/>
-      <c r="N99" s="1"/>
-      <c r="O99" s="1"/>
-      <c r="P99" s="1"/>
-      <c r="Q99" s="1"/>
-      <c r="R99" s="1"/>
-      <c r="S99" s="1"/>
-      <c r="T99" s="1"/>
-      <c r="U99" s="1"/>
-      <c r="V99" s="1"/>
-      <c r="W99" s="1"/>
-      <c r="X99" s="1"/>
-      <c r="Y99" s="1"/>
-      <c r="Z99" s="1"/>
-    </row>
-    <row r="100" spans="1:26">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
-      <c r="L100" s="1"/>
-      <c r="M100" s="1"/>
-      <c r="N100" s="1"/>
-      <c r="O100" s="1"/>
-      <c r="P100" s="1"/>
-      <c r="Q100" s="1"/>
-      <c r="R100" s="1"/>
-      <c r="S100" s="1"/>
-      <c r="T100" s="1"/>
-      <c r="U100" s="1"/>
-      <c r="V100" s="1"/>
-      <c r="W100" s="1"/>
-      <c r="X100" s="1"/>
-      <c r="Y100" s="1"/>
-      <c r="Z100" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A16:CB16"/>
-    <mergeCell ref="A38:CB38"/>
-    <mergeCell ref="A43:CB43"/>
+  <mergeCells count="6">
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A40:C40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="102.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -4029,15 +3856,21 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="2">
         <v>2</v>
       </c>
       <c r="D2" s="1"/>
@@ -4057,15 +3890,21 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="2">
         <v>2</v>
       </c>
       <c r="D3" s="1"/>
@@ -4085,13 +3924,23 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -4109,17 +3958,19 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="5">
-        <v>14</v>
-      </c>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -4137,15 +3988,21 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="2">
         <v>2</v>
       </c>
       <c r="D6" s="1"/>
@@ -4165,16 +4022,22 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="5">
-        <v>14</v>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -4193,16 +4056,22 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="5">
-        <v>32</v>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -4221,16 +4090,22 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="5">
-        <v>4</v>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -4249,13 +4124,23 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -4273,17 +4158,19 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="5">
-        <v>2</v>
-      </c>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -4301,15 +4188,21 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="5">
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2">
         <v>2</v>
       </c>
       <c r="D12" s="1"/>
@@ -4329,15 +4222,21 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="5">
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2">
         <v>2</v>
       </c>
       <c r="D13" s="1"/>
@@ -4357,15 +4256,21 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="5">
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2">
         <v>2</v>
       </c>
       <c r="D14" s="1"/>
@@ -4385,15 +4290,21 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="5">
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2">
         <v>2</v>
       </c>
       <c r="D15" s="1"/>
@@ -4413,15 +4324,21 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="5">
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="2">
         <v>2</v>
       </c>
       <c r="D16" s="1"/>
@@ -4441,15 +4358,21 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="5">
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2">
         <v>2</v>
       </c>
       <c r="D17" s="1"/>
@@ -4469,15 +4392,21 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="5">
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="2">
         <v>2</v>
       </c>
       <c r="D18" s="1"/>
@@ -4497,15 +4426,21 @@
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="5">
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="2">
         <v>2</v>
       </c>
       <c r="D19" s="1"/>
@@ -4525,15 +4460,21 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="5">
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="2">
         <v>2</v>
       </c>
       <c r="D20" s="1"/>
@@ -4553,15 +4494,21 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="5">
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="2">
         <v>2</v>
       </c>
       <c r="D21" s="1"/>
@@ -4581,13 +4528,23 @@
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2</v>
+      </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -4605,16 +4562,22 @@
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="5">
-        <v>4</v>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -4633,15 +4596,21 @@
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="5">
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="2">
         <v>2</v>
       </c>
       <c r="D24" s="1"/>
@@ -4661,15 +4630,21 @@
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="5">
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="2">
         <v>2</v>
       </c>
       <c r="D25" s="1"/>
@@ -4689,15 +4664,21 @@
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="5">
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="2">
         <v>2</v>
       </c>
       <c r="D26" s="1"/>
@@ -4717,15 +4698,21 @@
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="5">
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="2">
         <v>2</v>
       </c>
       <c r="D27" s="1"/>
@@ -4745,15 +4732,21 @@
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="5">
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="2">
         <v>2</v>
       </c>
       <c r="D28" s="1"/>
@@ -4773,15 +4766,21 @@
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="5">
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="2">
         <v>2</v>
       </c>
       <c r="D29" s="1"/>
@@ -4801,13 +4800,23 @@
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2</v>
+      </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -4825,15 +4834,21 @@
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="5">
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="2">
         <v>2</v>
       </c>
       <c r="D31" s="1"/>
@@ -4853,15 +4868,21 @@
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="5">
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="2">
         <v>2</v>
       </c>
       <c r="D32" s="1"/>
@@ -4881,16 +4902,22 @@
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="5">
-        <v>1</v>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -4909,15 +4936,21 @@
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="5">
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="2">
         <v>2</v>
       </c>
       <c r="D34" s="1"/>
@@ -4937,15 +4970,21 @@
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="5">
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="2">
         <v>2</v>
       </c>
       <c r="D35" s="1"/>
@@ -4965,15 +5004,21 @@
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C36" s="5">
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="2">
         <v>2</v>
       </c>
       <c r="D36" s="1"/>
@@ -4993,16 +5038,22 @@
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C37" s="5">
-        <v>12</v>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="2">
+        <v>2</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -5021,15 +5072,21 @@
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
-    </row>
-    <row r="38" spans="1:20">
-      <c r="A38" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38" s="5">
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="2">
         <v>2</v>
       </c>
       <c r="D38" s="1"/>
@@ -5049,16 +5106,22 @@
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
-    </row>
-    <row r="39" spans="1:20">
-      <c r="A39" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="5">
-        <v>1</v>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="2">
+        <v>2</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -5077,16 +5140,22 @@
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
-    </row>
-    <row r="40" spans="1:20">
-      <c r="A40" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C40" s="5">
-        <v>12</v>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="2">
+        <v>2</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -5105,15 +5174,21 @@
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
-    </row>
-    <row r="41" spans="1:20">
-      <c r="A41" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41" s="6" t="s">
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C41" s="5">
+      <c r="B41" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="2">
         <v>2</v>
       </c>
       <c r="D41" s="1"/>
@@ -5133,17 +5208,19 @@
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
-    </row>
-    <row r="42" spans="1:20">
-      <c r="A42" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" s="5">
-        <v>2</v>
-      </c>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="9"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -5161,15 +5238,21 @@
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
-    </row>
-    <row r="43" spans="1:20">
-      <c r="A43" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" s="5">
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="2">
         <v>2</v>
       </c>
       <c r="D43" s="1"/>
@@ -5189,15 +5272,21 @@
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
-    </row>
-    <row r="44" spans="1:20">
-      <c r="A44" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C44" s="5">
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="2">
         <v>2</v>
       </c>
       <c r="D44" s="1"/>
@@ -5217,16 +5306,22 @@
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
-    </row>
-    <row r="45" spans="1:20">
-      <c r="A45" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B45" s="6" t="s">
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="5">
-        <v>2</v>
+      <c r="C45" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -5245,15 +5340,21 @@
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
-    </row>
-    <row r="46" spans="1:20">
-      <c r="A46" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C46" s="5">
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="2">
         <v>2</v>
       </c>
       <c r="D46" s="1"/>
@@ -5273,13 +5374,23 @@
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
-    </row>
-    <row r="47" spans="1:20">
-      <c r="A47" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="14"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="2">
+        <v>2</v>
+      </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -5297,16 +5408,22 @@
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
-    </row>
-    <row r="48" spans="1:20">
-      <c r="A48" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>11</v>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="2">
+        <v>2</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -5325,17 +5442,19 @@
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
-    </row>
-    <row r="49" spans="1:20">
-      <c r="A49" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C49" s="5">
-        <v>2</v>
-      </c>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="9"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -5353,16 +5472,22 @@
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
-    </row>
-    <row r="50" spans="1:20">
-      <c r="A50" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B50" s="6" t="s">
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C50" s="5">
-        <v>2</v>
+      <c r="C50" s="2">
+        <v>0</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -5381,16 +5506,22 @@
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
-    </row>
-    <row r="51" spans="1:20">
-      <c r="A51" s="5" t="s">
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1"/>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C51" s="5">
-        <v>4</v>
+      <c r="C51" s="2">
+        <v>2</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -5409,16 +5540,22 @@
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
-    </row>
-    <row r="52" spans="1:20">
-      <c r="A52" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C52" s="5">
-        <v>12</v>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="2">
+        <v>2</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -5437,16 +5574,22 @@
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
-    </row>
-    <row r="53" spans="1:20">
-      <c r="A53" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C53" s="5">
-        <v>4</v>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="2">
+        <v>2</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -5465,16 +5608,22 @@
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
-    </row>
-    <row r="54" spans="1:20">
-      <c r="A54" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C54" s="5">
-        <v>4</v>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1"/>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" s="2">
+        <v>2</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -5493,15 +5642,21 @@
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
-    </row>
-    <row r="55" spans="1:20">
-      <c r="A55" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C55" s="5">
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="1"/>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" s="2">
         <v>2</v>
       </c>
       <c r="D55" s="1"/>
@@ -5521,15 +5676,21 @@
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
-    </row>
-    <row r="56" spans="1:20">
-      <c r="A56" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C56" s="5">
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="1"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" s="2">
         <v>2</v>
       </c>
       <c r="D56" s="1"/>
@@ -5549,16 +5710,22 @@
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
-    </row>
-    <row r="57" spans="1:20">
-      <c r="A57" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C57" s="5">
-        <v>4</v>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="1"/>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" s="2">
+        <v>2</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -5577,15 +5744,21 @@
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
-    </row>
-    <row r="58" spans="1:20">
-      <c r="A58" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C58" s="5">
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="1"/>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C58" s="2">
         <v>2</v>
       </c>
       <c r="D58" s="1"/>
@@ -5605,16 +5778,22 @@
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
-    </row>
-    <row r="59" spans="1:20">
-      <c r="A59" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C59" s="5">
-        <v>15</v>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1"/>
+      <c r="Z58" s="1"/>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C59" s="2">
+        <v>2</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -5633,11 +5812,23 @@
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
-    </row>
-    <row r="60" spans="1:20">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="1"/>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C60" s="2">
+        <v>2</v>
+      </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -5655,11 +5846,23 @@
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
-    </row>
-    <row r="61" spans="1:20">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="1"/>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" s="2">
+        <v>2</v>
+      </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -5677,11 +5880,23 @@
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
-    </row>
-    <row r="62" spans="1:20">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+      <c r="Y61" s="1"/>
+      <c r="Z61" s="1"/>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C62" s="2">
+        <v>2</v>
+      </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -5699,11 +5914,23 @@
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
-    </row>
-    <row r="63" spans="1:20">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
+      <c r="Y62" s="1"/>
+      <c r="Z62" s="1"/>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C63" s="2">
+        <v>2</v>
+      </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -5721,11 +5948,23 @@
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
-    </row>
-    <row r="64" spans="1:20">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
+      <c r="Y63" s="1"/>
+      <c r="Z63" s="1"/>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C64" s="2">
+        <v>2</v>
+      </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -5743,11 +5982,23 @@
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
-    </row>
-    <row r="65" spans="1:20">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
+      <c r="Y64" s="1"/>
+      <c r="Z64" s="1"/>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65" s="2">
+        <v>2</v>
+      </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -5765,11 +6016,23 @@
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
-    </row>
-    <row r="66" spans="1:20">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
+      <c r="Y65" s="1"/>
+      <c r="Z65" s="1"/>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C66" s="2">
+        <v>2</v>
+      </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -5787,11 +6050,23 @@
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
-    </row>
-    <row r="67" spans="1:20">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+      <c r="X66" s="1"/>
+      <c r="Y66" s="1"/>
+      <c r="Z66" s="1"/>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C67" s="2">
+        <v>2</v>
+      </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -5809,11 +6084,19 @@
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
-    </row>
-    <row r="68" spans="1:20">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="1"/>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B68" s="8"/>
+      <c r="C68" s="9"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -5831,11 +6114,23 @@
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
-    </row>
-    <row r="69" spans="1:20">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1"/>
+      <c r="Z68" s="1"/>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C69" s="2">
+        <v>1</v>
+      </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -5853,11 +6148,23 @@
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
-    </row>
-    <row r="70" spans="1:20">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="1"/>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C70" s="2">
+        <v>4</v>
+      </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -5875,11 +6182,23 @@
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
-    </row>
-    <row r="71" spans="1:20">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
+      <c r="Y70" s="1"/>
+      <c r="Z70" s="1"/>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C71" s="2">
+        <v>2</v>
+      </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -5897,11 +6216,23 @@
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
-    </row>
-    <row r="72" spans="1:20">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
+      <c r="Y71" s="1"/>
+      <c r="Z71" s="1"/>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C72" s="2">
+        <v>2</v>
+      </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -5919,11 +6250,23 @@
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
-    </row>
-    <row r="73" spans="1:20">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="1"/>
+      <c r="W72" s="1"/>
+      <c r="X72" s="1"/>
+      <c r="Y72" s="1"/>
+      <c r="Z72" s="1"/>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C73" s="2">
+        <v>4</v>
+      </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -5941,11 +6284,23 @@
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
-    </row>
-    <row r="74" spans="1:20">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
+      <c r="U73" s="1"/>
+      <c r="V73" s="1"/>
+      <c r="W73" s="1"/>
+      <c r="X73" s="1"/>
+      <c r="Y73" s="1"/>
+      <c r="Z73" s="1"/>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C74" s="2">
+        <v>2</v>
+      </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -5963,11 +6318,23 @@
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
-    </row>
-    <row r="75" spans="1:20">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
+      <c r="U74" s="1"/>
+      <c r="V74" s="1"/>
+      <c r="W74" s="1"/>
+      <c r="X74" s="1"/>
+      <c r="Y74" s="1"/>
+      <c r="Z74" s="1"/>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C75" s="2">
+        <v>2</v>
+      </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -5985,11 +6352,23 @@
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
-    </row>
-    <row r="76" spans="1:20">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
+      <c r="U75" s="1"/>
+      <c r="V75" s="1"/>
+      <c r="W75" s="1"/>
+      <c r="X75" s="1"/>
+      <c r="Y75" s="1"/>
+      <c r="Z75" s="1"/>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C76" s="2">
+        <v>25</v>
+      </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -6007,11 +6386,23 @@
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
-    </row>
-    <row r="77" spans="1:20">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="1"/>
+      <c r="W76" s="1"/>
+      <c r="X76" s="1"/>
+      <c r="Y76" s="1"/>
+      <c r="Z76" s="1"/>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C77" s="2">
+        <v>4</v>
+      </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -6029,11 +6420,23 @@
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
-    </row>
-    <row r="78" spans="1:20">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
+      <c r="U77" s="1"/>
+      <c r="V77" s="1"/>
+      <c r="W77" s="1"/>
+      <c r="X77" s="1"/>
+      <c r="Y77" s="1"/>
+      <c r="Z77" s="1"/>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C78" s="2">
+        <v>4</v>
+      </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -6051,11 +6454,23 @@
       <c r="R78" s="1"/>
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
-    </row>
-    <row r="79" spans="1:20">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+      <c r="X78" s="1"/>
+      <c r="Y78" s="1"/>
+      <c r="Z78" s="1"/>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C79" s="2">
+        <v>2</v>
+      </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -6073,11 +6488,23 @@
       <c r="R79" s="1"/>
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
-    </row>
-    <row r="80" spans="1:20">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="1"/>
+      <c r="W79" s="1"/>
+      <c r="X79" s="1"/>
+      <c r="Y79" s="1"/>
+      <c r="Z79" s="1"/>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C80" s="2">
+        <v>2</v>
+      </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -6095,11 +6522,23 @@
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
-    </row>
-    <row r="81" spans="1:20">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
+      <c r="W80" s="1"/>
+      <c r="X80" s="1"/>
+      <c r="Y80" s="1"/>
+      <c r="Z80" s="1"/>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C81" s="2">
+        <v>0</v>
+      </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -6117,11 +6556,23 @@
       <c r="R81" s="1"/>
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
-    </row>
-    <row r="82" spans="1:20">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
+      <c r="U81" s="1"/>
+      <c r="V81" s="1"/>
+      <c r="W81" s="1"/>
+      <c r="X81" s="1"/>
+      <c r="Y81" s="1"/>
+      <c r="Z81" s="1"/>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C82" s="2">
+        <v>0</v>
+      </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -6139,15 +6590,335 @@
       <c r="R82" s="1"/>
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="1"/>
+      <c r="W82" s="1"/>
+      <c r="X82" s="1"/>
+      <c r="Y82" s="1"/>
+      <c r="Z82" s="1"/>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C83" s="2">
+        <v>9</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="1"/>
+      <c r="W83" s="1"/>
+      <c r="X83" s="1"/>
+      <c r="Y83" s="1"/>
+      <c r="Z83" s="1"/>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
+      <c r="U84" s="1"/>
+      <c r="V84" s="1"/>
+      <c r="W84" s="1"/>
+      <c r="X84" s="1"/>
+      <c r="Y84" s="1"/>
+      <c r="Z84" s="1"/>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="T85" s="1"/>
+      <c r="U85" s="1"/>
+      <c r="V85" s="1"/>
+      <c r="W85" s="1"/>
+      <c r="X85" s="1"/>
+      <c r="Y85" s="1"/>
+      <c r="Z85" s="1"/>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
+      <c r="W86" s="1"/>
+      <c r="X86" s="1"/>
+      <c r="Y86" s="1"/>
+      <c r="Z86" s="1"/>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
+      <c r="W87" s="1"/>
+      <c r="X87" s="1"/>
+      <c r="Y87" s="1"/>
+      <c r="Z87" s="1"/>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="1"/>
+      <c r="W88" s="1"/>
+      <c r="X88" s="1"/>
+      <c r="Y88" s="1"/>
+      <c r="Z88" s="1"/>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
+      <c r="V89" s="1"/>
+      <c r="W89" s="1"/>
+      <c r="X89" s="1"/>
+      <c r="Y89" s="1"/>
+      <c r="Z89" s="1"/>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="1"/>
+      <c r="W90" s="1"/>
+      <c r="X90" s="1"/>
+      <c r="Y90" s="1"/>
+      <c r="Z90" s="1"/>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+      <c r="V91" s="1"/>
+      <c r="W91" s="1"/>
+      <c r="X91" s="1"/>
+      <c r="Y91" s="1"/>
+      <c r="Z91" s="1"/>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="T92" s="1"/>
+      <c r="U92" s="1"/>
+      <c r="V92" s="1"/>
+      <c r="W92" s="1"/>
+      <c r="X92" s="1"/>
+      <c r="Y92" s="1"/>
+      <c r="Z92" s="1"/>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
+      <c r="U93" s="1"/>
+      <c r="V93" s="1"/>
+      <c r="W93" s="1"/>
+      <c r="X93" s="1"/>
+      <c r="Y93" s="1"/>
+      <c r="Z93" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A68:C68"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A49:C49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="product_mater" sheetId="4" r:id="rId1"/>
     <sheet name="VM Working" sheetId="3" r:id="rId2"/>
-    <sheet name="BOM DC" sheetId="1" r:id="rId3"/>
+    <sheet name="PhasesDetails" sheetId="5" r:id="rId3"/>
+    <sheet name="BOM DC" sheetId="1" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="Group_Qty">'[1]eNlight Instance'!#REF!</definedName>
+    <definedName name="PhaseList">Phases[Phases]</definedName>
     <definedName name="product_id">product_mater!#REF!</definedName>
     <definedName name="product_name">'[1]eNlight Instance'!#REF!+product_mater!$A:$A</definedName>
     <definedName name="product_names">product_mater!$A:$A</definedName>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8117" uniqueCount="7745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8118" uniqueCount="7747">
   <si>
     <t>core_product_name</t>
   </si>
@@ -23186,9 +23188,6 @@
     <t xml:space="preserve">HOSt Name </t>
   </si>
   <si>
-    <t xml:space="preserve">VM Details </t>
-  </si>
-  <si>
     <t>8-12 Months</t>
   </si>
   <si>
@@ -23265,13 +23264,22 @@
   </si>
   <si>
     <t>Ms</t>
+  </si>
+  <si>
+    <t>Phases</t>
+  </si>
+  <si>
+    <t>Tenure</t>
+  </si>
+  <si>
+    <t>VM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23291,8 +23299,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -23329,18 +23364,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -23390,9 +23449,20 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -23402,36 +23472,15 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -23447,9 +23496,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -23458,11 +23505,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -23482,42 +23540,153 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -23551,6 +23720,17 @@
   <tableColumns count="2">
     <tableColumn id="1" name="core_product_name"/>
     <tableColumn id="2" name="skucode"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Phases" displayName="Phases" ref="A1:B15" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" tableBorderDxfId="3" totalsRowBorderDxfId="1">
+  <autoFilter ref="A1:B15"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Phases" dataDxfId="5"/>
+    <tableColumn id="2" name="Tenure" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -24333,21 +24513,21 @@
       <c r="B58" t="s">
         <v>127</v>
       </c>
-      <c r="G58" s="14" t="s">
+      <c r="G58" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
-      <c r="L58" s="15"/>
-      <c r="M58" s="15"/>
-      <c r="N58" s="15"/>
-      <c r="O58" s="15"/>
-      <c r="P58" s="15"/>
-      <c r="Q58" s="15"/>
-      <c r="R58" s="15"/>
-      <c r="S58" s="15"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="11"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
@@ -24591,21 +24771,21 @@
       <c r="B64" t="s">
         <v>146</v>
       </c>
-      <c r="G64" s="14" t="s">
+      <c r="G64" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="15"/>
-      <c r="L64" s="15"/>
-      <c r="M64" s="15"/>
-      <c r="N64" s="15"/>
-      <c r="O64" s="15"/>
-      <c r="P64" s="15"/>
-      <c r="Q64" s="15"/>
-      <c r="R64" s="15"/>
-      <c r="S64" s="15"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="11"/>
+      <c r="S64" s="11"/>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -26024,21 +26204,21 @@
       <c r="B95" t="s">
         <v>243</v>
       </c>
-      <c r="G95" s="14" t="s">
+      <c r="G95" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="15"/>
-      <c r="K95" s="15"/>
-      <c r="L95" s="15"/>
-      <c r="M95" s="15"/>
-      <c r="N95" s="15"/>
-      <c r="O95" s="15"/>
-      <c r="P95" s="15"/>
-      <c r="Q95" s="15"/>
-      <c r="R95" s="15"/>
-      <c r="S95" s="15"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
+      <c r="J95" s="11"/>
+      <c r="K95" s="11"/>
+      <c r="L95" s="11"/>
+      <c r="M95" s="11"/>
+      <c r="N95" s="11"/>
+      <c r="O95" s="11"/>
+      <c r="P95" s="11"/>
+      <c r="Q95" s="11"/>
+      <c r="R95" s="11"/>
+      <c r="S95" s="11"/>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
@@ -26329,21 +26509,21 @@
       <c r="B102" t="s">
         <v>265</v>
       </c>
-      <c r="G102" s="14" t="s">
+      <c r="G102" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="15"/>
-      <c r="K102" s="15"/>
-      <c r="L102" s="15"/>
-      <c r="M102" s="15"/>
-      <c r="N102" s="15"/>
-      <c r="O102" s="15"/>
-      <c r="P102" s="15"/>
-      <c r="Q102" s="15"/>
-      <c r="R102" s="15"/>
-      <c r="S102" s="15"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="11"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="11"/>
+      <c r="L102" s="11"/>
+      <c r="M102" s="11"/>
+      <c r="N102" s="11"/>
+      <c r="O102" s="11"/>
+      <c r="P102" s="11"/>
+      <c r="Q102" s="11"/>
+      <c r="R102" s="11"/>
+      <c r="S102" s="11"/>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
@@ -27198,21 +27378,21 @@
       <c r="B121" t="s">
         <v>322</v>
       </c>
-      <c r="G121" s="14" t="s">
+      <c r="G121" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="15"/>
-      <c r="K121" s="15"/>
-      <c r="L121" s="15"/>
-      <c r="M121" s="15"/>
-      <c r="N121" s="15"/>
-      <c r="O121" s="15"/>
-      <c r="P121" s="15"/>
-      <c r="Q121" s="15"/>
-      <c r="R121" s="15"/>
-      <c r="S121" s="15"/>
+      <c r="H121" s="11"/>
+      <c r="I121" s="11"/>
+      <c r="J121" s="11"/>
+      <c r="K121" s="11"/>
+      <c r="L121" s="11"/>
+      <c r="M121" s="11"/>
+      <c r="N121" s="11"/>
+      <c r="O121" s="11"/>
+      <c r="P121" s="11"/>
+      <c r="Q121" s="11"/>
+      <c r="R121" s="11"/>
+      <c r="S121" s="11"/>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
@@ -57578,297 +57758,389 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BG13"/>
+  <dimension ref="A1:BG16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>7718</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="16" t="s">
-        <v>7722</v>
-      </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16" t="s">
-        <v>7719</v>
-      </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16" t="s">
-        <v>7720</v>
-      </c>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16" t="s">
-        <v>7721</v>
-      </c>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16" t="s">
-        <v>7723</v>
-      </c>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16" t="s">
-        <v>7724</v>
-      </c>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16" t="s">
-        <v>7725</v>
-      </c>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="16" t="s">
-        <v>7726</v>
-      </c>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="16"/>
-      <c r="AN1" s="16" t="s">
-        <v>7727</v>
-      </c>
-      <c r="AO1" s="16"/>
-      <c r="AP1" s="16"/>
-      <c r="AQ1" s="16"/>
-      <c r="AR1" s="16" t="s">
-        <v>7728</v>
-      </c>
-      <c r="AS1" s="16"/>
-      <c r="AT1" s="16"/>
-      <c r="AU1" s="16"/>
-      <c r="AV1" s="16" t="s">
-        <v>7729</v>
-      </c>
-      <c r="AW1" s="16"/>
-      <c r="AX1" s="16"/>
-      <c r="AY1" s="16"/>
-      <c r="AZ1" s="16" t="s">
-        <v>7730</v>
-      </c>
-      <c r="BA1" s="16"/>
-      <c r="BB1" s="16"/>
-      <c r="BC1" s="16"/>
-      <c r="BD1" s="16" t="s">
+    <row r="1" spans="1:59" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>7717</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>7715</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>7716</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>7746</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>7712</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>7713</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>7714</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7711</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>7712</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>7713</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>7714</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>7711</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>7712</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>7713</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>7714</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>7711</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>7712</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>7713</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>7714</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>7711</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>7712</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>7713</v>
+      </c>
+      <c r="W1" s="15" t="s">
+        <v>7714</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>7711</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>7712</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>7713</v>
+      </c>
+      <c r="AA1" s="15" t="s">
+        <v>7714</v>
+      </c>
+      <c r="AB1" s="12" t="s">
+        <v>7711</v>
+      </c>
+      <c r="AC1" s="14" t="s">
+        <v>7712</v>
+      </c>
+      <c r="AD1" s="13" t="s">
+        <v>7713</v>
+      </c>
+      <c r="AE1" s="15" t="s">
+        <v>7714</v>
+      </c>
+      <c r="AF1" s="12" t="s">
+        <v>7711</v>
+      </c>
+      <c r="AG1" s="14" t="s">
+        <v>7712</v>
+      </c>
+      <c r="AH1" s="13" t="s">
+        <v>7713</v>
+      </c>
+      <c r="AI1" s="15" t="s">
+        <v>7714</v>
+      </c>
+      <c r="AJ1" s="12" t="s">
+        <v>7711</v>
+      </c>
+      <c r="AK1" s="14" t="s">
+        <v>7712</v>
+      </c>
+      <c r="AL1" s="13" t="s">
+        <v>7713</v>
+      </c>
+      <c r="AM1" s="15" t="s">
+        <v>7714</v>
+      </c>
+      <c r="AN1" s="12" t="s">
+        <v>7711</v>
+      </c>
+      <c r="AO1" s="14" t="s">
+        <v>7712</v>
+      </c>
+      <c r="AP1" s="13" t="s">
+        <v>7713</v>
+      </c>
+      <c r="AQ1" s="15" t="s">
+        <v>7714</v>
+      </c>
+      <c r="AR1" s="12" t="s">
+        <v>7711</v>
+      </c>
+      <c r="AS1" s="14" t="s">
+        <v>7712</v>
+      </c>
+      <c r="AT1" s="13" t="s">
+        <v>7713</v>
+      </c>
+      <c r="AU1" s="15" t="s">
+        <v>7714</v>
+      </c>
+      <c r="AV1" s="12" t="s">
+        <v>7711</v>
+      </c>
+      <c r="AW1" s="14" t="s">
+        <v>7712</v>
+      </c>
+      <c r="AX1" s="13" t="s">
+        <v>7713</v>
+      </c>
+      <c r="AY1" s="15" t="s">
+        <v>7714</v>
+      </c>
+      <c r="AZ1" s="12" t="s">
+        <v>7711</v>
+      </c>
+      <c r="BA1" s="14" t="s">
+        <v>7712</v>
+      </c>
+      <c r="BB1" s="13" t="s">
+        <v>7713</v>
+      </c>
+      <c r="BC1" s="15" t="s">
+        <v>7714</v>
+      </c>
+      <c r="BD1" s="12" t="s">
+        <v>7711</v>
+      </c>
+      <c r="BE1" s="14" t="s">
+        <v>7712</v>
+      </c>
+      <c r="BF1" s="13" t="s">
+        <v>7713</v>
+      </c>
+      <c r="BG1" s="15" t="s">
+        <v>7714</v>
+      </c>
+    </row>
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>7732</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>7731</v>
       </c>
-      <c r="BE1" s="16"/>
-      <c r="BF1" s="16"/>
-      <c r="BG1" s="17"/>
-    </row>
-    <row r="2" spans="1:59" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>7715</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>7716</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>7717</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>7711</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>7712</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>7713</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>7714</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>7711</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>7712</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>7713</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>7714</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>7711</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>7712</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>7713</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>7714</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>7711</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>7712</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>7713</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>7714</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>7711</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>7712</v>
-      </c>
-      <c r="V2" s="10" t="s">
-        <v>7713</v>
-      </c>
-      <c r="W2" s="10" t="s">
-        <v>7714</v>
-      </c>
-      <c r="X2" s="9" t="s">
-        <v>7711</v>
-      </c>
-      <c r="Y2" s="10" t="s">
-        <v>7712</v>
-      </c>
-      <c r="Z2" s="10" t="s">
-        <v>7713</v>
-      </c>
-      <c r="AA2" s="10" t="s">
-        <v>7714</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>7711</v>
-      </c>
-      <c r="AC2" s="10" t="s">
-        <v>7712</v>
-      </c>
-      <c r="AD2" s="10" t="s">
-        <v>7713</v>
-      </c>
-      <c r="AE2" s="10" t="s">
-        <v>7714</v>
-      </c>
-      <c r="AF2" s="9" t="s">
-        <v>7711</v>
-      </c>
-      <c r="AG2" s="10" t="s">
-        <v>7712</v>
-      </c>
-      <c r="AH2" s="10" t="s">
-        <v>7713</v>
-      </c>
-      <c r="AI2" s="10" t="s">
-        <v>7714</v>
-      </c>
-      <c r="AJ2" s="9" t="s">
-        <v>7711</v>
-      </c>
-      <c r="AK2" s="10" t="s">
-        <v>7712</v>
-      </c>
-      <c r="AL2" s="10" t="s">
-        <v>7713</v>
-      </c>
-      <c r="AM2" s="10" t="s">
-        <v>7714</v>
-      </c>
-      <c r="AN2" s="9" t="s">
-        <v>7711</v>
-      </c>
-      <c r="AO2" s="10" t="s">
-        <v>7712</v>
-      </c>
-      <c r="AP2" s="10" t="s">
-        <v>7713</v>
-      </c>
-      <c r="AQ2" s="10" t="s">
-        <v>7714</v>
-      </c>
-      <c r="AR2" s="9" t="s">
-        <v>7711</v>
-      </c>
-      <c r="AS2" s="10" t="s">
-        <v>7712</v>
-      </c>
-      <c r="AT2" s="10" t="s">
-        <v>7713</v>
-      </c>
-      <c r="AU2" s="10" t="s">
-        <v>7714</v>
-      </c>
-      <c r="AV2" s="9" t="s">
-        <v>7711</v>
-      </c>
-      <c r="AW2" s="10" t="s">
-        <v>7712</v>
-      </c>
-      <c r="AX2" s="10" t="s">
-        <v>7713</v>
-      </c>
-      <c r="AY2" s="10" t="s">
-        <v>7714</v>
-      </c>
-      <c r="AZ2" s="9" t="s">
-        <v>7711</v>
-      </c>
-      <c r="BA2" s="10" t="s">
-        <v>7712</v>
-      </c>
-      <c r="BB2" s="10" t="s">
-        <v>7713</v>
-      </c>
-      <c r="BC2" s="10" t="s">
-        <v>7714</v>
-      </c>
-      <c r="BD2" s="9" t="s">
-        <v>7711</v>
-      </c>
-      <c r="BE2" s="10" t="s">
-        <v>7712</v>
-      </c>
-      <c r="BF2" s="10" t="s">
-        <v>7713</v>
-      </c>
-      <c r="BG2" s="12" t="s">
-        <v>7714</v>
+      <c r="C2" s="7" t="s">
+        <v>7743</v>
+      </c>
+      <c r="D2" s="7">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7">
+        <v>4</v>
+      </c>
+      <c r="F2" s="7">
+        <v>8</v>
+      </c>
+      <c r="G2" s="7">
+        <v>200</v>
+      </c>
+      <c r="H2" s="7">
+        <v>4</v>
+      </c>
+      <c r="I2" s="7">
+        <v>4</v>
+      </c>
+      <c r="J2" s="7">
+        <v>8</v>
+      </c>
+      <c r="K2" s="7">
+        <v>200</v>
+      </c>
+      <c r="L2" s="7">
+        <v>4</v>
+      </c>
+      <c r="M2" s="7">
+        <v>4</v>
+      </c>
+      <c r="N2" s="7">
+        <v>8</v>
+      </c>
+      <c r="O2" s="7">
+        <v>200</v>
+      </c>
+      <c r="P2" s="7">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>4</v>
+      </c>
+      <c r="R2" s="7">
+        <v>8</v>
+      </c>
+      <c r="S2" s="7">
+        <v>200</v>
+      </c>
+      <c r="T2" s="7">
+        <v>4</v>
+      </c>
+      <c r="U2" s="7">
+        <v>4</v>
+      </c>
+      <c r="V2" s="7">
+        <v>8</v>
+      </c>
+      <c r="W2" s="7">
+        <v>200</v>
+      </c>
+      <c r="X2" s="7">
+        <v>4</v>
+      </c>
+      <c r="Y2" s="7">
+        <v>4</v>
+      </c>
+      <c r="Z2" s="7">
+        <v>8</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>200</v>
+      </c>
+      <c r="AB2" s="7">
+        <v>4</v>
+      </c>
+      <c r="AC2" s="7">
+        <v>4</v>
+      </c>
+      <c r="AD2" s="7">
+        <v>8</v>
+      </c>
+      <c r="AE2" s="7">
+        <v>200</v>
+      </c>
+      <c r="AF2" s="7">
+        <v>4</v>
+      </c>
+      <c r="AG2" s="7">
+        <v>4</v>
+      </c>
+      <c r="AH2" s="7">
+        <v>8</v>
+      </c>
+      <c r="AI2" s="7">
+        <v>200</v>
+      </c>
+      <c r="AJ2" s="7">
+        <v>4</v>
+      </c>
+      <c r="AK2" s="7">
+        <v>4</v>
+      </c>
+      <c r="AL2" s="7">
+        <v>8</v>
+      </c>
+      <c r="AM2" s="7">
+        <v>200</v>
+      </c>
+      <c r="AN2" s="7">
+        <v>4</v>
+      </c>
+      <c r="AO2" s="7">
+        <v>4</v>
+      </c>
+      <c r="AP2" s="7">
+        <v>8</v>
+      </c>
+      <c r="AQ2" s="7">
+        <v>200</v>
+      </c>
+      <c r="AR2" s="7">
+        <v>4</v>
+      </c>
+      <c r="AS2" s="7">
+        <v>4</v>
+      </c>
+      <c r="AT2" s="7">
+        <v>8</v>
+      </c>
+      <c r="AU2" s="7">
+        <v>200</v>
+      </c>
+      <c r="AV2" s="7">
+        <v>4</v>
+      </c>
+      <c r="AW2" s="7">
+        <v>4</v>
+      </c>
+      <c r="AX2" s="7">
+        <v>8</v>
+      </c>
+      <c r="AY2" s="7">
+        <v>200</v>
+      </c>
+      <c r="AZ2" s="7">
+        <v>4</v>
+      </c>
+      <c r="BA2" s="7">
+        <v>4</v>
+      </c>
+      <c r="BB2" s="7">
+        <v>8</v>
+      </c>
+      <c r="BC2" s="7">
+        <v>200</v>
+      </c>
+      <c r="BD2" s="7">
+        <v>4</v>
+      </c>
+      <c r="BE2" s="7">
+        <v>4</v>
+      </c>
+      <c r="BF2" s="7">
+        <v>8</v>
+      </c>
+      <c r="BG2" s="7">
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>7732</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>7744</v>
+      <c r="A3" s="7" t="s">
+        <v>7733</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>7731</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>7733</v>
+        <v>7743</v>
       </c>
       <c r="D3" s="7">
         <v>4</v>
@@ -58040,14 +58312,14 @@
       </c>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>7732</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>7744</v>
+      <c r="A4" s="7" t="s">
+        <v>7734</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>7731</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>7734</v>
+        <v>7743</v>
       </c>
       <c r="D4" s="7">
         <v>4</v>
@@ -58219,14 +58491,14 @@
       </c>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>7732</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>7744</v>
+      <c r="A5" s="7" t="s">
+        <v>7735</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>7731</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>7735</v>
+        <v>7743</v>
       </c>
       <c r="D5" s="7">
         <v>4</v>
@@ -58398,14 +58670,14 @@
       </c>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>7732</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>7744</v>
+      <c r="A6" s="7" t="s">
+        <v>7736</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>7731</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>7736</v>
+        <v>7743</v>
       </c>
       <c r="D6" s="7">
         <v>4</v>
@@ -58577,14 +58849,14 @@
       </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>7732</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>7744</v>
+      <c r="A7" s="7" t="s">
+        <v>7737</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>7731</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>7737</v>
+        <v>7743</v>
       </c>
       <c r="D7" s="7">
         <v>4</v>
@@ -58756,14 +59028,14 @@
       </c>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>7732</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>7744</v>
+      <c r="A8" s="7" t="s">
+        <v>7738</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>7731</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>7738</v>
+        <v>7743</v>
       </c>
       <c r="D8" s="7">
         <v>4</v>
@@ -58935,14 +59207,14 @@
       </c>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>7732</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>7744</v>
+      <c r="A9" s="7" t="s">
+        <v>7739</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>7731</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>7739</v>
+        <v>7743</v>
       </c>
       <c r="D9" s="7">
         <v>4</v>
@@ -59114,14 +59386,14 @@
       </c>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>7732</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>7744</v>
+      <c r="A10" s="7" t="s">
+        <v>7740</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>7731</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>7740</v>
+        <v>7743</v>
       </c>
       <c r="D10" s="7">
         <v>4</v>
@@ -59293,14 +59565,14 @@
       </c>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>7732</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>7744</v>
+      <c r="A11" s="7" t="s">
+        <v>7741</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>7731</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>7741</v>
+        <v>7743</v>
       </c>
       <c r="D11" s="7">
         <v>4</v>
@@ -59472,14 +59744,14 @@
       </c>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>7732</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>7744</v>
+      <c r="A12" s="7" t="s">
+        <v>7742</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>7731</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>7742</v>
+        <v>7743</v>
       </c>
       <c r="D12" s="7">
         <v>4</v>
@@ -59650,218 +59922,176 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>7732</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>7744</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>7743</v>
-      </c>
-      <c r="D13" s="7">
-        <v>4</v>
-      </c>
-      <c r="E13" s="7">
-        <v>4</v>
-      </c>
-      <c r="F13" s="7">
-        <v>8</v>
-      </c>
-      <c r="G13" s="7">
-        <v>200</v>
-      </c>
-      <c r="H13" s="7">
-        <v>4</v>
-      </c>
-      <c r="I13" s="7">
-        <v>4</v>
-      </c>
-      <c r="J13" s="7">
-        <v>8</v>
-      </c>
-      <c r="K13" s="7">
-        <v>200</v>
-      </c>
-      <c r="L13" s="7">
-        <v>4</v>
-      </c>
-      <c r="M13" s="7">
-        <v>4</v>
-      </c>
-      <c r="N13" s="7">
-        <v>8</v>
-      </c>
-      <c r="O13" s="7">
-        <v>200</v>
-      </c>
-      <c r="P13" s="7">
-        <v>4</v>
-      </c>
-      <c r="Q13" s="7">
-        <v>4</v>
-      </c>
-      <c r="R13" s="7">
-        <v>8</v>
-      </c>
-      <c r="S13" s="7">
-        <v>200</v>
-      </c>
-      <c r="T13" s="7">
-        <v>4</v>
-      </c>
-      <c r="U13" s="7">
-        <v>4</v>
-      </c>
-      <c r="V13" s="7">
-        <v>8</v>
-      </c>
-      <c r="W13" s="7">
-        <v>200</v>
-      </c>
-      <c r="X13" s="7">
-        <v>4</v>
-      </c>
-      <c r="Y13" s="7">
-        <v>4</v>
-      </c>
-      <c r="Z13" s="7">
-        <v>8</v>
-      </c>
-      <c r="AA13" s="7">
-        <v>200</v>
-      </c>
-      <c r="AB13" s="7">
-        <v>4</v>
-      </c>
-      <c r="AC13" s="7">
-        <v>4</v>
-      </c>
-      <c r="AD13" s="7">
-        <v>8</v>
-      </c>
-      <c r="AE13" s="7">
-        <v>200</v>
-      </c>
-      <c r="AF13" s="7">
-        <v>4</v>
-      </c>
-      <c r="AG13" s="7">
-        <v>4</v>
-      </c>
-      <c r="AH13" s="7">
-        <v>8</v>
-      </c>
-      <c r="AI13" s="7">
-        <v>200</v>
-      </c>
-      <c r="AJ13" s="7">
-        <v>4</v>
-      </c>
-      <c r="AK13" s="7">
-        <v>4</v>
-      </c>
-      <c r="AL13" s="7">
-        <v>8</v>
-      </c>
-      <c r="AM13" s="7">
-        <v>200</v>
-      </c>
-      <c r="AN13" s="7">
-        <v>4</v>
-      </c>
-      <c r="AO13" s="7">
-        <v>4</v>
-      </c>
-      <c r="AP13" s="7">
-        <v>8</v>
-      </c>
-      <c r="AQ13" s="7">
-        <v>200</v>
-      </c>
-      <c r="AR13" s="7">
-        <v>4</v>
-      </c>
-      <c r="AS13" s="7">
-        <v>4</v>
-      </c>
-      <c r="AT13" s="7">
-        <v>8</v>
-      </c>
-      <c r="AU13" s="7">
-        <v>200</v>
-      </c>
-      <c r="AV13" s="7">
-        <v>4</v>
-      </c>
-      <c r="AW13" s="7">
-        <v>4</v>
-      </c>
-      <c r="AX13" s="7">
-        <v>8</v>
-      </c>
-      <c r="AY13" s="7">
-        <v>200</v>
-      </c>
-      <c r="AZ13" s="7">
-        <v>4</v>
-      </c>
-      <c r="BA13" s="7">
-        <v>4</v>
-      </c>
-      <c r="BB13" s="7">
-        <v>8</v>
-      </c>
-      <c r="BC13" s="7">
-        <v>200</v>
-      </c>
-      <c r="BD13" s="7">
-        <v>4</v>
-      </c>
-      <c r="BE13" s="7">
-        <v>4</v>
-      </c>
-      <c r="BF13" s="7">
-        <v>8</v>
-      </c>
-      <c r="BG13" s="7">
-        <v>200</v>
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="D16" s="12" t="str">
+        <f>D1&amp;" : " &amp; PhasesDetails!A2</f>
+        <v xml:space="preserve">VM : 0-7 Months </v>
+      </c>
+      <c r="E16" s="12" t="str">
+        <f>E1&amp;" : " &amp; PhasesDetails!B2</f>
+        <v>Core : 7</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AV1:AY1"/>
-    <mergeCell ref="AZ1:BC1"/>
-    <mergeCell ref="BD1:BG1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="AN1:AQ1"/>
-    <mergeCell ref="AR1:AU1"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A13">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B12">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>7744</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>7745</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>7721</v>
+      </c>
+      <c r="B2" s="19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>7718</v>
+      </c>
+      <c r="B3" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>7719</v>
+      </c>
+      <c r="B4" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>7720</v>
+      </c>
+      <c r="B5" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>7722</v>
+      </c>
+      <c r="B6" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>7723</v>
+      </c>
+      <c r="B7" s="19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>7724</v>
+      </c>
+      <c r="B9" s="19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>7725</v>
+      </c>
+      <c r="B10" s="19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>7726</v>
+      </c>
+      <c r="B11" s="19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>7727</v>
+      </c>
+      <c r="B12" s="19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>7728</v>
+      </c>
+      <c r="B13" s="19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>7729</v>
+      </c>
+      <c r="B14" s="19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>7730</v>
+      </c>
+      <c r="B15" s="21">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA92"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59869,7 +60099,7 @@
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" customWidth="1"/>
     <col min="3" max="3" width="45.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
@@ -59890,38 +60120,49 @@
       <c r="C1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>125</v>
+      <c r="D1" s="25" t="str">
+        <f>IFERROR(INDEX(Phases[Phases],1,COLUMN(D1)),"")</f>
+        <v/>
+      </c>
+      <c r="E1" s="25" t="str">
+        <f>IFERROR(INDEX(Phases[#Headers],,COLUMN(B1)),"")</f>
+        <v>Tenure</v>
+      </c>
+      <c r="F1" s="25" t="str">
+        <f>IFERROR(INDEX(Phases[#Headers],,COLUMN(C1)),"")</f>
+        <v/>
+      </c>
+      <c r="G1" s="25" t="str">
+        <f>IFERROR(INDEX(Phases[#Headers],,COLUMN(D1)),"")</f>
+        <v/>
+      </c>
+      <c r="H1" s="25" t="str">
+        <f>IFERROR(INDEX(Phases[#Headers],,COLUMN(E1)),"")</f>
+        <v/>
+      </c>
+      <c r="I1" s="25" t="str">
+        <f>IFERROR(INDEX(Phases[#Headers],,COLUMN(F1)),"")</f>
+        <v/>
+      </c>
+      <c r="J1" s="25" t="str">
+        <f>IFERROR(INDEX(Phases[#Headers],,COLUMN(G1)),"")</f>
+        <v/>
+      </c>
+      <c r="K1" s="25" t="str">
+        <f>IFERROR(INDEX(Phases[#Headers],,COLUMN(H1)),"")</f>
+        <v/>
+      </c>
+      <c r="L1" s="25" t="str">
+        <f>IFERROR(INDEX(Phases[#Headers],,COLUMN(I1)),"")</f>
+        <v/>
+      </c>
+      <c r="M1" s="25" t="str">
+        <f>IFERROR(INDEX(Phases[#Headers],,COLUMN(J1)),"")</f>
+        <v/>
+      </c>
+      <c r="N1" s="25" t="str">
+        <f>IFERROR(INDEX(Phases[#Headers],,COLUMN(K1)),"")</f>
+        <v/>
       </c>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
@@ -59938,22 +60179,22 @@
       <c r="AA1" s="5"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
@@ -60188,17 +60429,39 @@
       </c>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
+      <c r="Q6" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="7" spans="1:27" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -60259,22 +60522,22 @@
       <c r="AA7" s="5"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
@@ -60450,7 +60713,10 @@
         <v>15</v>
       </c>
       <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
+      <c r="P11" s="25" t="str">
+        <f>IFERROR(INDEX(Phases[Phases], 1, COLUMN()-COLUMN($D$1)+1),"")</f>
+        <v/>
+      </c>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
@@ -61856,22 +62122,22 @@
       <c r="AA35" s="5"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
@@ -62003,22 +62269,22 @@
       <c r="AA38" s="5"/>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
@@ -63078,22 +63344,22 @@
       <c r="AA57" s="5"/>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
-      <c r="L58" s="15"/>
-      <c r="M58" s="15"/>
-      <c r="N58" s="15"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
       <c r="O58" s="5"/>
       <c r="P58" s="5"/>
       <c r="Q58" s="5"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -4,16 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="3"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="product_mater" sheetId="4" r:id="rId1"/>
     <sheet name="VM Working" sheetId="3" r:id="rId2"/>
-    <sheet name="PhasesDetails" sheetId="5" r:id="rId3"/>
-    <sheet name="BOM DC" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="PhasesDetails" sheetId="5" r:id="rId4"/>
+    <sheet name="BOM DC" sheetId="1" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="Group_Qty">'[1]eNlight Instance'!#REF!</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8118" uniqueCount="7747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8132" uniqueCount="7806">
   <si>
     <t>core_product_name</t>
   </si>
@@ -23167,27 +23168,6 @@
     <t xml:space="preserve">MSSQL-Enterprise Core </t>
   </si>
   <si>
-    <t xml:space="preserve">VM </t>
-  </si>
-  <si>
-    <t>Core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAM </t>
-  </si>
-  <si>
-    <t>DISK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOSt Name </t>
-  </si>
-  <si>
     <t>8-12 Months</t>
   </si>
   <si>
@@ -23272,14 +23252,212 @@
     <t>Tenure</t>
   </si>
   <si>
-    <t>VM</t>
+    <t xml:space="preserve">VM 0-7 Months </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Core 0-7 Months </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAM  0-7 Months </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISK 0-7 Months </t>
+  </si>
+  <si>
+    <t>VM  8-12 Months</t>
+  </si>
+  <si>
+    <t>Core 8-12 Months</t>
+  </si>
+  <si>
+    <t>RAM  8-12 Months</t>
+  </si>
+  <si>
+    <t>DISK 8-12 Months</t>
+  </si>
+  <si>
+    <t>VM  13-18 Months</t>
+  </si>
+  <si>
+    <t>Core 13-18 Months</t>
+  </si>
+  <si>
+    <t>RAM  13-18 Months</t>
+  </si>
+  <si>
+    <t>DISK 13-18 Months</t>
+  </si>
+  <si>
+    <t>VM  19-24 Months</t>
+  </si>
+  <si>
+    <t>Core 19-24 Months</t>
+  </si>
+  <si>
+    <t>RAM  19-24 Months</t>
+  </si>
+  <si>
+    <t>DISK 19-24 Months</t>
+  </si>
+  <si>
+    <t>VM  25-28 Months</t>
+  </si>
+  <si>
+    <t>Core 25-28 Months</t>
+  </si>
+  <si>
+    <t>RAM  25-28 Months</t>
+  </si>
+  <si>
+    <t>DISK 25-28 Months</t>
+  </si>
+  <si>
+    <t>VM  2nd Year</t>
+  </si>
+  <si>
+    <t>Core 2nd Year</t>
+  </si>
+  <si>
+    <t>RAM  2nd Year</t>
+  </si>
+  <si>
+    <t>DISK 2nd Year</t>
+  </si>
+  <si>
+    <t>VM  3rd Year</t>
+  </si>
+  <si>
+    <t>Core 3rd Year</t>
+  </si>
+  <si>
+    <t>RAM  3rd Year</t>
+  </si>
+  <si>
+    <t>DISK 3rd Year</t>
+  </si>
+  <si>
+    <t>VM  4th Year</t>
+  </si>
+  <si>
+    <t>Core 4th Year</t>
+  </si>
+  <si>
+    <t>RAM  4th Year</t>
+  </si>
+  <si>
+    <t>DISK 4th Year</t>
+  </si>
+  <si>
+    <t>VM  5th Years</t>
+  </si>
+  <si>
+    <t>Core 5th Years</t>
+  </si>
+  <si>
+    <t>RAM  5th Years</t>
+  </si>
+  <si>
+    <t>DISK 5th Years</t>
+  </si>
+  <si>
+    <t>VM  6 Years</t>
+  </si>
+  <si>
+    <t>Core 6 Years</t>
+  </si>
+  <si>
+    <t>RAM  6 Years</t>
+  </si>
+  <si>
+    <t>DISK 6 Years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VM  7th Years </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Core 7th Years </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAM  7th Years </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISK 7th Years </t>
+  </si>
+  <si>
+    <t>VM  8th years</t>
+  </si>
+  <si>
+    <t>Core 8th years</t>
+  </si>
+  <si>
+    <t>RAM  8th years</t>
+  </si>
+  <si>
+    <t>DISK 8th years</t>
+  </si>
+  <si>
+    <t>VM  9 Years</t>
+  </si>
+  <si>
+    <t>Core 9 Years</t>
+  </si>
+  <si>
+    <t>RAM  9 Years</t>
+  </si>
+  <si>
+    <t>DISK 9 Years</t>
+  </si>
+  <si>
+    <t>VM  10 Years</t>
+  </si>
+  <si>
+    <t>Core 10 Years</t>
+  </si>
+  <si>
+    <t>RAM  10 Years</t>
+  </si>
+  <si>
+    <t>DISK 10 Years</t>
+  </si>
+  <si>
+    <t>VM Name</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>Software As Service-Desigh and Development Cost</t>
+  </si>
+  <si>
+    <t>Software As Service-Repeated cyber Audit</t>
+  </si>
+  <si>
+    <t>Software As Service-Provisional Cost for Implementation</t>
+  </si>
+  <si>
+    <t>Software As Service-Helpdesk and Handholding Support Cost</t>
+  </si>
+  <si>
+    <t>Software As Service-Proprietary Cost</t>
+  </si>
+  <si>
+    <t>Dedicated Port</t>
+  </si>
+  <si>
+    <t>RAID</t>
+  </si>
+  <si>
+    <t>VPN Concentrator</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23321,13 +23499,19 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Courier New"/>
-      <family val="3"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Candara"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -23398,8 +23582,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -23516,11 +23718,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF203764"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF203764"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -23532,7 +23769,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -23541,12 +23777,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -23572,75 +23802,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -23686,6 +23870,69 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -23726,11 +23973,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Phases" displayName="Phases" ref="A1:B15" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" tableBorderDxfId="3" totalsRowBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Phases" displayName="Phases" ref="A1:B15" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <autoFilter ref="A1:B15"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Phases" dataDxfId="5"/>
-    <tableColumn id="2" name="Tenure" dataDxfId="4"/>
+    <tableColumn id="1" name="Phases" dataDxfId="1"/>
+    <tableColumn id="2" name="Tenure" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -24001,8 +24248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3846"/>
   <sheetViews>
-    <sheetView topLeftCell="A293" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A305" sqref="A305"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24513,21 +24760,21 @@
       <c r="B58" t="s">
         <v>127</v>
       </c>
-      <c r="G58" s="10" t="s">
+      <c r="G58" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
-      <c r="M58" s="11"/>
-      <c r="N58" s="11"/>
-      <c r="O58" s="11"/>
-      <c r="P58" s="11"/>
-      <c r="Q58" s="11"/>
-      <c r="R58" s="11"/>
-      <c r="S58" s="11"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="23"/>
+      <c r="M58" s="23"/>
+      <c r="N58" s="23"/>
+      <c r="O58" s="23"/>
+      <c r="P58" s="23"/>
+      <c r="Q58" s="23"/>
+      <c r="R58" s="23"/>
+      <c r="S58" s="23"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
@@ -24771,21 +25018,21 @@
       <c r="B64" t="s">
         <v>146</v>
       </c>
-      <c r="G64" s="10" t="s">
+      <c r="G64" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="11"/>
-      <c r="L64" s="11"/>
-      <c r="M64" s="11"/>
-      <c r="N64" s="11"/>
-      <c r="O64" s="11"/>
-      <c r="P64" s="11"/>
-      <c r="Q64" s="11"/>
-      <c r="R64" s="11"/>
-      <c r="S64" s="11"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="23"/>
+      <c r="L64" s="23"/>
+      <c r="M64" s="23"/>
+      <c r="N64" s="23"/>
+      <c r="O64" s="23"/>
+      <c r="P64" s="23"/>
+      <c r="Q64" s="23"/>
+      <c r="R64" s="23"/>
+      <c r="S64" s="23"/>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -26204,21 +26451,21 @@
       <c r="B95" t="s">
         <v>243</v>
       </c>
-      <c r="G95" s="10" t="s">
+      <c r="G95" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="H95" s="11"/>
-      <c r="I95" s="11"/>
-      <c r="J95" s="11"/>
-      <c r="K95" s="11"/>
-      <c r="L95" s="11"/>
-      <c r="M95" s="11"/>
-      <c r="N95" s="11"/>
-      <c r="O95" s="11"/>
-      <c r="P95" s="11"/>
-      <c r="Q95" s="11"/>
-      <c r="R95" s="11"/>
-      <c r="S95" s="11"/>
+      <c r="H95" s="23"/>
+      <c r="I95" s="23"/>
+      <c r="J95" s="23"/>
+      <c r="K95" s="23"/>
+      <c r="L95" s="23"/>
+      <c r="M95" s="23"/>
+      <c r="N95" s="23"/>
+      <c r="O95" s="23"/>
+      <c r="P95" s="23"/>
+      <c r="Q95" s="23"/>
+      <c r="R95" s="23"/>
+      <c r="S95" s="23"/>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
@@ -26509,21 +26756,21 @@
       <c r="B102" t="s">
         <v>265</v>
       </c>
-      <c r="G102" s="10" t="s">
+      <c r="G102" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="H102" s="11"/>
-      <c r="I102" s="11"/>
-      <c r="J102" s="11"/>
-      <c r="K102" s="11"/>
-      <c r="L102" s="11"/>
-      <c r="M102" s="11"/>
-      <c r="N102" s="11"/>
-      <c r="O102" s="11"/>
-      <c r="P102" s="11"/>
-      <c r="Q102" s="11"/>
-      <c r="R102" s="11"/>
-      <c r="S102" s="11"/>
+      <c r="H102" s="23"/>
+      <c r="I102" s="23"/>
+      <c r="J102" s="23"/>
+      <c r="K102" s="23"/>
+      <c r="L102" s="23"/>
+      <c r="M102" s="23"/>
+      <c r="N102" s="23"/>
+      <c r="O102" s="23"/>
+      <c r="P102" s="23"/>
+      <c r="Q102" s="23"/>
+      <c r="R102" s="23"/>
+      <c r="S102" s="23"/>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
@@ -27378,21 +27625,21 @@
       <c r="B121" t="s">
         <v>322</v>
       </c>
-      <c r="G121" s="10" t="s">
+      <c r="G121" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="H121" s="11"/>
-      <c r="I121" s="11"/>
-      <c r="J121" s="11"/>
-      <c r="K121" s="11"/>
-      <c r="L121" s="11"/>
-      <c r="M121" s="11"/>
-      <c r="N121" s="11"/>
-      <c r="O121" s="11"/>
-      <c r="P121" s="11"/>
-      <c r="Q121" s="11"/>
-      <c r="R121" s="11"/>
-      <c r="S121" s="11"/>
+      <c r="H121" s="23"/>
+      <c r="I121" s="23"/>
+      <c r="J121" s="23"/>
+      <c r="K121" s="23"/>
+      <c r="L121" s="23"/>
+      <c r="M121" s="23"/>
+      <c r="N121" s="23"/>
+      <c r="O121" s="23"/>
+      <c r="P121" s="23"/>
+      <c r="Q121" s="23"/>
+      <c r="R121" s="23"/>
+      <c r="S121" s="23"/>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
@@ -57758,2178 +58005,2219 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BG16"/>
+  <dimension ref="A1:BG12"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="11" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="12" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>7717</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>7715</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>7716</v>
-      </c>
-      <c r="D1" s="12" t="s">
+    <row r="1" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>7795</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>7796</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>7797</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>7739</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>7740</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>7741</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>7742</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>7743</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>7744</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>7745</v>
+      </c>
+      <c r="K1" s="12" t="s">
         <v>7746</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>7712</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>7713</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>7714</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>7711</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>7712</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>7713</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>7714</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>7711</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>7712</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>7713</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>7714</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>7711</v>
-      </c>
-      <c r="Q1" s="14" t="s">
-        <v>7712</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>7713</v>
-      </c>
-      <c r="S1" s="15" t="s">
-        <v>7714</v>
-      </c>
-      <c r="T1" s="12" t="s">
-        <v>7711</v>
-      </c>
-      <c r="U1" s="14" t="s">
-        <v>7712</v>
-      </c>
-      <c r="V1" s="13" t="s">
-        <v>7713</v>
-      </c>
-      <c r="W1" s="15" t="s">
-        <v>7714</v>
-      </c>
-      <c r="X1" s="12" t="s">
-        <v>7711</v>
-      </c>
-      <c r="Y1" s="14" t="s">
-        <v>7712</v>
-      </c>
-      <c r="Z1" s="13" t="s">
-        <v>7713</v>
-      </c>
-      <c r="AA1" s="15" t="s">
-        <v>7714</v>
-      </c>
-      <c r="AB1" s="12" t="s">
-        <v>7711</v>
-      </c>
-      <c r="AC1" s="14" t="s">
-        <v>7712</v>
-      </c>
-      <c r="AD1" s="13" t="s">
-        <v>7713</v>
-      </c>
-      <c r="AE1" s="15" t="s">
-        <v>7714</v>
-      </c>
-      <c r="AF1" s="12" t="s">
-        <v>7711</v>
-      </c>
-      <c r="AG1" s="14" t="s">
-        <v>7712</v>
-      </c>
-      <c r="AH1" s="13" t="s">
-        <v>7713</v>
-      </c>
-      <c r="AI1" s="15" t="s">
-        <v>7714</v>
-      </c>
-      <c r="AJ1" s="12" t="s">
-        <v>7711</v>
-      </c>
-      <c r="AK1" s="14" t="s">
-        <v>7712</v>
-      </c>
-      <c r="AL1" s="13" t="s">
-        <v>7713</v>
-      </c>
-      <c r="AM1" s="15" t="s">
-        <v>7714</v>
-      </c>
-      <c r="AN1" s="12" t="s">
-        <v>7711</v>
-      </c>
-      <c r="AO1" s="14" t="s">
-        <v>7712</v>
-      </c>
-      <c r="AP1" s="13" t="s">
-        <v>7713</v>
-      </c>
-      <c r="AQ1" s="15" t="s">
-        <v>7714</v>
-      </c>
-      <c r="AR1" s="12" t="s">
-        <v>7711</v>
-      </c>
-      <c r="AS1" s="14" t="s">
-        <v>7712</v>
-      </c>
-      <c r="AT1" s="13" t="s">
-        <v>7713</v>
-      </c>
-      <c r="AU1" s="15" t="s">
-        <v>7714</v>
-      </c>
-      <c r="AV1" s="12" t="s">
-        <v>7711</v>
-      </c>
-      <c r="AW1" s="14" t="s">
-        <v>7712</v>
-      </c>
-      <c r="AX1" s="13" t="s">
-        <v>7713</v>
-      </c>
-      <c r="AY1" s="15" t="s">
-        <v>7714</v>
-      </c>
-      <c r="AZ1" s="12" t="s">
-        <v>7711</v>
-      </c>
-      <c r="BA1" s="14" t="s">
-        <v>7712</v>
-      </c>
-      <c r="BB1" s="13" t="s">
-        <v>7713</v>
-      </c>
-      <c r="BC1" s="15" t="s">
-        <v>7714</v>
-      </c>
-      <c r="BD1" s="12" t="s">
-        <v>7711</v>
-      </c>
-      <c r="BE1" s="14" t="s">
-        <v>7712</v>
-      </c>
-      <c r="BF1" s="13" t="s">
-        <v>7713</v>
-      </c>
-      <c r="BG1" s="15" t="s">
-        <v>7714</v>
+      <c r="L1" s="9" t="s">
+        <v>7747</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>7748</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>7749</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>7750</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>7751</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>7752</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>7753</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>7754</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>7755</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>7756</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>7757</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>7758</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>7759</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>7760</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>7761</v>
+      </c>
+      <c r="AA1" s="12" t="s">
+        <v>7762</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>7763</v>
+      </c>
+      <c r="AC1" s="11" t="s">
+        <v>7764</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>7765</v>
+      </c>
+      <c r="AE1" s="12" t="s">
+        <v>7766</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>7767</v>
+      </c>
+      <c r="AG1" s="11" t="s">
+        <v>7768</v>
+      </c>
+      <c r="AH1" s="10" t="s">
+        <v>7769</v>
+      </c>
+      <c r="AI1" s="12" t="s">
+        <v>7770</v>
+      </c>
+      <c r="AJ1" s="9" t="s">
+        <v>7771</v>
+      </c>
+      <c r="AK1" s="11" t="s">
+        <v>7772</v>
+      </c>
+      <c r="AL1" s="10" t="s">
+        <v>7773</v>
+      </c>
+      <c r="AM1" s="12" t="s">
+        <v>7774</v>
+      </c>
+      <c r="AN1" s="9" t="s">
+        <v>7775</v>
+      </c>
+      <c r="AO1" s="11" t="s">
+        <v>7776</v>
+      </c>
+      <c r="AP1" s="10" t="s">
+        <v>7777</v>
+      </c>
+      <c r="AQ1" s="12" t="s">
+        <v>7778</v>
+      </c>
+      <c r="AR1" s="9" t="s">
+        <v>7779</v>
+      </c>
+      <c r="AS1" s="11" t="s">
+        <v>7780</v>
+      </c>
+      <c r="AT1" s="10" t="s">
+        <v>7781</v>
+      </c>
+      <c r="AU1" s="12" t="s">
+        <v>7782</v>
+      </c>
+      <c r="AV1" s="9" t="s">
+        <v>7783</v>
+      </c>
+      <c r="AW1" s="11" t="s">
+        <v>7784</v>
+      </c>
+      <c r="AX1" s="10" t="s">
+        <v>7785</v>
+      </c>
+      <c r="AY1" s="12" t="s">
+        <v>7786</v>
+      </c>
+      <c r="AZ1" s="9" t="s">
+        <v>7787</v>
+      </c>
+      <c r="BA1" s="11" t="s">
+        <v>7788</v>
+      </c>
+      <c r="BB1" s="10" t="s">
+        <v>7789</v>
+      </c>
+      <c r="BC1" s="12" t="s">
+        <v>7790</v>
+      </c>
+      <c r="BD1" s="9" t="s">
+        <v>7791</v>
+      </c>
+      <c r="BE1" s="11" t="s">
+        <v>7792</v>
+      </c>
+      <c r="BF1" s="10" t="s">
+        <v>7793</v>
+      </c>
+      <c r="BG1" s="12" t="s">
+        <v>7794</v>
       </c>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>7725</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>7724</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>7736</v>
+      </c>
+      <c r="D2" s="26">
+        <v>4</v>
+      </c>
+      <c r="E2" s="26">
+        <v>4</v>
+      </c>
+      <c r="F2" s="26">
+        <v>8</v>
+      </c>
+      <c r="G2" s="26">
+        <v>200</v>
+      </c>
+      <c r="H2" s="6">
+        <v>4</v>
+      </c>
+      <c r="I2" s="6">
+        <v>4</v>
+      </c>
+      <c r="J2" s="6">
+        <v>8</v>
+      </c>
+      <c r="K2" s="6">
+        <v>200</v>
+      </c>
+      <c r="L2" s="26">
+        <v>4</v>
+      </c>
+      <c r="M2" s="26">
+        <v>4</v>
+      </c>
+      <c r="N2" s="26">
+        <v>8</v>
+      </c>
+      <c r="O2" s="26">
+        <v>200</v>
+      </c>
+      <c r="P2" s="6">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>4</v>
+      </c>
+      <c r="R2" s="6">
+        <v>8</v>
+      </c>
+      <c r="S2" s="6">
+        <v>200</v>
+      </c>
+      <c r="T2" s="26">
+        <v>4</v>
+      </c>
+      <c r="U2" s="26">
+        <v>4</v>
+      </c>
+      <c r="V2" s="26">
+        <v>8</v>
+      </c>
+      <c r="W2" s="26">
+        <v>200</v>
+      </c>
+      <c r="X2" s="6">
+        <v>4</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>4</v>
+      </c>
+      <c r="Z2" s="6">
+        <v>8</v>
+      </c>
+      <c r="AA2" s="6">
+        <v>200</v>
+      </c>
+      <c r="AB2" s="26">
+        <v>4</v>
+      </c>
+      <c r="AC2" s="26">
+        <v>4</v>
+      </c>
+      <c r="AD2" s="26">
+        <v>8</v>
+      </c>
+      <c r="AE2" s="26">
+        <v>200</v>
+      </c>
+      <c r="AF2" s="6">
+        <v>4</v>
+      </c>
+      <c r="AG2" s="6">
+        <v>4</v>
+      </c>
+      <c r="AH2" s="6">
+        <v>8</v>
+      </c>
+      <c r="AI2" s="6">
+        <v>200</v>
+      </c>
+      <c r="AJ2" s="26">
+        <v>4</v>
+      </c>
+      <c r="AK2" s="26">
+        <v>4</v>
+      </c>
+      <c r="AL2" s="26">
+        <v>8</v>
+      </c>
+      <c r="AM2" s="26">
+        <v>200</v>
+      </c>
+      <c r="AN2" s="6">
+        <v>4</v>
+      </c>
+      <c r="AO2" s="6">
+        <v>4</v>
+      </c>
+      <c r="AP2" s="6">
+        <v>8</v>
+      </c>
+      <c r="AQ2" s="6">
+        <v>200</v>
+      </c>
+      <c r="AR2" s="26">
+        <v>4</v>
+      </c>
+      <c r="AS2" s="26">
+        <v>4</v>
+      </c>
+      <c r="AT2" s="26">
+        <v>8</v>
+      </c>
+      <c r="AU2" s="26">
+        <v>200</v>
+      </c>
+      <c r="AV2" s="6">
+        <v>4</v>
+      </c>
+      <c r="AW2" s="6">
+        <v>4</v>
+      </c>
+      <c r="AX2" s="6">
+        <v>8</v>
+      </c>
+      <c r="AY2" s="6">
+        <v>200</v>
+      </c>
+      <c r="AZ2" s="26">
+        <v>4</v>
+      </c>
+      <c r="BA2" s="26">
+        <v>4</v>
+      </c>
+      <c r="BB2" s="26">
+        <v>8</v>
+      </c>
+      <c r="BC2" s="26">
+        <v>200</v>
+      </c>
+      <c r="BD2" s="6">
+        <v>4</v>
+      </c>
+      <c r="BE2" s="6">
+        <v>4</v>
+      </c>
+      <c r="BF2" s="6">
+        <v>8</v>
+      </c>
+      <c r="BG2" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>7726</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>7724</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>7736</v>
+      </c>
+      <c r="D3" s="26">
+        <v>4</v>
+      </c>
+      <c r="E3" s="26">
+        <v>4</v>
+      </c>
+      <c r="F3" s="26">
+        <v>8</v>
+      </c>
+      <c r="G3" s="26">
+        <v>200</v>
+      </c>
+      <c r="H3" s="6">
+        <v>4</v>
+      </c>
+      <c r="I3" s="6">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6">
+        <v>8</v>
+      </c>
+      <c r="K3" s="6">
+        <v>200</v>
+      </c>
+      <c r="L3" s="26">
+        <v>4</v>
+      </c>
+      <c r="M3" s="26">
+        <v>4</v>
+      </c>
+      <c r="N3" s="26">
+        <v>8</v>
+      </c>
+      <c r="O3" s="26">
+        <v>200</v>
+      </c>
+      <c r="P3" s="6">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>4</v>
+      </c>
+      <c r="R3" s="6">
+        <v>8</v>
+      </c>
+      <c r="S3" s="6">
+        <v>200</v>
+      </c>
+      <c r="T3" s="26">
+        <v>4</v>
+      </c>
+      <c r="U3" s="26">
+        <v>4</v>
+      </c>
+      <c r="V3" s="26">
+        <v>8</v>
+      </c>
+      <c r="W3" s="26">
+        <v>200</v>
+      </c>
+      <c r="X3" s="6">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>4</v>
+      </c>
+      <c r="Z3" s="6">
+        <v>8</v>
+      </c>
+      <c r="AA3" s="6">
+        <v>200</v>
+      </c>
+      <c r="AB3" s="26">
+        <v>4</v>
+      </c>
+      <c r="AC3" s="26">
+        <v>4</v>
+      </c>
+      <c r="AD3" s="26">
+        <v>8</v>
+      </c>
+      <c r="AE3" s="26">
+        <v>200</v>
+      </c>
+      <c r="AF3" s="6">
+        <v>4</v>
+      </c>
+      <c r="AG3" s="6">
+        <v>4</v>
+      </c>
+      <c r="AH3" s="6">
+        <v>8</v>
+      </c>
+      <c r="AI3" s="6">
+        <v>200</v>
+      </c>
+      <c r="AJ3" s="26">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="26">
+        <v>4</v>
+      </c>
+      <c r="AL3" s="26">
+        <v>8</v>
+      </c>
+      <c r="AM3" s="26">
+        <v>200</v>
+      </c>
+      <c r="AN3" s="6">
+        <v>4</v>
+      </c>
+      <c r="AO3" s="6">
+        <v>4</v>
+      </c>
+      <c r="AP3" s="6">
+        <v>8</v>
+      </c>
+      <c r="AQ3" s="6">
+        <v>200</v>
+      </c>
+      <c r="AR3" s="26">
+        <v>4</v>
+      </c>
+      <c r="AS3" s="26">
+        <v>4</v>
+      </c>
+      <c r="AT3" s="26">
+        <v>8</v>
+      </c>
+      <c r="AU3" s="26">
+        <v>200</v>
+      </c>
+      <c r="AV3" s="6">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="6">
+        <v>4</v>
+      </c>
+      <c r="AX3" s="6">
+        <v>8</v>
+      </c>
+      <c r="AY3" s="6">
+        <v>200</v>
+      </c>
+      <c r="AZ3" s="26">
+        <v>4</v>
+      </c>
+      <c r="BA3" s="26">
+        <v>4</v>
+      </c>
+      <c r="BB3" s="26">
+        <v>8</v>
+      </c>
+      <c r="BC3" s="26">
+        <v>200</v>
+      </c>
+      <c r="BD3" s="6">
+        <v>4</v>
+      </c>
+      <c r="BE3" s="6">
+        <v>4</v>
+      </c>
+      <c r="BF3" s="6">
+        <v>8</v>
+      </c>
+      <c r="BG3" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>7727</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>7724</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>7736</v>
+      </c>
+      <c r="D4" s="26">
+        <v>4</v>
+      </c>
+      <c r="E4" s="26">
+        <v>4</v>
+      </c>
+      <c r="F4" s="26">
+        <v>8</v>
+      </c>
+      <c r="G4" s="26">
+        <v>200</v>
+      </c>
+      <c r="H4" s="6">
+        <v>4</v>
+      </c>
+      <c r="I4" s="6">
+        <v>4</v>
+      </c>
+      <c r="J4" s="6">
+        <v>8</v>
+      </c>
+      <c r="K4" s="6">
+        <v>200</v>
+      </c>
+      <c r="L4" s="26">
+        <v>4</v>
+      </c>
+      <c r="M4" s="26">
+        <v>4</v>
+      </c>
+      <c r="N4" s="26">
+        <v>8</v>
+      </c>
+      <c r="O4" s="26">
+        <v>200</v>
+      </c>
+      <c r="P4" s="6">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>4</v>
+      </c>
+      <c r="R4" s="6">
+        <v>8</v>
+      </c>
+      <c r="S4" s="6">
+        <v>200</v>
+      </c>
+      <c r="T4" s="26">
+        <v>4</v>
+      </c>
+      <c r="U4" s="26">
+        <v>4</v>
+      </c>
+      <c r="V4" s="26">
+        <v>8</v>
+      </c>
+      <c r="W4" s="26">
+        <v>200</v>
+      </c>
+      <c r="X4" s="6">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>4</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>8</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>200</v>
+      </c>
+      <c r="AB4" s="26">
+        <v>4</v>
+      </c>
+      <c r="AC4" s="26">
+        <v>4</v>
+      </c>
+      <c r="AD4" s="26">
+        <v>8</v>
+      </c>
+      <c r="AE4" s="26">
+        <v>200</v>
+      </c>
+      <c r="AF4" s="6">
+        <v>4</v>
+      </c>
+      <c r="AG4" s="6">
+        <v>4</v>
+      </c>
+      <c r="AH4" s="6">
+        <v>8</v>
+      </c>
+      <c r="AI4" s="6">
+        <v>200</v>
+      </c>
+      <c r="AJ4" s="26">
+        <v>4</v>
+      </c>
+      <c r="AK4" s="26">
+        <v>4</v>
+      </c>
+      <c r="AL4" s="26">
+        <v>8</v>
+      </c>
+      <c r="AM4" s="26">
+        <v>200</v>
+      </c>
+      <c r="AN4" s="6">
+        <v>4</v>
+      </c>
+      <c r="AO4" s="6">
+        <v>4</v>
+      </c>
+      <c r="AP4" s="6">
+        <v>8</v>
+      </c>
+      <c r="AQ4" s="6">
+        <v>200</v>
+      </c>
+      <c r="AR4" s="26">
+        <v>4</v>
+      </c>
+      <c r="AS4" s="26">
+        <v>4</v>
+      </c>
+      <c r="AT4" s="26">
+        <v>8</v>
+      </c>
+      <c r="AU4" s="26">
+        <v>200</v>
+      </c>
+      <c r="AV4" s="6">
+        <v>4</v>
+      </c>
+      <c r="AW4" s="6">
+        <v>4</v>
+      </c>
+      <c r="AX4" s="6">
+        <v>8</v>
+      </c>
+      <c r="AY4" s="6">
+        <v>200</v>
+      </c>
+      <c r="AZ4" s="26">
+        <v>4</v>
+      </c>
+      <c r="BA4" s="26">
+        <v>4</v>
+      </c>
+      <c r="BB4" s="26">
+        <v>8</v>
+      </c>
+      <c r="BC4" s="26">
+        <v>200</v>
+      </c>
+      <c r="BD4" s="6">
+        <v>4</v>
+      </c>
+      <c r="BE4" s="6">
+        <v>4</v>
+      </c>
+      <c r="BF4" s="6">
+        <v>8</v>
+      </c>
+      <c r="BG4" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>7728</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>7724</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>7736</v>
+      </c>
+      <c r="D5" s="26">
+        <v>4</v>
+      </c>
+      <c r="E5" s="26">
+        <v>4</v>
+      </c>
+      <c r="F5" s="26">
+        <v>8</v>
+      </c>
+      <c r="G5" s="26">
+        <v>200</v>
+      </c>
+      <c r="H5" s="6">
+        <v>4</v>
+      </c>
+      <c r="I5" s="6">
+        <v>4</v>
+      </c>
+      <c r="J5" s="6">
+        <v>8</v>
+      </c>
+      <c r="K5" s="6">
+        <v>200</v>
+      </c>
+      <c r="L5" s="26">
+        <v>4</v>
+      </c>
+      <c r="M5" s="26">
+        <v>4</v>
+      </c>
+      <c r="N5" s="26">
+        <v>8</v>
+      </c>
+      <c r="O5" s="26">
+        <v>200</v>
+      </c>
+      <c r="P5" s="6">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>4</v>
+      </c>
+      <c r="R5" s="6">
+        <v>8</v>
+      </c>
+      <c r="S5" s="6">
+        <v>200</v>
+      </c>
+      <c r="T5" s="26">
+        <v>4</v>
+      </c>
+      <c r="U5" s="26">
+        <v>4</v>
+      </c>
+      <c r="V5" s="26">
+        <v>8</v>
+      </c>
+      <c r="W5" s="26">
+        <v>200</v>
+      </c>
+      <c r="X5" s="6">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>4</v>
+      </c>
+      <c r="Z5" s="6">
+        <v>8</v>
+      </c>
+      <c r="AA5" s="6">
+        <v>200</v>
+      </c>
+      <c r="AB5" s="26">
+        <v>4</v>
+      </c>
+      <c r="AC5" s="26">
+        <v>4</v>
+      </c>
+      <c r="AD5" s="26">
+        <v>8</v>
+      </c>
+      <c r="AE5" s="26">
+        <v>200</v>
+      </c>
+      <c r="AF5" s="6">
+        <v>4</v>
+      </c>
+      <c r="AG5" s="6">
+        <v>4</v>
+      </c>
+      <c r="AH5" s="6">
+        <v>8</v>
+      </c>
+      <c r="AI5" s="6">
+        <v>200</v>
+      </c>
+      <c r="AJ5" s="26">
+        <v>4</v>
+      </c>
+      <c r="AK5" s="26">
+        <v>4</v>
+      </c>
+      <c r="AL5" s="26">
+        <v>8</v>
+      </c>
+      <c r="AM5" s="26">
+        <v>200</v>
+      </c>
+      <c r="AN5" s="6">
+        <v>4</v>
+      </c>
+      <c r="AO5" s="6">
+        <v>4</v>
+      </c>
+      <c r="AP5" s="6">
+        <v>8</v>
+      </c>
+      <c r="AQ5" s="6">
+        <v>200</v>
+      </c>
+      <c r="AR5" s="26">
+        <v>4</v>
+      </c>
+      <c r="AS5" s="26">
+        <v>4</v>
+      </c>
+      <c r="AT5" s="26">
+        <v>8</v>
+      </c>
+      <c r="AU5" s="26">
+        <v>200</v>
+      </c>
+      <c r="AV5" s="6">
+        <v>4</v>
+      </c>
+      <c r="AW5" s="6">
+        <v>4</v>
+      </c>
+      <c r="AX5" s="6">
+        <v>8</v>
+      </c>
+      <c r="AY5" s="6">
+        <v>200</v>
+      </c>
+      <c r="AZ5" s="26">
+        <v>4</v>
+      </c>
+      <c r="BA5" s="26">
+        <v>4</v>
+      </c>
+      <c r="BB5" s="26">
+        <v>8</v>
+      </c>
+      <c r="BC5" s="26">
+        <v>200</v>
+      </c>
+      <c r="BD5" s="6">
+        <v>4</v>
+      </c>
+      <c r="BE5" s="6">
+        <v>4</v>
+      </c>
+      <c r="BF5" s="6">
+        <v>8</v>
+      </c>
+      <c r="BG5" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7729</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>7724</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>7736</v>
+      </c>
+      <c r="D6" s="26">
+        <v>4</v>
+      </c>
+      <c r="E6" s="26">
+        <v>4</v>
+      </c>
+      <c r="F6" s="26">
+        <v>8</v>
+      </c>
+      <c r="G6" s="26">
+        <v>200</v>
+      </c>
+      <c r="H6" s="6">
+        <v>4</v>
+      </c>
+      <c r="I6" s="6">
+        <v>4</v>
+      </c>
+      <c r="J6" s="6">
+        <v>8</v>
+      </c>
+      <c r="K6" s="6">
+        <v>200</v>
+      </c>
+      <c r="L6" s="26">
+        <v>4</v>
+      </c>
+      <c r="M6" s="26">
+        <v>4</v>
+      </c>
+      <c r="N6" s="26">
+        <v>8</v>
+      </c>
+      <c r="O6" s="26">
+        <v>200</v>
+      </c>
+      <c r="P6" s="6">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>4</v>
+      </c>
+      <c r="R6" s="6">
+        <v>8</v>
+      </c>
+      <c r="S6" s="6">
+        <v>200</v>
+      </c>
+      <c r="T6" s="26">
+        <v>4</v>
+      </c>
+      <c r="U6" s="26">
+        <v>4</v>
+      </c>
+      <c r="V6" s="26">
+        <v>8</v>
+      </c>
+      <c r="W6" s="26">
+        <v>200</v>
+      </c>
+      <c r="X6" s="6">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>4</v>
+      </c>
+      <c r="Z6" s="6">
+        <v>8</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>200</v>
+      </c>
+      <c r="AB6" s="26">
+        <v>4</v>
+      </c>
+      <c r="AC6" s="26">
+        <v>4</v>
+      </c>
+      <c r="AD6" s="26">
+        <v>8</v>
+      </c>
+      <c r="AE6" s="26">
+        <v>200</v>
+      </c>
+      <c r="AF6" s="6">
+        <v>4</v>
+      </c>
+      <c r="AG6" s="6">
+        <v>4</v>
+      </c>
+      <c r="AH6" s="6">
+        <v>8</v>
+      </c>
+      <c r="AI6" s="6">
+        <v>200</v>
+      </c>
+      <c r="AJ6" s="26">
+        <v>4</v>
+      </c>
+      <c r="AK6" s="26">
+        <v>4</v>
+      </c>
+      <c r="AL6" s="26">
+        <v>8</v>
+      </c>
+      <c r="AM6" s="26">
+        <v>200</v>
+      </c>
+      <c r="AN6" s="6">
+        <v>4</v>
+      </c>
+      <c r="AO6" s="6">
+        <v>4</v>
+      </c>
+      <c r="AP6" s="6">
+        <v>8</v>
+      </c>
+      <c r="AQ6" s="6">
+        <v>200</v>
+      </c>
+      <c r="AR6" s="26">
+        <v>4</v>
+      </c>
+      <c r="AS6" s="26">
+        <v>4</v>
+      </c>
+      <c r="AT6" s="26">
+        <v>8</v>
+      </c>
+      <c r="AU6" s="26">
+        <v>200</v>
+      </c>
+      <c r="AV6" s="6">
+        <v>4</v>
+      </c>
+      <c r="AW6" s="6">
+        <v>4</v>
+      </c>
+      <c r="AX6" s="6">
+        <v>8</v>
+      </c>
+      <c r="AY6" s="6">
+        <v>200</v>
+      </c>
+      <c r="AZ6" s="26">
+        <v>4</v>
+      </c>
+      <c r="BA6" s="26">
+        <v>4</v>
+      </c>
+      <c r="BB6" s="26">
+        <v>8</v>
+      </c>
+      <c r="BC6" s="26">
+        <v>200</v>
+      </c>
+      <c r="BD6" s="6">
+        <v>4</v>
+      </c>
+      <c r="BE6" s="6">
+        <v>4</v>
+      </c>
+      <c r="BF6" s="6">
+        <v>8</v>
+      </c>
+      <c r="BG6" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>7730</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>7724</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>7736</v>
+      </c>
+      <c r="D7" s="26">
+        <v>4</v>
+      </c>
+      <c r="E7" s="26">
+        <v>4</v>
+      </c>
+      <c r="F7" s="26">
+        <v>8</v>
+      </c>
+      <c r="G7" s="26">
+        <v>200</v>
+      </c>
+      <c r="H7" s="6">
+        <v>4</v>
+      </c>
+      <c r="I7" s="6">
+        <v>4</v>
+      </c>
+      <c r="J7" s="6">
+        <v>8</v>
+      </c>
+      <c r="K7" s="6">
+        <v>200</v>
+      </c>
+      <c r="L7" s="26">
+        <v>4</v>
+      </c>
+      <c r="M7" s="26">
+        <v>4</v>
+      </c>
+      <c r="N7" s="26">
+        <v>8</v>
+      </c>
+      <c r="O7" s="26">
+        <v>200</v>
+      </c>
+      <c r="P7" s="6">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>4</v>
+      </c>
+      <c r="R7" s="6">
+        <v>8</v>
+      </c>
+      <c r="S7" s="6">
+        <v>200</v>
+      </c>
+      <c r="T7" s="26">
+        <v>4</v>
+      </c>
+      <c r="U7" s="26">
+        <v>4</v>
+      </c>
+      <c r="V7" s="26">
+        <v>8</v>
+      </c>
+      <c r="W7" s="26">
+        <v>200</v>
+      </c>
+      <c r="X7" s="6">
+        <v>4</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>4</v>
+      </c>
+      <c r="Z7" s="6">
+        <v>8</v>
+      </c>
+      <c r="AA7" s="6">
+        <v>200</v>
+      </c>
+      <c r="AB7" s="26">
+        <v>4</v>
+      </c>
+      <c r="AC7" s="26">
+        <v>4</v>
+      </c>
+      <c r="AD7" s="26">
+        <v>8</v>
+      </c>
+      <c r="AE7" s="26">
+        <v>200</v>
+      </c>
+      <c r="AF7" s="6">
+        <v>4</v>
+      </c>
+      <c r="AG7" s="6">
+        <v>4</v>
+      </c>
+      <c r="AH7" s="6">
+        <v>8</v>
+      </c>
+      <c r="AI7" s="6">
+        <v>200</v>
+      </c>
+      <c r="AJ7" s="26">
+        <v>4</v>
+      </c>
+      <c r="AK7" s="26">
+        <v>4</v>
+      </c>
+      <c r="AL7" s="26">
+        <v>8</v>
+      </c>
+      <c r="AM7" s="26">
+        <v>200</v>
+      </c>
+      <c r="AN7" s="6">
+        <v>4</v>
+      </c>
+      <c r="AO7" s="6">
+        <v>4</v>
+      </c>
+      <c r="AP7" s="6">
+        <v>8</v>
+      </c>
+      <c r="AQ7" s="6">
+        <v>200</v>
+      </c>
+      <c r="AR7" s="26">
+        <v>4</v>
+      </c>
+      <c r="AS7" s="26">
+        <v>4</v>
+      </c>
+      <c r="AT7" s="26">
+        <v>8</v>
+      </c>
+      <c r="AU7" s="26">
+        <v>200</v>
+      </c>
+      <c r="AV7" s="6">
+        <v>4</v>
+      </c>
+      <c r="AW7" s="6">
+        <v>4</v>
+      </c>
+      <c r="AX7" s="6">
+        <v>8</v>
+      </c>
+      <c r="AY7" s="6">
+        <v>200</v>
+      </c>
+      <c r="AZ7" s="26">
+        <v>4</v>
+      </c>
+      <c r="BA7" s="26">
+        <v>4</v>
+      </c>
+      <c r="BB7" s="26">
+        <v>8</v>
+      </c>
+      <c r="BC7" s="26">
+        <v>200</v>
+      </c>
+      <c r="BD7" s="6">
+        <v>4</v>
+      </c>
+      <c r="BE7" s="6">
+        <v>4</v>
+      </c>
+      <c r="BF7" s="6">
+        <v>8</v>
+      </c>
+      <c r="BG7" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>7731</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>7724</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>7736</v>
+      </c>
+      <c r="D8" s="26">
+        <v>4</v>
+      </c>
+      <c r="E8" s="26">
+        <v>4</v>
+      </c>
+      <c r="F8" s="26">
+        <v>8</v>
+      </c>
+      <c r="G8" s="26">
+        <v>200</v>
+      </c>
+      <c r="H8" s="6">
+        <v>4</v>
+      </c>
+      <c r="I8" s="6">
+        <v>4</v>
+      </c>
+      <c r="J8" s="6">
+        <v>8</v>
+      </c>
+      <c r="K8" s="6">
+        <v>200</v>
+      </c>
+      <c r="L8" s="26">
+        <v>4</v>
+      </c>
+      <c r="M8" s="26">
+        <v>4</v>
+      </c>
+      <c r="N8" s="26">
+        <v>8</v>
+      </c>
+      <c r="O8" s="26">
+        <v>200</v>
+      </c>
+      <c r="P8" s="6">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>4</v>
+      </c>
+      <c r="R8" s="6">
+        <v>8</v>
+      </c>
+      <c r="S8" s="6">
+        <v>200</v>
+      </c>
+      <c r="T8" s="26">
+        <v>4</v>
+      </c>
+      <c r="U8" s="26">
+        <v>4</v>
+      </c>
+      <c r="V8" s="26">
+        <v>8</v>
+      </c>
+      <c r="W8" s="26">
+        <v>200</v>
+      </c>
+      <c r="X8" s="6">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>4</v>
+      </c>
+      <c r="Z8" s="6">
+        <v>8</v>
+      </c>
+      <c r="AA8" s="6">
+        <v>200</v>
+      </c>
+      <c r="AB8" s="26">
+        <v>4</v>
+      </c>
+      <c r="AC8" s="26">
+        <v>4</v>
+      </c>
+      <c r="AD8" s="26">
+        <v>8</v>
+      </c>
+      <c r="AE8" s="26">
+        <v>200</v>
+      </c>
+      <c r="AF8" s="6">
+        <v>4</v>
+      </c>
+      <c r="AG8" s="6">
+        <v>4</v>
+      </c>
+      <c r="AH8" s="6">
+        <v>8</v>
+      </c>
+      <c r="AI8" s="6">
+        <v>200</v>
+      </c>
+      <c r="AJ8" s="26">
+        <v>4</v>
+      </c>
+      <c r="AK8" s="26">
+        <v>4</v>
+      </c>
+      <c r="AL8" s="26">
+        <v>8</v>
+      </c>
+      <c r="AM8" s="26">
+        <v>200</v>
+      </c>
+      <c r="AN8" s="6">
+        <v>4</v>
+      </c>
+      <c r="AO8" s="6">
+        <v>4</v>
+      </c>
+      <c r="AP8" s="6">
+        <v>8</v>
+      </c>
+      <c r="AQ8" s="6">
+        <v>200</v>
+      </c>
+      <c r="AR8" s="26">
+        <v>4</v>
+      </c>
+      <c r="AS8" s="26">
+        <v>4</v>
+      </c>
+      <c r="AT8" s="26">
+        <v>8</v>
+      </c>
+      <c r="AU8" s="26">
+        <v>200</v>
+      </c>
+      <c r="AV8" s="6">
+        <v>4</v>
+      </c>
+      <c r="AW8" s="6">
+        <v>4</v>
+      </c>
+      <c r="AX8" s="6">
+        <v>8</v>
+      </c>
+      <c r="AY8" s="6">
+        <v>200</v>
+      </c>
+      <c r="AZ8" s="26">
+        <v>4</v>
+      </c>
+      <c r="BA8" s="26">
+        <v>4</v>
+      </c>
+      <c r="BB8" s="26">
+        <v>8</v>
+      </c>
+      <c r="BC8" s="26">
+        <v>200</v>
+      </c>
+      <c r="BD8" s="6">
+        <v>4</v>
+      </c>
+      <c r="BE8" s="6">
+        <v>4</v>
+      </c>
+      <c r="BF8" s="6">
+        <v>8</v>
+      </c>
+      <c r="BG8" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>7732</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>7731</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>7743</v>
-      </c>
-      <c r="D2" s="7">
+      <c r="B9" s="8" t="s">
+        <v>7724</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>7736</v>
+      </c>
+      <c r="D9" s="26">
         <v>4</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E9" s="26">
         <v>4</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F9" s="26">
         <v>8</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G9" s="26">
         <v>200</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H9" s="6">
         <v>4</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I9" s="6">
         <v>4</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J9" s="6">
         <v>8</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K9" s="6">
         <v>200</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L9" s="26">
         <v>4</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M9" s="26">
         <v>4</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N9" s="26">
         <v>8</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O9" s="26">
         <v>200</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P9" s="6">
         <v>4</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q9" s="6">
         <v>4</v>
       </c>
-      <c r="R2" s="7">
+      <c r="R9" s="6">
         <v>8</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S9" s="6">
         <v>200</v>
       </c>
-      <c r="T2" s="7">
+      <c r="T9" s="26">
         <v>4</v>
       </c>
-      <c r="U2" s="7">
+      <c r="U9" s="26">
         <v>4</v>
       </c>
-      <c r="V2" s="7">
+      <c r="V9" s="26">
         <v>8</v>
       </c>
-      <c r="W2" s="7">
+      <c r="W9" s="26">
         <v>200</v>
       </c>
-      <c r="X2" s="7">
+      <c r="X9" s="6">
         <v>4</v>
       </c>
-      <c r="Y2" s="7">
+      <c r="Y9" s="6">
         <v>4</v>
       </c>
-      <c r="Z2" s="7">
+      <c r="Z9" s="6">
         <v>8</v>
       </c>
-      <c r="AA2" s="7">
+      <c r="AA9" s="6">
         <v>200</v>
       </c>
-      <c r="AB2" s="7">
+      <c r="AB9" s="26">
         <v>4</v>
       </c>
-      <c r="AC2" s="7">
+      <c r="AC9" s="26">
         <v>4</v>
       </c>
-      <c r="AD2" s="7">
+      <c r="AD9" s="26">
         <v>8</v>
       </c>
-      <c r="AE2" s="7">
+      <c r="AE9" s="26">
         <v>200</v>
       </c>
-      <c r="AF2" s="7">
+      <c r="AF9" s="6">
         <v>4</v>
       </c>
-      <c r="AG2" s="7">
+      <c r="AG9" s="6">
         <v>4</v>
       </c>
-      <c r="AH2" s="7">
+      <c r="AH9" s="6">
         <v>8</v>
       </c>
-      <c r="AI2" s="7">
+      <c r="AI9" s="6">
         <v>200</v>
       </c>
-      <c r="AJ2" s="7">
+      <c r="AJ9" s="26">
         <v>4</v>
       </c>
-      <c r="AK2" s="7">
+      <c r="AK9" s="26">
         <v>4</v>
       </c>
-      <c r="AL2" s="7">
+      <c r="AL9" s="26">
         <v>8</v>
       </c>
-      <c r="AM2" s="7">
+      <c r="AM9" s="26">
         <v>200</v>
       </c>
-      <c r="AN2" s="7">
+      <c r="AN9" s="6">
         <v>4</v>
       </c>
-      <c r="AO2" s="7">
+      <c r="AO9" s="6">
         <v>4</v>
       </c>
-      <c r="AP2" s="7">
+      <c r="AP9" s="6">
         <v>8</v>
       </c>
-      <c r="AQ2" s="7">
+      <c r="AQ9" s="6">
         <v>200</v>
       </c>
-      <c r="AR2" s="7">
+      <c r="AR9" s="26">
         <v>4</v>
       </c>
-      <c r="AS2" s="7">
+      <c r="AS9" s="26">
         <v>4</v>
       </c>
-      <c r="AT2" s="7">
+      <c r="AT9" s="26">
         <v>8</v>
       </c>
-      <c r="AU2" s="7">
+      <c r="AU9" s="26">
         <v>200</v>
       </c>
-      <c r="AV2" s="7">
+      <c r="AV9" s="6">
         <v>4</v>
       </c>
-      <c r="AW2" s="7">
+      <c r="AW9" s="6">
         <v>4</v>
       </c>
-      <c r="AX2" s="7">
+      <c r="AX9" s="6">
         <v>8</v>
       </c>
-      <c r="AY2" s="7">
+      <c r="AY9" s="6">
         <v>200</v>
       </c>
-      <c r="AZ2" s="7">
+      <c r="AZ9" s="26">
         <v>4</v>
       </c>
-      <c r="BA2" s="7">
+      <c r="BA9" s="26">
         <v>4</v>
       </c>
-      <c r="BB2" s="7">
+      <c r="BB9" s="26">
         <v>8</v>
       </c>
-      <c r="BC2" s="7">
+      <c r="BC9" s="26">
         <v>200</v>
       </c>
-      <c r="BD2" s="7">
+      <c r="BD9" s="6">
         <v>4</v>
       </c>
-      <c r="BE2" s="7">
+      <c r="BE9" s="6">
         <v>4</v>
       </c>
-      <c r="BF2" s="7">
+      <c r="BF9" s="6">
         <v>8</v>
       </c>
-      <c r="BG2" s="7">
+      <c r="BG9" s="6">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>7733</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>7731</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>7743</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="B10" s="8" t="s">
+        <v>7724</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>7736</v>
+      </c>
+      <c r="D10" s="26">
         <v>4</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E10" s="26">
         <v>4</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F10" s="26">
         <v>8</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G10" s="26">
         <v>200</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H10" s="6">
         <v>4</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I10" s="6">
         <v>4</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J10" s="6">
         <v>8</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K10" s="6">
         <v>200</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L10" s="26">
         <v>4</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M10" s="26">
         <v>4</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N10" s="26">
         <v>8</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O10" s="26">
         <v>200</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P10" s="6">
         <v>4</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="Q10" s="6">
         <v>4</v>
       </c>
-      <c r="R3" s="7">
+      <c r="R10" s="6">
         <v>8</v>
       </c>
-      <c r="S3" s="7">
+      <c r="S10" s="6">
         <v>200</v>
       </c>
-      <c r="T3" s="7">
+      <c r="T10" s="26">
         <v>4</v>
       </c>
-      <c r="U3" s="7">
+      <c r="U10" s="26">
         <v>4</v>
       </c>
-      <c r="V3" s="7">
+      <c r="V10" s="26">
         <v>8</v>
       </c>
-      <c r="W3" s="7">
+      <c r="W10" s="26">
         <v>200</v>
       </c>
-      <c r="X3" s="7">
+      <c r="X10" s="6">
         <v>4</v>
       </c>
-      <c r="Y3" s="7">
+      <c r="Y10" s="6">
         <v>4</v>
       </c>
-      <c r="Z3" s="7">
+      <c r="Z10" s="6">
         <v>8</v>
       </c>
-      <c r="AA3" s="7">
+      <c r="AA10" s="6">
         <v>200</v>
       </c>
-      <c r="AB3" s="7">
+      <c r="AB10" s="26">
         <v>4</v>
       </c>
-      <c r="AC3" s="7">
+      <c r="AC10" s="26">
         <v>4</v>
       </c>
-      <c r="AD3" s="7">
+      <c r="AD10" s="26">
         <v>8</v>
       </c>
-      <c r="AE3" s="7">
+      <c r="AE10" s="26">
         <v>200</v>
       </c>
-      <c r="AF3" s="7">
+      <c r="AF10" s="6">
         <v>4</v>
       </c>
-      <c r="AG3" s="7">
+      <c r="AG10" s="6">
         <v>4</v>
       </c>
-      <c r="AH3" s="7">
+      <c r="AH10" s="6">
         <v>8</v>
       </c>
-      <c r="AI3" s="7">
+      <c r="AI10" s="6">
         <v>200</v>
       </c>
-      <c r="AJ3" s="7">
+      <c r="AJ10" s="26">
         <v>4</v>
       </c>
-      <c r="AK3" s="7">
+      <c r="AK10" s="26">
         <v>4</v>
       </c>
-      <c r="AL3" s="7">
+      <c r="AL10" s="26">
         <v>8</v>
       </c>
-      <c r="AM3" s="7">
+      <c r="AM10" s="26">
         <v>200</v>
       </c>
-      <c r="AN3" s="7">
+      <c r="AN10" s="6">
         <v>4</v>
       </c>
-      <c r="AO3" s="7">
+      <c r="AO10" s="6">
         <v>4</v>
       </c>
-      <c r="AP3" s="7">
+      <c r="AP10" s="6">
         <v>8</v>
       </c>
-      <c r="AQ3" s="7">
+      <c r="AQ10" s="6">
         <v>200</v>
       </c>
-      <c r="AR3" s="7">
+      <c r="AR10" s="26">
         <v>4</v>
       </c>
-      <c r="AS3" s="7">
+      <c r="AS10" s="26">
         <v>4</v>
       </c>
-      <c r="AT3" s="7">
+      <c r="AT10" s="26">
         <v>8</v>
       </c>
-      <c r="AU3" s="7">
+      <c r="AU10" s="26">
         <v>200</v>
       </c>
-      <c r="AV3" s="7">
+      <c r="AV10" s="6">
         <v>4</v>
       </c>
-      <c r="AW3" s="7">
+      <c r="AW10" s="6">
         <v>4</v>
       </c>
-      <c r="AX3" s="7">
+      <c r="AX10" s="6">
         <v>8</v>
       </c>
-      <c r="AY3" s="7">
+      <c r="AY10" s="6">
         <v>200</v>
       </c>
-      <c r="AZ3" s="7">
+      <c r="AZ10" s="26">
         <v>4</v>
       </c>
-      <c r="BA3" s="7">
+      <c r="BA10" s="26">
         <v>4</v>
       </c>
-      <c r="BB3" s="7">
+      <c r="BB10" s="26">
         <v>8</v>
       </c>
-      <c r="BC3" s="7">
+      <c r="BC10" s="26">
         <v>200</v>
       </c>
-      <c r="BD3" s="7">
+      <c r="BD10" s="6">
         <v>4</v>
       </c>
-      <c r="BE3" s="7">
+      <c r="BE10" s="6">
         <v>4</v>
       </c>
-      <c r="BF3" s="7">
+      <c r="BF10" s="6">
         <v>8</v>
       </c>
-      <c r="BG3" s="7">
+      <c r="BG10" s="6">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>7734</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>7731</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>7743</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="B11" s="8" t="s">
+        <v>7724</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>7736</v>
+      </c>
+      <c r="D11" s="26">
         <v>4</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E11" s="26">
         <v>4</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F11" s="26">
         <v>8</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G11" s="26">
         <v>200</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H11" s="6">
         <v>4</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I11" s="6">
         <v>4</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J11" s="6">
         <v>8</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K11" s="6">
         <v>200</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L11" s="26">
         <v>4</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M11" s="26">
         <v>4</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N11" s="26">
         <v>8</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O11" s="26">
         <v>200</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P11" s="6">
         <v>4</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q11" s="6">
         <v>4</v>
       </c>
-      <c r="R4" s="7">
+      <c r="R11" s="6">
         <v>8</v>
       </c>
-      <c r="S4" s="7">
+      <c r="S11" s="6">
         <v>200</v>
       </c>
-      <c r="T4" s="7">
+      <c r="T11" s="26">
         <v>4</v>
       </c>
-      <c r="U4" s="7">
+      <c r="U11" s="26">
         <v>4</v>
       </c>
-      <c r="V4" s="7">
+      <c r="V11" s="26">
         <v>8</v>
       </c>
-      <c r="W4" s="7">
+      <c r="W11" s="26">
         <v>200</v>
       </c>
-      <c r="X4" s="7">
+      <c r="X11" s="6">
         <v>4</v>
       </c>
-      <c r="Y4" s="7">
+      <c r="Y11" s="6">
         <v>4</v>
       </c>
-      <c r="Z4" s="7">
+      <c r="Z11" s="6">
         <v>8</v>
       </c>
-      <c r="AA4" s="7">
+      <c r="AA11" s="6">
         <v>200</v>
       </c>
-      <c r="AB4" s="7">
+      <c r="AB11" s="26">
         <v>4</v>
       </c>
-      <c r="AC4" s="7">
+      <c r="AC11" s="26">
         <v>4</v>
       </c>
-      <c r="AD4" s="7">
+      <c r="AD11" s="26">
         <v>8</v>
       </c>
-      <c r="AE4" s="7">
+      <c r="AE11" s="26">
         <v>200</v>
       </c>
-      <c r="AF4" s="7">
+      <c r="AF11" s="6">
         <v>4</v>
       </c>
-      <c r="AG4" s="7">
+      <c r="AG11" s="6">
         <v>4</v>
       </c>
-      <c r="AH4" s="7">
+      <c r="AH11" s="6">
         <v>8</v>
       </c>
-      <c r="AI4" s="7">
+      <c r="AI11" s="6">
         <v>200</v>
       </c>
-      <c r="AJ4" s="7">
+      <c r="AJ11" s="26">
         <v>4</v>
       </c>
-      <c r="AK4" s="7">
+      <c r="AK11" s="26">
         <v>4</v>
       </c>
-      <c r="AL4" s="7">
+      <c r="AL11" s="26">
         <v>8</v>
       </c>
-      <c r="AM4" s="7">
+      <c r="AM11" s="26">
         <v>200</v>
       </c>
-      <c r="AN4" s="7">
+      <c r="AN11" s="6">
         <v>4</v>
       </c>
-      <c r="AO4" s="7">
+      <c r="AO11" s="6">
         <v>4</v>
       </c>
-      <c r="AP4" s="7">
+      <c r="AP11" s="6">
         <v>8</v>
       </c>
-      <c r="AQ4" s="7">
+      <c r="AQ11" s="6">
         <v>200</v>
       </c>
-      <c r="AR4" s="7">
+      <c r="AR11" s="26">
         <v>4</v>
       </c>
-      <c r="AS4" s="7">
+      <c r="AS11" s="26">
         <v>4</v>
       </c>
-      <c r="AT4" s="7">
+      <c r="AT11" s="26">
         <v>8</v>
       </c>
-      <c r="AU4" s="7">
+      <c r="AU11" s="26">
         <v>200</v>
       </c>
-      <c r="AV4" s="7">
+      <c r="AV11" s="6">
         <v>4</v>
       </c>
-      <c r="AW4" s="7">
+      <c r="AW11" s="6">
         <v>4</v>
       </c>
-      <c r="AX4" s="7">
+      <c r="AX11" s="6">
         <v>8</v>
       </c>
-      <c r="AY4" s="7">
+      <c r="AY11" s="6">
         <v>200</v>
       </c>
-      <c r="AZ4" s="7">
+      <c r="AZ11" s="26">
         <v>4</v>
       </c>
-      <c r="BA4" s="7">
+      <c r="BA11" s="26">
         <v>4</v>
       </c>
-      <c r="BB4" s="7">
+      <c r="BB11" s="26">
         <v>8</v>
       </c>
-      <c r="BC4" s="7">
+      <c r="BC11" s="26">
         <v>200</v>
       </c>
-      <c r="BD4" s="7">
+      <c r="BD11" s="6">
         <v>4</v>
       </c>
-      <c r="BE4" s="7">
+      <c r="BE11" s="6">
         <v>4</v>
       </c>
-      <c r="BF4" s="7">
+      <c r="BF11" s="6">
         <v>8</v>
       </c>
-      <c r="BG4" s="7">
+      <c r="BG11" s="6">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>7735</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>7731</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>7743</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="B12" s="8" t="s">
+        <v>7724</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>7736</v>
+      </c>
+      <c r="D12" s="26">
         <v>4</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E12" s="26">
         <v>4</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F12" s="26">
         <v>8</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G12" s="26">
         <v>200</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H12" s="6">
         <v>4</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I12" s="6">
         <v>4</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J12" s="6">
         <v>8</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K12" s="6">
         <v>200</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L12" s="26">
         <v>4</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M12" s="26">
         <v>4</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N12" s="26">
         <v>8</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O12" s="26">
         <v>200</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P12" s="6">
         <v>4</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="Q12" s="6">
         <v>4</v>
       </c>
-      <c r="R5" s="7">
+      <c r="R12" s="6">
         <v>8</v>
       </c>
-      <c r="S5" s="7">
+      <c r="S12" s="6">
         <v>200</v>
       </c>
-      <c r="T5" s="7">
+      <c r="T12" s="26">
         <v>4</v>
       </c>
-      <c r="U5" s="7">
+      <c r="U12" s="26">
         <v>4</v>
       </c>
-      <c r="V5" s="7">
+      <c r="V12" s="26">
         <v>8</v>
       </c>
-      <c r="W5" s="7">
+      <c r="W12" s="26">
         <v>200</v>
       </c>
-      <c r="X5" s="7">
+      <c r="X12" s="6">
         <v>4</v>
       </c>
-      <c r="Y5" s="7">
+      <c r="Y12" s="6">
         <v>4</v>
       </c>
-      <c r="Z5" s="7">
+      <c r="Z12" s="6">
         <v>8</v>
       </c>
-      <c r="AA5" s="7">
+      <c r="AA12" s="6">
         <v>200</v>
       </c>
-      <c r="AB5" s="7">
+      <c r="AB12" s="26">
         <v>4</v>
       </c>
-      <c r="AC5" s="7">
+      <c r="AC12" s="26">
         <v>4</v>
       </c>
-      <c r="AD5" s="7">
+      <c r="AD12" s="26">
         <v>8</v>
       </c>
-      <c r="AE5" s="7">
+      <c r="AE12" s="26">
         <v>200</v>
       </c>
-      <c r="AF5" s="7">
+      <c r="AF12" s="6">
         <v>4</v>
       </c>
-      <c r="AG5" s="7">
+      <c r="AG12" s="6">
         <v>4</v>
       </c>
-      <c r="AH5" s="7">
+      <c r="AH12" s="6">
         <v>8</v>
       </c>
-      <c r="AI5" s="7">
+      <c r="AI12" s="6">
         <v>200</v>
       </c>
-      <c r="AJ5" s="7">
+      <c r="AJ12" s="26">
         <v>4</v>
       </c>
-      <c r="AK5" s="7">
+      <c r="AK12" s="26">
         <v>4</v>
       </c>
-      <c r="AL5" s="7">
+      <c r="AL12" s="26">
         <v>8</v>
       </c>
-      <c r="AM5" s="7">
+      <c r="AM12" s="26">
         <v>200</v>
       </c>
-      <c r="AN5" s="7">
+      <c r="AN12" s="6">
         <v>4</v>
       </c>
-      <c r="AO5" s="7">
+      <c r="AO12" s="6">
         <v>4</v>
       </c>
-      <c r="AP5" s="7">
+      <c r="AP12" s="6">
         <v>8</v>
       </c>
-      <c r="AQ5" s="7">
+      <c r="AQ12" s="6">
         <v>200</v>
       </c>
-      <c r="AR5" s="7">
+      <c r="AR12" s="26">
         <v>4</v>
       </c>
-      <c r="AS5" s="7">
+      <c r="AS12" s="26">
         <v>4</v>
       </c>
-      <c r="AT5" s="7">
+      <c r="AT12" s="26">
         <v>8</v>
       </c>
-      <c r="AU5" s="7">
+      <c r="AU12" s="26">
         <v>200</v>
       </c>
-      <c r="AV5" s="7">
+      <c r="AV12" s="6">
         <v>4</v>
       </c>
-      <c r="AW5" s="7">
+      <c r="AW12" s="6">
         <v>4</v>
       </c>
-      <c r="AX5" s="7">
+      <c r="AX12" s="6">
         <v>8</v>
       </c>
-      <c r="AY5" s="7">
+      <c r="AY12" s="6">
         <v>200</v>
       </c>
-      <c r="AZ5" s="7">
+      <c r="AZ12" s="26">
         <v>4</v>
       </c>
-      <c r="BA5" s="7">
+      <c r="BA12" s="26">
         <v>4</v>
       </c>
-      <c r="BB5" s="7">
+      <c r="BB12" s="26">
         <v>8</v>
       </c>
-      <c r="BC5" s="7">
+      <c r="BC12" s="26">
         <v>200</v>
       </c>
-      <c r="BD5" s="7">
+      <c r="BD12" s="6">
         <v>4</v>
       </c>
-      <c r="BE5" s="7">
+      <c r="BE12" s="6">
         <v>4</v>
       </c>
-      <c r="BF5" s="7">
+      <c r="BF12" s="6">
         <v>8</v>
       </c>
-      <c r="BG5" s="7">
+      <c r="BG12" s="6">
         <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>7736</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>7731</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>7743</v>
-      </c>
-      <c r="D6" s="7">
-        <v>4</v>
-      </c>
-      <c r="E6" s="7">
-        <v>4</v>
-      </c>
-      <c r="F6" s="7">
-        <v>8</v>
-      </c>
-      <c r="G6" s="7">
-        <v>200</v>
-      </c>
-      <c r="H6" s="7">
-        <v>4</v>
-      </c>
-      <c r="I6" s="7">
-        <v>4</v>
-      </c>
-      <c r="J6" s="7">
-        <v>8</v>
-      </c>
-      <c r="K6" s="7">
-        <v>200</v>
-      </c>
-      <c r="L6" s="7">
-        <v>4</v>
-      </c>
-      <c r="M6" s="7">
-        <v>4</v>
-      </c>
-      <c r="N6" s="7">
-        <v>8</v>
-      </c>
-      <c r="O6" s="7">
-        <v>200</v>
-      </c>
-      <c r="P6" s="7">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>4</v>
-      </c>
-      <c r="R6" s="7">
-        <v>8</v>
-      </c>
-      <c r="S6" s="7">
-        <v>200</v>
-      </c>
-      <c r="T6" s="7">
-        <v>4</v>
-      </c>
-      <c r="U6" s="7">
-        <v>4</v>
-      </c>
-      <c r="V6" s="7">
-        <v>8</v>
-      </c>
-      <c r="W6" s="7">
-        <v>200</v>
-      </c>
-      <c r="X6" s="7">
-        <v>4</v>
-      </c>
-      <c r="Y6" s="7">
-        <v>4</v>
-      </c>
-      <c r="Z6" s="7">
-        <v>8</v>
-      </c>
-      <c r="AA6" s="7">
-        <v>200</v>
-      </c>
-      <c r="AB6" s="7">
-        <v>4</v>
-      </c>
-      <c r="AC6" s="7">
-        <v>4</v>
-      </c>
-      <c r="AD6" s="7">
-        <v>8</v>
-      </c>
-      <c r="AE6" s="7">
-        <v>200</v>
-      </c>
-      <c r="AF6" s="7">
-        <v>4</v>
-      </c>
-      <c r="AG6" s="7">
-        <v>4</v>
-      </c>
-      <c r="AH6" s="7">
-        <v>8</v>
-      </c>
-      <c r="AI6" s="7">
-        <v>200</v>
-      </c>
-      <c r="AJ6" s="7">
-        <v>4</v>
-      </c>
-      <c r="AK6" s="7">
-        <v>4</v>
-      </c>
-      <c r="AL6" s="7">
-        <v>8</v>
-      </c>
-      <c r="AM6" s="7">
-        <v>200</v>
-      </c>
-      <c r="AN6" s="7">
-        <v>4</v>
-      </c>
-      <c r="AO6" s="7">
-        <v>4</v>
-      </c>
-      <c r="AP6" s="7">
-        <v>8</v>
-      </c>
-      <c r="AQ6" s="7">
-        <v>200</v>
-      </c>
-      <c r="AR6" s="7">
-        <v>4</v>
-      </c>
-      <c r="AS6" s="7">
-        <v>4</v>
-      </c>
-      <c r="AT6" s="7">
-        <v>8</v>
-      </c>
-      <c r="AU6" s="7">
-        <v>200</v>
-      </c>
-      <c r="AV6" s="7">
-        <v>4</v>
-      </c>
-      <c r="AW6" s="7">
-        <v>4</v>
-      </c>
-      <c r="AX6" s="7">
-        <v>8</v>
-      </c>
-      <c r="AY6" s="7">
-        <v>200</v>
-      </c>
-      <c r="AZ6" s="7">
-        <v>4</v>
-      </c>
-      <c r="BA6" s="7">
-        <v>4</v>
-      </c>
-      <c r="BB6" s="7">
-        <v>8</v>
-      </c>
-      <c r="BC6" s="7">
-        <v>200</v>
-      </c>
-      <c r="BD6" s="7">
-        <v>4</v>
-      </c>
-      <c r="BE6" s="7">
-        <v>4</v>
-      </c>
-      <c r="BF6" s="7">
-        <v>8</v>
-      </c>
-      <c r="BG6" s="7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>7737</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>7731</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>7743</v>
-      </c>
-      <c r="D7" s="7">
-        <v>4</v>
-      </c>
-      <c r="E7" s="7">
-        <v>4</v>
-      </c>
-      <c r="F7" s="7">
-        <v>8</v>
-      </c>
-      <c r="G7" s="7">
-        <v>200</v>
-      </c>
-      <c r="H7" s="7">
-        <v>4</v>
-      </c>
-      <c r="I7" s="7">
-        <v>4</v>
-      </c>
-      <c r="J7" s="7">
-        <v>8</v>
-      </c>
-      <c r="K7" s="7">
-        <v>200</v>
-      </c>
-      <c r="L7" s="7">
-        <v>4</v>
-      </c>
-      <c r="M7" s="7">
-        <v>4</v>
-      </c>
-      <c r="N7" s="7">
-        <v>8</v>
-      </c>
-      <c r="O7" s="7">
-        <v>200</v>
-      </c>
-      <c r="P7" s="7">
-        <v>4</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>4</v>
-      </c>
-      <c r="R7" s="7">
-        <v>8</v>
-      </c>
-      <c r="S7" s="7">
-        <v>200</v>
-      </c>
-      <c r="T7" s="7">
-        <v>4</v>
-      </c>
-      <c r="U7" s="7">
-        <v>4</v>
-      </c>
-      <c r="V7" s="7">
-        <v>8</v>
-      </c>
-      <c r="W7" s="7">
-        <v>200</v>
-      </c>
-      <c r="X7" s="7">
-        <v>4</v>
-      </c>
-      <c r="Y7" s="7">
-        <v>4</v>
-      </c>
-      <c r="Z7" s="7">
-        <v>8</v>
-      </c>
-      <c r="AA7" s="7">
-        <v>200</v>
-      </c>
-      <c r="AB7" s="7">
-        <v>4</v>
-      </c>
-      <c r="AC7" s="7">
-        <v>4</v>
-      </c>
-      <c r="AD7" s="7">
-        <v>8</v>
-      </c>
-      <c r="AE7" s="7">
-        <v>200</v>
-      </c>
-      <c r="AF7" s="7">
-        <v>4</v>
-      </c>
-      <c r="AG7" s="7">
-        <v>4</v>
-      </c>
-      <c r="AH7" s="7">
-        <v>8</v>
-      </c>
-      <c r="AI7" s="7">
-        <v>200</v>
-      </c>
-      <c r="AJ7" s="7">
-        <v>4</v>
-      </c>
-      <c r="AK7" s="7">
-        <v>4</v>
-      </c>
-      <c r="AL7" s="7">
-        <v>8</v>
-      </c>
-      <c r="AM7" s="7">
-        <v>200</v>
-      </c>
-      <c r="AN7" s="7">
-        <v>4</v>
-      </c>
-      <c r="AO7" s="7">
-        <v>4</v>
-      </c>
-      <c r="AP7" s="7">
-        <v>8</v>
-      </c>
-      <c r="AQ7" s="7">
-        <v>200</v>
-      </c>
-      <c r="AR7" s="7">
-        <v>4</v>
-      </c>
-      <c r="AS7" s="7">
-        <v>4</v>
-      </c>
-      <c r="AT7" s="7">
-        <v>8</v>
-      </c>
-      <c r="AU7" s="7">
-        <v>200</v>
-      </c>
-      <c r="AV7" s="7">
-        <v>4</v>
-      </c>
-      <c r="AW7" s="7">
-        <v>4</v>
-      </c>
-      <c r="AX7" s="7">
-        <v>8</v>
-      </c>
-      <c r="AY7" s="7">
-        <v>200</v>
-      </c>
-      <c r="AZ7" s="7">
-        <v>4</v>
-      </c>
-      <c r="BA7" s="7">
-        <v>4</v>
-      </c>
-      <c r="BB7" s="7">
-        <v>8</v>
-      </c>
-      <c r="BC7" s="7">
-        <v>200</v>
-      </c>
-      <c r="BD7" s="7">
-        <v>4</v>
-      </c>
-      <c r="BE7" s="7">
-        <v>4</v>
-      </c>
-      <c r="BF7" s="7">
-        <v>8</v>
-      </c>
-      <c r="BG7" s="7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>7738</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>7731</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>7743</v>
-      </c>
-      <c r="D8" s="7">
-        <v>4</v>
-      </c>
-      <c r="E8" s="7">
-        <v>4</v>
-      </c>
-      <c r="F8" s="7">
-        <v>8</v>
-      </c>
-      <c r="G8" s="7">
-        <v>200</v>
-      </c>
-      <c r="H8" s="7">
-        <v>4</v>
-      </c>
-      <c r="I8" s="7">
-        <v>4</v>
-      </c>
-      <c r="J8" s="7">
-        <v>8</v>
-      </c>
-      <c r="K8" s="7">
-        <v>200</v>
-      </c>
-      <c r="L8" s="7">
-        <v>4</v>
-      </c>
-      <c r="M8" s="7">
-        <v>4</v>
-      </c>
-      <c r="N8" s="7">
-        <v>8</v>
-      </c>
-      <c r="O8" s="7">
-        <v>200</v>
-      </c>
-      <c r="P8" s="7">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>4</v>
-      </c>
-      <c r="R8" s="7">
-        <v>8</v>
-      </c>
-      <c r="S8" s="7">
-        <v>200</v>
-      </c>
-      <c r="T8" s="7">
-        <v>4</v>
-      </c>
-      <c r="U8" s="7">
-        <v>4</v>
-      </c>
-      <c r="V8" s="7">
-        <v>8</v>
-      </c>
-      <c r="W8" s="7">
-        <v>200</v>
-      </c>
-      <c r="X8" s="7">
-        <v>4</v>
-      </c>
-      <c r="Y8" s="7">
-        <v>4</v>
-      </c>
-      <c r="Z8" s="7">
-        <v>8</v>
-      </c>
-      <c r="AA8" s="7">
-        <v>200</v>
-      </c>
-      <c r="AB8" s="7">
-        <v>4</v>
-      </c>
-      <c r="AC8" s="7">
-        <v>4</v>
-      </c>
-      <c r="AD8" s="7">
-        <v>8</v>
-      </c>
-      <c r="AE8" s="7">
-        <v>200</v>
-      </c>
-      <c r="AF8" s="7">
-        <v>4</v>
-      </c>
-      <c r="AG8" s="7">
-        <v>4</v>
-      </c>
-      <c r="AH8" s="7">
-        <v>8</v>
-      </c>
-      <c r="AI8" s="7">
-        <v>200</v>
-      </c>
-      <c r="AJ8" s="7">
-        <v>4</v>
-      </c>
-      <c r="AK8" s="7">
-        <v>4</v>
-      </c>
-      <c r="AL8" s="7">
-        <v>8</v>
-      </c>
-      <c r="AM8" s="7">
-        <v>200</v>
-      </c>
-      <c r="AN8" s="7">
-        <v>4</v>
-      </c>
-      <c r="AO8" s="7">
-        <v>4</v>
-      </c>
-      <c r="AP8" s="7">
-        <v>8</v>
-      </c>
-      <c r="AQ8" s="7">
-        <v>200</v>
-      </c>
-      <c r="AR8" s="7">
-        <v>4</v>
-      </c>
-      <c r="AS8" s="7">
-        <v>4</v>
-      </c>
-      <c r="AT8" s="7">
-        <v>8</v>
-      </c>
-      <c r="AU8" s="7">
-        <v>200</v>
-      </c>
-      <c r="AV8" s="7">
-        <v>4</v>
-      </c>
-      <c r="AW8" s="7">
-        <v>4</v>
-      </c>
-      <c r="AX8" s="7">
-        <v>8</v>
-      </c>
-      <c r="AY8" s="7">
-        <v>200</v>
-      </c>
-      <c r="AZ8" s="7">
-        <v>4</v>
-      </c>
-      <c r="BA8" s="7">
-        <v>4</v>
-      </c>
-      <c r="BB8" s="7">
-        <v>8</v>
-      </c>
-      <c r="BC8" s="7">
-        <v>200</v>
-      </c>
-      <c r="BD8" s="7">
-        <v>4</v>
-      </c>
-      <c r="BE8" s="7">
-        <v>4</v>
-      </c>
-      <c r="BF8" s="7">
-        <v>8</v>
-      </c>
-      <c r="BG8" s="7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>7739</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>7731</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>7743</v>
-      </c>
-      <c r="D9" s="7">
-        <v>4</v>
-      </c>
-      <c r="E9" s="7">
-        <v>4</v>
-      </c>
-      <c r="F9" s="7">
-        <v>8</v>
-      </c>
-      <c r="G9" s="7">
-        <v>200</v>
-      </c>
-      <c r="H9" s="7">
-        <v>4</v>
-      </c>
-      <c r="I9" s="7">
-        <v>4</v>
-      </c>
-      <c r="J9" s="7">
-        <v>8</v>
-      </c>
-      <c r="K9" s="7">
-        <v>200</v>
-      </c>
-      <c r="L9" s="7">
-        <v>4</v>
-      </c>
-      <c r="M9" s="7">
-        <v>4</v>
-      </c>
-      <c r="N9" s="7">
-        <v>8</v>
-      </c>
-      <c r="O9" s="7">
-        <v>200</v>
-      </c>
-      <c r="P9" s="7">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>4</v>
-      </c>
-      <c r="R9" s="7">
-        <v>8</v>
-      </c>
-      <c r="S9" s="7">
-        <v>200</v>
-      </c>
-      <c r="T9" s="7">
-        <v>4</v>
-      </c>
-      <c r="U9" s="7">
-        <v>4</v>
-      </c>
-      <c r="V9" s="7">
-        <v>8</v>
-      </c>
-      <c r="W9" s="7">
-        <v>200</v>
-      </c>
-      <c r="X9" s="7">
-        <v>4</v>
-      </c>
-      <c r="Y9" s="7">
-        <v>4</v>
-      </c>
-      <c r="Z9" s="7">
-        <v>8</v>
-      </c>
-      <c r="AA9" s="7">
-        <v>200</v>
-      </c>
-      <c r="AB9" s="7">
-        <v>4</v>
-      </c>
-      <c r="AC9" s="7">
-        <v>4</v>
-      </c>
-      <c r="AD9" s="7">
-        <v>8</v>
-      </c>
-      <c r="AE9" s="7">
-        <v>200</v>
-      </c>
-      <c r="AF9" s="7">
-        <v>4</v>
-      </c>
-      <c r="AG9" s="7">
-        <v>4</v>
-      </c>
-      <c r="AH9" s="7">
-        <v>8</v>
-      </c>
-      <c r="AI9" s="7">
-        <v>200</v>
-      </c>
-      <c r="AJ9" s="7">
-        <v>4</v>
-      </c>
-      <c r="AK9" s="7">
-        <v>4</v>
-      </c>
-      <c r="AL9" s="7">
-        <v>8</v>
-      </c>
-      <c r="AM9" s="7">
-        <v>200</v>
-      </c>
-      <c r="AN9" s="7">
-        <v>4</v>
-      </c>
-      <c r="AO9" s="7">
-        <v>4</v>
-      </c>
-      <c r="AP9" s="7">
-        <v>8</v>
-      </c>
-      <c r="AQ9" s="7">
-        <v>200</v>
-      </c>
-      <c r="AR9" s="7">
-        <v>4</v>
-      </c>
-      <c r="AS9" s="7">
-        <v>4</v>
-      </c>
-      <c r="AT9" s="7">
-        <v>8</v>
-      </c>
-      <c r="AU9" s="7">
-        <v>200</v>
-      </c>
-      <c r="AV9" s="7">
-        <v>4</v>
-      </c>
-      <c r="AW9" s="7">
-        <v>4</v>
-      </c>
-      <c r="AX9" s="7">
-        <v>8</v>
-      </c>
-      <c r="AY9" s="7">
-        <v>200</v>
-      </c>
-      <c r="AZ9" s="7">
-        <v>4</v>
-      </c>
-      <c r="BA9" s="7">
-        <v>4</v>
-      </c>
-      <c r="BB9" s="7">
-        <v>8</v>
-      </c>
-      <c r="BC9" s="7">
-        <v>200</v>
-      </c>
-      <c r="BD9" s="7">
-        <v>4</v>
-      </c>
-      <c r="BE9" s="7">
-        <v>4</v>
-      </c>
-      <c r="BF9" s="7">
-        <v>8</v>
-      </c>
-      <c r="BG9" s="7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>7740</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>7731</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>7743</v>
-      </c>
-      <c r="D10" s="7">
-        <v>4</v>
-      </c>
-      <c r="E10" s="7">
-        <v>4</v>
-      </c>
-      <c r="F10" s="7">
-        <v>8</v>
-      </c>
-      <c r="G10" s="7">
-        <v>200</v>
-      </c>
-      <c r="H10" s="7">
-        <v>4</v>
-      </c>
-      <c r="I10" s="7">
-        <v>4</v>
-      </c>
-      <c r="J10" s="7">
-        <v>8</v>
-      </c>
-      <c r="K10" s="7">
-        <v>200</v>
-      </c>
-      <c r="L10" s="7">
-        <v>4</v>
-      </c>
-      <c r="M10" s="7">
-        <v>4</v>
-      </c>
-      <c r="N10" s="7">
-        <v>8</v>
-      </c>
-      <c r="O10" s="7">
-        <v>200</v>
-      </c>
-      <c r="P10" s="7">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>4</v>
-      </c>
-      <c r="R10" s="7">
-        <v>8</v>
-      </c>
-      <c r="S10" s="7">
-        <v>200</v>
-      </c>
-      <c r="T10" s="7">
-        <v>4</v>
-      </c>
-      <c r="U10" s="7">
-        <v>4</v>
-      </c>
-      <c r="V10" s="7">
-        <v>8</v>
-      </c>
-      <c r="W10" s="7">
-        <v>200</v>
-      </c>
-      <c r="X10" s="7">
-        <v>4</v>
-      </c>
-      <c r="Y10" s="7">
-        <v>4</v>
-      </c>
-      <c r="Z10" s="7">
-        <v>8</v>
-      </c>
-      <c r="AA10" s="7">
-        <v>200</v>
-      </c>
-      <c r="AB10" s="7">
-        <v>4</v>
-      </c>
-      <c r="AC10" s="7">
-        <v>4</v>
-      </c>
-      <c r="AD10" s="7">
-        <v>8</v>
-      </c>
-      <c r="AE10" s="7">
-        <v>200</v>
-      </c>
-      <c r="AF10" s="7">
-        <v>4</v>
-      </c>
-      <c r="AG10" s="7">
-        <v>4</v>
-      </c>
-      <c r="AH10" s="7">
-        <v>8</v>
-      </c>
-      <c r="AI10" s="7">
-        <v>200</v>
-      </c>
-      <c r="AJ10" s="7">
-        <v>4</v>
-      </c>
-      <c r="AK10" s="7">
-        <v>4</v>
-      </c>
-      <c r="AL10" s="7">
-        <v>8</v>
-      </c>
-      <c r="AM10" s="7">
-        <v>200</v>
-      </c>
-      <c r="AN10" s="7">
-        <v>4</v>
-      </c>
-      <c r="AO10" s="7">
-        <v>4</v>
-      </c>
-      <c r="AP10" s="7">
-        <v>8</v>
-      </c>
-      <c r="AQ10" s="7">
-        <v>200</v>
-      </c>
-      <c r="AR10" s="7">
-        <v>4</v>
-      </c>
-      <c r="AS10" s="7">
-        <v>4</v>
-      </c>
-      <c r="AT10" s="7">
-        <v>8</v>
-      </c>
-      <c r="AU10" s="7">
-        <v>200</v>
-      </c>
-      <c r="AV10" s="7">
-        <v>4</v>
-      </c>
-      <c r="AW10" s="7">
-        <v>4</v>
-      </c>
-      <c r="AX10" s="7">
-        <v>8</v>
-      </c>
-      <c r="AY10" s="7">
-        <v>200</v>
-      </c>
-      <c r="AZ10" s="7">
-        <v>4</v>
-      </c>
-      <c r="BA10" s="7">
-        <v>4</v>
-      </c>
-      <c r="BB10" s="7">
-        <v>8</v>
-      </c>
-      <c r="BC10" s="7">
-        <v>200</v>
-      </c>
-      <c r="BD10" s="7">
-        <v>4</v>
-      </c>
-      <c r="BE10" s="7">
-        <v>4</v>
-      </c>
-      <c r="BF10" s="7">
-        <v>8</v>
-      </c>
-      <c r="BG10" s="7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>7741</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>7731</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>7743</v>
-      </c>
-      <c r="D11" s="7">
-        <v>4</v>
-      </c>
-      <c r="E11" s="7">
-        <v>4</v>
-      </c>
-      <c r="F11" s="7">
-        <v>8</v>
-      </c>
-      <c r="G11" s="7">
-        <v>200</v>
-      </c>
-      <c r="H11" s="7">
-        <v>4</v>
-      </c>
-      <c r="I11" s="7">
-        <v>4</v>
-      </c>
-      <c r="J11" s="7">
-        <v>8</v>
-      </c>
-      <c r="K11" s="7">
-        <v>200</v>
-      </c>
-      <c r="L11" s="7">
-        <v>4</v>
-      </c>
-      <c r="M11" s="7">
-        <v>4</v>
-      </c>
-      <c r="N11" s="7">
-        <v>8</v>
-      </c>
-      <c r="O11" s="7">
-        <v>200</v>
-      </c>
-      <c r="P11" s="7">
-        <v>4</v>
-      </c>
-      <c r="Q11" s="7">
-        <v>4</v>
-      </c>
-      <c r="R11" s="7">
-        <v>8</v>
-      </c>
-      <c r="S11" s="7">
-        <v>200</v>
-      </c>
-      <c r="T11" s="7">
-        <v>4</v>
-      </c>
-      <c r="U11" s="7">
-        <v>4</v>
-      </c>
-      <c r="V11" s="7">
-        <v>8</v>
-      </c>
-      <c r="W11" s="7">
-        <v>200</v>
-      </c>
-      <c r="X11" s="7">
-        <v>4</v>
-      </c>
-      <c r="Y11" s="7">
-        <v>4</v>
-      </c>
-      <c r="Z11" s="7">
-        <v>8</v>
-      </c>
-      <c r="AA11" s="7">
-        <v>200</v>
-      </c>
-      <c r="AB11" s="7">
-        <v>4</v>
-      </c>
-      <c r="AC11" s="7">
-        <v>4</v>
-      </c>
-      <c r="AD11" s="7">
-        <v>8</v>
-      </c>
-      <c r="AE11" s="7">
-        <v>200</v>
-      </c>
-      <c r="AF11" s="7">
-        <v>4</v>
-      </c>
-      <c r="AG11" s="7">
-        <v>4</v>
-      </c>
-      <c r="AH11" s="7">
-        <v>8</v>
-      </c>
-      <c r="AI11" s="7">
-        <v>200</v>
-      </c>
-      <c r="AJ11" s="7">
-        <v>4</v>
-      </c>
-      <c r="AK11" s="7">
-        <v>4</v>
-      </c>
-      <c r="AL11" s="7">
-        <v>8</v>
-      </c>
-      <c r="AM11" s="7">
-        <v>200</v>
-      </c>
-      <c r="AN11" s="7">
-        <v>4</v>
-      </c>
-      <c r="AO11" s="7">
-        <v>4</v>
-      </c>
-      <c r="AP11" s="7">
-        <v>8</v>
-      </c>
-      <c r="AQ11" s="7">
-        <v>200</v>
-      </c>
-      <c r="AR11" s="7">
-        <v>4</v>
-      </c>
-      <c r="AS11" s="7">
-        <v>4</v>
-      </c>
-      <c r="AT11" s="7">
-        <v>8</v>
-      </c>
-      <c r="AU11" s="7">
-        <v>200</v>
-      </c>
-      <c r="AV11" s="7">
-        <v>4</v>
-      </c>
-      <c r="AW11" s="7">
-        <v>4</v>
-      </c>
-      <c r="AX11" s="7">
-        <v>8</v>
-      </c>
-      <c r="AY11" s="7">
-        <v>200</v>
-      </c>
-      <c r="AZ11" s="7">
-        <v>4</v>
-      </c>
-      <c r="BA11" s="7">
-        <v>4</v>
-      </c>
-      <c r="BB11" s="7">
-        <v>8</v>
-      </c>
-      <c r="BC11" s="7">
-        <v>200</v>
-      </c>
-      <c r="BD11" s="7">
-        <v>4</v>
-      </c>
-      <c r="BE11" s="7">
-        <v>4</v>
-      </c>
-      <c r="BF11" s="7">
-        <v>8</v>
-      </c>
-      <c r="BG11" s="7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>7742</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>7731</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>7743</v>
-      </c>
-      <c r="D12" s="7">
-        <v>4</v>
-      </c>
-      <c r="E12" s="7">
-        <v>4</v>
-      </c>
-      <c r="F12" s="7">
-        <v>8</v>
-      </c>
-      <c r="G12" s="7">
-        <v>200</v>
-      </c>
-      <c r="H12" s="7">
-        <v>4</v>
-      </c>
-      <c r="I12" s="7">
-        <v>4</v>
-      </c>
-      <c r="J12" s="7">
-        <v>8</v>
-      </c>
-      <c r="K12" s="7">
-        <v>200</v>
-      </c>
-      <c r="L12" s="7">
-        <v>4</v>
-      </c>
-      <c r="M12" s="7">
-        <v>4</v>
-      </c>
-      <c r="N12" s="7">
-        <v>8</v>
-      </c>
-      <c r="O12" s="7">
-        <v>200</v>
-      </c>
-      <c r="P12" s="7">
-        <v>4</v>
-      </c>
-      <c r="Q12" s="7">
-        <v>4</v>
-      </c>
-      <c r="R12" s="7">
-        <v>8</v>
-      </c>
-      <c r="S12" s="7">
-        <v>200</v>
-      </c>
-      <c r="T12" s="7">
-        <v>4</v>
-      </c>
-      <c r="U12" s="7">
-        <v>4</v>
-      </c>
-      <c r="V12" s="7">
-        <v>8</v>
-      </c>
-      <c r="W12" s="7">
-        <v>200</v>
-      </c>
-      <c r="X12" s="7">
-        <v>4</v>
-      </c>
-      <c r="Y12" s="7">
-        <v>4</v>
-      </c>
-      <c r="Z12" s="7">
-        <v>8</v>
-      </c>
-      <c r="AA12" s="7">
-        <v>200</v>
-      </c>
-      <c r="AB12" s="7">
-        <v>4</v>
-      </c>
-      <c r="AC12" s="7">
-        <v>4</v>
-      </c>
-      <c r="AD12" s="7">
-        <v>8</v>
-      </c>
-      <c r="AE12" s="7">
-        <v>200</v>
-      </c>
-      <c r="AF12" s="7">
-        <v>4</v>
-      </c>
-      <c r="AG12" s="7">
-        <v>4</v>
-      </c>
-      <c r="AH12" s="7">
-        <v>8</v>
-      </c>
-      <c r="AI12" s="7">
-        <v>200</v>
-      </c>
-      <c r="AJ12" s="7">
-        <v>4</v>
-      </c>
-      <c r="AK12" s="7">
-        <v>4</v>
-      </c>
-      <c r="AL12" s="7">
-        <v>8</v>
-      </c>
-      <c r="AM12" s="7">
-        <v>200</v>
-      </c>
-      <c r="AN12" s="7">
-        <v>4</v>
-      </c>
-      <c r="AO12" s="7">
-        <v>4</v>
-      </c>
-      <c r="AP12" s="7">
-        <v>8</v>
-      </c>
-      <c r="AQ12" s="7">
-        <v>200</v>
-      </c>
-      <c r="AR12" s="7">
-        <v>4</v>
-      </c>
-      <c r="AS12" s="7">
-        <v>4</v>
-      </c>
-      <c r="AT12" s="7">
-        <v>8</v>
-      </c>
-      <c r="AU12" s="7">
-        <v>200</v>
-      </c>
-      <c r="AV12" s="7">
-        <v>4</v>
-      </c>
-      <c r="AW12" s="7">
-        <v>4</v>
-      </c>
-      <c r="AX12" s="7">
-        <v>8</v>
-      </c>
-      <c r="AY12" s="7">
-        <v>200</v>
-      </c>
-      <c r="AZ12" s="7">
-        <v>4</v>
-      </c>
-      <c r="BA12" s="7">
-        <v>4</v>
-      </c>
-      <c r="BB12" s="7">
-        <v>8</v>
-      </c>
-      <c r="BC12" s="7">
-        <v>200</v>
-      </c>
-      <c r="BD12" s="7">
-        <v>4</v>
-      </c>
-      <c r="BE12" s="7">
-        <v>4</v>
-      </c>
-      <c r="BF12" s="7">
-        <v>8</v>
-      </c>
-      <c r="BG12" s="7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="D16" s="12" t="str">
-        <f>D1&amp;" : " &amp; PhasesDetails!A2</f>
-        <v xml:space="preserve">VM : 0-7 Months </v>
-      </c>
-      <c r="E16" s="12" t="str">
-        <f>E1&amp;" : " &amp; PhasesDetails!B2</f>
-        <v>Core : 7</v>
       </c>
     </row>
   </sheetData>
@@ -59945,10 +60233,93 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="57" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27">
+        <v>35</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>7798</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27">
+        <v>36</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>7799</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27">
+        <v>37</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27">
+        <v>38</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>7801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27">
+        <v>39</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>7802</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27">
+        <v>42</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>7803</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="27">
+        <v>43</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>7804</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="27">
+        <v>44</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>7805</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="T6" sqref="G6:T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59957,123 +60328,123 @@
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>7744</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>7745</v>
+    <row r="1" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>7737</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>7738</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="15" t="s">
+        <v>7714</v>
+      </c>
+      <c r="B2" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>7711</v>
+      </c>
+      <c r="B3" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>7712</v>
+      </c>
+      <c r="B4" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>7713</v>
+      </c>
+      <c r="B5" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>7715</v>
+      </c>
+      <c r="B6" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>7716</v>
+      </c>
+      <c r="B7" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>7717</v>
+      </c>
+      <c r="B9" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>7718</v>
+      </c>
+      <c r="B10" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>7719</v>
+      </c>
+      <c r="B11" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>7720</v>
+      </c>
+      <c r="B12" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
         <v>7721</v>
       </c>
-      <c r="B2" s="19">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>7718</v>
-      </c>
-      <c r="B3" s="19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>7719</v>
-      </c>
-      <c r="B4" s="19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>7720</v>
-      </c>
-      <c r="B5" s="19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="B13" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
         <v>7722</v>
       </c>
-      <c r="B6" s="19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="B14" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
         <v>7723</v>
       </c>
-      <c r="B7" s="19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" s="19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>7724</v>
-      </c>
-      <c r="B9" s="19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>7725</v>
-      </c>
-      <c r="B10" s="19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>7726</v>
-      </c>
-      <c r="B11" s="19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>7727</v>
-      </c>
-      <c r="B12" s="19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>7728</v>
-      </c>
-      <c r="B13" s="19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>7729</v>
-      </c>
-      <c r="B14" s="19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
-        <v>7730</v>
-      </c>
-      <c r="B15" s="21">
+      <c r="B15" s="18">
         <v>12</v>
       </c>
     </row>
@@ -60086,31 +60457,32 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA92"/>
+  <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="45.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" style="24" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="45.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>113</v>
       </c>
@@ -60120,96 +60492,71 @@
       <c r="C1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="25" t="str">
-        <f>IFERROR(INDEX(Phases[Phases],1,COLUMN(D1)),"")</f>
-        <v/>
-      </c>
-      <c r="E1" s="25" t="str">
-        <f>IFERROR(INDEX(Phases[#Headers],,COLUMN(B1)),"")</f>
-        <v>Tenure</v>
-      </c>
-      <c r="F1" s="25" t="str">
-        <f>IFERROR(INDEX(Phases[#Headers],,COLUMN(C1)),"")</f>
-        <v/>
-      </c>
-      <c r="G1" s="25" t="str">
-        <f>IFERROR(INDEX(Phases[#Headers],,COLUMN(D1)),"")</f>
-        <v/>
-      </c>
-      <c r="H1" s="25" t="str">
-        <f>IFERROR(INDEX(Phases[#Headers],,COLUMN(E1)),"")</f>
-        <v/>
-      </c>
-      <c r="I1" s="25" t="str">
-        <f>IFERROR(INDEX(Phases[#Headers],,COLUMN(F1)),"")</f>
-        <v/>
-      </c>
-      <c r="J1" s="25" t="str">
-        <f>IFERROR(INDEX(Phases[#Headers],,COLUMN(G1)),"")</f>
-        <v/>
-      </c>
-      <c r="K1" s="25" t="str">
-        <f>IFERROR(INDEX(Phases[#Headers],,COLUMN(H1)),"")</f>
-        <v/>
-      </c>
-      <c r="L1" s="25" t="str">
-        <f>IFERROR(INDEX(Phases[#Headers],,COLUMN(I1)),"")</f>
-        <v/>
-      </c>
-      <c r="M1" s="25" t="str">
-        <f>IFERROR(INDEX(Phases[#Headers],,COLUMN(J1)),"")</f>
-        <v/>
-      </c>
-      <c r="N1" s="25" t="str">
-        <f>IFERROR(INDEX(Phases[#Headers],,COLUMN(K1)),"")</f>
-        <v/>
-      </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="D1" s="25" t="s">
+        <v>7714</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>7711</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>7712</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>7713</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>7715</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>7716</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>7717</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>7718</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>7719</v>
+      </c>
+      <c r="N1" s="25" t="s">
+        <v>7720</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>7721</v>
+      </c>
+      <c r="P1" s="25" t="s">
+        <v>7722</v>
+      </c>
+      <c r="Q1" s="25" t="s">
+        <v>7723</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>131</v>
       </c>
@@ -60253,21 +60600,17 @@
       <c r="N3" s="1">
         <v>15</v>
       </c>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O3" s="1">
+        <v>13</v>
+      </c>
+      <c r="P3" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>131</v>
       </c>
@@ -60311,21 +60654,17 @@
       <c r="N4" s="1">
         <v>15</v>
       </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O4" s="1">
+        <v>13</v>
+      </c>
+      <c r="P4" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>131</v>
       </c>
@@ -60369,21 +60708,17 @@
       <c r="N5" s="1">
         <v>15</v>
       </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-    </row>
-    <row r="6" spans="1:27" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O5" s="1">
+        <v>13</v>
+      </c>
+      <c r="P5" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>131</v>
       </c>
@@ -60427,43 +60762,17 @@
       <c r="N6" s="1">
         <v>15</v>
       </c>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA6" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O6" s="1">
+        <v>13</v>
+      </c>
+      <c r="P6" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>131</v>
       </c>
@@ -60507,52 +60816,38 @@
       <c r="N7" s="1">
         <v>15</v>
       </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="O7" s="1">
+        <v>13</v>
+      </c>
+      <c r="P7" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>150</v>
       </c>
@@ -60596,21 +60891,17 @@
       <c r="N9" s="1">
         <v>15</v>
       </c>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O9" s="1">
+        <v>13</v>
+      </c>
+      <c r="P9" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>150</v>
       </c>
@@ -60654,21 +60945,17 @@
       <c r="N10" s="1">
         <v>15</v>
       </c>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O10" s="1">
+        <v>13</v>
+      </c>
+      <c r="P10" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>150</v>
       </c>
@@ -60712,24 +60999,17 @@
       <c r="N11" s="1">
         <v>15</v>
       </c>
-      <c r="O11" s="5"/>
-      <c r="P11" s="25" t="str">
-        <f>IFERROR(INDEX(Phases[Phases], 1, COLUMN()-COLUMN($D$1)+1),"")</f>
-        <v/>
-      </c>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O11" s="1">
+        <v>13</v>
+      </c>
+      <c r="P11" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>150</v>
       </c>
@@ -60773,21 +61053,17 @@
       <c r="N12" s="1">
         <v>15</v>
       </c>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O12" s="1">
+        <v>13</v>
+      </c>
+      <c r="P12" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>150</v>
       </c>
@@ -60831,21 +61107,17 @@
       <c r="N13" s="1">
         <v>15</v>
       </c>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O13" s="1">
+        <v>13</v>
+      </c>
+      <c r="P13" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>150</v>
       </c>
@@ -60889,21 +61161,17 @@
       <c r="N14" s="1">
         <v>15</v>
       </c>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O14" s="1">
+        <v>13</v>
+      </c>
+      <c r="P14" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>150</v>
       </c>
@@ -60947,21 +61215,17 @@
       <c r="N15" s="1">
         <v>15</v>
       </c>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O15" s="1">
+        <v>13</v>
+      </c>
+      <c r="P15" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>150</v>
       </c>
@@ -61005,21 +61269,17 @@
       <c r="N16" s="1">
         <v>15</v>
       </c>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O16" s="1">
+        <v>13</v>
+      </c>
+      <c r="P16" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>150</v>
       </c>
@@ -61063,21 +61323,17 @@
       <c r="N17" s="1">
         <v>15</v>
       </c>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O17" s="1">
+        <v>13</v>
+      </c>
+      <c r="P17" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>150</v>
       </c>
@@ -61121,21 +61377,17 @@
       <c r="N18" s="1">
         <v>15</v>
       </c>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O18" s="1">
+        <v>13</v>
+      </c>
+      <c r="P18" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>150</v>
       </c>
@@ -61179,21 +61431,17 @@
       <c r="N19" s="1">
         <v>15</v>
       </c>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O19" s="1">
+        <v>13</v>
+      </c>
+      <c r="P19" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>150</v>
       </c>
@@ -61237,21 +61485,17 @@
       <c r="N20" s="1">
         <v>15</v>
       </c>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O20" s="1">
+        <v>13</v>
+      </c>
+      <c r="P20" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>150</v>
       </c>
@@ -61295,21 +61539,17 @@
       <c r="N21" s="1">
         <v>15</v>
       </c>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O21" s="1">
+        <v>13</v>
+      </c>
+      <c r="P21" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>150</v>
       </c>
@@ -61353,21 +61593,17 @@
       <c r="N22" s="1">
         <v>15</v>
       </c>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O22" s="1">
+        <v>13</v>
+      </c>
+      <c r="P22" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>150</v>
       </c>
@@ -61411,21 +61647,17 @@
       <c r="N23" s="1">
         <v>15</v>
       </c>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O23" s="1">
+        <v>13</v>
+      </c>
+      <c r="P23" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>150</v>
       </c>
@@ -61469,21 +61701,17 @@
       <c r="N24" s="1">
         <v>15</v>
       </c>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O24" s="1">
+        <v>13</v>
+      </c>
+      <c r="P24" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>150</v>
       </c>
@@ -61527,21 +61755,17 @@
       <c r="N25" s="1">
         <v>15</v>
       </c>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O25" s="1">
+        <v>13</v>
+      </c>
+      <c r="P25" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>150</v>
       </c>
@@ -61585,21 +61809,17 @@
       <c r="N26" s="1">
         <v>15</v>
       </c>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="5"/>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O26" s="1">
+        <v>13</v>
+      </c>
+      <c r="P26" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>150</v>
       </c>
@@ -61643,21 +61863,17 @@
       <c r="N27" s="1">
         <v>15</v>
       </c>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O27" s="1">
+        <v>13</v>
+      </c>
+      <c r="P27" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>150</v>
       </c>
@@ -61701,21 +61917,17 @@
       <c r="N28" s="1">
         <v>15</v>
       </c>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O28" s="1">
+        <v>13</v>
+      </c>
+      <c r="P28" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>150</v>
       </c>
@@ -61759,21 +61971,17 @@
       <c r="N29" s="1">
         <v>15</v>
       </c>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O29" s="1">
+        <v>13</v>
+      </c>
+      <c r="P29" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>150</v>
       </c>
@@ -61817,21 +62025,17 @@
       <c r="N30" s="1">
         <v>15</v>
       </c>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O30" s="1">
+        <v>13</v>
+      </c>
+      <c r="P30" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>150</v>
       </c>
@@ -61875,21 +62079,17 @@
       <c r="N31" s="1">
         <v>15</v>
       </c>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="5"/>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O31" s="1">
+        <v>13</v>
+      </c>
+      <c r="P31" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>150</v>
       </c>
@@ -61933,21 +62133,17 @@
       <c r="N32" s="1">
         <v>15</v>
       </c>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="5"/>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O32" s="1">
+        <v>13</v>
+      </c>
+      <c r="P32" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>150</v>
       </c>
@@ -61991,21 +62187,17 @@
       <c r="N33" s="1">
         <v>15</v>
       </c>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="5"/>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O33" s="1">
+        <v>13</v>
+      </c>
+      <c r="P33" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>226</v>
       </c>
@@ -62049,21 +62241,17 @@
       <c r="N34" s="1">
         <v>15</v>
       </c>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="5"/>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O34" s="1">
+        <v>13</v>
+      </c>
+      <c r="P34" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>230</v>
       </c>
@@ -62107,52 +62295,38 @@
       <c r="N35" s="1">
         <v>15</v>
       </c>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
-      <c r="AA35" s="5"/>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+      <c r="O35" s="1">
+        <v>13</v>
+      </c>
+      <c r="P35" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="5"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="5"/>
-      <c r="AA36" s="5"/>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="23"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>247</v>
       </c>
@@ -62196,21 +62370,17 @@
       <c r="N37" s="1">
         <v>15</v>
       </c>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="5"/>
-      <c r="W37" s="5"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="5"/>
-      <c r="Z37" s="5"/>
-      <c r="AA37" s="5"/>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O37" s="1">
+        <v>13</v>
+      </c>
+      <c r="P37" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>247</v>
       </c>
@@ -62254,52 +62424,38 @@
       <c r="N38" s="1">
         <v>15</v>
       </c>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="5"/>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
+      <c r="O38" s="1">
+        <v>13</v>
+      </c>
+      <c r="P38" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="5"/>
-      <c r="AA39" s="5"/>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="23"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>247</v>
       </c>
@@ -62343,21 +62499,17 @@
       <c r="N40" s="1">
         <v>15</v>
       </c>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
-      <c r="AA40" s="5"/>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O40" s="1">
+        <v>13</v>
+      </c>
+      <c r="P40" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>247</v>
       </c>
@@ -62401,21 +62553,17 @@
       <c r="N41" s="1">
         <v>15</v>
       </c>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
-      <c r="AA41" s="5"/>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O41" s="1">
+        <v>13</v>
+      </c>
+      <c r="P41" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>247</v>
       </c>
@@ -62459,21 +62607,17 @@
       <c r="N42" s="1">
         <v>15</v>
       </c>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="5"/>
-      <c r="W42" s="5"/>
-      <c r="X42" s="5"/>
-      <c r="Y42" s="5"/>
-      <c r="Z42" s="5"/>
-      <c r="AA42" s="5"/>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O42" s="1">
+        <v>13</v>
+      </c>
+      <c r="P42" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>247</v>
       </c>
@@ -62517,21 +62661,17 @@
       <c r="N43" s="1">
         <v>15</v>
       </c>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="5"/>
-      <c r="W43" s="5"/>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="5"/>
-      <c r="Z43" s="5"/>
-      <c r="AA43" s="5"/>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O43" s="1">
+        <v>13</v>
+      </c>
+      <c r="P43" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>247</v>
       </c>
@@ -62575,21 +62715,17 @@
       <c r="N44" s="1">
         <v>15</v>
       </c>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="5"/>
-      <c r="AA44" s="5"/>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O44" s="1">
+        <v>13</v>
+      </c>
+      <c r="P44" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>247</v>
       </c>
@@ -62633,21 +62769,17 @@
       <c r="N45" s="1">
         <v>15</v>
       </c>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="5"/>
-      <c r="W45" s="5"/>
-      <c r="X45" s="5"/>
-      <c r="Y45" s="5"/>
-      <c r="Z45" s="5"/>
-      <c r="AA45" s="5"/>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O45" s="1">
+        <v>13</v>
+      </c>
+      <c r="P45" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>247</v>
       </c>
@@ -62691,21 +62823,17 @@
       <c r="N46" s="1">
         <v>15</v>
       </c>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="5"/>
-      <c r="V46" s="5"/>
-      <c r="W46" s="5"/>
-      <c r="X46" s="5"/>
-      <c r="Y46" s="5"/>
-      <c r="Z46" s="5"/>
-      <c r="AA46" s="5"/>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O46" s="1">
+        <v>13</v>
+      </c>
+      <c r="P46" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>247</v>
       </c>
@@ -62749,21 +62877,17 @@
       <c r="N47" s="1">
         <v>15</v>
       </c>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5"/>
-      <c r="V47" s="5"/>
-      <c r="W47" s="5"/>
-      <c r="X47" s="5"/>
-      <c r="Y47" s="5"/>
-      <c r="Z47" s="5"/>
-      <c r="AA47" s="5"/>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O47" s="1">
+        <v>13</v>
+      </c>
+      <c r="P47" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>247</v>
       </c>
@@ -62807,21 +62931,17 @@
       <c r="N48" s="1">
         <v>15</v>
       </c>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
-      <c r="T48" s="5"/>
-      <c r="U48" s="5"/>
-      <c r="V48" s="5"/>
-      <c r="W48" s="5"/>
-      <c r="X48" s="5"/>
-      <c r="Y48" s="5"/>
-      <c r="Z48" s="5"/>
-      <c r="AA48" s="5"/>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O48" s="1">
+        <v>13</v>
+      </c>
+      <c r="P48" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>247</v>
       </c>
@@ -62865,21 +62985,17 @@
       <c r="N49" s="1">
         <v>15</v>
       </c>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="5"/>
-      <c r="R49" s="5"/>
-      <c r="S49" s="5"/>
-      <c r="T49" s="5"/>
-      <c r="U49" s="5"/>
-      <c r="V49" s="5"/>
-      <c r="W49" s="5"/>
-      <c r="X49" s="5"/>
-      <c r="Y49" s="5"/>
-      <c r="Z49" s="5"/>
-      <c r="AA49" s="5"/>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O49" s="1">
+        <v>13</v>
+      </c>
+      <c r="P49" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>247</v>
       </c>
@@ -62923,21 +63039,17 @@
       <c r="N50" s="1">
         <v>15</v>
       </c>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
-      <c r="U50" s="5"/>
-      <c r="V50" s="5"/>
-      <c r="W50" s="5"/>
-      <c r="X50" s="5"/>
-      <c r="Y50" s="5"/>
-      <c r="Z50" s="5"/>
-      <c r="AA50" s="5"/>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O50" s="1">
+        <v>13</v>
+      </c>
+      <c r="P50" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>247</v>
       </c>
@@ -62981,21 +63093,17 @@
       <c r="N51" s="1">
         <v>15</v>
       </c>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
-      <c r="U51" s="5"/>
-      <c r="V51" s="5"/>
-      <c r="W51" s="5"/>
-      <c r="X51" s="5"/>
-      <c r="Y51" s="5"/>
-      <c r="Z51" s="5"/>
-      <c r="AA51" s="5"/>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O51" s="1">
+        <v>13</v>
+      </c>
+      <c r="P51" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>247</v>
       </c>
@@ -63039,21 +63147,17 @@
       <c r="N52" s="1">
         <v>15</v>
       </c>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5"/>
-      <c r="R52" s="5"/>
-      <c r="S52" s="5"/>
-      <c r="T52" s="5"/>
-      <c r="U52" s="5"/>
-      <c r="V52" s="5"/>
-      <c r="W52" s="5"/>
-      <c r="X52" s="5"/>
-      <c r="Y52" s="5"/>
-      <c r="Z52" s="5"/>
-      <c r="AA52" s="5"/>
-    </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O52" s="1">
+        <v>13</v>
+      </c>
+      <c r="P52" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>247</v>
       </c>
@@ -63097,21 +63201,17 @@
       <c r="N53" s="1">
         <v>15</v>
       </c>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
-      <c r="U53" s="5"/>
-      <c r="V53" s="5"/>
-      <c r="W53" s="5"/>
-      <c r="X53" s="5"/>
-      <c r="Y53" s="5"/>
-      <c r="Z53" s="5"/>
-      <c r="AA53" s="5"/>
-    </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O53" s="1">
+        <v>13</v>
+      </c>
+      <c r="P53" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>247</v>
       </c>
@@ -63155,21 +63255,17 @@
       <c r="N54" s="1">
         <v>15</v>
       </c>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
-      <c r="U54" s="5"/>
-      <c r="V54" s="5"/>
-      <c r="W54" s="5"/>
-      <c r="X54" s="5"/>
-      <c r="Y54" s="5"/>
-      <c r="Z54" s="5"/>
-      <c r="AA54" s="5"/>
-    </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O54" s="1">
+        <v>13</v>
+      </c>
+      <c r="P54" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>247</v>
       </c>
@@ -63213,21 +63309,17 @@
       <c r="N55" s="1">
         <v>15</v>
       </c>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
-      <c r="R55" s="5"/>
-      <c r="S55" s="5"/>
-      <c r="T55" s="5"/>
-      <c r="U55" s="5"/>
-      <c r="V55" s="5"/>
-      <c r="W55" s="5"/>
-      <c r="X55" s="5"/>
-      <c r="Y55" s="5"/>
-      <c r="Z55" s="5"/>
-      <c r="AA55" s="5"/>
-    </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O55" s="1">
+        <v>13</v>
+      </c>
+      <c r="P55" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>247</v>
       </c>
@@ -63271,21 +63363,17 @@
       <c r="N56" s="1">
         <v>15</v>
       </c>
-      <c r="O56" s="5"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="5"/>
-      <c r="R56" s="5"/>
-      <c r="S56" s="5"/>
-      <c r="T56" s="5"/>
-      <c r="U56" s="5"/>
-      <c r="V56" s="5"/>
-      <c r="W56" s="5"/>
-      <c r="X56" s="5"/>
-      <c r="Y56" s="5"/>
-      <c r="Z56" s="5"/>
-      <c r="AA56" s="5"/>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O56" s="1">
+        <v>13</v>
+      </c>
+      <c r="P56" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>247</v>
       </c>
@@ -63329,52 +63417,38 @@
       <c r="N57" s="1">
         <v>15</v>
       </c>
-      <c r="O57" s="5"/>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="5"/>
-      <c r="R57" s="5"/>
-      <c r="S57" s="5"/>
-      <c r="T57" s="5"/>
-      <c r="U57" s="5"/>
-      <c r="V57" s="5"/>
-      <c r="W57" s="5"/>
-      <c r="X57" s="5"/>
-      <c r="Y57" s="5"/>
-      <c r="Z57" s="5"/>
-      <c r="AA57" s="5"/>
-    </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
+      <c r="O57" s="1">
+        <v>13</v>
+      </c>
+      <c r="P57" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
-      <c r="M58" s="11"/>
-      <c r="N58" s="11"/>
-      <c r="O58" s="5"/>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="5"/>
-      <c r="R58" s="5"/>
-      <c r="S58" s="5"/>
-      <c r="T58" s="5"/>
-      <c r="U58" s="5"/>
-      <c r="V58" s="5"/>
-      <c r="W58" s="5"/>
-      <c r="X58" s="5"/>
-      <c r="Y58" s="5"/>
-      <c r="Z58" s="5"/>
-      <c r="AA58" s="5"/>
-    </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="23"/>
+      <c r="M58" s="23"/>
+      <c r="N58" s="23"/>
+      <c r="O58" s="23"/>
+      <c r="P58" s="23"/>
+      <c r="Q58" s="23"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>247</v>
       </c>
@@ -63418,21 +63492,17 @@
       <c r="N59" s="1" t="s">
         <v>7709</v>
       </c>
-      <c r="O59" s="5"/>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="5"/>
-      <c r="S59" s="5"/>
-      <c r="T59" s="5"/>
-      <c r="U59" s="5"/>
-      <c r="V59" s="5"/>
-      <c r="W59" s="5"/>
-      <c r="X59" s="5"/>
-      <c r="Y59" s="5"/>
-      <c r="Z59" s="5"/>
-      <c r="AA59" s="5"/>
-    </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O59" s="1" t="s">
+        <v>7709</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>7709</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>7709</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>247</v>
       </c>
@@ -63476,21 +63546,17 @@
       <c r="N60" s="1">
         <v>15</v>
       </c>
-      <c r="O60" s="5"/>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="5"/>
-      <c r="R60" s="5"/>
-      <c r="S60" s="5"/>
-      <c r="T60" s="5"/>
-      <c r="U60" s="5"/>
-      <c r="V60" s="5"/>
-      <c r="W60" s="5"/>
-      <c r="X60" s="5"/>
-      <c r="Y60" s="5"/>
-      <c r="Z60" s="5"/>
-      <c r="AA60" s="5"/>
-    </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O60" s="1">
+        <v>13</v>
+      </c>
+      <c r="P60" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>247</v>
       </c>
@@ -63534,21 +63600,17 @@
       <c r="N61" s="1">
         <v>15</v>
       </c>
-      <c r="O61" s="5"/>
-      <c r="P61" s="5"/>
-      <c r="Q61" s="5"/>
-      <c r="R61" s="5"/>
-      <c r="S61" s="5"/>
-      <c r="T61" s="5"/>
-      <c r="U61" s="5"/>
-      <c r="V61" s="5"/>
-      <c r="W61" s="5"/>
-      <c r="X61" s="5"/>
-      <c r="Y61" s="5"/>
-      <c r="Z61" s="5"/>
-      <c r="AA61" s="5"/>
-    </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O61" s="1">
+        <v>13</v>
+      </c>
+      <c r="P61" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>247</v>
       </c>
@@ -63592,21 +63654,17 @@
       <c r="N62" s="1">
         <v>4</v>
       </c>
-      <c r="O62" s="5"/>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="5"/>
-      <c r="R62" s="5"/>
-      <c r="S62" s="5"/>
-      <c r="T62" s="5"/>
-      <c r="U62" s="5"/>
-      <c r="V62" s="5"/>
-      <c r="W62" s="5"/>
-      <c r="X62" s="5"/>
-      <c r="Y62" s="5"/>
-      <c r="Z62" s="5"/>
-      <c r="AA62" s="5"/>
-    </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O62" s="1">
+        <v>4</v>
+      </c>
+      <c r="P62" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>344</v>
       </c>
@@ -63650,21 +63708,17 @@
       <c r="N63" s="1">
         <v>25</v>
       </c>
-      <c r="O63" s="5"/>
-      <c r="P63" s="5"/>
-      <c r="Q63" s="5"/>
-      <c r="R63" s="5"/>
-      <c r="S63" s="5"/>
-      <c r="T63" s="5"/>
-      <c r="U63" s="5"/>
-      <c r="V63" s="5"/>
-      <c r="W63" s="5"/>
-      <c r="X63" s="5"/>
-      <c r="Y63" s="5"/>
-      <c r="Z63" s="5"/>
-      <c r="AA63" s="5"/>
-    </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O63" s="1">
+        <v>25</v>
+      </c>
+      <c r="P63" s="1">
+        <v>25</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>344</v>
       </c>
@@ -63708,21 +63762,17 @@
       <c r="N64" s="1">
         <v>4</v>
       </c>
-      <c r="O64" s="5"/>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="5"/>
-      <c r="R64" s="5"/>
-      <c r="S64" s="5"/>
-      <c r="T64" s="5"/>
-      <c r="U64" s="5"/>
-      <c r="V64" s="5"/>
-      <c r="W64" s="5"/>
-      <c r="X64" s="5"/>
-      <c r="Y64" s="5"/>
-      <c r="Z64" s="5"/>
-      <c r="AA64" s="5"/>
-    </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O64" s="1">
+        <v>4</v>
+      </c>
+      <c r="P64" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>344</v>
       </c>
@@ -63766,21 +63816,17 @@
       <c r="N65" s="1">
         <v>15</v>
       </c>
-      <c r="O65" s="5"/>
-      <c r="P65" s="5"/>
-      <c r="Q65" s="5"/>
-      <c r="R65" s="5"/>
-      <c r="S65" s="5"/>
-      <c r="T65" s="5"/>
-      <c r="U65" s="5"/>
-      <c r="V65" s="5"/>
-      <c r="W65" s="5"/>
-      <c r="X65" s="5"/>
-      <c r="Y65" s="5"/>
-      <c r="Z65" s="5"/>
-      <c r="AA65" s="5"/>
-    </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O65" s="1">
+        <v>13</v>
+      </c>
+      <c r="P65" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>344</v>
       </c>
@@ -63824,21 +63870,17 @@
       <c r="N66" s="1">
         <v>15</v>
       </c>
-      <c r="O66" s="5"/>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="5"/>
-      <c r="R66" s="5"/>
-      <c r="S66" s="5"/>
-      <c r="T66" s="5"/>
-      <c r="U66" s="5"/>
-      <c r="V66" s="5"/>
-      <c r="W66" s="5"/>
-      <c r="X66" s="5"/>
-      <c r="Y66" s="5"/>
-      <c r="Z66" s="5"/>
-      <c r="AA66" s="5"/>
-    </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O66" s="1">
+        <v>13</v>
+      </c>
+      <c r="P66" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>344</v>
       </c>
@@ -63882,21 +63924,17 @@
       <c r="N67" s="1">
         <v>15</v>
       </c>
-      <c r="O67" s="5"/>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="5"/>
-      <c r="R67" s="5"/>
-      <c r="S67" s="5"/>
-      <c r="T67" s="5"/>
-      <c r="U67" s="5"/>
-      <c r="V67" s="5"/>
-      <c r="W67" s="5"/>
-      <c r="X67" s="5"/>
-      <c r="Y67" s="5"/>
-      <c r="Z67" s="5"/>
-      <c r="AA67" s="5"/>
-    </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O67" s="1">
+        <v>13</v>
+      </c>
+      <c r="P67" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q67" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>247</v>
       </c>
@@ -63940,723 +63978,23 @@
       <c r="N68" s="1">
         <v>9</v>
       </c>
-      <c r="O68" s="5"/>
-      <c r="P68" s="5"/>
-      <c r="Q68" s="5"/>
-      <c r="R68" s="5"/>
-      <c r="S68" s="5"/>
-      <c r="T68" s="5"/>
-      <c r="U68" s="5"/>
-      <c r="V68" s="5"/>
-      <c r="W68" s="5"/>
-      <c r="X68" s="5"/>
-      <c r="Y68" s="5"/>
-      <c r="Z68" s="5"/>
-      <c r="AA68" s="5"/>
-    </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
-      <c r="L69" s="5"/>
-      <c r="M69" s="5"/>
-      <c r="N69" s="5"/>
-      <c r="O69" s="5"/>
-      <c r="P69" s="5"/>
-      <c r="Q69" s="5"/>
-      <c r="R69" s="5"/>
-      <c r="S69" s="5"/>
-      <c r="T69" s="5"/>
-      <c r="U69" s="5"/>
-      <c r="V69" s="5"/>
-      <c r="W69" s="5"/>
-      <c r="X69" s="5"/>
-      <c r="Y69" s="5"/>
-      <c r="Z69" s="5"/>
-      <c r="AA69" s="5"/>
-    </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
-      <c r="L70" s="5"/>
-      <c r="M70" s="5"/>
-      <c r="N70" s="5"/>
-      <c r="O70" s="5"/>
-      <c r="P70" s="5"/>
-      <c r="Q70" s="5"/>
-      <c r="R70" s="5"/>
-      <c r="S70" s="5"/>
-      <c r="T70" s="5"/>
-      <c r="U70" s="5"/>
-      <c r="V70" s="5"/>
-      <c r="W70" s="5"/>
-      <c r="X70" s="5"/>
-      <c r="Y70" s="5"/>
-      <c r="Z70" s="5"/>
-      <c r="AA70" s="5"/>
-    </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
-      <c r="L71" s="5"/>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
-      <c r="O71" s="5"/>
-      <c r="P71" s="5"/>
-      <c r="Q71" s="5"/>
-      <c r="R71" s="5"/>
-      <c r="S71" s="5"/>
-      <c r="T71" s="5"/>
-      <c r="U71" s="5"/>
-      <c r="V71" s="5"/>
-      <c r="W71" s="5"/>
-      <c r="X71" s="5"/>
-      <c r="Y71" s="5"/>
-      <c r="Z71" s="5"/>
-      <c r="AA71" s="5"/>
-    </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
-      <c r="M72" s="5"/>
-      <c r="N72" s="5"/>
-      <c r="O72" s="5"/>
-      <c r="P72" s="5"/>
-      <c r="Q72" s="5"/>
-      <c r="R72" s="5"/>
-      <c r="S72" s="5"/>
-      <c r="T72" s="5"/>
-      <c r="U72" s="5"/>
-      <c r="V72" s="5"/>
-      <c r="W72" s="5"/>
-      <c r="X72" s="5"/>
-      <c r="Y72" s="5"/>
-      <c r="Z72" s="5"/>
-      <c r="AA72" s="5"/>
-    </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="5"/>
-      <c r="L73" s="5"/>
-      <c r="M73" s="5"/>
-      <c r="N73" s="5"/>
-      <c r="O73" s="5"/>
-      <c r="P73" s="5"/>
-      <c r="Q73" s="5"/>
-      <c r="R73" s="5"/>
-      <c r="S73" s="5"/>
-      <c r="T73" s="5"/>
-      <c r="U73" s="5"/>
-      <c r="V73" s="5"/>
-      <c r="W73" s="5"/>
-      <c r="X73" s="5"/>
-      <c r="Y73" s="5"/>
-      <c r="Z73" s="5"/>
-      <c r="AA73" s="5"/>
-    </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-      <c r="K74" s="5"/>
-      <c r="L74" s="5"/>
-      <c r="M74" s="5"/>
-      <c r="N74" s="5"/>
-      <c r="O74" s="5"/>
-      <c r="P74" s="5"/>
-      <c r="Q74" s="5"/>
-      <c r="R74" s="5"/>
-      <c r="S74" s="5"/>
-      <c r="T74" s="5"/>
-      <c r="U74" s="5"/>
-      <c r="V74" s="5"/>
-      <c r="W74" s="5"/>
-      <c r="X74" s="5"/>
-      <c r="Y74" s="5"/>
-      <c r="Z74" s="5"/>
-      <c r="AA74" s="5"/>
-    </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-      <c r="K75" s="5"/>
-      <c r="L75" s="5"/>
-      <c r="M75" s="5"/>
-      <c r="N75" s="5"/>
-      <c r="O75" s="5"/>
-      <c r="P75" s="5"/>
-      <c r="Q75" s="5"/>
-      <c r="R75" s="5"/>
-      <c r="S75" s="5"/>
-      <c r="T75" s="5"/>
-      <c r="U75" s="5"/>
-      <c r="V75" s="5"/>
-      <c r="W75" s="5"/>
-      <c r="X75" s="5"/>
-      <c r="Y75" s="5"/>
-      <c r="Z75" s="5"/>
-      <c r="AA75" s="5"/>
-    </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-      <c r="K76" s="5"/>
-      <c r="L76" s="5"/>
-      <c r="M76" s="5"/>
-      <c r="N76" s="5"/>
-      <c r="O76" s="5"/>
-      <c r="P76" s="5"/>
-      <c r="Q76" s="5"/>
-      <c r="R76" s="5"/>
-      <c r="S76" s="5"/>
-      <c r="T76" s="5"/>
-      <c r="U76" s="5"/>
-      <c r="V76" s="5"/>
-      <c r="W76" s="5"/>
-      <c r="X76" s="5"/>
-      <c r="Y76" s="5"/>
-      <c r="Z76" s="5"/>
-      <c r="AA76" s="5"/>
-    </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-      <c r="K77" s="5"/>
-      <c r="L77" s="5"/>
-      <c r="M77" s="5"/>
-      <c r="N77" s="5"/>
-      <c r="O77" s="5"/>
-      <c r="P77" s="5"/>
-      <c r="Q77" s="5"/>
-      <c r="R77" s="5"/>
-      <c r="S77" s="5"/>
-      <c r="T77" s="5"/>
-      <c r="U77" s="5"/>
-      <c r="V77" s="5"/>
-      <c r="W77" s="5"/>
-      <c r="X77" s="5"/>
-      <c r="Y77" s="5"/>
-      <c r="Z77" s="5"/>
-      <c r="AA77" s="5"/>
-    </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-      <c r="K78" s="5"/>
-      <c r="L78" s="5"/>
-      <c r="M78" s="5"/>
-      <c r="N78" s="5"/>
-      <c r="O78" s="5"/>
-      <c r="P78" s="5"/>
-      <c r="Q78" s="5"/>
-      <c r="R78" s="5"/>
-      <c r="S78" s="5"/>
-      <c r="T78" s="5"/>
-      <c r="U78" s="5"/>
-      <c r="V78" s="5"/>
-      <c r="W78" s="5"/>
-      <c r="X78" s="5"/>
-      <c r="Y78" s="5"/>
-      <c r="Z78" s="5"/>
-      <c r="AA78" s="5"/>
-    </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
-      <c r="K79" s="5"/>
-      <c r="L79" s="5"/>
-      <c r="M79" s="5"/>
-      <c r="N79" s="5"/>
-      <c r="O79" s="5"/>
-      <c r="P79" s="5"/>
-      <c r="Q79" s="5"/>
-      <c r="R79" s="5"/>
-      <c r="S79" s="5"/>
-      <c r="T79" s="5"/>
-      <c r="U79" s="5"/>
-      <c r="V79" s="5"/>
-      <c r="W79" s="5"/>
-      <c r="X79" s="5"/>
-      <c r="Y79" s="5"/>
-      <c r="Z79" s="5"/>
-      <c r="AA79" s="5"/>
-    </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
-      <c r="K80" s="5"/>
-      <c r="L80" s="5"/>
-      <c r="M80" s="5"/>
-      <c r="N80" s="5"/>
-      <c r="O80" s="5"/>
-      <c r="P80" s="5"/>
-      <c r="Q80" s="5"/>
-      <c r="R80" s="5"/>
-      <c r="S80" s="5"/>
-      <c r="T80" s="5"/>
-      <c r="U80" s="5"/>
-      <c r="V80" s="5"/>
-      <c r="W80" s="5"/>
-      <c r="X80" s="5"/>
-      <c r="Y80" s="5"/>
-      <c r="Z80" s="5"/>
-      <c r="AA80" s="5"/>
-    </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
-      <c r="K81" s="5"/>
-      <c r="L81" s="5"/>
-      <c r="M81" s="5"/>
-      <c r="N81" s="5"/>
-      <c r="O81" s="5"/>
-      <c r="P81" s="5"/>
-      <c r="Q81" s="5"/>
-      <c r="R81" s="5"/>
-      <c r="S81" s="5"/>
-      <c r="T81" s="5"/>
-      <c r="U81" s="5"/>
-      <c r="V81" s="5"/>
-      <c r="W81" s="5"/>
-      <c r="X81" s="5"/>
-      <c r="Y81" s="5"/>
-      <c r="Z81" s="5"/>
-      <c r="AA81" s="5"/>
-    </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
-      <c r="K82" s="5"/>
-      <c r="L82" s="5"/>
-      <c r="M82" s="5"/>
-      <c r="N82" s="5"/>
-      <c r="O82" s="5"/>
-      <c r="P82" s="5"/>
-      <c r="Q82" s="5"/>
-      <c r="R82" s="5"/>
-      <c r="S82" s="5"/>
-      <c r="T82" s="5"/>
-      <c r="U82" s="5"/>
-      <c r="V82" s="5"/>
-      <c r="W82" s="5"/>
-      <c r="X82" s="5"/>
-      <c r="Y82" s="5"/>
-      <c r="Z82" s="5"/>
-      <c r="AA82" s="5"/>
-    </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
-      <c r="K83" s="5"/>
-      <c r="L83" s="5"/>
-      <c r="M83" s="5"/>
-      <c r="N83" s="5"/>
-      <c r="O83" s="5"/>
-      <c r="P83" s="5"/>
-      <c r="Q83" s="5"/>
-      <c r="R83" s="5"/>
-      <c r="S83" s="5"/>
-      <c r="T83" s="5"/>
-      <c r="U83" s="5"/>
-      <c r="V83" s="5"/>
-      <c r="W83" s="5"/>
-      <c r="X83" s="5"/>
-      <c r="Y83" s="5"/>
-      <c r="Z83" s="5"/>
-      <c r="AA83" s="5"/>
-    </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="5"/>
-      <c r="K84" s="5"/>
-      <c r="L84" s="5"/>
-      <c r="M84" s="5"/>
-      <c r="N84" s="5"/>
-      <c r="O84" s="5"/>
-      <c r="P84" s="5"/>
-      <c r="Q84" s="5"/>
-      <c r="R84" s="5"/>
-      <c r="S84" s="5"/>
-      <c r="T84" s="5"/>
-      <c r="U84" s="5"/>
-      <c r="V84" s="5"/>
-      <c r="W84" s="5"/>
-      <c r="X84" s="5"/>
-      <c r="Y84" s="5"/>
-      <c r="Z84" s="5"/>
-      <c r="AA84" s="5"/>
-    </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
-      <c r="J85" s="5"/>
-      <c r="K85" s="5"/>
-      <c r="L85" s="5"/>
-      <c r="M85" s="5"/>
-      <c r="N85" s="5"/>
-      <c r="O85" s="5"/>
-      <c r="P85" s="5"/>
-      <c r="Q85" s="5"/>
-      <c r="R85" s="5"/>
-      <c r="S85" s="5"/>
-      <c r="T85" s="5"/>
-      <c r="U85" s="5"/>
-      <c r="V85" s="5"/>
-      <c r="W85" s="5"/>
-      <c r="X85" s="5"/>
-      <c r="Y85" s="5"/>
-      <c r="Z85" s="5"/>
-      <c r="AA85" s="5"/>
-    </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A86" s="5"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5"/>
-      <c r="K86" s="5"/>
-      <c r="L86" s="5"/>
-      <c r="M86" s="5"/>
-      <c r="N86" s="5"/>
-      <c r="O86" s="5"/>
-      <c r="P86" s="5"/>
-      <c r="Q86" s="5"/>
-      <c r="R86" s="5"/>
-      <c r="S86" s="5"/>
-      <c r="T86" s="5"/>
-      <c r="U86" s="5"/>
-      <c r="V86" s="5"/>
-      <c r="W86" s="5"/>
-      <c r="X86" s="5"/>
-      <c r="Y86" s="5"/>
-      <c r="Z86" s="5"/>
-      <c r="AA86" s="5"/>
-    </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A87" s="5"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
-      <c r="K87" s="5"/>
-      <c r="L87" s="5"/>
-      <c r="M87" s="5"/>
-      <c r="N87" s="5"/>
-      <c r="O87" s="5"/>
-      <c r="P87" s="5"/>
-      <c r="Q87" s="5"/>
-      <c r="R87" s="5"/>
-      <c r="S87" s="5"/>
-      <c r="T87" s="5"/>
-      <c r="U87" s="5"/>
-      <c r="V87" s="5"/>
-      <c r="W87" s="5"/>
-      <c r="X87" s="5"/>
-      <c r="Y87" s="5"/>
-      <c r="Z87" s="5"/>
-      <c r="AA87" s="5"/>
-    </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A88" s="5"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5"/>
-      <c r="K88" s="5"/>
-      <c r="L88" s="5"/>
-      <c r="M88" s="5"/>
-      <c r="N88" s="5"/>
-      <c r="O88" s="5"/>
-      <c r="P88" s="5"/>
-      <c r="Q88" s="5"/>
-      <c r="R88" s="5"/>
-      <c r="S88" s="5"/>
-      <c r="T88" s="5"/>
-      <c r="U88" s="5"/>
-      <c r="V88" s="5"/>
-      <c r="W88" s="5"/>
-      <c r="X88" s="5"/>
-      <c r="Y88" s="5"/>
-      <c r="Z88" s="5"/>
-      <c r="AA88" s="5"/>
-    </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A89" s="5"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5"/>
-      <c r="K89" s="5"/>
-      <c r="L89" s="5"/>
-      <c r="M89" s="5"/>
-      <c r="N89" s="5"/>
-      <c r="O89" s="5"/>
-      <c r="P89" s="5"/>
-      <c r="Q89" s="5"/>
-      <c r="R89" s="5"/>
-      <c r="S89" s="5"/>
-      <c r="T89" s="5"/>
-      <c r="U89" s="5"/>
-      <c r="V89" s="5"/>
-      <c r="W89" s="5"/>
-      <c r="X89" s="5"/>
-      <c r="Y89" s="5"/>
-      <c r="Z89" s="5"/>
-      <c r="AA89" s="5"/>
-    </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A90" s="5"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5"/>
-      <c r="K90" s="5"/>
-      <c r="L90" s="5"/>
-      <c r="M90" s="5"/>
-      <c r="N90" s="5"/>
-      <c r="O90" s="5"/>
-      <c r="P90" s="5"/>
-      <c r="Q90" s="5"/>
-      <c r="R90" s="5"/>
-      <c r="S90" s="5"/>
-      <c r="T90" s="5"/>
-      <c r="U90" s="5"/>
-      <c r="V90" s="5"/>
-      <c r="W90" s="5"/>
-      <c r="X90" s="5"/>
-      <c r="Y90" s="5"/>
-      <c r="Z90" s="5"/>
-      <c r="AA90" s="5"/>
-    </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A91" s="5"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
-      <c r="I91" s="5"/>
-      <c r="J91" s="5"/>
-      <c r="K91" s="5"/>
-      <c r="L91" s="5"/>
-      <c r="M91" s="5"/>
-      <c r="N91" s="5"/>
-      <c r="O91" s="5"/>
-      <c r="P91" s="5"/>
-      <c r="Q91" s="5"/>
-      <c r="R91" s="5"/>
-      <c r="S91" s="5"/>
-      <c r="T91" s="5"/>
-      <c r="U91" s="5"/>
-      <c r="V91" s="5"/>
-      <c r="W91" s="5"/>
-      <c r="X91" s="5"/>
-      <c r="Y91" s="5"/>
-      <c r="Z91" s="5"/>
-      <c r="AA91" s="5"/>
-    </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A92" s="5"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
-      <c r="I92" s="5"/>
-      <c r="J92" s="5"/>
-      <c r="K92" s="5"/>
-      <c r="L92" s="5"/>
-      <c r="M92" s="5"/>
-      <c r="N92" s="5"/>
-      <c r="O92" s="5"/>
-      <c r="P92" s="5"/>
-      <c r="Q92" s="5"/>
-      <c r="R92" s="5"/>
-      <c r="S92" s="5"/>
-      <c r="T92" s="5"/>
-      <c r="U92" s="5"/>
-      <c r="V92" s="5"/>
-      <c r="W92" s="5"/>
-      <c r="X92" s="5"/>
-      <c r="Y92" s="5"/>
-      <c r="Z92" s="5"/>
-      <c r="AA92" s="5"/>
+      <c r="O68" s="1">
+        <v>9</v>
+      </c>
+      <c r="P68" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A8:N8"/>
-    <mergeCell ref="A36:N36"/>
-    <mergeCell ref="A39:N39"/>
-    <mergeCell ref="A58:N58"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A8:Q8"/>
+    <mergeCell ref="A36:Q36"/>
+    <mergeCell ref="A39:Q39"/>
+    <mergeCell ref="A58:Q58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -4,17 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="product_mater" sheetId="4" r:id="rId1"/>
-    <sheet name="VM Working" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
-    <sheet name="PhasesDetails" sheetId="5" r:id="rId4"/>
-    <sheet name="BOM DC" sheetId="1" r:id="rId5"/>
+    <sheet name="PhasesDetails" sheetId="5" r:id="rId1"/>
+    <sheet name="product_mater" sheetId="4" r:id="rId2"/>
+    <sheet name="VM Working" sheetId="3" r:id="rId3"/>
+    <sheet name="BOM DC" sheetId="1" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="Group_Qty">'[1]eNlight Instance'!#REF!</definedName>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8132" uniqueCount="7806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8108" uniqueCount="7796">
   <si>
     <t>core_product_name</t>
   </si>
@@ -23159,12 +23158,6 @@
     <t>iRaje- Priviledge Identity Management-OEM</t>
   </si>
   <si>
-    <t>One Time Infrastructure Setup</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t xml:space="preserve">MSSQL-Enterprise Core </t>
   </si>
   <si>
@@ -23177,9 +23170,6 @@
     <t>19-24 Months</t>
   </si>
   <si>
-    <t xml:space="preserve">0-7 Months </t>
-  </si>
-  <si>
     <t>25-28 Months</t>
   </si>
   <si>
@@ -23195,9 +23185,6 @@
     <t>6 Years</t>
   </si>
   <si>
-    <t xml:space="preserve">7th Years </t>
-  </si>
-  <si>
     <t>8th years</t>
   </si>
   <si>
@@ -23252,171 +23239,75 @@
     <t>Tenure</t>
   </si>
   <si>
-    <t xml:space="preserve">VM 0-7 Months </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Core 0-7 Months </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAM  0-7 Months </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DISK 0-7 Months </t>
-  </si>
-  <si>
-    <t>VM  8-12 Months</t>
-  </si>
-  <si>
     <t>Core 8-12 Months</t>
   </si>
   <si>
-    <t>RAM  8-12 Months</t>
-  </si>
-  <si>
     <t>DISK 8-12 Months</t>
   </si>
   <si>
-    <t>VM  13-18 Months</t>
-  </si>
-  <si>
     <t>Core 13-18 Months</t>
   </si>
   <si>
-    <t>RAM  13-18 Months</t>
-  </si>
-  <si>
     <t>DISK 13-18 Months</t>
   </si>
   <si>
-    <t>VM  19-24 Months</t>
-  </si>
-  <si>
     <t>Core 19-24 Months</t>
   </si>
   <si>
-    <t>RAM  19-24 Months</t>
-  </si>
-  <si>
     <t>DISK 19-24 Months</t>
   </si>
   <si>
-    <t>VM  25-28 Months</t>
-  </si>
-  <si>
     <t>Core 25-28 Months</t>
   </si>
   <si>
-    <t>RAM  25-28 Months</t>
-  </si>
-  <si>
     <t>DISK 25-28 Months</t>
   </si>
   <si>
-    <t>VM  2nd Year</t>
-  </si>
-  <si>
     <t>Core 2nd Year</t>
   </si>
   <si>
-    <t>RAM  2nd Year</t>
-  </si>
-  <si>
     <t>DISK 2nd Year</t>
   </si>
   <si>
-    <t>VM  3rd Year</t>
-  </si>
-  <si>
     <t>Core 3rd Year</t>
   </si>
   <si>
-    <t>RAM  3rd Year</t>
-  </si>
-  <si>
     <t>DISK 3rd Year</t>
   </si>
   <si>
-    <t>VM  4th Year</t>
-  </si>
-  <si>
     <t>Core 4th Year</t>
   </si>
   <si>
-    <t>RAM  4th Year</t>
-  </si>
-  <si>
     <t>DISK 4th Year</t>
   </si>
   <si>
-    <t>VM  5th Years</t>
-  </si>
-  <si>
     <t>Core 5th Years</t>
   </si>
   <si>
-    <t>RAM  5th Years</t>
-  </si>
-  <si>
     <t>DISK 5th Years</t>
   </si>
   <si>
-    <t>VM  6 Years</t>
-  </si>
-  <si>
     <t>Core 6 Years</t>
   </si>
   <si>
-    <t>RAM  6 Years</t>
-  </si>
-  <si>
     <t>DISK 6 Years</t>
   </si>
   <si>
-    <t xml:space="preserve">VM  7th Years </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Core 7th Years </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAM  7th Years </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DISK 7th Years </t>
-  </si>
-  <si>
-    <t>VM  8th years</t>
-  </si>
-  <si>
     <t>Core 8th years</t>
   </si>
   <si>
-    <t>RAM  8th years</t>
-  </si>
-  <si>
     <t>DISK 8th years</t>
   </si>
   <si>
-    <t>VM  9 Years</t>
-  </si>
-  <si>
     <t>Core 9 Years</t>
   </si>
   <si>
-    <t>RAM  9 Years</t>
-  </si>
-  <si>
     <t>DISK 9 Years</t>
   </si>
   <si>
-    <t>VM  10 Years</t>
-  </si>
-  <si>
     <t>Core 10 Years</t>
   </si>
   <si>
-    <t>RAM  10 Years</t>
-  </si>
-  <si>
     <t>DISK 10 Years</t>
   </si>
   <si>
@@ -23429,35 +23320,113 @@
     <t>DB</t>
   </si>
   <si>
-    <t>Software As Service-Desigh and Development Cost</t>
-  </si>
-  <si>
-    <t>Software As Service-Repeated cyber Audit</t>
-  </si>
-  <si>
-    <t>Software As Service-Provisional Cost for Implementation</t>
-  </si>
-  <si>
-    <t>Software As Service-Helpdesk and Handholding Support Cost</t>
-  </si>
-  <si>
-    <t>Software As Service-Proprietary Cost</t>
-  </si>
-  <si>
-    <t>Dedicated Port</t>
-  </si>
-  <si>
-    <t>RAID</t>
-  </si>
-  <si>
-    <t>VPN Concentrator</t>
+    <t>0-7 Months</t>
+  </si>
+  <si>
+    <t>7th Years</t>
+  </si>
+  <si>
+    <t>VM 5th Years</t>
+  </si>
+  <si>
+    <t>VM 4th Year</t>
+  </si>
+  <si>
+    <t>VM 8-12 Months</t>
+  </si>
+  <si>
+    <t>RAM 8-12 Months</t>
+  </si>
+  <si>
+    <t>VM 13-18 Months</t>
+  </si>
+  <si>
+    <t>RAM 13-18 Months</t>
+  </si>
+  <si>
+    <t>VM 19-24 Months</t>
+  </si>
+  <si>
+    <t>RAM 19-24 Months</t>
+  </si>
+  <si>
+    <t>VM 25-28 Months</t>
+  </si>
+  <si>
+    <t>RAM 25-28 Months</t>
+  </si>
+  <si>
+    <t>VM 2nd Year</t>
+  </si>
+  <si>
+    <t>RAM 2nd Year</t>
+  </si>
+  <si>
+    <t>VM 3rd Year</t>
+  </si>
+  <si>
+    <t>RAM 3rd Year</t>
+  </si>
+  <si>
+    <t>RAM 4th Year</t>
+  </si>
+  <si>
+    <t>RAM 5th Years</t>
+  </si>
+  <si>
+    <t>VM 6 Years</t>
+  </si>
+  <si>
+    <t>RAM 6 Years</t>
+  </si>
+  <si>
+    <t>VM 8th years</t>
+  </si>
+  <si>
+    <t>RAM 8th years</t>
+  </si>
+  <si>
+    <t>VM 9 Years</t>
+  </si>
+  <si>
+    <t>RAM 9 Years</t>
+  </si>
+  <si>
+    <t>VM 10 Years</t>
+  </si>
+  <si>
+    <t>RAM 10 Years</t>
+  </si>
+  <si>
+    <t>VM 0-7 Months</t>
+  </si>
+  <si>
+    <t>Core 0-7 Months</t>
+  </si>
+  <si>
+    <t>RAM 0-7 Months</t>
+  </si>
+  <si>
+    <t>DISK 0-7 Months</t>
+  </si>
+  <si>
+    <t>VM 7th Years</t>
+  </si>
+  <si>
+    <t>Core 7th Years</t>
+  </si>
+  <si>
+    <t>RAM 7th Years</t>
+  </si>
+  <si>
+    <t>DISK 7th Years</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23494,24 +23463,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Candara"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -23594,14 +23551,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -23722,42 +23673,59 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF203764"/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF203764"/>
-      </bottom>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -23773,58 +23741,1315 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="68">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -23962,6 +25187,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Phases" displayName="Phases" ref="A1:B15" totalsRowShown="0" headerRowDxfId="67" headerRowBorderDxfId="66" tableBorderDxfId="65" totalsRowBorderDxfId="64">
+  <autoFilter ref="A1:B15"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Phases" dataDxfId="63"/>
+    <tableColumn id="2" name="Tenure" dataDxfId="62"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B3846" totalsRowShown="0">
   <autoFilter ref="A1:B3846"/>
   <tableColumns count="2">
@@ -23972,12 +25208,69 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Phases" displayName="Phases" ref="A1:B15" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
-  <autoFilter ref="A1:B15"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Phases" dataDxfId="1"/>
-    <tableColumn id="2" name="Tenure" dataDxfId="0"/>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="DC_Tbl" displayName="DC_Tbl" ref="A1:BG12" totalsRowShown="0" headerRowBorderDxfId="60" tableBorderDxfId="61" totalsRowBorderDxfId="59">
+  <autoFilter ref="A1:BG12"/>
+  <tableColumns count="59">
+    <tableColumn id="1" name="VM Name" dataDxfId="58"/>
+    <tableColumn id="2" name="OS" dataDxfId="57"/>
+    <tableColumn id="3" name="DB" dataDxfId="56"/>
+    <tableColumn id="4" name="VM 0-7 Months" dataDxfId="55"/>
+    <tableColumn id="5" name="Core 0-7 Months" dataDxfId="54"/>
+    <tableColumn id="6" name="RAM 0-7 Months" dataDxfId="53"/>
+    <tableColumn id="7" name="DISK 0-7 Months" dataDxfId="52"/>
+    <tableColumn id="8" name="VM 8-12 Months" dataDxfId="51"/>
+    <tableColumn id="9" name="Core 8-12 Months" dataDxfId="50"/>
+    <tableColumn id="10" name="RAM 8-12 Months" dataDxfId="49"/>
+    <tableColumn id="11" name="DISK 8-12 Months" dataDxfId="48"/>
+    <tableColumn id="12" name="VM 13-18 Months" dataDxfId="47"/>
+    <tableColumn id="13" name="Core 13-18 Months" dataDxfId="46"/>
+    <tableColumn id="14" name="RAM 13-18 Months" dataDxfId="45"/>
+    <tableColumn id="15" name="DISK 13-18 Months" dataDxfId="44"/>
+    <tableColumn id="16" name="VM 19-24 Months" dataDxfId="43"/>
+    <tableColumn id="17" name="Core 19-24 Months" dataDxfId="42"/>
+    <tableColumn id="18" name="RAM 19-24 Months" dataDxfId="41"/>
+    <tableColumn id="19" name="DISK 19-24 Months" dataDxfId="40"/>
+    <tableColumn id="20" name="VM 25-28 Months" dataDxfId="39"/>
+    <tableColumn id="21" name="Core 25-28 Months" dataDxfId="38"/>
+    <tableColumn id="22" name="RAM 25-28 Months" dataDxfId="37"/>
+    <tableColumn id="23" name="DISK 25-28 Months" dataDxfId="36"/>
+    <tableColumn id="24" name="VM 2nd Year" dataDxfId="35"/>
+    <tableColumn id="25" name="Core 2nd Year" dataDxfId="34"/>
+    <tableColumn id="26" name="RAM 2nd Year" dataDxfId="33"/>
+    <tableColumn id="27" name="DISK 2nd Year" dataDxfId="32"/>
+    <tableColumn id="28" name="VM 3rd Year" dataDxfId="31"/>
+    <tableColumn id="29" name="Core 3rd Year" dataDxfId="30"/>
+    <tableColumn id="30" name="RAM 3rd Year" dataDxfId="29"/>
+    <tableColumn id="31" name="DISK 3rd Year" dataDxfId="28"/>
+    <tableColumn id="32" name="VM 4th Year" dataDxfId="27"/>
+    <tableColumn id="33" name="Core 4th Year" dataDxfId="26"/>
+    <tableColumn id="34" name="RAM 4th Year" dataDxfId="25"/>
+    <tableColumn id="35" name="DISK 4th Year" dataDxfId="24"/>
+    <tableColumn id="36" name="VM 5th Years" dataDxfId="23"/>
+    <tableColumn id="37" name="Core 5th Years" dataDxfId="22"/>
+    <tableColumn id="38" name="RAM 5th Years" dataDxfId="21"/>
+    <tableColumn id="39" name="DISK 5th Years" dataDxfId="20"/>
+    <tableColumn id="40" name="VM 6 Years" dataDxfId="19"/>
+    <tableColumn id="41" name="Core 6 Years" dataDxfId="18"/>
+    <tableColumn id="42" name="RAM 6 Years" dataDxfId="17"/>
+    <tableColumn id="43" name="DISK 6 Years" dataDxfId="16"/>
+    <tableColumn id="44" name="VM 7th Years" dataDxfId="15"/>
+    <tableColumn id="45" name="Core 7th Years" dataDxfId="14"/>
+    <tableColumn id="46" name="RAM 7th Years" dataDxfId="13"/>
+    <tableColumn id="47" name="DISK 7th Years" dataDxfId="12"/>
+    <tableColumn id="48" name="VM 8th years" dataDxfId="11"/>
+    <tableColumn id="49" name="Core 8th years" dataDxfId="10"/>
+    <tableColumn id="50" name="RAM 8th years" dataDxfId="9"/>
+    <tableColumn id="51" name="DISK 8th years" dataDxfId="8"/>
+    <tableColumn id="52" name="VM 9 Years" dataDxfId="7"/>
+    <tableColumn id="53" name="Core 9 Years" dataDxfId="6"/>
+    <tableColumn id="54" name="RAM 9 Years" dataDxfId="5"/>
+    <tableColumn id="55" name="DISK 9 Years" dataDxfId="4"/>
+    <tableColumn id="56" name="VM 10 Years" dataDxfId="3"/>
+    <tableColumn id="57" name="Core 10 Years" dataDxfId="2"/>
+    <tableColumn id="58" name="RAM 10 Years" dataDxfId="1"/>
+    <tableColumn id="59" name="DISK 10 Years" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -24246,15 +25539,158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S3846"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>7733</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>7734</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>7762</v>
+      </c>
+      <c r="B2" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>7709</v>
+      </c>
+      <c r="B3" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>7710</v>
+      </c>
+      <c r="B4" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>7711</v>
+      </c>
+      <c r="B5" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>7712</v>
+      </c>
+      <c r="B6" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>7713</v>
+      </c>
+      <c r="B7" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>7714</v>
+      </c>
+      <c r="B9" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>7715</v>
+      </c>
+      <c r="B10" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>7716</v>
+      </c>
+      <c r="B11" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>7763</v>
+      </c>
+      <c r="B12" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>7717</v>
+      </c>
+      <c r="B13" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>7718</v>
+      </c>
+      <c r="B14" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>7719</v>
+      </c>
+      <c r="B15" s="34">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S3846"/>
+  <sheetViews>
+    <sheetView topLeftCell="A61" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="115.7109375" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -24760,21 +26196,21 @@
       <c r="B58" t="s">
         <v>127</v>
       </c>
-      <c r="G58" s="22" t="s">
+      <c r="G58" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="23"/>
-      <c r="M58" s="23"/>
-      <c r="N58" s="23"/>
-      <c r="O58" s="23"/>
-      <c r="P58" s="23"/>
-      <c r="Q58" s="23"/>
-      <c r="R58" s="23"/>
-      <c r="S58" s="23"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="18"/>
+      <c r="O58" s="18"/>
+      <c r="P58" s="18"/>
+      <c r="Q58" s="18"/>
+      <c r="R58" s="18"/>
+      <c r="S58" s="18"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
@@ -25018,21 +26454,21 @@
       <c r="B64" t="s">
         <v>146</v>
       </c>
-      <c r="G64" s="22" t="s">
+      <c r="G64" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="H64" s="23"/>
-      <c r="I64" s="23"/>
-      <c r="J64" s="23"/>
-      <c r="K64" s="23"/>
-      <c r="L64" s="23"/>
-      <c r="M64" s="23"/>
-      <c r="N64" s="23"/>
-      <c r="O64" s="23"/>
-      <c r="P64" s="23"/>
-      <c r="Q64" s="23"/>
-      <c r="R64" s="23"/>
-      <c r="S64" s="23"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="18"/>
+      <c r="L64" s="18"/>
+      <c r="M64" s="18"/>
+      <c r="N64" s="18"/>
+      <c r="O64" s="18"/>
+      <c r="P64" s="18"/>
+      <c r="Q64" s="18"/>
+      <c r="R64" s="18"/>
+      <c r="S64" s="18"/>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -26451,21 +27887,21 @@
       <c r="B95" t="s">
         <v>243</v>
       </c>
-      <c r="G95" s="22" t="s">
+      <c r="G95" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="H95" s="23"/>
-      <c r="I95" s="23"/>
-      <c r="J95" s="23"/>
-      <c r="K95" s="23"/>
-      <c r="L95" s="23"/>
-      <c r="M95" s="23"/>
-      <c r="N95" s="23"/>
-      <c r="O95" s="23"/>
-      <c r="P95" s="23"/>
-      <c r="Q95" s="23"/>
-      <c r="R95" s="23"/>
-      <c r="S95" s="23"/>
+      <c r="H95" s="18"/>
+      <c r="I95" s="18"/>
+      <c r="J95" s="18"/>
+      <c r="K95" s="18"/>
+      <c r="L95" s="18"/>
+      <c r="M95" s="18"/>
+      <c r="N95" s="18"/>
+      <c r="O95" s="18"/>
+      <c r="P95" s="18"/>
+      <c r="Q95" s="18"/>
+      <c r="R95" s="18"/>
+      <c r="S95" s="18"/>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
@@ -26756,21 +28192,21 @@
       <c r="B102" t="s">
         <v>265</v>
       </c>
-      <c r="G102" s="22" t="s">
+      <c r="G102" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="H102" s="23"/>
-      <c r="I102" s="23"/>
-      <c r="J102" s="23"/>
-      <c r="K102" s="23"/>
-      <c r="L102" s="23"/>
-      <c r="M102" s="23"/>
-      <c r="N102" s="23"/>
-      <c r="O102" s="23"/>
-      <c r="P102" s="23"/>
-      <c r="Q102" s="23"/>
-      <c r="R102" s="23"/>
-      <c r="S102" s="23"/>
+      <c r="H102" s="18"/>
+      <c r="I102" s="18"/>
+      <c r="J102" s="18"/>
+      <c r="K102" s="18"/>
+      <c r="L102" s="18"/>
+      <c r="M102" s="18"/>
+      <c r="N102" s="18"/>
+      <c r="O102" s="18"/>
+      <c r="P102" s="18"/>
+      <c r="Q102" s="18"/>
+      <c r="R102" s="18"/>
+      <c r="S102" s="18"/>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
@@ -27625,21 +29061,21 @@
       <c r="B121" t="s">
         <v>322</v>
       </c>
-      <c r="G121" s="22" t="s">
+      <c r="G121" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="H121" s="23"/>
-      <c r="I121" s="23"/>
-      <c r="J121" s="23"/>
-      <c r="K121" s="23"/>
-      <c r="L121" s="23"/>
-      <c r="M121" s="23"/>
-      <c r="N121" s="23"/>
-      <c r="O121" s="23"/>
-      <c r="P121" s="23"/>
-      <c r="Q121" s="23"/>
-      <c r="R121" s="23"/>
-      <c r="S121" s="23"/>
+      <c r="H121" s="18"/>
+      <c r="I121" s="18"/>
+      <c r="J121" s="18"/>
+      <c r="K121" s="18"/>
+      <c r="L121" s="18"/>
+      <c r="M121" s="18"/>
+      <c r="N121" s="18"/>
+      <c r="O121" s="18"/>
+      <c r="P121" s="18"/>
+      <c r="Q121" s="18"/>
+      <c r="R121" s="18"/>
+      <c r="S121" s="18"/>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
@@ -58003,275 +59439,274 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="11" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="12" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" customWidth="1"/>
+    <col min="16" max="16" width="19.140625" customWidth="1"/>
+    <col min="17" max="17" width="19.7109375" customWidth="1"/>
+    <col min="18" max="18" width="20.28515625" customWidth="1"/>
+    <col min="19" max="19" width="19.5703125" customWidth="1"/>
+    <col min="20" max="20" width="19.140625" customWidth="1"/>
+    <col min="21" max="21" width="19.7109375" customWidth="1"/>
+    <col min="22" max="22" width="20.28515625" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" customWidth="1"/>
+    <col min="25" max="25" width="15.42578125" customWidth="1"/>
+    <col min="26" max="26" width="16" customWidth="1"/>
+    <col min="27" max="27" width="15.28515625" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" customWidth="1"/>
+    <col min="29" max="29" width="15" customWidth="1"/>
+    <col min="30" max="30" width="15.5703125" customWidth="1"/>
+    <col min="31" max="31" width="14.85546875" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" customWidth="1"/>
+    <col min="33" max="33" width="15" customWidth="1"/>
+    <col min="34" max="34" width="15.5703125" customWidth="1"/>
+    <col min="35" max="35" width="14.85546875" customWidth="1"/>
+    <col min="36" max="36" width="15.28515625" customWidth="1"/>
+    <col min="37" max="37" width="15.85546875" customWidth="1"/>
+    <col min="38" max="38" width="16.42578125" customWidth="1"/>
+    <col min="39" max="39" width="15.7109375" customWidth="1"/>
+    <col min="40" max="40" width="13.42578125" customWidth="1"/>
+    <col min="41" max="41" width="14" customWidth="1"/>
+    <col min="42" max="42" width="14.5703125" customWidth="1"/>
+    <col min="43" max="43" width="13.85546875" customWidth="1"/>
+    <col min="44" max="44" width="15.7109375" customWidth="1"/>
+    <col min="45" max="45" width="16.28515625" customWidth="1"/>
+    <col min="46" max="46" width="16.85546875" customWidth="1"/>
+    <col min="47" max="47" width="16.140625" customWidth="1"/>
+    <col min="48" max="48" width="15.140625" customWidth="1"/>
+    <col min="49" max="49" width="15.7109375" customWidth="1"/>
+    <col min="50" max="50" width="16.28515625" customWidth="1"/>
+    <col min="51" max="51" width="15.5703125" customWidth="1"/>
+    <col min="52" max="52" width="13.42578125" customWidth="1"/>
+    <col min="53" max="53" width="14" customWidth="1"/>
+    <col min="54" max="54" width="14.5703125" customWidth="1"/>
+    <col min="55" max="55" width="13.85546875" customWidth="1"/>
+    <col min="56" max="56" width="14.42578125" customWidth="1"/>
+    <col min="57" max="57" width="15" customWidth="1"/>
+    <col min="58" max="58" width="15.5703125" customWidth="1"/>
+    <col min="59" max="59" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="23" t="s">
+        <v>7759</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>7760</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>7761</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>7788</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>7789</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>7790</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>7791</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>7766</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>7735</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>7767</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>7736</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>7768</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>7737</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>7769</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>7738</v>
+      </c>
+      <c r="P1" s="25" t="s">
+        <v>7770</v>
+      </c>
+      <c r="Q1" s="26" t="s">
+        <v>7739</v>
+      </c>
+      <c r="R1" s="27" t="s">
+        <v>7771</v>
+      </c>
+      <c r="S1" s="28" t="s">
+        <v>7740</v>
+      </c>
+      <c r="T1" s="25" t="s">
+        <v>7772</v>
+      </c>
+      <c r="U1" s="26" t="s">
+        <v>7741</v>
+      </c>
+      <c r="V1" s="27" t="s">
+        <v>7773</v>
+      </c>
+      <c r="W1" s="28" t="s">
+        <v>7742</v>
+      </c>
+      <c r="X1" s="25" t="s">
+        <v>7774</v>
+      </c>
+      <c r="Y1" s="26" t="s">
+        <v>7743</v>
+      </c>
+      <c r="Z1" s="27" t="s">
+        <v>7775</v>
+      </c>
+      <c r="AA1" s="28" t="s">
+        <v>7744</v>
+      </c>
+      <c r="AB1" s="25" t="s">
+        <v>7776</v>
+      </c>
+      <c r="AC1" s="26" t="s">
+        <v>7745</v>
+      </c>
+      <c r="AD1" s="27" t="s">
+        <v>7777</v>
+      </c>
+      <c r="AE1" s="28" t="s">
+        <v>7746</v>
+      </c>
+      <c r="AF1" s="25" t="s">
+        <v>7765</v>
+      </c>
+      <c r="AG1" s="26" t="s">
+        <v>7747</v>
+      </c>
+      <c r="AH1" s="27" t="s">
+        <v>7778</v>
+      </c>
+      <c r="AI1" s="28" t="s">
+        <v>7748</v>
+      </c>
+      <c r="AJ1" s="25" t="s">
+        <v>7764</v>
+      </c>
+      <c r="AK1" s="26" t="s">
+        <v>7749</v>
+      </c>
+      <c r="AL1" s="27" t="s">
+        <v>7779</v>
+      </c>
+      <c r="AM1" s="28" t="s">
+        <v>7750</v>
+      </c>
+      <c r="AN1" s="25" t="s">
+        <v>7780</v>
+      </c>
+      <c r="AO1" s="26" t="s">
+        <v>7751</v>
+      </c>
+      <c r="AP1" s="27" t="s">
+        <v>7781</v>
+      </c>
+      <c r="AQ1" s="28" t="s">
+        <v>7752</v>
+      </c>
+      <c r="AR1" s="25" t="s">
+        <v>7792</v>
+      </c>
+      <c r="AS1" s="26" t="s">
+        <v>7793</v>
+      </c>
+      <c r="AT1" s="27" t="s">
+        <v>7794</v>
+      </c>
+      <c r="AU1" s="28" t="s">
         <v>7795</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>7796</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>7797</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>7739</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>7740</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>7741</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>7742</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>7743</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>7744</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>7745</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>7746</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>7747</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>7748</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>7749</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>7750</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>7751</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>7752</v>
-      </c>
-      <c r="R1" s="10" t="s">
+      <c r="AV1" s="25" t="s">
+        <v>7782</v>
+      </c>
+      <c r="AW1" s="26" t="s">
         <v>7753</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="AX1" s="27" t="s">
+        <v>7783</v>
+      </c>
+      <c r="AY1" s="28" t="s">
         <v>7754</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="AZ1" s="25" t="s">
+        <v>7784</v>
+      </c>
+      <c r="BA1" s="26" t="s">
         <v>7755</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="BB1" s="27" t="s">
+        <v>7785</v>
+      </c>
+      <c r="BC1" s="28" t="s">
         <v>7756</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="BD1" s="25" t="s">
+        <v>7786</v>
+      </c>
+      <c r="BE1" s="26" t="s">
         <v>7757</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="BF1" s="27" t="s">
+        <v>7787</v>
+      </c>
+      <c r="BG1" s="29" t="s">
         <v>7758</v>
       </c>
-      <c r="X1" s="9" t="s">
-        <v>7759</v>
-      </c>
-      <c r="Y1" s="11" t="s">
-        <v>7760</v>
-      </c>
-      <c r="Z1" s="10" t="s">
-        <v>7761</v>
-      </c>
-      <c r="AA1" s="12" t="s">
-        <v>7762</v>
-      </c>
-      <c r="AB1" s="9" t="s">
-        <v>7763</v>
-      </c>
-      <c r="AC1" s="11" t="s">
-        <v>7764</v>
-      </c>
-      <c r="AD1" s="10" t="s">
-        <v>7765</v>
-      </c>
-      <c r="AE1" s="12" t="s">
-        <v>7766</v>
-      </c>
-      <c r="AF1" s="9" t="s">
-        <v>7767</v>
-      </c>
-      <c r="AG1" s="11" t="s">
-        <v>7768</v>
-      </c>
-      <c r="AH1" s="10" t="s">
-        <v>7769</v>
-      </c>
-      <c r="AI1" s="12" t="s">
-        <v>7770</v>
-      </c>
-      <c r="AJ1" s="9" t="s">
-        <v>7771</v>
-      </c>
-      <c r="AK1" s="11" t="s">
-        <v>7772</v>
-      </c>
-      <c r="AL1" s="10" t="s">
-        <v>7773</v>
-      </c>
-      <c r="AM1" s="12" t="s">
-        <v>7774</v>
-      </c>
-      <c r="AN1" s="9" t="s">
-        <v>7775</v>
-      </c>
-      <c r="AO1" s="11" t="s">
-        <v>7776</v>
-      </c>
-      <c r="AP1" s="10" t="s">
-        <v>7777</v>
-      </c>
-      <c r="AQ1" s="12" t="s">
-        <v>7778</v>
-      </c>
-      <c r="AR1" s="9" t="s">
-        <v>7779</v>
-      </c>
-      <c r="AS1" s="11" t="s">
-        <v>7780</v>
-      </c>
-      <c r="AT1" s="10" t="s">
-        <v>7781</v>
-      </c>
-      <c r="AU1" s="12" t="s">
-        <v>7782</v>
-      </c>
-      <c r="AV1" s="9" t="s">
-        <v>7783</v>
-      </c>
-      <c r="AW1" s="11" t="s">
-        <v>7784</v>
-      </c>
-      <c r="AX1" s="10" t="s">
-        <v>7785</v>
-      </c>
-      <c r="AY1" s="12" t="s">
-        <v>7786</v>
-      </c>
-      <c r="AZ1" s="9" t="s">
-        <v>7787</v>
-      </c>
-      <c r="BA1" s="11" t="s">
-        <v>7788</v>
-      </c>
-      <c r="BB1" s="10" t="s">
-        <v>7789</v>
-      </c>
-      <c r="BC1" s="12" t="s">
-        <v>7790</v>
-      </c>
-      <c r="BD1" s="9" t="s">
-        <v>7791</v>
-      </c>
-      <c r="BE1" s="11" t="s">
-        <v>7792</v>
-      </c>
-      <c r="BF1" s="10" t="s">
-        <v>7793</v>
-      </c>
-      <c r="BG1" s="12" t="s">
-        <v>7794</v>
-      </c>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>7725</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>7724</v>
+      <c r="A2" s="21" t="s">
+        <v>7721</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>7720</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>7736</v>
-      </c>
-      <c r="D2" s="26">
-        <v>4</v>
-      </c>
-      <c r="E2" s="26">
-        <v>4</v>
-      </c>
-      <c r="F2" s="26">
-        <v>8</v>
-      </c>
-      <c r="G2" s="26">
-        <v>200</v>
+        <v>7732</v>
+      </c>
+      <c r="D2" s="16">
+        <v>2</v>
+      </c>
+      <c r="E2" s="16">
+        <v>22</v>
+      </c>
+      <c r="F2" s="16">
+        <v>64</v>
+      </c>
+      <c r="G2" s="16">
+        <v>1600</v>
       </c>
       <c r="H2" s="6">
         <v>4</v>
@@ -58285,16 +59720,16 @@
       <c r="K2" s="6">
         <v>200</v>
       </c>
-      <c r="L2" s="26">
+      <c r="L2" s="16">
         <v>4</v>
       </c>
-      <c r="M2" s="26">
+      <c r="M2" s="16">
         <v>4</v>
       </c>
-      <c r="N2" s="26">
+      <c r="N2" s="16">
         <v>8</v>
       </c>
-      <c r="O2" s="26">
+      <c r="O2" s="16">
         <v>200</v>
       </c>
       <c r="P2" s="6">
@@ -58309,16 +59744,16 @@
       <c r="S2" s="6">
         <v>200</v>
       </c>
-      <c r="T2" s="26">
+      <c r="T2" s="16">
         <v>4</v>
       </c>
-      <c r="U2" s="26">
+      <c r="U2" s="16">
         <v>4</v>
       </c>
-      <c r="V2" s="26">
+      <c r="V2" s="16">
         <v>8</v>
       </c>
-      <c r="W2" s="26">
+      <c r="W2" s="16">
         <v>200</v>
       </c>
       <c r="X2" s="6">
@@ -58333,16 +59768,16 @@
       <c r="AA2" s="6">
         <v>200</v>
       </c>
-      <c r="AB2" s="26">
+      <c r="AB2" s="16">
         <v>4</v>
       </c>
-      <c r="AC2" s="26">
+      <c r="AC2" s="16">
         <v>4</v>
       </c>
-      <c r="AD2" s="26">
+      <c r="AD2" s="16">
         <v>8</v>
       </c>
-      <c r="AE2" s="26">
+      <c r="AE2" s="16">
         <v>200</v>
       </c>
       <c r="AF2" s="6">
@@ -58357,16 +59792,16 @@
       <c r="AI2" s="6">
         <v>200</v>
       </c>
-      <c r="AJ2" s="26">
+      <c r="AJ2" s="16">
         <v>4</v>
       </c>
-      <c r="AK2" s="26">
+      <c r="AK2" s="16">
         <v>4</v>
       </c>
-      <c r="AL2" s="26">
+      <c r="AL2" s="16">
         <v>8</v>
       </c>
-      <c r="AM2" s="26">
+      <c r="AM2" s="16">
         <v>200</v>
       </c>
       <c r="AN2" s="6">
@@ -58381,16 +59816,16 @@
       <c r="AQ2" s="6">
         <v>200</v>
       </c>
-      <c r="AR2" s="26">
+      <c r="AR2" s="16">
         <v>4</v>
       </c>
-      <c r="AS2" s="26">
+      <c r="AS2" s="16">
         <v>4</v>
       </c>
-      <c r="AT2" s="26">
+      <c r="AT2" s="16">
         <v>8</v>
       </c>
-      <c r="AU2" s="26">
+      <c r="AU2" s="16">
         <v>200</v>
       </c>
       <c r="AV2" s="6">
@@ -58405,16 +59840,16 @@
       <c r="AY2" s="6">
         <v>200</v>
       </c>
-      <c r="AZ2" s="26">
+      <c r="AZ2" s="16">
         <v>4</v>
       </c>
-      <c r="BA2" s="26">
+      <c r="BA2" s="16">
         <v>4</v>
       </c>
-      <c r="BB2" s="26">
+      <c r="BB2" s="16">
         <v>8</v>
       </c>
-      <c r="BC2" s="26">
+      <c r="BC2" s="16">
         <v>200</v>
       </c>
       <c r="BD2" s="6">
@@ -58426,31 +59861,31 @@
       <c r="BF2" s="6">
         <v>8</v>
       </c>
-      <c r="BG2" s="6">
+      <c r="BG2" s="22">
         <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>7726</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>7724</v>
+      <c r="A3" s="21" t="s">
+        <v>7722</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>7720</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>7736</v>
-      </c>
-      <c r="D3" s="26">
+        <v>7732</v>
+      </c>
+      <c r="D3" s="16">
         <v>4</v>
       </c>
-      <c r="E3" s="26">
-        <v>4</v>
-      </c>
-      <c r="F3" s="26">
-        <v>8</v>
-      </c>
-      <c r="G3" s="26">
-        <v>200</v>
+      <c r="E3" s="16">
+        <v>20</v>
+      </c>
+      <c r="F3" s="16">
+        <v>62</v>
+      </c>
+      <c r="G3" s="16">
+        <v>1400</v>
       </c>
       <c r="H3" s="6">
         <v>4</v>
@@ -58464,16 +59899,16 @@
       <c r="K3" s="6">
         <v>200</v>
       </c>
-      <c r="L3" s="26">
+      <c r="L3" s="16">
         <v>4</v>
       </c>
-      <c r="M3" s="26">
+      <c r="M3" s="16">
         <v>4</v>
       </c>
-      <c r="N3" s="26">
+      <c r="N3" s="16">
         <v>8</v>
       </c>
-      <c r="O3" s="26">
+      <c r="O3" s="16">
         <v>200</v>
       </c>
       <c r="P3" s="6">
@@ -58488,16 +59923,16 @@
       <c r="S3" s="6">
         <v>200</v>
       </c>
-      <c r="T3" s="26">
+      <c r="T3" s="16">
         <v>4</v>
       </c>
-      <c r="U3" s="26">
+      <c r="U3" s="16">
         <v>4</v>
       </c>
-      <c r="V3" s="26">
+      <c r="V3" s="16">
         <v>8</v>
       </c>
-      <c r="W3" s="26">
+      <c r="W3" s="16">
         <v>200</v>
       </c>
       <c r="X3" s="6">
@@ -58512,16 +59947,16 @@
       <c r="AA3" s="6">
         <v>200</v>
       </c>
-      <c r="AB3" s="26">
+      <c r="AB3" s="16">
         <v>4</v>
       </c>
-      <c r="AC3" s="26">
+      <c r="AC3" s="16">
         <v>4</v>
       </c>
-      <c r="AD3" s="26">
+      <c r="AD3" s="16">
         <v>8</v>
       </c>
-      <c r="AE3" s="26">
+      <c r="AE3" s="16">
         <v>200</v>
       </c>
       <c r="AF3" s="6">
@@ -58536,16 +59971,16 @@
       <c r="AI3" s="6">
         <v>200</v>
       </c>
-      <c r="AJ3" s="26">
+      <c r="AJ3" s="16">
         <v>4</v>
       </c>
-      <c r="AK3" s="26">
+      <c r="AK3" s="16">
         <v>4</v>
       </c>
-      <c r="AL3" s="26">
+      <c r="AL3" s="16">
         <v>8</v>
       </c>
-      <c r="AM3" s="26">
+      <c r="AM3" s="16">
         <v>200</v>
       </c>
       <c r="AN3" s="6">
@@ -58560,16 +59995,16 @@
       <c r="AQ3" s="6">
         <v>200</v>
       </c>
-      <c r="AR3" s="26">
+      <c r="AR3" s="16">
         <v>4</v>
       </c>
-      <c r="AS3" s="26">
+      <c r="AS3" s="16">
         <v>4</v>
       </c>
-      <c r="AT3" s="26">
+      <c r="AT3" s="16">
         <v>8</v>
       </c>
-      <c r="AU3" s="26">
+      <c r="AU3" s="16">
         <v>200</v>
       </c>
       <c r="AV3" s="6">
@@ -58584,16 +60019,16 @@
       <c r="AY3" s="6">
         <v>200</v>
       </c>
-      <c r="AZ3" s="26">
+      <c r="AZ3" s="16">
         <v>4</v>
       </c>
-      <c r="BA3" s="26">
+      <c r="BA3" s="16">
         <v>4</v>
       </c>
-      <c r="BB3" s="26">
+      <c r="BB3" s="16">
         <v>8</v>
       </c>
-      <c r="BC3" s="26">
+      <c r="BC3" s="16">
         <v>200</v>
       </c>
       <c r="BD3" s="6">
@@ -58605,31 +60040,31 @@
       <c r="BF3" s="6">
         <v>8</v>
       </c>
-      <c r="BG3" s="6">
+      <c r="BG3" s="22">
         <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>7727</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>7724</v>
+      <c r="A4" s="21" t="s">
+        <v>7723</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>7720</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>7736</v>
-      </c>
-      <c r="D4" s="26">
-        <v>4</v>
-      </c>
-      <c r="E4" s="26">
-        <v>4</v>
-      </c>
-      <c r="F4" s="26">
-        <v>8</v>
-      </c>
-      <c r="G4" s="26">
-        <v>200</v>
+        <v>7732</v>
+      </c>
+      <c r="D4" s="16">
+        <v>6</v>
+      </c>
+      <c r="E4" s="16">
+        <v>18</v>
+      </c>
+      <c r="F4" s="16">
+        <v>60</v>
+      </c>
+      <c r="G4" s="16">
+        <v>1200</v>
       </c>
       <c r="H4" s="6">
         <v>4</v>
@@ -58643,16 +60078,16 @@
       <c r="K4" s="6">
         <v>200</v>
       </c>
-      <c r="L4" s="26">
+      <c r="L4" s="16">
         <v>4</v>
       </c>
-      <c r="M4" s="26">
+      <c r="M4" s="16">
         <v>4</v>
       </c>
-      <c r="N4" s="26">
+      <c r="N4" s="16">
         <v>8</v>
       </c>
-      <c r="O4" s="26">
+      <c r="O4" s="16">
         <v>200</v>
       </c>
       <c r="P4" s="6">
@@ -58667,16 +60102,16 @@
       <c r="S4" s="6">
         <v>200</v>
       </c>
-      <c r="T4" s="26">
+      <c r="T4" s="16">
         <v>4</v>
       </c>
-      <c r="U4" s="26">
+      <c r="U4" s="16">
         <v>4</v>
       </c>
-      <c r="V4" s="26">
+      <c r="V4" s="16">
         <v>8</v>
       </c>
-      <c r="W4" s="26">
+      <c r="W4" s="16">
         <v>200</v>
       </c>
       <c r="X4" s="6">
@@ -58691,16 +60126,16 @@
       <c r="AA4" s="6">
         <v>200</v>
       </c>
-      <c r="AB4" s="26">
+      <c r="AB4" s="16">
         <v>4</v>
       </c>
-      <c r="AC4" s="26">
+      <c r="AC4" s="16">
         <v>4</v>
       </c>
-      <c r="AD4" s="26">
+      <c r="AD4" s="16">
         <v>8</v>
       </c>
-      <c r="AE4" s="26">
+      <c r="AE4" s="16">
         <v>200</v>
       </c>
       <c r="AF4" s="6">
@@ -58715,16 +60150,16 @@
       <c r="AI4" s="6">
         <v>200</v>
       </c>
-      <c r="AJ4" s="26">
+      <c r="AJ4" s="16">
         <v>4</v>
       </c>
-      <c r="AK4" s="26">
+      <c r="AK4" s="16">
         <v>4</v>
       </c>
-      <c r="AL4" s="26">
+      <c r="AL4" s="16">
         <v>8</v>
       </c>
-      <c r="AM4" s="26">
+      <c r="AM4" s="16">
         <v>200</v>
       </c>
       <c r="AN4" s="6">
@@ -58739,16 +60174,16 @@
       <c r="AQ4" s="6">
         <v>200</v>
       </c>
-      <c r="AR4" s="26">
+      <c r="AR4" s="16">
         <v>4</v>
       </c>
-      <c r="AS4" s="26">
+      <c r="AS4" s="16">
         <v>4</v>
       </c>
-      <c r="AT4" s="26">
+      <c r="AT4" s="16">
         <v>8</v>
       </c>
-      <c r="AU4" s="26">
+      <c r="AU4" s="16">
         <v>200</v>
       </c>
       <c r="AV4" s="6">
@@ -58763,16 +60198,16 @@
       <c r="AY4" s="6">
         <v>200</v>
       </c>
-      <c r="AZ4" s="26">
+      <c r="AZ4" s="16">
         <v>4</v>
       </c>
-      <c r="BA4" s="26">
+      <c r="BA4" s="16">
         <v>4</v>
       </c>
-      <c r="BB4" s="26">
+      <c r="BB4" s="16">
         <v>8</v>
       </c>
-      <c r="BC4" s="26">
+      <c r="BC4" s="16">
         <v>200</v>
       </c>
       <c r="BD4" s="6">
@@ -58784,31 +60219,31 @@
       <c r="BF4" s="6">
         <v>8</v>
       </c>
-      <c r="BG4" s="6">
+      <c r="BG4" s="22">
         <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>7728</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="21" t="s">
         <v>7724</v>
       </c>
+      <c r="B5" s="7" t="s">
+        <v>7720</v>
+      </c>
       <c r="C5" s="6" t="s">
-        <v>7736</v>
-      </c>
-      <c r="D5" s="26">
-        <v>4</v>
-      </c>
-      <c r="E5" s="26">
-        <v>4</v>
-      </c>
-      <c r="F5" s="26">
+        <v>7732</v>
+      </c>
+      <c r="D5" s="16">
         <v>8</v>
       </c>
-      <c r="G5" s="26">
-        <v>200</v>
+      <c r="E5" s="16">
+        <v>16</v>
+      </c>
+      <c r="F5" s="16">
+        <v>58</v>
+      </c>
+      <c r="G5" s="16">
+        <v>1000</v>
       </c>
       <c r="H5" s="6">
         <v>4</v>
@@ -58822,16 +60257,16 @@
       <c r="K5" s="6">
         <v>200</v>
       </c>
-      <c r="L5" s="26">
+      <c r="L5" s="16">
         <v>4</v>
       </c>
-      <c r="M5" s="26">
+      <c r="M5" s="16">
         <v>4</v>
       </c>
-      <c r="N5" s="26">
+      <c r="N5" s="16">
         <v>8</v>
       </c>
-      <c r="O5" s="26">
+      <c r="O5" s="16">
         <v>200</v>
       </c>
       <c r="P5" s="6">
@@ -58846,16 +60281,16 @@
       <c r="S5" s="6">
         <v>200</v>
       </c>
-      <c r="T5" s="26">
+      <c r="T5" s="16">
         <v>4</v>
       </c>
-      <c r="U5" s="26">
+      <c r="U5" s="16">
         <v>4</v>
       </c>
-      <c r="V5" s="26">
+      <c r="V5" s="16">
         <v>8</v>
       </c>
-      <c r="W5" s="26">
+      <c r="W5" s="16">
         <v>200</v>
       </c>
       <c r="X5" s="6">
@@ -58870,16 +60305,16 @@
       <c r="AA5" s="6">
         <v>200</v>
       </c>
-      <c r="AB5" s="26">
+      <c r="AB5" s="16">
         <v>4</v>
       </c>
-      <c r="AC5" s="26">
+      <c r="AC5" s="16">
         <v>4</v>
       </c>
-      <c r="AD5" s="26">
+      <c r="AD5" s="16">
         <v>8</v>
       </c>
-      <c r="AE5" s="26">
+      <c r="AE5" s="16">
         <v>200</v>
       </c>
       <c r="AF5" s="6">
@@ -58894,16 +60329,16 @@
       <c r="AI5" s="6">
         <v>200</v>
       </c>
-      <c r="AJ5" s="26">
+      <c r="AJ5" s="16">
         <v>4</v>
       </c>
-      <c r="AK5" s="26">
+      <c r="AK5" s="16">
         <v>4</v>
       </c>
-      <c r="AL5" s="26">
+      <c r="AL5" s="16">
         <v>8</v>
       </c>
-      <c r="AM5" s="26">
+      <c r="AM5" s="16">
         <v>200</v>
       </c>
       <c r="AN5" s="6">
@@ -58918,16 +60353,16 @@
       <c r="AQ5" s="6">
         <v>200</v>
       </c>
-      <c r="AR5" s="26">
+      <c r="AR5" s="16">
         <v>4</v>
       </c>
-      <c r="AS5" s="26">
+      <c r="AS5" s="16">
         <v>4</v>
       </c>
-      <c r="AT5" s="26">
+      <c r="AT5" s="16">
         <v>8</v>
       </c>
-      <c r="AU5" s="26">
+      <c r="AU5" s="16">
         <v>200</v>
       </c>
       <c r="AV5" s="6">
@@ -58942,16 +60377,16 @@
       <c r="AY5" s="6">
         <v>200</v>
       </c>
-      <c r="AZ5" s="26">
+      <c r="AZ5" s="16">
         <v>4</v>
       </c>
-      <c r="BA5" s="26">
+      <c r="BA5" s="16">
         <v>4</v>
       </c>
-      <c r="BB5" s="26">
+      <c r="BB5" s="16">
         <v>8</v>
       </c>
-      <c r="BC5" s="26">
+      <c r="BC5" s="16">
         <v>200</v>
       </c>
       <c r="BD5" s="6">
@@ -58963,31 +60398,31 @@
       <c r="BF5" s="6">
         <v>8</v>
       </c>
-      <c r="BG5" s="6">
+      <c r="BG5" s="22">
         <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>7729</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>7724</v>
+      <c r="A6" s="21" t="s">
+        <v>7725</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>7720</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>7736</v>
-      </c>
-      <c r="D6" s="26">
-        <v>4</v>
-      </c>
-      <c r="E6" s="26">
-        <v>4</v>
-      </c>
-      <c r="F6" s="26">
-        <v>8</v>
-      </c>
-      <c r="G6" s="26">
-        <v>200</v>
+        <v>7732</v>
+      </c>
+      <c r="D6" s="16">
+        <v>10</v>
+      </c>
+      <c r="E6" s="16">
+        <v>14</v>
+      </c>
+      <c r="F6" s="16">
+        <v>56</v>
+      </c>
+      <c r="G6" s="16">
+        <v>800</v>
       </c>
       <c r="H6" s="6">
         <v>4</v>
@@ -59001,16 +60436,16 @@
       <c r="K6" s="6">
         <v>200</v>
       </c>
-      <c r="L6" s="26">
+      <c r="L6" s="16">
         <v>4</v>
       </c>
-      <c r="M6" s="26">
+      <c r="M6" s="16">
         <v>4</v>
       </c>
-      <c r="N6" s="26">
+      <c r="N6" s="16">
         <v>8</v>
       </c>
-      <c r="O6" s="26">
+      <c r="O6" s="16">
         <v>200</v>
       </c>
       <c r="P6" s="6">
@@ -59025,16 +60460,16 @@
       <c r="S6" s="6">
         <v>200</v>
       </c>
-      <c r="T6" s="26">
+      <c r="T6" s="16">
         <v>4</v>
       </c>
-      <c r="U6" s="26">
+      <c r="U6" s="16">
         <v>4</v>
       </c>
-      <c r="V6" s="26">
+      <c r="V6" s="16">
         <v>8</v>
       </c>
-      <c r="W6" s="26">
+      <c r="W6" s="16">
         <v>200</v>
       </c>
       <c r="X6" s="6">
@@ -59049,16 +60484,16 @@
       <c r="AA6" s="6">
         <v>200</v>
       </c>
-      <c r="AB6" s="26">
+      <c r="AB6" s="16">
         <v>4</v>
       </c>
-      <c r="AC6" s="26">
+      <c r="AC6" s="16">
         <v>4</v>
       </c>
-      <c r="AD6" s="26">
+      <c r="AD6" s="16">
         <v>8</v>
       </c>
-      <c r="AE6" s="26">
+      <c r="AE6" s="16">
         <v>200</v>
       </c>
       <c r="AF6" s="6">
@@ -59073,16 +60508,16 @@
       <c r="AI6" s="6">
         <v>200</v>
       </c>
-      <c r="AJ6" s="26">
+      <c r="AJ6" s="16">
         <v>4</v>
       </c>
-      <c r="AK6" s="26">
+      <c r="AK6" s="16">
         <v>4</v>
       </c>
-      <c r="AL6" s="26">
+      <c r="AL6" s="16">
         <v>8</v>
       </c>
-      <c r="AM6" s="26">
+      <c r="AM6" s="16">
         <v>200</v>
       </c>
       <c r="AN6" s="6">
@@ -59097,16 +60532,16 @@
       <c r="AQ6" s="6">
         <v>200</v>
       </c>
-      <c r="AR6" s="26">
+      <c r="AR6" s="16">
         <v>4</v>
       </c>
-      <c r="AS6" s="26">
+      <c r="AS6" s="16">
         <v>4</v>
       </c>
-      <c r="AT6" s="26">
+      <c r="AT6" s="16">
         <v>8</v>
       </c>
-      <c r="AU6" s="26">
+      <c r="AU6" s="16">
         <v>200</v>
       </c>
       <c r="AV6" s="6">
@@ -59121,16 +60556,16 @@
       <c r="AY6" s="6">
         <v>200</v>
       </c>
-      <c r="AZ6" s="26">
+      <c r="AZ6" s="16">
         <v>4</v>
       </c>
-      <c r="BA6" s="26">
+      <c r="BA6" s="16">
         <v>4</v>
       </c>
-      <c r="BB6" s="26">
+      <c r="BB6" s="16">
         <v>8</v>
       </c>
-      <c r="BC6" s="26">
+      <c r="BC6" s="16">
         <v>200</v>
       </c>
       <c r="BD6" s="6">
@@ -59142,31 +60577,31 @@
       <c r="BF6" s="6">
         <v>8</v>
       </c>
-      <c r="BG6" s="6">
+      <c r="BG6" s="22">
         <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>7730</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>7724</v>
+      <c r="A7" s="21" t="s">
+        <v>7726</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>7720</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>7736</v>
-      </c>
-      <c r="D7" s="26">
-        <v>4</v>
-      </c>
-      <c r="E7" s="26">
-        <v>4</v>
-      </c>
-      <c r="F7" s="26">
-        <v>8</v>
-      </c>
-      <c r="G7" s="26">
-        <v>200</v>
+        <v>7732</v>
+      </c>
+      <c r="D7" s="16">
+        <v>12</v>
+      </c>
+      <c r="E7" s="16">
+        <v>12</v>
+      </c>
+      <c r="F7" s="16">
+        <v>54</v>
+      </c>
+      <c r="G7" s="16">
+        <v>600</v>
       </c>
       <c r="H7" s="6">
         <v>4</v>
@@ -59180,16 +60615,16 @@
       <c r="K7" s="6">
         <v>200</v>
       </c>
-      <c r="L7" s="26">
+      <c r="L7" s="16">
         <v>4</v>
       </c>
-      <c r="M7" s="26">
+      <c r="M7" s="16">
         <v>4</v>
       </c>
-      <c r="N7" s="26">
+      <c r="N7" s="16">
         <v>8</v>
       </c>
-      <c r="O7" s="26">
+      <c r="O7" s="16">
         <v>200</v>
       </c>
       <c r="P7" s="6">
@@ -59204,16 +60639,16 @@
       <c r="S7" s="6">
         <v>200</v>
       </c>
-      <c r="T7" s="26">
+      <c r="T7" s="16">
         <v>4</v>
       </c>
-      <c r="U7" s="26">
+      <c r="U7" s="16">
         <v>4</v>
       </c>
-      <c r="V7" s="26">
+      <c r="V7" s="16">
         <v>8</v>
       </c>
-      <c r="W7" s="26">
+      <c r="W7" s="16">
         <v>200</v>
       </c>
       <c r="X7" s="6">
@@ -59228,16 +60663,16 @@
       <c r="AA7" s="6">
         <v>200</v>
       </c>
-      <c r="AB7" s="26">
+      <c r="AB7" s="16">
         <v>4</v>
       </c>
-      <c r="AC7" s="26">
+      <c r="AC7" s="16">
         <v>4</v>
       </c>
-      <c r="AD7" s="26">
+      <c r="AD7" s="16">
         <v>8</v>
       </c>
-      <c r="AE7" s="26">
+      <c r="AE7" s="16">
         <v>200</v>
       </c>
       <c r="AF7" s="6">
@@ -59252,16 +60687,16 @@
       <c r="AI7" s="6">
         <v>200</v>
       </c>
-      <c r="AJ7" s="26">
+      <c r="AJ7" s="16">
         <v>4</v>
       </c>
-      <c r="AK7" s="26">
+      <c r="AK7" s="16">
         <v>4</v>
       </c>
-      <c r="AL7" s="26">
+      <c r="AL7" s="16">
         <v>8</v>
       </c>
-      <c r="AM7" s="26">
+      <c r="AM7" s="16">
         <v>200</v>
       </c>
       <c r="AN7" s="6">
@@ -59276,16 +60711,16 @@
       <c r="AQ7" s="6">
         <v>200</v>
       </c>
-      <c r="AR7" s="26">
+      <c r="AR7" s="16">
         <v>4</v>
       </c>
-      <c r="AS7" s="26">
+      <c r="AS7" s="16">
         <v>4</v>
       </c>
-      <c r="AT7" s="26">
+      <c r="AT7" s="16">
         <v>8</v>
       </c>
-      <c r="AU7" s="26">
+      <c r="AU7" s="16">
         <v>200</v>
       </c>
       <c r="AV7" s="6">
@@ -59300,16 +60735,16 @@
       <c r="AY7" s="6">
         <v>200</v>
       </c>
-      <c r="AZ7" s="26">
+      <c r="AZ7" s="16">
         <v>4</v>
       </c>
-      <c r="BA7" s="26">
+      <c r="BA7" s="16">
         <v>4</v>
       </c>
-      <c r="BB7" s="26">
+      <c r="BB7" s="16">
         <v>8</v>
       </c>
-      <c r="BC7" s="26">
+      <c r="BC7" s="16">
         <v>200</v>
       </c>
       <c r="BD7" s="6">
@@ -59321,31 +60756,31 @@
       <c r="BF7" s="6">
         <v>8</v>
       </c>
-      <c r="BG7" s="6">
+      <c r="BG7" s="22">
         <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>7731</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>7724</v>
+      <c r="A8" s="21" t="s">
+        <v>7727</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>7720</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>7736</v>
-      </c>
-      <c r="D8" s="26">
-        <v>4</v>
-      </c>
-      <c r="E8" s="26">
-        <v>4</v>
-      </c>
-      <c r="F8" s="26">
-        <v>8</v>
-      </c>
-      <c r="G8" s="26">
-        <v>200</v>
+        <v>7732</v>
+      </c>
+      <c r="D8" s="16">
+        <v>14</v>
+      </c>
+      <c r="E8" s="16">
+        <v>10</v>
+      </c>
+      <c r="F8" s="16">
+        <v>52</v>
+      </c>
+      <c r="G8" s="16">
+        <v>400</v>
       </c>
       <c r="H8" s="6">
         <v>4</v>
@@ -59359,16 +60794,16 @@
       <c r="K8" s="6">
         <v>200</v>
       </c>
-      <c r="L8" s="26">
+      <c r="L8" s="16">
         <v>4</v>
       </c>
-      <c r="M8" s="26">
+      <c r="M8" s="16">
         <v>4</v>
       </c>
-      <c r="N8" s="26">
+      <c r="N8" s="16">
         <v>8</v>
       </c>
-      <c r="O8" s="26">
+      <c r="O8" s="16">
         <v>200</v>
       </c>
       <c r="P8" s="6">
@@ -59383,16 +60818,16 @@
       <c r="S8" s="6">
         <v>200</v>
       </c>
-      <c r="T8" s="26">
+      <c r="T8" s="16">
         <v>4</v>
       </c>
-      <c r="U8" s="26">
+      <c r="U8" s="16">
         <v>4</v>
       </c>
-      <c r="V8" s="26">
+      <c r="V8" s="16">
         <v>8</v>
       </c>
-      <c r="W8" s="26">
+      <c r="W8" s="16">
         <v>200</v>
       </c>
       <c r="X8" s="6">
@@ -59407,16 +60842,16 @@
       <c r="AA8" s="6">
         <v>200</v>
       </c>
-      <c r="AB8" s="26">
+      <c r="AB8" s="16">
         <v>4</v>
       </c>
-      <c r="AC8" s="26">
+      <c r="AC8" s="16">
         <v>4</v>
       </c>
-      <c r="AD8" s="26">
+      <c r="AD8" s="16">
         <v>8</v>
       </c>
-      <c r="AE8" s="26">
+      <c r="AE8" s="16">
         <v>200</v>
       </c>
       <c r="AF8" s="6">
@@ -59431,16 +60866,16 @@
       <c r="AI8" s="6">
         <v>200</v>
       </c>
-      <c r="AJ8" s="26">
+      <c r="AJ8" s="16">
         <v>4</v>
       </c>
-      <c r="AK8" s="26">
+      <c r="AK8" s="16">
         <v>4</v>
       </c>
-      <c r="AL8" s="26">
+      <c r="AL8" s="16">
         <v>8</v>
       </c>
-      <c r="AM8" s="26">
+      <c r="AM8" s="16">
         <v>200</v>
       </c>
       <c r="AN8" s="6">
@@ -59455,16 +60890,16 @@
       <c r="AQ8" s="6">
         <v>200</v>
       </c>
-      <c r="AR8" s="26">
+      <c r="AR8" s="16">
         <v>4</v>
       </c>
-      <c r="AS8" s="26">
+      <c r="AS8" s="16">
         <v>4</v>
       </c>
-      <c r="AT8" s="26">
+      <c r="AT8" s="16">
         <v>8</v>
       </c>
-      <c r="AU8" s="26">
+      <c r="AU8" s="16">
         <v>200</v>
       </c>
       <c r="AV8" s="6">
@@ -59479,16 +60914,16 @@
       <c r="AY8" s="6">
         <v>200</v>
       </c>
-      <c r="AZ8" s="26">
+      <c r="AZ8" s="16">
         <v>4</v>
       </c>
-      <c r="BA8" s="26">
+      <c r="BA8" s="16">
         <v>4</v>
       </c>
-      <c r="BB8" s="26">
+      <c r="BB8" s="16">
         <v>8</v>
       </c>
-      <c r="BC8" s="26">
+      <c r="BC8" s="16">
         <v>200</v>
       </c>
       <c r="BD8" s="6">
@@ -59500,30 +60935,30 @@
       <c r="BF8" s="6">
         <v>8</v>
       </c>
-      <c r="BG8" s="6">
+      <c r="BG8" s="22">
         <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="21" t="s">
+        <v>7728</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>7720</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>7732</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>7724</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>7736</v>
-      </c>
-      <c r="D9" s="26">
-        <v>4</v>
-      </c>
-      <c r="E9" s="26">
-        <v>4</v>
-      </c>
-      <c r="F9" s="26">
+      <c r="D9" s="16">
+        <v>16</v>
+      </c>
+      <c r="E9" s="16">
         <v>8</v>
       </c>
-      <c r="G9" s="26">
+      <c r="F9" s="16">
+        <v>50</v>
+      </c>
+      <c r="G9" s="16">
         <v>200</v>
       </c>
       <c r="H9" s="6">
@@ -59538,16 +60973,16 @@
       <c r="K9" s="6">
         <v>200</v>
       </c>
-      <c r="L9" s="26">
+      <c r="L9" s="16">
         <v>4</v>
       </c>
-      <c r="M9" s="26">
+      <c r="M9" s="16">
         <v>4</v>
       </c>
-      <c r="N9" s="26">
+      <c r="N9" s="16">
         <v>8</v>
       </c>
-      <c r="O9" s="26">
+      <c r="O9" s="16">
         <v>200</v>
       </c>
       <c r="P9" s="6">
@@ -59562,16 +60997,16 @@
       <c r="S9" s="6">
         <v>200</v>
       </c>
-      <c r="T9" s="26">
+      <c r="T9" s="16">
         <v>4</v>
       </c>
-      <c r="U9" s="26">
+      <c r="U9" s="16">
         <v>4</v>
       </c>
-      <c r="V9" s="26">
+      <c r="V9" s="16">
         <v>8</v>
       </c>
-      <c r="W9" s="26">
+      <c r="W9" s="16">
         <v>200</v>
       </c>
       <c r="X9" s="6">
@@ -59586,16 +61021,16 @@
       <c r="AA9" s="6">
         <v>200</v>
       </c>
-      <c r="AB9" s="26">
+      <c r="AB9" s="16">
         <v>4</v>
       </c>
-      <c r="AC9" s="26">
+      <c r="AC9" s="16">
         <v>4</v>
       </c>
-      <c r="AD9" s="26">
+      <c r="AD9" s="16">
         <v>8</v>
       </c>
-      <c r="AE9" s="26">
+      <c r="AE9" s="16">
         <v>200</v>
       </c>
       <c r="AF9" s="6">
@@ -59610,16 +61045,16 @@
       <c r="AI9" s="6">
         <v>200</v>
       </c>
-      <c r="AJ9" s="26">
+      <c r="AJ9" s="16">
         <v>4</v>
       </c>
-      <c r="AK9" s="26">
+      <c r="AK9" s="16">
         <v>4</v>
       </c>
-      <c r="AL9" s="26">
+      <c r="AL9" s="16">
         <v>8</v>
       </c>
-      <c r="AM9" s="26">
+      <c r="AM9" s="16">
         <v>200</v>
       </c>
       <c r="AN9" s="6">
@@ -59634,16 +61069,16 @@
       <c r="AQ9" s="6">
         <v>200</v>
       </c>
-      <c r="AR9" s="26">
+      <c r="AR9" s="16">
         <v>4</v>
       </c>
-      <c r="AS9" s="26">
+      <c r="AS9" s="16">
         <v>4</v>
       </c>
-      <c r="AT9" s="26">
+      <c r="AT9" s="16">
         <v>8</v>
       </c>
-      <c r="AU9" s="26">
+      <c r="AU9" s="16">
         <v>200</v>
       </c>
       <c r="AV9" s="6">
@@ -59658,16 +61093,16 @@
       <c r="AY9" s="6">
         <v>200</v>
       </c>
-      <c r="AZ9" s="26">
+      <c r="AZ9" s="16">
         <v>4</v>
       </c>
-      <c r="BA9" s="26">
+      <c r="BA9" s="16">
         <v>4</v>
       </c>
-      <c r="BB9" s="26">
+      <c r="BB9" s="16">
         <v>8</v>
       </c>
-      <c r="BC9" s="26">
+      <c r="BC9" s="16">
         <v>200</v>
       </c>
       <c r="BD9" s="6">
@@ -59679,31 +61114,31 @@
       <c r="BF9" s="6">
         <v>8</v>
       </c>
-      <c r="BG9" s="6">
+      <c r="BG9" s="22">
         <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>7733</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>7724</v>
+      <c r="A10" s="21" t="s">
+        <v>7729</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>7720</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>7736</v>
-      </c>
-      <c r="D10" s="26">
-        <v>4</v>
-      </c>
-      <c r="E10" s="26">
-        <v>4</v>
-      </c>
-      <c r="F10" s="26">
-        <v>8</v>
-      </c>
-      <c r="G10" s="26">
-        <v>200</v>
+        <v>7732</v>
+      </c>
+      <c r="D10" s="16">
+        <v>18</v>
+      </c>
+      <c r="E10" s="16">
+        <v>6</v>
+      </c>
+      <c r="F10" s="16">
+        <v>48</v>
+      </c>
+      <c r="G10" s="16">
+        <v>500</v>
       </c>
       <c r="H10" s="6">
         <v>4</v>
@@ -59717,16 +61152,16 @@
       <c r="K10" s="6">
         <v>200</v>
       </c>
-      <c r="L10" s="26">
+      <c r="L10" s="16">
         <v>4</v>
       </c>
-      <c r="M10" s="26">
+      <c r="M10" s="16">
         <v>4</v>
       </c>
-      <c r="N10" s="26">
+      <c r="N10" s="16">
         <v>8</v>
       </c>
-      <c r="O10" s="26">
+      <c r="O10" s="16">
         <v>200</v>
       </c>
       <c r="P10" s="6">
@@ -59741,16 +61176,16 @@
       <c r="S10" s="6">
         <v>200</v>
       </c>
-      <c r="T10" s="26">
+      <c r="T10" s="16">
         <v>4</v>
       </c>
-      <c r="U10" s="26">
+      <c r="U10" s="16">
         <v>4</v>
       </c>
-      <c r="V10" s="26">
+      <c r="V10" s="16">
         <v>8</v>
       </c>
-      <c r="W10" s="26">
+      <c r="W10" s="16">
         <v>200</v>
       </c>
       <c r="X10" s="6">
@@ -59765,16 +61200,16 @@
       <c r="AA10" s="6">
         <v>200</v>
       </c>
-      <c r="AB10" s="26">
+      <c r="AB10" s="16">
         <v>4</v>
       </c>
-      <c r="AC10" s="26">
+      <c r="AC10" s="16">
         <v>4</v>
       </c>
-      <c r="AD10" s="26">
+      <c r="AD10" s="16">
         <v>8</v>
       </c>
-      <c r="AE10" s="26">
+      <c r="AE10" s="16">
         <v>200</v>
       </c>
       <c r="AF10" s="6">
@@ -59789,16 +61224,16 @@
       <c r="AI10" s="6">
         <v>200</v>
       </c>
-      <c r="AJ10" s="26">
+      <c r="AJ10" s="16">
         <v>4</v>
       </c>
-      <c r="AK10" s="26">
+      <c r="AK10" s="16">
         <v>4</v>
       </c>
-      <c r="AL10" s="26">
+      <c r="AL10" s="16">
         <v>8</v>
       </c>
-      <c r="AM10" s="26">
+      <c r="AM10" s="16">
         <v>200</v>
       </c>
       <c r="AN10" s="6">
@@ -59813,16 +61248,16 @@
       <c r="AQ10" s="6">
         <v>200</v>
       </c>
-      <c r="AR10" s="26">
+      <c r="AR10" s="16">
         <v>4</v>
       </c>
-      <c r="AS10" s="26">
+      <c r="AS10" s="16">
         <v>4</v>
       </c>
-      <c r="AT10" s="26">
+      <c r="AT10" s="16">
         <v>8</v>
       </c>
-      <c r="AU10" s="26">
+      <c r="AU10" s="16">
         <v>200</v>
       </c>
       <c r="AV10" s="6">
@@ -59837,16 +61272,16 @@
       <c r="AY10" s="6">
         <v>200</v>
       </c>
-      <c r="AZ10" s="26">
+      <c r="AZ10" s="16">
         <v>4</v>
       </c>
-      <c r="BA10" s="26">
+      <c r="BA10" s="16">
         <v>4</v>
       </c>
-      <c r="BB10" s="26">
+      <c r="BB10" s="16">
         <v>8</v>
       </c>
-      <c r="BC10" s="26">
+      <c r="BC10" s="16">
         <v>200</v>
       </c>
       <c r="BD10" s="6">
@@ -59858,31 +61293,31 @@
       <c r="BF10" s="6">
         <v>8</v>
       </c>
-      <c r="BG10" s="6">
+      <c r="BG10" s="22">
         <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>7734</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>7724</v>
+      <c r="A11" s="21" t="s">
+        <v>7730</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>7720</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>7736</v>
-      </c>
-      <c r="D11" s="26">
+        <v>7732</v>
+      </c>
+      <c r="D11" s="16">
+        <v>20</v>
+      </c>
+      <c r="E11" s="16">
         <v>4</v>
       </c>
-      <c r="E11" s="26">
-        <v>4</v>
-      </c>
-      <c r="F11" s="26">
-        <v>8</v>
-      </c>
-      <c r="G11" s="26">
-        <v>200</v>
+      <c r="F11" s="16">
+        <v>46</v>
+      </c>
+      <c r="G11" s="16">
+        <v>900</v>
       </c>
       <c r="H11" s="6">
         <v>4</v>
@@ -59896,16 +61331,16 @@
       <c r="K11" s="6">
         <v>200</v>
       </c>
-      <c r="L11" s="26">
+      <c r="L11" s="16">
         <v>4</v>
       </c>
-      <c r="M11" s="26">
+      <c r="M11" s="16">
         <v>4</v>
       </c>
-      <c r="N11" s="26">
+      <c r="N11" s="16">
         <v>8</v>
       </c>
-      <c r="O11" s="26">
+      <c r="O11" s="16">
         <v>200</v>
       </c>
       <c r="P11" s="6">
@@ -59920,16 +61355,16 @@
       <c r="S11" s="6">
         <v>200</v>
       </c>
-      <c r="T11" s="26">
+      <c r="T11" s="16">
         <v>4</v>
       </c>
-      <c r="U11" s="26">
+      <c r="U11" s="16">
         <v>4</v>
       </c>
-      <c r="V11" s="26">
+      <c r="V11" s="16">
         <v>8</v>
       </c>
-      <c r="W11" s="26">
+      <c r="W11" s="16">
         <v>200</v>
       </c>
       <c r="X11" s="6">
@@ -59944,16 +61379,16 @@
       <c r="AA11" s="6">
         <v>200</v>
       </c>
-      <c r="AB11" s="26">
+      <c r="AB11" s="16">
         <v>4</v>
       </c>
-      <c r="AC11" s="26">
+      <c r="AC11" s="16">
         <v>4</v>
       </c>
-      <c r="AD11" s="26">
+      <c r="AD11" s="16">
         <v>8</v>
       </c>
-      <c r="AE11" s="26">
+      <c r="AE11" s="16">
         <v>200</v>
       </c>
       <c r="AF11" s="6">
@@ -59968,16 +61403,16 @@
       <c r="AI11" s="6">
         <v>200</v>
       </c>
-      <c r="AJ11" s="26">
+      <c r="AJ11" s="16">
         <v>4</v>
       </c>
-      <c r="AK11" s="26">
+      <c r="AK11" s="16">
         <v>4</v>
       </c>
-      <c r="AL11" s="26">
+      <c r="AL11" s="16">
         <v>8</v>
       </c>
-      <c r="AM11" s="26">
+      <c r="AM11" s="16">
         <v>200</v>
       </c>
       <c r="AN11" s="6">
@@ -59992,16 +61427,16 @@
       <c r="AQ11" s="6">
         <v>200</v>
       </c>
-      <c r="AR11" s="26">
+      <c r="AR11" s="16">
         <v>4</v>
       </c>
-      <c r="AS11" s="26">
+      <c r="AS11" s="16">
         <v>4</v>
       </c>
-      <c r="AT11" s="26">
+      <c r="AT11" s="16">
         <v>8</v>
       </c>
-      <c r="AU11" s="26">
+      <c r="AU11" s="16">
         <v>200</v>
       </c>
       <c r="AV11" s="6">
@@ -60016,16 +61451,16 @@
       <c r="AY11" s="6">
         <v>200</v>
       </c>
-      <c r="AZ11" s="26">
+      <c r="AZ11" s="16">
         <v>4</v>
       </c>
-      <c r="BA11" s="26">
+      <c r="BA11" s="16">
         <v>4</v>
       </c>
-      <c r="BB11" s="26">
+      <c r="BB11" s="16">
         <v>8</v>
       </c>
-      <c r="BC11" s="26">
+      <c r="BC11" s="16">
         <v>200</v>
       </c>
       <c r="BD11" s="6">
@@ -60037,418 +61472,195 @@
       <c r="BF11" s="6">
         <v>8</v>
       </c>
-      <c r="BG11" s="6">
+      <c r="BG11" s="22">
         <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>7735</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>7724</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>7736</v>
-      </c>
-      <c r="D12" s="26">
+      <c r="A12" s="20" t="s">
+        <v>7731</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>7720</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>7732</v>
+      </c>
+      <c r="D12" s="16">
+        <v>22</v>
+      </c>
+      <c r="E12" s="16">
+        <v>2</v>
+      </c>
+      <c r="F12" s="16">
+        <v>44</v>
+      </c>
+      <c r="G12" s="16">
+        <v>10000</v>
+      </c>
+      <c r="H12" s="31">
         <v>4</v>
       </c>
-      <c r="E12" s="26">
+      <c r="I12" s="31">
         <v>4</v>
       </c>
-      <c r="F12" s="26">
+      <c r="J12" s="31">
         <v>8</v>
       </c>
-      <c r="G12" s="26">
+      <c r="K12" s="31">
         <v>200</v>
       </c>
-      <c r="H12" s="6">
+      <c r="L12" s="32">
         <v>4</v>
       </c>
-      <c r="I12" s="6">
+      <c r="M12" s="32">
         <v>4</v>
       </c>
-      <c r="J12" s="6">
+      <c r="N12" s="32">
         <v>8</v>
       </c>
-      <c r="K12" s="6">
+      <c r="O12" s="32">
         <v>200</v>
       </c>
-      <c r="L12" s="26">
+      <c r="P12" s="31">
         <v>4</v>
       </c>
-      <c r="M12" s="26">
+      <c r="Q12" s="31">
         <v>4</v>
       </c>
-      <c r="N12" s="26">
+      <c r="R12" s="31">
         <v>8</v>
       </c>
-      <c r="O12" s="26">
+      <c r="S12" s="31">
         <v>200</v>
       </c>
-      <c r="P12" s="6">
+      <c r="T12" s="32">
         <v>4</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="U12" s="32">
         <v>4</v>
       </c>
-      <c r="R12" s="6">
+      <c r="V12" s="32">
         <v>8</v>
       </c>
-      <c r="S12" s="6">
+      <c r="W12" s="32">
         <v>200</v>
       </c>
-      <c r="T12" s="26">
+      <c r="X12" s="31">
         <v>4</v>
       </c>
-      <c r="U12" s="26">
+      <c r="Y12" s="31">
         <v>4</v>
       </c>
-      <c r="V12" s="26">
+      <c r="Z12" s="31">
         <v>8</v>
       </c>
-      <c r="W12" s="26">
+      <c r="AA12" s="31">
         <v>200</v>
       </c>
-      <c r="X12" s="6">
+      <c r="AB12" s="32">
         <v>4</v>
       </c>
-      <c r="Y12" s="6">
+      <c r="AC12" s="32">
         <v>4</v>
       </c>
-      <c r="Z12" s="6">
+      <c r="AD12" s="32">
         <v>8</v>
       </c>
-      <c r="AA12" s="6">
+      <c r="AE12" s="32">
         <v>200</v>
       </c>
-      <c r="AB12" s="26">
+      <c r="AF12" s="31">
         <v>4</v>
       </c>
-      <c r="AC12" s="26">
+      <c r="AG12" s="31">
         <v>4</v>
       </c>
-      <c r="AD12" s="26">
+      <c r="AH12" s="31">
         <v>8</v>
       </c>
-      <c r="AE12" s="26">
+      <c r="AI12" s="31">
         <v>200</v>
       </c>
-      <c r="AF12" s="6">
+      <c r="AJ12" s="32">
         <v>4</v>
       </c>
-      <c r="AG12" s="6">
+      <c r="AK12" s="32">
         <v>4</v>
       </c>
-      <c r="AH12" s="6">
+      <c r="AL12" s="32">
         <v>8</v>
       </c>
-      <c r="AI12" s="6">
+      <c r="AM12" s="32">
         <v>200</v>
       </c>
-      <c r="AJ12" s="26">
+      <c r="AN12" s="31">
         <v>4</v>
       </c>
-      <c r="AK12" s="26">
+      <c r="AO12" s="31">
         <v>4</v>
       </c>
-      <c r="AL12" s="26">
+      <c r="AP12" s="31">
         <v>8</v>
       </c>
-      <c r="AM12" s="26">
+      <c r="AQ12" s="31">
         <v>200</v>
       </c>
-      <c r="AN12" s="6">
+      <c r="AR12" s="32">
         <v>4</v>
       </c>
-      <c r="AO12" s="6">
+      <c r="AS12" s="32">
         <v>4</v>
       </c>
-      <c r="AP12" s="6">
+      <c r="AT12" s="32">
         <v>8</v>
       </c>
-      <c r="AQ12" s="6">
+      <c r="AU12" s="32">
         <v>200</v>
       </c>
-      <c r="AR12" s="26">
+      <c r="AV12" s="31">
         <v>4</v>
       </c>
-      <c r="AS12" s="26">
+      <c r="AW12" s="31">
         <v>4</v>
       </c>
-      <c r="AT12" s="26">
+      <c r="AX12" s="31">
         <v>8</v>
       </c>
-      <c r="AU12" s="26">
+      <c r="AY12" s="31">
         <v>200</v>
       </c>
-      <c r="AV12" s="6">
+      <c r="AZ12" s="32">
         <v>4</v>
       </c>
-      <c r="AW12" s="6">
+      <c r="BA12" s="32">
         <v>4</v>
       </c>
-      <c r="AX12" s="6">
+      <c r="BB12" s="32">
         <v>8</v>
       </c>
-      <c r="AY12" s="6">
+      <c r="BC12" s="32">
         <v>200</v>
       </c>
-      <c r="AZ12" s="26">
+      <c r="BD12" s="31">
         <v>4</v>
       </c>
-      <c r="BA12" s="26">
+      <c r="BE12" s="31">
         <v>4</v>
       </c>
-      <c r="BB12" s="26">
+      <c r="BF12" s="31">
         <v>8</v>
       </c>
-      <c r="BC12" s="26">
+      <c r="BG12" s="19">
         <v>200</v>
       </c>
-      <c r="BD12" s="6">
-        <v>4</v>
-      </c>
-      <c r="BE12" s="6">
-        <v>4</v>
-      </c>
-      <c r="BF12" s="6">
-        <v>8</v>
-      </c>
-      <c r="BG12" s="6">
-        <v>200</v>
-      </c>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B12">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="57" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27">
-        <v>35</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>7798</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27">
-        <v>36</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>7799</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27">
-        <v>37</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>7800</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27">
-        <v>38</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>7801</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27">
-        <v>39</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>7802</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27">
-        <v>42</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>7803</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27">
-        <v>43</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>7804</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27">
-        <v>44</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>7805</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T6" sqref="G6:T6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>7737</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>7738</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>7714</v>
-      </c>
-      <c r="B2" s="16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>7711</v>
-      </c>
-      <c r="B3" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>7712</v>
-      </c>
-      <c r="B4" s="16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>7713</v>
-      </c>
-      <c r="B5" s="16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>7715</v>
-      </c>
-      <c r="B6" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>7716</v>
-      </c>
-      <c r="B7" s="16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" s="16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>7717</v>
-      </c>
-      <c r="B9" s="16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>7718</v>
-      </c>
-      <c r="B10" s="16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>7719</v>
-      </c>
-      <c r="B11" s="16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>7720</v>
-      </c>
-      <c r="B12" s="16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>7721</v>
-      </c>
-      <c r="B13" s="16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>7722</v>
-      </c>
-      <c r="B14" s="16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>7723</v>
-      </c>
-      <c r="B15" s="18">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -60457,113 +61669,113 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q68"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" style="24" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="45.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="24"/>
+    <col min="1" max="1" width="23.28515625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="45.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>7695</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>7695</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="15" t="s">
+        <v>7762</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>7709</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>7710</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>7711</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>7712</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>7713</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1" s="15" t="s">
         <v>7714</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>7711</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>7712</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>7713</v>
-      </c>
-      <c r="H1" s="25" t="s">
+      <c r="L1" s="15" t="s">
         <v>7715</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="M1" s="15" t="s">
         <v>7716</v>
       </c>
-      <c r="J1" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="K1" s="25" t="s">
+      <c r="N1" s="15" t="s">
+        <v>7763</v>
+      </c>
+      <c r="O1" s="15" t="s">
         <v>7717</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="P1" s="15" t="s">
         <v>7718</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="Q1" s="15" t="s">
         <v>7719</v>
       </c>
-      <c r="N1" s="25" t="s">
-        <v>7720</v>
-      </c>
-      <c r="O1" s="25" t="s">
-        <v>7721</v>
-      </c>
-      <c r="P1" s="25" t="s">
-        <v>7722</v>
-      </c>
-      <c r="Q1" s="25" t="s">
-        <v>7723</v>
-      </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B3" s="1" t="str">
+      <c r="A3" s="1" t="str">
         <f>$A$2</f>
         <v>Software Licenses</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>135</v>
       </c>
@@ -60611,18 +61823,18 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="1" t="str">
+        <f>$A$2</f>
+        <v>Software Licenses</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="B4" s="1" t="str">
-        <f t="shared" ref="B4:B7" si="0">$A$2</f>
-        <v>Software Licenses</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7696</v>
       </c>
       <c r="D4" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1">
         <v>6</v>
@@ -60665,18 +61877,18 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="1" t="str">
+        <f>$A$2</f>
+        <v>Software Licenses</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="B5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Software Licenses</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7697</v>
       </c>
       <c r="D5" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E5" s="1">
         <v>6</v>
@@ -60719,18 +61931,18 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="1" t="str">
+        <f>$A$2</f>
+        <v>Software Licenses</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="B6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Software Licenses</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7698</v>
       </c>
       <c r="D6" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1">
         <v>6</v>
@@ -60773,18 +61985,18 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="1" t="str">
+        <f>$A$2</f>
+        <v>Software Licenses</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Software Licenses</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>7710</v>
+        <v>7708</v>
       </c>
       <c r="D7" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E7" s="1">
         <v>6</v>
@@ -60827,34 +62039,34 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B9" s="1" t="str">
+      <c r="A9" s="1" t="str">
         <f>$A$8</f>
         <v>Storage and Backup Services</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="C9" s="2" t="s">
         <v>151</v>
       </c>
@@ -60902,18 +62114,18 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="1" t="str">
+        <f>$A$8</f>
+        <v>Storage and Backup Services</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="B10" s="1" t="str">
-        <f t="shared" ref="B10:B35" si="1">$A$8</f>
-        <v>Storage and Backup Services</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>154</v>
       </c>
       <c r="D10" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E10" s="1">
         <v>6</v>
@@ -60956,18 +62168,18 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="1" t="str">
+        <f>$A$8</f>
+        <v>Storage and Backup Services</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="B11" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Storage and Backup Services</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>157</v>
       </c>
       <c r="D11" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E11" s="1">
         <v>6</v>
@@ -61010,18 +62222,18 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="1" t="str">
+        <f>$A$8</f>
+        <v>Storage and Backup Services</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="B12" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Storage and Backup Services</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>160</v>
       </c>
       <c r="D12" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E12" s="1">
         <v>6</v>
@@ -61064,18 +62276,18 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="1" t="str">
+        <f>$A$8</f>
+        <v>Storage and Backup Services</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="B13" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Storage and Backup Services</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>163</v>
       </c>
       <c r="D13" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E13" s="1">
         <v>6</v>
@@ -61118,18 +62330,18 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="1" t="str">
+        <f>$A$8</f>
+        <v>Storage and Backup Services</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="B14" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Storage and Backup Services</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>166</v>
       </c>
       <c r="D14" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E14" s="1">
         <v>6</v>
@@ -61172,18 +62384,18 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="1" t="str">
+        <f>$A$8</f>
+        <v>Storage and Backup Services</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="B15" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Storage and Backup Services</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>169</v>
       </c>
       <c r="D15" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E15" s="1">
         <v>6</v>
@@ -61226,18 +62438,18 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="1" t="str">
+        <f>$A$8</f>
+        <v>Storage and Backup Services</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="B16" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Storage and Backup Services</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>172</v>
       </c>
       <c r="D16" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E16" s="1">
         <v>6</v>
@@ -61280,18 +62492,18 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="1" t="str">
+        <f>$A$8</f>
+        <v>Storage and Backup Services</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="B17" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Storage and Backup Services</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>175</v>
       </c>
       <c r="D17" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E17" s="1">
         <v>6</v>
@@ -61334,18 +62546,18 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="1" t="str">
+        <f>$A$8</f>
+        <v>Storage and Backup Services</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="B18" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Storage and Backup Services</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>178</v>
       </c>
       <c r="D18" s="1">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E18" s="1">
         <v>6</v>
@@ -61388,18 +62600,18 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="1" t="str">
+        <f>$A$8</f>
+        <v>Storage and Backup Services</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="B19" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Storage and Backup Services</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>181</v>
       </c>
       <c r="D19" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E19" s="1">
         <v>6</v>
@@ -61442,18 +62654,18 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="1" t="str">
+        <f>$A$8</f>
+        <v>Storage and Backup Services</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="B20" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Storage and Backup Services</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>184</v>
       </c>
       <c r="D20" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E20" s="1">
         <v>6</v>
@@ -61496,18 +62708,18 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="1" t="str">
+        <f>$A$8</f>
+        <v>Storage and Backup Services</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="B21" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Storage and Backup Services</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>187</v>
       </c>
       <c r="D21" s="1">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E21" s="1">
         <v>6</v>
@@ -61550,18 +62762,18 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="1" t="str">
+        <f>$A$8</f>
+        <v>Storage and Backup Services</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="B22" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Storage and Backup Services</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>190</v>
       </c>
       <c r="D22" s="1">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E22" s="1">
         <v>6</v>
@@ -61604,18 +62816,18 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="1" t="str">
+        <f>$A$8</f>
+        <v>Storage and Backup Services</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="B23" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Storage and Backup Services</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>193</v>
       </c>
       <c r="D23" s="1">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E23" s="1">
         <v>6</v>
@@ -61658,18 +62870,18 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="1" t="str">
+        <f>$A$8</f>
+        <v>Storage and Backup Services</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="B24" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Storage and Backup Services</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>196</v>
       </c>
       <c r="D24" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E24" s="1">
         <v>6</v>
@@ -61712,18 +62924,18 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="1" t="str">
+        <f>$A$8</f>
+        <v>Storage and Backup Services</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="B25" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Storage and Backup Services</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>199</v>
       </c>
       <c r="D25" s="1">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E25" s="1">
         <v>6</v>
@@ -61766,18 +62978,18 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="1" t="str">
+        <f>$A$8</f>
+        <v>Storage and Backup Services</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="B26" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Storage and Backup Services</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>202</v>
       </c>
       <c r="D26" s="1">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E26" s="1">
         <v>6</v>
@@ -61820,18 +63032,18 @@
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="1" t="str">
+        <f>$A$8</f>
+        <v>Storage and Backup Services</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="B27" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Storage and Backup Services</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>205</v>
       </c>
       <c r="D27" s="1">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E27" s="1">
         <v>6</v>
@@ -61874,18 +63086,18 @@
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="1" t="str">
+        <f>$A$8</f>
+        <v>Storage and Backup Services</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="B28" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Storage and Backup Services</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>208</v>
       </c>
       <c r="D28" s="1">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E28" s="1">
         <v>6</v>
@@ -61928,18 +63140,18 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="1" t="str">
+        <f>$A$8</f>
+        <v>Storage and Backup Services</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="B29" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Storage and Backup Services</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>211</v>
       </c>
       <c r="D29" s="1">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E29" s="1">
         <v>6</v>
@@ -61982,18 +63194,18 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="1" t="str">
+        <f>$A$8</f>
+        <v>Storage and Backup Services</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="B30" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Storage and Backup Services</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>214</v>
       </c>
       <c r="D30" s="1">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E30" s="1">
         <v>6</v>
@@ -62036,18 +63248,18 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="1" t="str">
+        <f>$A$8</f>
+        <v>Storage and Backup Services</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="B31" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Storage and Backup Services</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>217</v>
       </c>
       <c r="D31" s="1">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="E31" s="1">
         <v>6</v>
@@ -62090,18 +63302,18 @@
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="1" t="str">
+        <f>$A$8</f>
+        <v>Storage and Backup Services</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="B32" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Storage and Backup Services</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>220</v>
       </c>
       <c r="D32" s="1">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E32" s="1">
         <v>6</v>
@@ -62144,18 +63356,18 @@
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="1" t="str">
+        <f>$A$8</f>
+        <v>Storage and Backup Services</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="B33" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Storage and Backup Services</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>223</v>
       </c>
       <c r="D33" s="1">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E33" s="1">
         <v>6</v>
@@ -62198,18 +63410,18 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="1" t="str">
+        <f>$A$8</f>
+        <v>Storage and Backup Services</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="B34" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Storage and Backup Services</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>227</v>
       </c>
       <c r="D34" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E34" s="1">
         <v>6</v>
@@ -62252,18 +63464,18 @@
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="1" t="str">
+        <f>$A$8</f>
+        <v>Storage and Backup Services</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="B35" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Storage and Backup Services</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>231</v>
       </c>
       <c r="D35" s="1">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="E35" s="1">
         <v>6</v>
@@ -62306,34 +63518,34 @@
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="23"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B37" s="1" t="str">
+      <c r="A37" s="1" t="str">
         <f>$A$36</f>
         <v>Network and Connectivity Services</v>
       </c>
+      <c r="B37" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="C37" s="2" t="s">
         <v>248</v>
       </c>
@@ -62381,18 +63593,18 @@
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B38" s="1" t="str">
+      <c r="A38" s="1" t="str">
         <f>$A$36</f>
         <v>Network and Connectivity Services</v>
       </c>
+      <c r="B38" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="C38" s="2" t="s">
         <v>251</v>
       </c>
       <c r="D38" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E38" s="1">
         <v>6</v>
@@ -62435,34 +63647,34 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="23"/>
-      <c r="Q39" s="23"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B40" s="1" t="str">
+      <c r="A40" s="1" t="str">
         <f>$A$39</f>
         <v>Security Solution</v>
       </c>
+      <c r="B40" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="C40" s="2" t="s">
         <v>7699</v>
       </c>
@@ -62510,18 +63722,18 @@
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="1" t="str">
+        <f>$A$39</f>
+        <v>Security Solution</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="B41" s="1" t="str">
-        <f t="shared" ref="B41:B57" si="2">$A$39</f>
-        <v>Security Solution</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>7700</v>
       </c>
       <c r="D41" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E41" s="1">
         <v>6</v>
@@ -62564,18 +63776,18 @@
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="1" t="str">
+        <f>$A$39</f>
+        <v>Security Solution</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="B42" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Security Solution</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>7701</v>
       </c>
       <c r="D42" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E42" s="1">
         <v>6</v>
@@ -62618,18 +63830,18 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="1" t="str">
+        <f>$A$39</f>
+        <v>Security Solution</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="B43" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Security Solution</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>278</v>
       </c>
       <c r="D43" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E43" s="1">
         <v>6</v>
@@ -62672,18 +63884,18 @@
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="1" t="str">
+        <f>$A$39</f>
+        <v>Security Solution</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="B44" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Security Solution</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D44" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E44" s="1">
         <v>6</v>
@@ -62726,18 +63938,18 @@
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="1" t="str">
+        <f>$A$39</f>
+        <v>Security Solution</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="B45" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Security Solution</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>7702</v>
       </c>
       <c r="D45" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E45" s="1">
         <v>6</v>
@@ -62780,18 +63992,18 @@
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="1" t="str">
+        <f>$A$39</f>
+        <v>Security Solution</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="B46" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Security Solution</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>287</v>
       </c>
       <c r="D46" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E46" s="1">
         <v>6</v>
@@ -62834,18 +64046,18 @@
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="1" t="str">
+        <f>$A$39</f>
+        <v>Security Solution</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="B47" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Security Solution</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>290</v>
       </c>
       <c r="D47" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E47" s="1">
         <v>6</v>
@@ -62888,18 +64100,18 @@
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="1" t="str">
+        <f>$A$39</f>
+        <v>Security Solution</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="B48" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Security Solution</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>7703</v>
       </c>
       <c r="D48" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E48" s="1">
         <v>6</v>
@@ -62942,18 +64154,18 @@
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="1" t="str">
+        <f>$A$39</f>
+        <v>Security Solution</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="B49" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Security Solution</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>7704</v>
       </c>
       <c r="D49" s="1">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E49" s="1">
         <v>6</v>
@@ -62996,18 +64208,18 @@
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="1" t="str">
+        <f>$A$39</f>
+        <v>Security Solution</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="B50" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Security Solution</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>7705</v>
       </c>
       <c r="D50" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E50" s="1">
         <v>6</v>
@@ -63050,18 +64262,18 @@
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="1" t="str">
+        <f>$A$39</f>
+        <v>Security Solution</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="B51" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Security Solution</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>302</v>
       </c>
       <c r="D51" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E51" s="1">
         <v>6</v>
@@ -63104,18 +64316,18 @@
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="1" t="str">
+        <f>$A$39</f>
+        <v>Security Solution</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="B52" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Security Solution</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>7706</v>
       </c>
       <c r="D52" s="1">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E52" s="1">
         <v>6</v>
@@ -63158,18 +64370,18 @@
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="1" t="str">
+        <f>$A$39</f>
+        <v>Security Solution</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="B53" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Security Solution</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>7707</v>
       </c>
       <c r="D53" s="1">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E53" s="1">
         <v>6</v>
@@ -63212,18 +64424,18 @@
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="1" t="str">
+        <f>$A$39</f>
+        <v>Security Solution</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="B54" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Security Solution</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>311</v>
       </c>
       <c r="D54" s="1">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E54" s="1">
         <v>6</v>
@@ -63266,18 +64478,18 @@
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="1" t="str">
+        <f>$A$39</f>
+        <v>Security Solution</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="B55" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Security Solution</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D55" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E55" s="1">
         <v>6</v>
@@ -63320,18 +64532,18 @@
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="1" t="str">
+        <f>$A$39</f>
+        <v>Security Solution</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="B56" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Security Solution</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>317</v>
       </c>
       <c r="D56" s="1">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E56" s="1">
         <v>6</v>
@@ -63374,18 +64586,18 @@
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="1" t="str">
+        <f>$A$39</f>
+        <v>Security Solution</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="B57" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Security Solution</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>320</v>
       </c>
       <c r="D57" s="1">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E57" s="1">
         <v>6</v>
@@ -63428,90 +64640,90 @@
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="23"/>
-      <c r="M58" s="23"/>
-      <c r="N58" s="23"/>
-      <c r="O58" s="23"/>
-      <c r="P58" s="23"/>
-      <c r="Q58" s="23"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="18"/>
+      <c r="O58" s="18"/>
+      <c r="P58" s="18"/>
+      <c r="Q58" s="18"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B59" s="1" t="str">
+      <c r="A59" s="1" t="str">
         <f>$A$58</f>
         <v>Managed Services</v>
       </c>
+      <c r="B59" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="C59" s="2" t="s">
-        <v>7708</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>7709</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>7709</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>7709</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>7709</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>7709</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>7709</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>7709</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>7709</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>7709</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>7709</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>7709</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>7709</v>
-      </c>
-      <c r="P59" s="1" t="s">
-        <v>7709</v>
-      </c>
-      <c r="Q59" s="1" t="s">
-        <v>7709</v>
+        <v>326</v>
+      </c>
+      <c r="D59" s="1">
+        <v>5</v>
+      </c>
+      <c r="E59" s="1">
+        <v>6</v>
+      </c>
+      <c r="F59" s="1">
+        <v>7</v>
+      </c>
+      <c r="G59" s="1">
+        <v>8</v>
+      </c>
+      <c r="H59" s="1">
+        <v>9</v>
+      </c>
+      <c r="I59" s="1">
+        <v>10</v>
+      </c>
+      <c r="J59" s="1">
+        <v>11</v>
+      </c>
+      <c r="K59" s="1">
+        <v>12</v>
+      </c>
+      <c r="L59" s="1">
+        <v>13</v>
+      </c>
+      <c r="M59" s="1">
+        <v>14</v>
+      </c>
+      <c r="N59" s="1">
+        <v>15</v>
+      </c>
+      <c r="O59" s="1">
+        <v>13</v>
+      </c>
+      <c r="P59" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="1" t="str">
+        <f>$A$58</f>
+        <v>Managed Services</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B60" s="1" t="str">
-        <f t="shared" ref="B60:B68" si="3">$A$58</f>
-        <v>Managed Services</v>
-      </c>
       <c r="C60" s="2" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D60" s="1">
         <v>5</v>
@@ -63557,231 +64769,231 @@
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="1" t="str">
+        <f>$A$58</f>
+        <v>Managed Services</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B61" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="C61" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D61" s="1">
+        <v>4</v>
+      </c>
+      <c r="E61" s="1">
+        <v>4</v>
+      </c>
+      <c r="F61" s="1">
+        <v>4</v>
+      </c>
+      <c r="G61" s="1">
+        <v>4</v>
+      </c>
+      <c r="H61" s="1">
+        <v>4</v>
+      </c>
+      <c r="I61" s="1">
+        <v>4</v>
+      </c>
+      <c r="J61" s="1">
+        <v>4</v>
+      </c>
+      <c r="K61" s="1">
+        <v>4</v>
+      </c>
+      <c r="L61" s="1">
+        <v>4</v>
+      </c>
+      <c r="M61" s="1">
+        <v>4</v>
+      </c>
+      <c r="N61" s="1">
+        <v>4</v>
+      </c>
+      <c r="O61" s="1">
+        <v>4</v>
+      </c>
+      <c r="P61" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="str">
+        <f>$A$58</f>
         <v>Managed Services</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="D61" s="1">
+      <c r="B62" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D62" s="1">
+        <v>55</v>
+      </c>
+      <c r="E62" s="1">
+        <v>65</v>
+      </c>
+      <c r="F62" s="1">
+        <v>25</v>
+      </c>
+      <c r="G62" s="1">
+        <v>25</v>
+      </c>
+      <c r="H62" s="1">
+        <v>25</v>
+      </c>
+      <c r="I62" s="1">
+        <v>25</v>
+      </c>
+      <c r="J62" s="1">
+        <v>25</v>
+      </c>
+      <c r="K62" s="1">
+        <v>25</v>
+      </c>
+      <c r="L62" s="1">
+        <v>25</v>
+      </c>
+      <c r="M62" s="1">
+        <v>25</v>
+      </c>
+      <c r="N62" s="1">
+        <v>25</v>
+      </c>
+      <c r="O62" s="1">
+        <v>25</v>
+      </c>
+      <c r="P62" s="1">
+        <v>25</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="str">
+        <f>$A$58</f>
+        <v>Managed Services</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D63" s="1">
+        <v>4</v>
+      </c>
+      <c r="E63" s="1">
+        <v>4</v>
+      </c>
+      <c r="F63" s="1">
+        <v>4</v>
+      </c>
+      <c r="G63" s="1">
+        <v>4</v>
+      </c>
+      <c r="H63" s="1">
+        <v>4</v>
+      </c>
+      <c r="I63" s="1">
+        <v>4</v>
+      </c>
+      <c r="J63" s="1">
+        <v>4</v>
+      </c>
+      <c r="K63" s="1">
+        <v>4</v>
+      </c>
+      <c r="L63" s="1">
+        <v>4</v>
+      </c>
+      <c r="M63" s="1">
+        <v>4</v>
+      </c>
+      <c r="N63" s="1">
+        <v>4</v>
+      </c>
+      <c r="O63" s="1">
+        <v>4</v>
+      </c>
+      <c r="P63" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="str">
+        <f>$A$58</f>
+        <v>Managed Services</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D64" s="1">
         <v>5</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E64" s="1">
         <v>6</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F64" s="1">
         <v>7</v>
       </c>
-      <c r="G61" s="1">
+      <c r="G64" s="1">
         <v>8</v>
       </c>
-      <c r="H61" s="1">
+      <c r="H64" s="1">
         <v>9</v>
       </c>
-      <c r="I61" s="1">
+      <c r="I64" s="1">
         <v>10</v>
       </c>
-      <c r="J61" s="1">
+      <c r="J64" s="1">
         <v>11</v>
       </c>
-      <c r="K61" s="1">
+      <c r="K64" s="1">
         <v>12</v>
       </c>
-      <c r="L61" s="1">
+      <c r="L64" s="1">
         <v>13</v>
       </c>
-      <c r="M61" s="1">
+      <c r="M64" s="1">
         <v>14</v>
       </c>
-      <c r="N61" s="1">
+      <c r="N64" s="1">
         <v>15</v>
       </c>
-      <c r="O61" s="1">
+      <c r="O64" s="1">
         <v>13</v>
       </c>
-      <c r="P61" s="1">
+      <c r="P64" s="1">
         <v>14</v>
       </c>
-      <c r="Q61" s="1">
+      <c r="Q64" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B62" s="1" t="str">
-        <f t="shared" si="3"/>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="str">
+        <f>$A$58</f>
         <v>Managed Services</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="D62" s="1">
-        <v>4</v>
-      </c>
-      <c r="E62" s="1">
-        <v>4</v>
-      </c>
-      <c r="F62" s="1">
-        <v>4</v>
-      </c>
-      <c r="G62" s="1">
-        <v>4</v>
-      </c>
-      <c r="H62" s="1">
-        <v>4</v>
-      </c>
-      <c r="I62" s="1">
-        <v>4</v>
-      </c>
-      <c r="J62" s="1">
-        <v>4</v>
-      </c>
-      <c r="K62" s="1">
-        <v>4</v>
-      </c>
-      <c r="L62" s="1">
-        <v>4</v>
-      </c>
-      <c r="M62" s="1">
-        <v>4</v>
-      </c>
-      <c r="N62" s="1">
-        <v>4</v>
-      </c>
-      <c r="O62" s="1">
-        <v>4</v>
-      </c>
-      <c r="P62" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q62" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B63" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Managed Services</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="D63" s="1">
-        <v>55</v>
-      </c>
-      <c r="E63" s="1">
-        <v>65</v>
-      </c>
-      <c r="F63" s="1">
-        <v>25</v>
-      </c>
-      <c r="G63" s="1">
-        <v>25</v>
-      </c>
-      <c r="H63" s="1">
-        <v>25</v>
-      </c>
-      <c r="I63" s="1">
-        <v>25</v>
-      </c>
-      <c r="J63" s="1">
-        <v>25</v>
-      </c>
-      <c r="K63" s="1">
-        <v>25</v>
-      </c>
-      <c r="L63" s="1">
-        <v>25</v>
-      </c>
-      <c r="M63" s="1">
-        <v>25</v>
-      </c>
-      <c r="N63" s="1">
-        <v>25</v>
-      </c>
-      <c r="O63" s="1">
-        <v>25</v>
-      </c>
-      <c r="P63" s="1">
-        <v>25</v>
-      </c>
-      <c r="Q63" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B64" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Managed Services</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D64" s="1">
-        <v>4</v>
-      </c>
-      <c r="E64" s="1">
-        <v>4</v>
-      </c>
-      <c r="F64" s="1">
-        <v>4</v>
-      </c>
-      <c r="G64" s="1">
-        <v>4</v>
-      </c>
-      <c r="H64" s="1">
-        <v>4</v>
-      </c>
-      <c r="I64" s="1">
-        <v>4</v>
-      </c>
-      <c r="J64" s="1">
-        <v>4</v>
-      </c>
-      <c r="K64" s="1">
-        <v>4</v>
-      </c>
-      <c r="L64" s="1">
-        <v>4</v>
-      </c>
-      <c r="M64" s="1">
-        <v>4</v>
-      </c>
-      <c r="N64" s="1">
-        <v>4</v>
-      </c>
-      <c r="O64" s="1">
-        <v>4</v>
-      </c>
-      <c r="P64" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q64" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B65" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Managed Services</v>
-      </c>
       <c r="C65" s="2" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D65" s="1">
         <v>5</v>
@@ -63827,15 +65039,15 @@
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="1" t="str">
+        <f>$A$58</f>
+        <v>Managed Services</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B66" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Managed Services</v>
-      </c>
       <c r="C66" s="2" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D66" s="1">
         <v>5</v>
@@ -63881,110 +65093,56 @@
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B67" s="1" t="str">
-        <f t="shared" si="3"/>
+      <c r="A67" s="1" t="str">
+        <f>$A$58</f>
         <v>Managed Services</v>
       </c>
+      <c r="B67" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="C67" s="2" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D67" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E67" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F67" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G67" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H67" s="1">
         <v>9</v>
       </c>
       <c r="I67" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J67" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K67" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L67" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M67" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N67" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="O67" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="P67" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Q67" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B68" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Managed Services</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="D68" s="1">
-        <v>9</v>
-      </c>
-      <c r="E68" s="1">
-        <v>9</v>
-      </c>
-      <c r="F68" s="1">
-        <v>9</v>
-      </c>
-      <c r="G68" s="1">
-        <v>9</v>
-      </c>
-      <c r="H68" s="1">
-        <v>9</v>
-      </c>
-      <c r="I68" s="1">
-        <v>9</v>
-      </c>
-      <c r="J68" s="1">
-        <v>9</v>
-      </c>
-      <c r="K68" s="1">
-        <v>9</v>
-      </c>
-      <c r="L68" s="1">
-        <v>9</v>
-      </c>
-      <c r="M68" s="1">
-        <v>9</v>
-      </c>
-      <c r="N68" s="1">
-        <v>9</v>
-      </c>
-      <c r="O68" s="1">
-        <v>9</v>
-      </c>
-      <c r="P68" s="1">
-        <v>9</v>
-      </c>
-      <c r="Q68" s="1">
         <v>9</v>
       </c>
     </row>

--- a/template.xlsx
+++ b/template.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61E999F-D3F2-49EC-95FB-4EEB63D5CF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhasesDetails" sheetId="5" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <definedName name="product_name">'[1]eNlight Instance'!#REF!+product_mater!$A:$A</definedName>
     <definedName name="product_names">product_mater!$A:$A</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterate="1"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8108" uniqueCount="7796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8120" uniqueCount="7798">
   <si>
     <t>core_product_name</t>
   </si>
@@ -23420,12 +23421,18 @@
   </si>
   <si>
     <t>DISK 7th Years</t>
+  </si>
+  <si>
+    <t>BOM_Name</t>
+  </si>
+  <si>
+    <t>BOM DC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -23725,7 +23732,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -23742,21 +23749,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -23788,7 +23788,12 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -25029,13 +25034,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -25045,6 +25043,13 @@
         <top style="thin">
           <color auto="1"/>
         </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
@@ -25172,7 +25177,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="eNlight Instance"/>
@@ -25187,90 +25192,90 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Phases" displayName="Phases" ref="A1:B15" totalsRowShown="0" headerRowDxfId="67" headerRowBorderDxfId="66" tableBorderDxfId="65" totalsRowBorderDxfId="64">
-  <autoFilter ref="A1:B15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Phases" displayName="Phases" ref="A1:B15" totalsRowShown="0" headerRowDxfId="67" headerRowBorderDxfId="66" tableBorderDxfId="65" totalsRowBorderDxfId="64">
+  <autoFilter ref="A1:B15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Phases" dataDxfId="63"/>
-    <tableColumn id="2" name="Tenure" dataDxfId="62"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Phases" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tenure" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B3846" totalsRowShown="0">
-  <autoFilter ref="A1:B3846"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A1:B3846" totalsRowShown="0">
+  <autoFilter ref="A1:B3846" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="core_product_name"/>
-    <tableColumn id="2" name="skucode"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="core_product_name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="skucode"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="DC_Tbl" displayName="DC_Tbl" ref="A1:BG12" totalsRowShown="0" headerRowBorderDxfId="60" tableBorderDxfId="61" totalsRowBorderDxfId="59">
-  <autoFilter ref="A1:BG12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="DC_Tbl" displayName="DC_Tbl" ref="B1:BH12" totalsRowShown="0" headerRowBorderDxfId="61" tableBorderDxfId="60" totalsRowBorderDxfId="59">
+  <autoFilter ref="B1:BH12" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="59">
-    <tableColumn id="1" name="VM Name" dataDxfId="58"/>
-    <tableColumn id="2" name="OS" dataDxfId="57"/>
-    <tableColumn id="3" name="DB" dataDxfId="56"/>
-    <tableColumn id="4" name="VM 0-7 Months" dataDxfId="55"/>
-    <tableColumn id="5" name="Core 0-7 Months" dataDxfId="54"/>
-    <tableColumn id="6" name="RAM 0-7 Months" dataDxfId="53"/>
-    <tableColumn id="7" name="DISK 0-7 Months" dataDxfId="52"/>
-    <tableColumn id="8" name="VM 8-12 Months" dataDxfId="51"/>
-    <tableColumn id="9" name="Core 8-12 Months" dataDxfId="50"/>
-    <tableColumn id="10" name="RAM 8-12 Months" dataDxfId="49"/>
-    <tableColumn id="11" name="DISK 8-12 Months" dataDxfId="48"/>
-    <tableColumn id="12" name="VM 13-18 Months" dataDxfId="47"/>
-    <tableColumn id="13" name="Core 13-18 Months" dataDxfId="46"/>
-    <tableColumn id="14" name="RAM 13-18 Months" dataDxfId="45"/>
-    <tableColumn id="15" name="DISK 13-18 Months" dataDxfId="44"/>
-    <tableColumn id="16" name="VM 19-24 Months" dataDxfId="43"/>
-    <tableColumn id="17" name="Core 19-24 Months" dataDxfId="42"/>
-    <tableColumn id="18" name="RAM 19-24 Months" dataDxfId="41"/>
-    <tableColumn id="19" name="DISK 19-24 Months" dataDxfId="40"/>
-    <tableColumn id="20" name="VM 25-28 Months" dataDxfId="39"/>
-    <tableColumn id="21" name="Core 25-28 Months" dataDxfId="38"/>
-    <tableColumn id="22" name="RAM 25-28 Months" dataDxfId="37"/>
-    <tableColumn id="23" name="DISK 25-28 Months" dataDxfId="36"/>
-    <tableColumn id="24" name="VM 2nd Year" dataDxfId="35"/>
-    <tableColumn id="25" name="Core 2nd Year" dataDxfId="34"/>
-    <tableColumn id="26" name="RAM 2nd Year" dataDxfId="33"/>
-    <tableColumn id="27" name="DISK 2nd Year" dataDxfId="32"/>
-    <tableColumn id="28" name="VM 3rd Year" dataDxfId="31"/>
-    <tableColumn id="29" name="Core 3rd Year" dataDxfId="30"/>
-    <tableColumn id="30" name="RAM 3rd Year" dataDxfId="29"/>
-    <tableColumn id="31" name="DISK 3rd Year" dataDxfId="28"/>
-    <tableColumn id="32" name="VM 4th Year" dataDxfId="27"/>
-    <tableColumn id="33" name="Core 4th Year" dataDxfId="26"/>
-    <tableColumn id="34" name="RAM 4th Year" dataDxfId="25"/>
-    <tableColumn id="35" name="DISK 4th Year" dataDxfId="24"/>
-    <tableColumn id="36" name="VM 5th Years" dataDxfId="23"/>
-    <tableColumn id="37" name="Core 5th Years" dataDxfId="22"/>
-    <tableColumn id="38" name="RAM 5th Years" dataDxfId="21"/>
-    <tableColumn id="39" name="DISK 5th Years" dataDxfId="20"/>
-    <tableColumn id="40" name="VM 6 Years" dataDxfId="19"/>
-    <tableColumn id="41" name="Core 6 Years" dataDxfId="18"/>
-    <tableColumn id="42" name="RAM 6 Years" dataDxfId="17"/>
-    <tableColumn id="43" name="DISK 6 Years" dataDxfId="16"/>
-    <tableColumn id="44" name="VM 7th Years" dataDxfId="15"/>
-    <tableColumn id="45" name="Core 7th Years" dataDxfId="14"/>
-    <tableColumn id="46" name="RAM 7th Years" dataDxfId="13"/>
-    <tableColumn id="47" name="DISK 7th Years" dataDxfId="12"/>
-    <tableColumn id="48" name="VM 8th years" dataDxfId="11"/>
-    <tableColumn id="49" name="Core 8th years" dataDxfId="10"/>
-    <tableColumn id="50" name="RAM 8th years" dataDxfId="9"/>
-    <tableColumn id="51" name="DISK 8th years" dataDxfId="8"/>
-    <tableColumn id="52" name="VM 9 Years" dataDxfId="7"/>
-    <tableColumn id="53" name="Core 9 Years" dataDxfId="6"/>
-    <tableColumn id="54" name="RAM 9 Years" dataDxfId="5"/>
-    <tableColumn id="55" name="DISK 9 Years" dataDxfId="4"/>
-    <tableColumn id="56" name="VM 10 Years" dataDxfId="3"/>
-    <tableColumn id="57" name="Core 10 Years" dataDxfId="2"/>
-    <tableColumn id="58" name="RAM 10 Years" dataDxfId="1"/>
-    <tableColumn id="59" name="DISK 10 Years" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="VM Name" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="OS" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="DB" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="VM 0-7 Months" dataDxfId="55"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Core 0-7 Months" dataDxfId="54"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="RAM 0-7 Months" dataDxfId="53"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="DISK 0-7 Months" dataDxfId="52"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="VM 8-12 Months" dataDxfId="51"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Core 8-12 Months" dataDxfId="50"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="RAM 8-12 Months" dataDxfId="49"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="DISK 8-12 Months" dataDxfId="48"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="VM 13-18 Months" dataDxfId="47"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="Core 13-18 Months" dataDxfId="46"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="RAM 13-18 Months" dataDxfId="45"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="DISK 13-18 Months" dataDxfId="44"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="VM 19-24 Months" dataDxfId="43"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="Core 19-24 Months" dataDxfId="42"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" name="RAM 19-24 Months" dataDxfId="41"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" name="DISK 19-24 Months" dataDxfId="40"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0200-000014000000}" name="VM 25-28 Months" dataDxfId="39"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0200-000015000000}" name="Core 25-28 Months" dataDxfId="38"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0200-000016000000}" name="RAM 25-28 Months" dataDxfId="37"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0200-000017000000}" name="DISK 25-28 Months" dataDxfId="36"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0200-000018000000}" name="VM 2nd Year" dataDxfId="35"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0200-000019000000}" name="Core 2nd Year" dataDxfId="34"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0200-00001A000000}" name="RAM 2nd Year" dataDxfId="33"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0200-00001B000000}" name="DISK 2nd Year" dataDxfId="32"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0200-00001C000000}" name="VM 3rd Year" dataDxfId="31"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0200-00001D000000}" name="Core 3rd Year" dataDxfId="30"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0200-00001E000000}" name="RAM 3rd Year" dataDxfId="29"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0200-00001F000000}" name="DISK 3rd Year" dataDxfId="28"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0200-000020000000}" name="VM 4th Year" dataDxfId="27"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0200-000021000000}" name="Core 4th Year" dataDxfId="26"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0200-000022000000}" name="RAM 4th Year" dataDxfId="25"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0200-000023000000}" name="DISK 4th Year" dataDxfId="24"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0200-000024000000}" name="VM 5th Years" dataDxfId="23"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0200-000025000000}" name="Core 5th Years" dataDxfId="22"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0200-000026000000}" name="RAM 5th Years" dataDxfId="21"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0200-000027000000}" name="DISK 5th Years" dataDxfId="20"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0200-000028000000}" name="VM 6 Years" dataDxfId="19"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0200-000029000000}" name="Core 6 Years" dataDxfId="18"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0200-00002A000000}" name="RAM 6 Years" dataDxfId="17"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0200-00002B000000}" name="DISK 6 Years" dataDxfId="16"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0200-00002C000000}" name="VM 7th Years" dataDxfId="15"/>
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0200-00002D000000}" name="Core 7th Years" dataDxfId="14"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0200-00002E000000}" name="RAM 7th Years" dataDxfId="13"/>
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0200-00002F000000}" name="DISK 7th Years" dataDxfId="12"/>
+    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0200-000030000000}" name="VM 8th years" dataDxfId="11"/>
+    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0200-000031000000}" name="Core 8th years" dataDxfId="10"/>
+    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0200-000032000000}" name="RAM 8th years" dataDxfId="9"/>
+    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0200-000033000000}" name="DISK 8th years" dataDxfId="8"/>
+    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0200-000034000000}" name="VM 9 Years" dataDxfId="7"/>
+    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0200-000035000000}" name="Core 9 Years" dataDxfId="6"/>
+    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0200-000036000000}" name="RAM 9 Years" dataDxfId="5"/>
+    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0200-000037000000}" name="DISK 9 Years" dataDxfId="4"/>
+    <tableColumn id="56" xr3:uid="{00000000-0010-0000-0200-000038000000}" name="VM 10 Years" dataDxfId="3"/>
+    <tableColumn id="57" xr3:uid="{00000000-0010-0000-0200-000039000000}" name="Core 10 Years" dataDxfId="2"/>
+    <tableColumn id="58" xr3:uid="{00000000-0010-0000-0200-00003A000000}" name="RAM 10 Years" dataDxfId="1"/>
+    <tableColumn id="59" xr3:uid="{00000000-0010-0000-0200-00003B000000}" name="DISK 10 Years" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -25538,7 +25543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -25551,11 +25556,11 @@
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>7733</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>7734</v>
       </c>
     </row>
@@ -25667,7 +25672,7 @@
       <c r="A15" s="10" t="s">
         <v>7719</v>
       </c>
-      <c r="B15" s="34">
+      <c r="B15" s="14">
         <v>12</v>
       </c>
     </row>
@@ -25681,7 +25686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S3846"/>
   <sheetViews>
     <sheetView topLeftCell="A61" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -26196,21 +26201,21 @@
       <c r="B58" t="s">
         <v>127</v>
       </c>
-      <c r="G58" s="17" t="s">
+      <c r="G58" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18"/>
-      <c r="L58" s="18"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="18"/>
-      <c r="O58" s="18"/>
-      <c r="P58" s="18"/>
-      <c r="Q58" s="18"/>
-      <c r="R58" s="18"/>
-      <c r="S58" s="18"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="32"/>
+      <c r="M58" s="32"/>
+      <c r="N58" s="32"/>
+      <c r="O58" s="32"/>
+      <c r="P58" s="32"/>
+      <c r="Q58" s="32"/>
+      <c r="R58" s="32"/>
+      <c r="S58" s="32"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
@@ -26454,21 +26459,21 @@
       <c r="B64" t="s">
         <v>146</v>
       </c>
-      <c r="G64" s="17" t="s">
+      <c r="G64" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="H64" s="18"/>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18"/>
-      <c r="K64" s="18"/>
-      <c r="L64" s="18"/>
-      <c r="M64" s="18"/>
-      <c r="N64" s="18"/>
-      <c r="O64" s="18"/>
-      <c r="P64" s="18"/>
-      <c r="Q64" s="18"/>
-      <c r="R64" s="18"/>
-      <c r="S64" s="18"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="32"/>
+      <c r="M64" s="32"/>
+      <c r="N64" s="32"/>
+      <c r="O64" s="32"/>
+      <c r="P64" s="32"/>
+      <c r="Q64" s="32"/>
+      <c r="R64" s="32"/>
+      <c r="S64" s="32"/>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -27887,21 +27892,21 @@
       <c r="B95" t="s">
         <v>243</v>
       </c>
-      <c r="G95" s="17" t="s">
+      <c r="G95" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="H95" s="18"/>
-      <c r="I95" s="18"/>
-      <c r="J95" s="18"/>
-      <c r="K95" s="18"/>
-      <c r="L95" s="18"/>
-      <c r="M95" s="18"/>
-      <c r="N95" s="18"/>
-      <c r="O95" s="18"/>
-      <c r="P95" s="18"/>
-      <c r="Q95" s="18"/>
-      <c r="R95" s="18"/>
-      <c r="S95" s="18"/>
+      <c r="H95" s="32"/>
+      <c r="I95" s="32"/>
+      <c r="J95" s="32"/>
+      <c r="K95" s="32"/>
+      <c r="L95" s="32"/>
+      <c r="M95" s="32"/>
+      <c r="N95" s="32"/>
+      <c r="O95" s="32"/>
+      <c r="P95" s="32"/>
+      <c r="Q95" s="32"/>
+      <c r="R95" s="32"/>
+      <c r="S95" s="32"/>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
@@ -28192,21 +28197,21 @@
       <c r="B102" t="s">
         <v>265</v>
       </c>
-      <c r="G102" s="17" t="s">
+      <c r="G102" s="31" t="s">
         <v>266</v>
       </c>
-      <c r="H102" s="18"/>
-      <c r="I102" s="18"/>
-      <c r="J102" s="18"/>
-      <c r="K102" s="18"/>
-      <c r="L102" s="18"/>
-      <c r="M102" s="18"/>
-      <c r="N102" s="18"/>
-      <c r="O102" s="18"/>
-      <c r="P102" s="18"/>
-      <c r="Q102" s="18"/>
-      <c r="R102" s="18"/>
-      <c r="S102" s="18"/>
+      <c r="H102" s="32"/>
+      <c r="I102" s="32"/>
+      <c r="J102" s="32"/>
+      <c r="K102" s="32"/>
+      <c r="L102" s="32"/>
+      <c r="M102" s="32"/>
+      <c r="N102" s="32"/>
+      <c r="O102" s="32"/>
+      <c r="P102" s="32"/>
+      <c r="Q102" s="32"/>
+      <c r="R102" s="32"/>
+      <c r="S102" s="32"/>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
@@ -29061,21 +29066,21 @@
       <c r="B121" t="s">
         <v>322</v>
       </c>
-      <c r="G121" s="17" t="s">
+      <c r="G121" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="H121" s="18"/>
-      <c r="I121" s="18"/>
-      <c r="J121" s="18"/>
-      <c r="K121" s="18"/>
-      <c r="L121" s="18"/>
-      <c r="M121" s="18"/>
-      <c r="N121" s="18"/>
-      <c r="O121" s="18"/>
-      <c r="P121" s="18"/>
-      <c r="Q121" s="18"/>
-      <c r="R121" s="18"/>
-      <c r="S121" s="18"/>
+      <c r="H121" s="32"/>
+      <c r="I121" s="32"/>
+      <c r="J121" s="32"/>
+      <c r="K121" s="32"/>
+      <c r="L121" s="32"/>
+      <c r="M121" s="32"/>
+      <c r="N121" s="32"/>
+      <c r="O121" s="32"/>
+      <c r="P121" s="32"/>
+      <c r="Q121" s="32"/>
+      <c r="R121" s="32"/>
+      <c r="S121" s="32"/>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
@@ -59440,2224 +59445,2260 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BG12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:BH12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" customWidth="1"/>
-    <col min="13" max="13" width="19.7109375" customWidth="1"/>
-    <col min="14" max="14" width="20.28515625" customWidth="1"/>
-    <col min="15" max="15" width="19.5703125" customWidth="1"/>
-    <col min="16" max="16" width="19.140625" customWidth="1"/>
-    <col min="17" max="17" width="19.7109375" customWidth="1"/>
-    <col min="18" max="18" width="20.28515625" customWidth="1"/>
-    <col min="19" max="19" width="19.5703125" customWidth="1"/>
-    <col min="20" max="20" width="19.140625" customWidth="1"/>
-    <col min="21" max="21" width="19.7109375" customWidth="1"/>
-    <col min="22" max="22" width="20.28515625" customWidth="1"/>
-    <col min="23" max="23" width="19.5703125" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" customWidth="1"/>
-    <col min="25" max="25" width="15.42578125" customWidth="1"/>
-    <col min="26" max="26" width="16" customWidth="1"/>
-    <col min="27" max="27" width="15.28515625" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" customWidth="1"/>
-    <col min="29" max="29" width="15" customWidth="1"/>
-    <col min="30" max="30" width="15.5703125" customWidth="1"/>
-    <col min="31" max="31" width="14.85546875" customWidth="1"/>
-    <col min="32" max="32" width="14.42578125" customWidth="1"/>
-    <col min="33" max="33" width="15" customWidth="1"/>
-    <col min="34" max="34" width="15.5703125" customWidth="1"/>
-    <col min="35" max="35" width="14.85546875" customWidth="1"/>
-    <col min="36" max="36" width="15.28515625" customWidth="1"/>
-    <col min="37" max="37" width="15.85546875" customWidth="1"/>
-    <col min="38" max="38" width="16.42578125" customWidth="1"/>
-    <col min="39" max="39" width="15.7109375" customWidth="1"/>
-    <col min="40" max="40" width="13.42578125" customWidth="1"/>
-    <col min="41" max="41" width="14" customWidth="1"/>
-    <col min="42" max="42" width="14.5703125" customWidth="1"/>
-    <col min="43" max="43" width="13.85546875" customWidth="1"/>
-    <col min="44" max="44" width="15.7109375" customWidth="1"/>
-    <col min="45" max="45" width="16.28515625" customWidth="1"/>
-    <col min="46" max="46" width="16.85546875" customWidth="1"/>
-    <col min="47" max="47" width="16.140625" customWidth="1"/>
-    <col min="48" max="48" width="15.140625" customWidth="1"/>
-    <col min="49" max="49" width="15.7109375" customWidth="1"/>
-    <col min="50" max="50" width="16.28515625" customWidth="1"/>
-    <col min="51" max="51" width="15.5703125" customWidth="1"/>
-    <col min="52" max="52" width="13.42578125" customWidth="1"/>
-    <col min="53" max="53" width="14" customWidth="1"/>
-    <col min="54" max="54" width="14.5703125" customWidth="1"/>
-    <col min="55" max="55" width="13.85546875" customWidth="1"/>
-    <col min="56" max="56" width="14.42578125" customWidth="1"/>
-    <col min="57" max="57" width="15" customWidth="1"/>
-    <col min="58" max="58" width="15.5703125" customWidth="1"/>
-    <col min="59" max="59" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" customWidth="1"/>
+    <col min="15" max="15" width="20.28515625" customWidth="1"/>
+    <col min="16" max="16" width="19.5703125" customWidth="1"/>
+    <col min="17" max="17" width="19.140625" customWidth="1"/>
+    <col min="18" max="18" width="19.7109375" customWidth="1"/>
+    <col min="19" max="19" width="20.28515625" customWidth="1"/>
+    <col min="20" max="20" width="19.5703125" customWidth="1"/>
+    <col min="21" max="21" width="19.140625" customWidth="1"/>
+    <col min="22" max="22" width="19.7109375" customWidth="1"/>
+    <col min="23" max="23" width="20.28515625" customWidth="1"/>
+    <col min="24" max="24" width="19.5703125" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" customWidth="1"/>
+    <col min="26" max="26" width="15.42578125" customWidth="1"/>
+    <col min="27" max="27" width="16" customWidth="1"/>
+    <col min="28" max="28" width="15.28515625" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" customWidth="1"/>
+    <col min="30" max="30" width="15" customWidth="1"/>
+    <col min="31" max="31" width="15.5703125" customWidth="1"/>
+    <col min="32" max="32" width="14.85546875" customWidth="1"/>
+    <col min="33" max="33" width="14.42578125" customWidth="1"/>
+    <col min="34" max="34" width="15" customWidth="1"/>
+    <col min="35" max="35" width="15.5703125" customWidth="1"/>
+    <col min="36" max="36" width="14.85546875" customWidth="1"/>
+    <col min="37" max="37" width="15.28515625" customWidth="1"/>
+    <col min="38" max="38" width="15.85546875" customWidth="1"/>
+    <col min="39" max="39" width="16.42578125" customWidth="1"/>
+    <col min="40" max="40" width="15.7109375" customWidth="1"/>
+    <col min="41" max="41" width="13.42578125" customWidth="1"/>
+    <col min="42" max="42" width="14" customWidth="1"/>
+    <col min="43" max="43" width="14.5703125" customWidth="1"/>
+    <col min="44" max="44" width="13.85546875" customWidth="1"/>
+    <col min="45" max="45" width="15.7109375" customWidth="1"/>
+    <col min="46" max="46" width="16.28515625" customWidth="1"/>
+    <col min="47" max="47" width="16.85546875" customWidth="1"/>
+    <col min="48" max="48" width="16.140625" customWidth="1"/>
+    <col min="49" max="49" width="15.140625" customWidth="1"/>
+    <col min="50" max="50" width="15.7109375" customWidth="1"/>
+    <col min="51" max="51" width="16.28515625" customWidth="1"/>
+    <col min="52" max="52" width="15.5703125" customWidth="1"/>
+    <col min="53" max="53" width="13.42578125" customWidth="1"/>
+    <col min="54" max="54" width="14" customWidth="1"/>
+    <col min="55" max="55" width="14.5703125" customWidth="1"/>
+    <col min="56" max="56" width="13.85546875" customWidth="1"/>
+    <col min="57" max="57" width="14.42578125" customWidth="1"/>
+    <col min="58" max="58" width="15" customWidth="1"/>
+    <col min="59" max="59" width="15.5703125" customWidth="1"/>
+    <col min="60" max="60" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:60" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>7796</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>7759</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="C1" s="30" t="s">
         <v>7760</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>7761</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="E1" s="22" t="s">
         <v>7788</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="23" t="s">
         <v>7789</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="G1" s="24" t="s">
         <v>7790</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="H1" s="25" t="s">
         <v>7791</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="I1" s="22" t="s">
         <v>7766</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="J1" s="23" t="s">
         <v>7735</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="K1" s="24" t="s">
         <v>7767</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="L1" s="25" t="s">
         <v>7736</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="M1" s="22" t="s">
         <v>7768</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="N1" s="23" t="s">
         <v>7737</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="O1" s="24" t="s">
         <v>7769</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="P1" s="25" t="s">
         <v>7738</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="Q1" s="22" t="s">
         <v>7770</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="R1" s="23" t="s">
         <v>7739</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="S1" s="24" t="s">
         <v>7771</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="T1" s="25" t="s">
         <v>7740</v>
       </c>
-      <c r="T1" s="25" t="s">
+      <c r="U1" s="22" t="s">
         <v>7772</v>
       </c>
-      <c r="U1" s="26" t="s">
+      <c r="V1" s="23" t="s">
         <v>7741</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="W1" s="24" t="s">
         <v>7773</v>
       </c>
-      <c r="W1" s="28" t="s">
+      <c r="X1" s="25" t="s">
         <v>7742</v>
       </c>
-      <c r="X1" s="25" t="s">
+      <c r="Y1" s="22" t="s">
         <v>7774</v>
       </c>
-      <c r="Y1" s="26" t="s">
+      <c r="Z1" s="23" t="s">
         <v>7743</v>
       </c>
-      <c r="Z1" s="27" t="s">
+      <c r="AA1" s="24" t="s">
         <v>7775</v>
       </c>
-      <c r="AA1" s="28" t="s">
+      <c r="AB1" s="25" t="s">
         <v>7744</v>
       </c>
-      <c r="AB1" s="25" t="s">
+      <c r="AC1" s="22" t="s">
         <v>7776</v>
       </c>
-      <c r="AC1" s="26" t="s">
+      <c r="AD1" s="23" t="s">
         <v>7745</v>
       </c>
-      <c r="AD1" s="27" t="s">
+      <c r="AE1" s="24" t="s">
         <v>7777</v>
       </c>
-      <c r="AE1" s="28" t="s">
+      <c r="AF1" s="25" t="s">
         <v>7746</v>
       </c>
-      <c r="AF1" s="25" t="s">
+      <c r="AG1" s="22" t="s">
         <v>7765</v>
       </c>
-      <c r="AG1" s="26" t="s">
+      <c r="AH1" s="23" t="s">
         <v>7747</v>
       </c>
-      <c r="AH1" s="27" t="s">
+      <c r="AI1" s="24" t="s">
         <v>7778</v>
       </c>
-      <c r="AI1" s="28" t="s">
+      <c r="AJ1" s="25" t="s">
         <v>7748</v>
       </c>
-      <c r="AJ1" s="25" t="s">
+      <c r="AK1" s="22" t="s">
         <v>7764</v>
       </c>
-      <c r="AK1" s="26" t="s">
+      <c r="AL1" s="23" t="s">
         <v>7749</v>
       </c>
-      <c r="AL1" s="27" t="s">
+      <c r="AM1" s="24" t="s">
         <v>7779</v>
       </c>
-      <c r="AM1" s="28" t="s">
+      <c r="AN1" s="25" t="s">
         <v>7750</v>
       </c>
-      <c r="AN1" s="25" t="s">
+      <c r="AO1" s="22" t="s">
         <v>7780</v>
       </c>
-      <c r="AO1" s="26" t="s">
+      <c r="AP1" s="23" t="s">
         <v>7751</v>
       </c>
-      <c r="AP1" s="27" t="s">
+      <c r="AQ1" s="24" t="s">
         <v>7781</v>
       </c>
-      <c r="AQ1" s="28" t="s">
+      <c r="AR1" s="25" t="s">
         <v>7752</v>
       </c>
-      <c r="AR1" s="25" t="s">
+      <c r="AS1" s="22" t="s">
         <v>7792</v>
       </c>
-      <c r="AS1" s="26" t="s">
+      <c r="AT1" s="23" t="s">
         <v>7793</v>
       </c>
-      <c r="AT1" s="27" t="s">
+      <c r="AU1" s="24" t="s">
         <v>7794</v>
       </c>
-      <c r="AU1" s="28" t="s">
+      <c r="AV1" s="25" t="s">
         <v>7795</v>
       </c>
-      <c r="AV1" s="25" t="s">
+      <c r="AW1" s="22" t="s">
         <v>7782</v>
       </c>
-      <c r="AW1" s="26" t="s">
+      <c r="AX1" s="23" t="s">
         <v>7753</v>
       </c>
-      <c r="AX1" s="27" t="s">
+      <c r="AY1" s="24" t="s">
         <v>7783</v>
       </c>
-      <c r="AY1" s="28" t="s">
+      <c r="AZ1" s="25" t="s">
         <v>7754</v>
       </c>
-      <c r="AZ1" s="25" t="s">
+      <c r="BA1" s="22" t="s">
         <v>7784</v>
       </c>
-      <c r="BA1" s="26" t="s">
+      <c r="BB1" s="23" t="s">
         <v>7755</v>
       </c>
-      <c r="BB1" s="27" t="s">
+      <c r="BC1" s="24" t="s">
         <v>7785</v>
       </c>
-      <c r="BC1" s="28" t="s">
+      <c r="BD1" s="25" t="s">
         <v>7756</v>
       </c>
-      <c r="BD1" s="25" t="s">
+      <c r="BE1" s="22" t="s">
         <v>7786</v>
       </c>
-      <c r="BE1" s="26" t="s">
+      <c r="BF1" s="23" t="s">
         <v>7757</v>
       </c>
-      <c r="BF1" s="27" t="s">
+      <c r="BG1" s="24" t="s">
         <v>7787</v>
       </c>
-      <c r="BG1" s="29" t="s">
+      <c r="BH1" s="26" t="s">
         <v>7758</v>
       </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7797</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>7721</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>7720</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>7732</v>
       </c>
-      <c r="D2" s="16">
-        <v>2</v>
-      </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
+        <v>2</v>
+      </c>
+      <c r="F2" s="15">
         <v>22</v>
       </c>
-      <c r="F2" s="16">
+      <c r="G2" s="15">
         <v>64</v>
       </c>
-      <c r="G2" s="16">
+      <c r="H2" s="15">
         <v>1600</v>
-      </c>
-      <c r="H2" s="6">
-        <v>4</v>
       </c>
       <c r="I2" s="6">
         <v>4</v>
       </c>
       <c r="J2" s="6">
+        <v>4</v>
+      </c>
+      <c r="K2" s="6">
         <v>8</v>
       </c>
-      <c r="K2" s="6">
+      <c r="L2" s="6">
         <v>200</v>
       </c>
-      <c r="L2" s="16">
+      <c r="M2" s="15">
         <v>4</v>
       </c>
-      <c r="M2" s="16">
+      <c r="N2" s="15">
         <v>4</v>
       </c>
-      <c r="N2" s="16">
+      <c r="O2" s="15">
         <v>8</v>
       </c>
-      <c r="O2" s="16">
+      <c r="P2" s="15">
         <v>200</v>
-      </c>
-      <c r="P2" s="6">
-        <v>4</v>
       </c>
       <c r="Q2" s="6">
         <v>4</v>
       </c>
       <c r="R2" s="6">
+        <v>4</v>
+      </c>
+      <c r="S2" s="6">
         <v>8</v>
       </c>
-      <c r="S2" s="6">
+      <c r="T2" s="6">
         <v>200</v>
       </c>
-      <c r="T2" s="16">
+      <c r="U2" s="15">
         <v>4</v>
       </c>
-      <c r="U2" s="16">
+      <c r="V2" s="15">
         <v>4</v>
       </c>
-      <c r="V2" s="16">
+      <c r="W2" s="15">
         <v>8</v>
       </c>
-      <c r="W2" s="16">
+      <c r="X2" s="15">
         <v>200</v>
-      </c>
-      <c r="X2" s="6">
-        <v>4</v>
       </c>
       <c r="Y2" s="6">
         <v>4</v>
       </c>
       <c r="Z2" s="6">
+        <v>4</v>
+      </c>
+      <c r="AA2" s="6">
         <v>8</v>
       </c>
-      <c r="AA2" s="6">
+      <c r="AB2" s="6">
         <v>200</v>
       </c>
-      <c r="AB2" s="16">
+      <c r="AC2" s="15">
         <v>4</v>
       </c>
-      <c r="AC2" s="16">
+      <c r="AD2" s="15">
         <v>4</v>
       </c>
-      <c r="AD2" s="16">
+      <c r="AE2" s="15">
         <v>8</v>
       </c>
-      <c r="AE2" s="16">
+      <c r="AF2" s="15">
         <v>200</v>
-      </c>
-      <c r="AF2" s="6">
-        <v>4</v>
       </c>
       <c r="AG2" s="6">
         <v>4</v>
       </c>
       <c r="AH2" s="6">
+        <v>4</v>
+      </c>
+      <c r="AI2" s="6">
         <v>8</v>
       </c>
-      <c r="AI2" s="6">
+      <c r="AJ2" s="6">
         <v>200</v>
       </c>
-      <c r="AJ2" s="16">
+      <c r="AK2" s="15">
         <v>4</v>
       </c>
-      <c r="AK2" s="16">
+      <c r="AL2" s="15">
         <v>4</v>
       </c>
-      <c r="AL2" s="16">
+      <c r="AM2" s="15">
         <v>8</v>
       </c>
-      <c r="AM2" s="16">
+      <c r="AN2" s="15">
         <v>200</v>
-      </c>
-      <c r="AN2" s="6">
-        <v>4</v>
       </c>
       <c r="AO2" s="6">
         <v>4</v>
       </c>
       <c r="AP2" s="6">
+        <v>4</v>
+      </c>
+      <c r="AQ2" s="6">
         <v>8</v>
       </c>
-      <c r="AQ2" s="6">
+      <c r="AR2" s="6">
         <v>200</v>
       </c>
-      <c r="AR2" s="16">
+      <c r="AS2" s="15">
         <v>4</v>
       </c>
-      <c r="AS2" s="16">
+      <c r="AT2" s="15">
         <v>4</v>
       </c>
-      <c r="AT2" s="16">
+      <c r="AU2" s="15">
         <v>8</v>
       </c>
-      <c r="AU2" s="16">
+      <c r="AV2" s="15">
         <v>200</v>
-      </c>
-      <c r="AV2" s="6">
-        <v>4</v>
       </c>
       <c r="AW2" s="6">
         <v>4</v>
       </c>
       <c r="AX2" s="6">
+        <v>4</v>
+      </c>
+      <c r="AY2" s="6">
         <v>8</v>
       </c>
-      <c r="AY2" s="6">
+      <c r="AZ2" s="6">
         <v>200</v>
       </c>
-      <c r="AZ2" s="16">
+      <c r="BA2" s="15">
         <v>4</v>
       </c>
-      <c r="BA2" s="16">
+      <c r="BB2" s="15">
         <v>4</v>
       </c>
-      <c r="BB2" s="16">
+      <c r="BC2" s="15">
         <v>8</v>
       </c>
-      <c r="BC2" s="16">
+      <c r="BD2" s="15">
         <v>200</v>
-      </c>
-      <c r="BD2" s="6">
-        <v>4</v>
       </c>
       <c r="BE2" s="6">
         <v>4</v>
       </c>
       <c r="BF2" s="6">
+        <v>4</v>
+      </c>
+      <c r="BG2" s="6">
         <v>8</v>
       </c>
-      <c r="BG2" s="22">
+      <c r="BH2" s="19">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7797</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>7722</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>7720</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>7732</v>
       </c>
-      <c r="D3" s="16">
+      <c r="E3" s="15">
         <v>4</v>
       </c>
-      <c r="E3" s="16">
+      <c r="F3" s="15">
         <v>20</v>
       </c>
-      <c r="F3" s="16">
+      <c r="G3" s="15">
         <v>62</v>
       </c>
-      <c r="G3" s="16">
+      <c r="H3" s="15">
         <v>1400</v>
-      </c>
-      <c r="H3" s="6">
-        <v>4</v>
       </c>
       <c r="I3" s="6">
         <v>4</v>
       </c>
       <c r="J3" s="6">
+        <v>4</v>
+      </c>
+      <c r="K3" s="6">
         <v>8</v>
       </c>
-      <c r="K3" s="6">
+      <c r="L3" s="6">
         <v>200</v>
       </c>
-      <c r="L3" s="16">
+      <c r="M3" s="15">
         <v>4</v>
       </c>
-      <c r="M3" s="16">
+      <c r="N3" s="15">
         <v>4</v>
       </c>
-      <c r="N3" s="16">
+      <c r="O3" s="15">
         <v>8</v>
       </c>
-      <c r="O3" s="16">
+      <c r="P3" s="15">
         <v>200</v>
-      </c>
-      <c r="P3" s="6">
-        <v>4</v>
       </c>
       <c r="Q3" s="6">
         <v>4</v>
       </c>
       <c r="R3" s="6">
+        <v>4</v>
+      </c>
+      <c r="S3" s="6">
         <v>8</v>
       </c>
-      <c r="S3" s="6">
+      <c r="T3" s="6">
         <v>200</v>
       </c>
-      <c r="T3" s="16">
+      <c r="U3" s="15">
         <v>4</v>
       </c>
-      <c r="U3" s="16">
+      <c r="V3" s="15">
         <v>4</v>
       </c>
-      <c r="V3" s="16">
+      <c r="W3" s="15">
         <v>8</v>
       </c>
-      <c r="W3" s="16">
+      <c r="X3" s="15">
         <v>200</v>
-      </c>
-      <c r="X3" s="6">
-        <v>4</v>
       </c>
       <c r="Y3" s="6">
         <v>4</v>
       </c>
       <c r="Z3" s="6">
+        <v>4</v>
+      </c>
+      <c r="AA3" s="6">
         <v>8</v>
       </c>
-      <c r="AA3" s="6">
+      <c r="AB3" s="6">
         <v>200</v>
       </c>
-      <c r="AB3" s="16">
+      <c r="AC3" s="15">
         <v>4</v>
       </c>
-      <c r="AC3" s="16">
+      <c r="AD3" s="15">
         <v>4</v>
       </c>
-      <c r="AD3" s="16">
+      <c r="AE3" s="15">
         <v>8</v>
       </c>
-      <c r="AE3" s="16">
+      <c r="AF3" s="15">
         <v>200</v>
-      </c>
-      <c r="AF3" s="6">
-        <v>4</v>
       </c>
       <c r="AG3" s="6">
         <v>4</v>
       </c>
       <c r="AH3" s="6">
+        <v>4</v>
+      </c>
+      <c r="AI3" s="6">
         <v>8</v>
       </c>
-      <c r="AI3" s="6">
+      <c r="AJ3" s="6">
         <v>200</v>
       </c>
-      <c r="AJ3" s="16">
+      <c r="AK3" s="15">
         <v>4</v>
       </c>
-      <c r="AK3" s="16">
+      <c r="AL3" s="15">
         <v>4</v>
       </c>
-      <c r="AL3" s="16">
+      <c r="AM3" s="15">
         <v>8</v>
       </c>
-      <c r="AM3" s="16">
+      <c r="AN3" s="15">
         <v>200</v>
-      </c>
-      <c r="AN3" s="6">
-        <v>4</v>
       </c>
       <c r="AO3" s="6">
         <v>4</v>
       </c>
       <c r="AP3" s="6">
+        <v>4</v>
+      </c>
+      <c r="AQ3" s="6">
         <v>8</v>
       </c>
-      <c r="AQ3" s="6">
+      <c r="AR3" s="6">
         <v>200</v>
       </c>
-      <c r="AR3" s="16">
+      <c r="AS3" s="15">
         <v>4</v>
       </c>
-      <c r="AS3" s="16">
+      <c r="AT3" s="15">
         <v>4</v>
       </c>
-      <c r="AT3" s="16">
+      <c r="AU3" s="15">
         <v>8</v>
       </c>
-      <c r="AU3" s="16">
+      <c r="AV3" s="15">
         <v>200</v>
-      </c>
-      <c r="AV3" s="6">
-        <v>4</v>
       </c>
       <c r="AW3" s="6">
         <v>4</v>
       </c>
       <c r="AX3" s="6">
+        <v>4</v>
+      </c>
+      <c r="AY3" s="6">
         <v>8</v>
       </c>
-      <c r="AY3" s="6">
+      <c r="AZ3" s="6">
         <v>200</v>
       </c>
-      <c r="AZ3" s="16">
+      <c r="BA3" s="15">
         <v>4</v>
       </c>
-      <c r="BA3" s="16">
+      <c r="BB3" s="15">
         <v>4</v>
       </c>
-      <c r="BB3" s="16">
+      <c r="BC3" s="15">
         <v>8</v>
       </c>
-      <c r="BC3" s="16">
+      <c r="BD3" s="15">
         <v>200</v>
-      </c>
-      <c r="BD3" s="6">
-        <v>4</v>
       </c>
       <c r="BE3" s="6">
         <v>4</v>
       </c>
       <c r="BF3" s="6">
+        <v>4</v>
+      </c>
+      <c r="BG3" s="6">
         <v>8</v>
       </c>
-      <c r="BG3" s="22">
+      <c r="BH3" s="19">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7797</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>7723</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>7720</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>7732</v>
       </c>
-      <c r="D4" s="16">
+      <c r="E4" s="15">
         <v>6</v>
       </c>
-      <c r="E4" s="16">
+      <c r="F4" s="15">
         <v>18</v>
       </c>
-      <c r="F4" s="16">
+      <c r="G4" s="15">
         <v>60</v>
       </c>
-      <c r="G4" s="16">
+      <c r="H4" s="15">
         <v>1200</v>
-      </c>
-      <c r="H4" s="6">
-        <v>4</v>
       </c>
       <c r="I4" s="6">
         <v>4</v>
       </c>
       <c r="J4" s="6">
+        <v>4</v>
+      </c>
+      <c r="K4" s="6">
         <v>8</v>
       </c>
-      <c r="K4" s="6">
+      <c r="L4" s="6">
         <v>200</v>
       </c>
-      <c r="L4" s="16">
+      <c r="M4" s="15">
         <v>4</v>
       </c>
-      <c r="M4" s="16">
+      <c r="N4" s="15">
         <v>4</v>
       </c>
-      <c r="N4" s="16">
+      <c r="O4" s="15">
         <v>8</v>
       </c>
-      <c r="O4" s="16">
+      <c r="P4" s="15">
         <v>200</v>
-      </c>
-      <c r="P4" s="6">
-        <v>4</v>
       </c>
       <c r="Q4" s="6">
         <v>4</v>
       </c>
       <c r="R4" s="6">
+        <v>4</v>
+      </c>
+      <c r="S4" s="6">
         <v>8</v>
       </c>
-      <c r="S4" s="6">
+      <c r="T4" s="6">
         <v>200</v>
       </c>
-      <c r="T4" s="16">
+      <c r="U4" s="15">
         <v>4</v>
       </c>
-      <c r="U4" s="16">
+      <c r="V4" s="15">
         <v>4</v>
       </c>
-      <c r="V4" s="16">
+      <c r="W4" s="15">
         <v>8</v>
       </c>
-      <c r="W4" s="16">
+      <c r="X4" s="15">
         <v>200</v>
-      </c>
-      <c r="X4" s="6">
-        <v>4</v>
       </c>
       <c r="Y4" s="6">
         <v>4</v>
       </c>
       <c r="Z4" s="6">
+        <v>4</v>
+      </c>
+      <c r="AA4" s="6">
         <v>8</v>
       </c>
-      <c r="AA4" s="6">
+      <c r="AB4" s="6">
         <v>200</v>
       </c>
-      <c r="AB4" s="16">
+      <c r="AC4" s="15">
         <v>4</v>
       </c>
-      <c r="AC4" s="16">
+      <c r="AD4" s="15">
         <v>4</v>
       </c>
-      <c r="AD4" s="16">
+      <c r="AE4" s="15">
         <v>8</v>
       </c>
-      <c r="AE4" s="16">
+      <c r="AF4" s="15">
         <v>200</v>
-      </c>
-      <c r="AF4" s="6">
-        <v>4</v>
       </c>
       <c r="AG4" s="6">
         <v>4</v>
       </c>
       <c r="AH4" s="6">
+        <v>4</v>
+      </c>
+      <c r="AI4" s="6">
         <v>8</v>
       </c>
-      <c r="AI4" s="6">
+      <c r="AJ4" s="6">
         <v>200</v>
       </c>
-      <c r="AJ4" s="16">
+      <c r="AK4" s="15">
         <v>4</v>
       </c>
-      <c r="AK4" s="16">
+      <c r="AL4" s="15">
         <v>4</v>
       </c>
-      <c r="AL4" s="16">
+      <c r="AM4" s="15">
         <v>8</v>
       </c>
-      <c r="AM4" s="16">
+      <c r="AN4" s="15">
         <v>200</v>
-      </c>
-      <c r="AN4" s="6">
-        <v>4</v>
       </c>
       <c r="AO4" s="6">
         <v>4</v>
       </c>
       <c r="AP4" s="6">
+        <v>4</v>
+      </c>
+      <c r="AQ4" s="6">
         <v>8</v>
       </c>
-      <c r="AQ4" s="6">
+      <c r="AR4" s="6">
         <v>200</v>
       </c>
-      <c r="AR4" s="16">
+      <c r="AS4" s="15">
         <v>4</v>
       </c>
-      <c r="AS4" s="16">
+      <c r="AT4" s="15">
         <v>4</v>
       </c>
-      <c r="AT4" s="16">
+      <c r="AU4" s="15">
         <v>8</v>
       </c>
-      <c r="AU4" s="16">
+      <c r="AV4" s="15">
         <v>200</v>
-      </c>
-      <c r="AV4" s="6">
-        <v>4</v>
       </c>
       <c r="AW4" s="6">
         <v>4</v>
       </c>
       <c r="AX4" s="6">
+        <v>4</v>
+      </c>
+      <c r="AY4" s="6">
         <v>8</v>
       </c>
-      <c r="AY4" s="6">
+      <c r="AZ4" s="6">
         <v>200</v>
       </c>
-      <c r="AZ4" s="16">
+      <c r="BA4" s="15">
         <v>4</v>
       </c>
-      <c r="BA4" s="16">
+      <c r="BB4" s="15">
         <v>4</v>
       </c>
-      <c r="BB4" s="16">
+      <c r="BC4" s="15">
         <v>8</v>
       </c>
-      <c r="BC4" s="16">
+      <c r="BD4" s="15">
         <v>200</v>
-      </c>
-      <c r="BD4" s="6">
-        <v>4</v>
       </c>
       <c r="BE4" s="6">
         <v>4</v>
       </c>
       <c r="BF4" s="6">
+        <v>4</v>
+      </c>
+      <c r="BG4" s="6">
         <v>8</v>
       </c>
-      <c r="BG4" s="22">
+      <c r="BH4" s="19">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7797</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>7724</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>7720</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>7732</v>
       </c>
-      <c r="D5" s="16">
+      <c r="E5" s="15">
         <v>8</v>
       </c>
-      <c r="E5" s="16">
+      <c r="F5" s="15">
         <v>16</v>
       </c>
-      <c r="F5" s="16">
+      <c r="G5" s="15">
         <v>58</v>
       </c>
-      <c r="G5" s="16">
+      <c r="H5" s="15">
         <v>1000</v>
-      </c>
-      <c r="H5" s="6">
-        <v>4</v>
       </c>
       <c r="I5" s="6">
         <v>4</v>
       </c>
       <c r="J5" s="6">
+        <v>4</v>
+      </c>
+      <c r="K5" s="6">
         <v>8</v>
       </c>
-      <c r="K5" s="6">
+      <c r="L5" s="6">
         <v>200</v>
       </c>
-      <c r="L5" s="16">
+      <c r="M5" s="15">
         <v>4</v>
       </c>
-      <c r="M5" s="16">
+      <c r="N5" s="15">
         <v>4</v>
       </c>
-      <c r="N5" s="16">
+      <c r="O5" s="15">
         <v>8</v>
       </c>
-      <c r="O5" s="16">
+      <c r="P5" s="15">
         <v>200</v>
-      </c>
-      <c r="P5" s="6">
-        <v>4</v>
       </c>
       <c r="Q5" s="6">
         <v>4</v>
       </c>
       <c r="R5" s="6">
+        <v>4</v>
+      </c>
+      <c r="S5" s="6">
         <v>8</v>
       </c>
-      <c r="S5" s="6">
+      <c r="T5" s="6">
         <v>200</v>
       </c>
-      <c r="T5" s="16">
+      <c r="U5" s="15">
         <v>4</v>
       </c>
-      <c r="U5" s="16">
+      <c r="V5" s="15">
         <v>4</v>
       </c>
-      <c r="V5" s="16">
+      <c r="W5" s="15">
         <v>8</v>
       </c>
-      <c r="W5" s="16">
+      <c r="X5" s="15">
         <v>200</v>
-      </c>
-      <c r="X5" s="6">
-        <v>4</v>
       </c>
       <c r="Y5" s="6">
         <v>4</v>
       </c>
       <c r="Z5" s="6">
+        <v>4</v>
+      </c>
+      <c r="AA5" s="6">
         <v>8</v>
       </c>
-      <c r="AA5" s="6">
+      <c r="AB5" s="6">
         <v>200</v>
       </c>
-      <c r="AB5" s="16">
+      <c r="AC5" s="15">
         <v>4</v>
       </c>
-      <c r="AC5" s="16">
+      <c r="AD5" s="15">
         <v>4</v>
       </c>
-      <c r="AD5" s="16">
+      <c r="AE5" s="15">
         <v>8</v>
       </c>
-      <c r="AE5" s="16">
+      <c r="AF5" s="15">
         <v>200</v>
-      </c>
-      <c r="AF5" s="6">
-        <v>4</v>
       </c>
       <c r="AG5" s="6">
         <v>4</v>
       </c>
       <c r="AH5" s="6">
+        <v>4</v>
+      </c>
+      <c r="AI5" s="6">
         <v>8</v>
       </c>
-      <c r="AI5" s="6">
+      <c r="AJ5" s="6">
         <v>200</v>
       </c>
-      <c r="AJ5" s="16">
+      <c r="AK5" s="15">
         <v>4</v>
       </c>
-      <c r="AK5" s="16">
+      <c r="AL5" s="15">
         <v>4</v>
       </c>
-      <c r="AL5" s="16">
+      <c r="AM5" s="15">
         <v>8</v>
       </c>
-      <c r="AM5" s="16">
+      <c r="AN5" s="15">
         <v>200</v>
-      </c>
-      <c r="AN5" s="6">
-        <v>4</v>
       </c>
       <c r="AO5" s="6">
         <v>4</v>
       </c>
       <c r="AP5" s="6">
+        <v>4</v>
+      </c>
+      <c r="AQ5" s="6">
         <v>8</v>
       </c>
-      <c r="AQ5" s="6">
+      <c r="AR5" s="6">
         <v>200</v>
       </c>
-      <c r="AR5" s="16">
+      <c r="AS5" s="15">
         <v>4</v>
       </c>
-      <c r="AS5" s="16">
+      <c r="AT5" s="15">
         <v>4</v>
       </c>
-      <c r="AT5" s="16">
+      <c r="AU5" s="15">
         <v>8</v>
       </c>
-      <c r="AU5" s="16">
+      <c r="AV5" s="15">
         <v>200</v>
-      </c>
-      <c r="AV5" s="6">
-        <v>4</v>
       </c>
       <c r="AW5" s="6">
         <v>4</v>
       </c>
       <c r="AX5" s="6">
+        <v>4</v>
+      </c>
+      <c r="AY5" s="6">
         <v>8</v>
       </c>
-      <c r="AY5" s="6">
+      <c r="AZ5" s="6">
         <v>200</v>
       </c>
-      <c r="AZ5" s="16">
+      <c r="BA5" s="15">
         <v>4</v>
       </c>
-      <c r="BA5" s="16">
+      <c r="BB5" s="15">
         <v>4</v>
       </c>
-      <c r="BB5" s="16">
+      <c r="BC5" s="15">
         <v>8</v>
       </c>
-      <c r="BC5" s="16">
+      <c r="BD5" s="15">
         <v>200</v>
-      </c>
-      <c r="BD5" s="6">
-        <v>4</v>
       </c>
       <c r="BE5" s="6">
         <v>4</v>
       </c>
       <c r="BF5" s="6">
+        <v>4</v>
+      </c>
+      <c r="BG5" s="6">
         <v>8</v>
       </c>
-      <c r="BG5" s="22">
+      <c r="BH5" s="19">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7797</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>7725</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>7720</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>7732</v>
       </c>
-      <c r="D6" s="16">
+      <c r="E6" s="15">
         <v>10</v>
       </c>
-      <c r="E6" s="16">
+      <c r="F6" s="15">
         <v>14</v>
       </c>
-      <c r="F6" s="16">
+      <c r="G6" s="15">
         <v>56</v>
       </c>
-      <c r="G6" s="16">
+      <c r="H6" s="15">
         <v>800</v>
-      </c>
-      <c r="H6" s="6">
-        <v>4</v>
       </c>
       <c r="I6" s="6">
         <v>4</v>
       </c>
       <c r="J6" s="6">
+        <v>4</v>
+      </c>
+      <c r="K6" s="6">
         <v>8</v>
       </c>
-      <c r="K6" s="6">
+      <c r="L6" s="6">
         <v>200</v>
       </c>
-      <c r="L6" s="16">
+      <c r="M6" s="15">
         <v>4</v>
       </c>
-      <c r="M6" s="16">
+      <c r="N6" s="15">
         <v>4</v>
       </c>
-      <c r="N6" s="16">
+      <c r="O6" s="15">
         <v>8</v>
       </c>
-      <c r="O6" s="16">
+      <c r="P6" s="15">
         <v>200</v>
-      </c>
-      <c r="P6" s="6">
-        <v>4</v>
       </c>
       <c r="Q6" s="6">
         <v>4</v>
       </c>
       <c r="R6" s="6">
+        <v>4</v>
+      </c>
+      <c r="S6" s="6">
         <v>8</v>
       </c>
-      <c r="S6" s="6">
+      <c r="T6" s="6">
         <v>200</v>
       </c>
-      <c r="T6" s="16">
+      <c r="U6" s="15">
         <v>4</v>
       </c>
-      <c r="U6" s="16">
+      <c r="V6" s="15">
         <v>4</v>
       </c>
-      <c r="V6" s="16">
+      <c r="W6" s="15">
         <v>8</v>
       </c>
-      <c r="W6" s="16">
+      <c r="X6" s="15">
         <v>200</v>
-      </c>
-      <c r="X6" s="6">
-        <v>4</v>
       </c>
       <c r="Y6" s="6">
         <v>4</v>
       </c>
       <c r="Z6" s="6">
+        <v>4</v>
+      </c>
+      <c r="AA6" s="6">
         <v>8</v>
       </c>
-      <c r="AA6" s="6">
+      <c r="AB6" s="6">
         <v>200</v>
       </c>
-      <c r="AB6" s="16">
+      <c r="AC6" s="15">
         <v>4</v>
       </c>
-      <c r="AC6" s="16">
+      <c r="AD6" s="15">
         <v>4</v>
       </c>
-      <c r="AD6" s="16">
+      <c r="AE6" s="15">
         <v>8</v>
       </c>
-      <c r="AE6" s="16">
+      <c r="AF6" s="15">
         <v>200</v>
-      </c>
-      <c r="AF6" s="6">
-        <v>4</v>
       </c>
       <c r="AG6" s="6">
         <v>4</v>
       </c>
       <c r="AH6" s="6">
+        <v>4</v>
+      </c>
+      <c r="AI6" s="6">
         <v>8</v>
       </c>
-      <c r="AI6" s="6">
+      <c r="AJ6" s="6">
         <v>200</v>
       </c>
-      <c r="AJ6" s="16">
+      <c r="AK6" s="15">
         <v>4</v>
       </c>
-      <c r="AK6" s="16">
+      <c r="AL6" s="15">
         <v>4</v>
       </c>
-      <c r="AL6" s="16">
+      <c r="AM6" s="15">
         <v>8</v>
       </c>
-      <c r="AM6" s="16">
+      <c r="AN6" s="15">
         <v>200</v>
-      </c>
-      <c r="AN6" s="6">
-        <v>4</v>
       </c>
       <c r="AO6" s="6">
         <v>4</v>
       </c>
       <c r="AP6" s="6">
+        <v>4</v>
+      </c>
+      <c r="AQ6" s="6">
         <v>8</v>
       </c>
-      <c r="AQ6" s="6">
+      <c r="AR6" s="6">
         <v>200</v>
       </c>
-      <c r="AR6" s="16">
+      <c r="AS6" s="15">
         <v>4</v>
       </c>
-      <c r="AS6" s="16">
+      <c r="AT6" s="15">
         <v>4</v>
       </c>
-      <c r="AT6" s="16">
+      <c r="AU6" s="15">
         <v>8</v>
       </c>
-      <c r="AU6" s="16">
+      <c r="AV6" s="15">
         <v>200</v>
-      </c>
-      <c r="AV6" s="6">
-        <v>4</v>
       </c>
       <c r="AW6" s="6">
         <v>4</v>
       </c>
       <c r="AX6" s="6">
+        <v>4</v>
+      </c>
+      <c r="AY6" s="6">
         <v>8</v>
       </c>
-      <c r="AY6" s="6">
+      <c r="AZ6" s="6">
         <v>200</v>
       </c>
-      <c r="AZ6" s="16">
+      <c r="BA6" s="15">
         <v>4</v>
       </c>
-      <c r="BA6" s="16">
+      <c r="BB6" s="15">
         <v>4</v>
       </c>
-      <c r="BB6" s="16">
+      <c r="BC6" s="15">
         <v>8</v>
       </c>
-      <c r="BC6" s="16">
+      <c r="BD6" s="15">
         <v>200</v>
-      </c>
-      <c r="BD6" s="6">
-        <v>4</v>
       </c>
       <c r="BE6" s="6">
         <v>4</v>
       </c>
       <c r="BF6" s="6">
+        <v>4</v>
+      </c>
+      <c r="BG6" s="6">
         <v>8</v>
       </c>
-      <c r="BG6" s="22">
+      <c r="BH6" s="19">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7797</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>7726</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>7720</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>7732</v>
       </c>
-      <c r="D7" s="16">
+      <c r="E7" s="15">
         <v>12</v>
       </c>
-      <c r="E7" s="16">
+      <c r="F7" s="15">
         <v>12</v>
       </c>
-      <c r="F7" s="16">
+      <c r="G7" s="15">
         <v>54</v>
       </c>
-      <c r="G7" s="16">
+      <c r="H7" s="15">
         <v>600</v>
-      </c>
-      <c r="H7" s="6">
-        <v>4</v>
       </c>
       <c r="I7" s="6">
         <v>4</v>
       </c>
       <c r="J7" s="6">
+        <v>4</v>
+      </c>
+      <c r="K7" s="6">
         <v>8</v>
       </c>
-      <c r="K7" s="6">
+      <c r="L7" s="6">
         <v>200</v>
       </c>
-      <c r="L7" s="16">
+      <c r="M7" s="15">
         <v>4</v>
       </c>
-      <c r="M7" s="16">
+      <c r="N7" s="15">
         <v>4</v>
       </c>
-      <c r="N7" s="16">
+      <c r="O7" s="15">
         <v>8</v>
       </c>
-      <c r="O7" s="16">
+      <c r="P7" s="15">
         <v>200</v>
-      </c>
-      <c r="P7" s="6">
-        <v>4</v>
       </c>
       <c r="Q7" s="6">
         <v>4</v>
       </c>
       <c r="R7" s="6">
+        <v>4</v>
+      </c>
+      <c r="S7" s="6">
         <v>8</v>
       </c>
-      <c r="S7" s="6">
+      <c r="T7" s="6">
         <v>200</v>
       </c>
-      <c r="T7" s="16">
+      <c r="U7" s="15">
         <v>4</v>
       </c>
-      <c r="U7" s="16">
+      <c r="V7" s="15">
         <v>4</v>
       </c>
-      <c r="V7" s="16">
+      <c r="W7" s="15">
         <v>8</v>
       </c>
-      <c r="W7" s="16">
+      <c r="X7" s="15">
         <v>200</v>
-      </c>
-      <c r="X7" s="6">
-        <v>4</v>
       </c>
       <c r="Y7" s="6">
         <v>4</v>
       </c>
       <c r="Z7" s="6">
+        <v>4</v>
+      </c>
+      <c r="AA7" s="6">
         <v>8</v>
       </c>
-      <c r="AA7" s="6">
+      <c r="AB7" s="6">
         <v>200</v>
       </c>
-      <c r="AB7" s="16">
+      <c r="AC7" s="15">
         <v>4</v>
       </c>
-      <c r="AC7" s="16">
+      <c r="AD7" s="15">
         <v>4</v>
       </c>
-      <c r="AD7" s="16">
+      <c r="AE7" s="15">
         <v>8</v>
       </c>
-      <c r="AE7" s="16">
+      <c r="AF7" s="15">
         <v>200</v>
-      </c>
-      <c r="AF7" s="6">
-        <v>4</v>
       </c>
       <c r="AG7" s="6">
         <v>4</v>
       </c>
       <c r="AH7" s="6">
+        <v>4</v>
+      </c>
+      <c r="AI7" s="6">
         <v>8</v>
       </c>
-      <c r="AI7" s="6">
+      <c r="AJ7" s="6">
         <v>200</v>
       </c>
-      <c r="AJ7" s="16">
+      <c r="AK7" s="15">
         <v>4</v>
       </c>
-      <c r="AK7" s="16">
+      <c r="AL7" s="15">
         <v>4</v>
       </c>
-      <c r="AL7" s="16">
+      <c r="AM7" s="15">
         <v>8</v>
       </c>
-      <c r="AM7" s="16">
+      <c r="AN7" s="15">
         <v>200</v>
-      </c>
-      <c r="AN7" s="6">
-        <v>4</v>
       </c>
       <c r="AO7" s="6">
         <v>4</v>
       </c>
       <c r="AP7" s="6">
+        <v>4</v>
+      </c>
+      <c r="AQ7" s="6">
         <v>8</v>
       </c>
-      <c r="AQ7" s="6">
+      <c r="AR7" s="6">
         <v>200</v>
       </c>
-      <c r="AR7" s="16">
+      <c r="AS7" s="15">
         <v>4</v>
       </c>
-      <c r="AS7" s="16">
+      <c r="AT7" s="15">
         <v>4</v>
       </c>
-      <c r="AT7" s="16">
+      <c r="AU7" s="15">
         <v>8</v>
       </c>
-      <c r="AU7" s="16">
+      <c r="AV7" s="15">
         <v>200</v>
-      </c>
-      <c r="AV7" s="6">
-        <v>4</v>
       </c>
       <c r="AW7" s="6">
         <v>4</v>
       </c>
       <c r="AX7" s="6">
+        <v>4</v>
+      </c>
+      <c r="AY7" s="6">
         <v>8</v>
       </c>
-      <c r="AY7" s="6">
+      <c r="AZ7" s="6">
         <v>200</v>
       </c>
-      <c r="AZ7" s="16">
+      <c r="BA7" s="15">
         <v>4</v>
       </c>
-      <c r="BA7" s="16">
+      <c r="BB7" s="15">
         <v>4</v>
       </c>
-      <c r="BB7" s="16">
+      <c r="BC7" s="15">
         <v>8</v>
       </c>
-      <c r="BC7" s="16">
+      <c r="BD7" s="15">
         <v>200</v>
-      </c>
-      <c r="BD7" s="6">
-        <v>4</v>
       </c>
       <c r="BE7" s="6">
         <v>4</v>
       </c>
       <c r="BF7" s="6">
+        <v>4</v>
+      </c>
+      <c r="BG7" s="6">
         <v>8</v>
       </c>
-      <c r="BG7" s="22">
+      <c r="BH7" s="19">
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7797</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>7727</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>7720</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>7732</v>
       </c>
-      <c r="D8" s="16">
+      <c r="E8" s="15">
         <v>14</v>
       </c>
-      <c r="E8" s="16">
+      <c r="F8" s="15">
         <v>10</v>
       </c>
-      <c r="F8" s="16">
+      <c r="G8" s="15">
         <v>52</v>
       </c>
-      <c r="G8" s="16">
+      <c r="H8" s="15">
         <v>400</v>
-      </c>
-      <c r="H8" s="6">
-        <v>4</v>
       </c>
       <c r="I8" s="6">
         <v>4</v>
       </c>
       <c r="J8" s="6">
+        <v>4</v>
+      </c>
+      <c r="K8" s="6">
         <v>8</v>
       </c>
-      <c r="K8" s="6">
+      <c r="L8" s="6">
         <v>200</v>
       </c>
-      <c r="L8" s="16">
+      <c r="M8" s="15">
         <v>4</v>
       </c>
-      <c r="M8" s="16">
+      <c r="N8" s="15">
         <v>4</v>
       </c>
-      <c r="N8" s="16">
+      <c r="O8" s="15">
         <v>8</v>
       </c>
-      <c r="O8" s="16">
+      <c r="P8" s="15">
         <v>200</v>
-      </c>
-      <c r="P8" s="6">
-        <v>4</v>
       </c>
       <c r="Q8" s="6">
         <v>4</v>
       </c>
       <c r="R8" s="6">
+        <v>4</v>
+      </c>
+      <c r="S8" s="6">
         <v>8</v>
       </c>
-      <c r="S8" s="6">
+      <c r="T8" s="6">
         <v>200</v>
       </c>
-      <c r="T8" s="16">
+      <c r="U8" s="15">
         <v>4</v>
       </c>
-      <c r="U8" s="16">
+      <c r="V8" s="15">
         <v>4</v>
       </c>
-      <c r="V8" s="16">
+      <c r="W8" s="15">
         <v>8</v>
       </c>
-      <c r="W8" s="16">
+      <c r="X8" s="15">
         <v>200</v>
-      </c>
-      <c r="X8" s="6">
-        <v>4</v>
       </c>
       <c r="Y8" s="6">
         <v>4</v>
       </c>
       <c r="Z8" s="6">
+        <v>4</v>
+      </c>
+      <c r="AA8" s="6">
         <v>8</v>
       </c>
-      <c r="AA8" s="6">
+      <c r="AB8" s="6">
         <v>200</v>
       </c>
-      <c r="AB8" s="16">
+      <c r="AC8" s="15">
         <v>4</v>
       </c>
-      <c r="AC8" s="16">
+      <c r="AD8" s="15">
         <v>4</v>
       </c>
-      <c r="AD8" s="16">
+      <c r="AE8" s="15">
         <v>8</v>
       </c>
-      <c r="AE8" s="16">
+      <c r="AF8" s="15">
         <v>200</v>
-      </c>
-      <c r="AF8" s="6">
-        <v>4</v>
       </c>
       <c r="AG8" s="6">
         <v>4</v>
       </c>
       <c r="AH8" s="6">
+        <v>4</v>
+      </c>
+      <c r="AI8" s="6">
         <v>8</v>
       </c>
-      <c r="AI8" s="6">
+      <c r="AJ8" s="6">
         <v>200</v>
       </c>
-      <c r="AJ8" s="16">
+      <c r="AK8" s="15">
         <v>4</v>
       </c>
-      <c r="AK8" s="16">
+      <c r="AL8" s="15">
         <v>4</v>
       </c>
-      <c r="AL8" s="16">
+      <c r="AM8" s="15">
         <v>8</v>
       </c>
-      <c r="AM8" s="16">
+      <c r="AN8" s="15">
         <v>200</v>
-      </c>
-      <c r="AN8" s="6">
-        <v>4</v>
       </c>
       <c r="AO8" s="6">
         <v>4</v>
       </c>
       <c r="AP8" s="6">
+        <v>4</v>
+      </c>
+      <c r="AQ8" s="6">
         <v>8</v>
       </c>
-      <c r="AQ8" s="6">
+      <c r="AR8" s="6">
         <v>200</v>
       </c>
-      <c r="AR8" s="16">
+      <c r="AS8" s="15">
         <v>4</v>
       </c>
-      <c r="AS8" s="16">
+      <c r="AT8" s="15">
         <v>4</v>
       </c>
-      <c r="AT8" s="16">
+      <c r="AU8" s="15">
         <v>8</v>
       </c>
-      <c r="AU8" s="16">
+      <c r="AV8" s="15">
         <v>200</v>
-      </c>
-      <c r="AV8" s="6">
-        <v>4</v>
       </c>
       <c r="AW8" s="6">
         <v>4</v>
       </c>
       <c r="AX8" s="6">
+        <v>4</v>
+      </c>
+      <c r="AY8" s="6">
         <v>8</v>
       </c>
-      <c r="AY8" s="6">
+      <c r="AZ8" s="6">
         <v>200</v>
       </c>
-      <c r="AZ8" s="16">
+      <c r="BA8" s="15">
         <v>4</v>
       </c>
-      <c r="BA8" s="16">
+      <c r="BB8" s="15">
         <v>4</v>
       </c>
-      <c r="BB8" s="16">
+      <c r="BC8" s="15">
         <v>8</v>
       </c>
-      <c r="BC8" s="16">
+      <c r="BD8" s="15">
         <v>200</v>
-      </c>
-      <c r="BD8" s="6">
-        <v>4</v>
       </c>
       <c r="BE8" s="6">
         <v>4</v>
       </c>
       <c r="BF8" s="6">
+        <v>4</v>
+      </c>
+      <c r="BG8" s="6">
         <v>8</v>
       </c>
-      <c r="BG8" s="22">
+      <c r="BH8" s="19">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7797</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>7728</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>7720</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>7732</v>
       </c>
-      <c r="D9" s="16">
+      <c r="E9" s="15">
         <v>16</v>
       </c>
-      <c r="E9" s="16">
+      <c r="F9" s="15">
         <v>8</v>
       </c>
-      <c r="F9" s="16">
+      <c r="G9" s="15">
         <v>50</v>
       </c>
-      <c r="G9" s="16">
+      <c r="H9" s="15">
         <v>200</v>
-      </c>
-      <c r="H9" s="6">
-        <v>4</v>
       </c>
       <c r="I9" s="6">
         <v>4</v>
       </c>
       <c r="J9" s="6">
+        <v>4</v>
+      </c>
+      <c r="K9" s="6">
         <v>8</v>
       </c>
-      <c r="K9" s="6">
+      <c r="L9" s="6">
         <v>200</v>
       </c>
-      <c r="L9" s="16">
+      <c r="M9" s="15">
         <v>4</v>
       </c>
-      <c r="M9" s="16">
+      <c r="N9" s="15">
         <v>4</v>
       </c>
-      <c r="N9" s="16">
+      <c r="O9" s="15">
         <v>8</v>
       </c>
-      <c r="O9" s="16">
+      <c r="P9" s="15">
         <v>200</v>
-      </c>
-      <c r="P9" s="6">
-        <v>4</v>
       </c>
       <c r="Q9" s="6">
         <v>4</v>
       </c>
       <c r="R9" s="6">
+        <v>4</v>
+      </c>
+      <c r="S9" s="6">
         <v>8</v>
       </c>
-      <c r="S9" s="6">
+      <c r="T9" s="6">
         <v>200</v>
       </c>
-      <c r="T9" s="16">
+      <c r="U9" s="15">
         <v>4</v>
       </c>
-      <c r="U9" s="16">
+      <c r="V9" s="15">
         <v>4</v>
       </c>
-      <c r="V9" s="16">
+      <c r="W9" s="15">
         <v>8</v>
       </c>
-      <c r="W9" s="16">
+      <c r="X9" s="15">
         <v>200</v>
-      </c>
-      <c r="X9" s="6">
-        <v>4</v>
       </c>
       <c r="Y9" s="6">
         <v>4</v>
       </c>
       <c r="Z9" s="6">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="6">
         <v>8</v>
       </c>
-      <c r="AA9" s="6">
+      <c r="AB9" s="6">
         <v>200</v>
       </c>
-      <c r="AB9" s="16">
+      <c r="AC9" s="15">
         <v>4</v>
       </c>
-      <c r="AC9" s="16">
+      <c r="AD9" s="15">
         <v>4</v>
       </c>
-      <c r="AD9" s="16">
+      <c r="AE9" s="15">
         <v>8</v>
       </c>
-      <c r="AE9" s="16">
+      <c r="AF9" s="15">
         <v>200</v>
-      </c>
-      <c r="AF9" s="6">
-        <v>4</v>
       </c>
       <c r="AG9" s="6">
         <v>4</v>
       </c>
       <c r="AH9" s="6">
+        <v>4</v>
+      </c>
+      <c r="AI9" s="6">
         <v>8</v>
       </c>
-      <c r="AI9" s="6">
+      <c r="AJ9" s="6">
         <v>200</v>
       </c>
-      <c r="AJ9" s="16">
+      <c r="AK9" s="15">
         <v>4</v>
       </c>
-      <c r="AK9" s="16">
+      <c r="AL9" s="15">
         <v>4</v>
       </c>
-      <c r="AL9" s="16">
+      <c r="AM9" s="15">
         <v>8</v>
       </c>
-      <c r="AM9" s="16">
+      <c r="AN9" s="15">
         <v>200</v>
-      </c>
-      <c r="AN9" s="6">
-        <v>4</v>
       </c>
       <c r="AO9" s="6">
         <v>4</v>
       </c>
       <c r="AP9" s="6">
+        <v>4</v>
+      </c>
+      <c r="AQ9" s="6">
         <v>8</v>
       </c>
-      <c r="AQ9" s="6">
+      <c r="AR9" s="6">
         <v>200</v>
       </c>
-      <c r="AR9" s="16">
+      <c r="AS9" s="15">
         <v>4</v>
       </c>
-      <c r="AS9" s="16">
+      <c r="AT9" s="15">
         <v>4</v>
       </c>
-      <c r="AT9" s="16">
+      <c r="AU9" s="15">
         <v>8</v>
       </c>
-      <c r="AU9" s="16">
+      <c r="AV9" s="15">
         <v>200</v>
-      </c>
-      <c r="AV9" s="6">
-        <v>4</v>
       </c>
       <c r="AW9" s="6">
         <v>4</v>
       </c>
       <c r="AX9" s="6">
+        <v>4</v>
+      </c>
+      <c r="AY9" s="6">
         <v>8</v>
       </c>
-      <c r="AY9" s="6">
+      <c r="AZ9" s="6">
         <v>200</v>
       </c>
-      <c r="AZ9" s="16">
+      <c r="BA9" s="15">
         <v>4</v>
       </c>
-      <c r="BA9" s="16">
+      <c r="BB9" s="15">
         <v>4</v>
       </c>
-      <c r="BB9" s="16">
+      <c r="BC9" s="15">
         <v>8</v>
       </c>
-      <c r="BC9" s="16">
+      <c r="BD9" s="15">
         <v>200</v>
-      </c>
-      <c r="BD9" s="6">
-        <v>4</v>
       </c>
       <c r="BE9" s="6">
         <v>4</v>
       </c>
       <c r="BF9" s="6">
+        <v>4</v>
+      </c>
+      <c r="BG9" s="6">
         <v>8</v>
       </c>
-      <c r="BG9" s="22">
+      <c r="BH9" s="19">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7797</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>7729</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>7720</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>7732</v>
       </c>
-      <c r="D10" s="16">
+      <c r="E10" s="15">
         <v>18</v>
       </c>
-      <c r="E10" s="16">
+      <c r="F10" s="15">
         <v>6</v>
       </c>
-      <c r="F10" s="16">
+      <c r="G10" s="15">
         <v>48</v>
       </c>
-      <c r="G10" s="16">
+      <c r="H10" s="15">
         <v>500</v>
-      </c>
-      <c r="H10" s="6">
-        <v>4</v>
       </c>
       <c r="I10" s="6">
         <v>4</v>
       </c>
       <c r="J10" s="6">
+        <v>4</v>
+      </c>
+      <c r="K10" s="6">
         <v>8</v>
       </c>
-      <c r="K10" s="6">
+      <c r="L10" s="6">
         <v>200</v>
       </c>
-      <c r="L10" s="16">
+      <c r="M10" s="15">
         <v>4</v>
       </c>
-      <c r="M10" s="16">
+      <c r="N10" s="15">
         <v>4</v>
       </c>
-      <c r="N10" s="16">
+      <c r="O10" s="15">
         <v>8</v>
       </c>
-      <c r="O10" s="16">
+      <c r="P10" s="15">
         <v>200</v>
-      </c>
-      <c r="P10" s="6">
-        <v>4</v>
       </c>
       <c r="Q10" s="6">
         <v>4</v>
       </c>
       <c r="R10" s="6">
+        <v>4</v>
+      </c>
+      <c r="S10" s="6">
         <v>8</v>
       </c>
-      <c r="S10" s="6">
+      <c r="T10" s="6">
         <v>200</v>
       </c>
-      <c r="T10" s="16">
+      <c r="U10" s="15">
         <v>4</v>
       </c>
-      <c r="U10" s="16">
+      <c r="V10" s="15">
         <v>4</v>
       </c>
-      <c r="V10" s="16">
+      <c r="W10" s="15">
         <v>8</v>
       </c>
-      <c r="W10" s="16">
+      <c r="X10" s="15">
         <v>200</v>
-      </c>
-      <c r="X10" s="6">
-        <v>4</v>
       </c>
       <c r="Y10" s="6">
         <v>4</v>
       </c>
       <c r="Z10" s="6">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="6">
         <v>8</v>
       </c>
-      <c r="AA10" s="6">
+      <c r="AB10" s="6">
         <v>200</v>
       </c>
-      <c r="AB10" s="16">
+      <c r="AC10" s="15">
         <v>4</v>
       </c>
-      <c r="AC10" s="16">
+      <c r="AD10" s="15">
         <v>4</v>
       </c>
-      <c r="AD10" s="16">
+      <c r="AE10" s="15">
         <v>8</v>
       </c>
-      <c r="AE10" s="16">
+      <c r="AF10" s="15">
         <v>200</v>
-      </c>
-      <c r="AF10" s="6">
-        <v>4</v>
       </c>
       <c r="AG10" s="6">
         <v>4</v>
       </c>
       <c r="AH10" s="6">
+        <v>4</v>
+      </c>
+      <c r="AI10" s="6">
         <v>8</v>
       </c>
-      <c r="AI10" s="6">
+      <c r="AJ10" s="6">
         <v>200</v>
       </c>
-      <c r="AJ10" s="16">
+      <c r="AK10" s="15">
         <v>4</v>
       </c>
-      <c r="AK10" s="16">
+      <c r="AL10" s="15">
         <v>4</v>
       </c>
-      <c r="AL10" s="16">
+      <c r="AM10" s="15">
         <v>8</v>
       </c>
-      <c r="AM10" s="16">
+      <c r="AN10" s="15">
         <v>200</v>
-      </c>
-      <c r="AN10" s="6">
-        <v>4</v>
       </c>
       <c r="AO10" s="6">
         <v>4</v>
       </c>
       <c r="AP10" s="6">
+        <v>4</v>
+      </c>
+      <c r="AQ10" s="6">
         <v>8</v>
       </c>
-      <c r="AQ10" s="6">
+      <c r="AR10" s="6">
         <v>200</v>
       </c>
-      <c r="AR10" s="16">
+      <c r="AS10" s="15">
         <v>4</v>
       </c>
-      <c r="AS10" s="16">
+      <c r="AT10" s="15">
         <v>4</v>
       </c>
-      <c r="AT10" s="16">
+      <c r="AU10" s="15">
         <v>8</v>
       </c>
-      <c r="AU10" s="16">
+      <c r="AV10" s="15">
         <v>200</v>
-      </c>
-      <c r="AV10" s="6">
-        <v>4</v>
       </c>
       <c r="AW10" s="6">
         <v>4</v>
       </c>
       <c r="AX10" s="6">
+        <v>4</v>
+      </c>
+      <c r="AY10" s="6">
         <v>8</v>
       </c>
-      <c r="AY10" s="6">
+      <c r="AZ10" s="6">
         <v>200</v>
       </c>
-      <c r="AZ10" s="16">
+      <c r="BA10" s="15">
         <v>4</v>
       </c>
-      <c r="BA10" s="16">
+      <c r="BB10" s="15">
         <v>4</v>
       </c>
-      <c r="BB10" s="16">
+      <c r="BC10" s="15">
         <v>8</v>
       </c>
-      <c r="BC10" s="16">
+      <c r="BD10" s="15">
         <v>200</v>
-      </c>
-      <c r="BD10" s="6">
-        <v>4</v>
       </c>
       <c r="BE10" s="6">
         <v>4</v>
       </c>
       <c r="BF10" s="6">
+        <v>4</v>
+      </c>
+      <c r="BG10" s="6">
         <v>8</v>
       </c>
-      <c r="BG10" s="22">
+      <c r="BH10" s="19">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7797</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>7730</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>7720</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>7732</v>
       </c>
-      <c r="D11" s="16">
+      <c r="E11" s="15">
         <v>20</v>
       </c>
-      <c r="E11" s="16">
+      <c r="F11" s="15">
         <v>4</v>
       </c>
-      <c r="F11" s="16">
+      <c r="G11" s="15">
         <v>46</v>
       </c>
-      <c r="G11" s="16">
+      <c r="H11" s="15">
         <v>900</v>
-      </c>
-      <c r="H11" s="6">
-        <v>4</v>
       </c>
       <c r="I11" s="6">
         <v>4</v>
       </c>
       <c r="J11" s="6">
+        <v>4</v>
+      </c>
+      <c r="K11" s="6">
         <v>8</v>
       </c>
-      <c r="K11" s="6">
+      <c r="L11" s="6">
         <v>200</v>
       </c>
-      <c r="L11" s="16">
+      <c r="M11" s="15">
         <v>4</v>
       </c>
-      <c r="M11" s="16">
+      <c r="N11" s="15">
         <v>4</v>
       </c>
-      <c r="N11" s="16">
+      <c r="O11" s="15">
         <v>8</v>
       </c>
-      <c r="O11" s="16">
+      <c r="P11" s="15">
         <v>200</v>
-      </c>
-      <c r="P11" s="6">
-        <v>4</v>
       </c>
       <c r="Q11" s="6">
         <v>4</v>
       </c>
       <c r="R11" s="6">
+        <v>4</v>
+      </c>
+      <c r="S11" s="6">
         <v>8</v>
       </c>
-      <c r="S11" s="6">
+      <c r="T11" s="6">
         <v>200</v>
       </c>
-      <c r="T11" s="16">
+      <c r="U11" s="15">
         <v>4</v>
       </c>
-      <c r="U11" s="16">
+      <c r="V11" s="15">
         <v>4</v>
       </c>
-      <c r="V11" s="16">
+      <c r="W11" s="15">
         <v>8</v>
       </c>
-      <c r="W11" s="16">
+      <c r="X11" s="15">
         <v>200</v>
-      </c>
-      <c r="X11" s="6">
-        <v>4</v>
       </c>
       <c r="Y11" s="6">
         <v>4</v>
       </c>
       <c r="Z11" s="6">
+        <v>4</v>
+      </c>
+      <c r="AA11" s="6">
         <v>8</v>
       </c>
-      <c r="AA11" s="6">
+      <c r="AB11" s="6">
         <v>200</v>
       </c>
-      <c r="AB11" s="16">
+      <c r="AC11" s="15">
         <v>4</v>
       </c>
-      <c r="AC11" s="16">
+      <c r="AD11" s="15">
         <v>4</v>
       </c>
-      <c r="AD11" s="16">
+      <c r="AE11" s="15">
         <v>8</v>
       </c>
-      <c r="AE11" s="16">
+      <c r="AF11" s="15">
         <v>200</v>
-      </c>
-      <c r="AF11" s="6">
-        <v>4</v>
       </c>
       <c r="AG11" s="6">
         <v>4</v>
       </c>
       <c r="AH11" s="6">
+        <v>4</v>
+      </c>
+      <c r="AI11" s="6">
         <v>8</v>
       </c>
-      <c r="AI11" s="6">
+      <c r="AJ11" s="6">
         <v>200</v>
       </c>
-      <c r="AJ11" s="16">
+      <c r="AK11" s="15">
         <v>4</v>
       </c>
-      <c r="AK11" s="16">
+      <c r="AL11" s="15">
         <v>4</v>
       </c>
-      <c r="AL11" s="16">
+      <c r="AM11" s="15">
         <v>8</v>
       </c>
-      <c r="AM11" s="16">
+      <c r="AN11" s="15">
         <v>200</v>
-      </c>
-      <c r="AN11" s="6">
-        <v>4</v>
       </c>
       <c r="AO11" s="6">
         <v>4</v>
       </c>
       <c r="AP11" s="6">
+        <v>4</v>
+      </c>
+      <c r="AQ11" s="6">
         <v>8</v>
       </c>
-      <c r="AQ11" s="6">
+      <c r="AR11" s="6">
         <v>200</v>
       </c>
-      <c r="AR11" s="16">
+      <c r="AS11" s="15">
         <v>4</v>
       </c>
-      <c r="AS11" s="16">
+      <c r="AT11" s="15">
         <v>4</v>
       </c>
-      <c r="AT11" s="16">
+      <c r="AU11" s="15">
         <v>8</v>
       </c>
-      <c r="AU11" s="16">
+      <c r="AV11" s="15">
         <v>200</v>
-      </c>
-      <c r="AV11" s="6">
-        <v>4</v>
       </c>
       <c r="AW11" s="6">
         <v>4</v>
       </c>
       <c r="AX11" s="6">
+        <v>4</v>
+      </c>
+      <c r="AY11" s="6">
         <v>8</v>
       </c>
-      <c r="AY11" s="6">
+      <c r="AZ11" s="6">
         <v>200</v>
       </c>
-      <c r="AZ11" s="16">
+      <c r="BA11" s="15">
         <v>4</v>
       </c>
-      <c r="BA11" s="16">
+      <c r="BB11" s="15">
         <v>4</v>
       </c>
-      <c r="BB11" s="16">
+      <c r="BC11" s="15">
         <v>8</v>
       </c>
-      <c r="BC11" s="16">
+      <c r="BD11" s="15">
         <v>200</v>
-      </c>
-      <c r="BD11" s="6">
-        <v>4</v>
       </c>
       <c r="BE11" s="6">
         <v>4</v>
       </c>
       <c r="BF11" s="6">
+        <v>4</v>
+      </c>
+      <c r="BG11" s="6">
         <v>8</v>
       </c>
-      <c r="BG11" s="22">
+      <c r="BH11" s="19">
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7797</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>7731</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="C12" s="27" t="s">
         <v>7720</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="D12" s="28" t="s">
         <v>7732</v>
       </c>
-      <c r="D12" s="16">
+      <c r="E12" s="15">
         <v>22</v>
       </c>
-      <c r="E12" s="16">
-        <v>2</v>
-      </c>
-      <c r="F12" s="16">
+      <c r="F12" s="15">
+        <v>2</v>
+      </c>
+      <c r="G12" s="15">
         <v>44</v>
       </c>
-      <c r="G12" s="16">
+      <c r="H12" s="15">
         <v>10000</v>
       </c>
-      <c r="H12" s="31">
+      <c r="I12" s="28">
         <v>4</v>
       </c>
-      <c r="I12" s="31">
+      <c r="J12" s="28">
         <v>4</v>
       </c>
-      <c r="J12" s="31">
+      <c r="K12" s="28">
         <v>8</v>
       </c>
-      <c r="K12" s="31">
+      <c r="L12" s="28">
         <v>200</v>
       </c>
-      <c r="L12" s="32">
+      <c r="M12" s="29">
         <v>4</v>
       </c>
-      <c r="M12" s="32">
+      <c r="N12" s="29">
         <v>4</v>
       </c>
-      <c r="N12" s="32">
+      <c r="O12" s="29">
         <v>8</v>
       </c>
-      <c r="O12" s="32">
+      <c r="P12" s="29">
         <v>200</v>
       </c>
-      <c r="P12" s="31">
+      <c r="Q12" s="28">
         <v>4</v>
       </c>
-      <c r="Q12" s="31">
+      <c r="R12" s="28">
         <v>4</v>
       </c>
-      <c r="R12" s="31">
+      <c r="S12" s="28">
         <v>8</v>
       </c>
-      <c r="S12" s="31">
+      <c r="T12" s="28">
         <v>200</v>
       </c>
-      <c r="T12" s="32">
+      <c r="U12" s="29">
         <v>4</v>
       </c>
-      <c r="U12" s="32">
+      <c r="V12" s="29">
         <v>4</v>
       </c>
-      <c r="V12" s="32">
+      <c r="W12" s="29">
         <v>8</v>
       </c>
-      <c r="W12" s="32">
+      <c r="X12" s="29">
         <v>200</v>
       </c>
-      <c r="X12" s="31">
+      <c r="Y12" s="28">
         <v>4</v>
       </c>
-      <c r="Y12" s="31">
+      <c r="Z12" s="28">
         <v>4</v>
       </c>
-      <c r="Z12" s="31">
+      <c r="AA12" s="28">
         <v>8</v>
       </c>
-      <c r="AA12" s="31">
+      <c r="AB12" s="28">
         <v>200</v>
       </c>
-      <c r="AB12" s="32">
+      <c r="AC12" s="29">
         <v>4</v>
       </c>
-      <c r="AC12" s="32">
+      <c r="AD12" s="29">
         <v>4</v>
       </c>
-      <c r="AD12" s="32">
+      <c r="AE12" s="29">
         <v>8</v>
       </c>
-      <c r="AE12" s="32">
+      <c r="AF12" s="29">
         <v>200</v>
       </c>
-      <c r="AF12" s="31">
+      <c r="AG12" s="28">
         <v>4</v>
       </c>
-      <c r="AG12" s="31">
+      <c r="AH12" s="28">
         <v>4</v>
       </c>
-      <c r="AH12" s="31">
+      <c r="AI12" s="28">
         <v>8</v>
       </c>
-      <c r="AI12" s="31">
+      <c r="AJ12" s="28">
         <v>200</v>
       </c>
-      <c r="AJ12" s="32">
+      <c r="AK12" s="29">
         <v>4</v>
       </c>
-      <c r="AK12" s="32">
+      <c r="AL12" s="29">
         <v>4</v>
       </c>
-      <c r="AL12" s="32">
+      <c r="AM12" s="29">
         <v>8</v>
       </c>
-      <c r="AM12" s="32">
+      <c r="AN12" s="29">
         <v>200</v>
       </c>
-      <c r="AN12" s="31">
+      <c r="AO12" s="28">
         <v>4</v>
       </c>
-      <c r="AO12" s="31">
+      <c r="AP12" s="28">
         <v>4</v>
       </c>
-      <c r="AP12" s="31">
+      <c r="AQ12" s="28">
         <v>8</v>
       </c>
-      <c r="AQ12" s="31">
+      <c r="AR12" s="28">
         <v>200</v>
       </c>
-      <c r="AR12" s="32">
+      <c r="AS12" s="29">
         <v>4</v>
       </c>
-      <c r="AS12" s="32">
+      <c r="AT12" s="29">
         <v>4</v>
       </c>
-      <c r="AT12" s="32">
+      <c r="AU12" s="29">
         <v>8</v>
       </c>
-      <c r="AU12" s="32">
+      <c r="AV12" s="29">
         <v>200</v>
       </c>
-      <c r="AV12" s="31">
+      <c r="AW12" s="28">
         <v>4</v>
       </c>
-      <c r="AW12" s="31">
+      <c r="AX12" s="28">
         <v>4</v>
       </c>
-      <c r="AX12" s="31">
+      <c r="AY12" s="28">
         <v>8</v>
       </c>
-      <c r="AY12" s="31">
+      <c r="AZ12" s="28">
         <v>200</v>
       </c>
-      <c r="AZ12" s="32">
+      <c r="BA12" s="29">
         <v>4</v>
       </c>
-      <c r="BA12" s="32">
+      <c r="BB12" s="29">
         <v>4</v>
       </c>
-      <c r="BB12" s="32">
+      <c r="BC12" s="29">
         <v>8</v>
       </c>
-      <c r="BC12" s="32">
+      <c r="BD12" s="29">
         <v>200</v>
       </c>
-      <c r="BD12" s="31">
+      <c r="BE12" s="28">
         <v>4</v>
       </c>
-      <c r="BE12" s="31">
+      <c r="BF12" s="28">
         <v>4</v>
       </c>
-      <c r="BF12" s="31">
+      <c r="BG12" s="28">
         <v>8</v>
       </c>
-      <c r="BG12" s="19">
+      <c r="BH12" s="16">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C12" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -61670,7 +61711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -61679,19 +61720,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="45.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="23.28515625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="45.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -61704,69 +61745,69 @@
       <c r="C1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>7762</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>7709</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>7710</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>7711</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>7712</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>7713</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="14" t="s">
         <v>7714</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="14" t="s">
         <v>7715</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="14" t="s">
         <v>7716</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="14" t="s">
         <v>7763</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="14" t="s">
         <v>7717</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="14" t="s">
         <v>7718</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="14" t="s">
         <v>7719</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
@@ -62039,29 +62080,29 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
-        <f>$A$8</f>
+        <f t="shared" ref="A9:A35" si="0">$A$8</f>
         <v>Storage and Backup Services</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -62115,7 +62156,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
-        <f>$A$8</f>
+        <f t="shared" si="0"/>
         <v>Storage and Backup Services</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -62169,7 +62210,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
-        <f>$A$8</f>
+        <f t="shared" si="0"/>
         <v>Storage and Backup Services</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -62223,7 +62264,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="str">
-        <f>$A$8</f>
+        <f t="shared" si="0"/>
         <v>Storage and Backup Services</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -62277,7 +62318,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="str">
-        <f>$A$8</f>
+        <f t="shared" si="0"/>
         <v>Storage and Backup Services</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -62331,7 +62372,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
-        <f>$A$8</f>
+        <f t="shared" si="0"/>
         <v>Storage and Backup Services</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -62385,7 +62426,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="str">
-        <f>$A$8</f>
+        <f t="shared" si="0"/>
         <v>Storage and Backup Services</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -62439,7 +62480,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="str">
-        <f>$A$8</f>
+        <f t="shared" si="0"/>
         <v>Storage and Backup Services</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -62493,7 +62534,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
-        <f>$A$8</f>
+        <f t="shared" si="0"/>
         <v>Storage and Backup Services</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -62547,7 +62588,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="str">
-        <f>$A$8</f>
+        <f t="shared" si="0"/>
         <v>Storage and Backup Services</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -62601,7 +62642,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="str">
-        <f>$A$8</f>
+        <f t="shared" si="0"/>
         <v>Storage and Backup Services</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -62655,7 +62696,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="str">
-        <f>$A$8</f>
+        <f t="shared" si="0"/>
         <v>Storage and Backup Services</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -62709,7 +62750,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="str">
-        <f>$A$8</f>
+        <f t="shared" si="0"/>
         <v>Storage and Backup Services</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -62763,7 +62804,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="str">
-        <f>$A$8</f>
+        <f t="shared" si="0"/>
         <v>Storage and Backup Services</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -62817,7 +62858,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="str">
-        <f>$A$8</f>
+        <f t="shared" si="0"/>
         <v>Storage and Backup Services</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -62871,7 +62912,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="str">
-        <f>$A$8</f>
+        <f t="shared" si="0"/>
         <v>Storage and Backup Services</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -62925,7 +62966,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="str">
-        <f>$A$8</f>
+        <f t="shared" si="0"/>
         <v>Storage and Backup Services</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -62979,7 +63020,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="str">
-        <f>$A$8</f>
+        <f t="shared" si="0"/>
         <v>Storage and Backup Services</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -63033,7 +63074,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="str">
-        <f>$A$8</f>
+        <f t="shared" si="0"/>
         <v>Storage and Backup Services</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -63087,7 +63128,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="str">
-        <f>$A$8</f>
+        <f t="shared" si="0"/>
         <v>Storage and Backup Services</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -63141,7 +63182,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="str">
-        <f>$A$8</f>
+        <f t="shared" si="0"/>
         <v>Storage and Backup Services</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -63195,7 +63236,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="str">
-        <f>$A$8</f>
+        <f t="shared" si="0"/>
         <v>Storage and Backup Services</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -63249,7 +63290,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="str">
-        <f>$A$8</f>
+        <f t="shared" si="0"/>
         <v>Storage and Backup Services</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -63303,7 +63344,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="str">
-        <f>$A$8</f>
+        <f t="shared" si="0"/>
         <v>Storage and Backup Services</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -63357,7 +63398,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="str">
-        <f>$A$8</f>
+        <f t="shared" si="0"/>
         <v>Storage and Backup Services</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -63411,7 +63452,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="str">
-        <f>$A$8</f>
+        <f t="shared" si="0"/>
         <v>Storage and Backup Services</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -63465,7 +63506,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="str">
-        <f>$A$8</f>
+        <f t="shared" si="0"/>
         <v>Storage and Backup Services</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -63518,25 +63559,25 @@
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="18"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="str">
@@ -63647,29 +63688,29 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="31" t="s">
         <v>266</v>
       </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="32"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="str">
-        <f>$A$39</f>
+        <f t="shared" ref="A40:A57" si="1">$A$39</f>
         <v>Security Solution</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -63723,7 +63764,7 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="str">
-        <f>$A$39</f>
+        <f t="shared" si="1"/>
         <v>Security Solution</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -63777,7 +63818,7 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="str">
-        <f>$A$39</f>
+        <f t="shared" si="1"/>
         <v>Security Solution</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -63831,7 +63872,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="str">
-        <f>$A$39</f>
+        <f t="shared" si="1"/>
         <v>Security Solution</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -63885,7 +63926,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="str">
-        <f>$A$39</f>
+        <f t="shared" si="1"/>
         <v>Security Solution</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -63939,7 +63980,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="str">
-        <f>$A$39</f>
+        <f t="shared" si="1"/>
         <v>Security Solution</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -63993,7 +64034,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="str">
-        <f>$A$39</f>
+        <f t="shared" si="1"/>
         <v>Security Solution</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -64047,7 +64088,7 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="str">
-        <f>$A$39</f>
+        <f t="shared" si="1"/>
         <v>Security Solution</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -64101,7 +64142,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="str">
-        <f>$A$39</f>
+        <f t="shared" si="1"/>
         <v>Security Solution</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -64155,7 +64196,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="str">
-        <f>$A$39</f>
+        <f t="shared" si="1"/>
         <v>Security Solution</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -64209,7 +64250,7 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="str">
-        <f>$A$39</f>
+        <f t="shared" si="1"/>
         <v>Security Solution</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -64263,7 +64304,7 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="str">
-        <f>$A$39</f>
+        <f t="shared" si="1"/>
         <v>Security Solution</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -64317,7 +64358,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="str">
-        <f>$A$39</f>
+        <f t="shared" si="1"/>
         <v>Security Solution</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -64371,7 +64412,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="str">
-        <f>$A$39</f>
+        <f t="shared" si="1"/>
         <v>Security Solution</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -64425,7 +64466,7 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="str">
-        <f>$A$39</f>
+        <f t="shared" si="1"/>
         <v>Security Solution</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -64479,7 +64520,7 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="str">
-        <f>$A$39</f>
+        <f t="shared" si="1"/>
         <v>Security Solution</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -64533,7 +64574,7 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="str">
-        <f>$A$39</f>
+        <f t="shared" si="1"/>
         <v>Security Solution</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -64587,7 +64628,7 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="str">
-        <f>$A$39</f>
+        <f t="shared" si="1"/>
         <v>Security Solution</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -64640,29 +64681,29 @@
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18"/>
-      <c r="L58" s="18"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="18"/>
-      <c r="O58" s="18"/>
-      <c r="P58" s="18"/>
-      <c r="Q58" s="18"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="32"/>
+      <c r="M58" s="32"/>
+      <c r="N58" s="32"/>
+      <c r="O58" s="32"/>
+      <c r="P58" s="32"/>
+      <c r="Q58" s="32"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="str">
-        <f>$A$58</f>
+        <f t="shared" ref="A59:A67" si="2">$A$58</f>
         <v>Managed Services</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -64716,7 +64757,7 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="str">
-        <f>$A$58</f>
+        <f t="shared" si="2"/>
         <v>Managed Services</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -64770,7 +64811,7 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="str">
-        <f>$A$58</f>
+        <f t="shared" si="2"/>
         <v>Managed Services</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -64824,7 +64865,7 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="str">
-        <f>$A$58</f>
+        <f t="shared" si="2"/>
         <v>Managed Services</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -64878,7 +64919,7 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="str">
-        <f>$A$58</f>
+        <f t="shared" si="2"/>
         <v>Managed Services</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -64932,7 +64973,7 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="str">
-        <f>$A$58</f>
+        <f t="shared" si="2"/>
         <v>Managed Services</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -64986,7 +65027,7 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="str">
-        <f>$A$58</f>
+        <f t="shared" si="2"/>
         <v>Managed Services</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -65040,7 +65081,7 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="str">
-        <f>$A$58</f>
+        <f t="shared" si="2"/>
         <v>Managed Services</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -65094,7 +65135,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="str">
-        <f>$A$58</f>
+        <f t="shared" si="2"/>
         <v>Managed Services</v>
       </c>
       <c r="B67" s="1" t="s">

--- a/template.xlsx
+++ b/template.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61E999F-D3F2-49EC-95FB-4EEB63D5CF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PhasesDetails" sheetId="5" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <definedName name="product_name">'[1]eNlight Instance'!#REF!+product_mater!$A:$A</definedName>
     <definedName name="product_names">product_mater!$A:$A</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="162913" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8120" uniqueCount="7798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8148" uniqueCount="7839">
   <si>
     <t>core_product_name</t>
   </si>
@@ -23231,9 +23230,6 @@
     <t>abc 11</t>
   </si>
   <si>
-    <t>Ms</t>
-  </si>
-  <si>
     <t>Phases</t>
   </si>
   <si>
@@ -23427,13 +23423,139 @@
   </si>
   <si>
     <t>BOM DC</t>
+  </si>
+  <si>
+    <t>OS 0-7 Months</t>
+  </si>
+  <si>
+    <t>DB 0-7 Months</t>
+  </si>
+  <si>
+    <t>OS 8-12 Months</t>
+  </si>
+  <si>
+    <t>OS 13-18 Months</t>
+  </si>
+  <si>
+    <t>OS 19-24 Months</t>
+  </si>
+  <si>
+    <t>OS 25-28 Months</t>
+  </si>
+  <si>
+    <t>OS 2nd Year</t>
+  </si>
+  <si>
+    <t>OS 3rd Year</t>
+  </si>
+  <si>
+    <t>OS 4th Year</t>
+  </si>
+  <si>
+    <t>OS 5th Years</t>
+  </si>
+  <si>
+    <t>OS 6 Years</t>
+  </si>
+  <si>
+    <t>OS 7th Years</t>
+  </si>
+  <si>
+    <t>OS 8th years</t>
+  </si>
+  <si>
+    <t>OS 9 Years</t>
+  </si>
+  <si>
+    <t>OS 10 Years</t>
+  </si>
+  <si>
+    <t>DB 8-12 Months</t>
+  </si>
+  <si>
+    <t>DB 13-18 Months</t>
+  </si>
+  <si>
+    <t>DB 19-24 Months</t>
+  </si>
+  <si>
+    <t>DB 25-28 Months</t>
+  </si>
+  <si>
+    <t>DB 2nd Year</t>
+  </si>
+  <si>
+    <t>DB 3rd Year</t>
+  </si>
+  <si>
+    <t>DB 4th Year</t>
+  </si>
+  <si>
+    <t>DB 5th Years</t>
+  </si>
+  <si>
+    <t>DB 6 Years</t>
+  </si>
+  <si>
+    <t>DB 7th Years</t>
+  </si>
+  <si>
+    <t>DB 8th years</t>
+  </si>
+  <si>
+    <t>DB 9 Years</t>
+  </si>
+  <si>
+    <t>DB 10 Years</t>
+  </si>
+  <si>
+    <t>MS SQL Enterprise Edition - Active VM</t>
+  </si>
+  <si>
+    <t>MS SQL Enterprise Edition - Passive VM</t>
+  </si>
+  <si>
+    <t>My SQL Community Edition</t>
+  </si>
+  <si>
+    <t>My SQL Enterprise Edition</t>
+  </si>
+  <si>
+    <t>Postgre SQL Community Edition</t>
+  </si>
+  <si>
+    <t>Postgre SQL Enterprise Edition</t>
+  </si>
+  <si>
+    <t>Oracle Standard Edition</t>
+  </si>
+  <si>
+    <t>Oracle Enterprise</t>
+  </si>
+  <si>
+    <t>Maria DB Community Edition</t>
+  </si>
+  <si>
+    <t>MongoDB Community Edition</t>
+  </si>
+  <si>
+    <t>SUSE</t>
+  </si>
+  <si>
+    <t>Oracle Linux</t>
+  </si>
+  <si>
+    <t>Debian</t>
+  </si>
+  <si>
+    <t>OEM Specific</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23474,8 +23596,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -23554,12 +23683,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -23600,21 +23783,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -23703,19 +23871,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -23732,7 +23887,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -23748,44 +23903,34 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -23794,1267 +23939,43 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="68">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -25177,7 +24098,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="eNlight Instance"/>
@@ -25192,90 +24113,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Phases" displayName="Phases" ref="A1:B15" totalsRowShown="0" headerRowDxfId="67" headerRowBorderDxfId="66" tableBorderDxfId="65" totalsRowBorderDxfId="64">
-  <autoFilter ref="A1:B15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Phases" displayName="Phases" ref="A1:B15" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+  <autoFilter ref="A1:B15"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Phases" dataDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tenure" dataDxfId="62"/>
+    <tableColumn id="1" name="Phases" dataDxfId="1"/>
+    <tableColumn id="2" name="Tenure" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A1:B3846" totalsRowShown="0">
-  <autoFilter ref="A1:B3846" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B3846" totalsRowShown="0">
+  <autoFilter ref="A1:B3846"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="core_product_name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="skucode"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="DC_Tbl" displayName="DC_Tbl" ref="B1:BH12" totalsRowShown="0" headerRowBorderDxfId="61" tableBorderDxfId="60" totalsRowBorderDxfId="59">
-  <autoFilter ref="B1:BH12" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="59">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="VM Name" dataDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="OS" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="DB" dataDxfId="56"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="VM 0-7 Months" dataDxfId="55"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Core 0-7 Months" dataDxfId="54"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="RAM 0-7 Months" dataDxfId="53"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="DISK 0-7 Months" dataDxfId="52"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="VM 8-12 Months" dataDxfId="51"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Core 8-12 Months" dataDxfId="50"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="RAM 8-12 Months" dataDxfId="49"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="DISK 8-12 Months" dataDxfId="48"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="VM 13-18 Months" dataDxfId="47"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="Core 13-18 Months" dataDxfId="46"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="RAM 13-18 Months" dataDxfId="45"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="DISK 13-18 Months" dataDxfId="44"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="VM 19-24 Months" dataDxfId="43"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="Core 19-24 Months" dataDxfId="42"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" name="RAM 19-24 Months" dataDxfId="41"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" name="DISK 19-24 Months" dataDxfId="40"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0200-000014000000}" name="VM 25-28 Months" dataDxfId="39"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0200-000015000000}" name="Core 25-28 Months" dataDxfId="38"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0200-000016000000}" name="RAM 25-28 Months" dataDxfId="37"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0200-000017000000}" name="DISK 25-28 Months" dataDxfId="36"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0200-000018000000}" name="VM 2nd Year" dataDxfId="35"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0200-000019000000}" name="Core 2nd Year" dataDxfId="34"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0200-00001A000000}" name="RAM 2nd Year" dataDxfId="33"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0200-00001B000000}" name="DISK 2nd Year" dataDxfId="32"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0200-00001C000000}" name="VM 3rd Year" dataDxfId="31"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0200-00001D000000}" name="Core 3rd Year" dataDxfId="30"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0200-00001E000000}" name="RAM 3rd Year" dataDxfId="29"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0200-00001F000000}" name="DISK 3rd Year" dataDxfId="28"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0200-000020000000}" name="VM 4th Year" dataDxfId="27"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0200-000021000000}" name="Core 4th Year" dataDxfId="26"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0200-000022000000}" name="RAM 4th Year" dataDxfId="25"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0200-000023000000}" name="DISK 4th Year" dataDxfId="24"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0200-000024000000}" name="VM 5th Years" dataDxfId="23"/>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0200-000025000000}" name="Core 5th Years" dataDxfId="22"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0200-000026000000}" name="RAM 5th Years" dataDxfId="21"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0200-000027000000}" name="DISK 5th Years" dataDxfId="20"/>
-    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0200-000028000000}" name="VM 6 Years" dataDxfId="19"/>
-    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0200-000029000000}" name="Core 6 Years" dataDxfId="18"/>
-    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0200-00002A000000}" name="RAM 6 Years" dataDxfId="17"/>
-    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0200-00002B000000}" name="DISK 6 Years" dataDxfId="16"/>
-    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0200-00002C000000}" name="VM 7th Years" dataDxfId="15"/>
-    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0200-00002D000000}" name="Core 7th Years" dataDxfId="14"/>
-    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0200-00002E000000}" name="RAM 7th Years" dataDxfId="13"/>
-    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0200-00002F000000}" name="DISK 7th Years" dataDxfId="12"/>
-    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0200-000030000000}" name="VM 8th years" dataDxfId="11"/>
-    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0200-000031000000}" name="Core 8th years" dataDxfId="10"/>
-    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0200-000032000000}" name="RAM 8th years" dataDxfId="9"/>
-    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0200-000033000000}" name="DISK 8th years" dataDxfId="8"/>
-    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0200-000034000000}" name="VM 9 Years" dataDxfId="7"/>
-    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0200-000035000000}" name="Core 9 Years" dataDxfId="6"/>
-    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0200-000036000000}" name="RAM 9 Years" dataDxfId="5"/>
-    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0200-000037000000}" name="DISK 9 Years" dataDxfId="4"/>
-    <tableColumn id="56" xr3:uid="{00000000-0010-0000-0200-000038000000}" name="VM 10 Years" dataDxfId="3"/>
-    <tableColumn id="57" xr3:uid="{00000000-0010-0000-0200-000039000000}" name="Core 10 Years" dataDxfId="2"/>
-    <tableColumn id="58" xr3:uid="{00000000-0010-0000-0200-00003A000000}" name="RAM 10 Years" dataDxfId="1"/>
-    <tableColumn id="59" xr3:uid="{00000000-0010-0000-0200-00003B000000}" name="DISK 10 Years" dataDxfId="0"/>
+    <tableColumn id="1" name="core_product_name"/>
+    <tableColumn id="2" name="skucode"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -25543,11 +24396,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25557,122 +24410,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
+        <v>7732</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>7733</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>7734</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
+        <v>7761</v>
+      </c>
+      <c r="B2" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>7709</v>
+      </c>
+      <c r="B3" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>7710</v>
+      </c>
+      <c r="B4" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>7711</v>
+      </c>
+      <c r="B5" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>7712</v>
+      </c>
+      <c r="B6" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>7713</v>
+      </c>
+      <c r="B7" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>7714</v>
+      </c>
+      <c r="B9" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>7715</v>
+      </c>
+      <c r="B10" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>7716</v>
+      </c>
+      <c r="B11" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>7762</v>
       </c>
-      <c r="B2" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>7709</v>
-      </c>
-      <c r="B3" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>7710</v>
-      </c>
-      <c r="B4" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>7711</v>
-      </c>
-      <c r="B5" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>7712</v>
-      </c>
-      <c r="B6" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>7713</v>
-      </c>
-      <c r="B7" s="9">
+      <c r="B12" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" s="9">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>7717</v>
+      </c>
+      <c r="B13" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>7714</v>
-      </c>
-      <c r="B9" s="9">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>7718</v>
+      </c>
+      <c r="B14" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>7715</v>
-      </c>
-      <c r="B10" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>7716</v>
-      </c>
-      <c r="B11" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>7763</v>
-      </c>
-      <c r="B12" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>7717</v>
-      </c>
-      <c r="B13" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>7718</v>
-      </c>
-      <c r="B14" s="9">
-        <v>12</v>
-      </c>
-    </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>7719</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="13">
         <v>12</v>
       </c>
     </row>
@@ -25686,11 +24539,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3846"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26201,21 +25054,21 @@
       <c r="B58" t="s">
         <v>127</v>
       </c>
-      <c r="G58" s="31" t="s">
+      <c r="G58" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="H58" s="32"/>
-      <c r="I58" s="32"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="32"/>
-      <c r="M58" s="32"/>
-      <c r="N58" s="32"/>
-      <c r="O58" s="32"/>
-      <c r="P58" s="32"/>
-      <c r="Q58" s="32"/>
-      <c r="R58" s="32"/>
-      <c r="S58" s="32"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="24"/>
+      <c r="O58" s="24"/>
+      <c r="P58" s="24"/>
+      <c r="Q58" s="24"/>
+      <c r="R58" s="24"/>
+      <c r="S58" s="24"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
@@ -26459,21 +25312,21 @@
       <c r="B64" t="s">
         <v>146</v>
       </c>
-      <c r="G64" s="31" t="s">
+      <c r="G64" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="H64" s="32"/>
-      <c r="I64" s="32"/>
-      <c r="J64" s="32"/>
-      <c r="K64" s="32"/>
-      <c r="L64" s="32"/>
-      <c r="M64" s="32"/>
-      <c r="N64" s="32"/>
-      <c r="O64" s="32"/>
-      <c r="P64" s="32"/>
-      <c r="Q64" s="32"/>
-      <c r="R64" s="32"/>
-      <c r="S64" s="32"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="24"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="24"/>
+      <c r="M64" s="24"/>
+      <c r="N64" s="24"/>
+      <c r="O64" s="24"/>
+      <c r="P64" s="24"/>
+      <c r="Q64" s="24"/>
+      <c r="R64" s="24"/>
+      <c r="S64" s="24"/>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -27892,21 +26745,21 @@
       <c r="B95" t="s">
         <v>243</v>
       </c>
-      <c r="G95" s="31" t="s">
+      <c r="G95" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="H95" s="32"/>
-      <c r="I95" s="32"/>
-      <c r="J95" s="32"/>
-      <c r="K95" s="32"/>
-      <c r="L95" s="32"/>
-      <c r="M95" s="32"/>
-      <c r="N95" s="32"/>
-      <c r="O95" s="32"/>
-      <c r="P95" s="32"/>
-      <c r="Q95" s="32"/>
-      <c r="R95" s="32"/>
-      <c r="S95" s="32"/>
+      <c r="H95" s="24"/>
+      <c r="I95" s="24"/>
+      <c r="J95" s="24"/>
+      <c r="K95" s="24"/>
+      <c r="L95" s="24"/>
+      <c r="M95" s="24"/>
+      <c r="N95" s="24"/>
+      <c r="O95" s="24"/>
+      <c r="P95" s="24"/>
+      <c r="Q95" s="24"/>
+      <c r="R95" s="24"/>
+      <c r="S95" s="24"/>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
@@ -28197,21 +27050,21 @@
       <c r="B102" t="s">
         <v>265</v>
       </c>
-      <c r="G102" s="31" t="s">
+      <c r="G102" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="H102" s="32"/>
-      <c r="I102" s="32"/>
-      <c r="J102" s="32"/>
-      <c r="K102" s="32"/>
-      <c r="L102" s="32"/>
-      <c r="M102" s="32"/>
-      <c r="N102" s="32"/>
-      <c r="O102" s="32"/>
-      <c r="P102" s="32"/>
-      <c r="Q102" s="32"/>
-      <c r="R102" s="32"/>
-      <c r="S102" s="32"/>
+      <c r="H102" s="24"/>
+      <c r="I102" s="24"/>
+      <c r="J102" s="24"/>
+      <c r="K102" s="24"/>
+      <c r="L102" s="24"/>
+      <c r="M102" s="24"/>
+      <c r="N102" s="24"/>
+      <c r="O102" s="24"/>
+      <c r="P102" s="24"/>
+      <c r="Q102" s="24"/>
+      <c r="R102" s="24"/>
+      <c r="S102" s="24"/>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
@@ -29066,21 +27919,21 @@
       <c r="B121" t="s">
         <v>322</v>
       </c>
-      <c r="G121" s="31" t="s">
+      <c r="G121" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="H121" s="32"/>
-      <c r="I121" s="32"/>
-      <c r="J121" s="32"/>
-      <c r="K121" s="32"/>
-      <c r="L121" s="32"/>
-      <c r="M121" s="32"/>
-      <c r="N121" s="32"/>
-      <c r="O121" s="32"/>
-      <c r="P121" s="32"/>
-      <c r="Q121" s="32"/>
-      <c r="R121" s="32"/>
-      <c r="S121" s="32"/>
+      <c r="H121" s="24"/>
+      <c r="I121" s="24"/>
+      <c r="J121" s="24"/>
+      <c r="K121" s="24"/>
+      <c r="L121" s="24"/>
+      <c r="M121" s="24"/>
+      <c r="N121" s="24"/>
+      <c r="O121" s="24"/>
+      <c r="P121" s="24"/>
+      <c r="Q121" s="24"/>
+      <c r="R121" s="24"/>
+      <c r="S121" s="24"/>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
@@ -59445,2294 +58298,3630 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BH12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CJ12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" customWidth="1"/>
-    <col min="15" max="15" width="20.28515625" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" customWidth="1"/>
-    <col min="17" max="17" width="19.140625" customWidth="1"/>
-    <col min="18" max="18" width="19.7109375" customWidth="1"/>
-    <col min="19" max="19" width="20.28515625" customWidth="1"/>
-    <col min="20" max="20" width="19.5703125" customWidth="1"/>
-    <col min="21" max="21" width="19.140625" customWidth="1"/>
-    <col min="22" max="22" width="19.7109375" customWidth="1"/>
-    <col min="23" max="23" width="20.28515625" customWidth="1"/>
-    <col min="24" max="24" width="19.5703125" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" customWidth="1"/>
-    <col min="26" max="26" width="15.42578125" customWidth="1"/>
-    <col min="27" max="27" width="16" customWidth="1"/>
-    <col min="28" max="28" width="15.28515625" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" customWidth="1"/>
-    <col min="30" max="30" width="15" customWidth="1"/>
-    <col min="31" max="31" width="15.5703125" customWidth="1"/>
-    <col min="32" max="32" width="14.85546875" customWidth="1"/>
-    <col min="33" max="33" width="14.42578125" customWidth="1"/>
-    <col min="34" max="34" width="15" customWidth="1"/>
-    <col min="35" max="35" width="15.5703125" customWidth="1"/>
-    <col min="36" max="36" width="14.85546875" customWidth="1"/>
-    <col min="37" max="37" width="15.28515625" customWidth="1"/>
-    <col min="38" max="38" width="15.85546875" customWidth="1"/>
-    <col min="39" max="39" width="16.42578125" customWidth="1"/>
-    <col min="40" max="40" width="15.7109375" customWidth="1"/>
-    <col min="41" max="41" width="13.42578125" customWidth="1"/>
-    <col min="42" max="42" width="14" customWidth="1"/>
-    <col min="43" max="43" width="14.5703125" customWidth="1"/>
-    <col min="44" max="44" width="13.85546875" customWidth="1"/>
-    <col min="45" max="45" width="15.7109375" customWidth="1"/>
-    <col min="46" max="46" width="16.28515625" customWidth="1"/>
-    <col min="47" max="47" width="16.85546875" customWidth="1"/>
-    <col min="48" max="48" width="16.140625" customWidth="1"/>
-    <col min="49" max="49" width="15.140625" customWidth="1"/>
-    <col min="50" max="50" width="15.7109375" customWidth="1"/>
-    <col min="51" max="51" width="16.28515625" customWidth="1"/>
-    <col min="52" max="52" width="15.5703125" customWidth="1"/>
-    <col min="53" max="53" width="13.42578125" customWidth="1"/>
-    <col min="54" max="54" width="14" customWidth="1"/>
-    <col min="55" max="55" width="14.5703125" customWidth="1"/>
-    <col min="56" max="56" width="13.85546875" customWidth="1"/>
-    <col min="57" max="57" width="14.42578125" customWidth="1"/>
-    <col min="58" max="58" width="15" customWidth="1"/>
-    <col min="59" max="59" width="15.5703125" customWidth="1"/>
-    <col min="60" max="60" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.28515625" customWidth="1"/>
+    <col min="26" max="26" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.7109375" customWidth="1"/>
+    <col min="31" max="31" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="12" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="66" max="67" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="15" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="12" bestFit="1" customWidth="1"/>
+    <col min="78" max="79" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="12" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="84" max="85" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:88" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>7795</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>7758</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>7759</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>7760</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>7787</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>7788</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>7789</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>7790</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>7797</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>7798</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>7765</v>
+      </c>
+      <c r="L1" s="39" t="s">
+        <v>7734</v>
+      </c>
+      <c r="M1" s="34" t="s">
+        <v>7766</v>
+      </c>
+      <c r="N1" s="38" t="s">
+        <v>7735</v>
+      </c>
+      <c r="O1" s="35" t="s">
+        <v>7799</v>
+      </c>
+      <c r="P1" s="37" t="s">
+        <v>7812</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>7767</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>7736</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>7768</v>
+      </c>
+      <c r="T1" s="21" t="s">
+        <v>7737</v>
+      </c>
+      <c r="U1" s="21" t="s">
+        <v>7800</v>
+      </c>
+      <c r="V1" s="33" t="s">
+        <v>7813</v>
+      </c>
+      <c r="W1" s="36" t="s">
+        <v>7769</v>
+      </c>
+      <c r="X1" s="39" t="s">
+        <v>7738</v>
+      </c>
+      <c r="Y1" s="34" t="s">
+        <v>7770</v>
+      </c>
+      <c r="Z1" s="38" t="s">
+        <v>7739</v>
+      </c>
+      <c r="AA1" s="35" t="s">
+        <v>7801</v>
+      </c>
+      <c r="AB1" s="37" t="s">
+        <v>7814</v>
+      </c>
+      <c r="AC1" s="18" t="s">
+        <v>7771</v>
+      </c>
+      <c r="AD1" s="19" t="s">
+        <v>7740</v>
+      </c>
+      <c r="AE1" s="20" t="s">
+        <v>7772</v>
+      </c>
+      <c r="AF1" s="21" t="s">
+        <v>7741</v>
+      </c>
+      <c r="AG1" s="21" t="s">
+        <v>7802</v>
+      </c>
+      <c r="AH1" s="33" t="s">
+        <v>7815</v>
+      </c>
+      <c r="AI1" s="36" t="s">
+        <v>7773</v>
+      </c>
+      <c r="AJ1" s="39" t="s">
+        <v>7742</v>
+      </c>
+      <c r="AK1" s="34" t="s">
+        <v>7774</v>
+      </c>
+      <c r="AL1" s="38" t="s">
+        <v>7743</v>
+      </c>
+      <c r="AM1" s="35" t="s">
+        <v>7803</v>
+      </c>
+      <c r="AN1" s="37" t="s">
+        <v>7816</v>
+      </c>
+      <c r="AO1" s="18" t="s">
+        <v>7775</v>
+      </c>
+      <c r="AP1" s="19" t="s">
+        <v>7744</v>
+      </c>
+      <c r="AQ1" s="20" t="s">
+        <v>7776</v>
+      </c>
+      <c r="AR1" s="21" t="s">
+        <v>7745</v>
+      </c>
+      <c r="AS1" s="21" t="s">
+        <v>7804</v>
+      </c>
+      <c r="AT1" s="33" t="s">
+        <v>7817</v>
+      </c>
+      <c r="AU1" s="36" t="s">
+        <v>7764</v>
+      </c>
+      <c r="AV1" s="39" t="s">
+        <v>7746</v>
+      </c>
+      <c r="AW1" s="34" t="s">
+        <v>7777</v>
+      </c>
+      <c r="AX1" s="38" t="s">
+        <v>7747</v>
+      </c>
+      <c r="AY1" s="35" t="s">
+        <v>7805</v>
+      </c>
+      <c r="AZ1" s="37" t="s">
+        <v>7818</v>
+      </c>
+      <c r="BA1" s="18" t="s">
+        <v>7763</v>
+      </c>
+      <c r="BB1" s="19" t="s">
+        <v>7748</v>
+      </c>
+      <c r="BC1" s="20" t="s">
+        <v>7778</v>
+      </c>
+      <c r="BD1" s="21" t="s">
+        <v>7749</v>
+      </c>
+      <c r="BE1" s="21" t="s">
+        <v>7806</v>
+      </c>
+      <c r="BF1" s="33" t="s">
+        <v>7819</v>
+      </c>
+      <c r="BG1" s="36" t="s">
+        <v>7779</v>
+      </c>
+      <c r="BH1" s="39" t="s">
+        <v>7750</v>
+      </c>
+      <c r="BI1" s="34" t="s">
+        <v>7780</v>
+      </c>
+      <c r="BJ1" s="38" t="s">
+        <v>7751</v>
+      </c>
+      <c r="BK1" s="35" t="s">
+        <v>7807</v>
+      </c>
+      <c r="BL1" s="37" t="s">
+        <v>7820</v>
+      </c>
+      <c r="BM1" s="18" t="s">
+        <v>7791</v>
+      </c>
+      <c r="BN1" s="19" t="s">
+        <v>7792</v>
+      </c>
+      <c r="BO1" s="20" t="s">
+        <v>7793</v>
+      </c>
+      <c r="BP1" s="21" t="s">
+        <v>7794</v>
+      </c>
+      <c r="BQ1" s="21" t="s">
+        <v>7808</v>
+      </c>
+      <c r="BR1" s="33" t="s">
+        <v>7821</v>
+      </c>
+      <c r="BS1" s="36" t="s">
+        <v>7781</v>
+      </c>
+      <c r="BT1" s="39" t="s">
+        <v>7752</v>
+      </c>
+      <c r="BU1" s="34" t="s">
+        <v>7782</v>
+      </c>
+      <c r="BV1" s="38" t="s">
+        <v>7753</v>
+      </c>
+      <c r="BW1" s="35" t="s">
+        <v>7809</v>
+      </c>
+      <c r="BX1" s="37" t="s">
+        <v>7822</v>
+      </c>
+      <c r="BY1" s="18" t="s">
+        <v>7783</v>
+      </c>
+      <c r="BZ1" s="19" t="s">
+        <v>7754</v>
+      </c>
+      <c r="CA1" s="20" t="s">
+        <v>7784</v>
+      </c>
+      <c r="CB1" s="21" t="s">
+        <v>7755</v>
+      </c>
+      <c r="CC1" s="21" t="s">
+        <v>7810</v>
+      </c>
+      <c r="CD1" s="33" t="s">
+        <v>7823</v>
+      </c>
+      <c r="CE1" s="36" t="s">
+        <v>7785</v>
+      </c>
+      <c r="CF1" s="39" t="s">
+        <v>7756</v>
+      </c>
+      <c r="CG1" s="34" t="s">
+        <v>7786</v>
+      </c>
+      <c r="CH1" s="38" t="s">
+        <v>7757</v>
+      </c>
+      <c r="CI1" s="35" t="s">
+        <v>7811</v>
+      </c>
+      <c r="CJ1" s="37" t="s">
+        <v>7824</v>
+      </c>
+    </row>
+    <row r="2" spans="1:88" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
         <v>7796</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>7759</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>7760</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>7761</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>7788</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>7789</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>7790</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>7791</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>7766</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>7735</v>
-      </c>
-      <c r="K1" s="24" t="s">
-        <v>7767</v>
-      </c>
-      <c r="L1" s="25" t="s">
-        <v>7736</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>7768</v>
-      </c>
-      <c r="N1" s="23" t="s">
-        <v>7737</v>
-      </c>
-      <c r="O1" s="24" t="s">
-        <v>7769</v>
-      </c>
-      <c r="P1" s="25" t="s">
-        <v>7738</v>
-      </c>
-      <c r="Q1" s="22" t="s">
-        <v>7770</v>
-      </c>
-      <c r="R1" s="23" t="s">
-        <v>7739</v>
-      </c>
-      <c r="S1" s="24" t="s">
-        <v>7771</v>
-      </c>
-      <c r="T1" s="25" t="s">
-        <v>7740</v>
-      </c>
-      <c r="U1" s="22" t="s">
-        <v>7772</v>
-      </c>
-      <c r="V1" s="23" t="s">
-        <v>7741</v>
-      </c>
-      <c r="W1" s="24" t="s">
-        <v>7773</v>
-      </c>
-      <c r="X1" s="25" t="s">
-        <v>7742</v>
-      </c>
-      <c r="Y1" s="22" t="s">
-        <v>7774</v>
-      </c>
-      <c r="Z1" s="23" t="s">
-        <v>7743</v>
-      </c>
-      <c r="AA1" s="24" t="s">
-        <v>7775</v>
-      </c>
-      <c r="AB1" s="25" t="s">
-        <v>7744</v>
-      </c>
-      <c r="AC1" s="22" t="s">
-        <v>7776</v>
-      </c>
-      <c r="AD1" s="23" t="s">
-        <v>7745</v>
-      </c>
-      <c r="AE1" s="24" t="s">
-        <v>7777</v>
-      </c>
-      <c r="AF1" s="25" t="s">
-        <v>7746</v>
-      </c>
-      <c r="AG1" s="22" t="s">
-        <v>7765</v>
-      </c>
-      <c r="AH1" s="23" t="s">
-        <v>7747</v>
-      </c>
-      <c r="AI1" s="24" t="s">
-        <v>7778</v>
-      </c>
-      <c r="AJ1" s="25" t="s">
-        <v>7748</v>
-      </c>
-      <c r="AK1" s="22" t="s">
-        <v>7764</v>
-      </c>
-      <c r="AL1" s="23" t="s">
-        <v>7749</v>
-      </c>
-      <c r="AM1" s="24" t="s">
-        <v>7779</v>
-      </c>
-      <c r="AN1" s="25" t="s">
-        <v>7750</v>
-      </c>
-      <c r="AO1" s="22" t="s">
-        <v>7780</v>
-      </c>
-      <c r="AP1" s="23" t="s">
-        <v>7751</v>
-      </c>
-      <c r="AQ1" s="24" t="s">
-        <v>7781</v>
-      </c>
-      <c r="AR1" s="25" t="s">
-        <v>7752</v>
-      </c>
-      <c r="AS1" s="22" t="s">
-        <v>7792</v>
-      </c>
-      <c r="AT1" s="23" t="s">
-        <v>7793</v>
-      </c>
-      <c r="AU1" s="24" t="s">
-        <v>7794</v>
-      </c>
-      <c r="AV1" s="25" t="s">
-        <v>7795</v>
-      </c>
-      <c r="AW1" s="22" t="s">
-        <v>7782</v>
-      </c>
-      <c r="AX1" s="23" t="s">
-        <v>7753</v>
-      </c>
-      <c r="AY1" s="24" t="s">
-        <v>7783</v>
-      </c>
-      <c r="AZ1" s="25" t="s">
-        <v>7754</v>
-      </c>
-      <c r="BA1" s="22" t="s">
-        <v>7784</v>
-      </c>
-      <c r="BB1" s="23" t="s">
-        <v>7755</v>
-      </c>
-      <c r="BC1" s="24" t="s">
-        <v>7785</v>
-      </c>
-      <c r="BD1" s="25" t="s">
-        <v>7756</v>
-      </c>
-      <c r="BE1" s="22" t="s">
-        <v>7786</v>
-      </c>
-      <c r="BF1" s="23" t="s">
-        <v>7757</v>
-      </c>
-      <c r="BG1" s="24" t="s">
-        <v>7787</v>
-      </c>
-      <c r="BH1" s="26" t="s">
-        <v>7758</v>
-      </c>
-    </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7797</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="15" t="s">
         <v>7721</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="15" t="s">
         <v>7720</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>7732</v>
-      </c>
-      <c r="E2" s="15">
-        <v>2</v>
-      </c>
-      <c r="F2" s="15">
+        <v>7825</v>
+      </c>
+      <c r="E2" s="27">
+        <v>2</v>
+      </c>
+      <c r="F2" s="27">
         <v>22</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="27">
         <v>64</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="27">
         <v>1600</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="28">
+        <f>IF($C2="win",F2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
+        <v>11</v>
+      </c>
+      <c r="J2" s="29">
+        <f>IF($D2="MS SQL Standard Edition - Active VM",F2/2,IF($D2="MS SQL Enterprise Edition - Active VM",F2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",F2,IF($D2="Postgre SQL Enterprise Edition",F2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",F2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>11</v>
+      </c>
+      <c r="K2" s="30">
         <v>4</v>
       </c>
-      <c r="J2" s="6">
+      <c r="L2" s="30">
         <v>4</v>
       </c>
-      <c r="K2" s="6">
+      <c r="M2" s="30">
         <v>8</v>
       </c>
-      <c r="L2" s="6">
+      <c r="N2" s="30">
         <v>200</v>
       </c>
-      <c r="M2" s="15">
+      <c r="O2" s="31">
+        <f>IF($C2="win",L2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="P2" s="32">
+        <f>IF($D2="MS SQL Standard Edition - Active VM",L2/2,IF($D2="MS SQL Enterprise Edition - Active VM",L2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",L2,IF($D2="Postgre SQL Enterprise Edition",L2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",L2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="Q2" s="27">
         <v>4</v>
       </c>
-      <c r="N2" s="15">
+      <c r="R2" s="27">
         <v>4</v>
       </c>
-      <c r="O2" s="15">
+      <c r="S2" s="27">
         <v>8</v>
       </c>
-      <c r="P2" s="15">
+      <c r="T2" s="27">
         <v>200</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="U2" s="28">
+        <f>IF($C2="win",R2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="V2" s="29">
+        <f>IF($D2="MS SQL Standard Edition - Active VM",R2/2,IF($D2="MS SQL Enterprise Edition - Active VM",R2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",R2,IF($D2="Postgre SQL Enterprise Edition",R2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",R2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="W2" s="30">
         <v>4</v>
       </c>
-      <c r="R2" s="6">
+      <c r="X2" s="30">
         <v>4</v>
       </c>
-      <c r="S2" s="6">
+      <c r="Y2" s="30">
         <v>8</v>
       </c>
-      <c r="T2" s="6">
+      <c r="Z2" s="30">
         <v>200</v>
       </c>
-      <c r="U2" s="15">
+      <c r="AA2" s="31">
+        <f>IF($C2="win",X2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AB2" s="32">
+        <f>IF($D2="MS SQL Standard Edition - Active VM",X2/2,IF($D2="MS SQL Enterprise Edition - Active VM",X2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",X2,IF($D2="Postgre SQL Enterprise Edition",X2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",X2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AC2" s="27">
         <v>4</v>
       </c>
-      <c r="V2" s="15">
+      <c r="AD2" s="27">
         <v>4</v>
       </c>
-      <c r="W2" s="15">
+      <c r="AE2" s="27">
         <v>8</v>
       </c>
-      <c r="X2" s="15">
+      <c r="AF2" s="27">
         <v>200</v>
       </c>
-      <c r="Y2" s="6">
+      <c r="AG2" s="28">
+        <f>IF($C2="win",AD2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AH2" s="29">
+        <f>IF($D2="MS SQL Standard Edition - Active VM",AD2/2,IF($D2="MS SQL Enterprise Edition - Active VM",AD2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",AD2,IF($D2="Postgre SQL Enterprise Edition",AD2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",AD2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AI2" s="30">
         <v>4</v>
       </c>
-      <c r="Z2" s="6">
+      <c r="AJ2" s="30">
         <v>4</v>
       </c>
-      <c r="AA2" s="6">
+      <c r="AK2" s="30">
         <v>8</v>
       </c>
-      <c r="AB2" s="6">
+      <c r="AL2" s="30">
         <v>200</v>
       </c>
-      <c r="AC2" s="15">
+      <c r="AM2" s="31">
+        <f>IF($C2="win",AJ2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AN2" s="32">
+        <f>IF($D2="MS SQL Standard Edition - Active VM",AJ2/2,IF($D2="MS SQL Enterprise Edition - Active VM",AJ2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",AJ2,IF($D2="Postgre SQL Enterprise Edition",AJ2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",AJ2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AO2" s="27">
         <v>4</v>
       </c>
-      <c r="AD2" s="15">
+      <c r="AP2" s="27">
         <v>4</v>
       </c>
-      <c r="AE2" s="15">
+      <c r="AQ2" s="27">
         <v>8</v>
       </c>
-      <c r="AF2" s="15">
+      <c r="AR2" s="27">
         <v>200</v>
       </c>
-      <c r="AG2" s="6">
+      <c r="AS2" s="28">
+        <f>IF($C2="win",AP2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AT2" s="29">
+        <f>IF($D2="MS SQL Standard Edition - Active VM",AP2/2,IF($D2="MS SQL Enterprise Edition - Active VM",AP2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",AP2,IF($D2="Postgre SQL Enterprise Edition",AP2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",AP2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AU2" s="30">
         <v>4</v>
       </c>
-      <c r="AH2" s="6">
+      <c r="AV2" s="30">
         <v>4</v>
       </c>
-      <c r="AI2" s="6">
+      <c r="AW2" s="30">
         <v>8</v>
       </c>
-      <c r="AJ2" s="6">
+      <c r="AX2" s="30">
         <v>200</v>
       </c>
-      <c r="AK2" s="15">
+      <c r="AY2" s="31">
+        <f>IF($C2="win",AV2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AZ2" s="32">
+        <f>IF($D2="MS SQL Standard Edition - Active VM",AV2/2,IF($D2="MS SQL Enterprise Edition - Active VM",AV2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",AV2,IF($D2="Postgre SQL Enterprise Edition",AV2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",AV2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="BA2" s="27">
         <v>4</v>
       </c>
-      <c r="AL2" s="15">
+      <c r="BB2" s="27">
         <v>4</v>
       </c>
-      <c r="AM2" s="15">
+      <c r="BC2" s="27">
         <v>8</v>
       </c>
-      <c r="AN2" s="15">
+      <c r="BD2" s="27">
         <v>200</v>
       </c>
-      <c r="AO2" s="6">
+      <c r="BE2" s="28">
+        <f>IF($C2="win",BB2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="BF2" s="29">
+        <f>IF($D2="MS SQL Standard Edition - Active VM",BB2/2,IF($D2="MS SQL Enterprise Edition - Active VM",BB2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",BB2,IF($D2="Postgre SQL Enterprise Edition",BB2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",BB2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="BG2" s="30">
         <v>4</v>
       </c>
-      <c r="AP2" s="6">
+      <c r="BH2" s="30">
         <v>4</v>
       </c>
-      <c r="AQ2" s="6">
+      <c r="BI2" s="30">
         <v>8</v>
       </c>
-      <c r="AR2" s="6">
+      <c r="BJ2" s="30">
         <v>200</v>
       </c>
-      <c r="AS2" s="15">
+      <c r="BK2" s="31">
+        <f>IF($C2="win",BH2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="BL2" s="32">
+        <f>IF($D2="MS SQL Standard Edition - Active VM",BH2/2,IF($D2="MS SQL Enterprise Edition - Active VM",BH2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",BH2,IF($D2="Postgre SQL Enterprise Edition",BH2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",BH2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="BM2" s="27">
         <v>4</v>
       </c>
-      <c r="AT2" s="15">
+      <c r="BN2" s="27">
         <v>4</v>
       </c>
-      <c r="AU2" s="15">
+      <c r="BO2" s="27">
         <v>8</v>
       </c>
-      <c r="AV2" s="15">
+      <c r="BP2" s="27">
         <v>200</v>
       </c>
-      <c r="AW2" s="6">
+      <c r="BQ2" s="28">
+        <f>IF($C2="win",BN2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="BR2" s="29">
+        <f>IF($D2="MS SQL Standard Edition - Active VM",BN2/2,IF($D2="MS SQL Enterprise Edition - Active VM",BN2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",BN2,IF($D2="Postgre SQL Enterprise Edition",BN2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",BN2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="BS2" s="30">
         <v>4</v>
       </c>
-      <c r="AX2" s="6">
+      <c r="BT2" s="30">
         <v>4</v>
       </c>
-      <c r="AY2" s="6">
+      <c r="BU2" s="30">
         <v>8</v>
       </c>
-      <c r="AZ2" s="6">
+      <c r="BV2" s="30">
         <v>200</v>
       </c>
-      <c r="BA2" s="15">
+      <c r="BW2" s="31">
+        <f>IF($C2="win",BT2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="BX2" s="32">
+        <f>IF($D2="MS SQL Standard Edition - Active VM",BT2/2,IF($D2="MS SQL Enterprise Edition - Active VM",BT2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",BT2,IF($D2="Postgre SQL Enterprise Edition",BT2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",BT2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="BY2" s="27">
         <v>4</v>
       </c>
-      <c r="BB2" s="15">
+      <c r="BZ2" s="27">
         <v>4</v>
       </c>
-      <c r="BC2" s="15">
+      <c r="CA2" s="27">
         <v>8</v>
       </c>
-      <c r="BD2" s="15">
+      <c r="CB2" s="27">
         <v>200</v>
       </c>
-      <c r="BE2" s="6">
+      <c r="CC2" s="28">
+        <f>IF($C2="win",BZ2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="CD2" s="29">
+        <f>IF($D2="MS SQL Standard Edition - Active VM",BZ2/2,IF($D2="MS SQL Enterprise Edition - Active VM",BZ2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",BZ2,IF($D2="Postgre SQL Enterprise Edition",BZ2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",BZ2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="CE2" s="30">
         <v>4</v>
       </c>
-      <c r="BF2" s="6">
+      <c r="CF2" s="30">
         <v>4</v>
       </c>
-      <c r="BG2" s="6">
+      <c r="CG2" s="30">
         <v>8</v>
       </c>
-      <c r="BH2" s="19">
+      <c r="CH2" s="30">
         <v>200</v>
       </c>
-    </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7797</v>
-      </c>
-      <c r="B3" s="18" t="s">
+      <c r="CI2" s="31">
+        <f>IF($C2="win",CF2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="CJ2" s="32">
+        <f>IF($D2="MS SQL Standard Edition - Active VM",CF2/2,IF($D2="MS SQL Enterprise Edition - Active VM",CF2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",CF2,IF($D2="Postgre SQL Enterprise Edition",CF2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",CF2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:88" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>7796</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>7722</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="15" t="s">
+        <v>7835</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7826</v>
+      </c>
+      <c r="E3" s="27">
+        <v>4</v>
+      </c>
+      <c r="F3" s="27">
+        <v>20</v>
+      </c>
+      <c r="G3" s="27">
+        <v>62</v>
+      </c>
+      <c r="H3" s="27">
+        <v>1400</v>
+      </c>
+      <c r="I3" s="28">
+        <f>IF($C3="win",F3/2,IF($C3="rhel",1,IF($C3="suse",1,IF($C3="Ubuntu",1,IF($C3="Oracle Linux",1,IF($C3="Debian",1,IF($C3="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="29">
+        <f>IF($D3="MS SQL Standard Edition - Active VM",F3/2,IF($D3="MS SQL Enterprise Edition - Active VM",F3/2,IF($D3="My SQL Community Edition",1,IF($D3="My SQL Enterprise Edition",1,IF($D3="Postgre SQL Community edition",F3,IF($D3="Postgre SQL Enterprise Edition",F3,IF($D3="Oracle Standard Edition",1,IF($D3="Oracle Enterprise",F3/2,IF($D3="Maria DB Community edition",1,IF($D3="MongoDB Community edition",1,IF($D3="MS SQL Standard Edition - Passive VM",,IF($D3="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="30">
+        <v>4</v>
+      </c>
+      <c r="L3" s="30">
+        <v>4</v>
+      </c>
+      <c r="M3" s="30">
+        <v>8</v>
+      </c>
+      <c r="N3" s="30">
+        <v>200</v>
+      </c>
+      <c r="O3" s="31">
+        <f>IF($C3="win",L3/2,IF($C3="rhel",1,IF($C3="suse",1,IF($C3="Ubuntu",1,IF($C3="Oracle Linux",1,IF($C3="Debian",1,IF($C3="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="P3" s="32">
+        <f>IF($D3="MS SQL Standard Edition - Active VM",L3/2,IF($D3="MS SQL Enterprise Edition - Active VM",L3/2,IF($D3="My SQL Community Edition",1,IF($D3="My SQL Enterprise Edition",1,IF($D3="Postgre SQL Community edition",L3,IF($D3="Postgre SQL Enterprise Edition",L3,IF($D3="Oracle Standard Edition",1,IF($D3="Oracle Enterprise",L3/2,IF($D3="Maria DB Community edition",1,IF($D3="MongoDB Community edition",1,IF($D3="MS SQL Standard Edition - Passive VM",,IF($D3="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="27">
+        <v>4</v>
+      </c>
+      <c r="R3" s="27">
+        <v>4</v>
+      </c>
+      <c r="S3" s="27">
+        <v>8</v>
+      </c>
+      <c r="T3" s="27">
+        <v>200</v>
+      </c>
+      <c r="U3" s="28">
+        <f>IF($C3="win",R3/2,IF($C3="rhel",1,IF($C3="suse",1,IF($C3="Ubuntu",1,IF($C3="Oracle Linux",1,IF($C3="Debian",1,IF($C3="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="V3" s="29">
+        <f>IF($D3="MS SQL Standard Edition - Active VM",R3/2,IF($D3="MS SQL Enterprise Edition - Active VM",R3/2,IF($D3="My SQL Community Edition",1,IF($D3="My SQL Enterprise Edition",1,IF($D3="Postgre SQL Community edition",R3,IF($D3="Postgre SQL Enterprise Edition",R3,IF($D3="Oracle Standard Edition",1,IF($D3="Oracle Enterprise",R3/2,IF($D3="Maria DB Community edition",1,IF($D3="MongoDB Community edition",1,IF($D3="MS SQL Standard Edition - Passive VM",,IF($D3="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="30">
+        <v>4</v>
+      </c>
+      <c r="X3" s="30">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="30">
+        <v>8</v>
+      </c>
+      <c r="Z3" s="30">
+        <v>200</v>
+      </c>
+      <c r="AA3" s="31">
+        <f>IF($C3="win",X3/2,IF($C3="rhel",1,IF($C3="suse",1,IF($C3="Ubuntu",1,IF($C3="Oracle Linux",1,IF($C3="Debian",1,IF($C3="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AB3" s="32">
+        <f>IF($D3="MS SQL Standard Edition - Active VM",X3/2,IF($D3="MS SQL Enterprise Edition - Active VM",X3/2,IF($D3="My SQL Community Edition",1,IF($D3="My SQL Enterprise Edition",1,IF($D3="Postgre SQL Community edition",X3,IF($D3="Postgre SQL Enterprise Edition",X3,IF($D3="Oracle Standard Edition",1,IF($D3="Oracle Enterprise",X3/2,IF($D3="Maria DB Community edition",1,IF($D3="MongoDB Community edition",1,IF($D3="MS SQL Standard Edition - Passive VM",,IF($D3="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="27">
+        <v>4</v>
+      </c>
+      <c r="AD3" s="27">
+        <v>4</v>
+      </c>
+      <c r="AE3" s="27">
+        <v>8</v>
+      </c>
+      <c r="AF3" s="27">
+        <v>200</v>
+      </c>
+      <c r="AG3" s="28">
+        <f>IF($C3="win",AD3/2,IF($C3="rhel",1,IF($C3="suse",1,IF($C3="Ubuntu",1,IF($C3="Oracle Linux",1,IF($C3="Debian",1,IF($C3="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AH3" s="29">
+        <f>IF($D3="MS SQL Standard Edition - Active VM",AD3/2,IF($D3="MS SQL Enterprise Edition - Active VM",AD3/2,IF($D3="My SQL Community Edition",1,IF($D3="My SQL Enterprise Edition",1,IF($D3="Postgre SQL Community edition",AD3,IF($D3="Postgre SQL Enterprise Edition",AD3,IF($D3="Oracle Standard Edition",1,IF($D3="Oracle Enterprise",AD3/2,IF($D3="Maria DB Community edition",1,IF($D3="MongoDB Community edition",1,IF($D3="MS SQL Standard Edition - Passive VM",,IF($D3="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="AI3" s="30">
+        <v>4</v>
+      </c>
+      <c r="AJ3" s="30">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="30">
+        <v>8</v>
+      </c>
+      <c r="AL3" s="30">
+        <v>200</v>
+      </c>
+      <c r="AM3" s="31">
+        <f>IF($C3="win",AJ3/2,IF($C3="rhel",1,IF($C3="suse",1,IF($C3="Ubuntu",1,IF($C3="Oracle Linux",1,IF($C3="Debian",1,IF($C3="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AN3" s="32">
+        <f>IF($D3="MS SQL Standard Edition - Active VM",AJ3/2,IF($D3="MS SQL Enterprise Edition - Active VM",AJ3/2,IF($D3="My SQL Community Edition",1,IF($D3="My SQL Enterprise Edition",1,IF($D3="Postgre SQL Community edition",AJ3,IF($D3="Postgre SQL Enterprise Edition",AJ3,IF($D3="Oracle Standard Edition",1,IF($D3="Oracle Enterprise",AJ3/2,IF($D3="Maria DB Community edition",1,IF($D3="MongoDB Community edition",1,IF($D3="MS SQL Standard Edition - Passive VM",,IF($D3="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="AO3" s="27">
+        <v>4</v>
+      </c>
+      <c r="AP3" s="27">
+        <v>4</v>
+      </c>
+      <c r="AQ3" s="27">
+        <v>8</v>
+      </c>
+      <c r="AR3" s="27">
+        <v>200</v>
+      </c>
+      <c r="AS3" s="28">
+        <f>IF($C3="win",AP3/2,IF($C3="rhel",1,IF($C3="suse",1,IF($C3="Ubuntu",1,IF($C3="Oracle Linux",1,IF($C3="Debian",1,IF($C3="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AT3" s="29">
+        <f>IF($D3="MS SQL Standard Edition - Active VM",AP3/2,IF($D3="MS SQL Enterprise Edition - Active VM",AP3/2,IF($D3="My SQL Community Edition",1,IF($D3="My SQL Enterprise Edition",1,IF($D3="Postgre SQL Community edition",AP3,IF($D3="Postgre SQL Enterprise Edition",AP3,IF($D3="Oracle Standard Edition",1,IF($D3="Oracle Enterprise",AP3/2,IF($D3="Maria DB Community edition",1,IF($D3="MongoDB Community edition",1,IF($D3="MS SQL Standard Edition - Passive VM",,IF($D3="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="AU3" s="30">
+        <v>4</v>
+      </c>
+      <c r="AV3" s="30">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="30">
+        <v>8</v>
+      </c>
+      <c r="AX3" s="30">
+        <v>200</v>
+      </c>
+      <c r="AY3" s="31">
+        <f>IF($C3="win",AV3/2,IF($C3="rhel",1,IF($C3="suse",1,IF($C3="Ubuntu",1,IF($C3="Oracle Linux",1,IF($C3="Debian",1,IF($C3="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="32">
+        <f>IF($D3="MS SQL Standard Edition - Active VM",AV3/2,IF($D3="MS SQL Enterprise Edition - Active VM",AV3/2,IF($D3="My SQL Community Edition",1,IF($D3="My SQL Enterprise Edition",1,IF($D3="Postgre SQL Community edition",AV3,IF($D3="Postgre SQL Enterprise Edition",AV3,IF($D3="Oracle Standard Edition",1,IF($D3="Oracle Enterprise",AV3/2,IF($D3="Maria DB Community edition",1,IF($D3="MongoDB Community edition",1,IF($D3="MS SQL Standard Edition - Passive VM",,IF($D3="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="BA3" s="27">
+        <v>4</v>
+      </c>
+      <c r="BB3" s="27">
+        <v>4</v>
+      </c>
+      <c r="BC3" s="27">
+        <v>8</v>
+      </c>
+      <c r="BD3" s="27">
+        <v>200</v>
+      </c>
+      <c r="BE3" s="28">
+        <f>IF($C3="win",BB3/2,IF($C3="rhel",1,IF($C3="suse",1,IF($C3="Ubuntu",1,IF($C3="Oracle Linux",1,IF($C3="Debian",1,IF($C3="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="BF3" s="29">
+        <f>IF($D3="MS SQL Standard Edition - Active VM",BB3/2,IF($D3="MS SQL Enterprise Edition - Active VM",BB3/2,IF($D3="My SQL Community Edition",1,IF($D3="My SQL Enterprise Edition",1,IF($D3="Postgre SQL Community edition",BB3,IF($D3="Postgre SQL Enterprise Edition",BB3,IF($D3="Oracle Standard Edition",1,IF($D3="Oracle Enterprise",BB3/2,IF($D3="Maria DB Community edition",1,IF($D3="MongoDB Community edition",1,IF($D3="MS SQL Standard Edition - Passive VM",,IF($D3="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="BG3" s="30">
+        <v>4</v>
+      </c>
+      <c r="BH3" s="30">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="30">
+        <v>8</v>
+      </c>
+      <c r="BJ3" s="30">
+        <v>200</v>
+      </c>
+      <c r="BK3" s="31">
+        <f>IF($C3="win",BH3/2,IF($C3="rhel",1,IF($C3="suse",1,IF($C3="Ubuntu",1,IF($C3="Oracle Linux",1,IF($C3="Debian",1,IF($C3="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="BL3" s="32">
+        <f>IF($D3="MS SQL Standard Edition - Active VM",BH3/2,IF($D3="MS SQL Enterprise Edition - Active VM",BH3/2,IF($D3="My SQL Community Edition",1,IF($D3="My SQL Enterprise Edition",1,IF($D3="Postgre SQL Community edition",BH3,IF($D3="Postgre SQL Enterprise Edition",BH3,IF($D3="Oracle Standard Edition",1,IF($D3="Oracle Enterprise",BH3/2,IF($D3="Maria DB Community edition",1,IF($D3="MongoDB Community edition",1,IF($D3="MS SQL Standard Edition - Passive VM",,IF($D3="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="BM3" s="27">
+        <v>4</v>
+      </c>
+      <c r="BN3" s="27">
+        <v>4</v>
+      </c>
+      <c r="BO3" s="27">
+        <v>8</v>
+      </c>
+      <c r="BP3" s="27">
+        <v>200</v>
+      </c>
+      <c r="BQ3" s="28">
+        <f>IF($C3="win",BN3/2,IF($C3="rhel",1,IF($C3="suse",1,IF($C3="Ubuntu",1,IF($C3="Oracle Linux",1,IF($C3="Debian",1,IF($C3="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="BR3" s="29">
+        <f>IF($D3="MS SQL Standard Edition - Active VM",BN3/2,IF($D3="MS SQL Enterprise Edition - Active VM",BN3/2,IF($D3="My SQL Community Edition",1,IF($D3="My SQL Enterprise Edition",1,IF($D3="Postgre SQL Community edition",BN3,IF($D3="Postgre SQL Enterprise Edition",BN3,IF($D3="Oracle Standard Edition",1,IF($D3="Oracle Enterprise",BN3/2,IF($D3="Maria DB Community edition",1,IF($D3="MongoDB Community edition",1,IF($D3="MS SQL Standard Edition - Passive VM",,IF($D3="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="BS3" s="30">
+        <v>4</v>
+      </c>
+      <c r="BT3" s="30">
+        <v>4</v>
+      </c>
+      <c r="BU3" s="30">
+        <v>8</v>
+      </c>
+      <c r="BV3" s="30">
+        <v>200</v>
+      </c>
+      <c r="BW3" s="31">
+        <f>IF($C3="win",BT3/2,IF($C3="rhel",1,IF($C3="suse",1,IF($C3="Ubuntu",1,IF($C3="Oracle Linux",1,IF($C3="Debian",1,IF($C3="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="BX3" s="32">
+        <f>IF($D3="MS SQL Standard Edition - Active VM",BT3/2,IF($D3="MS SQL Enterprise Edition - Active VM",BT3/2,IF($D3="My SQL Community Edition",1,IF($D3="My SQL Enterprise Edition",1,IF($D3="Postgre SQL Community edition",BT3,IF($D3="Postgre SQL Enterprise Edition",BT3,IF($D3="Oracle Standard Edition",1,IF($D3="Oracle Enterprise",BT3/2,IF($D3="Maria DB Community edition",1,IF($D3="MongoDB Community edition",1,IF($D3="MS SQL Standard Edition - Passive VM",,IF($D3="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="BY3" s="27">
+        <v>4</v>
+      </c>
+      <c r="BZ3" s="27">
+        <v>4</v>
+      </c>
+      <c r="CA3" s="27">
+        <v>8</v>
+      </c>
+      <c r="CB3" s="27">
+        <v>200</v>
+      </c>
+      <c r="CC3" s="28">
+        <f>IF($C3="win",BZ3/2,IF($C3="rhel",1,IF($C3="suse",1,IF($C3="Ubuntu",1,IF($C3="Oracle Linux",1,IF($C3="Debian",1,IF($C3="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="CD3" s="29">
+        <f>IF($D3="MS SQL Standard Edition - Active VM",BZ3/2,IF($D3="MS SQL Enterprise Edition - Active VM",BZ3/2,IF($D3="My SQL Community Edition",1,IF($D3="My SQL Enterprise Edition",1,IF($D3="Postgre SQL Community edition",BZ3,IF($D3="Postgre SQL Enterprise Edition",BZ3,IF($D3="Oracle Standard Edition",1,IF($D3="Oracle Enterprise",BZ3/2,IF($D3="Maria DB Community edition",1,IF($D3="MongoDB Community edition",1,IF($D3="MS SQL Standard Edition - Passive VM",,IF($D3="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="CE3" s="30">
+        <v>4</v>
+      </c>
+      <c r="CF3" s="30">
+        <v>4</v>
+      </c>
+      <c r="CG3" s="30">
+        <v>8</v>
+      </c>
+      <c r="CH3" s="30">
+        <v>200</v>
+      </c>
+      <c r="CI3" s="31">
+        <f>IF($C3="win",CF3/2,IF($C3="rhel",1,IF($C3="suse",1,IF($C3="Ubuntu",1,IF($C3="Oracle Linux",1,IF($C3="Debian",1,IF($C3="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="32">
+        <f>IF($D3="MS SQL Standard Edition - Active VM",CF3/2,IF($D3="MS SQL Enterprise Edition - Active VM",CF3/2,IF($D3="My SQL Community Edition",1,IF($D3="My SQL Enterprise Edition",1,IF($D3="Postgre SQL Community edition",CF3,IF($D3="Postgre SQL Enterprise Edition",CF3,IF($D3="Oracle Standard Edition",1,IF($D3="Oracle Enterprise",CF3/2,IF($D3="Maria DB Community edition",1,IF($D3="MongoDB Community edition",1,IF($D3="MS SQL Standard Edition - Passive VM",,IF($D3="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:88" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>7796</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>7723</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>7836</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7827</v>
+      </c>
+      <c r="E4" s="27">
+        <v>6</v>
+      </c>
+      <c r="F4" s="27">
+        <v>18</v>
+      </c>
+      <c r="G4" s="27">
+        <v>60</v>
+      </c>
+      <c r="H4" s="27">
+        <v>1200</v>
+      </c>
+      <c r="I4" s="28">
+        <f>IF($C4="win",F4/2,IF($C4="rhel",1,IF($C4="suse",1,IF($C4="Ubuntu",1,IF($C4="Oracle Linux",1,IF($C4="Debian",1,IF($C4="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="J4" s="29">
+        <f>IF($D4="MS SQL Standard Edition - Active VM",F4/2,IF($D4="MS SQL Enterprise Edition - Active VM",F4/2,IF($D4="My SQL Community Edition",1,IF($D4="My SQL Enterprise Edition",1,IF($D4="Postgre SQL Community edition",F4,IF($D4="Postgre SQL Enterprise Edition",F4,IF($D4="Oracle Standard Edition",1,IF($D4="Oracle Enterprise",F4/2,IF($D4="Maria DB Community edition",1,IF($D4="MongoDB Community edition",1,IF($D4="MS SQL Standard Edition - Passive VM",,IF($D4="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="30">
+        <v>4</v>
+      </c>
+      <c r="L4" s="30">
+        <v>4</v>
+      </c>
+      <c r="M4" s="30">
+        <v>8</v>
+      </c>
+      <c r="N4" s="30">
+        <v>200</v>
+      </c>
+      <c r="O4" s="31">
+        <f>IF($C4="win",L4/2,IF($C4="rhel",1,IF($C4="suse",1,IF($C4="Ubuntu",1,IF($C4="Oracle Linux",1,IF($C4="Debian",1,IF($C4="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="P4" s="32">
+        <f>IF($D4="MS SQL Standard Edition - Active VM",L4/2,IF($D4="MS SQL Enterprise Edition - Active VM",L4/2,IF($D4="My SQL Community Edition",1,IF($D4="My SQL Enterprise Edition",1,IF($D4="Postgre SQL Community edition",L4,IF($D4="Postgre SQL Enterprise Edition",L4,IF($D4="Oracle Standard Edition",1,IF($D4="Oracle Enterprise",L4/2,IF($D4="Maria DB Community edition",1,IF($D4="MongoDB Community edition",1,IF($D4="MS SQL Standard Edition - Passive VM",,IF($D4="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="Q4" s="27">
+        <v>4</v>
+      </c>
+      <c r="R4" s="27">
+        <v>4</v>
+      </c>
+      <c r="S4" s="27">
+        <v>8</v>
+      </c>
+      <c r="T4" s="27">
+        <v>200</v>
+      </c>
+      <c r="U4" s="28">
+        <f>IF($C4="win",R4/2,IF($C4="rhel",1,IF($C4="suse",1,IF($C4="Ubuntu",1,IF($C4="Oracle Linux",1,IF($C4="Debian",1,IF($C4="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="V4" s="29">
+        <f>IF($D4="MS SQL Standard Edition - Active VM",R4/2,IF($D4="MS SQL Enterprise Edition - Active VM",R4/2,IF($D4="My SQL Community Edition",1,IF($D4="My SQL Enterprise Edition",1,IF($D4="Postgre SQL Community edition",R4,IF($D4="Postgre SQL Enterprise Edition",R4,IF($D4="Oracle Standard Edition",1,IF($D4="Oracle Enterprise",R4/2,IF($D4="Maria DB Community edition",1,IF($D4="MongoDB Community edition",1,IF($D4="MS SQL Standard Edition - Passive VM",,IF($D4="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="W4" s="30">
+        <v>4</v>
+      </c>
+      <c r="X4" s="30">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="30">
+        <v>8</v>
+      </c>
+      <c r="Z4" s="30">
+        <v>200</v>
+      </c>
+      <c r="AA4" s="31">
+        <f>IF($C4="win",X4/2,IF($C4="rhel",1,IF($C4="suse",1,IF($C4="Ubuntu",1,IF($C4="Oracle Linux",1,IF($C4="Debian",1,IF($C4="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AB4" s="32">
+        <f>IF($D4="MS SQL Standard Edition - Active VM",X4/2,IF($D4="MS SQL Enterprise Edition - Active VM",X4/2,IF($D4="My SQL Community Edition",1,IF($D4="My SQL Enterprise Edition",1,IF($D4="Postgre SQL Community edition",X4,IF($D4="Postgre SQL Enterprise Edition",X4,IF($D4="Oracle Standard Edition",1,IF($D4="Oracle Enterprise",X4/2,IF($D4="Maria DB Community edition",1,IF($D4="MongoDB Community edition",1,IF($D4="MS SQL Standard Edition - Passive VM",,IF($D4="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AC4" s="27">
+        <v>4</v>
+      </c>
+      <c r="AD4" s="27">
+        <v>4</v>
+      </c>
+      <c r="AE4" s="27">
+        <v>8</v>
+      </c>
+      <c r="AF4" s="27">
+        <v>200</v>
+      </c>
+      <c r="AG4" s="28">
+        <f>IF($C4="win",AD4/2,IF($C4="rhel",1,IF($C4="suse",1,IF($C4="Ubuntu",1,IF($C4="Oracle Linux",1,IF($C4="Debian",1,IF($C4="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AH4" s="29">
+        <f>IF($D4="MS SQL Standard Edition - Active VM",AD4/2,IF($D4="MS SQL Enterprise Edition - Active VM",AD4/2,IF($D4="My SQL Community Edition",1,IF($D4="My SQL Enterprise Edition",1,IF($D4="Postgre SQL Community edition",AD4,IF($D4="Postgre SQL Enterprise Edition",AD4,IF($D4="Oracle Standard Edition",1,IF($D4="Oracle Enterprise",AD4/2,IF($D4="Maria DB Community edition",1,IF($D4="MongoDB Community edition",1,IF($D4="MS SQL Standard Edition - Passive VM",,IF($D4="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AI4" s="30">
+        <v>4</v>
+      </c>
+      <c r="AJ4" s="30">
+        <v>4</v>
+      </c>
+      <c r="AK4" s="30">
+        <v>8</v>
+      </c>
+      <c r="AL4" s="30">
+        <v>200</v>
+      </c>
+      <c r="AM4" s="31">
+        <f>IF($C4="win",AJ4/2,IF($C4="rhel",1,IF($C4="suse",1,IF($C4="Ubuntu",1,IF($C4="Oracle Linux",1,IF($C4="Debian",1,IF($C4="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AN4" s="32">
+        <f>IF($D4="MS SQL Standard Edition - Active VM",AJ4/2,IF($D4="MS SQL Enterprise Edition - Active VM",AJ4/2,IF($D4="My SQL Community Edition",1,IF($D4="My SQL Enterprise Edition",1,IF($D4="Postgre SQL Community edition",AJ4,IF($D4="Postgre SQL Enterprise Edition",AJ4,IF($D4="Oracle Standard Edition",1,IF($D4="Oracle Enterprise",AJ4/2,IF($D4="Maria DB Community edition",1,IF($D4="MongoDB Community edition",1,IF($D4="MS SQL Standard Edition - Passive VM",,IF($D4="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AO4" s="27">
+        <v>4</v>
+      </c>
+      <c r="AP4" s="27">
+        <v>4</v>
+      </c>
+      <c r="AQ4" s="27">
+        <v>8</v>
+      </c>
+      <c r="AR4" s="27">
+        <v>200</v>
+      </c>
+      <c r="AS4" s="28">
+        <f>IF($C4="win",AP4/2,IF($C4="rhel",1,IF($C4="suse",1,IF($C4="Ubuntu",1,IF($C4="Oracle Linux",1,IF($C4="Debian",1,IF($C4="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AT4" s="29">
+        <f>IF($D4="MS SQL Standard Edition - Active VM",AP4/2,IF($D4="MS SQL Enterprise Edition - Active VM",AP4/2,IF($D4="My SQL Community Edition",1,IF($D4="My SQL Enterprise Edition",1,IF($D4="Postgre SQL Community edition",AP4,IF($D4="Postgre SQL Enterprise Edition",AP4,IF($D4="Oracle Standard Edition",1,IF($D4="Oracle Enterprise",AP4/2,IF($D4="Maria DB Community edition",1,IF($D4="MongoDB Community edition",1,IF($D4="MS SQL Standard Edition - Passive VM",,IF($D4="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AU4" s="30">
+        <v>4</v>
+      </c>
+      <c r="AV4" s="30">
+        <v>4</v>
+      </c>
+      <c r="AW4" s="30">
+        <v>8</v>
+      </c>
+      <c r="AX4" s="30">
+        <v>200</v>
+      </c>
+      <c r="AY4" s="31">
+        <f>IF($C4="win",AV4/2,IF($C4="rhel",1,IF($C4="suse",1,IF($C4="Ubuntu",1,IF($C4="Oracle Linux",1,IF($C4="Debian",1,IF($C4="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="32">
+        <f>IF($D4="MS SQL Standard Edition - Active VM",AV4/2,IF($D4="MS SQL Enterprise Edition - Active VM",AV4/2,IF($D4="My SQL Community Edition",1,IF($D4="My SQL Enterprise Edition",1,IF($D4="Postgre SQL Community edition",AV4,IF($D4="Postgre SQL Enterprise Edition",AV4,IF($D4="Oracle Standard Edition",1,IF($D4="Oracle Enterprise",AV4/2,IF($D4="Maria DB Community edition",1,IF($D4="MongoDB Community edition",1,IF($D4="MS SQL Standard Edition - Passive VM",,IF($D4="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="BA4" s="27">
+        <v>4</v>
+      </c>
+      <c r="BB4" s="27">
+        <v>4</v>
+      </c>
+      <c r="BC4" s="27">
+        <v>8</v>
+      </c>
+      <c r="BD4" s="27">
+        <v>200</v>
+      </c>
+      <c r="BE4" s="28">
+        <f>IF($C4="win",BB4/2,IF($C4="rhel",1,IF($C4="suse",1,IF($C4="Ubuntu",1,IF($C4="Oracle Linux",1,IF($C4="Debian",1,IF($C4="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="BF4" s="29">
+        <f>IF($D4="MS SQL Standard Edition - Active VM",BB4/2,IF($D4="MS SQL Enterprise Edition - Active VM",BB4/2,IF($D4="My SQL Community Edition",1,IF($D4="My SQL Enterprise Edition",1,IF($D4="Postgre SQL Community edition",BB4,IF($D4="Postgre SQL Enterprise Edition",BB4,IF($D4="Oracle Standard Edition",1,IF($D4="Oracle Enterprise",BB4/2,IF($D4="Maria DB Community edition",1,IF($D4="MongoDB Community edition",1,IF($D4="MS SQL Standard Edition - Passive VM",,IF($D4="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="BG4" s="30">
+        <v>4</v>
+      </c>
+      <c r="BH4" s="30">
+        <v>4</v>
+      </c>
+      <c r="BI4" s="30">
+        <v>8</v>
+      </c>
+      <c r="BJ4" s="30">
+        <v>200</v>
+      </c>
+      <c r="BK4" s="31">
+        <f>IF($C4="win",BH4/2,IF($C4="rhel",1,IF($C4="suse",1,IF($C4="Ubuntu",1,IF($C4="Oracle Linux",1,IF($C4="Debian",1,IF($C4="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="BL4" s="32">
+        <f>IF($D4="MS SQL Standard Edition - Active VM",BH4/2,IF($D4="MS SQL Enterprise Edition - Active VM",BH4/2,IF($D4="My SQL Community Edition",1,IF($D4="My SQL Enterprise Edition",1,IF($D4="Postgre SQL Community edition",BH4,IF($D4="Postgre SQL Enterprise Edition",BH4,IF($D4="Oracle Standard Edition",1,IF($D4="Oracle Enterprise",BH4/2,IF($D4="Maria DB Community edition",1,IF($D4="MongoDB Community edition",1,IF($D4="MS SQL Standard Edition - Passive VM",,IF($D4="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="BM4" s="27">
+        <v>4</v>
+      </c>
+      <c r="BN4" s="27">
+        <v>4</v>
+      </c>
+      <c r="BO4" s="27">
+        <v>8</v>
+      </c>
+      <c r="BP4" s="27">
+        <v>200</v>
+      </c>
+      <c r="BQ4" s="28">
+        <f>IF($C4="win",BN4/2,IF($C4="rhel",1,IF($C4="suse",1,IF($C4="Ubuntu",1,IF($C4="Oracle Linux",1,IF($C4="Debian",1,IF($C4="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="BR4" s="29">
+        <f>IF($D4="MS SQL Standard Edition - Active VM",BN4/2,IF($D4="MS SQL Enterprise Edition - Active VM",BN4/2,IF($D4="My SQL Community Edition",1,IF($D4="My SQL Enterprise Edition",1,IF($D4="Postgre SQL Community edition",BN4,IF($D4="Postgre SQL Enterprise Edition",BN4,IF($D4="Oracle Standard Edition",1,IF($D4="Oracle Enterprise",BN4/2,IF($D4="Maria DB Community edition",1,IF($D4="MongoDB Community edition",1,IF($D4="MS SQL Standard Edition - Passive VM",,IF($D4="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="BS4" s="30">
+        <v>4</v>
+      </c>
+      <c r="BT4" s="30">
+        <v>4</v>
+      </c>
+      <c r="BU4" s="30">
+        <v>8</v>
+      </c>
+      <c r="BV4" s="30">
+        <v>200</v>
+      </c>
+      <c r="BW4" s="31">
+        <f>IF($C4="win",BT4/2,IF($C4="rhel",1,IF($C4="suse",1,IF($C4="Ubuntu",1,IF($C4="Oracle Linux",1,IF($C4="Debian",1,IF($C4="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="BX4" s="32">
+        <f>IF($D4="MS SQL Standard Edition - Active VM",BT4/2,IF($D4="MS SQL Enterprise Edition - Active VM",BT4/2,IF($D4="My SQL Community Edition",1,IF($D4="My SQL Enterprise Edition",1,IF($D4="Postgre SQL Community edition",BT4,IF($D4="Postgre SQL Enterprise Edition",BT4,IF($D4="Oracle Standard Edition",1,IF($D4="Oracle Enterprise",BT4/2,IF($D4="Maria DB Community edition",1,IF($D4="MongoDB Community edition",1,IF($D4="MS SQL Standard Edition - Passive VM",,IF($D4="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="BY4" s="27">
+        <v>4</v>
+      </c>
+      <c r="BZ4" s="27">
+        <v>4</v>
+      </c>
+      <c r="CA4" s="27">
+        <v>8</v>
+      </c>
+      <c r="CB4" s="27">
+        <v>200</v>
+      </c>
+      <c r="CC4" s="28">
+        <f>IF($C4="win",BZ4/2,IF($C4="rhel",1,IF($C4="suse",1,IF($C4="Ubuntu",1,IF($C4="Oracle Linux",1,IF($C4="Debian",1,IF($C4="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="CD4" s="29">
+        <f>IF($D4="MS SQL Standard Edition - Active VM",BZ4/2,IF($D4="MS SQL Enterprise Edition - Active VM",BZ4/2,IF($D4="My SQL Community Edition",1,IF($D4="My SQL Enterprise Edition",1,IF($D4="Postgre SQL Community edition",BZ4,IF($D4="Postgre SQL Enterprise Edition",BZ4,IF($D4="Oracle Standard Edition",1,IF($D4="Oracle Enterprise",BZ4/2,IF($D4="Maria DB Community edition",1,IF($D4="MongoDB Community edition",1,IF($D4="MS SQL Standard Edition - Passive VM",,IF($D4="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="CE4" s="30">
+        <v>4</v>
+      </c>
+      <c r="CF4" s="30">
+        <v>4</v>
+      </c>
+      <c r="CG4" s="30">
+        <v>8</v>
+      </c>
+      <c r="CH4" s="30">
+        <v>200</v>
+      </c>
+      <c r="CI4" s="31">
+        <f>IF($C4="win",CF4/2,IF($C4="rhel",1,IF($C4="suse",1,IF($C4="Ubuntu",1,IF($C4="Oracle Linux",1,IF($C4="Debian",1,IF($C4="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="CJ4" s="32">
+        <f>IF($D4="MS SQL Standard Edition - Active VM",CF4/2,IF($D4="MS SQL Enterprise Edition - Active VM",CF4/2,IF($D4="My SQL Community Edition",1,IF($D4="My SQL Enterprise Edition",1,IF($D4="Postgre SQL Community edition",CF4,IF($D4="Postgre SQL Enterprise Edition",CF4,IF($D4="Oracle Standard Edition",1,IF($D4="Oracle Enterprise",CF4/2,IF($D4="Maria DB Community edition",1,IF($D4="MongoDB Community edition",1,IF($D4="MS SQL Standard Edition - Passive VM",,IF($D4="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:88" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>7796</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>7724</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>7837</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>7828</v>
+      </c>
+      <c r="E5" s="27">
+        <v>8</v>
+      </c>
+      <c r="F5" s="27">
+        <v>16</v>
+      </c>
+      <c r="G5" s="27">
+        <v>58</v>
+      </c>
+      <c r="H5" s="27">
+        <v>1000</v>
+      </c>
+      <c r="I5" s="28">
+        <f>IF($C5="win",F5/2,IF($C5="rhel",1,IF($C5="suse",1,IF($C5="Ubuntu",1,IF($C5="Oracle Linux",1,IF($C5="Debian",1,IF($C5="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="29">
+        <f>IF($D5="MS SQL Standard Edition - Active VM",F5/2,IF($D5="MS SQL Enterprise Edition - Active VM",F5/2,IF($D5="My SQL Community Edition",1,IF($D5="My SQL Enterprise Edition",1,IF($D5="Postgre SQL Community edition",F5,IF($D5="Postgre SQL Enterprise Edition",F5,IF($D5="Oracle Standard Edition",1,IF($D5="Oracle Enterprise",F5/2,IF($D5="Maria DB Community edition",1,IF($D5="MongoDB Community edition",1,IF($D5="MS SQL Standard Edition - Passive VM",,IF($D5="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="K5" s="30">
+        <v>4</v>
+      </c>
+      <c r="L5" s="30">
+        <v>4</v>
+      </c>
+      <c r="M5" s="30">
+        <v>8</v>
+      </c>
+      <c r="N5" s="30">
+        <v>200</v>
+      </c>
+      <c r="O5" s="31">
+        <f>IF($C5="win",L5/2,IF($C5="rhel",1,IF($C5="suse",1,IF($C5="Ubuntu",1,IF($C5="Oracle Linux",1,IF($C5="Debian",1,IF($C5="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="P5" s="32">
+        <f>IF($D5="MS SQL Standard Edition - Active VM",L5/2,IF($D5="MS SQL Enterprise Edition - Active VM",L5/2,IF($D5="My SQL Community Edition",1,IF($D5="My SQL Enterprise Edition",1,IF($D5="Postgre SQL Community edition",L5,IF($D5="Postgre SQL Enterprise Edition",L5,IF($D5="Oracle Standard Edition",1,IF($D5="Oracle Enterprise",L5/2,IF($D5="Maria DB Community edition",1,IF($D5="MongoDB Community edition",1,IF($D5="MS SQL Standard Edition - Passive VM",,IF($D5="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="Q5" s="27">
+        <v>4</v>
+      </c>
+      <c r="R5" s="27">
+        <v>4</v>
+      </c>
+      <c r="S5" s="27">
+        <v>8</v>
+      </c>
+      <c r="T5" s="27">
+        <v>200</v>
+      </c>
+      <c r="U5" s="28">
+        <f>IF($C5="win",R5/2,IF($C5="rhel",1,IF($C5="suse",1,IF($C5="Ubuntu",1,IF($C5="Oracle Linux",1,IF($C5="Debian",1,IF($C5="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="V5" s="29">
+        <f>IF($D5="MS SQL Standard Edition - Active VM",R5/2,IF($D5="MS SQL Enterprise Edition - Active VM",R5/2,IF($D5="My SQL Community Edition",1,IF($D5="My SQL Enterprise Edition",1,IF($D5="Postgre SQL Community edition",R5,IF($D5="Postgre SQL Enterprise Edition",R5,IF($D5="Oracle Standard Edition",1,IF($D5="Oracle Enterprise",R5/2,IF($D5="Maria DB Community edition",1,IF($D5="MongoDB Community edition",1,IF($D5="MS SQL Standard Edition - Passive VM",,IF($D5="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="W5" s="30">
+        <v>4</v>
+      </c>
+      <c r="X5" s="30">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="30">
+        <v>8</v>
+      </c>
+      <c r="Z5" s="30">
+        <v>200</v>
+      </c>
+      <c r="AA5" s="31">
+        <f>IF($C5="win",X5/2,IF($C5="rhel",1,IF($C5="suse",1,IF($C5="Ubuntu",1,IF($C5="Oracle Linux",1,IF($C5="Debian",1,IF($C5="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AB5" s="32">
+        <f>IF($D5="MS SQL Standard Edition - Active VM",X5/2,IF($D5="MS SQL Enterprise Edition - Active VM",X5/2,IF($D5="My SQL Community Edition",1,IF($D5="My SQL Enterprise Edition",1,IF($D5="Postgre SQL Community edition",X5,IF($D5="Postgre SQL Enterprise Edition",X5,IF($D5="Oracle Standard Edition",1,IF($D5="Oracle Enterprise",X5/2,IF($D5="Maria DB Community edition",1,IF($D5="MongoDB Community edition",1,IF($D5="MS SQL Standard Edition - Passive VM",,IF($D5="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AC5" s="27">
+        <v>4</v>
+      </c>
+      <c r="AD5" s="27">
+        <v>4</v>
+      </c>
+      <c r="AE5" s="27">
+        <v>8</v>
+      </c>
+      <c r="AF5" s="27">
+        <v>200</v>
+      </c>
+      <c r="AG5" s="28">
+        <f>IF($C5="win",AD5/2,IF($C5="rhel",1,IF($C5="suse",1,IF($C5="Ubuntu",1,IF($C5="Oracle Linux",1,IF($C5="Debian",1,IF($C5="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AH5" s="29">
+        <f>IF($D5="MS SQL Standard Edition - Active VM",AD5/2,IF($D5="MS SQL Enterprise Edition - Active VM",AD5/2,IF($D5="My SQL Community Edition",1,IF($D5="My SQL Enterprise Edition",1,IF($D5="Postgre SQL Community edition",AD5,IF($D5="Postgre SQL Enterprise Edition",AD5,IF($D5="Oracle Standard Edition",1,IF($D5="Oracle Enterprise",AD5/2,IF($D5="Maria DB Community edition",1,IF($D5="MongoDB Community edition",1,IF($D5="MS SQL Standard Edition - Passive VM",,IF($D5="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AI5" s="30">
+        <v>4</v>
+      </c>
+      <c r="AJ5" s="30">
+        <v>4</v>
+      </c>
+      <c r="AK5" s="30">
+        <v>8</v>
+      </c>
+      <c r="AL5" s="30">
+        <v>200</v>
+      </c>
+      <c r="AM5" s="31">
+        <f>IF($C5="win",AJ5/2,IF($C5="rhel",1,IF($C5="suse",1,IF($C5="Ubuntu",1,IF($C5="Oracle Linux",1,IF($C5="Debian",1,IF($C5="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AN5" s="32">
+        <f>IF($D5="MS SQL Standard Edition - Active VM",AJ5/2,IF($D5="MS SQL Enterprise Edition - Active VM",AJ5/2,IF($D5="My SQL Community Edition",1,IF($D5="My SQL Enterprise Edition",1,IF($D5="Postgre SQL Community edition",AJ5,IF($D5="Postgre SQL Enterprise Edition",AJ5,IF($D5="Oracle Standard Edition",1,IF($D5="Oracle Enterprise",AJ5/2,IF($D5="Maria DB Community edition",1,IF($D5="MongoDB Community edition",1,IF($D5="MS SQL Standard Edition - Passive VM",,IF($D5="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AO5" s="27">
+        <v>4</v>
+      </c>
+      <c r="AP5" s="27">
+        <v>4</v>
+      </c>
+      <c r="AQ5" s="27">
+        <v>8</v>
+      </c>
+      <c r="AR5" s="27">
+        <v>200</v>
+      </c>
+      <c r="AS5" s="28">
+        <f>IF($C5="win",AP5/2,IF($C5="rhel",1,IF($C5="suse",1,IF($C5="Ubuntu",1,IF($C5="Oracle Linux",1,IF($C5="Debian",1,IF($C5="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AT5" s="29">
+        <f>IF($D5="MS SQL Standard Edition - Active VM",AP5/2,IF($D5="MS SQL Enterprise Edition - Active VM",AP5/2,IF($D5="My SQL Community Edition",1,IF($D5="My SQL Enterprise Edition",1,IF($D5="Postgre SQL Community edition",AP5,IF($D5="Postgre SQL Enterprise Edition",AP5,IF($D5="Oracle Standard Edition",1,IF($D5="Oracle Enterprise",AP5/2,IF($D5="Maria DB Community edition",1,IF($D5="MongoDB Community edition",1,IF($D5="MS SQL Standard Edition - Passive VM",,IF($D5="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AU5" s="30">
+        <v>4</v>
+      </c>
+      <c r="AV5" s="30">
+        <v>4</v>
+      </c>
+      <c r="AW5" s="30">
+        <v>8</v>
+      </c>
+      <c r="AX5" s="30">
+        <v>200</v>
+      </c>
+      <c r="AY5" s="31">
+        <f>IF($C5="win",AV5/2,IF($C5="rhel",1,IF($C5="suse",1,IF($C5="Ubuntu",1,IF($C5="Oracle Linux",1,IF($C5="Debian",1,IF($C5="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AZ5" s="32">
+        <f>IF($D5="MS SQL Standard Edition - Active VM",AV5/2,IF($D5="MS SQL Enterprise Edition - Active VM",AV5/2,IF($D5="My SQL Community Edition",1,IF($D5="My SQL Enterprise Edition",1,IF($D5="Postgre SQL Community edition",AV5,IF($D5="Postgre SQL Enterprise Edition",AV5,IF($D5="Oracle Standard Edition",1,IF($D5="Oracle Enterprise",AV5/2,IF($D5="Maria DB Community edition",1,IF($D5="MongoDB Community edition",1,IF($D5="MS SQL Standard Edition - Passive VM",,IF($D5="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="BA5" s="27">
+        <v>4</v>
+      </c>
+      <c r="BB5" s="27">
+        <v>4</v>
+      </c>
+      <c r="BC5" s="27">
+        <v>8</v>
+      </c>
+      <c r="BD5" s="27">
+        <v>200</v>
+      </c>
+      <c r="BE5" s="28">
+        <f>IF($C5="win",BB5/2,IF($C5="rhel",1,IF($C5="suse",1,IF($C5="Ubuntu",1,IF($C5="Oracle Linux",1,IF($C5="Debian",1,IF($C5="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="BF5" s="29">
+        <f>IF($D5="MS SQL Standard Edition - Active VM",BB5/2,IF($D5="MS SQL Enterprise Edition - Active VM",BB5/2,IF($D5="My SQL Community Edition",1,IF($D5="My SQL Enterprise Edition",1,IF($D5="Postgre SQL Community edition",BB5,IF($D5="Postgre SQL Enterprise Edition",BB5,IF($D5="Oracle Standard Edition",1,IF($D5="Oracle Enterprise",BB5/2,IF($D5="Maria DB Community edition",1,IF($D5="MongoDB Community edition",1,IF($D5="MS SQL Standard Edition - Passive VM",,IF($D5="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="BG5" s="30">
+        <v>4</v>
+      </c>
+      <c r="BH5" s="30">
+        <v>4</v>
+      </c>
+      <c r="BI5" s="30">
+        <v>8</v>
+      </c>
+      <c r="BJ5" s="30">
+        <v>200</v>
+      </c>
+      <c r="BK5" s="31">
+        <f>IF($C5="win",BH5/2,IF($C5="rhel",1,IF($C5="suse",1,IF($C5="Ubuntu",1,IF($C5="Oracle Linux",1,IF($C5="Debian",1,IF($C5="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="BL5" s="32">
+        <f>IF($D5="MS SQL Standard Edition - Active VM",BH5/2,IF($D5="MS SQL Enterprise Edition - Active VM",BH5/2,IF($D5="My SQL Community Edition",1,IF($D5="My SQL Enterprise Edition",1,IF($D5="Postgre SQL Community edition",BH5,IF($D5="Postgre SQL Enterprise Edition",BH5,IF($D5="Oracle Standard Edition",1,IF($D5="Oracle Enterprise",BH5/2,IF($D5="Maria DB Community edition",1,IF($D5="MongoDB Community edition",1,IF($D5="MS SQL Standard Edition - Passive VM",,IF($D5="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="BM5" s="27">
+        <v>4</v>
+      </c>
+      <c r="BN5" s="27">
+        <v>4</v>
+      </c>
+      <c r="BO5" s="27">
+        <v>8</v>
+      </c>
+      <c r="BP5" s="27">
+        <v>200</v>
+      </c>
+      <c r="BQ5" s="28">
+        <f>IF($C5="win",BN5/2,IF($C5="rhel",1,IF($C5="suse",1,IF($C5="Ubuntu",1,IF($C5="Oracle Linux",1,IF($C5="Debian",1,IF($C5="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="BR5" s="29">
+        <f>IF($D5="MS SQL Standard Edition - Active VM",BN5/2,IF($D5="MS SQL Enterprise Edition - Active VM",BN5/2,IF($D5="My SQL Community Edition",1,IF($D5="My SQL Enterprise Edition",1,IF($D5="Postgre SQL Community edition",BN5,IF($D5="Postgre SQL Enterprise Edition",BN5,IF($D5="Oracle Standard Edition",1,IF($D5="Oracle Enterprise",BN5/2,IF($D5="Maria DB Community edition",1,IF($D5="MongoDB Community edition",1,IF($D5="MS SQL Standard Edition - Passive VM",,IF($D5="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="BS5" s="30">
+        <v>4</v>
+      </c>
+      <c r="BT5" s="30">
+        <v>4</v>
+      </c>
+      <c r="BU5" s="30">
+        <v>8</v>
+      </c>
+      <c r="BV5" s="30">
+        <v>200</v>
+      </c>
+      <c r="BW5" s="31">
+        <f>IF($C5="win",BT5/2,IF($C5="rhel",1,IF($C5="suse",1,IF($C5="Ubuntu",1,IF($C5="Oracle Linux",1,IF($C5="Debian",1,IF($C5="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="BX5" s="32">
+        <f>IF($D5="MS SQL Standard Edition - Active VM",BT5/2,IF($D5="MS SQL Enterprise Edition - Active VM",BT5/2,IF($D5="My SQL Community Edition",1,IF($D5="My SQL Enterprise Edition",1,IF($D5="Postgre SQL Community edition",BT5,IF($D5="Postgre SQL Enterprise Edition",BT5,IF($D5="Oracle Standard Edition",1,IF($D5="Oracle Enterprise",BT5/2,IF($D5="Maria DB Community edition",1,IF($D5="MongoDB Community edition",1,IF($D5="MS SQL Standard Edition - Passive VM",,IF($D5="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="BY5" s="27">
+        <v>4</v>
+      </c>
+      <c r="BZ5" s="27">
+        <v>4</v>
+      </c>
+      <c r="CA5" s="27">
+        <v>8</v>
+      </c>
+      <c r="CB5" s="27">
+        <v>200</v>
+      </c>
+      <c r="CC5" s="28">
+        <f>IF($C5="win",BZ5/2,IF($C5="rhel",1,IF($C5="suse",1,IF($C5="Ubuntu",1,IF($C5="Oracle Linux",1,IF($C5="Debian",1,IF($C5="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="CD5" s="29">
+        <f>IF($D5="MS SQL Standard Edition - Active VM",BZ5/2,IF($D5="MS SQL Enterprise Edition - Active VM",BZ5/2,IF($D5="My SQL Community Edition",1,IF($D5="My SQL Enterprise Edition",1,IF($D5="Postgre SQL Community edition",BZ5,IF($D5="Postgre SQL Enterprise Edition",BZ5,IF($D5="Oracle Standard Edition",1,IF($D5="Oracle Enterprise",BZ5/2,IF($D5="Maria DB Community edition",1,IF($D5="MongoDB Community edition",1,IF($D5="MS SQL Standard Edition - Passive VM",,IF($D5="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="CE5" s="30">
+        <v>4</v>
+      </c>
+      <c r="CF5" s="30">
+        <v>4</v>
+      </c>
+      <c r="CG5" s="30">
+        <v>8</v>
+      </c>
+      <c r="CH5" s="30">
+        <v>200</v>
+      </c>
+      <c r="CI5" s="31">
+        <f>IF($C5="win",CF5/2,IF($C5="rhel",1,IF($C5="suse",1,IF($C5="Ubuntu",1,IF($C5="Oracle Linux",1,IF($C5="Debian",1,IF($C5="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="CJ5" s="32">
+        <f>IF($D5="MS SQL Standard Edition - Active VM",CF5/2,IF($D5="MS SQL Enterprise Edition - Active VM",CF5/2,IF($D5="My SQL Community Edition",1,IF($D5="My SQL Enterprise Edition",1,IF($D5="Postgre SQL Community edition",CF5,IF($D5="Postgre SQL Enterprise Edition",CF5,IF($D5="Oracle Standard Edition",1,IF($D5="Oracle Enterprise",CF5/2,IF($D5="Maria DB Community edition",1,IF($D5="MongoDB Community edition",1,IF($D5="MS SQL Standard Edition - Passive VM",,IF($D5="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:88" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>7796</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>7725</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>7838</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>7829</v>
+      </c>
+      <c r="E6" s="27">
+        <v>10</v>
+      </c>
+      <c r="F6" s="27">
+        <v>14</v>
+      </c>
+      <c r="G6" s="27">
+        <v>56</v>
+      </c>
+      <c r="H6" s="27">
+        <v>800</v>
+      </c>
+      <c r="I6" s="28">
+        <f>IF($C6="win",F6/2,IF($C6="rhel",1,IF($C6="suse",1,IF($C6="Ubuntu",1,IF($C6="Oracle Linux",1,IF($C6="Debian",1,IF($C6="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="J6" s="29">
+        <f>IF($D6="MS SQL Standard Edition - Active VM",F6/2,IF($D6="MS SQL Enterprise Edition - Active VM",F6/2,IF($D6="My SQL Community Edition",1,IF($D6="My SQL Enterprise Edition",1,IF($D6="Postgre SQL Community edition",F6,IF($D6="Postgre SQL Enterprise Edition",F6,IF($D6="Oracle Standard Edition",1,IF($D6="Oracle Enterprise",F6/2,IF($D6="Maria DB Community edition",1,IF($D6="MongoDB Community edition",1,IF($D6="MS SQL Standard Edition - Passive VM",,IF($D6="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>14</v>
+      </c>
+      <c r="K6" s="30">
+        <v>4</v>
+      </c>
+      <c r="L6" s="30">
+        <v>4</v>
+      </c>
+      <c r="M6" s="30">
+        <v>8</v>
+      </c>
+      <c r="N6" s="30">
+        <v>200</v>
+      </c>
+      <c r="O6" s="31">
+        <f>IF($C6="win",L6/2,IF($C6="rhel",1,IF($C6="suse",1,IF($C6="Ubuntu",1,IF($C6="Oracle Linux",1,IF($C6="Debian",1,IF($C6="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="P6" s="32">
+        <f>IF($D6="MS SQL Standard Edition - Active VM",L6/2,IF($D6="MS SQL Enterprise Edition - Active VM",L6/2,IF($D6="My SQL Community Edition",1,IF($D6="My SQL Enterprise Edition",1,IF($D6="Postgre SQL Community edition",L6,IF($D6="Postgre SQL Enterprise Edition",L6,IF($D6="Oracle Standard Edition",1,IF($D6="Oracle Enterprise",L6/2,IF($D6="Maria DB Community edition",1,IF($D6="MongoDB Community edition",1,IF($D6="MS SQL Standard Edition - Passive VM",,IF($D6="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>4</v>
+      </c>
+      <c r="Q6" s="27">
+        <v>4</v>
+      </c>
+      <c r="R6" s="27">
+        <v>4</v>
+      </c>
+      <c r="S6" s="27">
+        <v>8</v>
+      </c>
+      <c r="T6" s="27">
+        <v>200</v>
+      </c>
+      <c r="U6" s="28">
+        <f>IF($C6="win",R6/2,IF($C6="rhel",1,IF($C6="suse",1,IF($C6="Ubuntu",1,IF($C6="Oracle Linux",1,IF($C6="Debian",1,IF($C6="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="V6" s="29">
+        <f>IF($D6="MS SQL Standard Edition - Active VM",R6/2,IF($D6="MS SQL Enterprise Edition - Active VM",R6/2,IF($D6="My SQL Community Edition",1,IF($D6="My SQL Enterprise Edition",1,IF($D6="Postgre SQL Community edition",R6,IF($D6="Postgre SQL Enterprise Edition",R6,IF($D6="Oracle Standard Edition",1,IF($D6="Oracle Enterprise",R6/2,IF($D6="Maria DB Community edition",1,IF($D6="MongoDB Community edition",1,IF($D6="MS SQL Standard Edition - Passive VM",,IF($D6="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>4</v>
+      </c>
+      <c r="W6" s="30">
+        <v>4</v>
+      </c>
+      <c r="X6" s="30">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="30">
+        <v>8</v>
+      </c>
+      <c r="Z6" s="30">
+        <v>200</v>
+      </c>
+      <c r="AA6" s="31">
+        <f>IF($C6="win",X6/2,IF($C6="rhel",1,IF($C6="suse",1,IF($C6="Ubuntu",1,IF($C6="Oracle Linux",1,IF($C6="Debian",1,IF($C6="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AB6" s="32">
+        <f>IF($D6="MS SQL Standard Edition - Active VM",X6/2,IF($D6="MS SQL Enterprise Edition - Active VM",X6/2,IF($D6="My SQL Community Edition",1,IF($D6="My SQL Enterprise Edition",1,IF($D6="Postgre SQL Community edition",X6,IF($D6="Postgre SQL Enterprise Edition",X6,IF($D6="Oracle Standard Edition",1,IF($D6="Oracle Enterprise",X6/2,IF($D6="Maria DB Community edition",1,IF($D6="MongoDB Community edition",1,IF($D6="MS SQL Standard Edition - Passive VM",,IF($D6="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AC6" s="27">
+        <v>4</v>
+      </c>
+      <c r="AD6" s="27">
+        <v>4</v>
+      </c>
+      <c r="AE6" s="27">
+        <v>8</v>
+      </c>
+      <c r="AF6" s="27">
+        <v>200</v>
+      </c>
+      <c r="AG6" s="28">
+        <f>IF($C6="win",AD6/2,IF($C6="rhel",1,IF($C6="suse",1,IF($C6="Ubuntu",1,IF($C6="Oracle Linux",1,IF($C6="Debian",1,IF($C6="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AH6" s="29">
+        <f>IF($D6="MS SQL Standard Edition - Active VM",AD6/2,IF($D6="MS SQL Enterprise Edition - Active VM",AD6/2,IF($D6="My SQL Community Edition",1,IF($D6="My SQL Enterprise Edition",1,IF($D6="Postgre SQL Community edition",AD6,IF($D6="Postgre SQL Enterprise Edition",AD6,IF($D6="Oracle Standard Edition",1,IF($D6="Oracle Enterprise",AD6/2,IF($D6="Maria DB Community edition",1,IF($D6="MongoDB Community edition",1,IF($D6="MS SQL Standard Edition - Passive VM",,IF($D6="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AI6" s="30">
+        <v>4</v>
+      </c>
+      <c r="AJ6" s="30">
+        <v>4</v>
+      </c>
+      <c r="AK6" s="30">
+        <v>8</v>
+      </c>
+      <c r="AL6" s="30">
+        <v>200</v>
+      </c>
+      <c r="AM6" s="31">
+        <f>IF($C6="win",AJ6/2,IF($C6="rhel",1,IF($C6="suse",1,IF($C6="Ubuntu",1,IF($C6="Oracle Linux",1,IF($C6="Debian",1,IF($C6="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AN6" s="32">
+        <f>IF($D6="MS SQL Standard Edition - Active VM",AJ6/2,IF($D6="MS SQL Enterprise Edition - Active VM",AJ6/2,IF($D6="My SQL Community Edition",1,IF($D6="My SQL Enterprise Edition",1,IF($D6="Postgre SQL Community edition",AJ6,IF($D6="Postgre SQL Enterprise Edition",AJ6,IF($D6="Oracle Standard Edition",1,IF($D6="Oracle Enterprise",AJ6/2,IF($D6="Maria DB Community edition",1,IF($D6="MongoDB Community edition",1,IF($D6="MS SQL Standard Edition - Passive VM",,IF($D6="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AO6" s="27">
+        <v>4</v>
+      </c>
+      <c r="AP6" s="27">
+        <v>4</v>
+      </c>
+      <c r="AQ6" s="27">
+        <v>8</v>
+      </c>
+      <c r="AR6" s="27">
+        <v>200</v>
+      </c>
+      <c r="AS6" s="28">
+        <f>IF($C6="win",AP6/2,IF($C6="rhel",1,IF($C6="suse",1,IF($C6="Ubuntu",1,IF($C6="Oracle Linux",1,IF($C6="Debian",1,IF($C6="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AT6" s="29">
+        <f>IF($D6="MS SQL Standard Edition - Active VM",AP6/2,IF($D6="MS SQL Enterprise Edition - Active VM",AP6/2,IF($D6="My SQL Community Edition",1,IF($D6="My SQL Enterprise Edition",1,IF($D6="Postgre SQL Community edition",AP6,IF($D6="Postgre SQL Enterprise Edition",AP6,IF($D6="Oracle Standard Edition",1,IF($D6="Oracle Enterprise",AP6/2,IF($D6="Maria DB Community edition",1,IF($D6="MongoDB Community edition",1,IF($D6="MS SQL Standard Edition - Passive VM",,IF($D6="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AU6" s="30">
+        <v>4</v>
+      </c>
+      <c r="AV6" s="30">
+        <v>4</v>
+      </c>
+      <c r="AW6" s="30">
+        <v>8</v>
+      </c>
+      <c r="AX6" s="30">
+        <v>200</v>
+      </c>
+      <c r="AY6" s="31">
+        <f>IF($C6="win",AV6/2,IF($C6="rhel",1,IF($C6="suse",1,IF($C6="Ubuntu",1,IF($C6="Oracle Linux",1,IF($C6="Debian",1,IF($C6="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="32">
+        <f>IF($D6="MS SQL Standard Edition - Active VM",AV6/2,IF($D6="MS SQL Enterprise Edition - Active VM",AV6/2,IF($D6="My SQL Community Edition",1,IF($D6="My SQL Enterprise Edition",1,IF($D6="Postgre SQL Community edition",AV6,IF($D6="Postgre SQL Enterprise Edition",AV6,IF($D6="Oracle Standard Edition",1,IF($D6="Oracle Enterprise",AV6/2,IF($D6="Maria DB Community edition",1,IF($D6="MongoDB Community edition",1,IF($D6="MS SQL Standard Edition - Passive VM",,IF($D6="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>4</v>
+      </c>
+      <c r="BA6" s="27">
+        <v>4</v>
+      </c>
+      <c r="BB6" s="27">
+        <v>4</v>
+      </c>
+      <c r="BC6" s="27">
+        <v>8</v>
+      </c>
+      <c r="BD6" s="27">
+        <v>200</v>
+      </c>
+      <c r="BE6" s="28">
+        <f>IF($C6="win",BB6/2,IF($C6="rhel",1,IF($C6="suse",1,IF($C6="Ubuntu",1,IF($C6="Oracle Linux",1,IF($C6="Debian",1,IF($C6="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="BF6" s="29">
+        <f>IF($D6="MS SQL Standard Edition - Active VM",BB6/2,IF($D6="MS SQL Enterprise Edition - Active VM",BB6/2,IF($D6="My SQL Community Edition",1,IF($D6="My SQL Enterprise Edition",1,IF($D6="Postgre SQL Community edition",BB6,IF($D6="Postgre SQL Enterprise Edition",BB6,IF($D6="Oracle Standard Edition",1,IF($D6="Oracle Enterprise",BB6/2,IF($D6="Maria DB Community edition",1,IF($D6="MongoDB Community edition",1,IF($D6="MS SQL Standard Edition - Passive VM",,IF($D6="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>4</v>
+      </c>
+      <c r="BG6" s="30">
+        <v>4</v>
+      </c>
+      <c r="BH6" s="30">
+        <v>4</v>
+      </c>
+      <c r="BI6" s="30">
+        <v>8</v>
+      </c>
+      <c r="BJ6" s="30">
+        <v>200</v>
+      </c>
+      <c r="BK6" s="31">
+        <f>IF($C6="win",BH6/2,IF($C6="rhel",1,IF($C6="suse",1,IF($C6="Ubuntu",1,IF($C6="Oracle Linux",1,IF($C6="Debian",1,IF($C6="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="BL6" s="32">
+        <f>IF($D6="MS SQL Standard Edition - Active VM",BH6/2,IF($D6="MS SQL Enterprise Edition - Active VM",BH6/2,IF($D6="My SQL Community Edition",1,IF($D6="My SQL Enterprise Edition",1,IF($D6="Postgre SQL Community edition",BH6,IF($D6="Postgre SQL Enterprise Edition",BH6,IF($D6="Oracle Standard Edition",1,IF($D6="Oracle Enterprise",BH6/2,IF($D6="Maria DB Community edition",1,IF($D6="MongoDB Community edition",1,IF($D6="MS SQL Standard Edition - Passive VM",,IF($D6="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>4</v>
+      </c>
+      <c r="BM6" s="27">
+        <v>4</v>
+      </c>
+      <c r="BN6" s="27">
+        <v>4</v>
+      </c>
+      <c r="BO6" s="27">
+        <v>8</v>
+      </c>
+      <c r="BP6" s="27">
+        <v>200</v>
+      </c>
+      <c r="BQ6" s="28">
+        <f>IF($C6="win",BN6/2,IF($C6="rhel",1,IF($C6="suse",1,IF($C6="Ubuntu",1,IF($C6="Oracle Linux",1,IF($C6="Debian",1,IF($C6="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="BR6" s="29">
+        <f>IF($D6="MS SQL Standard Edition - Active VM",BN6/2,IF($D6="MS SQL Enterprise Edition - Active VM",BN6/2,IF($D6="My SQL Community Edition",1,IF($D6="My SQL Enterprise Edition",1,IF($D6="Postgre SQL Community edition",BN6,IF($D6="Postgre SQL Enterprise Edition",BN6,IF($D6="Oracle Standard Edition",1,IF($D6="Oracle Enterprise",BN6/2,IF($D6="Maria DB Community edition",1,IF($D6="MongoDB Community edition",1,IF($D6="MS SQL Standard Edition - Passive VM",,IF($D6="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>4</v>
+      </c>
+      <c r="BS6" s="30">
+        <v>4</v>
+      </c>
+      <c r="BT6" s="30">
+        <v>4</v>
+      </c>
+      <c r="BU6" s="30">
+        <v>8</v>
+      </c>
+      <c r="BV6" s="30">
+        <v>200</v>
+      </c>
+      <c r="BW6" s="31">
+        <f>IF($C6="win",BT6/2,IF($C6="rhel",1,IF($C6="suse",1,IF($C6="Ubuntu",1,IF($C6="Oracle Linux",1,IF($C6="Debian",1,IF($C6="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="BX6" s="32">
+        <f>IF($D6="MS SQL Standard Edition - Active VM",BT6/2,IF($D6="MS SQL Enterprise Edition - Active VM",BT6/2,IF($D6="My SQL Community Edition",1,IF($D6="My SQL Enterprise Edition",1,IF($D6="Postgre SQL Community edition",BT6,IF($D6="Postgre SQL Enterprise Edition",BT6,IF($D6="Oracle Standard Edition",1,IF($D6="Oracle Enterprise",BT6/2,IF($D6="Maria DB Community edition",1,IF($D6="MongoDB Community edition",1,IF($D6="MS SQL Standard Edition - Passive VM",,IF($D6="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>4</v>
+      </c>
+      <c r="BY6" s="27">
+        <v>4</v>
+      </c>
+      <c r="BZ6" s="27">
+        <v>4</v>
+      </c>
+      <c r="CA6" s="27">
+        <v>8</v>
+      </c>
+      <c r="CB6" s="27">
+        <v>200</v>
+      </c>
+      <c r="CC6" s="28">
+        <f>IF($C6="win",BZ6/2,IF($C6="rhel",1,IF($C6="suse",1,IF($C6="Ubuntu",1,IF($C6="Oracle Linux",1,IF($C6="Debian",1,IF($C6="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="CD6" s="29">
+        <f>IF($D6="MS SQL Standard Edition - Active VM",BZ6/2,IF($D6="MS SQL Enterprise Edition - Active VM",BZ6/2,IF($D6="My SQL Community Edition",1,IF($D6="My SQL Enterprise Edition",1,IF($D6="Postgre SQL Community edition",BZ6,IF($D6="Postgre SQL Enterprise Edition",BZ6,IF($D6="Oracle Standard Edition",1,IF($D6="Oracle Enterprise",BZ6/2,IF($D6="Maria DB Community edition",1,IF($D6="MongoDB Community edition",1,IF($D6="MS SQL Standard Edition - Passive VM",,IF($D6="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>4</v>
+      </c>
+      <c r="CE6" s="30">
+        <v>4</v>
+      </c>
+      <c r="CF6" s="30">
+        <v>4</v>
+      </c>
+      <c r="CG6" s="30">
+        <v>8</v>
+      </c>
+      <c r="CH6" s="30">
+        <v>200</v>
+      </c>
+      <c r="CI6" s="31">
+        <f>IF($C6="win",CF6/2,IF($C6="rhel",1,IF($C6="suse",1,IF($C6="Ubuntu",1,IF($C6="Oracle Linux",1,IF($C6="Debian",1,IF($C6="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="CJ6" s="32">
+        <f>IF($D6="MS SQL Standard Edition - Active VM",CF6/2,IF($D6="MS SQL Enterprise Edition - Active VM",CF6/2,IF($D6="My SQL Community Edition",1,IF($D6="My SQL Enterprise Edition",1,IF($D6="Postgre SQL Community edition",CF6,IF($D6="Postgre SQL Enterprise Edition",CF6,IF($D6="Oracle Standard Edition",1,IF($D6="Oracle Enterprise",CF6/2,IF($D6="Maria DB Community edition",1,IF($D6="MongoDB Community edition",1,IF($D6="MS SQL Standard Edition - Passive VM",,IF($D6="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:88" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>7796</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>7726</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>7837</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>7830</v>
+      </c>
+      <c r="E7" s="27">
+        <v>12</v>
+      </c>
+      <c r="F7" s="27">
+        <v>12</v>
+      </c>
+      <c r="G7" s="27">
+        <v>54</v>
+      </c>
+      <c r="H7" s="27">
+        <v>600</v>
+      </c>
+      <c r="I7" s="28">
+        <f>IF($C7="win",F7/2,IF($C7="rhel",1,IF($C7="suse",1,IF($C7="Ubuntu",1,IF($C7="Oracle Linux",1,IF($C7="Debian",1,IF($C7="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="J7" s="29">
+        <f>IF($D7="MS SQL Standard Edition - Active VM",F7/2,IF($D7="MS SQL Enterprise Edition - Active VM",F7/2,IF($D7="My SQL Community Edition",1,IF($D7="My SQL Enterprise Edition",1,IF($D7="Postgre SQL Community edition",F7,IF($D7="Postgre SQL Enterprise Edition",F7,IF($D7="Oracle Standard Edition",1,IF($D7="Oracle Enterprise",F7/2,IF($D7="Maria DB Community edition",1,IF($D7="MongoDB Community edition",1,IF($D7="MS SQL Standard Edition - Passive VM",,IF($D7="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>12</v>
+      </c>
+      <c r="K7" s="30">
+        <v>4</v>
+      </c>
+      <c r="L7" s="30">
+        <v>4</v>
+      </c>
+      <c r="M7" s="30">
+        <v>8</v>
+      </c>
+      <c r="N7" s="30">
+        <v>200</v>
+      </c>
+      <c r="O7" s="31">
+        <f>IF($C7="win",L7/2,IF($C7="rhel",1,IF($C7="suse",1,IF($C7="Ubuntu",1,IF($C7="Oracle Linux",1,IF($C7="Debian",1,IF($C7="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="P7" s="32">
+        <f>IF($D7="MS SQL Standard Edition - Active VM",L7/2,IF($D7="MS SQL Enterprise Edition - Active VM",L7/2,IF($D7="My SQL Community Edition",1,IF($D7="My SQL Enterprise Edition",1,IF($D7="Postgre SQL Community edition",L7,IF($D7="Postgre SQL Enterprise Edition",L7,IF($D7="Oracle Standard Edition",1,IF($D7="Oracle Enterprise",L7/2,IF($D7="Maria DB Community edition",1,IF($D7="MongoDB Community edition",1,IF($D7="MS SQL Standard Edition - Passive VM",,IF($D7="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>4</v>
+      </c>
+      <c r="Q7" s="27">
+        <v>4</v>
+      </c>
+      <c r="R7" s="27">
+        <v>4</v>
+      </c>
+      <c r="S7" s="27">
+        <v>8</v>
+      </c>
+      <c r="T7" s="27">
+        <v>200</v>
+      </c>
+      <c r="U7" s="28">
+        <f>IF($C7="win",R7/2,IF($C7="rhel",1,IF($C7="suse",1,IF($C7="Ubuntu",1,IF($C7="Oracle Linux",1,IF($C7="Debian",1,IF($C7="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="V7" s="29">
+        <f>IF($D7="MS SQL Standard Edition - Active VM",R7/2,IF($D7="MS SQL Enterprise Edition - Active VM",R7/2,IF($D7="My SQL Community Edition",1,IF($D7="My SQL Enterprise Edition",1,IF($D7="Postgre SQL Community edition",R7,IF($D7="Postgre SQL Enterprise Edition",R7,IF($D7="Oracle Standard Edition",1,IF($D7="Oracle Enterprise",R7/2,IF($D7="Maria DB Community edition",1,IF($D7="MongoDB Community edition",1,IF($D7="MS SQL Standard Edition - Passive VM",,IF($D7="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>4</v>
+      </c>
+      <c r="W7" s="30">
+        <v>4</v>
+      </c>
+      <c r="X7" s="30">
+        <v>4</v>
+      </c>
+      <c r="Y7" s="30">
+        <v>8</v>
+      </c>
+      <c r="Z7" s="30">
+        <v>200</v>
+      </c>
+      <c r="AA7" s="31">
+        <f>IF($C7="win",X7/2,IF($C7="rhel",1,IF($C7="suse",1,IF($C7="Ubuntu",1,IF($C7="Oracle Linux",1,IF($C7="Debian",1,IF($C7="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AB7" s="32">
+        <f>IF($D7="MS SQL Standard Edition - Active VM",X7/2,IF($D7="MS SQL Enterprise Edition - Active VM",X7/2,IF($D7="My SQL Community Edition",1,IF($D7="My SQL Enterprise Edition",1,IF($D7="Postgre SQL Community edition",X7,IF($D7="Postgre SQL Enterprise Edition",X7,IF($D7="Oracle Standard Edition",1,IF($D7="Oracle Enterprise",X7/2,IF($D7="Maria DB Community edition",1,IF($D7="MongoDB Community edition",1,IF($D7="MS SQL Standard Edition - Passive VM",,IF($D7="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AC7" s="27">
+        <v>4</v>
+      </c>
+      <c r="AD7" s="27">
+        <v>4</v>
+      </c>
+      <c r="AE7" s="27">
+        <v>8</v>
+      </c>
+      <c r="AF7" s="27">
+        <v>200</v>
+      </c>
+      <c r="AG7" s="28">
+        <f>IF($C7="win",AD7/2,IF($C7="rhel",1,IF($C7="suse",1,IF($C7="Ubuntu",1,IF($C7="Oracle Linux",1,IF($C7="Debian",1,IF($C7="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AH7" s="29">
+        <f>IF($D7="MS SQL Standard Edition - Active VM",AD7/2,IF($D7="MS SQL Enterprise Edition - Active VM",AD7/2,IF($D7="My SQL Community Edition",1,IF($D7="My SQL Enterprise Edition",1,IF($D7="Postgre SQL Community edition",AD7,IF($D7="Postgre SQL Enterprise Edition",AD7,IF($D7="Oracle Standard Edition",1,IF($D7="Oracle Enterprise",AD7/2,IF($D7="Maria DB Community edition",1,IF($D7="MongoDB Community edition",1,IF($D7="MS SQL Standard Edition - Passive VM",,IF($D7="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AI7" s="30">
+        <v>4</v>
+      </c>
+      <c r="AJ7" s="30">
+        <v>4</v>
+      </c>
+      <c r="AK7" s="30">
+        <v>8</v>
+      </c>
+      <c r="AL7" s="30">
+        <v>200</v>
+      </c>
+      <c r="AM7" s="31">
+        <f>IF($C7="win",AJ7/2,IF($C7="rhel",1,IF($C7="suse",1,IF($C7="Ubuntu",1,IF($C7="Oracle Linux",1,IF($C7="Debian",1,IF($C7="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AN7" s="32">
+        <f>IF($D7="MS SQL Standard Edition - Active VM",AJ7/2,IF($D7="MS SQL Enterprise Edition - Active VM",AJ7/2,IF($D7="My SQL Community Edition",1,IF($D7="My SQL Enterprise Edition",1,IF($D7="Postgre SQL Community edition",AJ7,IF($D7="Postgre SQL Enterprise Edition",AJ7,IF($D7="Oracle Standard Edition",1,IF($D7="Oracle Enterprise",AJ7/2,IF($D7="Maria DB Community edition",1,IF($D7="MongoDB Community edition",1,IF($D7="MS SQL Standard Edition - Passive VM",,IF($D7="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AO7" s="27">
+        <v>4</v>
+      </c>
+      <c r="AP7" s="27">
+        <v>4</v>
+      </c>
+      <c r="AQ7" s="27">
+        <v>8</v>
+      </c>
+      <c r="AR7" s="27">
+        <v>200</v>
+      </c>
+      <c r="AS7" s="28">
+        <f>IF($C7="win",AP7/2,IF($C7="rhel",1,IF($C7="suse",1,IF($C7="Ubuntu",1,IF($C7="Oracle Linux",1,IF($C7="Debian",1,IF($C7="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AT7" s="29">
+        <f>IF($D7="MS SQL Standard Edition - Active VM",AP7/2,IF($D7="MS SQL Enterprise Edition - Active VM",AP7/2,IF($D7="My SQL Community Edition",1,IF($D7="My SQL Enterprise Edition",1,IF($D7="Postgre SQL Community edition",AP7,IF($D7="Postgre SQL Enterprise Edition",AP7,IF($D7="Oracle Standard Edition",1,IF($D7="Oracle Enterprise",AP7/2,IF($D7="Maria DB Community edition",1,IF($D7="MongoDB Community edition",1,IF($D7="MS SQL Standard Edition - Passive VM",,IF($D7="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>4</v>
+      </c>
+      <c r="AU7" s="30">
+        <v>4</v>
+      </c>
+      <c r="AV7" s="30">
+        <v>4</v>
+      </c>
+      <c r="AW7" s="30">
+        <v>8</v>
+      </c>
+      <c r="AX7" s="30">
+        <v>200</v>
+      </c>
+      <c r="AY7" s="31">
+        <f>IF($C7="win",AV7/2,IF($C7="rhel",1,IF($C7="suse",1,IF($C7="Ubuntu",1,IF($C7="Oracle Linux",1,IF($C7="Debian",1,IF($C7="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AZ7" s="32">
+        <f>IF($D7="MS SQL Standard Edition - Active VM",AV7/2,IF($D7="MS SQL Enterprise Edition - Active VM",AV7/2,IF($D7="My SQL Community Edition",1,IF($D7="My SQL Enterprise Edition",1,IF($D7="Postgre SQL Community edition",AV7,IF($D7="Postgre SQL Enterprise Edition",AV7,IF($D7="Oracle Standard Edition",1,IF($D7="Oracle Enterprise",AV7/2,IF($D7="Maria DB Community edition",1,IF($D7="MongoDB Community edition",1,IF($D7="MS SQL Standard Edition - Passive VM",,IF($D7="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>4</v>
+      </c>
+      <c r="BA7" s="27">
+        <v>4</v>
+      </c>
+      <c r="BB7" s="27">
+        <v>4</v>
+      </c>
+      <c r="BC7" s="27">
+        <v>8</v>
+      </c>
+      <c r="BD7" s="27">
+        <v>200</v>
+      </c>
+      <c r="BE7" s="28">
+        <f>IF($C7="win",BB7/2,IF($C7="rhel",1,IF($C7="suse",1,IF($C7="Ubuntu",1,IF($C7="Oracle Linux",1,IF($C7="Debian",1,IF($C7="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="BF7" s="29">
+        <f>IF($D7="MS SQL Standard Edition - Active VM",BB7/2,IF($D7="MS SQL Enterprise Edition - Active VM",BB7/2,IF($D7="My SQL Community Edition",1,IF($D7="My SQL Enterprise Edition",1,IF($D7="Postgre SQL Community edition",BB7,IF($D7="Postgre SQL Enterprise Edition",BB7,IF($D7="Oracle Standard Edition",1,IF($D7="Oracle Enterprise",BB7/2,IF($D7="Maria DB Community edition",1,IF($D7="MongoDB Community edition",1,IF($D7="MS SQL Standard Edition - Passive VM",,IF($D7="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>4</v>
+      </c>
+      <c r="BG7" s="30">
+        <v>4</v>
+      </c>
+      <c r="BH7" s="30">
+        <v>4</v>
+      </c>
+      <c r="BI7" s="30">
+        <v>8</v>
+      </c>
+      <c r="BJ7" s="30">
+        <v>200</v>
+      </c>
+      <c r="BK7" s="31">
+        <f>IF($C7="win",BH7/2,IF($C7="rhel",1,IF($C7="suse",1,IF($C7="Ubuntu",1,IF($C7="Oracle Linux",1,IF($C7="Debian",1,IF($C7="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="BL7" s="32">
+        <f>IF($D7="MS SQL Standard Edition - Active VM",BH7/2,IF($D7="MS SQL Enterprise Edition - Active VM",BH7/2,IF($D7="My SQL Community Edition",1,IF($D7="My SQL Enterprise Edition",1,IF($D7="Postgre SQL Community edition",BH7,IF($D7="Postgre SQL Enterprise Edition",BH7,IF($D7="Oracle Standard Edition",1,IF($D7="Oracle Enterprise",BH7/2,IF($D7="Maria DB Community edition",1,IF($D7="MongoDB Community edition",1,IF($D7="MS SQL Standard Edition - Passive VM",,IF($D7="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>4</v>
+      </c>
+      <c r="BM7" s="27">
+        <v>4</v>
+      </c>
+      <c r="BN7" s="27">
+        <v>4</v>
+      </c>
+      <c r="BO7" s="27">
+        <v>8</v>
+      </c>
+      <c r="BP7" s="27">
+        <v>200</v>
+      </c>
+      <c r="BQ7" s="28">
+        <f>IF($C7="win",BN7/2,IF($C7="rhel",1,IF($C7="suse",1,IF($C7="Ubuntu",1,IF($C7="Oracle Linux",1,IF($C7="Debian",1,IF($C7="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="BR7" s="29">
+        <f>IF($D7="MS SQL Standard Edition - Active VM",BN7/2,IF($D7="MS SQL Enterprise Edition - Active VM",BN7/2,IF($D7="My SQL Community Edition",1,IF($D7="My SQL Enterprise Edition",1,IF($D7="Postgre SQL Community edition",BN7,IF($D7="Postgre SQL Enterprise Edition",BN7,IF($D7="Oracle Standard Edition",1,IF($D7="Oracle Enterprise",BN7/2,IF($D7="Maria DB Community edition",1,IF($D7="MongoDB Community edition",1,IF($D7="MS SQL Standard Edition - Passive VM",,IF($D7="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>4</v>
+      </c>
+      <c r="BS7" s="30">
+        <v>4</v>
+      </c>
+      <c r="BT7" s="30">
+        <v>4</v>
+      </c>
+      <c r="BU7" s="30">
+        <v>8</v>
+      </c>
+      <c r="BV7" s="30">
+        <v>200</v>
+      </c>
+      <c r="BW7" s="31">
+        <f>IF($C7="win",BT7/2,IF($C7="rhel",1,IF($C7="suse",1,IF($C7="Ubuntu",1,IF($C7="Oracle Linux",1,IF($C7="Debian",1,IF($C7="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="BX7" s="32">
+        <f>IF($D7="MS SQL Standard Edition - Active VM",BT7/2,IF($D7="MS SQL Enterprise Edition - Active VM",BT7/2,IF($D7="My SQL Community Edition",1,IF($D7="My SQL Enterprise Edition",1,IF($D7="Postgre SQL Community edition",BT7,IF($D7="Postgre SQL Enterprise Edition",BT7,IF($D7="Oracle Standard Edition",1,IF($D7="Oracle Enterprise",BT7/2,IF($D7="Maria DB Community edition",1,IF($D7="MongoDB Community edition",1,IF($D7="MS SQL Standard Edition - Passive VM",,IF($D7="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>4</v>
+      </c>
+      <c r="BY7" s="27">
+        <v>4</v>
+      </c>
+      <c r="BZ7" s="27">
+        <v>4</v>
+      </c>
+      <c r="CA7" s="27">
+        <v>8</v>
+      </c>
+      <c r="CB7" s="27">
+        <v>200</v>
+      </c>
+      <c r="CC7" s="28">
+        <f>IF($C7="win",BZ7/2,IF($C7="rhel",1,IF($C7="suse",1,IF($C7="Ubuntu",1,IF($C7="Oracle Linux",1,IF($C7="Debian",1,IF($C7="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="CD7" s="29">
+        <f>IF($D7="MS SQL Standard Edition - Active VM",BZ7/2,IF($D7="MS SQL Enterprise Edition - Active VM",BZ7/2,IF($D7="My SQL Community Edition",1,IF($D7="My SQL Enterprise Edition",1,IF($D7="Postgre SQL Community edition",BZ7,IF($D7="Postgre SQL Enterprise Edition",BZ7,IF($D7="Oracle Standard Edition",1,IF($D7="Oracle Enterprise",BZ7/2,IF($D7="Maria DB Community edition",1,IF($D7="MongoDB Community edition",1,IF($D7="MS SQL Standard Edition - Passive VM",,IF($D7="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>4</v>
+      </c>
+      <c r="CE7" s="30">
+        <v>4</v>
+      </c>
+      <c r="CF7" s="30">
+        <v>4</v>
+      </c>
+      <c r="CG7" s="30">
+        <v>8</v>
+      </c>
+      <c r="CH7" s="30">
+        <v>200</v>
+      </c>
+      <c r="CI7" s="31">
+        <f>IF($C7="win",CF7/2,IF($C7="rhel",1,IF($C7="suse",1,IF($C7="Ubuntu",1,IF($C7="Oracle Linux",1,IF($C7="Debian",1,IF($C7="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="CJ7" s="32">
+        <f>IF($D7="MS SQL Standard Edition - Active VM",CF7/2,IF($D7="MS SQL Enterprise Edition - Active VM",CF7/2,IF($D7="My SQL Community Edition",1,IF($D7="My SQL Enterprise Edition",1,IF($D7="Postgre SQL Community edition",CF7,IF($D7="Postgre SQL Enterprise Edition",CF7,IF($D7="Oracle Standard Edition",1,IF($D7="Oracle Enterprise",CF7/2,IF($D7="Maria DB Community edition",1,IF($D7="MongoDB Community edition",1,IF($D7="MS SQL Standard Edition - Passive VM",,IF($D7="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:88" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>7796</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>7727</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>7837</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>7831</v>
+      </c>
+      <c r="E8" s="27">
+        <v>14</v>
+      </c>
+      <c r="F8" s="27">
+        <v>10</v>
+      </c>
+      <c r="G8" s="27">
+        <v>52</v>
+      </c>
+      <c r="H8" s="27">
+        <v>400</v>
+      </c>
+      <c r="I8" s="28">
+        <f>IF($C8="win",F8/2,IF($C8="rhel",1,IF($C8="suse",1,IF($C8="Ubuntu",1,IF($C8="Oracle Linux",1,IF($C8="Debian",1,IF($C8="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="J8" s="29">
+        <f>IF($D8="MS SQL Standard Edition - Active VM",F8/2,IF($D8="MS SQL Enterprise Edition - Active VM",F8/2,IF($D8="My SQL Community Edition",1,IF($D8="My SQL Enterprise Edition",1,IF($D8="Postgre SQL Community edition",F8,IF($D8="Postgre SQL Enterprise Edition",F8,IF($D8="Oracle Standard Edition",1,IF($D8="Oracle Enterprise",F8/2,IF($D8="Maria DB Community edition",1,IF($D8="MongoDB Community edition",1,IF($D8="MS SQL Standard Edition - Passive VM",,IF($D8="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="K8" s="30">
+        <v>4</v>
+      </c>
+      <c r="L8" s="30">
+        <v>4</v>
+      </c>
+      <c r="M8" s="30">
+        <v>8</v>
+      </c>
+      <c r="N8" s="30">
+        <v>200</v>
+      </c>
+      <c r="O8" s="31">
+        <f>IF($C8="win",L8/2,IF($C8="rhel",1,IF($C8="suse",1,IF($C8="Ubuntu",1,IF($C8="Oracle Linux",1,IF($C8="Debian",1,IF($C8="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="P8" s="32">
+        <f>IF($D8="MS SQL Standard Edition - Active VM",L8/2,IF($D8="MS SQL Enterprise Edition - Active VM",L8/2,IF($D8="My SQL Community Edition",1,IF($D8="My SQL Enterprise Edition",1,IF($D8="Postgre SQL Community edition",L8,IF($D8="Postgre SQL Enterprise Edition",L8,IF($D8="Oracle Standard Edition",1,IF($D8="Oracle Enterprise",L8/2,IF($D8="Maria DB Community edition",1,IF($D8="MongoDB Community edition",1,IF($D8="MS SQL Standard Edition - Passive VM",,IF($D8="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="Q8" s="27">
+        <v>4</v>
+      </c>
+      <c r="R8" s="27">
+        <v>4</v>
+      </c>
+      <c r="S8" s="27">
+        <v>8</v>
+      </c>
+      <c r="T8" s="27">
+        <v>200</v>
+      </c>
+      <c r="U8" s="28">
+        <f>IF($C8="win",R8/2,IF($C8="rhel",1,IF($C8="suse",1,IF($C8="Ubuntu",1,IF($C8="Oracle Linux",1,IF($C8="Debian",1,IF($C8="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="V8" s="29">
+        <f>IF($D8="MS SQL Standard Edition - Active VM",R8/2,IF($D8="MS SQL Enterprise Edition - Active VM",R8/2,IF($D8="My SQL Community Edition",1,IF($D8="My SQL Enterprise Edition",1,IF($D8="Postgre SQL Community edition",R8,IF($D8="Postgre SQL Enterprise Edition",R8,IF($D8="Oracle Standard Edition",1,IF($D8="Oracle Enterprise",R8/2,IF($D8="Maria DB Community edition",1,IF($D8="MongoDB Community edition",1,IF($D8="MS SQL Standard Edition - Passive VM",,IF($D8="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="W8" s="30">
+        <v>4</v>
+      </c>
+      <c r="X8" s="30">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="30">
+        <v>8</v>
+      </c>
+      <c r="Z8" s="30">
+        <v>200</v>
+      </c>
+      <c r="AA8" s="31">
+        <f>IF($C8="win",X8/2,IF($C8="rhel",1,IF($C8="suse",1,IF($C8="Ubuntu",1,IF($C8="Oracle Linux",1,IF($C8="Debian",1,IF($C8="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AB8" s="32">
+        <f>IF($D8="MS SQL Standard Edition - Active VM",X8/2,IF($D8="MS SQL Enterprise Edition - Active VM",X8/2,IF($D8="My SQL Community Edition",1,IF($D8="My SQL Enterprise Edition",1,IF($D8="Postgre SQL Community edition",X8,IF($D8="Postgre SQL Enterprise Edition",X8,IF($D8="Oracle Standard Edition",1,IF($D8="Oracle Enterprise",X8/2,IF($D8="Maria DB Community edition",1,IF($D8="MongoDB Community edition",1,IF($D8="MS SQL Standard Edition - Passive VM",,IF($D8="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AC8" s="27">
+        <v>4</v>
+      </c>
+      <c r="AD8" s="27">
+        <v>4</v>
+      </c>
+      <c r="AE8" s="27">
+        <v>8</v>
+      </c>
+      <c r="AF8" s="27">
+        <v>200</v>
+      </c>
+      <c r="AG8" s="28">
+        <f>IF($C8="win",AD8/2,IF($C8="rhel",1,IF($C8="suse",1,IF($C8="Ubuntu",1,IF($C8="Oracle Linux",1,IF($C8="Debian",1,IF($C8="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AH8" s="29">
+        <f>IF($D8="MS SQL Standard Edition - Active VM",AD8/2,IF($D8="MS SQL Enterprise Edition - Active VM",AD8/2,IF($D8="My SQL Community Edition",1,IF($D8="My SQL Enterprise Edition",1,IF($D8="Postgre SQL Community edition",AD8,IF($D8="Postgre SQL Enterprise Edition",AD8,IF($D8="Oracle Standard Edition",1,IF($D8="Oracle Enterprise",AD8/2,IF($D8="Maria DB Community edition",1,IF($D8="MongoDB Community edition",1,IF($D8="MS SQL Standard Edition - Passive VM",,IF($D8="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AI8" s="30">
+        <v>4</v>
+      </c>
+      <c r="AJ8" s="30">
+        <v>4</v>
+      </c>
+      <c r="AK8" s="30">
+        <v>8</v>
+      </c>
+      <c r="AL8" s="30">
+        <v>200</v>
+      </c>
+      <c r="AM8" s="31">
+        <f>IF($C8="win",AJ8/2,IF($C8="rhel",1,IF($C8="suse",1,IF($C8="Ubuntu",1,IF($C8="Oracle Linux",1,IF($C8="Debian",1,IF($C8="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AN8" s="32">
+        <f>IF($D8="MS SQL Standard Edition - Active VM",AJ8/2,IF($D8="MS SQL Enterprise Edition - Active VM",AJ8/2,IF($D8="My SQL Community Edition",1,IF($D8="My SQL Enterprise Edition",1,IF($D8="Postgre SQL Community edition",AJ8,IF($D8="Postgre SQL Enterprise Edition",AJ8,IF($D8="Oracle Standard Edition",1,IF($D8="Oracle Enterprise",AJ8/2,IF($D8="Maria DB Community edition",1,IF($D8="MongoDB Community edition",1,IF($D8="MS SQL Standard Edition - Passive VM",,IF($D8="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AO8" s="27">
+        <v>4</v>
+      </c>
+      <c r="AP8" s="27">
+        <v>4</v>
+      </c>
+      <c r="AQ8" s="27">
+        <v>8</v>
+      </c>
+      <c r="AR8" s="27">
+        <v>200</v>
+      </c>
+      <c r="AS8" s="28">
+        <f>IF($C8="win",AP8/2,IF($C8="rhel",1,IF($C8="suse",1,IF($C8="Ubuntu",1,IF($C8="Oracle Linux",1,IF($C8="Debian",1,IF($C8="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AT8" s="29">
+        <f>IF($D8="MS SQL Standard Edition - Active VM",AP8/2,IF($D8="MS SQL Enterprise Edition - Active VM",AP8/2,IF($D8="My SQL Community Edition",1,IF($D8="My SQL Enterprise Edition",1,IF($D8="Postgre SQL Community edition",AP8,IF($D8="Postgre SQL Enterprise Edition",AP8,IF($D8="Oracle Standard Edition",1,IF($D8="Oracle Enterprise",AP8/2,IF($D8="Maria DB Community edition",1,IF($D8="MongoDB Community edition",1,IF($D8="MS SQL Standard Edition - Passive VM",,IF($D8="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AU8" s="30">
+        <v>4</v>
+      </c>
+      <c r="AV8" s="30">
+        <v>4</v>
+      </c>
+      <c r="AW8" s="30">
+        <v>8</v>
+      </c>
+      <c r="AX8" s="30">
+        <v>200</v>
+      </c>
+      <c r="AY8" s="31">
+        <f>IF($C8="win",AV8/2,IF($C8="rhel",1,IF($C8="suse",1,IF($C8="Ubuntu",1,IF($C8="Oracle Linux",1,IF($C8="Debian",1,IF($C8="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AZ8" s="32">
+        <f>IF($D8="MS SQL Standard Edition - Active VM",AV8/2,IF($D8="MS SQL Enterprise Edition - Active VM",AV8/2,IF($D8="My SQL Community Edition",1,IF($D8="My SQL Enterprise Edition",1,IF($D8="Postgre SQL Community edition",AV8,IF($D8="Postgre SQL Enterprise Edition",AV8,IF($D8="Oracle Standard Edition",1,IF($D8="Oracle Enterprise",AV8/2,IF($D8="Maria DB Community edition",1,IF($D8="MongoDB Community edition",1,IF($D8="MS SQL Standard Edition - Passive VM",,IF($D8="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="BA8" s="27">
+        <v>4</v>
+      </c>
+      <c r="BB8" s="27">
+        <v>4</v>
+      </c>
+      <c r="BC8" s="27">
+        <v>8</v>
+      </c>
+      <c r="BD8" s="27">
+        <v>200</v>
+      </c>
+      <c r="BE8" s="28">
+        <f>IF($C8="win",BB8/2,IF($C8="rhel",1,IF($C8="suse",1,IF($C8="Ubuntu",1,IF($C8="Oracle Linux",1,IF($C8="Debian",1,IF($C8="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="BF8" s="29">
+        <f>IF($D8="MS SQL Standard Edition - Active VM",BB8/2,IF($D8="MS SQL Enterprise Edition - Active VM",BB8/2,IF($D8="My SQL Community Edition",1,IF($D8="My SQL Enterprise Edition",1,IF($D8="Postgre SQL Community edition",BB8,IF($D8="Postgre SQL Enterprise Edition",BB8,IF($D8="Oracle Standard Edition",1,IF($D8="Oracle Enterprise",BB8/2,IF($D8="Maria DB Community edition",1,IF($D8="MongoDB Community edition",1,IF($D8="MS SQL Standard Edition - Passive VM",,IF($D8="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="BG8" s="30">
+        <v>4</v>
+      </c>
+      <c r="BH8" s="30">
+        <v>4</v>
+      </c>
+      <c r="BI8" s="30">
+        <v>8</v>
+      </c>
+      <c r="BJ8" s="30">
+        <v>200</v>
+      </c>
+      <c r="BK8" s="31">
+        <f>IF($C8="win",BH8/2,IF($C8="rhel",1,IF($C8="suse",1,IF($C8="Ubuntu",1,IF($C8="Oracle Linux",1,IF($C8="Debian",1,IF($C8="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="BL8" s="32">
+        <f>IF($D8="MS SQL Standard Edition - Active VM",BH8/2,IF($D8="MS SQL Enterprise Edition - Active VM",BH8/2,IF($D8="My SQL Community Edition",1,IF($D8="My SQL Enterprise Edition",1,IF($D8="Postgre SQL Community edition",BH8,IF($D8="Postgre SQL Enterprise Edition",BH8,IF($D8="Oracle Standard Edition",1,IF($D8="Oracle Enterprise",BH8/2,IF($D8="Maria DB Community edition",1,IF($D8="MongoDB Community edition",1,IF($D8="MS SQL Standard Edition - Passive VM",,IF($D8="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="BM8" s="27">
+        <v>4</v>
+      </c>
+      <c r="BN8" s="27">
+        <v>4</v>
+      </c>
+      <c r="BO8" s="27">
+        <v>8</v>
+      </c>
+      <c r="BP8" s="27">
+        <v>200</v>
+      </c>
+      <c r="BQ8" s="28">
+        <f>IF($C8="win",BN8/2,IF($C8="rhel",1,IF($C8="suse",1,IF($C8="Ubuntu",1,IF($C8="Oracle Linux",1,IF($C8="Debian",1,IF($C8="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="BR8" s="29">
+        <f>IF($D8="MS SQL Standard Edition - Active VM",BN8/2,IF($D8="MS SQL Enterprise Edition - Active VM",BN8/2,IF($D8="My SQL Community Edition",1,IF($D8="My SQL Enterprise Edition",1,IF($D8="Postgre SQL Community edition",BN8,IF($D8="Postgre SQL Enterprise Edition",BN8,IF($D8="Oracle Standard Edition",1,IF($D8="Oracle Enterprise",BN8/2,IF($D8="Maria DB Community edition",1,IF($D8="MongoDB Community edition",1,IF($D8="MS SQL Standard Edition - Passive VM",,IF($D8="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="BS8" s="30">
+        <v>4</v>
+      </c>
+      <c r="BT8" s="30">
+        <v>4</v>
+      </c>
+      <c r="BU8" s="30">
+        <v>8</v>
+      </c>
+      <c r="BV8" s="30">
+        <v>200</v>
+      </c>
+      <c r="BW8" s="31">
+        <f>IF($C8="win",BT8/2,IF($C8="rhel",1,IF($C8="suse",1,IF($C8="Ubuntu",1,IF($C8="Oracle Linux",1,IF($C8="Debian",1,IF($C8="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="BX8" s="32">
+        <f>IF($D8="MS SQL Standard Edition - Active VM",BT8/2,IF($D8="MS SQL Enterprise Edition - Active VM",BT8/2,IF($D8="My SQL Community Edition",1,IF($D8="My SQL Enterprise Edition",1,IF($D8="Postgre SQL Community edition",BT8,IF($D8="Postgre SQL Enterprise Edition",BT8,IF($D8="Oracle Standard Edition",1,IF($D8="Oracle Enterprise",BT8/2,IF($D8="Maria DB Community edition",1,IF($D8="MongoDB Community edition",1,IF($D8="MS SQL Standard Edition - Passive VM",,IF($D8="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="BY8" s="27">
+        <v>4</v>
+      </c>
+      <c r="BZ8" s="27">
+        <v>4</v>
+      </c>
+      <c r="CA8" s="27">
+        <v>8</v>
+      </c>
+      <c r="CB8" s="27">
+        <v>200</v>
+      </c>
+      <c r="CC8" s="28">
+        <f>IF($C8="win",BZ8/2,IF($C8="rhel",1,IF($C8="suse",1,IF($C8="Ubuntu",1,IF($C8="Oracle Linux",1,IF($C8="Debian",1,IF($C8="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="CD8" s="29">
+        <f>IF($D8="MS SQL Standard Edition - Active VM",BZ8/2,IF($D8="MS SQL Enterprise Edition - Active VM",BZ8/2,IF($D8="My SQL Community Edition",1,IF($D8="My SQL Enterprise Edition",1,IF($D8="Postgre SQL Community edition",BZ8,IF($D8="Postgre SQL Enterprise Edition",BZ8,IF($D8="Oracle Standard Edition",1,IF($D8="Oracle Enterprise",BZ8/2,IF($D8="Maria DB Community edition",1,IF($D8="MongoDB Community edition",1,IF($D8="MS SQL Standard Edition - Passive VM",,IF($D8="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="CE8" s="30">
+        <v>4</v>
+      </c>
+      <c r="CF8" s="30">
+        <v>4</v>
+      </c>
+      <c r="CG8" s="30">
+        <v>8</v>
+      </c>
+      <c r="CH8" s="30">
+        <v>200</v>
+      </c>
+      <c r="CI8" s="31">
+        <f>IF($C8="win",CF8/2,IF($C8="rhel",1,IF($C8="suse",1,IF($C8="Ubuntu",1,IF($C8="Oracle Linux",1,IF($C8="Debian",1,IF($C8="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="CJ8" s="32">
+        <f>IF($D8="MS SQL Standard Edition - Active VM",CF8/2,IF($D8="MS SQL Enterprise Edition - Active VM",CF8/2,IF($D8="My SQL Community Edition",1,IF($D8="My SQL Enterprise Edition",1,IF($D8="Postgre SQL Community edition",CF8,IF($D8="Postgre SQL Enterprise Edition",CF8,IF($D8="Oracle Standard Edition",1,IF($D8="Oracle Enterprise",CF8/2,IF($D8="Maria DB Community edition",1,IF($D8="MongoDB Community edition",1,IF($D8="MS SQL Standard Edition - Passive VM",,IF($D8="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:88" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>7796</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>7728</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>7837</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>7832</v>
+      </c>
+      <c r="E9" s="27">
+        <v>16</v>
+      </c>
+      <c r="F9" s="27">
+        <v>8</v>
+      </c>
+      <c r="G9" s="27">
+        <v>50</v>
+      </c>
+      <c r="H9" s="27">
+        <v>200</v>
+      </c>
+      <c r="I9" s="28">
+        <f>IF($C9="win",F9/2,IF($C9="rhel",1,IF($C9="suse",1,IF($C9="Ubuntu",1,IF($C9="Oracle Linux",1,IF($C9="Debian",1,IF($C9="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="J9" s="29">
+        <f>IF($D9="MS SQL Standard Edition - Active VM",F9/2,IF($D9="MS SQL Enterprise Edition - Active VM",F9/2,IF($D9="My SQL Community Edition",1,IF($D9="My SQL Enterprise Edition",1,IF($D9="Postgre SQL Community edition",F9,IF($D9="Postgre SQL Enterprise Edition",F9,IF($D9="Oracle Standard Edition",1,IF($D9="Oracle Enterprise",F9/2,IF($D9="Maria DB Community edition",1,IF($D9="MongoDB Community edition",1,IF($D9="MS SQL Standard Edition - Passive VM",,IF($D9="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>4</v>
+      </c>
+      <c r="K9" s="30">
+        <v>4</v>
+      </c>
+      <c r="L9" s="30">
+        <v>4</v>
+      </c>
+      <c r="M9" s="30">
+        <v>8</v>
+      </c>
+      <c r="N9" s="30">
+        <v>200</v>
+      </c>
+      <c r="O9" s="31">
+        <f>IF($C9="win",L9/2,IF($C9="rhel",1,IF($C9="suse",1,IF($C9="Ubuntu",1,IF($C9="Oracle Linux",1,IF($C9="Debian",1,IF($C9="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="P9" s="32">
+        <f>IF($D9="MS SQL Standard Edition - Active VM",L9/2,IF($D9="MS SQL Enterprise Edition - Active VM",L9/2,IF($D9="My SQL Community Edition",1,IF($D9="My SQL Enterprise Edition",1,IF($D9="Postgre SQL Community edition",L9,IF($D9="Postgre SQL Enterprise Edition",L9,IF($D9="Oracle Standard Edition",1,IF($D9="Oracle Enterprise",L9/2,IF($D9="Maria DB Community edition",1,IF($D9="MongoDB Community edition",1,IF($D9="MS SQL Standard Edition - Passive VM",,IF($D9="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="Q9" s="27">
+        <v>4</v>
+      </c>
+      <c r="R9" s="27">
+        <v>4</v>
+      </c>
+      <c r="S9" s="27">
+        <v>8</v>
+      </c>
+      <c r="T9" s="27">
+        <v>200</v>
+      </c>
+      <c r="U9" s="28">
+        <f>IF($C9="win",R9/2,IF($C9="rhel",1,IF($C9="suse",1,IF($C9="Ubuntu",1,IF($C9="Oracle Linux",1,IF($C9="Debian",1,IF($C9="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="V9" s="29">
+        <f>IF($D9="MS SQL Standard Edition - Active VM",R9/2,IF($D9="MS SQL Enterprise Edition - Active VM",R9/2,IF($D9="My SQL Community Edition",1,IF($D9="My SQL Enterprise Edition",1,IF($D9="Postgre SQL Community edition",R9,IF($D9="Postgre SQL Enterprise Edition",R9,IF($D9="Oracle Standard Edition",1,IF($D9="Oracle Enterprise",R9/2,IF($D9="Maria DB Community edition",1,IF($D9="MongoDB Community edition",1,IF($D9="MS SQL Standard Edition - Passive VM",,IF($D9="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="W9" s="30">
+        <v>4</v>
+      </c>
+      <c r="X9" s="30">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="30">
+        <v>8</v>
+      </c>
+      <c r="Z9" s="30">
+        <v>200</v>
+      </c>
+      <c r="AA9" s="31">
+        <f>IF($C9="win",X9/2,IF($C9="rhel",1,IF($C9="suse",1,IF($C9="Ubuntu",1,IF($C9="Oracle Linux",1,IF($C9="Debian",1,IF($C9="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AB9" s="32">
+        <f>IF($D9="MS SQL Standard Edition - Active VM",X9/2,IF($D9="MS SQL Enterprise Edition - Active VM",X9/2,IF($D9="My SQL Community Edition",1,IF($D9="My SQL Enterprise Edition",1,IF($D9="Postgre SQL Community edition",X9,IF($D9="Postgre SQL Enterprise Edition",X9,IF($D9="Oracle Standard Edition",1,IF($D9="Oracle Enterprise",X9/2,IF($D9="Maria DB Community edition",1,IF($D9="MongoDB Community edition",1,IF($D9="MS SQL Standard Edition - Passive VM",,IF($D9="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AC9" s="27">
+        <v>4</v>
+      </c>
+      <c r="AD9" s="27">
+        <v>4</v>
+      </c>
+      <c r="AE9" s="27">
+        <v>8</v>
+      </c>
+      <c r="AF9" s="27">
+        <v>200</v>
+      </c>
+      <c r="AG9" s="28">
+        <f>IF($C9="win",AD9/2,IF($C9="rhel",1,IF($C9="suse",1,IF($C9="Ubuntu",1,IF($C9="Oracle Linux",1,IF($C9="Debian",1,IF($C9="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AH9" s="29">
+        <f>IF($D9="MS SQL Standard Edition - Active VM",AD9/2,IF($D9="MS SQL Enterprise Edition - Active VM",AD9/2,IF($D9="My SQL Community Edition",1,IF($D9="My SQL Enterprise Edition",1,IF($D9="Postgre SQL Community edition",AD9,IF($D9="Postgre SQL Enterprise Edition",AD9,IF($D9="Oracle Standard Edition",1,IF($D9="Oracle Enterprise",AD9/2,IF($D9="Maria DB Community edition",1,IF($D9="MongoDB Community edition",1,IF($D9="MS SQL Standard Edition - Passive VM",,IF($D9="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AI9" s="30">
+        <v>4</v>
+      </c>
+      <c r="AJ9" s="30">
+        <v>4</v>
+      </c>
+      <c r="AK9" s="30">
+        <v>8</v>
+      </c>
+      <c r="AL9" s="30">
+        <v>200</v>
+      </c>
+      <c r="AM9" s="31">
+        <f>IF($C9="win",AJ9/2,IF($C9="rhel",1,IF($C9="suse",1,IF($C9="Ubuntu",1,IF($C9="Oracle Linux",1,IF($C9="Debian",1,IF($C9="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AN9" s="32">
+        <f>IF($D9="MS SQL Standard Edition - Active VM",AJ9/2,IF($D9="MS SQL Enterprise Edition - Active VM",AJ9/2,IF($D9="My SQL Community Edition",1,IF($D9="My SQL Enterprise Edition",1,IF($D9="Postgre SQL Community edition",AJ9,IF($D9="Postgre SQL Enterprise Edition",AJ9,IF($D9="Oracle Standard Edition",1,IF($D9="Oracle Enterprise",AJ9/2,IF($D9="Maria DB Community edition",1,IF($D9="MongoDB Community edition",1,IF($D9="MS SQL Standard Edition - Passive VM",,IF($D9="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AO9" s="27">
+        <v>4</v>
+      </c>
+      <c r="AP9" s="27">
+        <v>4</v>
+      </c>
+      <c r="AQ9" s="27">
+        <v>8</v>
+      </c>
+      <c r="AR9" s="27">
+        <v>200</v>
+      </c>
+      <c r="AS9" s="28">
+        <f>IF($C9="win",AP9/2,IF($C9="rhel",1,IF($C9="suse",1,IF($C9="Ubuntu",1,IF($C9="Oracle Linux",1,IF($C9="Debian",1,IF($C9="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AT9" s="29">
+        <f>IF($D9="MS SQL Standard Edition - Active VM",AP9/2,IF($D9="MS SQL Enterprise Edition - Active VM",AP9/2,IF($D9="My SQL Community Edition",1,IF($D9="My SQL Enterprise Edition",1,IF($D9="Postgre SQL Community edition",AP9,IF($D9="Postgre SQL Enterprise Edition",AP9,IF($D9="Oracle Standard Edition",1,IF($D9="Oracle Enterprise",AP9/2,IF($D9="Maria DB Community edition",1,IF($D9="MongoDB Community edition",1,IF($D9="MS SQL Standard Edition - Passive VM",,IF($D9="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AU9" s="30">
+        <v>4</v>
+      </c>
+      <c r="AV9" s="30">
+        <v>4</v>
+      </c>
+      <c r="AW9" s="30">
+        <v>8</v>
+      </c>
+      <c r="AX9" s="30">
+        <v>200</v>
+      </c>
+      <c r="AY9" s="31">
+        <f>IF($C9="win",AV9/2,IF($C9="rhel",1,IF($C9="suse",1,IF($C9="Ubuntu",1,IF($C9="Oracle Linux",1,IF($C9="Debian",1,IF($C9="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AZ9" s="32">
+        <f>IF($D9="MS SQL Standard Edition - Active VM",AV9/2,IF($D9="MS SQL Enterprise Edition - Active VM",AV9/2,IF($D9="My SQL Community Edition",1,IF($D9="My SQL Enterprise Edition",1,IF($D9="Postgre SQL Community edition",AV9,IF($D9="Postgre SQL Enterprise Edition",AV9,IF($D9="Oracle Standard Edition",1,IF($D9="Oracle Enterprise",AV9/2,IF($D9="Maria DB Community edition",1,IF($D9="MongoDB Community edition",1,IF($D9="MS SQL Standard Edition - Passive VM",,IF($D9="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="BA9" s="27">
+        <v>4</v>
+      </c>
+      <c r="BB9" s="27">
+        <v>4</v>
+      </c>
+      <c r="BC9" s="27">
+        <v>8</v>
+      </c>
+      <c r="BD9" s="27">
+        <v>200</v>
+      </c>
+      <c r="BE9" s="28">
+        <f>IF($C9="win",BB9/2,IF($C9="rhel",1,IF($C9="suse",1,IF($C9="Ubuntu",1,IF($C9="Oracle Linux",1,IF($C9="Debian",1,IF($C9="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="BF9" s="29">
+        <f>IF($D9="MS SQL Standard Edition - Active VM",BB9/2,IF($D9="MS SQL Enterprise Edition - Active VM",BB9/2,IF($D9="My SQL Community Edition",1,IF($D9="My SQL Enterprise Edition",1,IF($D9="Postgre SQL Community edition",BB9,IF($D9="Postgre SQL Enterprise Edition",BB9,IF($D9="Oracle Standard Edition",1,IF($D9="Oracle Enterprise",BB9/2,IF($D9="Maria DB Community edition",1,IF($D9="MongoDB Community edition",1,IF($D9="MS SQL Standard Edition - Passive VM",,IF($D9="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="BG9" s="30">
+        <v>4</v>
+      </c>
+      <c r="BH9" s="30">
+        <v>4</v>
+      </c>
+      <c r="BI9" s="30">
+        <v>8</v>
+      </c>
+      <c r="BJ9" s="30">
+        <v>200</v>
+      </c>
+      <c r="BK9" s="31">
+        <f>IF($C9="win",BH9/2,IF($C9="rhel",1,IF($C9="suse",1,IF($C9="Ubuntu",1,IF($C9="Oracle Linux",1,IF($C9="Debian",1,IF($C9="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="BL9" s="32">
+        <f>IF($D9="MS SQL Standard Edition - Active VM",BH9/2,IF($D9="MS SQL Enterprise Edition - Active VM",BH9/2,IF($D9="My SQL Community Edition",1,IF($D9="My SQL Enterprise Edition",1,IF($D9="Postgre SQL Community edition",BH9,IF($D9="Postgre SQL Enterprise Edition",BH9,IF($D9="Oracle Standard Edition",1,IF($D9="Oracle Enterprise",BH9/2,IF($D9="Maria DB Community edition",1,IF($D9="MongoDB Community edition",1,IF($D9="MS SQL Standard Edition - Passive VM",,IF($D9="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="BM9" s="27">
+        <v>4</v>
+      </c>
+      <c r="BN9" s="27">
+        <v>4</v>
+      </c>
+      <c r="BO9" s="27">
+        <v>8</v>
+      </c>
+      <c r="BP9" s="27">
+        <v>200</v>
+      </c>
+      <c r="BQ9" s="28">
+        <f>IF($C9="win",BN9/2,IF($C9="rhel",1,IF($C9="suse",1,IF($C9="Ubuntu",1,IF($C9="Oracle Linux",1,IF($C9="Debian",1,IF($C9="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="BR9" s="29">
+        <f>IF($D9="MS SQL Standard Edition - Active VM",BN9/2,IF($D9="MS SQL Enterprise Edition - Active VM",BN9/2,IF($D9="My SQL Community Edition",1,IF($D9="My SQL Enterprise Edition",1,IF($D9="Postgre SQL Community edition",BN9,IF($D9="Postgre SQL Enterprise Edition",BN9,IF($D9="Oracle Standard Edition",1,IF($D9="Oracle Enterprise",BN9/2,IF($D9="Maria DB Community edition",1,IF($D9="MongoDB Community edition",1,IF($D9="MS SQL Standard Edition - Passive VM",,IF($D9="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="BS9" s="30">
+        <v>4</v>
+      </c>
+      <c r="BT9" s="30">
+        <v>4</v>
+      </c>
+      <c r="BU9" s="30">
+        <v>8</v>
+      </c>
+      <c r="BV9" s="30">
+        <v>200</v>
+      </c>
+      <c r="BW9" s="31">
+        <f>IF($C9="win",BT9/2,IF($C9="rhel",1,IF($C9="suse",1,IF($C9="Ubuntu",1,IF($C9="Oracle Linux",1,IF($C9="Debian",1,IF($C9="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="BX9" s="32">
+        <f>IF($D9="MS SQL Standard Edition - Active VM",BT9/2,IF($D9="MS SQL Enterprise Edition - Active VM",BT9/2,IF($D9="My SQL Community Edition",1,IF($D9="My SQL Enterprise Edition",1,IF($D9="Postgre SQL Community edition",BT9,IF($D9="Postgre SQL Enterprise Edition",BT9,IF($D9="Oracle Standard Edition",1,IF($D9="Oracle Enterprise",BT9/2,IF($D9="Maria DB Community edition",1,IF($D9="MongoDB Community edition",1,IF($D9="MS SQL Standard Edition - Passive VM",,IF($D9="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="BY9" s="27">
+        <v>4</v>
+      </c>
+      <c r="BZ9" s="27">
+        <v>4</v>
+      </c>
+      <c r="CA9" s="27">
+        <v>8</v>
+      </c>
+      <c r="CB9" s="27">
+        <v>200</v>
+      </c>
+      <c r="CC9" s="28">
+        <f>IF($C9="win",BZ9/2,IF($C9="rhel",1,IF($C9="suse",1,IF($C9="Ubuntu",1,IF($C9="Oracle Linux",1,IF($C9="Debian",1,IF($C9="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="CD9" s="29">
+        <f>IF($D9="MS SQL Standard Edition - Active VM",BZ9/2,IF($D9="MS SQL Enterprise Edition - Active VM",BZ9/2,IF($D9="My SQL Community Edition",1,IF($D9="My SQL Enterprise Edition",1,IF($D9="Postgre SQL Community edition",BZ9,IF($D9="Postgre SQL Enterprise Edition",BZ9,IF($D9="Oracle Standard Edition",1,IF($D9="Oracle Enterprise",BZ9/2,IF($D9="Maria DB Community edition",1,IF($D9="MongoDB Community edition",1,IF($D9="MS SQL Standard Edition - Passive VM",,IF($D9="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="CE9" s="30">
+        <v>4</v>
+      </c>
+      <c r="CF9" s="30">
+        <v>4</v>
+      </c>
+      <c r="CG9" s="30">
+        <v>8</v>
+      </c>
+      <c r="CH9" s="30">
+        <v>200</v>
+      </c>
+      <c r="CI9" s="31">
+        <f>IF($C9="win",CF9/2,IF($C9="rhel",1,IF($C9="suse",1,IF($C9="Ubuntu",1,IF($C9="Oracle Linux",1,IF($C9="Debian",1,IF($C9="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="CJ9" s="32">
+        <f>IF($D9="MS SQL Standard Edition - Active VM",CF9/2,IF($D9="MS SQL Enterprise Edition - Active VM",CF9/2,IF($D9="My SQL Community Edition",1,IF($D9="My SQL Enterprise Edition",1,IF($D9="Postgre SQL Community edition",CF9,IF($D9="Postgre SQL Enterprise Edition",CF9,IF($D9="Oracle Standard Edition",1,IF($D9="Oracle Enterprise",CF9/2,IF($D9="Maria DB Community edition",1,IF($D9="MongoDB Community edition",1,IF($D9="MS SQL Standard Edition - Passive VM",,IF($D9="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:88" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>7796</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>7729</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>7720</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>7732</v>
-      </c>
-      <c r="E3" s="15">
+      <c r="D10" s="6" t="s">
+        <v>7833</v>
+      </c>
+      <c r="E10" s="27">
+        <v>18</v>
+      </c>
+      <c r="F10" s="27">
+        <v>6</v>
+      </c>
+      <c r="G10" s="27">
+        <v>48</v>
+      </c>
+      <c r="H10" s="27">
+        <v>500</v>
+      </c>
+      <c r="I10" s="28">
+        <f>IF($C10="win",F10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
+        <v>3</v>
+      </c>
+      <c r="J10" s="29">
+        <f>IF($D10="MS SQL Standard Edition - Active VM",F10/2,IF($D10="MS SQL Enterprise Edition - Active VM",F10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",F10,IF($D10="Postgre SQL Enterprise Edition",F10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",F10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="K10" s="30">
         <v>4</v>
       </c>
-      <c r="F3" s="15">
+      <c r="L10" s="30">
+        <v>4</v>
+      </c>
+      <c r="M10" s="30">
+        <v>8</v>
+      </c>
+      <c r="N10" s="30">
+        <v>200</v>
+      </c>
+      <c r="O10" s="31">
+        <f>IF($C10="win",L10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="P10" s="32">
+        <f>IF($D10="MS SQL Standard Edition - Active VM",L10/2,IF($D10="MS SQL Enterprise Edition - Active VM",L10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",L10,IF($D10="Postgre SQL Enterprise Edition",L10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",L10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="Q10" s="27">
+        <v>4</v>
+      </c>
+      <c r="R10" s="27">
+        <v>4</v>
+      </c>
+      <c r="S10" s="27">
+        <v>8</v>
+      </c>
+      <c r="T10" s="27">
+        <v>200</v>
+      </c>
+      <c r="U10" s="28">
+        <f>IF($C10="win",R10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="V10" s="29">
+        <f>IF($D10="MS SQL Standard Edition - Active VM",R10/2,IF($D10="MS SQL Enterprise Edition - Active VM",R10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",R10,IF($D10="Postgre SQL Enterprise Edition",R10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",R10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="W10" s="30">
+        <v>4</v>
+      </c>
+      <c r="X10" s="30">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="30">
+        <v>8</v>
+      </c>
+      <c r="Z10" s="30">
+        <v>200</v>
+      </c>
+      <c r="AA10" s="31">
+        <f>IF($C10="win",X10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AB10" s="32">
+        <f>IF($D10="MS SQL Standard Edition - Active VM",X10/2,IF($D10="MS SQL Enterprise Edition - Active VM",X10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",X10,IF($D10="Postgre SQL Enterprise Edition",X10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",X10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AC10" s="27">
+        <v>4</v>
+      </c>
+      <c r="AD10" s="27">
+        <v>4</v>
+      </c>
+      <c r="AE10" s="27">
+        <v>8</v>
+      </c>
+      <c r="AF10" s="27">
+        <v>200</v>
+      </c>
+      <c r="AG10" s="28">
+        <f>IF($C10="win",AD10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AH10" s="29">
+        <f>IF($D10="MS SQL Standard Edition - Active VM",AD10/2,IF($D10="MS SQL Enterprise Edition - Active VM",AD10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",AD10,IF($D10="Postgre SQL Enterprise Edition",AD10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",AD10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AI10" s="30">
+        <v>4</v>
+      </c>
+      <c r="AJ10" s="30">
+        <v>4</v>
+      </c>
+      <c r="AK10" s="30">
+        <v>8</v>
+      </c>
+      <c r="AL10" s="30">
+        <v>200</v>
+      </c>
+      <c r="AM10" s="31">
+        <f>IF($C10="win",AJ10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AN10" s="32">
+        <f>IF($D10="MS SQL Standard Edition - Active VM",AJ10/2,IF($D10="MS SQL Enterprise Edition - Active VM",AJ10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",AJ10,IF($D10="Postgre SQL Enterprise Edition",AJ10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",AJ10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AO10" s="27">
+        <v>4</v>
+      </c>
+      <c r="AP10" s="27">
+        <v>4</v>
+      </c>
+      <c r="AQ10" s="27">
+        <v>8</v>
+      </c>
+      <c r="AR10" s="27">
+        <v>200</v>
+      </c>
+      <c r="AS10" s="28">
+        <f>IF($C10="win",AP10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AT10" s="29">
+        <f>IF($D10="MS SQL Standard Edition - Active VM",AP10/2,IF($D10="MS SQL Enterprise Edition - Active VM",AP10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",AP10,IF($D10="Postgre SQL Enterprise Edition",AP10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",AP10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AU10" s="30">
+        <v>4</v>
+      </c>
+      <c r="AV10" s="30">
+        <v>4</v>
+      </c>
+      <c r="AW10" s="30">
+        <v>8</v>
+      </c>
+      <c r="AX10" s="30">
+        <v>200</v>
+      </c>
+      <c r="AY10" s="31">
+        <f>IF($C10="win",AV10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AZ10" s="32">
+        <f>IF($D10="MS SQL Standard Edition - Active VM",AV10/2,IF($D10="MS SQL Enterprise Edition - Active VM",AV10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",AV10,IF($D10="Postgre SQL Enterprise Edition",AV10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",AV10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="BA10" s="27">
+        <v>4</v>
+      </c>
+      <c r="BB10" s="27">
+        <v>4</v>
+      </c>
+      <c r="BC10" s="27">
+        <v>8</v>
+      </c>
+      <c r="BD10" s="27">
+        <v>200</v>
+      </c>
+      <c r="BE10" s="28">
+        <f>IF($C10="win",BB10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="BF10" s="29">
+        <f>IF($D10="MS SQL Standard Edition - Active VM",BB10/2,IF($D10="MS SQL Enterprise Edition - Active VM",BB10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",BB10,IF($D10="Postgre SQL Enterprise Edition",BB10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",BB10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="BG10" s="30">
+        <v>4</v>
+      </c>
+      <c r="BH10" s="30">
+        <v>4</v>
+      </c>
+      <c r="BI10" s="30">
+        <v>8</v>
+      </c>
+      <c r="BJ10" s="30">
+        <v>200</v>
+      </c>
+      <c r="BK10" s="31">
+        <f>IF($C10="win",BH10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="BL10" s="32">
+        <f>IF($D10="MS SQL Standard Edition - Active VM",BH10/2,IF($D10="MS SQL Enterprise Edition - Active VM",BH10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",BH10,IF($D10="Postgre SQL Enterprise Edition",BH10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",BH10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="BM10" s="27">
+        <v>4</v>
+      </c>
+      <c r="BN10" s="27">
+        <v>4</v>
+      </c>
+      <c r="BO10" s="27">
+        <v>8</v>
+      </c>
+      <c r="BP10" s="27">
+        <v>200</v>
+      </c>
+      <c r="BQ10" s="28">
+        <f>IF($C10="win",BN10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="BR10" s="29">
+        <f>IF($D10="MS SQL Standard Edition - Active VM",BN10/2,IF($D10="MS SQL Enterprise Edition - Active VM",BN10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",BN10,IF($D10="Postgre SQL Enterprise Edition",BN10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",BN10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="BS10" s="30">
+        <v>4</v>
+      </c>
+      <c r="BT10" s="30">
+        <v>4</v>
+      </c>
+      <c r="BU10" s="30">
+        <v>8</v>
+      </c>
+      <c r="BV10" s="30">
+        <v>200</v>
+      </c>
+      <c r="BW10" s="31">
+        <f>IF($C10="win",BT10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="BX10" s="32">
+        <f>IF($D10="MS SQL Standard Edition - Active VM",BT10/2,IF($D10="MS SQL Enterprise Edition - Active VM",BT10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",BT10,IF($D10="Postgre SQL Enterprise Edition",BT10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",BT10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="BY10" s="27">
+        <v>4</v>
+      </c>
+      <c r="BZ10" s="27">
+        <v>4</v>
+      </c>
+      <c r="CA10" s="27">
+        <v>8</v>
+      </c>
+      <c r="CB10" s="27">
+        <v>200</v>
+      </c>
+      <c r="CC10" s="28">
+        <f>IF($C10="win",BZ10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="CD10" s="29">
+        <f>IF($D10="MS SQL Standard Edition - Active VM",BZ10/2,IF($D10="MS SQL Enterprise Edition - Active VM",BZ10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",BZ10,IF($D10="Postgre SQL Enterprise Edition",BZ10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",BZ10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="CE10" s="30">
+        <v>4</v>
+      </c>
+      <c r="CF10" s="30">
+        <v>4</v>
+      </c>
+      <c r="CG10" s="30">
+        <v>8</v>
+      </c>
+      <c r="CH10" s="30">
+        <v>200</v>
+      </c>
+      <c r="CI10" s="31">
+        <f>IF($C10="win",CF10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="CJ10" s="32">
+        <f>IF($D10="MS SQL Standard Edition - Active VM",CF10/2,IF($D10="MS SQL Enterprise Edition - Active VM",CF10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",CF10,IF($D10="Postgre SQL Enterprise Edition",CF10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",CF10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:88" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>7796</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>7730</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>7720</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>7834</v>
+      </c>
+      <c r="E11" s="27">
         <v>20</v>
       </c>
-      <c r="G3" s="15">
-        <v>62</v>
-      </c>
-      <c r="H3" s="15">
-        <v>1400</v>
-      </c>
-      <c r="I3" s="6">
+      <c r="F11" s="27">
         <v>4</v>
       </c>
-      <c r="J3" s="6">
+      <c r="G11" s="27">
+        <v>46</v>
+      </c>
+      <c r="H11" s="27">
+        <v>900</v>
+      </c>
+      <c r="I11" s="28">
+        <f>IF($C11="win",F11/2,IF($C11="rhel",1,IF($C11="suse",1,IF($C11="Ubuntu",1,IF($C11="Oracle Linux",1,IF($C11="Debian",1,IF($C11="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="J11" s="29">
+        <f>IF($D11="MS SQL Standard Edition - Active VM",F11/2,IF($D11="MS SQL Enterprise Edition - Active VM",F11/2,IF($D11="My SQL Community Edition",1,IF($D11="My SQL Enterprise Edition",1,IF($D11="Postgre SQL Community edition",F11,IF($D11="Postgre SQL Enterprise Edition",F11,IF($D11="Oracle Standard Edition",1,IF($D11="Oracle Enterprise",F11/2,IF($D11="Maria DB Community edition",1,IF($D11="MongoDB Community edition",1,IF($D11="MS SQL Standard Edition - Passive VM",,IF($D11="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="K11" s="30">
         <v>4</v>
       </c>
-      <c r="K3" s="6">
+      <c r="L11" s="30">
+        <v>4</v>
+      </c>
+      <c r="M11" s="30">
         <v>8</v>
       </c>
-      <c r="L3" s="6">
+      <c r="N11" s="30">
         <v>200</v>
       </c>
-      <c r="M3" s="15">
+      <c r="O11" s="31">
+        <f>IF($C11="win",L11/2,IF($C11="rhel",1,IF($C11="suse",1,IF($C11="Ubuntu",1,IF($C11="Oracle Linux",1,IF($C11="Debian",1,IF($C11="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="P11" s="32">
+        <f>IF($D11="MS SQL Standard Edition - Active VM",L11/2,IF($D11="MS SQL Enterprise Edition - Active VM",L11/2,IF($D11="My SQL Community Edition",1,IF($D11="My SQL Enterprise Edition",1,IF($D11="Postgre SQL Community edition",L11,IF($D11="Postgre SQL Enterprise Edition",L11,IF($D11="Oracle Standard Edition",1,IF($D11="Oracle Enterprise",L11/2,IF($D11="Maria DB Community edition",1,IF($D11="MongoDB Community edition",1,IF($D11="MS SQL Standard Edition - Passive VM",,IF($D11="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="Q11" s="27">
         <v>4</v>
       </c>
-      <c r="N3" s="15">
+      <c r="R11" s="27">
         <v>4</v>
       </c>
-      <c r="O3" s="15">
+      <c r="S11" s="27">
         <v>8</v>
       </c>
-      <c r="P3" s="15">
+      <c r="T11" s="27">
         <v>200</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="U11" s="28">
+        <f>IF($C11="win",R11/2,IF($C11="rhel",1,IF($C11="suse",1,IF($C11="Ubuntu",1,IF($C11="Oracle Linux",1,IF($C11="Debian",1,IF($C11="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="V11" s="29">
+        <f>IF($D11="MS SQL Standard Edition - Active VM",R11/2,IF($D11="MS SQL Enterprise Edition - Active VM",R11/2,IF($D11="My SQL Community Edition",1,IF($D11="My SQL Enterprise Edition",1,IF($D11="Postgre SQL Community edition",R11,IF($D11="Postgre SQL Enterprise Edition",R11,IF($D11="Oracle Standard Edition",1,IF($D11="Oracle Enterprise",R11/2,IF($D11="Maria DB Community edition",1,IF($D11="MongoDB Community edition",1,IF($D11="MS SQL Standard Edition - Passive VM",,IF($D11="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="W11" s="30">
         <v>4</v>
       </c>
-      <c r="R3" s="6">
+      <c r="X11" s="30">
         <v>4</v>
       </c>
-      <c r="S3" s="6">
+      <c r="Y11" s="30">
         <v>8</v>
       </c>
-      <c r="T3" s="6">
+      <c r="Z11" s="30">
         <v>200</v>
       </c>
-      <c r="U3" s="15">
+      <c r="AA11" s="31">
+        <f>IF($C11="win",X11/2,IF($C11="rhel",1,IF($C11="suse",1,IF($C11="Ubuntu",1,IF($C11="Oracle Linux",1,IF($C11="Debian",1,IF($C11="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AB11" s="32">
+        <f>IF($D11="MS SQL Standard Edition - Active VM",X11/2,IF($D11="MS SQL Enterprise Edition - Active VM",X11/2,IF($D11="My SQL Community Edition",1,IF($D11="My SQL Enterprise Edition",1,IF($D11="Postgre SQL Community edition",X11,IF($D11="Postgre SQL Enterprise Edition",X11,IF($D11="Oracle Standard Edition",1,IF($D11="Oracle Enterprise",X11/2,IF($D11="Maria DB Community edition",1,IF($D11="MongoDB Community edition",1,IF($D11="MS SQL Standard Edition - Passive VM",,IF($D11="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AC11" s="27">
         <v>4</v>
       </c>
-      <c r="V3" s="15">
+      <c r="AD11" s="27">
         <v>4</v>
       </c>
-      <c r="W3" s="15">
+      <c r="AE11" s="27">
         <v>8</v>
       </c>
-      <c r="X3" s="15">
+      <c r="AF11" s="27">
         <v>200</v>
       </c>
-      <c r="Y3" s="6">
+      <c r="AG11" s="28">
+        <f>IF($C11="win",AD11/2,IF($C11="rhel",1,IF($C11="suse",1,IF($C11="Ubuntu",1,IF($C11="Oracle Linux",1,IF($C11="Debian",1,IF($C11="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AH11" s="29">
+        <f>IF($D11="MS SQL Standard Edition - Active VM",AD11/2,IF($D11="MS SQL Enterprise Edition - Active VM",AD11/2,IF($D11="My SQL Community Edition",1,IF($D11="My SQL Enterprise Edition",1,IF($D11="Postgre SQL Community edition",AD11,IF($D11="Postgre SQL Enterprise Edition",AD11,IF($D11="Oracle Standard Edition",1,IF($D11="Oracle Enterprise",AD11/2,IF($D11="Maria DB Community edition",1,IF($D11="MongoDB Community edition",1,IF($D11="MS SQL Standard Edition - Passive VM",,IF($D11="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AI11" s="30">
         <v>4</v>
       </c>
-      <c r="Z3" s="6">
+      <c r="AJ11" s="30">
         <v>4</v>
       </c>
-      <c r="AA3" s="6">
+      <c r="AK11" s="30">
         <v>8</v>
       </c>
-      <c r="AB3" s="6">
+      <c r="AL11" s="30">
         <v>200</v>
       </c>
-      <c r="AC3" s="15">
+      <c r="AM11" s="31">
+        <f>IF($C11="win",AJ11/2,IF($C11="rhel",1,IF($C11="suse",1,IF($C11="Ubuntu",1,IF($C11="Oracle Linux",1,IF($C11="Debian",1,IF($C11="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AN11" s="32">
+        <f>IF($D11="MS SQL Standard Edition - Active VM",AJ11/2,IF($D11="MS SQL Enterprise Edition - Active VM",AJ11/2,IF($D11="My SQL Community Edition",1,IF($D11="My SQL Enterprise Edition",1,IF($D11="Postgre SQL Community edition",AJ11,IF($D11="Postgre SQL Enterprise Edition",AJ11,IF($D11="Oracle Standard Edition",1,IF($D11="Oracle Enterprise",AJ11/2,IF($D11="Maria DB Community edition",1,IF($D11="MongoDB Community edition",1,IF($D11="MS SQL Standard Edition - Passive VM",,IF($D11="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AO11" s="27">
         <v>4</v>
       </c>
-      <c r="AD3" s="15">
+      <c r="AP11" s="27">
         <v>4</v>
       </c>
-      <c r="AE3" s="15">
+      <c r="AQ11" s="27">
         <v>8</v>
       </c>
-      <c r="AF3" s="15">
+      <c r="AR11" s="27">
         <v>200</v>
       </c>
-      <c r="AG3" s="6">
+      <c r="AS11" s="28">
+        <f>IF($C11="win",AP11/2,IF($C11="rhel",1,IF($C11="suse",1,IF($C11="Ubuntu",1,IF($C11="Oracle Linux",1,IF($C11="Debian",1,IF($C11="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AT11" s="29">
+        <f>IF($D11="MS SQL Standard Edition - Active VM",AP11/2,IF($D11="MS SQL Enterprise Edition - Active VM",AP11/2,IF($D11="My SQL Community Edition",1,IF($D11="My SQL Enterprise Edition",1,IF($D11="Postgre SQL Community edition",AP11,IF($D11="Postgre SQL Enterprise Edition",AP11,IF($D11="Oracle Standard Edition",1,IF($D11="Oracle Enterprise",AP11/2,IF($D11="Maria DB Community edition",1,IF($D11="MongoDB Community edition",1,IF($D11="MS SQL Standard Edition - Passive VM",,IF($D11="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="AU11" s="30">
         <v>4</v>
       </c>
-      <c r="AH3" s="6">
+      <c r="AV11" s="30">
         <v>4</v>
       </c>
-      <c r="AI3" s="6">
+      <c r="AW11" s="30">
         <v>8</v>
       </c>
-      <c r="AJ3" s="6">
+      <c r="AX11" s="30">
         <v>200</v>
       </c>
-      <c r="AK3" s="15">
+      <c r="AY11" s="31">
+        <f>IF($C11="win",AV11/2,IF($C11="rhel",1,IF($C11="suse",1,IF($C11="Ubuntu",1,IF($C11="Oracle Linux",1,IF($C11="Debian",1,IF($C11="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AZ11" s="32">
+        <f>IF($D11="MS SQL Standard Edition - Active VM",AV11/2,IF($D11="MS SQL Enterprise Edition - Active VM",AV11/2,IF($D11="My SQL Community Edition",1,IF($D11="My SQL Enterprise Edition",1,IF($D11="Postgre SQL Community edition",AV11,IF($D11="Postgre SQL Enterprise Edition",AV11,IF($D11="Oracle Standard Edition",1,IF($D11="Oracle Enterprise",AV11/2,IF($D11="Maria DB Community edition",1,IF($D11="MongoDB Community edition",1,IF($D11="MS SQL Standard Edition - Passive VM",,IF($D11="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="BA11" s="27">
         <v>4</v>
       </c>
-      <c r="AL3" s="15">
+      <c r="BB11" s="27">
         <v>4</v>
       </c>
-      <c r="AM3" s="15">
+      <c r="BC11" s="27">
         <v>8</v>
       </c>
-      <c r="AN3" s="15">
+      <c r="BD11" s="27">
         <v>200</v>
       </c>
-      <c r="AO3" s="6">
+      <c r="BE11" s="28">
+        <f>IF($C11="win",BB11/2,IF($C11="rhel",1,IF($C11="suse",1,IF($C11="Ubuntu",1,IF($C11="Oracle Linux",1,IF($C11="Debian",1,IF($C11="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="BF11" s="29">
+        <f>IF($D11="MS SQL Standard Edition - Active VM",BB11/2,IF($D11="MS SQL Enterprise Edition - Active VM",BB11/2,IF($D11="My SQL Community Edition",1,IF($D11="My SQL Enterprise Edition",1,IF($D11="Postgre SQL Community edition",BB11,IF($D11="Postgre SQL Enterprise Edition",BB11,IF($D11="Oracle Standard Edition",1,IF($D11="Oracle Enterprise",BB11/2,IF($D11="Maria DB Community edition",1,IF($D11="MongoDB Community edition",1,IF($D11="MS SQL Standard Edition - Passive VM",,IF($D11="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="BG11" s="30">
         <v>4</v>
       </c>
-      <c r="AP3" s="6">
+      <c r="BH11" s="30">
         <v>4</v>
       </c>
-      <c r="AQ3" s="6">
+      <c r="BI11" s="30">
         <v>8</v>
       </c>
-      <c r="AR3" s="6">
+      <c r="BJ11" s="30">
         <v>200</v>
       </c>
-      <c r="AS3" s="15">
+      <c r="BK11" s="31">
+        <f>IF($C11="win",BH11/2,IF($C11="rhel",1,IF($C11="suse",1,IF($C11="Ubuntu",1,IF($C11="Oracle Linux",1,IF($C11="Debian",1,IF($C11="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="BL11" s="32">
+        <f>IF($D11="MS SQL Standard Edition - Active VM",BH11/2,IF($D11="MS SQL Enterprise Edition - Active VM",BH11/2,IF($D11="My SQL Community Edition",1,IF($D11="My SQL Enterprise Edition",1,IF($D11="Postgre SQL Community edition",BH11,IF($D11="Postgre SQL Enterprise Edition",BH11,IF($D11="Oracle Standard Edition",1,IF($D11="Oracle Enterprise",BH11/2,IF($D11="Maria DB Community edition",1,IF($D11="MongoDB Community edition",1,IF($D11="MS SQL Standard Edition - Passive VM",,IF($D11="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="BM11" s="27">
         <v>4</v>
       </c>
-      <c r="AT3" s="15">
+      <c r="BN11" s="27">
         <v>4</v>
       </c>
-      <c r="AU3" s="15">
+      <c r="BO11" s="27">
         <v>8</v>
       </c>
-      <c r="AV3" s="15">
+      <c r="BP11" s="27">
         <v>200</v>
       </c>
-      <c r="AW3" s="6">
+      <c r="BQ11" s="28">
+        <f>IF($C11="win",BN11/2,IF($C11="rhel",1,IF($C11="suse",1,IF($C11="Ubuntu",1,IF($C11="Oracle Linux",1,IF($C11="Debian",1,IF($C11="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="BR11" s="29">
+        <f>IF($D11="MS SQL Standard Edition - Active VM",BN11/2,IF($D11="MS SQL Enterprise Edition - Active VM",BN11/2,IF($D11="My SQL Community Edition",1,IF($D11="My SQL Enterprise Edition",1,IF($D11="Postgre SQL Community edition",BN11,IF($D11="Postgre SQL Enterprise Edition",BN11,IF($D11="Oracle Standard Edition",1,IF($D11="Oracle Enterprise",BN11/2,IF($D11="Maria DB Community edition",1,IF($D11="MongoDB Community edition",1,IF($D11="MS SQL Standard Edition - Passive VM",,IF($D11="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="BS11" s="30">
         <v>4</v>
       </c>
-      <c r="AX3" s="6">
+      <c r="BT11" s="30">
         <v>4</v>
       </c>
-      <c r="AY3" s="6">
+      <c r="BU11" s="30">
         <v>8</v>
       </c>
-      <c r="AZ3" s="6">
+      <c r="BV11" s="30">
         <v>200</v>
       </c>
-      <c r="BA3" s="15">
+      <c r="BW11" s="31">
+        <f>IF($C11="win",BT11/2,IF($C11="rhel",1,IF($C11="suse",1,IF($C11="Ubuntu",1,IF($C11="Oracle Linux",1,IF($C11="Debian",1,IF($C11="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="BX11" s="32">
+        <f>IF($D11="MS SQL Standard Edition - Active VM",BT11/2,IF($D11="MS SQL Enterprise Edition - Active VM",BT11/2,IF($D11="My SQL Community Edition",1,IF($D11="My SQL Enterprise Edition",1,IF($D11="Postgre SQL Community edition",BT11,IF($D11="Postgre SQL Enterprise Edition",BT11,IF($D11="Oracle Standard Edition",1,IF($D11="Oracle Enterprise",BT11/2,IF($D11="Maria DB Community edition",1,IF($D11="MongoDB Community edition",1,IF($D11="MS SQL Standard Edition - Passive VM",,IF($D11="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="BY11" s="27">
         <v>4</v>
       </c>
-      <c r="BB3" s="15">
+      <c r="BZ11" s="27">
         <v>4</v>
       </c>
-      <c r="BC3" s="15">
+      <c r="CA11" s="27">
         <v>8</v>
       </c>
-      <c r="BD3" s="15">
+      <c r="CB11" s="27">
         <v>200</v>
       </c>
-      <c r="BE3" s="6">
+      <c r="CC11" s="28">
+        <f>IF($C11="win",BZ11/2,IF($C11="rhel",1,IF($C11="suse",1,IF($C11="Ubuntu",1,IF($C11="Oracle Linux",1,IF($C11="Debian",1,IF($C11="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="CD11" s="29">
+        <f>IF($D11="MS SQL Standard Edition - Active VM",BZ11/2,IF($D11="MS SQL Enterprise Edition - Active VM",BZ11/2,IF($D11="My SQL Community Edition",1,IF($D11="My SQL Enterprise Edition",1,IF($D11="Postgre SQL Community edition",BZ11,IF($D11="Postgre SQL Enterprise Edition",BZ11,IF($D11="Oracle Standard Edition",1,IF($D11="Oracle Enterprise",BZ11/2,IF($D11="Maria DB Community edition",1,IF($D11="MongoDB Community edition",1,IF($D11="MS SQL Standard Edition - Passive VM",,IF($D11="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="CE11" s="30">
         <v>4</v>
       </c>
-      <c r="BF3" s="6">
+      <c r="CF11" s="30">
         <v>4</v>
       </c>
-      <c r="BG3" s="6">
+      <c r="CG11" s="30">
         <v>8</v>
       </c>
-      <c r="BH3" s="19">
+      <c r="CH11" s="30">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7797</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>7723</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="CI11" s="31">
+        <f>IF($C11="win",CF11/2,IF($C11="rhel",1,IF($C11="suse",1,IF($C11="Ubuntu",1,IF($C11="Oracle Linux",1,IF($C11="Debian",1,IF($C11="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="CJ11" s="32">
+        <f>IF($D11="MS SQL Standard Edition - Active VM",CF11/2,IF($D11="MS SQL Enterprise Edition - Active VM",CF11/2,IF($D11="My SQL Community Edition",1,IF($D11="My SQL Enterprise Edition",1,IF($D11="Postgre SQL Community edition",CF11,IF($D11="Postgre SQL Enterprise Edition",CF11,IF($D11="Oracle Standard Edition",1,IF($D11="Oracle Enterprise",CF11/2,IF($D11="Maria DB Community edition",1,IF($D11="MongoDB Community edition",1,IF($D11="MS SQL Standard Edition - Passive VM",,IF($D11="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:88" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>7796</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>7731</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>7720</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>7732</v>
-      </c>
-      <c r="E4" s="15">
-        <v>6</v>
-      </c>
-      <c r="F4" s="15">
-        <v>18</v>
-      </c>
-      <c r="G4" s="15">
-        <v>60</v>
-      </c>
-      <c r="H4" s="15">
-        <v>1200</v>
-      </c>
-      <c r="I4" s="6">
+      <c r="D12" s="6" t="s">
+        <v>7825</v>
+      </c>
+      <c r="E12" s="27">
+        <v>22</v>
+      </c>
+      <c r="F12" s="27">
+        <v>2</v>
+      </c>
+      <c r="G12" s="27">
+        <v>44</v>
+      </c>
+      <c r="H12" s="27">
+        <v>10000</v>
+      </c>
+      <c r="I12" s="28">
+        <f>IF($C12="win",F12/2,IF($C12="rhel",1,IF($C12="suse",1,IF($C12="Ubuntu",1,IF($C12="Oracle Linux",1,IF($C12="Debian",1,IF($C12="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="J12" s="29">
+        <f>IF($D12="MS SQL Standard Edition - Active VM",F12/2,IF($D12="MS SQL Enterprise Edition - Active VM",F12/2,IF($D12="My SQL Community Edition",1,IF($D12="My SQL Enterprise Edition",1,IF($D12="Postgre SQL Community edition",F12,IF($D12="Postgre SQL Enterprise Edition",F12,IF($D12="Oracle Standard Edition",1,IF($D12="Oracle Enterprise",F12/2,IF($D12="Maria DB Community edition",1,IF($D12="MongoDB Community edition",1,IF($D12="MS SQL Standard Edition - Passive VM",,IF($D12="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="K12" s="40">
         <v>4</v>
       </c>
-      <c r="J4" s="6">
+      <c r="L12" s="40">
         <v>4</v>
       </c>
-      <c r="K4" s="6">
+      <c r="M12" s="40">
         <v>8</v>
       </c>
-      <c r="L4" s="6">
+      <c r="N12" s="40">
         <v>200</v>
       </c>
-      <c r="M4" s="15">
+      <c r="O12" s="31">
+        <f>IF($C12="win",L12/2,IF($C12="rhel",1,IF($C12="suse",1,IF($C12="Ubuntu",1,IF($C12="Oracle Linux",1,IF($C12="Debian",1,IF($C12="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="P12" s="32">
+        <f>IF($D12="MS SQL Standard Edition - Active VM",L12/2,IF($D12="MS SQL Enterprise Edition - Active VM",L12/2,IF($D12="My SQL Community Edition",1,IF($D12="My SQL Enterprise Edition",1,IF($D12="Postgre SQL Community edition",L12,IF($D12="Postgre SQL Enterprise Edition",L12,IF($D12="Oracle Standard Edition",1,IF($D12="Oracle Enterprise",L12/2,IF($D12="Maria DB Community edition",1,IF($D12="MongoDB Community edition",1,IF($D12="MS SQL Standard Edition - Passive VM",,IF($D12="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="Q12" s="27">
         <v>4</v>
       </c>
-      <c r="N4" s="15">
+      <c r="R12" s="27">
         <v>4</v>
       </c>
-      <c r="O4" s="15">
+      <c r="S12" s="27">
         <v>8</v>
       </c>
-      <c r="P4" s="15">
+      <c r="T12" s="27">
         <v>200</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="U12" s="28">
+        <f>IF($C12="win",R12/2,IF($C12="rhel",1,IF($C12="suse",1,IF($C12="Ubuntu",1,IF($C12="Oracle Linux",1,IF($C12="Debian",1,IF($C12="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="V12" s="29">
+        <f>IF($D12="MS SQL Standard Edition - Active VM",R12/2,IF($D12="MS SQL Enterprise Edition - Active VM",R12/2,IF($D12="My SQL Community Edition",1,IF($D12="My SQL Enterprise Edition",1,IF($D12="Postgre SQL Community edition",R12,IF($D12="Postgre SQL Enterprise Edition",R12,IF($D12="Oracle Standard Edition",1,IF($D12="Oracle Enterprise",R12/2,IF($D12="Maria DB Community edition",1,IF($D12="MongoDB Community edition",1,IF($D12="MS SQL Standard Edition - Passive VM",,IF($D12="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="W12" s="40">
         <v>4</v>
       </c>
-      <c r="R4" s="6">
+      <c r="X12" s="40">
         <v>4</v>
       </c>
-      <c r="S4" s="6">
+      <c r="Y12" s="40">
         <v>8</v>
       </c>
-      <c r="T4" s="6">
+      <c r="Z12" s="40">
         <v>200</v>
       </c>
-      <c r="U4" s="15">
+      <c r="AA12" s="31">
+        <f>IF($C12="win",X12/2,IF($C12="rhel",1,IF($C12="suse",1,IF($C12="Ubuntu",1,IF($C12="Oracle Linux",1,IF($C12="Debian",1,IF($C12="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AB12" s="32">
+        <f>IF($D12="MS SQL Standard Edition - Active VM",X12/2,IF($D12="MS SQL Enterprise Edition - Active VM",X12/2,IF($D12="My SQL Community Edition",1,IF($D12="My SQL Enterprise Edition",1,IF($D12="Postgre SQL Community edition",X12,IF($D12="Postgre SQL Enterprise Edition",X12,IF($D12="Oracle Standard Edition",1,IF($D12="Oracle Enterprise",X12/2,IF($D12="Maria DB Community edition",1,IF($D12="MongoDB Community edition",1,IF($D12="MS SQL Standard Edition - Passive VM",,IF($D12="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AC12" s="27">
         <v>4</v>
       </c>
-      <c r="V4" s="15">
+      <c r="AD12" s="27">
         <v>4</v>
       </c>
-      <c r="W4" s="15">
+      <c r="AE12" s="27">
         <v>8</v>
       </c>
-      <c r="X4" s="15">
+      <c r="AF12" s="27">
         <v>200</v>
       </c>
-      <c r="Y4" s="6">
+      <c r="AG12" s="28">
+        <f>IF($C12="win",AD12/2,IF($C12="rhel",1,IF($C12="suse",1,IF($C12="Ubuntu",1,IF($C12="Oracle Linux",1,IF($C12="Debian",1,IF($C12="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AH12" s="29">
+        <f>IF($D12="MS SQL Standard Edition - Active VM",AD12/2,IF($D12="MS SQL Enterprise Edition - Active VM",AD12/2,IF($D12="My SQL Community Edition",1,IF($D12="My SQL Enterprise Edition",1,IF($D12="Postgre SQL Community edition",AD12,IF($D12="Postgre SQL Enterprise Edition",AD12,IF($D12="Oracle Standard Edition",1,IF($D12="Oracle Enterprise",AD12/2,IF($D12="Maria DB Community edition",1,IF($D12="MongoDB Community edition",1,IF($D12="MS SQL Standard Edition - Passive VM",,IF($D12="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AI12" s="40">
         <v>4</v>
       </c>
-      <c r="Z4" s="6">
+      <c r="AJ12" s="40">
         <v>4</v>
       </c>
-      <c r="AA4" s="6">
+      <c r="AK12" s="40">
         <v>8</v>
       </c>
-      <c r="AB4" s="6">
+      <c r="AL12" s="40">
         <v>200</v>
       </c>
-      <c r="AC4" s="15">
+      <c r="AM12" s="31">
+        <f>IF($C12="win",AJ12/2,IF($C12="rhel",1,IF($C12="suse",1,IF($C12="Ubuntu",1,IF($C12="Oracle Linux",1,IF($C12="Debian",1,IF($C12="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AN12" s="32">
+        <f>IF($D12="MS SQL Standard Edition - Active VM",AJ12/2,IF($D12="MS SQL Enterprise Edition - Active VM",AJ12/2,IF($D12="My SQL Community Edition",1,IF($D12="My SQL Enterprise Edition",1,IF($D12="Postgre SQL Community edition",AJ12,IF($D12="Postgre SQL Enterprise Edition",AJ12,IF($D12="Oracle Standard Edition",1,IF($D12="Oracle Enterprise",AJ12/2,IF($D12="Maria DB Community edition",1,IF($D12="MongoDB Community edition",1,IF($D12="MS SQL Standard Edition - Passive VM",,IF($D12="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AO12" s="27">
         <v>4</v>
       </c>
-      <c r="AD4" s="15">
+      <c r="AP12" s="27">
         <v>4</v>
       </c>
-      <c r="AE4" s="15">
+      <c r="AQ12" s="27">
         <v>8</v>
       </c>
-      <c r="AF4" s="15">
+      <c r="AR12" s="27">
         <v>200</v>
       </c>
-      <c r="AG4" s="6">
+      <c r="AS12" s="28">
+        <f>IF($C12="win",AP12/2,IF($C12="rhel",1,IF($C12="suse",1,IF($C12="Ubuntu",1,IF($C12="Oracle Linux",1,IF($C12="Debian",1,IF($C12="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AT12" s="29">
+        <f>IF($D12="MS SQL Standard Edition - Active VM",AP12/2,IF($D12="MS SQL Enterprise Edition - Active VM",AP12/2,IF($D12="My SQL Community Edition",1,IF($D12="My SQL Enterprise Edition",1,IF($D12="Postgre SQL Community edition",AP12,IF($D12="Postgre SQL Enterprise Edition",AP12,IF($D12="Oracle Standard Edition",1,IF($D12="Oracle Enterprise",AP12/2,IF($D12="Maria DB Community edition",1,IF($D12="MongoDB Community edition",1,IF($D12="MS SQL Standard Edition - Passive VM",,IF($D12="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AU12" s="40">
         <v>4</v>
       </c>
-      <c r="AH4" s="6">
+      <c r="AV12" s="40">
         <v>4</v>
       </c>
-      <c r="AI4" s="6">
+      <c r="AW12" s="40">
         <v>8</v>
       </c>
-      <c r="AJ4" s="6">
+      <c r="AX12" s="40">
         <v>200</v>
       </c>
-      <c r="AK4" s="15">
+      <c r="AY12" s="31">
+        <f>IF($C12="win",AV12/2,IF($C12="rhel",1,IF($C12="suse",1,IF($C12="Ubuntu",1,IF($C12="Oracle Linux",1,IF($C12="Debian",1,IF($C12="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AZ12" s="32">
+        <f>IF($D12="MS SQL Standard Edition - Active VM",AV12/2,IF($D12="MS SQL Enterprise Edition - Active VM",AV12/2,IF($D12="My SQL Community Edition",1,IF($D12="My SQL Enterprise Edition",1,IF($D12="Postgre SQL Community edition",AV12,IF($D12="Postgre SQL Enterprise Edition",AV12,IF($D12="Oracle Standard Edition",1,IF($D12="Oracle Enterprise",AV12/2,IF($D12="Maria DB Community edition",1,IF($D12="MongoDB Community edition",1,IF($D12="MS SQL Standard Edition - Passive VM",,IF($D12="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="BA12" s="27">
         <v>4</v>
       </c>
-      <c r="AL4" s="15">
+      <c r="BB12" s="27">
         <v>4</v>
       </c>
-      <c r="AM4" s="15">
+      <c r="BC12" s="27">
         <v>8</v>
       </c>
-      <c r="AN4" s="15">
+      <c r="BD12" s="27">
         <v>200</v>
       </c>
-      <c r="AO4" s="6">
+      <c r="BE12" s="28">
+        <f>IF($C12="win",BB12/2,IF($C12="rhel",1,IF($C12="suse",1,IF($C12="Ubuntu",1,IF($C12="Oracle Linux",1,IF($C12="Debian",1,IF($C12="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="BF12" s="29">
+        <f>IF($D12="MS SQL Standard Edition - Active VM",BB12/2,IF($D12="MS SQL Enterprise Edition - Active VM",BB12/2,IF($D12="My SQL Community Edition",1,IF($D12="My SQL Enterprise Edition",1,IF($D12="Postgre SQL Community edition",BB12,IF($D12="Postgre SQL Enterprise Edition",BB12,IF($D12="Oracle Standard Edition",1,IF($D12="Oracle Enterprise",BB12/2,IF($D12="Maria DB Community edition",1,IF($D12="MongoDB Community edition",1,IF($D12="MS SQL Standard Edition - Passive VM",,IF($D12="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="BG12" s="40">
         <v>4</v>
       </c>
-      <c r="AP4" s="6">
+      <c r="BH12" s="40">
         <v>4</v>
       </c>
-      <c r="AQ4" s="6">
+      <c r="BI12" s="40">
         <v>8</v>
       </c>
-      <c r="AR4" s="6">
+      <c r="BJ12" s="40">
         <v>200</v>
       </c>
-      <c r="AS4" s="15">
+      <c r="BK12" s="31">
+        <f>IF($C12="win",BH12/2,IF($C12="rhel",1,IF($C12="suse",1,IF($C12="Ubuntu",1,IF($C12="Oracle Linux",1,IF($C12="Debian",1,IF($C12="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="BL12" s="32">
+        <f>IF($D12="MS SQL Standard Edition - Active VM",BH12/2,IF($D12="MS SQL Enterprise Edition - Active VM",BH12/2,IF($D12="My SQL Community Edition",1,IF($D12="My SQL Enterprise Edition",1,IF($D12="Postgre SQL Community edition",BH12,IF($D12="Postgre SQL Enterprise Edition",BH12,IF($D12="Oracle Standard Edition",1,IF($D12="Oracle Enterprise",BH12/2,IF($D12="Maria DB Community edition",1,IF($D12="MongoDB Community edition",1,IF($D12="MS SQL Standard Edition - Passive VM",,IF($D12="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="BM12" s="27">
         <v>4</v>
       </c>
-      <c r="AT4" s="15">
+      <c r="BN12" s="27">
         <v>4</v>
       </c>
-      <c r="AU4" s="15">
+      <c r="BO12" s="27">
         <v>8</v>
       </c>
-      <c r="AV4" s="15">
+      <c r="BP12" s="27">
         <v>200</v>
       </c>
-      <c r="AW4" s="6">
+      <c r="BQ12" s="28">
+        <f>IF($C12="win",BN12/2,IF($C12="rhel",1,IF($C12="suse",1,IF($C12="Ubuntu",1,IF($C12="Oracle Linux",1,IF($C12="Debian",1,IF($C12="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="BR12" s="29">
+        <f>IF($D12="MS SQL Standard Edition - Active VM",BN12/2,IF($D12="MS SQL Enterprise Edition - Active VM",BN12/2,IF($D12="My SQL Community Edition",1,IF($D12="My SQL Enterprise Edition",1,IF($D12="Postgre SQL Community edition",BN12,IF($D12="Postgre SQL Enterprise Edition",BN12,IF($D12="Oracle Standard Edition",1,IF($D12="Oracle Enterprise",BN12/2,IF($D12="Maria DB Community edition",1,IF($D12="MongoDB Community edition",1,IF($D12="MS SQL Standard Edition - Passive VM",,IF($D12="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="BS12" s="40">
         <v>4</v>
       </c>
-      <c r="AX4" s="6">
+      <c r="BT12" s="40">
         <v>4</v>
       </c>
-      <c r="AY4" s="6">
+      <c r="BU12" s="40">
         <v>8</v>
       </c>
-      <c r="AZ4" s="6">
+      <c r="BV12" s="40">
         <v>200</v>
       </c>
-      <c r="BA4" s="15">
+      <c r="BW12" s="31">
+        <f>IF($C12="win",BT12/2,IF($C12="rhel",1,IF($C12="suse",1,IF($C12="Ubuntu",1,IF($C12="Oracle Linux",1,IF($C12="Debian",1,IF($C12="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="BX12" s="32">
+        <f>IF($D12="MS SQL Standard Edition - Active VM",BT12/2,IF($D12="MS SQL Enterprise Edition - Active VM",BT12/2,IF($D12="My SQL Community Edition",1,IF($D12="My SQL Enterprise Edition",1,IF($D12="Postgre SQL Community edition",BT12,IF($D12="Postgre SQL Enterprise Edition",BT12,IF($D12="Oracle Standard Edition",1,IF($D12="Oracle Enterprise",BT12/2,IF($D12="Maria DB Community edition",1,IF($D12="MongoDB Community edition",1,IF($D12="MS SQL Standard Edition - Passive VM",,IF($D12="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="BY12" s="27">
         <v>4</v>
       </c>
-      <c r="BB4" s="15">
+      <c r="BZ12" s="27">
         <v>4</v>
       </c>
-      <c r="BC4" s="15">
+      <c r="CA12" s="27">
         <v>8</v>
       </c>
-      <c r="BD4" s="15">
+      <c r="CB12" s="27">
         <v>200</v>
       </c>
-      <c r="BE4" s="6">
+      <c r="CC12" s="28">
+        <f>IF($C12="win",BZ12/2,IF($C12="rhel",1,IF($C12="suse",1,IF($C12="Ubuntu",1,IF($C12="Oracle Linux",1,IF($C12="Debian",1,IF($C12="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="CD12" s="29">
+        <f>IF($D12="MS SQL Standard Edition - Active VM",BZ12/2,IF($D12="MS SQL Enterprise Edition - Active VM",BZ12/2,IF($D12="My SQL Community Edition",1,IF($D12="My SQL Enterprise Edition",1,IF($D12="Postgre SQL Community edition",BZ12,IF($D12="Postgre SQL Enterprise Edition",BZ12,IF($D12="Oracle Standard Edition",1,IF($D12="Oracle Enterprise",BZ12/2,IF($D12="Maria DB Community edition",1,IF($D12="MongoDB Community edition",1,IF($D12="MS SQL Standard Edition - Passive VM",,IF($D12="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="CE12" s="40">
         <v>4</v>
       </c>
-      <c r="BF4" s="6">
+      <c r="CF12" s="40">
         <v>4</v>
       </c>
-      <c r="BG4" s="6">
+      <c r="CG12" s="40">
         <v>8</v>
       </c>
-      <c r="BH4" s="19">
+      <c r="CH12" s="40">
         <v>200</v>
       </c>
-    </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7797</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>7724</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>7720</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>7732</v>
-      </c>
-      <c r="E5" s="15">
-        <v>8</v>
-      </c>
-      <c r="F5" s="15">
-        <v>16</v>
-      </c>
-      <c r="G5" s="15">
-        <v>58</v>
-      </c>
-      <c r="H5" s="15">
-        <v>1000</v>
-      </c>
-      <c r="I5" s="6">
-        <v>4</v>
-      </c>
-      <c r="J5" s="6">
-        <v>4</v>
-      </c>
-      <c r="K5" s="6">
-        <v>8</v>
-      </c>
-      <c r="L5" s="6">
-        <v>200</v>
-      </c>
-      <c r="M5" s="15">
-        <v>4</v>
-      </c>
-      <c r="N5" s="15">
-        <v>4</v>
-      </c>
-      <c r="O5" s="15">
-        <v>8</v>
-      </c>
-      <c r="P5" s="15">
-        <v>200</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>4</v>
-      </c>
-      <c r="R5" s="6">
-        <v>4</v>
-      </c>
-      <c r="S5" s="6">
-        <v>8</v>
-      </c>
-      <c r="T5" s="6">
-        <v>200</v>
-      </c>
-      <c r="U5" s="15">
-        <v>4</v>
-      </c>
-      <c r="V5" s="15">
-        <v>4</v>
-      </c>
-      <c r="W5" s="15">
-        <v>8</v>
-      </c>
-      <c r="X5" s="15">
-        <v>200</v>
-      </c>
-      <c r="Y5" s="6">
-        <v>4</v>
-      </c>
-      <c r="Z5" s="6">
-        <v>4</v>
-      </c>
-      <c r="AA5" s="6">
-        <v>8</v>
-      </c>
-      <c r="AB5" s="6">
-        <v>200</v>
-      </c>
-      <c r="AC5" s="15">
-        <v>4</v>
-      </c>
-      <c r="AD5" s="15">
-        <v>4</v>
-      </c>
-      <c r="AE5" s="15">
-        <v>8</v>
-      </c>
-      <c r="AF5" s="15">
-        <v>200</v>
-      </c>
-      <c r="AG5" s="6">
-        <v>4</v>
-      </c>
-      <c r="AH5" s="6">
-        <v>4</v>
-      </c>
-      <c r="AI5" s="6">
-        <v>8</v>
-      </c>
-      <c r="AJ5" s="6">
-        <v>200</v>
-      </c>
-      <c r="AK5" s="15">
-        <v>4</v>
-      </c>
-      <c r="AL5" s="15">
-        <v>4</v>
-      </c>
-      <c r="AM5" s="15">
-        <v>8</v>
-      </c>
-      <c r="AN5" s="15">
-        <v>200</v>
-      </c>
-      <c r="AO5" s="6">
-        <v>4</v>
-      </c>
-      <c r="AP5" s="6">
-        <v>4</v>
-      </c>
-      <c r="AQ5" s="6">
-        <v>8</v>
-      </c>
-      <c r="AR5" s="6">
-        <v>200</v>
-      </c>
-      <c r="AS5" s="15">
-        <v>4</v>
-      </c>
-      <c r="AT5" s="15">
-        <v>4</v>
-      </c>
-      <c r="AU5" s="15">
-        <v>8</v>
-      </c>
-      <c r="AV5" s="15">
-        <v>200</v>
-      </c>
-      <c r="AW5" s="6">
-        <v>4</v>
-      </c>
-      <c r="AX5" s="6">
-        <v>4</v>
-      </c>
-      <c r="AY5" s="6">
-        <v>8</v>
-      </c>
-      <c r="AZ5" s="6">
-        <v>200</v>
-      </c>
-      <c r="BA5" s="15">
-        <v>4</v>
-      </c>
-      <c r="BB5" s="15">
-        <v>4</v>
-      </c>
-      <c r="BC5" s="15">
-        <v>8</v>
-      </c>
-      <c r="BD5" s="15">
-        <v>200</v>
-      </c>
-      <c r="BE5" s="6">
-        <v>4</v>
-      </c>
-      <c r="BF5" s="6">
-        <v>4</v>
-      </c>
-      <c r="BG5" s="6">
-        <v>8</v>
-      </c>
-      <c r="BH5" s="19">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7797</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>7725</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>7720</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>7732</v>
-      </c>
-      <c r="E6" s="15">
-        <v>10</v>
-      </c>
-      <c r="F6" s="15">
-        <v>14</v>
-      </c>
-      <c r="G6" s="15">
-        <v>56</v>
-      </c>
-      <c r="H6" s="15">
-        <v>800</v>
-      </c>
-      <c r="I6" s="6">
-        <v>4</v>
-      </c>
-      <c r="J6" s="6">
-        <v>4</v>
-      </c>
-      <c r="K6" s="6">
-        <v>8</v>
-      </c>
-      <c r="L6" s="6">
-        <v>200</v>
-      </c>
-      <c r="M6" s="15">
-        <v>4</v>
-      </c>
-      <c r="N6" s="15">
-        <v>4</v>
-      </c>
-      <c r="O6" s="15">
-        <v>8</v>
-      </c>
-      <c r="P6" s="15">
-        <v>200</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>4</v>
-      </c>
-      <c r="R6" s="6">
-        <v>4</v>
-      </c>
-      <c r="S6" s="6">
-        <v>8</v>
-      </c>
-      <c r="T6" s="6">
-        <v>200</v>
-      </c>
-      <c r="U6" s="15">
-        <v>4</v>
-      </c>
-      <c r="V6" s="15">
-        <v>4</v>
-      </c>
-      <c r="W6" s="15">
-        <v>8</v>
-      </c>
-      <c r="X6" s="15">
-        <v>200</v>
-      </c>
-      <c r="Y6" s="6">
-        <v>4</v>
-      </c>
-      <c r="Z6" s="6">
-        <v>4</v>
-      </c>
-      <c r="AA6" s="6">
-        <v>8</v>
-      </c>
-      <c r="AB6" s="6">
-        <v>200</v>
-      </c>
-      <c r="AC6" s="15">
-        <v>4</v>
-      </c>
-      <c r="AD6" s="15">
-        <v>4</v>
-      </c>
-      <c r="AE6" s="15">
-        <v>8</v>
-      </c>
-      <c r="AF6" s="15">
-        <v>200</v>
-      </c>
-      <c r="AG6" s="6">
-        <v>4</v>
-      </c>
-      <c r="AH6" s="6">
-        <v>4</v>
-      </c>
-      <c r="AI6" s="6">
-        <v>8</v>
-      </c>
-      <c r="AJ6" s="6">
-        <v>200</v>
-      </c>
-      <c r="AK6" s="15">
-        <v>4</v>
-      </c>
-      <c r="AL6" s="15">
-        <v>4</v>
-      </c>
-      <c r="AM6" s="15">
-        <v>8</v>
-      </c>
-      <c r="AN6" s="15">
-        <v>200</v>
-      </c>
-      <c r="AO6" s="6">
-        <v>4</v>
-      </c>
-      <c r="AP6" s="6">
-        <v>4</v>
-      </c>
-      <c r="AQ6" s="6">
-        <v>8</v>
-      </c>
-      <c r="AR6" s="6">
-        <v>200</v>
-      </c>
-      <c r="AS6" s="15">
-        <v>4</v>
-      </c>
-      <c r="AT6" s="15">
-        <v>4</v>
-      </c>
-      <c r="AU6" s="15">
-        <v>8</v>
-      </c>
-      <c r="AV6" s="15">
-        <v>200</v>
-      </c>
-      <c r="AW6" s="6">
-        <v>4</v>
-      </c>
-      <c r="AX6" s="6">
-        <v>4</v>
-      </c>
-      <c r="AY6" s="6">
-        <v>8</v>
-      </c>
-      <c r="AZ6" s="6">
-        <v>200</v>
-      </c>
-      <c r="BA6" s="15">
-        <v>4</v>
-      </c>
-      <c r="BB6" s="15">
-        <v>4</v>
-      </c>
-      <c r="BC6" s="15">
-        <v>8</v>
-      </c>
-      <c r="BD6" s="15">
-        <v>200</v>
-      </c>
-      <c r="BE6" s="6">
-        <v>4</v>
-      </c>
-      <c r="BF6" s="6">
-        <v>4</v>
-      </c>
-      <c r="BG6" s="6">
-        <v>8</v>
-      </c>
-      <c r="BH6" s="19">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7797</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>7726</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>7720</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>7732</v>
-      </c>
-      <c r="E7" s="15">
-        <v>12</v>
-      </c>
-      <c r="F7" s="15">
-        <v>12</v>
-      </c>
-      <c r="G7" s="15">
-        <v>54</v>
-      </c>
-      <c r="H7" s="15">
-        <v>600</v>
-      </c>
-      <c r="I7" s="6">
-        <v>4</v>
-      </c>
-      <c r="J7" s="6">
-        <v>4</v>
-      </c>
-      <c r="K7" s="6">
-        <v>8</v>
-      </c>
-      <c r="L7" s="6">
-        <v>200</v>
-      </c>
-      <c r="M7" s="15">
-        <v>4</v>
-      </c>
-      <c r="N7" s="15">
-        <v>4</v>
-      </c>
-      <c r="O7" s="15">
-        <v>8</v>
-      </c>
-      <c r="P7" s="15">
-        <v>200</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>4</v>
-      </c>
-      <c r="R7" s="6">
-        <v>4</v>
-      </c>
-      <c r="S7" s="6">
-        <v>8</v>
-      </c>
-      <c r="T7" s="6">
-        <v>200</v>
-      </c>
-      <c r="U7" s="15">
-        <v>4</v>
-      </c>
-      <c r="V7" s="15">
-        <v>4</v>
-      </c>
-      <c r="W7" s="15">
-        <v>8</v>
-      </c>
-      <c r="X7" s="15">
-        <v>200</v>
-      </c>
-      <c r="Y7" s="6">
-        <v>4</v>
-      </c>
-      <c r="Z7" s="6">
-        <v>4</v>
-      </c>
-      <c r="AA7" s="6">
-        <v>8</v>
-      </c>
-      <c r="AB7" s="6">
-        <v>200</v>
-      </c>
-      <c r="AC7" s="15">
-        <v>4</v>
-      </c>
-      <c r="AD7" s="15">
-        <v>4</v>
-      </c>
-      <c r="AE7" s="15">
-        <v>8</v>
-      </c>
-      <c r="AF7" s="15">
-        <v>200</v>
-      </c>
-      <c r="AG7" s="6">
-        <v>4</v>
-      </c>
-      <c r="AH7" s="6">
-        <v>4</v>
-      </c>
-      <c r="AI7" s="6">
-        <v>8</v>
-      </c>
-      <c r="AJ7" s="6">
-        <v>200</v>
-      </c>
-      <c r="AK7" s="15">
-        <v>4</v>
-      </c>
-      <c r="AL7" s="15">
-        <v>4</v>
-      </c>
-      <c r="AM7" s="15">
-        <v>8</v>
-      </c>
-      <c r="AN7" s="15">
-        <v>200</v>
-      </c>
-      <c r="AO7" s="6">
-        <v>4</v>
-      </c>
-      <c r="AP7" s="6">
-        <v>4</v>
-      </c>
-      <c r="AQ7" s="6">
-        <v>8</v>
-      </c>
-      <c r="AR7" s="6">
-        <v>200</v>
-      </c>
-      <c r="AS7" s="15">
-        <v>4</v>
-      </c>
-      <c r="AT7" s="15">
-        <v>4</v>
-      </c>
-      <c r="AU7" s="15">
-        <v>8</v>
-      </c>
-      <c r="AV7" s="15">
-        <v>200</v>
-      </c>
-      <c r="AW7" s="6">
-        <v>4</v>
-      </c>
-      <c r="AX7" s="6">
-        <v>4</v>
-      </c>
-      <c r="AY7" s="6">
-        <v>8</v>
-      </c>
-      <c r="AZ7" s="6">
-        <v>200</v>
-      </c>
-      <c r="BA7" s="15">
-        <v>4</v>
-      </c>
-      <c r="BB7" s="15">
-        <v>4</v>
-      </c>
-      <c r="BC7" s="15">
-        <v>8</v>
-      </c>
-      <c r="BD7" s="15">
-        <v>200</v>
-      </c>
-      <c r="BE7" s="6">
-        <v>4</v>
-      </c>
-      <c r="BF7" s="6">
-        <v>4</v>
-      </c>
-      <c r="BG7" s="6">
-        <v>8</v>
-      </c>
-      <c r="BH7" s="19">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7797</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>7727</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>7720</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>7732</v>
-      </c>
-      <c r="E8" s="15">
-        <v>14</v>
-      </c>
-      <c r="F8" s="15">
-        <v>10</v>
-      </c>
-      <c r="G8" s="15">
-        <v>52</v>
-      </c>
-      <c r="H8" s="15">
-        <v>400</v>
-      </c>
-      <c r="I8" s="6">
-        <v>4</v>
-      </c>
-      <c r="J8" s="6">
-        <v>4</v>
-      </c>
-      <c r="K8" s="6">
-        <v>8</v>
-      </c>
-      <c r="L8" s="6">
-        <v>200</v>
-      </c>
-      <c r="M8" s="15">
-        <v>4</v>
-      </c>
-      <c r="N8" s="15">
-        <v>4</v>
-      </c>
-      <c r="O8" s="15">
-        <v>8</v>
-      </c>
-      <c r="P8" s="15">
-        <v>200</v>
-      </c>
-      <c r="Q8" s="6">
-        <v>4</v>
-      </c>
-      <c r="R8" s="6">
-        <v>4</v>
-      </c>
-      <c r="S8" s="6">
-        <v>8</v>
-      </c>
-      <c r="T8" s="6">
-        <v>200</v>
-      </c>
-      <c r="U8" s="15">
-        <v>4</v>
-      </c>
-      <c r="V8" s="15">
-        <v>4</v>
-      </c>
-      <c r="W8" s="15">
-        <v>8</v>
-      </c>
-      <c r="X8" s="15">
-        <v>200</v>
-      </c>
-      <c r="Y8" s="6">
-        <v>4</v>
-      </c>
-      <c r="Z8" s="6">
-        <v>4</v>
-      </c>
-      <c r="AA8" s="6">
-        <v>8</v>
-      </c>
-      <c r="AB8" s="6">
-        <v>200</v>
-      </c>
-      <c r="AC8" s="15">
-        <v>4</v>
-      </c>
-      <c r="AD8" s="15">
-        <v>4</v>
-      </c>
-      <c r="AE8" s="15">
-        <v>8</v>
-      </c>
-      <c r="AF8" s="15">
-        <v>200</v>
-      </c>
-      <c r="AG8" s="6">
-        <v>4</v>
-      </c>
-      <c r="AH8" s="6">
-        <v>4</v>
-      </c>
-      <c r="AI8" s="6">
-        <v>8</v>
-      </c>
-      <c r="AJ8" s="6">
-        <v>200</v>
-      </c>
-      <c r="AK8" s="15">
-        <v>4</v>
-      </c>
-      <c r="AL8" s="15">
-        <v>4</v>
-      </c>
-      <c r="AM8" s="15">
-        <v>8</v>
-      </c>
-      <c r="AN8" s="15">
-        <v>200</v>
-      </c>
-      <c r="AO8" s="6">
-        <v>4</v>
-      </c>
-      <c r="AP8" s="6">
-        <v>4</v>
-      </c>
-      <c r="AQ8" s="6">
-        <v>8</v>
-      </c>
-      <c r="AR8" s="6">
-        <v>200</v>
-      </c>
-      <c r="AS8" s="15">
-        <v>4</v>
-      </c>
-      <c r="AT8" s="15">
-        <v>4</v>
-      </c>
-      <c r="AU8" s="15">
-        <v>8</v>
-      </c>
-      <c r="AV8" s="15">
-        <v>200</v>
-      </c>
-      <c r="AW8" s="6">
-        <v>4</v>
-      </c>
-      <c r="AX8" s="6">
-        <v>4</v>
-      </c>
-      <c r="AY8" s="6">
-        <v>8</v>
-      </c>
-      <c r="AZ8" s="6">
-        <v>200</v>
-      </c>
-      <c r="BA8" s="15">
-        <v>4</v>
-      </c>
-      <c r="BB8" s="15">
-        <v>4</v>
-      </c>
-      <c r="BC8" s="15">
-        <v>8</v>
-      </c>
-      <c r="BD8" s="15">
-        <v>200</v>
-      </c>
-      <c r="BE8" s="6">
-        <v>4</v>
-      </c>
-      <c r="BF8" s="6">
-        <v>4</v>
-      </c>
-      <c r="BG8" s="6">
-        <v>8</v>
-      </c>
-      <c r="BH8" s="19">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7797</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>7728</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>7720</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>7732</v>
-      </c>
-      <c r="E9" s="15">
-        <v>16</v>
-      </c>
-      <c r="F9" s="15">
-        <v>8</v>
-      </c>
-      <c r="G9" s="15">
-        <v>50</v>
-      </c>
-      <c r="H9" s="15">
-        <v>200</v>
-      </c>
-      <c r="I9" s="6">
-        <v>4</v>
-      </c>
-      <c r="J9" s="6">
-        <v>4</v>
-      </c>
-      <c r="K9" s="6">
-        <v>8</v>
-      </c>
-      <c r="L9" s="6">
-        <v>200</v>
-      </c>
-      <c r="M9" s="15">
-        <v>4</v>
-      </c>
-      <c r="N9" s="15">
-        <v>4</v>
-      </c>
-      <c r="O9" s="15">
-        <v>8</v>
-      </c>
-      <c r="P9" s="15">
-        <v>200</v>
-      </c>
-      <c r="Q9" s="6">
-        <v>4</v>
-      </c>
-      <c r="R9" s="6">
-        <v>4</v>
-      </c>
-      <c r="S9" s="6">
-        <v>8</v>
-      </c>
-      <c r="T9" s="6">
-        <v>200</v>
-      </c>
-      <c r="U9" s="15">
-        <v>4</v>
-      </c>
-      <c r="V9" s="15">
-        <v>4</v>
-      </c>
-      <c r="W9" s="15">
-        <v>8</v>
-      </c>
-      <c r="X9" s="15">
-        <v>200</v>
-      </c>
-      <c r="Y9" s="6">
-        <v>4</v>
-      </c>
-      <c r="Z9" s="6">
-        <v>4</v>
-      </c>
-      <c r="AA9" s="6">
-        <v>8</v>
-      </c>
-      <c r="AB9" s="6">
-        <v>200</v>
-      </c>
-      <c r="AC9" s="15">
-        <v>4</v>
-      </c>
-      <c r="AD9" s="15">
-        <v>4</v>
-      </c>
-      <c r="AE9" s="15">
-        <v>8</v>
-      </c>
-      <c r="AF9" s="15">
-        <v>200</v>
-      </c>
-      <c r="AG9" s="6">
-        <v>4</v>
-      </c>
-      <c r="AH9" s="6">
-        <v>4</v>
-      </c>
-      <c r="AI9" s="6">
-        <v>8</v>
-      </c>
-      <c r="AJ9" s="6">
-        <v>200</v>
-      </c>
-      <c r="AK9" s="15">
-        <v>4</v>
-      </c>
-      <c r="AL9" s="15">
-        <v>4</v>
-      </c>
-      <c r="AM9" s="15">
-        <v>8</v>
-      </c>
-      <c r="AN9" s="15">
-        <v>200</v>
-      </c>
-      <c r="AO9" s="6">
-        <v>4</v>
-      </c>
-      <c r="AP9" s="6">
-        <v>4</v>
-      </c>
-      <c r="AQ9" s="6">
-        <v>8</v>
-      </c>
-      <c r="AR9" s="6">
-        <v>200</v>
-      </c>
-      <c r="AS9" s="15">
-        <v>4</v>
-      </c>
-      <c r="AT9" s="15">
-        <v>4</v>
-      </c>
-      <c r="AU9" s="15">
-        <v>8</v>
-      </c>
-      <c r="AV9" s="15">
-        <v>200</v>
-      </c>
-      <c r="AW9" s="6">
-        <v>4</v>
-      </c>
-      <c r="AX9" s="6">
-        <v>4</v>
-      </c>
-      <c r="AY9" s="6">
-        <v>8</v>
-      </c>
-      <c r="AZ9" s="6">
-        <v>200</v>
-      </c>
-      <c r="BA9" s="15">
-        <v>4</v>
-      </c>
-      <c r="BB9" s="15">
-        <v>4</v>
-      </c>
-      <c r="BC9" s="15">
-        <v>8</v>
-      </c>
-      <c r="BD9" s="15">
-        <v>200</v>
-      </c>
-      <c r="BE9" s="6">
-        <v>4</v>
-      </c>
-      <c r="BF9" s="6">
-        <v>4</v>
-      </c>
-      <c r="BG9" s="6">
-        <v>8</v>
-      </c>
-      <c r="BH9" s="19">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7797</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>7729</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>7720</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>7732</v>
-      </c>
-      <c r="E10" s="15">
-        <v>18</v>
-      </c>
-      <c r="F10" s="15">
-        <v>6</v>
-      </c>
-      <c r="G10" s="15">
-        <v>48</v>
-      </c>
-      <c r="H10" s="15">
-        <v>500</v>
-      </c>
-      <c r="I10" s="6">
-        <v>4</v>
-      </c>
-      <c r="J10" s="6">
-        <v>4</v>
-      </c>
-      <c r="K10" s="6">
-        <v>8</v>
-      </c>
-      <c r="L10" s="6">
-        <v>200</v>
-      </c>
-      <c r="M10" s="15">
-        <v>4</v>
-      </c>
-      <c r="N10" s="15">
-        <v>4</v>
-      </c>
-      <c r="O10" s="15">
-        <v>8</v>
-      </c>
-      <c r="P10" s="15">
-        <v>200</v>
-      </c>
-      <c r="Q10" s="6">
-        <v>4</v>
-      </c>
-      <c r="R10" s="6">
-        <v>4</v>
-      </c>
-      <c r="S10" s="6">
-        <v>8</v>
-      </c>
-      <c r="T10" s="6">
-        <v>200</v>
-      </c>
-      <c r="U10" s="15">
-        <v>4</v>
-      </c>
-      <c r="V10" s="15">
-        <v>4</v>
-      </c>
-      <c r="W10" s="15">
-        <v>8</v>
-      </c>
-      <c r="X10" s="15">
-        <v>200</v>
-      </c>
-      <c r="Y10" s="6">
-        <v>4</v>
-      </c>
-      <c r="Z10" s="6">
-        <v>4</v>
-      </c>
-      <c r="AA10" s="6">
-        <v>8</v>
-      </c>
-      <c r="AB10" s="6">
-        <v>200</v>
-      </c>
-      <c r="AC10" s="15">
-        <v>4</v>
-      </c>
-      <c r="AD10" s="15">
-        <v>4</v>
-      </c>
-      <c r="AE10" s="15">
-        <v>8</v>
-      </c>
-      <c r="AF10" s="15">
-        <v>200</v>
-      </c>
-      <c r="AG10" s="6">
-        <v>4</v>
-      </c>
-      <c r="AH10" s="6">
-        <v>4</v>
-      </c>
-      <c r="AI10" s="6">
-        <v>8</v>
-      </c>
-      <c r="AJ10" s="6">
-        <v>200</v>
-      </c>
-      <c r="AK10" s="15">
-        <v>4</v>
-      </c>
-      <c r="AL10" s="15">
-        <v>4</v>
-      </c>
-      <c r="AM10" s="15">
-        <v>8</v>
-      </c>
-      <c r="AN10" s="15">
-        <v>200</v>
-      </c>
-      <c r="AO10" s="6">
-        <v>4</v>
-      </c>
-      <c r="AP10" s="6">
-        <v>4</v>
-      </c>
-      <c r="AQ10" s="6">
-        <v>8</v>
-      </c>
-      <c r="AR10" s="6">
-        <v>200</v>
-      </c>
-      <c r="AS10" s="15">
-        <v>4</v>
-      </c>
-      <c r="AT10" s="15">
-        <v>4</v>
-      </c>
-      <c r="AU10" s="15">
-        <v>8</v>
-      </c>
-      <c r="AV10" s="15">
-        <v>200</v>
-      </c>
-      <c r="AW10" s="6">
-        <v>4</v>
-      </c>
-      <c r="AX10" s="6">
-        <v>4</v>
-      </c>
-      <c r="AY10" s="6">
-        <v>8</v>
-      </c>
-      <c r="AZ10" s="6">
-        <v>200</v>
-      </c>
-      <c r="BA10" s="15">
-        <v>4</v>
-      </c>
-      <c r="BB10" s="15">
-        <v>4</v>
-      </c>
-      <c r="BC10" s="15">
-        <v>8</v>
-      </c>
-      <c r="BD10" s="15">
-        <v>200</v>
-      </c>
-      <c r="BE10" s="6">
-        <v>4</v>
-      </c>
-      <c r="BF10" s="6">
-        <v>4</v>
-      </c>
-      <c r="BG10" s="6">
-        <v>8</v>
-      </c>
-      <c r="BH10" s="19">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>7797</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>7730</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>7720</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>7732</v>
-      </c>
-      <c r="E11" s="15">
-        <v>20</v>
-      </c>
-      <c r="F11" s="15">
-        <v>4</v>
-      </c>
-      <c r="G11" s="15">
-        <v>46</v>
-      </c>
-      <c r="H11" s="15">
-        <v>900</v>
-      </c>
-      <c r="I11" s="6">
-        <v>4</v>
-      </c>
-      <c r="J11" s="6">
-        <v>4</v>
-      </c>
-      <c r="K11" s="6">
-        <v>8</v>
-      </c>
-      <c r="L11" s="6">
-        <v>200</v>
-      </c>
-      <c r="M11" s="15">
-        <v>4</v>
-      </c>
-      <c r="N11" s="15">
-        <v>4</v>
-      </c>
-      <c r="O11" s="15">
-        <v>8</v>
-      </c>
-      <c r="P11" s="15">
-        <v>200</v>
-      </c>
-      <c r="Q11" s="6">
-        <v>4</v>
-      </c>
-      <c r="R11" s="6">
-        <v>4</v>
-      </c>
-      <c r="S11" s="6">
-        <v>8</v>
-      </c>
-      <c r="T11" s="6">
-        <v>200</v>
-      </c>
-      <c r="U11" s="15">
-        <v>4</v>
-      </c>
-      <c r="V11" s="15">
-        <v>4</v>
-      </c>
-      <c r="W11" s="15">
-        <v>8</v>
-      </c>
-      <c r="X11" s="15">
-        <v>200</v>
-      </c>
-      <c r="Y11" s="6">
-        <v>4</v>
-      </c>
-      <c r="Z11" s="6">
-        <v>4</v>
-      </c>
-      <c r="AA11" s="6">
-        <v>8</v>
-      </c>
-      <c r="AB11" s="6">
-        <v>200</v>
-      </c>
-      <c r="AC11" s="15">
-        <v>4</v>
-      </c>
-      <c r="AD11" s="15">
-        <v>4</v>
-      </c>
-      <c r="AE11" s="15">
-        <v>8</v>
-      </c>
-      <c r="AF11" s="15">
-        <v>200</v>
-      </c>
-      <c r="AG11" s="6">
-        <v>4</v>
-      </c>
-      <c r="AH11" s="6">
-        <v>4</v>
-      </c>
-      <c r="AI11" s="6">
-        <v>8</v>
-      </c>
-      <c r="AJ11" s="6">
-        <v>200</v>
-      </c>
-      <c r="AK11" s="15">
-        <v>4</v>
-      </c>
-      <c r="AL11" s="15">
-        <v>4</v>
-      </c>
-      <c r="AM11" s="15">
-        <v>8</v>
-      </c>
-      <c r="AN11" s="15">
-        <v>200</v>
-      </c>
-      <c r="AO11" s="6">
-        <v>4</v>
-      </c>
-      <c r="AP11" s="6">
-        <v>4</v>
-      </c>
-      <c r="AQ11" s="6">
-        <v>8</v>
-      </c>
-      <c r="AR11" s="6">
-        <v>200</v>
-      </c>
-      <c r="AS11" s="15">
-        <v>4</v>
-      </c>
-      <c r="AT11" s="15">
-        <v>4</v>
-      </c>
-      <c r="AU11" s="15">
-        <v>8</v>
-      </c>
-      <c r="AV11" s="15">
-        <v>200</v>
-      </c>
-      <c r="AW11" s="6">
-        <v>4</v>
-      </c>
-      <c r="AX11" s="6">
-        <v>4</v>
-      </c>
-      <c r="AY11" s="6">
-        <v>8</v>
-      </c>
-      <c r="AZ11" s="6">
-        <v>200</v>
-      </c>
-      <c r="BA11" s="15">
-        <v>4</v>
-      </c>
-      <c r="BB11" s="15">
-        <v>4</v>
-      </c>
-      <c r="BC11" s="15">
-        <v>8</v>
-      </c>
-      <c r="BD11" s="15">
-        <v>200</v>
-      </c>
-      <c r="BE11" s="6">
-        <v>4</v>
-      </c>
-      <c r="BF11" s="6">
-        <v>4</v>
-      </c>
-      <c r="BG11" s="6">
-        <v>8</v>
-      </c>
-      <c r="BH11" s="19">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>7797</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>7731</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>7720</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>7732</v>
-      </c>
-      <c r="E12" s="15">
-        <v>22</v>
-      </c>
-      <c r="F12" s="15">
-        <v>2</v>
-      </c>
-      <c r="G12" s="15">
-        <v>44</v>
-      </c>
-      <c r="H12" s="15">
-        <v>10000</v>
-      </c>
-      <c r="I12" s="28">
-        <v>4</v>
-      </c>
-      <c r="J12" s="28">
-        <v>4</v>
-      </c>
-      <c r="K12" s="28">
-        <v>8</v>
-      </c>
-      <c r="L12" s="28">
-        <v>200</v>
-      </c>
-      <c r="M12" s="29">
-        <v>4</v>
-      </c>
-      <c r="N12" s="29">
-        <v>4</v>
-      </c>
-      <c r="O12" s="29">
-        <v>8</v>
-      </c>
-      <c r="P12" s="29">
-        <v>200</v>
-      </c>
-      <c r="Q12" s="28">
-        <v>4</v>
-      </c>
-      <c r="R12" s="28">
-        <v>4</v>
-      </c>
-      <c r="S12" s="28">
-        <v>8</v>
-      </c>
-      <c r="T12" s="28">
-        <v>200</v>
-      </c>
-      <c r="U12" s="29">
-        <v>4</v>
-      </c>
-      <c r="V12" s="29">
-        <v>4</v>
-      </c>
-      <c r="W12" s="29">
-        <v>8</v>
-      </c>
-      <c r="X12" s="29">
-        <v>200</v>
-      </c>
-      <c r="Y12" s="28">
-        <v>4</v>
-      </c>
-      <c r="Z12" s="28">
-        <v>4</v>
-      </c>
-      <c r="AA12" s="28">
-        <v>8</v>
-      </c>
-      <c r="AB12" s="28">
-        <v>200</v>
-      </c>
-      <c r="AC12" s="29">
-        <v>4</v>
-      </c>
-      <c r="AD12" s="29">
-        <v>4</v>
-      </c>
-      <c r="AE12" s="29">
-        <v>8</v>
-      </c>
-      <c r="AF12" s="29">
-        <v>200</v>
-      </c>
-      <c r="AG12" s="28">
-        <v>4</v>
-      </c>
-      <c r="AH12" s="28">
-        <v>4</v>
-      </c>
-      <c r="AI12" s="28">
-        <v>8</v>
-      </c>
-      <c r="AJ12" s="28">
-        <v>200</v>
-      </c>
-      <c r="AK12" s="29">
-        <v>4</v>
-      </c>
-      <c r="AL12" s="29">
-        <v>4</v>
-      </c>
-      <c r="AM12" s="29">
-        <v>8</v>
-      </c>
-      <c r="AN12" s="29">
-        <v>200</v>
-      </c>
-      <c r="AO12" s="28">
-        <v>4</v>
-      </c>
-      <c r="AP12" s="28">
-        <v>4</v>
-      </c>
-      <c r="AQ12" s="28">
-        <v>8</v>
-      </c>
-      <c r="AR12" s="28">
-        <v>200</v>
-      </c>
-      <c r="AS12" s="29">
-        <v>4</v>
-      </c>
-      <c r="AT12" s="29">
-        <v>4</v>
-      </c>
-      <c r="AU12" s="29">
-        <v>8</v>
-      </c>
-      <c r="AV12" s="29">
-        <v>200</v>
-      </c>
-      <c r="AW12" s="28">
-        <v>4</v>
-      </c>
-      <c r="AX12" s="28">
-        <v>4</v>
-      </c>
-      <c r="AY12" s="28">
-        <v>8</v>
-      </c>
-      <c r="AZ12" s="28">
-        <v>200</v>
-      </c>
-      <c r="BA12" s="29">
-        <v>4</v>
-      </c>
-      <c r="BB12" s="29">
-        <v>4</v>
-      </c>
-      <c r="BC12" s="29">
-        <v>8</v>
-      </c>
-      <c r="BD12" s="29">
-        <v>200</v>
-      </c>
-      <c r="BE12" s="28">
-        <v>4</v>
-      </c>
-      <c r="BF12" s="28">
-        <v>4</v>
-      </c>
-      <c r="BG12" s="28">
-        <v>8</v>
-      </c>
-      <c r="BH12" s="16">
-        <v>200</v>
+      <c r="CI12" s="31">
+        <f>IF($C12="win",CF12/2,IF($C12="rhel",1,IF($C12="suse",1,IF($C12="Ubuntu",1,IF($C12="Oracle Linux",1,IF($C12="Debian",1,IF($C12="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="CJ12" s="32">
+        <f>IF($D12="MS SQL Standard Edition - Active VM",CF12/2,IF($D12="MS SQL Enterprise Edition - Active VM",CF12/2,IF($D12="My SQL Community Edition",1,IF($D12="My SQL Enterprise Edition",1,IF($D12="Postgre SQL Community edition",CF12,IF($D12="Postgre SQL Enterprise Edition",CF12,IF($D12="Oracle Standard Edition",1,IF($D12="Oracle Enterprise",CF12/2,IF($D12="Maria DB Community edition",1,IF($D12="MongoDB Community edition",1,IF($D12="MS SQL Standard Edition - Passive VM",,IF($D12="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C12" xr:uid="{00000000-0002-0000-0200-000000000000}">
-      <formula1>#REF!</formula1>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D12">
+      <formula1>$CQ$1:$CQ$16</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C12">
+      <formula1>$CP$1:$CP$8</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="45.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="23.28515625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="45.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -61745,69 +61934,69 @@
       <c r="C1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
+        <v>7761</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>7709</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>7710</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>7711</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7712</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>7713</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>7714</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>7715</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>7716</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>7762</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>7709</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>7710</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>7711</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>7712</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>7713</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>7714</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>7715</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>7716</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>7763</v>
-      </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="13" t="s">
         <v>7717</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="13" t="s">
         <v>7718</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="13" t="s">
         <v>7719</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
@@ -62080,25 +62269,25 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
@@ -63559,25 +63748,25 @@
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="32"/>
-      <c r="Q36" s="32"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="str">
@@ -63688,25 +63877,25 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="32"/>
-      <c r="P39" s="32"/>
-      <c r="Q39" s="32"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="24"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="str">
@@ -64681,25 +64870,25 @@
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="31" t="s">
+      <c r="A58" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="B58" s="32"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="32"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="32"/>
-      <c r="M58" s="32"/>
-      <c r="N58" s="32"/>
-      <c r="O58" s="32"/>
-      <c r="P58" s="32"/>
-      <c r="Q58" s="32"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="24"/>
+      <c r="O58" s="24"/>
+      <c r="P58" s="24"/>
+      <c r="Q58" s="24"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="str">

--- a/template.xlsx
+++ b/template.xlsx
@@ -11,14 +11,19 @@
     <sheet name="product_mater" sheetId="4" r:id="rId2"/>
     <sheet name="VM Working" sheetId="3" r:id="rId3"/>
     <sheet name="BOM DC" sheetId="1" r:id="rId4"/>
+    <sheet name="BOM DR" sheetId="6" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
+    <definedName name="Group_Qty" localSheetId="4">'[1]eNlight Instance'!#REF!</definedName>
     <definedName name="Group_Qty">'[1]eNlight Instance'!#REF!</definedName>
+    <definedName name="PhaseList" localSheetId="4">Phases[Phases]</definedName>
     <definedName name="PhaseList">Phases[Phases]</definedName>
+    <definedName name="product_id" localSheetId="4">product_mater!#REF!</definedName>
     <definedName name="product_id">product_mater!#REF!</definedName>
+    <definedName name="product_name" localSheetId="4">'[1]eNlight Instance'!#REF!+product_mater!$A:$A</definedName>
     <definedName name="product_name">'[1]eNlight Instance'!#REF!+product_mater!$A:$A</definedName>
     <definedName name="product_names">product_mater!$A:$A</definedName>
   </definedNames>
@@ -32,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8148" uniqueCount="7839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8294" uniqueCount="7840">
   <si>
     <t>core_product_name</t>
   </si>
@@ -23549,6 +23554,9 @@
   </si>
   <si>
     <t>OEM Specific</t>
+  </si>
+  <si>
+    <t>BOM DR</t>
   </si>
 </sst>
 </file>
@@ -23933,12 +23941,6 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -23971,6 +23973,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -24400,7 +24408,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24543,7 +24551,7 @@
   <dimension ref="A1:S3846"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25054,21 +25062,21 @@
       <c r="B58" t="s">
         <v>127</v>
       </c>
-      <c r="G58" s="23" t="s">
+      <c r="G58" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="H58" s="24"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="24"/>
-      <c r="K58" s="24"/>
-      <c r="L58" s="24"/>
-      <c r="M58" s="24"/>
-      <c r="N58" s="24"/>
-      <c r="O58" s="24"/>
-      <c r="P58" s="24"/>
-      <c r="Q58" s="24"/>
-      <c r="R58" s="24"/>
-      <c r="S58" s="24"/>
+      <c r="H58" s="40"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="40"/>
+      <c r="K58" s="40"/>
+      <c r="L58" s="40"/>
+      <c r="M58" s="40"/>
+      <c r="N58" s="40"/>
+      <c r="O58" s="40"/>
+      <c r="P58" s="40"/>
+      <c r="Q58" s="40"/>
+      <c r="R58" s="40"/>
+      <c r="S58" s="40"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
@@ -25312,21 +25320,21 @@
       <c r="B64" t="s">
         <v>146</v>
       </c>
-      <c r="G64" s="23" t="s">
+      <c r="G64" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="H64" s="24"/>
-      <c r="I64" s="24"/>
-      <c r="J64" s="24"/>
-      <c r="K64" s="24"/>
-      <c r="L64" s="24"/>
-      <c r="M64" s="24"/>
-      <c r="N64" s="24"/>
-      <c r="O64" s="24"/>
-      <c r="P64" s="24"/>
-      <c r="Q64" s="24"/>
-      <c r="R64" s="24"/>
-      <c r="S64" s="24"/>
+      <c r="H64" s="40"/>
+      <c r="I64" s="40"/>
+      <c r="J64" s="40"/>
+      <c r="K64" s="40"/>
+      <c r="L64" s="40"/>
+      <c r="M64" s="40"/>
+      <c r="N64" s="40"/>
+      <c r="O64" s="40"/>
+      <c r="P64" s="40"/>
+      <c r="Q64" s="40"/>
+      <c r="R64" s="40"/>
+      <c r="S64" s="40"/>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -26745,21 +26753,21 @@
       <c r="B95" t="s">
         <v>243</v>
       </c>
-      <c r="G95" s="23" t="s">
+      <c r="G95" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="H95" s="24"/>
-      <c r="I95" s="24"/>
-      <c r="J95" s="24"/>
-      <c r="K95" s="24"/>
-      <c r="L95" s="24"/>
-      <c r="M95" s="24"/>
-      <c r="N95" s="24"/>
-      <c r="O95" s="24"/>
-      <c r="P95" s="24"/>
-      <c r="Q95" s="24"/>
-      <c r="R95" s="24"/>
-      <c r="S95" s="24"/>
+      <c r="H95" s="40"/>
+      <c r="I95" s="40"/>
+      <c r="J95" s="40"/>
+      <c r="K95" s="40"/>
+      <c r="L95" s="40"/>
+      <c r="M95" s="40"/>
+      <c r="N95" s="40"/>
+      <c r="O95" s="40"/>
+      <c r="P95" s="40"/>
+      <c r="Q95" s="40"/>
+      <c r="R95" s="40"/>
+      <c r="S95" s="40"/>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
@@ -27050,21 +27058,21 @@
       <c r="B102" t="s">
         <v>265</v>
       </c>
-      <c r="G102" s="23" t="s">
+      <c r="G102" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="H102" s="24"/>
-      <c r="I102" s="24"/>
-      <c r="J102" s="24"/>
-      <c r="K102" s="24"/>
-      <c r="L102" s="24"/>
-      <c r="M102" s="24"/>
-      <c r="N102" s="24"/>
-      <c r="O102" s="24"/>
-      <c r="P102" s="24"/>
-      <c r="Q102" s="24"/>
-      <c r="R102" s="24"/>
-      <c r="S102" s="24"/>
+      <c r="H102" s="40"/>
+      <c r="I102" s="40"/>
+      <c r="J102" s="40"/>
+      <c r="K102" s="40"/>
+      <c r="L102" s="40"/>
+      <c r="M102" s="40"/>
+      <c r="N102" s="40"/>
+      <c r="O102" s="40"/>
+      <c r="P102" s="40"/>
+      <c r="Q102" s="40"/>
+      <c r="R102" s="40"/>
+      <c r="S102" s="40"/>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
@@ -27919,21 +27927,21 @@
       <c r="B121" t="s">
         <v>322</v>
       </c>
-      <c r="G121" s="23" t="s">
+      <c r="G121" s="39" t="s">
         <v>323</v>
       </c>
-      <c r="H121" s="24"/>
-      <c r="I121" s="24"/>
-      <c r="J121" s="24"/>
-      <c r="K121" s="24"/>
-      <c r="L121" s="24"/>
-      <c r="M121" s="24"/>
-      <c r="N121" s="24"/>
-      <c r="O121" s="24"/>
-      <c r="P121" s="24"/>
-      <c r="Q121" s="24"/>
-      <c r="R121" s="24"/>
-      <c r="S121" s="24"/>
+      <c r="H121" s="40"/>
+      <c r="I121" s="40"/>
+      <c r="J121" s="40"/>
+      <c r="K121" s="40"/>
+      <c r="L121" s="40"/>
+      <c r="M121" s="40"/>
+      <c r="N121" s="40"/>
+      <c r="O121" s="40"/>
+      <c r="P121" s="40"/>
+      <c r="Q121" s="40"/>
+      <c r="R121" s="40"/>
+      <c r="S121" s="40"/>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
@@ -58299,10 +58307,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CJ12"/>
+  <dimension ref="A1:CJ13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58385,8 +58393,8 @@
     <col min="88" max="88" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:88" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>7795</v>
       </c>
       <c r="B1" s="16" t="s">
@@ -58413,25 +58421,25 @@
       <c r="I1" s="21" t="s">
         <v>7797</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="31" t="s">
         <v>7798</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="34" t="s">
         <v>7765</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="37" t="s">
         <v>7734</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="32" t="s">
         <v>7766</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="N1" s="36" t="s">
         <v>7735</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="O1" s="33" t="s">
         <v>7799</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="P1" s="35" t="s">
         <v>7812</v>
       </c>
       <c r="Q1" s="18" t="s">
@@ -58449,25 +58457,25 @@
       <c r="U1" s="21" t="s">
         <v>7800</v>
       </c>
-      <c r="V1" s="33" t="s">
+      <c r="V1" s="31" t="s">
         <v>7813</v>
       </c>
-      <c r="W1" s="36" t="s">
+      <c r="W1" s="34" t="s">
         <v>7769</v>
       </c>
-      <c r="X1" s="39" t="s">
+      <c r="X1" s="37" t="s">
         <v>7738</v>
       </c>
-      <c r="Y1" s="34" t="s">
+      <c r="Y1" s="32" t="s">
         <v>7770</v>
       </c>
-      <c r="Z1" s="38" t="s">
+      <c r="Z1" s="36" t="s">
         <v>7739</v>
       </c>
-      <c r="AA1" s="35" t="s">
+      <c r="AA1" s="33" t="s">
         <v>7801</v>
       </c>
-      <c r="AB1" s="37" t="s">
+      <c r="AB1" s="35" t="s">
         <v>7814</v>
       </c>
       <c r="AC1" s="18" t="s">
@@ -58485,25 +58493,25 @@
       <c r="AG1" s="21" t="s">
         <v>7802</v>
       </c>
-      <c r="AH1" s="33" t="s">
+      <c r="AH1" s="31" t="s">
         <v>7815</v>
       </c>
-      <c r="AI1" s="36" t="s">
+      <c r="AI1" s="34" t="s">
         <v>7773</v>
       </c>
-      <c r="AJ1" s="39" t="s">
+      <c r="AJ1" s="37" t="s">
         <v>7742</v>
       </c>
-      <c r="AK1" s="34" t="s">
+      <c r="AK1" s="32" t="s">
         <v>7774</v>
       </c>
-      <c r="AL1" s="38" t="s">
+      <c r="AL1" s="36" t="s">
         <v>7743</v>
       </c>
-      <c r="AM1" s="35" t="s">
+      <c r="AM1" s="33" t="s">
         <v>7803</v>
       </c>
-      <c r="AN1" s="37" t="s">
+      <c r="AN1" s="35" t="s">
         <v>7816</v>
       </c>
       <c r="AO1" s="18" t="s">
@@ -58521,25 +58529,25 @@
       <c r="AS1" s="21" t="s">
         <v>7804</v>
       </c>
-      <c r="AT1" s="33" t="s">
+      <c r="AT1" s="31" t="s">
         <v>7817</v>
       </c>
-      <c r="AU1" s="36" t="s">
+      <c r="AU1" s="34" t="s">
         <v>7764</v>
       </c>
-      <c r="AV1" s="39" t="s">
+      <c r="AV1" s="37" t="s">
         <v>7746</v>
       </c>
-      <c r="AW1" s="34" t="s">
+      <c r="AW1" s="32" t="s">
         <v>7777</v>
       </c>
-      <c r="AX1" s="38" t="s">
+      <c r="AX1" s="36" t="s">
         <v>7747</v>
       </c>
-      <c r="AY1" s="35" t="s">
+      <c r="AY1" s="33" t="s">
         <v>7805</v>
       </c>
-      <c r="AZ1" s="37" t="s">
+      <c r="AZ1" s="35" t="s">
         <v>7818</v>
       </c>
       <c r="BA1" s="18" t="s">
@@ -58557,25 +58565,25 @@
       <c r="BE1" s="21" t="s">
         <v>7806</v>
       </c>
-      <c r="BF1" s="33" t="s">
+      <c r="BF1" s="31" t="s">
         <v>7819</v>
       </c>
-      <c r="BG1" s="36" t="s">
+      <c r="BG1" s="34" t="s">
         <v>7779</v>
       </c>
-      <c r="BH1" s="39" t="s">
+      <c r="BH1" s="37" t="s">
         <v>7750</v>
       </c>
-      <c r="BI1" s="34" t="s">
+      <c r="BI1" s="32" t="s">
         <v>7780</v>
       </c>
-      <c r="BJ1" s="38" t="s">
+      <c r="BJ1" s="36" t="s">
         <v>7751</v>
       </c>
-      <c r="BK1" s="35" t="s">
+      <c r="BK1" s="33" t="s">
         <v>7807</v>
       </c>
-      <c r="BL1" s="37" t="s">
+      <c r="BL1" s="35" t="s">
         <v>7820</v>
       </c>
       <c r="BM1" s="18" t="s">
@@ -58593,25 +58601,25 @@
       <c r="BQ1" s="21" t="s">
         <v>7808</v>
       </c>
-      <c r="BR1" s="33" t="s">
+      <c r="BR1" s="31" t="s">
         <v>7821</v>
       </c>
-      <c r="BS1" s="36" t="s">
+      <c r="BS1" s="34" t="s">
         <v>7781</v>
       </c>
-      <c r="BT1" s="39" t="s">
+      <c r="BT1" s="37" t="s">
         <v>7752</v>
       </c>
-      <c r="BU1" s="34" t="s">
+      <c r="BU1" s="32" t="s">
         <v>7782</v>
       </c>
-      <c r="BV1" s="38" t="s">
+      <c r="BV1" s="36" t="s">
         <v>7753</v>
       </c>
-      <c r="BW1" s="35" t="s">
+      <c r="BW1" s="33" t="s">
         <v>7809</v>
       </c>
-      <c r="BX1" s="37" t="s">
+      <c r="BX1" s="35" t="s">
         <v>7822</v>
       </c>
       <c r="BY1" s="18" t="s">
@@ -58629,30 +58637,30 @@
       <c r="CC1" s="21" t="s">
         <v>7810</v>
       </c>
-      <c r="CD1" s="33" t="s">
+      <c r="CD1" s="31" t="s">
         <v>7823</v>
       </c>
-      <c r="CE1" s="36" t="s">
+      <c r="CE1" s="34" t="s">
         <v>7785</v>
       </c>
-      <c r="CF1" s="39" t="s">
+      <c r="CF1" s="37" t="s">
         <v>7756</v>
       </c>
-      <c r="CG1" s="34" t="s">
+      <c r="CG1" s="32" t="s">
         <v>7786</v>
       </c>
-      <c r="CH1" s="38" t="s">
+      <c r="CH1" s="36" t="s">
         <v>7757</v>
       </c>
-      <c r="CI1" s="35" t="s">
+      <c r="CI1" s="33" t="s">
         <v>7811</v>
       </c>
-      <c r="CJ1" s="37" t="s">
+      <c r="CJ1" s="35" t="s">
         <v>7824</v>
       </c>
     </row>
     <row r="2" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="24" t="s">
         <v>7796</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -58664,289 +58672,289 @@
       <c r="D2" s="6" t="s">
         <v>7825</v>
       </c>
-      <c r="E2" s="27">
-        <v>2</v>
-      </c>
-      <c r="F2" s="27">
+      <c r="E2" s="25">
+        <v>2</v>
+      </c>
+      <c r="F2" s="25">
         <v>22</v>
       </c>
-      <c r="G2" s="27">
+      <c r="G2" s="25">
         <v>64</v>
       </c>
-      <c r="H2" s="27">
+      <c r="H2" s="25">
         <v>1600</v>
       </c>
-      <c r="I2" s="28">
+      <c r="I2" s="26">
         <f>IF($C2="win",F2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
         <v>11</v>
       </c>
-      <c r="J2" s="29">
-        <f>IF($D2="MS SQL Standard Edition - Active VM",F2/2,IF($D2="MS SQL Enterprise Edition - Active VM",F2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",F2,IF($D2="Postgre SQL Enterprise Edition",F2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",F2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="J2" s="27">
+        <f t="shared" ref="J2:J12" si="0">IF($D2="MS SQL Standard Edition - Active VM",F2/2,IF($D2="MS SQL Enterprise Edition - Active VM",F2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",F2,IF($D2="Postgre SQL Enterprise Edition",F2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",F2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
         <v>11</v>
       </c>
-      <c r="K2" s="30">
+      <c r="K2" s="28">
         <v>4</v>
       </c>
-      <c r="L2" s="30">
+      <c r="L2" s="28">
         <v>4</v>
       </c>
-      <c r="M2" s="30">
+      <c r="M2" s="28">
         <v>8</v>
       </c>
-      <c r="N2" s="30">
+      <c r="N2" s="28">
         <v>200</v>
       </c>
-      <c r="O2" s="31">
-        <f>IF($C2="win",L2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="P2" s="32">
-        <f>IF($D2="MS SQL Standard Edition - Active VM",L2/2,IF($D2="MS SQL Enterprise Edition - Active VM",L2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",L2,IF($D2="Postgre SQL Enterprise Edition",L2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",L2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="Q2" s="27">
+      <c r="O2" s="29">
+        <f t="shared" ref="O2:O12" si="1">IF($C2="win",L2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="P2" s="30">
+        <f t="shared" ref="P2:P12" si="2">IF($D2="MS SQL Standard Edition - Active VM",L2/2,IF($D2="MS SQL Enterprise Edition - Active VM",L2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",L2,IF($D2="Postgre SQL Enterprise Edition",L2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",L2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="Q2" s="25">
         <v>4</v>
       </c>
-      <c r="R2" s="27">
+      <c r="R2" s="25">
         <v>4</v>
       </c>
-      <c r="S2" s="27">
+      <c r="S2" s="25">
         <v>8</v>
       </c>
-      <c r="T2" s="27">
+      <c r="T2" s="25">
         <v>200</v>
       </c>
-      <c r="U2" s="28">
-        <f>IF($C2="win",R2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="V2" s="29">
-        <f>IF($D2="MS SQL Standard Edition - Active VM",R2/2,IF($D2="MS SQL Enterprise Edition - Active VM",R2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",R2,IF($D2="Postgre SQL Enterprise Edition",R2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",R2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="W2" s="30">
+      <c r="U2" s="26">
+        <f t="shared" ref="U2:U12" si="3">IF($C2="win",R2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="V2" s="27">
+        <f t="shared" ref="V2:V12" si="4">IF($D2="MS SQL Standard Edition - Active VM",R2/2,IF($D2="MS SQL Enterprise Edition - Active VM",R2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",R2,IF($D2="Postgre SQL Enterprise Edition",R2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",R2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="W2" s="28">
         <v>4</v>
       </c>
-      <c r="X2" s="30">
+      <c r="X2" s="28">
         <v>4</v>
       </c>
-      <c r="Y2" s="30">
+      <c r="Y2" s="28">
         <v>8</v>
       </c>
-      <c r="Z2" s="30">
+      <c r="Z2" s="28">
         <v>200</v>
       </c>
-      <c r="AA2" s="31">
-        <f>IF($C2="win",X2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="AB2" s="32">
-        <f>IF($D2="MS SQL Standard Edition - Active VM",X2/2,IF($D2="MS SQL Enterprise Edition - Active VM",X2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",X2,IF($D2="Postgre SQL Enterprise Edition",X2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",X2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="AC2" s="27">
+      <c r="AA2" s="29">
+        <f t="shared" ref="AA2:AA12" si="5">IF($C2="win",X2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AB2" s="30">
+        <f t="shared" ref="AB2:AB12" si="6">IF($D2="MS SQL Standard Edition - Active VM",X2/2,IF($D2="MS SQL Enterprise Edition - Active VM",X2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",X2,IF($D2="Postgre SQL Enterprise Edition",X2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",X2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AC2" s="25">
         <v>4</v>
       </c>
-      <c r="AD2" s="27">
+      <c r="AD2" s="25">
         <v>4</v>
       </c>
-      <c r="AE2" s="27">
+      <c r="AE2" s="25">
         <v>8</v>
       </c>
-      <c r="AF2" s="27">
+      <c r="AF2" s="25">
         <v>200</v>
       </c>
-      <c r="AG2" s="28">
-        <f>IF($C2="win",AD2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="AH2" s="29">
-        <f>IF($D2="MS SQL Standard Edition - Active VM",AD2/2,IF($D2="MS SQL Enterprise Edition - Active VM",AD2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",AD2,IF($D2="Postgre SQL Enterprise Edition",AD2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",AD2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="AI2" s="30">
+      <c r="AG2" s="26">
+        <f t="shared" ref="AG2:AG12" si="7">IF($C2="win",AD2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AH2" s="27">
+        <f t="shared" ref="AH2:AH12" si="8">IF($D2="MS SQL Standard Edition - Active VM",AD2/2,IF($D2="MS SQL Enterprise Edition - Active VM",AD2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",AD2,IF($D2="Postgre SQL Enterprise Edition",AD2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",AD2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AI2" s="28">
         <v>4</v>
       </c>
-      <c r="AJ2" s="30">
+      <c r="AJ2" s="28">
         <v>4</v>
       </c>
-      <c r="AK2" s="30">
+      <c r="AK2" s="28">
         <v>8</v>
       </c>
-      <c r="AL2" s="30">
+      <c r="AL2" s="28">
         <v>200</v>
       </c>
-      <c r="AM2" s="31">
-        <f>IF($C2="win",AJ2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="AN2" s="32">
-        <f>IF($D2="MS SQL Standard Edition - Active VM",AJ2/2,IF($D2="MS SQL Enterprise Edition - Active VM",AJ2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",AJ2,IF($D2="Postgre SQL Enterprise Edition",AJ2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",AJ2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="AO2" s="27">
+      <c r="AM2" s="29">
+        <f t="shared" ref="AM2:AM12" si="9">IF($C2="win",AJ2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AN2" s="30">
+        <f t="shared" ref="AN2:AN12" si="10">IF($D2="MS SQL Standard Edition - Active VM",AJ2/2,IF($D2="MS SQL Enterprise Edition - Active VM",AJ2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",AJ2,IF($D2="Postgre SQL Enterprise Edition",AJ2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",AJ2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AO2" s="25">
         <v>4</v>
       </c>
-      <c r="AP2" s="27">
+      <c r="AP2" s="25">
         <v>4</v>
       </c>
-      <c r="AQ2" s="27">
+      <c r="AQ2" s="25">
         <v>8</v>
       </c>
-      <c r="AR2" s="27">
+      <c r="AR2" s="25">
         <v>200</v>
       </c>
-      <c r="AS2" s="28">
-        <f>IF($C2="win",AP2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="AT2" s="29">
-        <f>IF($D2="MS SQL Standard Edition - Active VM",AP2/2,IF($D2="MS SQL Enterprise Edition - Active VM",AP2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",AP2,IF($D2="Postgre SQL Enterprise Edition",AP2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",AP2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="AU2" s="30">
+      <c r="AS2" s="26">
+        <f t="shared" ref="AS2:AS12" si="11">IF($C2="win",AP2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AT2" s="27">
+        <f t="shared" ref="AT2:AT12" si="12">IF($D2="MS SQL Standard Edition - Active VM",AP2/2,IF($D2="MS SQL Enterprise Edition - Active VM",AP2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",AP2,IF($D2="Postgre SQL Enterprise Edition",AP2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",AP2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AU2" s="28">
         <v>4</v>
       </c>
-      <c r="AV2" s="30">
+      <c r="AV2" s="28">
         <v>4</v>
       </c>
-      <c r="AW2" s="30">
+      <c r="AW2" s="28">
         <v>8</v>
       </c>
-      <c r="AX2" s="30">
+      <c r="AX2" s="28">
         <v>200</v>
       </c>
-      <c r="AY2" s="31">
-        <f>IF($C2="win",AV2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="AZ2" s="32">
-        <f>IF($D2="MS SQL Standard Edition - Active VM",AV2/2,IF($D2="MS SQL Enterprise Edition - Active VM",AV2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",AV2,IF($D2="Postgre SQL Enterprise Edition",AV2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",AV2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="BA2" s="27">
+      <c r="AY2" s="29">
+        <f t="shared" ref="AY2:AY12" si="13">IF($C2="win",AV2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AZ2" s="30">
+        <f t="shared" ref="AZ2:AZ12" si="14">IF($D2="MS SQL Standard Edition - Active VM",AV2/2,IF($D2="MS SQL Enterprise Edition - Active VM",AV2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",AV2,IF($D2="Postgre SQL Enterprise Edition",AV2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",AV2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="BA2" s="25">
         <v>4</v>
       </c>
-      <c r="BB2" s="27">
+      <c r="BB2" s="25">
         <v>4</v>
       </c>
-      <c r="BC2" s="27">
+      <c r="BC2" s="25">
         <v>8</v>
       </c>
-      <c r="BD2" s="27">
+      <c r="BD2" s="25">
         <v>200</v>
       </c>
-      <c r="BE2" s="28">
-        <f>IF($C2="win",BB2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="BF2" s="29">
-        <f>IF($D2="MS SQL Standard Edition - Active VM",BB2/2,IF($D2="MS SQL Enterprise Edition - Active VM",BB2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",BB2,IF($D2="Postgre SQL Enterprise Edition",BB2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",BB2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="BG2" s="30">
+      <c r="BE2" s="26">
+        <f t="shared" ref="BE2:BE12" si="15">IF($C2="win",BB2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="BF2" s="27">
+        <f t="shared" ref="BF2:BF12" si="16">IF($D2="MS SQL Standard Edition - Active VM",BB2/2,IF($D2="MS SQL Enterprise Edition - Active VM",BB2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",BB2,IF($D2="Postgre SQL Enterprise Edition",BB2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",BB2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="BG2" s="28">
         <v>4</v>
       </c>
-      <c r="BH2" s="30">
+      <c r="BH2" s="28">
         <v>4</v>
       </c>
-      <c r="BI2" s="30">
+      <c r="BI2" s="28">
         <v>8</v>
       </c>
-      <c r="BJ2" s="30">
+      <c r="BJ2" s="28">
         <v>200</v>
       </c>
-      <c r="BK2" s="31">
-        <f>IF($C2="win",BH2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="BL2" s="32">
-        <f>IF($D2="MS SQL Standard Edition - Active VM",BH2/2,IF($D2="MS SQL Enterprise Edition - Active VM",BH2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",BH2,IF($D2="Postgre SQL Enterprise Edition",BH2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",BH2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="BM2" s="27">
+      <c r="BK2" s="29">
+        <f t="shared" ref="BK2:BK12" si="17">IF($C2="win",BH2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="BL2" s="30">
+        <f t="shared" ref="BL2:BL12" si="18">IF($D2="MS SQL Standard Edition - Active VM",BH2/2,IF($D2="MS SQL Enterprise Edition - Active VM",BH2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",BH2,IF($D2="Postgre SQL Enterprise Edition",BH2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",BH2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="BM2" s="25">
         <v>4</v>
       </c>
-      <c r="BN2" s="27">
+      <c r="BN2" s="25">
         <v>4</v>
       </c>
-      <c r="BO2" s="27">
+      <c r="BO2" s="25">
         <v>8</v>
       </c>
-      <c r="BP2" s="27">
+      <c r="BP2" s="25">
         <v>200</v>
       </c>
-      <c r="BQ2" s="28">
-        <f>IF($C2="win",BN2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="BR2" s="29">
-        <f>IF($D2="MS SQL Standard Edition - Active VM",BN2/2,IF($D2="MS SQL Enterprise Edition - Active VM",BN2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",BN2,IF($D2="Postgre SQL Enterprise Edition",BN2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",BN2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="BS2" s="30">
+      <c r="BQ2" s="26">
+        <f t="shared" ref="BQ2:BQ12" si="19">IF($C2="win",BN2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="BR2" s="27">
+        <f t="shared" ref="BR2:BR12" si="20">IF($D2="MS SQL Standard Edition - Active VM",BN2/2,IF($D2="MS SQL Enterprise Edition - Active VM",BN2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",BN2,IF($D2="Postgre SQL Enterprise Edition",BN2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",BN2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="BS2" s="28">
         <v>4</v>
       </c>
-      <c r="BT2" s="30">
+      <c r="BT2" s="28">
         <v>4</v>
       </c>
-      <c r="BU2" s="30">
+      <c r="BU2" s="28">
         <v>8</v>
       </c>
-      <c r="BV2" s="30">
+      <c r="BV2" s="28">
         <v>200</v>
       </c>
-      <c r="BW2" s="31">
-        <f>IF($C2="win",BT2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="BX2" s="32">
-        <f>IF($D2="MS SQL Standard Edition - Active VM",BT2/2,IF($D2="MS SQL Enterprise Edition - Active VM",BT2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",BT2,IF($D2="Postgre SQL Enterprise Edition",BT2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",BT2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="BY2" s="27">
+      <c r="BW2" s="29">
+        <f t="shared" ref="BW2:BW12" si="21">IF($C2="win",BT2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="BX2" s="30">
+        <f t="shared" ref="BX2:BX12" si="22">IF($D2="MS SQL Standard Edition - Active VM",BT2/2,IF($D2="MS SQL Enterprise Edition - Active VM",BT2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",BT2,IF($D2="Postgre SQL Enterprise Edition",BT2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",BT2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="BY2" s="25">
         <v>4</v>
       </c>
-      <c r="BZ2" s="27">
+      <c r="BZ2" s="25">
         <v>4</v>
       </c>
-      <c r="CA2" s="27">
+      <c r="CA2" s="25">
         <v>8</v>
       </c>
-      <c r="CB2" s="27">
+      <c r="CB2" s="25">
         <v>200</v>
       </c>
-      <c r="CC2" s="28">
-        <f>IF($C2="win",BZ2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="CD2" s="29">
-        <f>IF($D2="MS SQL Standard Edition - Active VM",BZ2/2,IF($D2="MS SQL Enterprise Edition - Active VM",BZ2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",BZ2,IF($D2="Postgre SQL Enterprise Edition",BZ2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",BZ2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="CE2" s="30">
+      <c r="CC2" s="26">
+        <f t="shared" ref="CC2:CC12" si="23">IF($C2="win",BZ2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="CD2" s="27">
+        <f t="shared" ref="CD2:CD12" si="24">IF($D2="MS SQL Standard Edition - Active VM",BZ2/2,IF($D2="MS SQL Enterprise Edition - Active VM",BZ2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",BZ2,IF($D2="Postgre SQL Enterprise Edition",BZ2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",BZ2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="CE2" s="28">
         <v>4</v>
       </c>
-      <c r="CF2" s="30">
+      <c r="CF2" s="28">
         <v>4</v>
       </c>
-      <c r="CG2" s="30">
+      <c r="CG2" s="28">
         <v>8</v>
       </c>
-      <c r="CH2" s="30">
+      <c r="CH2" s="28">
         <v>200</v>
       </c>
-      <c r="CI2" s="31">
-        <f>IF($C2="win",CF2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="CJ2" s="32">
-        <f>IF($D2="MS SQL Standard Edition - Active VM",CF2/2,IF($D2="MS SQL Enterprise Edition - Active VM",CF2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",CF2,IF($D2="Postgre SQL Enterprise Edition",CF2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",CF2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="CI2" s="29">
+        <f t="shared" ref="CI2:CI12" si="25">IF($C2="win",CF2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="CJ2" s="30">
+        <f t="shared" ref="CJ2:CJ12" si="26">IF($D2="MS SQL Standard Edition - Active VM",CF2/2,IF($D2="MS SQL Enterprise Edition - Active VM",CF2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",CF2,IF($D2="Postgre SQL Enterprise Edition",CF2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",CF2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="24" t="s">
         <v>7796</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -58958,289 +58966,289 @@
       <c r="D3" s="6" t="s">
         <v>7826</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="25">
         <v>4</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="25">
         <v>20</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="25">
         <v>62</v>
       </c>
-      <c r="H3" s="27">
+      <c r="H3" s="25">
         <v>1400</v>
       </c>
-      <c r="I3" s="28">
-        <f>IF($C3="win",F3/2,IF($C3="rhel",1,IF($C3="suse",1,IF($C3="Ubuntu",1,IF($C3="Oracle Linux",1,IF($C3="Debian",1,IF($C3="OEM Specific",1,0)))))))</f>
+      <c r="I3" s="26">
+        <f t="shared" ref="I2:I12" si="27">IF($C3="win",F3/2,IF($C3="rhel",1,IF($C3="suse",1,IF($C3="Ubuntu",1,IF($C3="Oracle Linux",1,IF($C3="Debian",1,IF($C3="OEM Specific",1,0)))))))</f>
         <v>1</v>
       </c>
-      <c r="J3" s="29">
-        <f>IF($D3="MS SQL Standard Edition - Active VM",F3/2,IF($D3="MS SQL Enterprise Edition - Active VM",F3/2,IF($D3="My SQL Community Edition",1,IF($D3="My SQL Enterprise Edition",1,IF($D3="Postgre SQL Community edition",F3,IF($D3="Postgre SQL Enterprise Edition",F3,IF($D3="Oracle Standard Edition",1,IF($D3="Oracle Enterprise",F3/2,IF($D3="Maria DB Community edition",1,IF($D3="MongoDB Community edition",1,IF($D3="MS SQL Standard Edition - Passive VM",,IF($D3="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="J3" s="27">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K3" s="30">
+      <c r="K3" s="28">
         <v>4</v>
       </c>
-      <c r="L3" s="30">
+      <c r="L3" s="28">
         <v>4</v>
       </c>
-      <c r="M3" s="30">
+      <c r="M3" s="28">
         <v>8</v>
       </c>
-      <c r="N3" s="30">
+      <c r="N3" s="28">
         <v>200</v>
       </c>
-      <c r="O3" s="31">
-        <f>IF($C3="win",L3/2,IF($C3="rhel",1,IF($C3="suse",1,IF($C3="Ubuntu",1,IF($C3="Oracle Linux",1,IF($C3="Debian",1,IF($C3="OEM Specific",1,0)))))))</f>
+      <c r="O3" s="29">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P3" s="32">
-        <f>IF($D3="MS SQL Standard Edition - Active VM",L3/2,IF($D3="MS SQL Enterprise Edition - Active VM",L3/2,IF($D3="My SQL Community Edition",1,IF($D3="My SQL Enterprise Edition",1,IF($D3="Postgre SQL Community edition",L3,IF($D3="Postgre SQL Enterprise Edition",L3,IF($D3="Oracle Standard Edition",1,IF($D3="Oracle Enterprise",L3/2,IF($D3="Maria DB Community edition",1,IF($D3="MongoDB Community edition",1,IF($D3="MS SQL Standard Edition - Passive VM",,IF($D3="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="P3" s="30">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q3" s="27">
+      <c r="Q3" s="25">
         <v>4</v>
       </c>
-      <c r="R3" s="27">
+      <c r="R3" s="25">
         <v>4</v>
       </c>
-      <c r="S3" s="27">
+      <c r="S3" s="25">
         <v>8</v>
       </c>
-      <c r="T3" s="27">
+      <c r="T3" s="25">
         <v>200</v>
       </c>
-      <c r="U3" s="28">
-        <f>IF($C3="win",R3/2,IF($C3="rhel",1,IF($C3="suse",1,IF($C3="Ubuntu",1,IF($C3="Oracle Linux",1,IF($C3="Debian",1,IF($C3="OEM Specific",1,0)))))))</f>
+      <c r="U3" s="26">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V3" s="29">
-        <f>IF($D3="MS SQL Standard Edition - Active VM",R3/2,IF($D3="MS SQL Enterprise Edition - Active VM",R3/2,IF($D3="My SQL Community Edition",1,IF($D3="My SQL Enterprise Edition",1,IF($D3="Postgre SQL Community edition",R3,IF($D3="Postgre SQL Enterprise Edition",R3,IF($D3="Oracle Standard Edition",1,IF($D3="Oracle Enterprise",R3/2,IF($D3="Maria DB Community edition",1,IF($D3="MongoDB Community edition",1,IF($D3="MS SQL Standard Edition - Passive VM",,IF($D3="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="V3" s="27">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W3" s="30">
+      <c r="W3" s="28">
         <v>4</v>
       </c>
-      <c r="X3" s="30">
+      <c r="X3" s="28">
         <v>4</v>
       </c>
-      <c r="Y3" s="30">
+      <c r="Y3" s="28">
         <v>8</v>
       </c>
-      <c r="Z3" s="30">
+      <c r="Z3" s="28">
         <v>200</v>
       </c>
-      <c r="AA3" s="31">
-        <f>IF($C3="win",X3/2,IF($C3="rhel",1,IF($C3="suse",1,IF($C3="Ubuntu",1,IF($C3="Oracle Linux",1,IF($C3="Debian",1,IF($C3="OEM Specific",1,0)))))))</f>
+      <c r="AA3" s="29">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AB3" s="32">
-        <f>IF($D3="MS SQL Standard Edition - Active VM",X3/2,IF($D3="MS SQL Enterprise Edition - Active VM",X3/2,IF($D3="My SQL Community Edition",1,IF($D3="My SQL Enterprise Edition",1,IF($D3="Postgre SQL Community edition",X3,IF($D3="Postgre SQL Enterprise Edition",X3,IF($D3="Oracle Standard Edition",1,IF($D3="Oracle Enterprise",X3/2,IF($D3="Maria DB Community edition",1,IF($D3="MongoDB Community edition",1,IF($D3="MS SQL Standard Edition - Passive VM",,IF($D3="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="AB3" s="30">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AC3" s="27">
+      <c r="AC3" s="25">
         <v>4</v>
       </c>
-      <c r="AD3" s="27">
+      <c r="AD3" s="25">
         <v>4</v>
       </c>
-      <c r="AE3" s="27">
+      <c r="AE3" s="25">
         <v>8</v>
       </c>
-      <c r="AF3" s="27">
+      <c r="AF3" s="25">
         <v>200</v>
       </c>
-      <c r="AG3" s="28">
-        <f>IF($C3="win",AD3/2,IF($C3="rhel",1,IF($C3="suse",1,IF($C3="Ubuntu",1,IF($C3="Oracle Linux",1,IF($C3="Debian",1,IF($C3="OEM Specific",1,0)))))))</f>
+      <c r="AG3" s="26">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AH3" s="29">
-        <f>IF($D3="MS SQL Standard Edition - Active VM",AD3/2,IF($D3="MS SQL Enterprise Edition - Active VM",AD3/2,IF($D3="My SQL Community Edition",1,IF($D3="My SQL Enterprise Edition",1,IF($D3="Postgre SQL Community edition",AD3,IF($D3="Postgre SQL Enterprise Edition",AD3,IF($D3="Oracle Standard Edition",1,IF($D3="Oracle Enterprise",AD3/2,IF($D3="Maria DB Community edition",1,IF($D3="MongoDB Community edition",1,IF($D3="MS SQL Standard Edition - Passive VM",,IF($D3="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="AH3" s="27">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AI3" s="30">
+      <c r="AI3" s="28">
         <v>4</v>
       </c>
-      <c r="AJ3" s="30">
+      <c r="AJ3" s="28">
         <v>4</v>
       </c>
-      <c r="AK3" s="30">
+      <c r="AK3" s="28">
         <v>8</v>
       </c>
-      <c r="AL3" s="30">
+      <c r="AL3" s="28">
         <v>200</v>
       </c>
-      <c r="AM3" s="31">
-        <f>IF($C3="win",AJ3/2,IF($C3="rhel",1,IF($C3="suse",1,IF($C3="Ubuntu",1,IF($C3="Oracle Linux",1,IF($C3="Debian",1,IF($C3="OEM Specific",1,0)))))))</f>
+      <c r="AM3" s="29">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AN3" s="32">
-        <f>IF($D3="MS SQL Standard Edition - Active VM",AJ3/2,IF($D3="MS SQL Enterprise Edition - Active VM",AJ3/2,IF($D3="My SQL Community Edition",1,IF($D3="My SQL Enterprise Edition",1,IF($D3="Postgre SQL Community edition",AJ3,IF($D3="Postgre SQL Enterprise Edition",AJ3,IF($D3="Oracle Standard Edition",1,IF($D3="Oracle Enterprise",AJ3/2,IF($D3="Maria DB Community edition",1,IF($D3="MongoDB Community edition",1,IF($D3="MS SQL Standard Edition - Passive VM",,IF($D3="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="AN3" s="30">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AO3" s="27">
+      <c r="AO3" s="25">
         <v>4</v>
       </c>
-      <c r="AP3" s="27">
+      <c r="AP3" s="25">
         <v>4</v>
       </c>
-      <c r="AQ3" s="27">
+      <c r="AQ3" s="25">
         <v>8</v>
       </c>
-      <c r="AR3" s="27">
+      <c r="AR3" s="25">
         <v>200</v>
       </c>
-      <c r="AS3" s="28">
-        <f>IF($C3="win",AP3/2,IF($C3="rhel",1,IF($C3="suse",1,IF($C3="Ubuntu",1,IF($C3="Oracle Linux",1,IF($C3="Debian",1,IF($C3="OEM Specific",1,0)))))))</f>
+      <c r="AS3" s="26">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="AT3" s="29">
-        <f>IF($D3="MS SQL Standard Edition - Active VM",AP3/2,IF($D3="MS SQL Enterprise Edition - Active VM",AP3/2,IF($D3="My SQL Community Edition",1,IF($D3="My SQL Enterprise Edition",1,IF($D3="Postgre SQL Community edition",AP3,IF($D3="Postgre SQL Enterprise Edition",AP3,IF($D3="Oracle Standard Edition",1,IF($D3="Oracle Enterprise",AP3/2,IF($D3="Maria DB Community edition",1,IF($D3="MongoDB Community edition",1,IF($D3="MS SQL Standard Edition - Passive VM",,IF($D3="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="AT3" s="27">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AU3" s="30">
+      <c r="AU3" s="28">
         <v>4</v>
       </c>
-      <c r="AV3" s="30">
+      <c r="AV3" s="28">
         <v>4</v>
       </c>
-      <c r="AW3" s="30">
+      <c r="AW3" s="28">
         <v>8</v>
       </c>
-      <c r="AX3" s="30">
+      <c r="AX3" s="28">
         <v>200</v>
       </c>
-      <c r="AY3" s="31">
-        <f>IF($C3="win",AV3/2,IF($C3="rhel",1,IF($C3="suse",1,IF($C3="Ubuntu",1,IF($C3="Oracle Linux",1,IF($C3="Debian",1,IF($C3="OEM Specific",1,0)))))))</f>
+      <c r="AY3" s="29">
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="AZ3" s="32">
-        <f>IF($D3="MS SQL Standard Edition - Active VM",AV3/2,IF($D3="MS SQL Enterprise Edition - Active VM",AV3/2,IF($D3="My SQL Community Edition",1,IF($D3="My SQL Enterprise Edition",1,IF($D3="Postgre SQL Community edition",AV3,IF($D3="Postgre SQL Enterprise Edition",AV3,IF($D3="Oracle Standard Edition",1,IF($D3="Oracle Enterprise",AV3/2,IF($D3="Maria DB Community edition",1,IF($D3="MongoDB Community edition",1,IF($D3="MS SQL Standard Edition - Passive VM",,IF($D3="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="AZ3" s="30">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="BA3" s="27">
+      <c r="BA3" s="25">
         <v>4</v>
       </c>
-      <c r="BB3" s="27">
+      <c r="BB3" s="25">
         <v>4</v>
       </c>
-      <c r="BC3" s="27">
+      <c r="BC3" s="25">
         <v>8</v>
       </c>
-      <c r="BD3" s="27">
+      <c r="BD3" s="25">
         <v>200</v>
       </c>
-      <c r="BE3" s="28">
-        <f>IF($C3="win",BB3/2,IF($C3="rhel",1,IF($C3="suse",1,IF($C3="Ubuntu",1,IF($C3="Oracle Linux",1,IF($C3="Debian",1,IF($C3="OEM Specific",1,0)))))))</f>
+      <c r="BE3" s="26">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="BF3" s="29">
-        <f>IF($D3="MS SQL Standard Edition - Active VM",BB3/2,IF($D3="MS SQL Enterprise Edition - Active VM",BB3/2,IF($D3="My SQL Community Edition",1,IF($D3="My SQL Enterprise Edition",1,IF($D3="Postgre SQL Community edition",BB3,IF($D3="Postgre SQL Enterprise Edition",BB3,IF($D3="Oracle Standard Edition",1,IF($D3="Oracle Enterprise",BB3/2,IF($D3="Maria DB Community edition",1,IF($D3="MongoDB Community edition",1,IF($D3="MS SQL Standard Edition - Passive VM",,IF($D3="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="BF3" s="27">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="BG3" s="30">
+      <c r="BG3" s="28">
         <v>4</v>
       </c>
-      <c r="BH3" s="30">
+      <c r="BH3" s="28">
         <v>4</v>
       </c>
-      <c r="BI3" s="30">
+      <c r="BI3" s="28">
         <v>8</v>
       </c>
-      <c r="BJ3" s="30">
+      <c r="BJ3" s="28">
         <v>200</v>
       </c>
-      <c r="BK3" s="31">
-        <f>IF($C3="win",BH3/2,IF($C3="rhel",1,IF($C3="suse",1,IF($C3="Ubuntu",1,IF($C3="Oracle Linux",1,IF($C3="Debian",1,IF($C3="OEM Specific",1,0)))))))</f>
+      <c r="BK3" s="29">
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="BL3" s="32">
-        <f>IF($D3="MS SQL Standard Edition - Active VM",BH3/2,IF($D3="MS SQL Enterprise Edition - Active VM",BH3/2,IF($D3="My SQL Community Edition",1,IF($D3="My SQL Enterprise Edition",1,IF($D3="Postgre SQL Community edition",BH3,IF($D3="Postgre SQL Enterprise Edition",BH3,IF($D3="Oracle Standard Edition",1,IF($D3="Oracle Enterprise",BH3/2,IF($D3="Maria DB Community edition",1,IF($D3="MongoDB Community edition",1,IF($D3="MS SQL Standard Edition - Passive VM",,IF($D3="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="BL3" s="30">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="BM3" s="27">
+      <c r="BM3" s="25">
         <v>4</v>
       </c>
-      <c r="BN3" s="27">
+      <c r="BN3" s="25">
         <v>4</v>
       </c>
-      <c r="BO3" s="27">
+      <c r="BO3" s="25">
         <v>8</v>
       </c>
-      <c r="BP3" s="27">
+      <c r="BP3" s="25">
         <v>200</v>
       </c>
-      <c r="BQ3" s="28">
-        <f>IF($C3="win",BN3/2,IF($C3="rhel",1,IF($C3="suse",1,IF($C3="Ubuntu",1,IF($C3="Oracle Linux",1,IF($C3="Debian",1,IF($C3="OEM Specific",1,0)))))))</f>
+      <c r="BQ3" s="26">
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="BR3" s="29">
-        <f>IF($D3="MS SQL Standard Edition - Active VM",BN3/2,IF($D3="MS SQL Enterprise Edition - Active VM",BN3/2,IF($D3="My SQL Community Edition",1,IF($D3="My SQL Enterprise Edition",1,IF($D3="Postgre SQL Community edition",BN3,IF($D3="Postgre SQL Enterprise Edition",BN3,IF($D3="Oracle Standard Edition",1,IF($D3="Oracle Enterprise",BN3/2,IF($D3="Maria DB Community edition",1,IF($D3="MongoDB Community edition",1,IF($D3="MS SQL Standard Edition - Passive VM",,IF($D3="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="BR3" s="27">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="BS3" s="30">
+      <c r="BS3" s="28">
         <v>4</v>
       </c>
-      <c r="BT3" s="30">
+      <c r="BT3" s="28">
         <v>4</v>
       </c>
-      <c r="BU3" s="30">
+      <c r="BU3" s="28">
         <v>8</v>
       </c>
-      <c r="BV3" s="30">
+      <c r="BV3" s="28">
         <v>200</v>
       </c>
-      <c r="BW3" s="31">
-        <f>IF($C3="win",BT3/2,IF($C3="rhel",1,IF($C3="suse",1,IF($C3="Ubuntu",1,IF($C3="Oracle Linux",1,IF($C3="Debian",1,IF($C3="OEM Specific",1,0)))))))</f>
+      <c r="BW3" s="29">
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="BX3" s="32">
-        <f>IF($D3="MS SQL Standard Edition - Active VM",BT3/2,IF($D3="MS SQL Enterprise Edition - Active VM",BT3/2,IF($D3="My SQL Community Edition",1,IF($D3="My SQL Enterprise Edition",1,IF($D3="Postgre SQL Community edition",BT3,IF($D3="Postgre SQL Enterprise Edition",BT3,IF($D3="Oracle Standard Edition",1,IF($D3="Oracle Enterprise",BT3/2,IF($D3="Maria DB Community edition",1,IF($D3="MongoDB Community edition",1,IF($D3="MS SQL Standard Edition - Passive VM",,IF($D3="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="BX3" s="30">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="BY3" s="27">
+      <c r="BY3" s="25">
         <v>4</v>
       </c>
-      <c r="BZ3" s="27">
+      <c r="BZ3" s="25">
         <v>4</v>
       </c>
-      <c r="CA3" s="27">
+      <c r="CA3" s="25">
         <v>8</v>
       </c>
-      <c r="CB3" s="27">
+      <c r="CB3" s="25">
         <v>200</v>
       </c>
-      <c r="CC3" s="28">
-        <f>IF($C3="win",BZ3/2,IF($C3="rhel",1,IF($C3="suse",1,IF($C3="Ubuntu",1,IF($C3="Oracle Linux",1,IF($C3="Debian",1,IF($C3="OEM Specific",1,0)))))))</f>
+      <c r="CC3" s="26">
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="CD3" s="29">
-        <f>IF($D3="MS SQL Standard Edition - Active VM",BZ3/2,IF($D3="MS SQL Enterprise Edition - Active VM",BZ3/2,IF($D3="My SQL Community Edition",1,IF($D3="My SQL Enterprise Edition",1,IF($D3="Postgre SQL Community edition",BZ3,IF($D3="Postgre SQL Enterprise Edition",BZ3,IF($D3="Oracle Standard Edition",1,IF($D3="Oracle Enterprise",BZ3/2,IF($D3="Maria DB Community edition",1,IF($D3="MongoDB Community edition",1,IF($D3="MS SQL Standard Edition - Passive VM",,IF($D3="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="CD3" s="27">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="CE3" s="30">
+      <c r="CE3" s="28">
         <v>4</v>
       </c>
-      <c r="CF3" s="30">
+      <c r="CF3" s="28">
         <v>4</v>
       </c>
-      <c r="CG3" s="30">
+      <c r="CG3" s="28">
         <v>8</v>
       </c>
-      <c r="CH3" s="30">
+      <c r="CH3" s="28">
         <v>200</v>
       </c>
-      <c r="CI3" s="31">
-        <f>IF($C3="win",CF3/2,IF($C3="rhel",1,IF($C3="suse",1,IF($C3="Ubuntu",1,IF($C3="Oracle Linux",1,IF($C3="Debian",1,IF($C3="OEM Specific",1,0)))))))</f>
+      <c r="CI3" s="29">
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="CJ3" s="32">
-        <f>IF($D3="MS SQL Standard Edition - Active VM",CF3/2,IF($D3="MS SQL Enterprise Edition - Active VM",CF3/2,IF($D3="My SQL Community Edition",1,IF($D3="My SQL Enterprise Edition",1,IF($D3="Postgre SQL Community edition",CF3,IF($D3="Postgre SQL Enterprise Edition",CF3,IF($D3="Oracle Standard Edition",1,IF($D3="Oracle Enterprise",CF3/2,IF($D3="Maria DB Community edition",1,IF($D3="MongoDB Community edition",1,IF($D3="MS SQL Standard Edition - Passive VM",,IF($D3="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="CJ3" s="30">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="24" t="s">
         <v>7796</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -59252,289 +59260,289 @@
       <c r="D4" s="6" t="s">
         <v>7827</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="25">
         <v>6</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="25">
         <v>18</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="25">
         <v>60</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="25">
         <v>1200</v>
       </c>
-      <c r="I4" s="28">
-        <f>IF($C4="win",F4/2,IF($C4="rhel",1,IF($C4="suse",1,IF($C4="Ubuntu",1,IF($C4="Oracle Linux",1,IF($C4="Debian",1,IF($C4="OEM Specific",1,0)))))))</f>
+      <c r="I4" s="26">
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="J4" s="29">
-        <f>IF($D4="MS SQL Standard Edition - Active VM",F4/2,IF($D4="MS SQL Enterprise Edition - Active VM",F4/2,IF($D4="My SQL Community Edition",1,IF($D4="My SQL Enterprise Edition",1,IF($D4="Postgre SQL Community edition",F4,IF($D4="Postgre SQL Enterprise Edition",F4,IF($D4="Oracle Standard Edition",1,IF($D4="Oracle Enterprise",F4/2,IF($D4="Maria DB Community edition",1,IF($D4="MongoDB Community edition",1,IF($D4="MS SQL Standard Edition - Passive VM",,IF($D4="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="J4" s="27">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K4" s="30">
+      <c r="K4" s="28">
         <v>4</v>
       </c>
-      <c r="L4" s="30">
+      <c r="L4" s="28">
         <v>4</v>
       </c>
-      <c r="M4" s="30">
+      <c r="M4" s="28">
         <v>8</v>
       </c>
-      <c r="N4" s="30">
+      <c r="N4" s="28">
         <v>200</v>
       </c>
-      <c r="O4" s="31">
-        <f>IF($C4="win",L4/2,IF($C4="rhel",1,IF($C4="suse",1,IF($C4="Ubuntu",1,IF($C4="Oracle Linux",1,IF($C4="Debian",1,IF($C4="OEM Specific",1,0)))))))</f>
+      <c r="O4" s="29">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P4" s="32">
-        <f>IF($D4="MS SQL Standard Edition - Active VM",L4/2,IF($D4="MS SQL Enterprise Edition - Active VM",L4/2,IF($D4="My SQL Community Edition",1,IF($D4="My SQL Enterprise Edition",1,IF($D4="Postgre SQL Community edition",L4,IF($D4="Postgre SQL Enterprise Edition",L4,IF($D4="Oracle Standard Edition",1,IF($D4="Oracle Enterprise",L4/2,IF($D4="Maria DB Community edition",1,IF($D4="MongoDB Community edition",1,IF($D4="MS SQL Standard Edition - Passive VM",,IF($D4="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="P4" s="30">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q4" s="27">
+      <c r="Q4" s="25">
         <v>4</v>
       </c>
-      <c r="R4" s="27">
+      <c r="R4" s="25">
         <v>4</v>
       </c>
-      <c r="S4" s="27">
+      <c r="S4" s="25">
         <v>8</v>
       </c>
-      <c r="T4" s="27">
+      <c r="T4" s="25">
         <v>200</v>
       </c>
-      <c r="U4" s="28">
-        <f>IF($C4="win",R4/2,IF($C4="rhel",1,IF($C4="suse",1,IF($C4="Ubuntu",1,IF($C4="Oracle Linux",1,IF($C4="Debian",1,IF($C4="OEM Specific",1,0)))))))</f>
+      <c r="U4" s="26">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V4" s="29">
-        <f>IF($D4="MS SQL Standard Edition - Active VM",R4/2,IF($D4="MS SQL Enterprise Edition - Active VM",R4/2,IF($D4="My SQL Community Edition",1,IF($D4="My SQL Enterprise Edition",1,IF($D4="Postgre SQL Community edition",R4,IF($D4="Postgre SQL Enterprise Edition",R4,IF($D4="Oracle Standard Edition",1,IF($D4="Oracle Enterprise",R4/2,IF($D4="Maria DB Community edition",1,IF($D4="MongoDB Community edition",1,IF($D4="MS SQL Standard Edition - Passive VM",,IF($D4="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="V4" s="27">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="W4" s="30">
+      <c r="W4" s="28">
         <v>4</v>
       </c>
-      <c r="X4" s="30">
+      <c r="X4" s="28">
         <v>4</v>
       </c>
-      <c r="Y4" s="30">
+      <c r="Y4" s="28">
         <v>8</v>
       </c>
-      <c r="Z4" s="30">
+      <c r="Z4" s="28">
         <v>200</v>
       </c>
-      <c r="AA4" s="31">
-        <f>IF($C4="win",X4/2,IF($C4="rhel",1,IF($C4="suse",1,IF($C4="Ubuntu",1,IF($C4="Oracle Linux",1,IF($C4="Debian",1,IF($C4="OEM Specific",1,0)))))))</f>
+      <c r="AA4" s="29">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AB4" s="32">
-        <f>IF($D4="MS SQL Standard Edition - Active VM",X4/2,IF($D4="MS SQL Enterprise Edition - Active VM",X4/2,IF($D4="My SQL Community Edition",1,IF($D4="My SQL Enterprise Edition",1,IF($D4="Postgre SQL Community edition",X4,IF($D4="Postgre SQL Enterprise Edition",X4,IF($D4="Oracle Standard Edition",1,IF($D4="Oracle Enterprise",X4/2,IF($D4="Maria DB Community edition",1,IF($D4="MongoDB Community edition",1,IF($D4="MS SQL Standard Edition - Passive VM",,IF($D4="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="AB4" s="30">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AC4" s="27">
+      <c r="AC4" s="25">
         <v>4</v>
       </c>
-      <c r="AD4" s="27">
+      <c r="AD4" s="25">
         <v>4</v>
       </c>
-      <c r="AE4" s="27">
+      <c r="AE4" s="25">
         <v>8</v>
       </c>
-      <c r="AF4" s="27">
+      <c r="AF4" s="25">
         <v>200</v>
       </c>
-      <c r="AG4" s="28">
-        <f>IF($C4="win",AD4/2,IF($C4="rhel",1,IF($C4="suse",1,IF($C4="Ubuntu",1,IF($C4="Oracle Linux",1,IF($C4="Debian",1,IF($C4="OEM Specific",1,0)))))))</f>
+      <c r="AG4" s="26">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AH4" s="29">
-        <f>IF($D4="MS SQL Standard Edition - Active VM",AD4/2,IF($D4="MS SQL Enterprise Edition - Active VM",AD4/2,IF($D4="My SQL Community Edition",1,IF($D4="My SQL Enterprise Edition",1,IF($D4="Postgre SQL Community edition",AD4,IF($D4="Postgre SQL Enterprise Edition",AD4,IF($D4="Oracle Standard Edition",1,IF($D4="Oracle Enterprise",AD4/2,IF($D4="Maria DB Community edition",1,IF($D4="MongoDB Community edition",1,IF($D4="MS SQL Standard Edition - Passive VM",,IF($D4="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="AH4" s="27">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AI4" s="30">
+      <c r="AI4" s="28">
         <v>4</v>
       </c>
-      <c r="AJ4" s="30">
+      <c r="AJ4" s="28">
         <v>4</v>
       </c>
-      <c r="AK4" s="30">
+      <c r="AK4" s="28">
         <v>8</v>
       </c>
-      <c r="AL4" s="30">
+      <c r="AL4" s="28">
         <v>200</v>
       </c>
-      <c r="AM4" s="31">
-        <f>IF($C4="win",AJ4/2,IF($C4="rhel",1,IF($C4="suse",1,IF($C4="Ubuntu",1,IF($C4="Oracle Linux",1,IF($C4="Debian",1,IF($C4="OEM Specific",1,0)))))))</f>
+      <c r="AM4" s="29">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AN4" s="32">
-        <f>IF($D4="MS SQL Standard Edition - Active VM",AJ4/2,IF($D4="MS SQL Enterprise Edition - Active VM",AJ4/2,IF($D4="My SQL Community Edition",1,IF($D4="My SQL Enterprise Edition",1,IF($D4="Postgre SQL Community edition",AJ4,IF($D4="Postgre SQL Enterprise Edition",AJ4,IF($D4="Oracle Standard Edition",1,IF($D4="Oracle Enterprise",AJ4/2,IF($D4="Maria DB Community edition",1,IF($D4="MongoDB Community edition",1,IF($D4="MS SQL Standard Edition - Passive VM",,IF($D4="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="AN4" s="30">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AO4" s="27">
+      <c r="AO4" s="25">
         <v>4</v>
       </c>
-      <c r="AP4" s="27">
+      <c r="AP4" s="25">
         <v>4</v>
       </c>
-      <c r="AQ4" s="27">
+      <c r="AQ4" s="25">
         <v>8</v>
       </c>
-      <c r="AR4" s="27">
+      <c r="AR4" s="25">
         <v>200</v>
       </c>
-      <c r="AS4" s="28">
-        <f>IF($C4="win",AP4/2,IF($C4="rhel",1,IF($C4="suse",1,IF($C4="Ubuntu",1,IF($C4="Oracle Linux",1,IF($C4="Debian",1,IF($C4="OEM Specific",1,0)))))))</f>
+      <c r="AS4" s="26">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="AT4" s="29">
-        <f>IF($D4="MS SQL Standard Edition - Active VM",AP4/2,IF($D4="MS SQL Enterprise Edition - Active VM",AP4/2,IF($D4="My SQL Community Edition",1,IF($D4="My SQL Enterprise Edition",1,IF($D4="Postgre SQL Community edition",AP4,IF($D4="Postgre SQL Enterprise Edition",AP4,IF($D4="Oracle Standard Edition",1,IF($D4="Oracle Enterprise",AP4/2,IF($D4="Maria DB Community edition",1,IF($D4="MongoDB Community edition",1,IF($D4="MS SQL Standard Edition - Passive VM",,IF($D4="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="AT4" s="27">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="AU4" s="30">
+      <c r="AU4" s="28">
         <v>4</v>
       </c>
-      <c r="AV4" s="30">
+      <c r="AV4" s="28">
         <v>4</v>
       </c>
-      <c r="AW4" s="30">
+      <c r="AW4" s="28">
         <v>8</v>
       </c>
-      <c r="AX4" s="30">
+      <c r="AX4" s="28">
         <v>200</v>
       </c>
-      <c r="AY4" s="31">
-        <f>IF($C4="win",AV4/2,IF($C4="rhel",1,IF($C4="suse",1,IF($C4="Ubuntu",1,IF($C4="Oracle Linux",1,IF($C4="Debian",1,IF($C4="OEM Specific",1,0)))))))</f>
+      <c r="AY4" s="29">
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="AZ4" s="32">
-        <f>IF($D4="MS SQL Standard Edition - Active VM",AV4/2,IF($D4="MS SQL Enterprise Edition - Active VM",AV4/2,IF($D4="My SQL Community Edition",1,IF($D4="My SQL Enterprise Edition",1,IF($D4="Postgre SQL Community edition",AV4,IF($D4="Postgre SQL Enterprise Edition",AV4,IF($D4="Oracle Standard Edition",1,IF($D4="Oracle Enterprise",AV4/2,IF($D4="Maria DB Community edition",1,IF($D4="MongoDB Community edition",1,IF($D4="MS SQL Standard Edition - Passive VM",,IF($D4="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="AZ4" s="30">
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="BA4" s="27">
+      <c r="BA4" s="25">
         <v>4</v>
       </c>
-      <c r="BB4" s="27">
+      <c r="BB4" s="25">
         <v>4</v>
       </c>
-      <c r="BC4" s="27">
+      <c r="BC4" s="25">
         <v>8</v>
       </c>
-      <c r="BD4" s="27">
+      <c r="BD4" s="25">
         <v>200</v>
       </c>
-      <c r="BE4" s="28">
-        <f>IF($C4="win",BB4/2,IF($C4="rhel",1,IF($C4="suse",1,IF($C4="Ubuntu",1,IF($C4="Oracle Linux",1,IF($C4="Debian",1,IF($C4="OEM Specific",1,0)))))))</f>
+      <c r="BE4" s="26">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="BF4" s="29">
-        <f>IF($D4="MS SQL Standard Edition - Active VM",BB4/2,IF($D4="MS SQL Enterprise Edition - Active VM",BB4/2,IF($D4="My SQL Community Edition",1,IF($D4="My SQL Enterprise Edition",1,IF($D4="Postgre SQL Community edition",BB4,IF($D4="Postgre SQL Enterprise Edition",BB4,IF($D4="Oracle Standard Edition",1,IF($D4="Oracle Enterprise",BB4/2,IF($D4="Maria DB Community edition",1,IF($D4="MongoDB Community edition",1,IF($D4="MS SQL Standard Edition - Passive VM",,IF($D4="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="BF4" s="27">
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="BG4" s="30">
+      <c r="BG4" s="28">
         <v>4</v>
       </c>
-      <c r="BH4" s="30">
+      <c r="BH4" s="28">
         <v>4</v>
       </c>
-      <c r="BI4" s="30">
+      <c r="BI4" s="28">
         <v>8</v>
       </c>
-      <c r="BJ4" s="30">
+      <c r="BJ4" s="28">
         <v>200</v>
       </c>
-      <c r="BK4" s="31">
-        <f>IF($C4="win",BH4/2,IF($C4="rhel",1,IF($C4="suse",1,IF($C4="Ubuntu",1,IF($C4="Oracle Linux",1,IF($C4="Debian",1,IF($C4="OEM Specific",1,0)))))))</f>
+      <c r="BK4" s="29">
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="BL4" s="32">
-        <f>IF($D4="MS SQL Standard Edition - Active VM",BH4/2,IF($D4="MS SQL Enterprise Edition - Active VM",BH4/2,IF($D4="My SQL Community Edition",1,IF($D4="My SQL Enterprise Edition",1,IF($D4="Postgre SQL Community edition",BH4,IF($D4="Postgre SQL Enterprise Edition",BH4,IF($D4="Oracle Standard Edition",1,IF($D4="Oracle Enterprise",BH4/2,IF($D4="Maria DB Community edition",1,IF($D4="MongoDB Community edition",1,IF($D4="MS SQL Standard Edition - Passive VM",,IF($D4="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="BL4" s="30">
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="BM4" s="27">
+      <c r="BM4" s="25">
         <v>4</v>
       </c>
-      <c r="BN4" s="27">
+      <c r="BN4" s="25">
         <v>4</v>
       </c>
-      <c r="BO4" s="27">
+      <c r="BO4" s="25">
         <v>8</v>
       </c>
-      <c r="BP4" s="27">
+      <c r="BP4" s="25">
         <v>200</v>
       </c>
-      <c r="BQ4" s="28">
-        <f>IF($C4="win",BN4/2,IF($C4="rhel",1,IF($C4="suse",1,IF($C4="Ubuntu",1,IF($C4="Oracle Linux",1,IF($C4="Debian",1,IF($C4="OEM Specific",1,0)))))))</f>
+      <c r="BQ4" s="26">
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="BR4" s="29">
-        <f>IF($D4="MS SQL Standard Edition - Active VM",BN4/2,IF($D4="MS SQL Enterprise Edition - Active VM",BN4/2,IF($D4="My SQL Community Edition",1,IF($D4="My SQL Enterprise Edition",1,IF($D4="Postgre SQL Community edition",BN4,IF($D4="Postgre SQL Enterprise Edition",BN4,IF($D4="Oracle Standard Edition",1,IF($D4="Oracle Enterprise",BN4/2,IF($D4="Maria DB Community edition",1,IF($D4="MongoDB Community edition",1,IF($D4="MS SQL Standard Edition - Passive VM",,IF($D4="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="BR4" s="27">
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="BS4" s="30">
+      <c r="BS4" s="28">
         <v>4</v>
       </c>
-      <c r="BT4" s="30">
+      <c r="BT4" s="28">
         <v>4</v>
       </c>
-      <c r="BU4" s="30">
+      <c r="BU4" s="28">
         <v>8</v>
       </c>
-      <c r="BV4" s="30">
+      <c r="BV4" s="28">
         <v>200</v>
       </c>
-      <c r="BW4" s="31">
-        <f>IF($C4="win",BT4/2,IF($C4="rhel",1,IF($C4="suse",1,IF($C4="Ubuntu",1,IF($C4="Oracle Linux",1,IF($C4="Debian",1,IF($C4="OEM Specific",1,0)))))))</f>
+      <c r="BW4" s="29">
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="BX4" s="32">
-        <f>IF($D4="MS SQL Standard Edition - Active VM",BT4/2,IF($D4="MS SQL Enterprise Edition - Active VM",BT4/2,IF($D4="My SQL Community Edition",1,IF($D4="My SQL Enterprise Edition",1,IF($D4="Postgre SQL Community edition",BT4,IF($D4="Postgre SQL Enterprise Edition",BT4,IF($D4="Oracle Standard Edition",1,IF($D4="Oracle Enterprise",BT4/2,IF($D4="Maria DB Community edition",1,IF($D4="MongoDB Community edition",1,IF($D4="MS SQL Standard Edition - Passive VM",,IF($D4="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="BX4" s="30">
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="BY4" s="27">
+      <c r="BY4" s="25">
         <v>4</v>
       </c>
-      <c r="BZ4" s="27">
+      <c r="BZ4" s="25">
         <v>4</v>
       </c>
-      <c r="CA4" s="27">
+      <c r="CA4" s="25">
         <v>8</v>
       </c>
-      <c r="CB4" s="27">
+      <c r="CB4" s="25">
         <v>200</v>
       </c>
-      <c r="CC4" s="28">
-        <f>IF($C4="win",BZ4/2,IF($C4="rhel",1,IF($C4="suse",1,IF($C4="Ubuntu",1,IF($C4="Oracle Linux",1,IF($C4="Debian",1,IF($C4="OEM Specific",1,0)))))))</f>
+      <c r="CC4" s="26">
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="CD4" s="29">
-        <f>IF($D4="MS SQL Standard Edition - Active VM",BZ4/2,IF($D4="MS SQL Enterprise Edition - Active VM",BZ4/2,IF($D4="My SQL Community Edition",1,IF($D4="My SQL Enterprise Edition",1,IF($D4="Postgre SQL Community edition",BZ4,IF($D4="Postgre SQL Enterprise Edition",BZ4,IF($D4="Oracle Standard Edition",1,IF($D4="Oracle Enterprise",BZ4/2,IF($D4="Maria DB Community edition",1,IF($D4="MongoDB Community edition",1,IF($D4="MS SQL Standard Edition - Passive VM",,IF($D4="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="CD4" s="27">
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="CE4" s="30">
+      <c r="CE4" s="28">
         <v>4</v>
       </c>
-      <c r="CF4" s="30">
+      <c r="CF4" s="28">
         <v>4</v>
       </c>
-      <c r="CG4" s="30">
+      <c r="CG4" s="28">
         <v>8</v>
       </c>
-      <c r="CH4" s="30">
+      <c r="CH4" s="28">
         <v>200</v>
       </c>
-      <c r="CI4" s="31">
-        <f>IF($C4="win",CF4/2,IF($C4="rhel",1,IF($C4="suse",1,IF($C4="Ubuntu",1,IF($C4="Oracle Linux",1,IF($C4="Debian",1,IF($C4="OEM Specific",1,0)))))))</f>
+      <c r="CI4" s="29">
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="CJ4" s="32">
-        <f>IF($D4="MS SQL Standard Edition - Active VM",CF4/2,IF($D4="MS SQL Enterprise Edition - Active VM",CF4/2,IF($D4="My SQL Community Edition",1,IF($D4="My SQL Enterprise Edition",1,IF($D4="Postgre SQL Community edition",CF4,IF($D4="Postgre SQL Enterprise Edition",CF4,IF($D4="Oracle Standard Edition",1,IF($D4="Oracle Enterprise",CF4/2,IF($D4="Maria DB Community edition",1,IF($D4="MongoDB Community edition",1,IF($D4="MS SQL Standard Edition - Passive VM",,IF($D4="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="CJ4" s="30">
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="24" t="s">
         <v>7796</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -59546,289 +59554,289 @@
       <c r="D5" s="6" t="s">
         <v>7828</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="25">
         <v>8</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="25">
         <v>16</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="25">
         <v>58</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="25">
         <v>1000</v>
       </c>
-      <c r="I5" s="28">
-        <f>IF($C5="win",F5/2,IF($C5="rhel",1,IF($C5="suse",1,IF($C5="Ubuntu",1,IF($C5="Oracle Linux",1,IF($C5="Debian",1,IF($C5="OEM Specific",1,0)))))))</f>
+      <c r="I5" s="26">
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="J5" s="29">
-        <f>IF($D5="MS SQL Standard Edition - Active VM",F5/2,IF($D5="MS SQL Enterprise Edition - Active VM",F5/2,IF($D5="My SQL Community Edition",1,IF($D5="My SQL Enterprise Edition",1,IF($D5="Postgre SQL Community edition",F5,IF($D5="Postgre SQL Enterprise Edition",F5,IF($D5="Oracle Standard Edition",1,IF($D5="Oracle Enterprise",F5/2,IF($D5="Maria DB Community edition",1,IF($D5="MongoDB Community edition",1,IF($D5="MS SQL Standard Edition - Passive VM",,IF($D5="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="J5" s="27">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K5" s="30">
+      <c r="K5" s="28">
         <v>4</v>
       </c>
-      <c r="L5" s="30">
+      <c r="L5" s="28">
         <v>4</v>
       </c>
-      <c r="M5" s="30">
+      <c r="M5" s="28">
         <v>8</v>
       </c>
-      <c r="N5" s="30">
+      <c r="N5" s="28">
         <v>200</v>
       </c>
-      <c r="O5" s="31">
-        <f>IF($C5="win",L5/2,IF($C5="rhel",1,IF($C5="suse",1,IF($C5="Ubuntu",1,IF($C5="Oracle Linux",1,IF($C5="Debian",1,IF($C5="OEM Specific",1,0)))))))</f>
+      <c r="O5" s="29">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P5" s="32">
-        <f>IF($D5="MS SQL Standard Edition - Active VM",L5/2,IF($D5="MS SQL Enterprise Edition - Active VM",L5/2,IF($D5="My SQL Community Edition",1,IF($D5="My SQL Enterprise Edition",1,IF($D5="Postgre SQL Community edition",L5,IF($D5="Postgre SQL Enterprise Edition",L5,IF($D5="Oracle Standard Edition",1,IF($D5="Oracle Enterprise",L5/2,IF($D5="Maria DB Community edition",1,IF($D5="MongoDB Community edition",1,IF($D5="MS SQL Standard Edition - Passive VM",,IF($D5="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="P5" s="30">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q5" s="27">
+      <c r="Q5" s="25">
         <v>4</v>
       </c>
-      <c r="R5" s="27">
+      <c r="R5" s="25">
         <v>4</v>
       </c>
-      <c r="S5" s="27">
+      <c r="S5" s="25">
         <v>8</v>
       </c>
-      <c r="T5" s="27">
+      <c r="T5" s="25">
         <v>200</v>
       </c>
-      <c r="U5" s="28">
-        <f>IF($C5="win",R5/2,IF($C5="rhel",1,IF($C5="suse",1,IF($C5="Ubuntu",1,IF($C5="Oracle Linux",1,IF($C5="Debian",1,IF($C5="OEM Specific",1,0)))))))</f>
+      <c r="U5" s="26">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V5" s="29">
-        <f>IF($D5="MS SQL Standard Edition - Active VM",R5/2,IF($D5="MS SQL Enterprise Edition - Active VM",R5/2,IF($D5="My SQL Community Edition",1,IF($D5="My SQL Enterprise Edition",1,IF($D5="Postgre SQL Community edition",R5,IF($D5="Postgre SQL Enterprise Edition",R5,IF($D5="Oracle Standard Edition",1,IF($D5="Oracle Enterprise",R5/2,IF($D5="Maria DB Community edition",1,IF($D5="MongoDB Community edition",1,IF($D5="MS SQL Standard Edition - Passive VM",,IF($D5="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="V5" s="27">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="W5" s="30">
+      <c r="W5" s="28">
         <v>4</v>
       </c>
-      <c r="X5" s="30">
+      <c r="X5" s="28">
         <v>4</v>
       </c>
-      <c r="Y5" s="30">
+      <c r="Y5" s="28">
         <v>8</v>
       </c>
-      <c r="Z5" s="30">
+      <c r="Z5" s="28">
         <v>200</v>
       </c>
-      <c r="AA5" s="31">
-        <f>IF($C5="win",X5/2,IF($C5="rhel",1,IF($C5="suse",1,IF($C5="Ubuntu",1,IF($C5="Oracle Linux",1,IF($C5="Debian",1,IF($C5="OEM Specific",1,0)))))))</f>
+      <c r="AA5" s="29">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AB5" s="32">
-        <f>IF($D5="MS SQL Standard Edition - Active VM",X5/2,IF($D5="MS SQL Enterprise Edition - Active VM",X5/2,IF($D5="My SQL Community Edition",1,IF($D5="My SQL Enterprise Edition",1,IF($D5="Postgre SQL Community edition",X5,IF($D5="Postgre SQL Enterprise Edition",X5,IF($D5="Oracle Standard Edition",1,IF($D5="Oracle Enterprise",X5/2,IF($D5="Maria DB Community edition",1,IF($D5="MongoDB Community edition",1,IF($D5="MS SQL Standard Edition - Passive VM",,IF($D5="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="AB5" s="30">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AC5" s="27">
+      <c r="AC5" s="25">
         <v>4</v>
       </c>
-      <c r="AD5" s="27">
+      <c r="AD5" s="25">
         <v>4</v>
       </c>
-      <c r="AE5" s="27">
+      <c r="AE5" s="25">
         <v>8</v>
       </c>
-      <c r="AF5" s="27">
+      <c r="AF5" s="25">
         <v>200</v>
       </c>
-      <c r="AG5" s="28">
-        <f>IF($C5="win",AD5/2,IF($C5="rhel",1,IF($C5="suse",1,IF($C5="Ubuntu",1,IF($C5="Oracle Linux",1,IF($C5="Debian",1,IF($C5="OEM Specific",1,0)))))))</f>
+      <c r="AG5" s="26">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AH5" s="29">
-        <f>IF($D5="MS SQL Standard Edition - Active VM",AD5/2,IF($D5="MS SQL Enterprise Edition - Active VM",AD5/2,IF($D5="My SQL Community Edition",1,IF($D5="My SQL Enterprise Edition",1,IF($D5="Postgre SQL Community edition",AD5,IF($D5="Postgre SQL Enterprise Edition",AD5,IF($D5="Oracle Standard Edition",1,IF($D5="Oracle Enterprise",AD5/2,IF($D5="Maria DB Community edition",1,IF($D5="MongoDB Community edition",1,IF($D5="MS SQL Standard Edition - Passive VM",,IF($D5="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="AH5" s="27">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AI5" s="30">
+      <c r="AI5" s="28">
         <v>4</v>
       </c>
-      <c r="AJ5" s="30">
+      <c r="AJ5" s="28">
         <v>4</v>
       </c>
-      <c r="AK5" s="30">
+      <c r="AK5" s="28">
         <v>8</v>
       </c>
-      <c r="AL5" s="30">
+      <c r="AL5" s="28">
         <v>200</v>
       </c>
-      <c r="AM5" s="31">
-        <f>IF($C5="win",AJ5/2,IF($C5="rhel",1,IF($C5="suse",1,IF($C5="Ubuntu",1,IF($C5="Oracle Linux",1,IF($C5="Debian",1,IF($C5="OEM Specific",1,0)))))))</f>
+      <c r="AM5" s="29">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AN5" s="32">
-        <f>IF($D5="MS SQL Standard Edition - Active VM",AJ5/2,IF($D5="MS SQL Enterprise Edition - Active VM",AJ5/2,IF($D5="My SQL Community Edition",1,IF($D5="My SQL Enterprise Edition",1,IF($D5="Postgre SQL Community edition",AJ5,IF($D5="Postgre SQL Enterprise Edition",AJ5,IF($D5="Oracle Standard Edition",1,IF($D5="Oracle Enterprise",AJ5/2,IF($D5="Maria DB Community edition",1,IF($D5="MongoDB Community edition",1,IF($D5="MS SQL Standard Edition - Passive VM",,IF($D5="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="AN5" s="30">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AO5" s="27">
+      <c r="AO5" s="25">
         <v>4</v>
       </c>
-      <c r="AP5" s="27">
+      <c r="AP5" s="25">
         <v>4</v>
       </c>
-      <c r="AQ5" s="27">
+      <c r="AQ5" s="25">
         <v>8</v>
       </c>
-      <c r="AR5" s="27">
+      <c r="AR5" s="25">
         <v>200</v>
       </c>
-      <c r="AS5" s="28">
-        <f>IF($C5="win",AP5/2,IF($C5="rhel",1,IF($C5="suse",1,IF($C5="Ubuntu",1,IF($C5="Oracle Linux",1,IF($C5="Debian",1,IF($C5="OEM Specific",1,0)))))))</f>
+      <c r="AS5" s="26">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="AT5" s="29">
-        <f>IF($D5="MS SQL Standard Edition - Active VM",AP5/2,IF($D5="MS SQL Enterprise Edition - Active VM",AP5/2,IF($D5="My SQL Community Edition",1,IF($D5="My SQL Enterprise Edition",1,IF($D5="Postgre SQL Community edition",AP5,IF($D5="Postgre SQL Enterprise Edition",AP5,IF($D5="Oracle Standard Edition",1,IF($D5="Oracle Enterprise",AP5/2,IF($D5="Maria DB Community edition",1,IF($D5="MongoDB Community edition",1,IF($D5="MS SQL Standard Edition - Passive VM",,IF($D5="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="AT5" s="27">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="AU5" s="30">
+      <c r="AU5" s="28">
         <v>4</v>
       </c>
-      <c r="AV5" s="30">
+      <c r="AV5" s="28">
         <v>4</v>
       </c>
-      <c r="AW5" s="30">
+      <c r="AW5" s="28">
         <v>8</v>
       </c>
-      <c r="AX5" s="30">
+      <c r="AX5" s="28">
         <v>200</v>
       </c>
-      <c r="AY5" s="31">
-        <f>IF($C5="win",AV5/2,IF($C5="rhel",1,IF($C5="suse",1,IF($C5="Ubuntu",1,IF($C5="Oracle Linux",1,IF($C5="Debian",1,IF($C5="OEM Specific",1,0)))))))</f>
+      <c r="AY5" s="29">
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="AZ5" s="32">
-        <f>IF($D5="MS SQL Standard Edition - Active VM",AV5/2,IF($D5="MS SQL Enterprise Edition - Active VM",AV5/2,IF($D5="My SQL Community Edition",1,IF($D5="My SQL Enterprise Edition",1,IF($D5="Postgre SQL Community edition",AV5,IF($D5="Postgre SQL Enterprise Edition",AV5,IF($D5="Oracle Standard Edition",1,IF($D5="Oracle Enterprise",AV5/2,IF($D5="Maria DB Community edition",1,IF($D5="MongoDB Community edition",1,IF($D5="MS SQL Standard Edition - Passive VM",,IF($D5="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="AZ5" s="30">
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="BA5" s="27">
+      <c r="BA5" s="25">
         <v>4</v>
       </c>
-      <c r="BB5" s="27">
+      <c r="BB5" s="25">
         <v>4</v>
       </c>
-      <c r="BC5" s="27">
+      <c r="BC5" s="25">
         <v>8</v>
       </c>
-      <c r="BD5" s="27">
+      <c r="BD5" s="25">
         <v>200</v>
       </c>
-      <c r="BE5" s="28">
-        <f>IF($C5="win",BB5/2,IF($C5="rhel",1,IF($C5="suse",1,IF($C5="Ubuntu",1,IF($C5="Oracle Linux",1,IF($C5="Debian",1,IF($C5="OEM Specific",1,0)))))))</f>
+      <c r="BE5" s="26">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="BF5" s="29">
-        <f>IF($D5="MS SQL Standard Edition - Active VM",BB5/2,IF($D5="MS SQL Enterprise Edition - Active VM",BB5/2,IF($D5="My SQL Community Edition",1,IF($D5="My SQL Enterprise Edition",1,IF($D5="Postgre SQL Community edition",BB5,IF($D5="Postgre SQL Enterprise Edition",BB5,IF($D5="Oracle Standard Edition",1,IF($D5="Oracle Enterprise",BB5/2,IF($D5="Maria DB Community edition",1,IF($D5="MongoDB Community edition",1,IF($D5="MS SQL Standard Edition - Passive VM",,IF($D5="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="BF5" s="27">
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="BG5" s="30">
+      <c r="BG5" s="28">
         <v>4</v>
       </c>
-      <c r="BH5" s="30">
+      <c r="BH5" s="28">
         <v>4</v>
       </c>
-      <c r="BI5" s="30">
+      <c r="BI5" s="28">
         <v>8</v>
       </c>
-      <c r="BJ5" s="30">
+      <c r="BJ5" s="28">
         <v>200</v>
       </c>
-      <c r="BK5" s="31">
-        <f>IF($C5="win",BH5/2,IF($C5="rhel",1,IF($C5="suse",1,IF($C5="Ubuntu",1,IF($C5="Oracle Linux",1,IF($C5="Debian",1,IF($C5="OEM Specific",1,0)))))))</f>
+      <c r="BK5" s="29">
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="BL5" s="32">
-        <f>IF($D5="MS SQL Standard Edition - Active VM",BH5/2,IF($D5="MS SQL Enterprise Edition - Active VM",BH5/2,IF($D5="My SQL Community Edition",1,IF($D5="My SQL Enterprise Edition",1,IF($D5="Postgre SQL Community edition",BH5,IF($D5="Postgre SQL Enterprise Edition",BH5,IF($D5="Oracle Standard Edition",1,IF($D5="Oracle Enterprise",BH5/2,IF($D5="Maria DB Community edition",1,IF($D5="MongoDB Community edition",1,IF($D5="MS SQL Standard Edition - Passive VM",,IF($D5="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="BL5" s="30">
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="BM5" s="27">
+      <c r="BM5" s="25">
         <v>4</v>
       </c>
-      <c r="BN5" s="27">
+      <c r="BN5" s="25">
         <v>4</v>
       </c>
-      <c r="BO5" s="27">
+      <c r="BO5" s="25">
         <v>8</v>
       </c>
-      <c r="BP5" s="27">
+      <c r="BP5" s="25">
         <v>200</v>
       </c>
-      <c r="BQ5" s="28">
-        <f>IF($C5="win",BN5/2,IF($C5="rhel",1,IF($C5="suse",1,IF($C5="Ubuntu",1,IF($C5="Oracle Linux",1,IF($C5="Debian",1,IF($C5="OEM Specific",1,0)))))))</f>
+      <c r="BQ5" s="26">
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="BR5" s="29">
-        <f>IF($D5="MS SQL Standard Edition - Active VM",BN5/2,IF($D5="MS SQL Enterprise Edition - Active VM",BN5/2,IF($D5="My SQL Community Edition",1,IF($D5="My SQL Enterprise Edition",1,IF($D5="Postgre SQL Community edition",BN5,IF($D5="Postgre SQL Enterprise Edition",BN5,IF($D5="Oracle Standard Edition",1,IF($D5="Oracle Enterprise",BN5/2,IF($D5="Maria DB Community edition",1,IF($D5="MongoDB Community edition",1,IF($D5="MS SQL Standard Edition - Passive VM",,IF($D5="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="BR5" s="27">
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="BS5" s="30">
+      <c r="BS5" s="28">
         <v>4</v>
       </c>
-      <c r="BT5" s="30">
+      <c r="BT5" s="28">
         <v>4</v>
       </c>
-      <c r="BU5" s="30">
+      <c r="BU5" s="28">
         <v>8</v>
       </c>
-      <c r="BV5" s="30">
+      <c r="BV5" s="28">
         <v>200</v>
       </c>
-      <c r="BW5" s="31">
-        <f>IF($C5="win",BT5/2,IF($C5="rhel",1,IF($C5="suse",1,IF($C5="Ubuntu",1,IF($C5="Oracle Linux",1,IF($C5="Debian",1,IF($C5="OEM Specific",1,0)))))))</f>
+      <c r="BW5" s="29">
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="BX5" s="32">
-        <f>IF($D5="MS SQL Standard Edition - Active VM",BT5/2,IF($D5="MS SQL Enterprise Edition - Active VM",BT5/2,IF($D5="My SQL Community Edition",1,IF($D5="My SQL Enterprise Edition",1,IF($D5="Postgre SQL Community edition",BT5,IF($D5="Postgre SQL Enterprise Edition",BT5,IF($D5="Oracle Standard Edition",1,IF($D5="Oracle Enterprise",BT5/2,IF($D5="Maria DB Community edition",1,IF($D5="MongoDB Community edition",1,IF($D5="MS SQL Standard Edition - Passive VM",,IF($D5="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="BX5" s="30">
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="BY5" s="27">
+      <c r="BY5" s="25">
         <v>4</v>
       </c>
-      <c r="BZ5" s="27">
+      <c r="BZ5" s="25">
         <v>4</v>
       </c>
-      <c r="CA5" s="27">
+      <c r="CA5" s="25">
         <v>8</v>
       </c>
-      <c r="CB5" s="27">
+      <c r="CB5" s="25">
         <v>200</v>
       </c>
-      <c r="CC5" s="28">
-        <f>IF($C5="win",BZ5/2,IF($C5="rhel",1,IF($C5="suse",1,IF($C5="Ubuntu",1,IF($C5="Oracle Linux",1,IF($C5="Debian",1,IF($C5="OEM Specific",1,0)))))))</f>
+      <c r="CC5" s="26">
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="CD5" s="29">
-        <f>IF($D5="MS SQL Standard Edition - Active VM",BZ5/2,IF($D5="MS SQL Enterprise Edition - Active VM",BZ5/2,IF($D5="My SQL Community Edition",1,IF($D5="My SQL Enterprise Edition",1,IF($D5="Postgre SQL Community edition",BZ5,IF($D5="Postgre SQL Enterprise Edition",BZ5,IF($D5="Oracle Standard Edition",1,IF($D5="Oracle Enterprise",BZ5/2,IF($D5="Maria DB Community edition",1,IF($D5="MongoDB Community edition",1,IF($D5="MS SQL Standard Edition - Passive VM",,IF($D5="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="CD5" s="27">
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="CE5" s="30">
+      <c r="CE5" s="28">
         <v>4</v>
       </c>
-      <c r="CF5" s="30">
+      <c r="CF5" s="28">
         <v>4</v>
       </c>
-      <c r="CG5" s="30">
+      <c r="CG5" s="28">
         <v>8</v>
       </c>
-      <c r="CH5" s="30">
+      <c r="CH5" s="28">
         <v>200</v>
       </c>
-      <c r="CI5" s="31">
-        <f>IF($C5="win",CF5/2,IF($C5="rhel",1,IF($C5="suse",1,IF($C5="Ubuntu",1,IF($C5="Oracle Linux",1,IF($C5="Debian",1,IF($C5="OEM Specific",1,0)))))))</f>
+      <c r="CI5" s="29">
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="CJ5" s="32">
-        <f>IF($D5="MS SQL Standard Edition - Active VM",CF5/2,IF($D5="MS SQL Enterprise Edition - Active VM",CF5/2,IF($D5="My SQL Community Edition",1,IF($D5="My SQL Enterprise Edition",1,IF($D5="Postgre SQL Community edition",CF5,IF($D5="Postgre SQL Enterprise Edition",CF5,IF($D5="Oracle Standard Edition",1,IF($D5="Oracle Enterprise",CF5/2,IF($D5="Maria DB Community edition",1,IF($D5="MongoDB Community edition",1,IF($D5="MS SQL Standard Edition - Passive VM",,IF($D5="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="CJ5" s="30">
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="24" t="s">
         <v>7796</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -59840,289 +59848,289 @@
       <c r="D6" s="6" t="s">
         <v>7829</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="25">
         <v>10</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="25">
         <v>14</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="25">
         <v>56</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="25">
         <v>800</v>
       </c>
-      <c r="I6" s="28">
-        <f>IF($C6="win",F6/2,IF($C6="rhel",1,IF($C6="suse",1,IF($C6="Ubuntu",1,IF($C6="Oracle Linux",1,IF($C6="Debian",1,IF($C6="OEM Specific",1,0)))))))</f>
+      <c r="I6" s="26">
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="J6" s="29">
-        <f>IF($D6="MS SQL Standard Edition - Active VM",F6/2,IF($D6="MS SQL Enterprise Edition - Active VM",F6/2,IF($D6="My SQL Community Edition",1,IF($D6="My SQL Enterprise Edition",1,IF($D6="Postgre SQL Community edition",F6,IF($D6="Postgre SQL Enterprise Edition",F6,IF($D6="Oracle Standard Edition",1,IF($D6="Oracle Enterprise",F6/2,IF($D6="Maria DB Community edition",1,IF($D6="MongoDB Community edition",1,IF($D6="MS SQL Standard Edition - Passive VM",,IF($D6="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="J6" s="27">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="K6" s="30">
+      <c r="K6" s="28">
         <v>4</v>
       </c>
-      <c r="L6" s="30">
+      <c r="L6" s="28">
         <v>4</v>
       </c>
-      <c r="M6" s="30">
+      <c r="M6" s="28">
         <v>8</v>
       </c>
-      <c r="N6" s="30">
+      <c r="N6" s="28">
         <v>200</v>
       </c>
-      <c r="O6" s="31">
-        <f>IF($C6="win",L6/2,IF($C6="rhel",1,IF($C6="suse",1,IF($C6="Ubuntu",1,IF($C6="Oracle Linux",1,IF($C6="Debian",1,IF($C6="OEM Specific",1,0)))))))</f>
+      <c r="O6" s="29">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P6" s="32">
-        <f>IF($D6="MS SQL Standard Edition - Active VM",L6/2,IF($D6="MS SQL Enterprise Edition - Active VM",L6/2,IF($D6="My SQL Community Edition",1,IF($D6="My SQL Enterprise Edition",1,IF($D6="Postgre SQL Community edition",L6,IF($D6="Postgre SQL Enterprise Edition",L6,IF($D6="Oracle Standard Edition",1,IF($D6="Oracle Enterprise",L6/2,IF($D6="Maria DB Community edition",1,IF($D6="MongoDB Community edition",1,IF($D6="MS SQL Standard Edition - Passive VM",,IF($D6="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="P6" s="30">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="Q6" s="27">
+      <c r="Q6" s="25">
         <v>4</v>
       </c>
-      <c r="R6" s="27">
+      <c r="R6" s="25">
         <v>4</v>
       </c>
-      <c r="S6" s="27">
+      <c r="S6" s="25">
         <v>8</v>
       </c>
-      <c r="T6" s="27">
+      <c r="T6" s="25">
         <v>200</v>
       </c>
-      <c r="U6" s="28">
-        <f>IF($C6="win",R6/2,IF($C6="rhel",1,IF($C6="suse",1,IF($C6="Ubuntu",1,IF($C6="Oracle Linux",1,IF($C6="Debian",1,IF($C6="OEM Specific",1,0)))))))</f>
+      <c r="U6" s="26">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V6" s="29">
-        <f>IF($D6="MS SQL Standard Edition - Active VM",R6/2,IF($D6="MS SQL Enterprise Edition - Active VM",R6/2,IF($D6="My SQL Community Edition",1,IF($D6="My SQL Enterprise Edition",1,IF($D6="Postgre SQL Community edition",R6,IF($D6="Postgre SQL Enterprise Edition",R6,IF($D6="Oracle Standard Edition",1,IF($D6="Oracle Enterprise",R6/2,IF($D6="Maria DB Community edition",1,IF($D6="MongoDB Community edition",1,IF($D6="MS SQL Standard Edition - Passive VM",,IF($D6="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="V6" s="27">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="W6" s="30">
+      <c r="W6" s="28">
         <v>4</v>
       </c>
-      <c r="X6" s="30">
+      <c r="X6" s="28">
         <v>4</v>
       </c>
-      <c r="Y6" s="30">
+      <c r="Y6" s="28">
         <v>8</v>
       </c>
-      <c r="Z6" s="30">
+      <c r="Z6" s="28">
         <v>200</v>
       </c>
-      <c r="AA6" s="31">
-        <f>IF($C6="win",X6/2,IF($C6="rhel",1,IF($C6="suse",1,IF($C6="Ubuntu",1,IF($C6="Oracle Linux",1,IF($C6="Debian",1,IF($C6="OEM Specific",1,0)))))))</f>
+      <c r="AA6" s="29">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AB6" s="32">
-        <f>IF($D6="MS SQL Standard Edition - Active VM",X6/2,IF($D6="MS SQL Enterprise Edition - Active VM",X6/2,IF($D6="My SQL Community Edition",1,IF($D6="My SQL Enterprise Edition",1,IF($D6="Postgre SQL Community edition",X6,IF($D6="Postgre SQL Enterprise Edition",X6,IF($D6="Oracle Standard Edition",1,IF($D6="Oracle Enterprise",X6/2,IF($D6="Maria DB Community edition",1,IF($D6="MongoDB Community edition",1,IF($D6="MS SQL Standard Edition - Passive VM",,IF($D6="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="AB6" s="30">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="AC6" s="27">
+      <c r="AC6" s="25">
         <v>4</v>
       </c>
-      <c r="AD6" s="27">
+      <c r="AD6" s="25">
         <v>4</v>
       </c>
-      <c r="AE6" s="27">
+      <c r="AE6" s="25">
         <v>8</v>
       </c>
-      <c r="AF6" s="27">
+      <c r="AF6" s="25">
         <v>200</v>
       </c>
-      <c r="AG6" s="28">
-        <f>IF($C6="win",AD6/2,IF($C6="rhel",1,IF($C6="suse",1,IF($C6="Ubuntu",1,IF($C6="Oracle Linux",1,IF($C6="Debian",1,IF($C6="OEM Specific",1,0)))))))</f>
+      <c r="AG6" s="26">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AH6" s="29">
-        <f>IF($D6="MS SQL Standard Edition - Active VM",AD6/2,IF($D6="MS SQL Enterprise Edition - Active VM",AD6/2,IF($D6="My SQL Community Edition",1,IF($D6="My SQL Enterprise Edition",1,IF($D6="Postgre SQL Community edition",AD6,IF($D6="Postgre SQL Enterprise Edition",AD6,IF($D6="Oracle Standard Edition",1,IF($D6="Oracle Enterprise",AD6/2,IF($D6="Maria DB Community edition",1,IF($D6="MongoDB Community edition",1,IF($D6="MS SQL Standard Edition - Passive VM",,IF($D6="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="AH6" s="27">
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="AI6" s="30">
+      <c r="AI6" s="28">
         <v>4</v>
       </c>
-      <c r="AJ6" s="30">
+      <c r="AJ6" s="28">
         <v>4</v>
       </c>
-      <c r="AK6" s="30">
+      <c r="AK6" s="28">
         <v>8</v>
       </c>
-      <c r="AL6" s="30">
+      <c r="AL6" s="28">
         <v>200</v>
       </c>
-      <c r="AM6" s="31">
-        <f>IF($C6="win",AJ6/2,IF($C6="rhel",1,IF($C6="suse",1,IF($C6="Ubuntu",1,IF($C6="Oracle Linux",1,IF($C6="Debian",1,IF($C6="OEM Specific",1,0)))))))</f>
+      <c r="AM6" s="29">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AN6" s="32">
-        <f>IF($D6="MS SQL Standard Edition - Active VM",AJ6/2,IF($D6="MS SQL Enterprise Edition - Active VM",AJ6/2,IF($D6="My SQL Community Edition",1,IF($D6="My SQL Enterprise Edition",1,IF($D6="Postgre SQL Community edition",AJ6,IF($D6="Postgre SQL Enterprise Edition",AJ6,IF($D6="Oracle Standard Edition",1,IF($D6="Oracle Enterprise",AJ6/2,IF($D6="Maria DB Community edition",1,IF($D6="MongoDB Community edition",1,IF($D6="MS SQL Standard Edition - Passive VM",,IF($D6="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="AN6" s="30">
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="AO6" s="27">
+      <c r="AO6" s="25">
         <v>4</v>
       </c>
-      <c r="AP6" s="27">
+      <c r="AP6" s="25">
         <v>4</v>
       </c>
-      <c r="AQ6" s="27">
+      <c r="AQ6" s="25">
         <v>8</v>
       </c>
-      <c r="AR6" s="27">
+      <c r="AR6" s="25">
         <v>200</v>
       </c>
-      <c r="AS6" s="28">
-        <f>IF($C6="win",AP6/2,IF($C6="rhel",1,IF($C6="suse",1,IF($C6="Ubuntu",1,IF($C6="Oracle Linux",1,IF($C6="Debian",1,IF($C6="OEM Specific",1,0)))))))</f>
+      <c r="AS6" s="26">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="AT6" s="29">
-        <f>IF($D6="MS SQL Standard Edition - Active VM",AP6/2,IF($D6="MS SQL Enterprise Edition - Active VM",AP6/2,IF($D6="My SQL Community Edition",1,IF($D6="My SQL Enterprise Edition",1,IF($D6="Postgre SQL Community edition",AP6,IF($D6="Postgre SQL Enterprise Edition",AP6,IF($D6="Oracle Standard Edition",1,IF($D6="Oracle Enterprise",AP6/2,IF($D6="Maria DB Community edition",1,IF($D6="MongoDB Community edition",1,IF($D6="MS SQL Standard Edition - Passive VM",,IF($D6="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="AT6" s="27">
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="AU6" s="30">
+      <c r="AU6" s="28">
         <v>4</v>
       </c>
-      <c r="AV6" s="30">
+      <c r="AV6" s="28">
         <v>4</v>
       </c>
-      <c r="AW6" s="30">
+      <c r="AW6" s="28">
         <v>8</v>
       </c>
-      <c r="AX6" s="30">
+      <c r="AX6" s="28">
         <v>200</v>
       </c>
-      <c r="AY6" s="31">
-        <f>IF($C6="win",AV6/2,IF($C6="rhel",1,IF($C6="suse",1,IF($C6="Ubuntu",1,IF($C6="Oracle Linux",1,IF($C6="Debian",1,IF($C6="OEM Specific",1,0)))))))</f>
+      <c r="AY6" s="29">
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="AZ6" s="32">
-        <f>IF($D6="MS SQL Standard Edition - Active VM",AV6/2,IF($D6="MS SQL Enterprise Edition - Active VM",AV6/2,IF($D6="My SQL Community Edition",1,IF($D6="My SQL Enterprise Edition",1,IF($D6="Postgre SQL Community edition",AV6,IF($D6="Postgre SQL Enterprise Edition",AV6,IF($D6="Oracle Standard Edition",1,IF($D6="Oracle Enterprise",AV6/2,IF($D6="Maria DB Community edition",1,IF($D6="MongoDB Community edition",1,IF($D6="MS SQL Standard Edition - Passive VM",,IF($D6="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="AZ6" s="30">
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="BA6" s="27">
+      <c r="BA6" s="25">
         <v>4</v>
       </c>
-      <c r="BB6" s="27">
+      <c r="BB6" s="25">
         <v>4</v>
       </c>
-      <c r="BC6" s="27">
+      <c r="BC6" s="25">
         <v>8</v>
       </c>
-      <c r="BD6" s="27">
+      <c r="BD6" s="25">
         <v>200</v>
       </c>
-      <c r="BE6" s="28">
-        <f>IF($C6="win",BB6/2,IF($C6="rhel",1,IF($C6="suse",1,IF($C6="Ubuntu",1,IF($C6="Oracle Linux",1,IF($C6="Debian",1,IF($C6="OEM Specific",1,0)))))))</f>
+      <c r="BE6" s="26">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="BF6" s="29">
-        <f>IF($D6="MS SQL Standard Edition - Active VM",BB6/2,IF($D6="MS SQL Enterprise Edition - Active VM",BB6/2,IF($D6="My SQL Community Edition",1,IF($D6="My SQL Enterprise Edition",1,IF($D6="Postgre SQL Community edition",BB6,IF($D6="Postgre SQL Enterprise Edition",BB6,IF($D6="Oracle Standard Edition",1,IF($D6="Oracle Enterprise",BB6/2,IF($D6="Maria DB Community edition",1,IF($D6="MongoDB Community edition",1,IF($D6="MS SQL Standard Edition - Passive VM",,IF($D6="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="BF6" s="27">
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
-      <c r="BG6" s="30">
+      <c r="BG6" s="28">
         <v>4</v>
       </c>
-      <c r="BH6" s="30">
+      <c r="BH6" s="28">
         <v>4</v>
       </c>
-      <c r="BI6" s="30">
+      <c r="BI6" s="28">
         <v>8</v>
       </c>
-      <c r="BJ6" s="30">
+      <c r="BJ6" s="28">
         <v>200</v>
       </c>
-      <c r="BK6" s="31">
-        <f>IF($C6="win",BH6/2,IF($C6="rhel",1,IF($C6="suse",1,IF($C6="Ubuntu",1,IF($C6="Oracle Linux",1,IF($C6="Debian",1,IF($C6="OEM Specific",1,0)))))))</f>
+      <c r="BK6" s="29">
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="BL6" s="32">
-        <f>IF($D6="MS SQL Standard Edition - Active VM",BH6/2,IF($D6="MS SQL Enterprise Edition - Active VM",BH6/2,IF($D6="My SQL Community Edition",1,IF($D6="My SQL Enterprise Edition",1,IF($D6="Postgre SQL Community edition",BH6,IF($D6="Postgre SQL Enterprise Edition",BH6,IF($D6="Oracle Standard Edition",1,IF($D6="Oracle Enterprise",BH6/2,IF($D6="Maria DB Community edition",1,IF($D6="MongoDB Community edition",1,IF($D6="MS SQL Standard Edition - Passive VM",,IF($D6="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="BL6" s="30">
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
-      <c r="BM6" s="27">
+      <c r="BM6" s="25">
         <v>4</v>
       </c>
-      <c r="BN6" s="27">
+      <c r="BN6" s="25">
         <v>4</v>
       </c>
-      <c r="BO6" s="27">
+      <c r="BO6" s="25">
         <v>8</v>
       </c>
-      <c r="BP6" s="27">
+      <c r="BP6" s="25">
         <v>200</v>
       </c>
-      <c r="BQ6" s="28">
-        <f>IF($C6="win",BN6/2,IF($C6="rhel",1,IF($C6="suse",1,IF($C6="Ubuntu",1,IF($C6="Oracle Linux",1,IF($C6="Debian",1,IF($C6="OEM Specific",1,0)))))))</f>
+      <c r="BQ6" s="26">
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="BR6" s="29">
-        <f>IF($D6="MS SQL Standard Edition - Active VM",BN6/2,IF($D6="MS SQL Enterprise Edition - Active VM",BN6/2,IF($D6="My SQL Community Edition",1,IF($D6="My SQL Enterprise Edition",1,IF($D6="Postgre SQL Community edition",BN6,IF($D6="Postgre SQL Enterprise Edition",BN6,IF($D6="Oracle Standard Edition",1,IF($D6="Oracle Enterprise",BN6/2,IF($D6="Maria DB Community edition",1,IF($D6="MongoDB Community edition",1,IF($D6="MS SQL Standard Edition - Passive VM",,IF($D6="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="BR6" s="27">
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
-      <c r="BS6" s="30">
+      <c r="BS6" s="28">
         <v>4</v>
       </c>
-      <c r="BT6" s="30">
+      <c r="BT6" s="28">
         <v>4</v>
       </c>
-      <c r="BU6" s="30">
+      <c r="BU6" s="28">
         <v>8</v>
       </c>
-      <c r="BV6" s="30">
+      <c r="BV6" s="28">
         <v>200</v>
       </c>
-      <c r="BW6" s="31">
-        <f>IF($C6="win",BT6/2,IF($C6="rhel",1,IF($C6="suse",1,IF($C6="Ubuntu",1,IF($C6="Oracle Linux",1,IF($C6="Debian",1,IF($C6="OEM Specific",1,0)))))))</f>
+      <c r="BW6" s="29">
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="BX6" s="32">
-        <f>IF($D6="MS SQL Standard Edition - Active VM",BT6/2,IF($D6="MS SQL Enterprise Edition - Active VM",BT6/2,IF($D6="My SQL Community Edition",1,IF($D6="My SQL Enterprise Edition",1,IF($D6="Postgre SQL Community edition",BT6,IF($D6="Postgre SQL Enterprise Edition",BT6,IF($D6="Oracle Standard Edition",1,IF($D6="Oracle Enterprise",BT6/2,IF($D6="Maria DB Community edition",1,IF($D6="MongoDB Community edition",1,IF($D6="MS SQL Standard Edition - Passive VM",,IF($D6="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="BX6" s="30">
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="BY6" s="27">
+      <c r="BY6" s="25">
         <v>4</v>
       </c>
-      <c r="BZ6" s="27">
+      <c r="BZ6" s="25">
         <v>4</v>
       </c>
-      <c r="CA6" s="27">
+      <c r="CA6" s="25">
         <v>8</v>
       </c>
-      <c r="CB6" s="27">
+      <c r="CB6" s="25">
         <v>200</v>
       </c>
-      <c r="CC6" s="28">
-        <f>IF($C6="win",BZ6/2,IF($C6="rhel",1,IF($C6="suse",1,IF($C6="Ubuntu",1,IF($C6="Oracle Linux",1,IF($C6="Debian",1,IF($C6="OEM Specific",1,0)))))))</f>
+      <c r="CC6" s="26">
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="CD6" s="29">
-        <f>IF($D6="MS SQL Standard Edition - Active VM",BZ6/2,IF($D6="MS SQL Enterprise Edition - Active VM",BZ6/2,IF($D6="My SQL Community Edition",1,IF($D6="My SQL Enterprise Edition",1,IF($D6="Postgre SQL Community edition",BZ6,IF($D6="Postgre SQL Enterprise Edition",BZ6,IF($D6="Oracle Standard Edition",1,IF($D6="Oracle Enterprise",BZ6/2,IF($D6="Maria DB Community edition",1,IF($D6="MongoDB Community edition",1,IF($D6="MS SQL Standard Edition - Passive VM",,IF($D6="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="CD6" s="27">
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
-      <c r="CE6" s="30">
+      <c r="CE6" s="28">
         <v>4</v>
       </c>
-      <c r="CF6" s="30">
+      <c r="CF6" s="28">
         <v>4</v>
       </c>
-      <c r="CG6" s="30">
+      <c r="CG6" s="28">
         <v>8</v>
       </c>
-      <c r="CH6" s="30">
+      <c r="CH6" s="28">
         <v>200</v>
       </c>
-      <c r="CI6" s="31">
-        <f>IF($C6="win",CF6/2,IF($C6="rhel",1,IF($C6="suse",1,IF($C6="Ubuntu",1,IF($C6="Oracle Linux",1,IF($C6="Debian",1,IF($C6="OEM Specific",1,0)))))))</f>
+      <c r="CI6" s="29">
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="CJ6" s="32">
-        <f>IF($D6="MS SQL Standard Edition - Active VM",CF6/2,IF($D6="MS SQL Enterprise Edition - Active VM",CF6/2,IF($D6="My SQL Community Edition",1,IF($D6="My SQL Enterprise Edition",1,IF($D6="Postgre SQL Community edition",CF6,IF($D6="Postgre SQL Enterprise Edition",CF6,IF($D6="Oracle Standard Edition",1,IF($D6="Oracle Enterprise",CF6/2,IF($D6="Maria DB Community edition",1,IF($D6="MongoDB Community edition",1,IF($D6="MS SQL Standard Edition - Passive VM",,IF($D6="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="CJ6" s="30">
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="24" t="s">
         <v>7796</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -60134,289 +60142,289 @@
       <c r="D7" s="6" t="s">
         <v>7830</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="25">
         <v>12</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="25">
         <v>12</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="25">
         <v>54</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="25">
         <v>600</v>
       </c>
-      <c r="I7" s="28">
-        <f>IF($C7="win",F7/2,IF($C7="rhel",1,IF($C7="suse",1,IF($C7="Ubuntu",1,IF($C7="Oracle Linux",1,IF($C7="Debian",1,IF($C7="OEM Specific",1,0)))))))</f>
+      <c r="I7" s="26">
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="J7" s="29">
-        <f>IF($D7="MS SQL Standard Edition - Active VM",F7/2,IF($D7="MS SQL Enterprise Edition - Active VM",F7/2,IF($D7="My SQL Community Edition",1,IF($D7="My SQL Enterprise Edition",1,IF($D7="Postgre SQL Community edition",F7,IF($D7="Postgre SQL Enterprise Edition",F7,IF($D7="Oracle Standard Edition",1,IF($D7="Oracle Enterprise",F7/2,IF($D7="Maria DB Community edition",1,IF($D7="MongoDB Community edition",1,IF($D7="MS SQL Standard Edition - Passive VM",,IF($D7="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="J7" s="27">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="K7" s="30">
+      <c r="K7" s="28">
         <v>4</v>
       </c>
-      <c r="L7" s="30">
+      <c r="L7" s="28">
         <v>4</v>
       </c>
-      <c r="M7" s="30">
+      <c r="M7" s="28">
         <v>8</v>
       </c>
-      <c r="N7" s="30">
+      <c r="N7" s="28">
         <v>200</v>
       </c>
-      <c r="O7" s="31">
-        <f>IF($C7="win",L7/2,IF($C7="rhel",1,IF($C7="suse",1,IF($C7="Ubuntu",1,IF($C7="Oracle Linux",1,IF($C7="Debian",1,IF($C7="OEM Specific",1,0)))))))</f>
+      <c r="O7" s="29">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P7" s="32">
-        <f>IF($D7="MS SQL Standard Edition - Active VM",L7/2,IF($D7="MS SQL Enterprise Edition - Active VM",L7/2,IF($D7="My SQL Community Edition",1,IF($D7="My SQL Enterprise Edition",1,IF($D7="Postgre SQL Community edition",L7,IF($D7="Postgre SQL Enterprise Edition",L7,IF($D7="Oracle Standard Edition",1,IF($D7="Oracle Enterprise",L7/2,IF($D7="Maria DB Community edition",1,IF($D7="MongoDB Community edition",1,IF($D7="MS SQL Standard Edition - Passive VM",,IF($D7="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="P7" s="30">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="Q7" s="27">
+      <c r="Q7" s="25">
         <v>4</v>
       </c>
-      <c r="R7" s="27">
+      <c r="R7" s="25">
         <v>4</v>
       </c>
-      <c r="S7" s="27">
+      <c r="S7" s="25">
         <v>8</v>
       </c>
-      <c r="T7" s="27">
+      <c r="T7" s="25">
         <v>200</v>
       </c>
-      <c r="U7" s="28">
-        <f>IF($C7="win",R7/2,IF($C7="rhel",1,IF($C7="suse",1,IF($C7="Ubuntu",1,IF($C7="Oracle Linux",1,IF($C7="Debian",1,IF($C7="OEM Specific",1,0)))))))</f>
+      <c r="U7" s="26">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V7" s="29">
-        <f>IF($D7="MS SQL Standard Edition - Active VM",R7/2,IF($D7="MS SQL Enterprise Edition - Active VM",R7/2,IF($D7="My SQL Community Edition",1,IF($D7="My SQL Enterprise Edition",1,IF($D7="Postgre SQL Community edition",R7,IF($D7="Postgre SQL Enterprise Edition",R7,IF($D7="Oracle Standard Edition",1,IF($D7="Oracle Enterprise",R7/2,IF($D7="Maria DB Community edition",1,IF($D7="MongoDB Community edition",1,IF($D7="MS SQL Standard Edition - Passive VM",,IF($D7="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="V7" s="27">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="W7" s="30">
+      <c r="W7" s="28">
         <v>4</v>
       </c>
-      <c r="X7" s="30">
+      <c r="X7" s="28">
         <v>4</v>
       </c>
-      <c r="Y7" s="30">
+      <c r="Y7" s="28">
         <v>8</v>
       </c>
-      <c r="Z7" s="30">
+      <c r="Z7" s="28">
         <v>200</v>
       </c>
-      <c r="AA7" s="31">
-        <f>IF($C7="win",X7/2,IF($C7="rhel",1,IF($C7="suse",1,IF($C7="Ubuntu",1,IF($C7="Oracle Linux",1,IF($C7="Debian",1,IF($C7="OEM Specific",1,0)))))))</f>
+      <c r="AA7" s="29">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AB7" s="32">
-        <f>IF($D7="MS SQL Standard Edition - Active VM",X7/2,IF($D7="MS SQL Enterprise Edition - Active VM",X7/2,IF($D7="My SQL Community Edition",1,IF($D7="My SQL Enterprise Edition",1,IF($D7="Postgre SQL Community edition",X7,IF($D7="Postgre SQL Enterprise Edition",X7,IF($D7="Oracle Standard Edition",1,IF($D7="Oracle Enterprise",X7/2,IF($D7="Maria DB Community edition",1,IF($D7="MongoDB Community edition",1,IF($D7="MS SQL Standard Edition - Passive VM",,IF($D7="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="AB7" s="30">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="AC7" s="27">
+      <c r="AC7" s="25">
         <v>4</v>
       </c>
-      <c r="AD7" s="27">
+      <c r="AD7" s="25">
         <v>4</v>
       </c>
-      <c r="AE7" s="27">
+      <c r="AE7" s="25">
         <v>8</v>
       </c>
-      <c r="AF7" s="27">
+      <c r="AF7" s="25">
         <v>200</v>
       </c>
-      <c r="AG7" s="28">
-        <f>IF($C7="win",AD7/2,IF($C7="rhel",1,IF($C7="suse",1,IF($C7="Ubuntu",1,IF($C7="Oracle Linux",1,IF($C7="Debian",1,IF($C7="OEM Specific",1,0)))))))</f>
+      <c r="AG7" s="26">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AH7" s="29">
-        <f>IF($D7="MS SQL Standard Edition - Active VM",AD7/2,IF($D7="MS SQL Enterprise Edition - Active VM",AD7/2,IF($D7="My SQL Community Edition",1,IF($D7="My SQL Enterprise Edition",1,IF($D7="Postgre SQL Community edition",AD7,IF($D7="Postgre SQL Enterprise Edition",AD7,IF($D7="Oracle Standard Edition",1,IF($D7="Oracle Enterprise",AD7/2,IF($D7="Maria DB Community edition",1,IF($D7="MongoDB Community edition",1,IF($D7="MS SQL Standard Edition - Passive VM",,IF($D7="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="AH7" s="27">
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="AI7" s="30">
+      <c r="AI7" s="28">
         <v>4</v>
       </c>
-      <c r="AJ7" s="30">
+      <c r="AJ7" s="28">
         <v>4</v>
       </c>
-      <c r="AK7" s="30">
+      <c r="AK7" s="28">
         <v>8</v>
       </c>
-      <c r="AL7" s="30">
+      <c r="AL7" s="28">
         <v>200</v>
       </c>
-      <c r="AM7" s="31">
-        <f>IF($C7="win",AJ7/2,IF($C7="rhel",1,IF($C7="suse",1,IF($C7="Ubuntu",1,IF($C7="Oracle Linux",1,IF($C7="Debian",1,IF($C7="OEM Specific",1,0)))))))</f>
+      <c r="AM7" s="29">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AN7" s="32">
-        <f>IF($D7="MS SQL Standard Edition - Active VM",AJ7/2,IF($D7="MS SQL Enterprise Edition - Active VM",AJ7/2,IF($D7="My SQL Community Edition",1,IF($D7="My SQL Enterprise Edition",1,IF($D7="Postgre SQL Community edition",AJ7,IF($D7="Postgre SQL Enterprise Edition",AJ7,IF($D7="Oracle Standard Edition",1,IF($D7="Oracle Enterprise",AJ7/2,IF($D7="Maria DB Community edition",1,IF($D7="MongoDB Community edition",1,IF($D7="MS SQL Standard Edition - Passive VM",,IF($D7="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="AN7" s="30">
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="AO7" s="27">
+      <c r="AO7" s="25">
         <v>4</v>
       </c>
-      <c r="AP7" s="27">
+      <c r="AP7" s="25">
         <v>4</v>
       </c>
-      <c r="AQ7" s="27">
+      <c r="AQ7" s="25">
         <v>8</v>
       </c>
-      <c r="AR7" s="27">
+      <c r="AR7" s="25">
         <v>200</v>
       </c>
-      <c r="AS7" s="28">
-        <f>IF($C7="win",AP7/2,IF($C7="rhel",1,IF($C7="suse",1,IF($C7="Ubuntu",1,IF($C7="Oracle Linux",1,IF($C7="Debian",1,IF($C7="OEM Specific",1,0)))))))</f>
+      <c r="AS7" s="26">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="AT7" s="29">
-        <f>IF($D7="MS SQL Standard Edition - Active VM",AP7/2,IF($D7="MS SQL Enterprise Edition - Active VM",AP7/2,IF($D7="My SQL Community Edition",1,IF($D7="My SQL Enterprise Edition",1,IF($D7="Postgre SQL Community edition",AP7,IF($D7="Postgre SQL Enterprise Edition",AP7,IF($D7="Oracle Standard Edition",1,IF($D7="Oracle Enterprise",AP7/2,IF($D7="Maria DB Community edition",1,IF($D7="MongoDB Community edition",1,IF($D7="MS SQL Standard Edition - Passive VM",,IF($D7="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="AT7" s="27">
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="AU7" s="30">
+      <c r="AU7" s="28">
         <v>4</v>
       </c>
-      <c r="AV7" s="30">
+      <c r="AV7" s="28">
         <v>4</v>
       </c>
-      <c r="AW7" s="30">
+      <c r="AW7" s="28">
         <v>8</v>
       </c>
-      <c r="AX7" s="30">
+      <c r="AX7" s="28">
         <v>200</v>
       </c>
-      <c r="AY7" s="31">
-        <f>IF($C7="win",AV7/2,IF($C7="rhel",1,IF($C7="suse",1,IF($C7="Ubuntu",1,IF($C7="Oracle Linux",1,IF($C7="Debian",1,IF($C7="OEM Specific",1,0)))))))</f>
+      <c r="AY7" s="29">
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="AZ7" s="32">
-        <f>IF($D7="MS SQL Standard Edition - Active VM",AV7/2,IF($D7="MS SQL Enterprise Edition - Active VM",AV7/2,IF($D7="My SQL Community Edition",1,IF($D7="My SQL Enterprise Edition",1,IF($D7="Postgre SQL Community edition",AV7,IF($D7="Postgre SQL Enterprise Edition",AV7,IF($D7="Oracle Standard Edition",1,IF($D7="Oracle Enterprise",AV7/2,IF($D7="Maria DB Community edition",1,IF($D7="MongoDB Community edition",1,IF($D7="MS SQL Standard Edition - Passive VM",,IF($D7="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="AZ7" s="30">
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="BA7" s="27">
+      <c r="BA7" s="25">
         <v>4</v>
       </c>
-      <c r="BB7" s="27">
+      <c r="BB7" s="25">
         <v>4</v>
       </c>
-      <c r="BC7" s="27">
+      <c r="BC7" s="25">
         <v>8</v>
       </c>
-      <c r="BD7" s="27">
+      <c r="BD7" s="25">
         <v>200</v>
       </c>
-      <c r="BE7" s="28">
-        <f>IF($C7="win",BB7/2,IF($C7="rhel",1,IF($C7="suse",1,IF($C7="Ubuntu",1,IF($C7="Oracle Linux",1,IF($C7="Debian",1,IF($C7="OEM Specific",1,0)))))))</f>
+      <c r="BE7" s="26">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="BF7" s="29">
-        <f>IF($D7="MS SQL Standard Edition - Active VM",BB7/2,IF($D7="MS SQL Enterprise Edition - Active VM",BB7/2,IF($D7="My SQL Community Edition",1,IF($D7="My SQL Enterprise Edition",1,IF($D7="Postgre SQL Community edition",BB7,IF($D7="Postgre SQL Enterprise Edition",BB7,IF($D7="Oracle Standard Edition",1,IF($D7="Oracle Enterprise",BB7/2,IF($D7="Maria DB Community edition",1,IF($D7="MongoDB Community edition",1,IF($D7="MS SQL Standard Edition - Passive VM",,IF($D7="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="BF7" s="27">
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
-      <c r="BG7" s="30">
+      <c r="BG7" s="28">
         <v>4</v>
       </c>
-      <c r="BH7" s="30">
+      <c r="BH7" s="28">
         <v>4</v>
       </c>
-      <c r="BI7" s="30">
+      <c r="BI7" s="28">
         <v>8</v>
       </c>
-      <c r="BJ7" s="30">
+      <c r="BJ7" s="28">
         <v>200</v>
       </c>
-      <c r="BK7" s="31">
-        <f>IF($C7="win",BH7/2,IF($C7="rhel",1,IF($C7="suse",1,IF($C7="Ubuntu",1,IF($C7="Oracle Linux",1,IF($C7="Debian",1,IF($C7="OEM Specific",1,0)))))))</f>
+      <c r="BK7" s="29">
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="BL7" s="32">
-        <f>IF($D7="MS SQL Standard Edition - Active VM",BH7/2,IF($D7="MS SQL Enterprise Edition - Active VM",BH7/2,IF($D7="My SQL Community Edition",1,IF($D7="My SQL Enterprise Edition",1,IF($D7="Postgre SQL Community edition",BH7,IF($D7="Postgre SQL Enterprise Edition",BH7,IF($D7="Oracle Standard Edition",1,IF($D7="Oracle Enterprise",BH7/2,IF($D7="Maria DB Community edition",1,IF($D7="MongoDB Community edition",1,IF($D7="MS SQL Standard Edition - Passive VM",,IF($D7="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="BL7" s="30">
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
-      <c r="BM7" s="27">
+      <c r="BM7" s="25">
         <v>4</v>
       </c>
-      <c r="BN7" s="27">
+      <c r="BN7" s="25">
         <v>4</v>
       </c>
-      <c r="BO7" s="27">
+      <c r="BO7" s="25">
         <v>8</v>
       </c>
-      <c r="BP7" s="27">
+      <c r="BP7" s="25">
         <v>200</v>
       </c>
-      <c r="BQ7" s="28">
-        <f>IF($C7="win",BN7/2,IF($C7="rhel",1,IF($C7="suse",1,IF($C7="Ubuntu",1,IF($C7="Oracle Linux",1,IF($C7="Debian",1,IF($C7="OEM Specific",1,0)))))))</f>
+      <c r="BQ7" s="26">
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="BR7" s="29">
-        <f>IF($D7="MS SQL Standard Edition - Active VM",BN7/2,IF($D7="MS SQL Enterprise Edition - Active VM",BN7/2,IF($D7="My SQL Community Edition",1,IF($D7="My SQL Enterprise Edition",1,IF($D7="Postgre SQL Community edition",BN7,IF($D7="Postgre SQL Enterprise Edition",BN7,IF($D7="Oracle Standard Edition",1,IF($D7="Oracle Enterprise",BN7/2,IF($D7="Maria DB Community edition",1,IF($D7="MongoDB Community edition",1,IF($D7="MS SQL Standard Edition - Passive VM",,IF($D7="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="BR7" s="27">
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
-      <c r="BS7" s="30">
+      <c r="BS7" s="28">
         <v>4</v>
       </c>
-      <c r="BT7" s="30">
+      <c r="BT7" s="28">
         <v>4</v>
       </c>
-      <c r="BU7" s="30">
+      <c r="BU7" s="28">
         <v>8</v>
       </c>
-      <c r="BV7" s="30">
+      <c r="BV7" s="28">
         <v>200</v>
       </c>
-      <c r="BW7" s="31">
-        <f>IF($C7="win",BT7/2,IF($C7="rhel",1,IF($C7="suse",1,IF($C7="Ubuntu",1,IF($C7="Oracle Linux",1,IF($C7="Debian",1,IF($C7="OEM Specific",1,0)))))))</f>
+      <c r="BW7" s="29">
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="BX7" s="32">
-        <f>IF($D7="MS SQL Standard Edition - Active VM",BT7/2,IF($D7="MS SQL Enterprise Edition - Active VM",BT7/2,IF($D7="My SQL Community Edition",1,IF($D7="My SQL Enterprise Edition",1,IF($D7="Postgre SQL Community edition",BT7,IF($D7="Postgre SQL Enterprise Edition",BT7,IF($D7="Oracle Standard Edition",1,IF($D7="Oracle Enterprise",BT7/2,IF($D7="Maria DB Community edition",1,IF($D7="MongoDB Community edition",1,IF($D7="MS SQL Standard Edition - Passive VM",,IF($D7="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="BX7" s="30">
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="BY7" s="27">
+      <c r="BY7" s="25">
         <v>4</v>
       </c>
-      <c r="BZ7" s="27">
+      <c r="BZ7" s="25">
         <v>4</v>
       </c>
-      <c r="CA7" s="27">
+      <c r="CA7" s="25">
         <v>8</v>
       </c>
-      <c r="CB7" s="27">
+      <c r="CB7" s="25">
         <v>200</v>
       </c>
-      <c r="CC7" s="28">
-        <f>IF($C7="win",BZ7/2,IF($C7="rhel",1,IF($C7="suse",1,IF($C7="Ubuntu",1,IF($C7="Oracle Linux",1,IF($C7="Debian",1,IF($C7="OEM Specific",1,0)))))))</f>
+      <c r="CC7" s="26">
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="CD7" s="29">
-        <f>IF($D7="MS SQL Standard Edition - Active VM",BZ7/2,IF($D7="MS SQL Enterprise Edition - Active VM",BZ7/2,IF($D7="My SQL Community Edition",1,IF($D7="My SQL Enterprise Edition",1,IF($D7="Postgre SQL Community edition",BZ7,IF($D7="Postgre SQL Enterprise Edition",BZ7,IF($D7="Oracle Standard Edition",1,IF($D7="Oracle Enterprise",BZ7/2,IF($D7="Maria DB Community edition",1,IF($D7="MongoDB Community edition",1,IF($D7="MS SQL Standard Edition - Passive VM",,IF($D7="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="CD7" s="27">
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
-      <c r="CE7" s="30">
+      <c r="CE7" s="28">
         <v>4</v>
       </c>
-      <c r="CF7" s="30">
+      <c r="CF7" s="28">
         <v>4</v>
       </c>
-      <c r="CG7" s="30">
+      <c r="CG7" s="28">
         <v>8</v>
       </c>
-      <c r="CH7" s="30">
+      <c r="CH7" s="28">
         <v>200</v>
       </c>
-      <c r="CI7" s="31">
-        <f>IF($C7="win",CF7/2,IF($C7="rhel",1,IF($C7="suse",1,IF($C7="Ubuntu",1,IF($C7="Oracle Linux",1,IF($C7="Debian",1,IF($C7="OEM Specific",1,0)))))))</f>
+      <c r="CI7" s="29">
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="CJ7" s="32">
-        <f>IF($D7="MS SQL Standard Edition - Active VM",CF7/2,IF($D7="MS SQL Enterprise Edition - Active VM",CF7/2,IF($D7="My SQL Community Edition",1,IF($D7="My SQL Enterprise Edition",1,IF($D7="Postgre SQL Community edition",CF7,IF($D7="Postgre SQL Enterprise Edition",CF7,IF($D7="Oracle Standard Edition",1,IF($D7="Oracle Enterprise",CF7/2,IF($D7="Maria DB Community edition",1,IF($D7="MongoDB Community edition",1,IF($D7="MS SQL Standard Edition - Passive VM",,IF($D7="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="CJ7" s="30">
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="24" t="s">
         <v>7796</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -60428,289 +60436,289 @@
       <c r="D8" s="6" t="s">
         <v>7831</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="25">
         <v>14</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="25">
         <v>10</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="25">
         <v>52</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="25">
         <v>400</v>
       </c>
-      <c r="I8" s="28">
-        <f>IF($C8="win",F8/2,IF($C8="rhel",1,IF($C8="suse",1,IF($C8="Ubuntu",1,IF($C8="Oracle Linux",1,IF($C8="Debian",1,IF($C8="OEM Specific",1,0)))))))</f>
+      <c r="I8" s="26">
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="J8" s="29">
-        <f>IF($D8="MS SQL Standard Edition - Active VM",F8/2,IF($D8="MS SQL Enterprise Edition - Active VM",F8/2,IF($D8="My SQL Community Edition",1,IF($D8="My SQL Enterprise Edition",1,IF($D8="Postgre SQL Community edition",F8,IF($D8="Postgre SQL Enterprise Edition",F8,IF($D8="Oracle Standard Edition",1,IF($D8="Oracle Enterprise",F8/2,IF($D8="Maria DB Community edition",1,IF($D8="MongoDB Community edition",1,IF($D8="MS SQL Standard Edition - Passive VM",,IF($D8="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="J8" s="27">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K8" s="30">
+      <c r="K8" s="28">
         <v>4</v>
       </c>
-      <c r="L8" s="30">
+      <c r="L8" s="28">
         <v>4</v>
       </c>
-      <c r="M8" s="30">
+      <c r="M8" s="28">
         <v>8</v>
       </c>
-      <c r="N8" s="30">
+      <c r="N8" s="28">
         <v>200</v>
       </c>
-      <c r="O8" s="31">
-        <f>IF($C8="win",L8/2,IF($C8="rhel",1,IF($C8="suse",1,IF($C8="Ubuntu",1,IF($C8="Oracle Linux",1,IF($C8="Debian",1,IF($C8="OEM Specific",1,0)))))))</f>
+      <c r="O8" s="29">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P8" s="32">
-        <f>IF($D8="MS SQL Standard Edition - Active VM",L8/2,IF($D8="MS SQL Enterprise Edition - Active VM",L8/2,IF($D8="My SQL Community Edition",1,IF($D8="My SQL Enterprise Edition",1,IF($D8="Postgre SQL Community edition",L8,IF($D8="Postgre SQL Enterprise Edition",L8,IF($D8="Oracle Standard Edition",1,IF($D8="Oracle Enterprise",L8/2,IF($D8="Maria DB Community edition",1,IF($D8="MongoDB Community edition",1,IF($D8="MS SQL Standard Edition - Passive VM",,IF($D8="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="P8" s="30">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q8" s="27">
+      <c r="Q8" s="25">
         <v>4</v>
       </c>
-      <c r="R8" s="27">
+      <c r="R8" s="25">
         <v>4</v>
       </c>
-      <c r="S8" s="27">
+      <c r="S8" s="25">
         <v>8</v>
       </c>
-      <c r="T8" s="27">
+      <c r="T8" s="25">
         <v>200</v>
       </c>
-      <c r="U8" s="28">
-        <f>IF($C8="win",R8/2,IF($C8="rhel",1,IF($C8="suse",1,IF($C8="Ubuntu",1,IF($C8="Oracle Linux",1,IF($C8="Debian",1,IF($C8="OEM Specific",1,0)))))))</f>
+      <c r="U8" s="26">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V8" s="29">
-        <f>IF($D8="MS SQL Standard Edition - Active VM",R8/2,IF($D8="MS SQL Enterprise Edition - Active VM",R8/2,IF($D8="My SQL Community Edition",1,IF($D8="My SQL Enterprise Edition",1,IF($D8="Postgre SQL Community edition",R8,IF($D8="Postgre SQL Enterprise Edition",R8,IF($D8="Oracle Standard Edition",1,IF($D8="Oracle Enterprise",R8/2,IF($D8="Maria DB Community edition",1,IF($D8="MongoDB Community edition",1,IF($D8="MS SQL Standard Edition - Passive VM",,IF($D8="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="V8" s="27">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="W8" s="30">
+      <c r="W8" s="28">
         <v>4</v>
       </c>
-      <c r="X8" s="30">
+      <c r="X8" s="28">
         <v>4</v>
       </c>
-      <c r="Y8" s="30">
+      <c r="Y8" s="28">
         <v>8</v>
       </c>
-      <c r="Z8" s="30">
+      <c r="Z8" s="28">
         <v>200</v>
       </c>
-      <c r="AA8" s="31">
-        <f>IF($C8="win",X8/2,IF($C8="rhel",1,IF($C8="suse",1,IF($C8="Ubuntu",1,IF($C8="Oracle Linux",1,IF($C8="Debian",1,IF($C8="OEM Specific",1,0)))))))</f>
+      <c r="AA8" s="29">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AB8" s="32">
-        <f>IF($D8="MS SQL Standard Edition - Active VM",X8/2,IF($D8="MS SQL Enterprise Edition - Active VM",X8/2,IF($D8="My SQL Community Edition",1,IF($D8="My SQL Enterprise Edition",1,IF($D8="Postgre SQL Community edition",X8,IF($D8="Postgre SQL Enterprise Edition",X8,IF($D8="Oracle Standard Edition",1,IF($D8="Oracle Enterprise",X8/2,IF($D8="Maria DB Community edition",1,IF($D8="MongoDB Community edition",1,IF($D8="MS SQL Standard Edition - Passive VM",,IF($D8="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="AB8" s="30">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AC8" s="27">
+      <c r="AC8" s="25">
         <v>4</v>
       </c>
-      <c r="AD8" s="27">
+      <c r="AD8" s="25">
         <v>4</v>
       </c>
-      <c r="AE8" s="27">
+      <c r="AE8" s="25">
         <v>8</v>
       </c>
-      <c r="AF8" s="27">
+      <c r="AF8" s="25">
         <v>200</v>
       </c>
-      <c r="AG8" s="28">
-        <f>IF($C8="win",AD8/2,IF($C8="rhel",1,IF($C8="suse",1,IF($C8="Ubuntu",1,IF($C8="Oracle Linux",1,IF($C8="Debian",1,IF($C8="OEM Specific",1,0)))))))</f>
+      <c r="AG8" s="26">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AH8" s="29">
-        <f>IF($D8="MS SQL Standard Edition - Active VM",AD8/2,IF($D8="MS SQL Enterprise Edition - Active VM",AD8/2,IF($D8="My SQL Community Edition",1,IF($D8="My SQL Enterprise Edition",1,IF($D8="Postgre SQL Community edition",AD8,IF($D8="Postgre SQL Enterprise Edition",AD8,IF($D8="Oracle Standard Edition",1,IF($D8="Oracle Enterprise",AD8/2,IF($D8="Maria DB Community edition",1,IF($D8="MongoDB Community edition",1,IF($D8="MS SQL Standard Edition - Passive VM",,IF($D8="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="AH8" s="27">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AI8" s="30">
+      <c r="AI8" s="28">
         <v>4</v>
       </c>
-      <c r="AJ8" s="30">
+      <c r="AJ8" s="28">
         <v>4</v>
       </c>
-      <c r="AK8" s="30">
+      <c r="AK8" s="28">
         <v>8</v>
       </c>
-      <c r="AL8" s="30">
+      <c r="AL8" s="28">
         <v>200</v>
       </c>
-      <c r="AM8" s="31">
-        <f>IF($C8="win",AJ8/2,IF($C8="rhel",1,IF($C8="suse",1,IF($C8="Ubuntu",1,IF($C8="Oracle Linux",1,IF($C8="Debian",1,IF($C8="OEM Specific",1,0)))))))</f>
+      <c r="AM8" s="29">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AN8" s="32">
-        <f>IF($D8="MS SQL Standard Edition - Active VM",AJ8/2,IF($D8="MS SQL Enterprise Edition - Active VM",AJ8/2,IF($D8="My SQL Community Edition",1,IF($D8="My SQL Enterprise Edition",1,IF($D8="Postgre SQL Community edition",AJ8,IF($D8="Postgre SQL Enterprise Edition",AJ8,IF($D8="Oracle Standard Edition",1,IF($D8="Oracle Enterprise",AJ8/2,IF($D8="Maria DB Community edition",1,IF($D8="MongoDB Community edition",1,IF($D8="MS SQL Standard Edition - Passive VM",,IF($D8="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="AN8" s="30">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AO8" s="27">
+      <c r="AO8" s="25">
         <v>4</v>
       </c>
-      <c r="AP8" s="27">
+      <c r="AP8" s="25">
         <v>4</v>
       </c>
-      <c r="AQ8" s="27">
+      <c r="AQ8" s="25">
         <v>8</v>
       </c>
-      <c r="AR8" s="27">
+      <c r="AR8" s="25">
         <v>200</v>
       </c>
-      <c r="AS8" s="28">
-        <f>IF($C8="win",AP8/2,IF($C8="rhel",1,IF($C8="suse",1,IF($C8="Ubuntu",1,IF($C8="Oracle Linux",1,IF($C8="Debian",1,IF($C8="OEM Specific",1,0)))))))</f>
+      <c r="AS8" s="26">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="AT8" s="29">
-        <f>IF($D8="MS SQL Standard Edition - Active VM",AP8/2,IF($D8="MS SQL Enterprise Edition - Active VM",AP8/2,IF($D8="My SQL Community Edition",1,IF($D8="My SQL Enterprise Edition",1,IF($D8="Postgre SQL Community edition",AP8,IF($D8="Postgre SQL Enterprise Edition",AP8,IF($D8="Oracle Standard Edition",1,IF($D8="Oracle Enterprise",AP8/2,IF($D8="Maria DB Community edition",1,IF($D8="MongoDB Community edition",1,IF($D8="MS SQL Standard Edition - Passive VM",,IF($D8="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="AT8" s="27">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="AU8" s="30">
+      <c r="AU8" s="28">
         <v>4</v>
       </c>
-      <c r="AV8" s="30">
+      <c r="AV8" s="28">
         <v>4</v>
       </c>
-      <c r="AW8" s="30">
+      <c r="AW8" s="28">
         <v>8</v>
       </c>
-      <c r="AX8" s="30">
+      <c r="AX8" s="28">
         <v>200</v>
       </c>
-      <c r="AY8" s="31">
-        <f>IF($C8="win",AV8/2,IF($C8="rhel",1,IF($C8="suse",1,IF($C8="Ubuntu",1,IF($C8="Oracle Linux",1,IF($C8="Debian",1,IF($C8="OEM Specific",1,0)))))))</f>
+      <c r="AY8" s="29">
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="AZ8" s="32">
-        <f>IF($D8="MS SQL Standard Edition - Active VM",AV8/2,IF($D8="MS SQL Enterprise Edition - Active VM",AV8/2,IF($D8="My SQL Community Edition",1,IF($D8="My SQL Enterprise Edition",1,IF($D8="Postgre SQL Community edition",AV8,IF($D8="Postgre SQL Enterprise Edition",AV8,IF($D8="Oracle Standard Edition",1,IF($D8="Oracle Enterprise",AV8/2,IF($D8="Maria DB Community edition",1,IF($D8="MongoDB Community edition",1,IF($D8="MS SQL Standard Edition - Passive VM",,IF($D8="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="AZ8" s="30">
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="BA8" s="27">
+      <c r="BA8" s="25">
         <v>4</v>
       </c>
-      <c r="BB8" s="27">
+      <c r="BB8" s="25">
         <v>4</v>
       </c>
-      <c r="BC8" s="27">
+      <c r="BC8" s="25">
         <v>8</v>
       </c>
-      <c r="BD8" s="27">
+      <c r="BD8" s="25">
         <v>200</v>
       </c>
-      <c r="BE8" s="28">
-        <f>IF($C8="win",BB8/2,IF($C8="rhel",1,IF($C8="suse",1,IF($C8="Ubuntu",1,IF($C8="Oracle Linux",1,IF($C8="Debian",1,IF($C8="OEM Specific",1,0)))))))</f>
+      <c r="BE8" s="26">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="BF8" s="29">
-        <f>IF($D8="MS SQL Standard Edition - Active VM",BB8/2,IF($D8="MS SQL Enterprise Edition - Active VM",BB8/2,IF($D8="My SQL Community Edition",1,IF($D8="My SQL Enterprise Edition",1,IF($D8="Postgre SQL Community edition",BB8,IF($D8="Postgre SQL Enterprise Edition",BB8,IF($D8="Oracle Standard Edition",1,IF($D8="Oracle Enterprise",BB8/2,IF($D8="Maria DB Community edition",1,IF($D8="MongoDB Community edition",1,IF($D8="MS SQL Standard Edition - Passive VM",,IF($D8="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="BF8" s="27">
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="BG8" s="30">
+      <c r="BG8" s="28">
         <v>4</v>
       </c>
-      <c r="BH8" s="30">
+      <c r="BH8" s="28">
         <v>4</v>
       </c>
-      <c r="BI8" s="30">
+      <c r="BI8" s="28">
         <v>8</v>
       </c>
-      <c r="BJ8" s="30">
+      <c r="BJ8" s="28">
         <v>200</v>
       </c>
-      <c r="BK8" s="31">
-        <f>IF($C8="win",BH8/2,IF($C8="rhel",1,IF($C8="suse",1,IF($C8="Ubuntu",1,IF($C8="Oracle Linux",1,IF($C8="Debian",1,IF($C8="OEM Specific",1,0)))))))</f>
+      <c r="BK8" s="29">
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="BL8" s="32">
-        <f>IF($D8="MS SQL Standard Edition - Active VM",BH8/2,IF($D8="MS SQL Enterprise Edition - Active VM",BH8/2,IF($D8="My SQL Community Edition",1,IF($D8="My SQL Enterprise Edition",1,IF($D8="Postgre SQL Community edition",BH8,IF($D8="Postgre SQL Enterprise Edition",BH8,IF($D8="Oracle Standard Edition",1,IF($D8="Oracle Enterprise",BH8/2,IF($D8="Maria DB Community edition",1,IF($D8="MongoDB Community edition",1,IF($D8="MS SQL Standard Edition - Passive VM",,IF($D8="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="BL8" s="30">
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="BM8" s="27">
+      <c r="BM8" s="25">
         <v>4</v>
       </c>
-      <c r="BN8" s="27">
+      <c r="BN8" s="25">
         <v>4</v>
       </c>
-      <c r="BO8" s="27">
+      <c r="BO8" s="25">
         <v>8</v>
       </c>
-      <c r="BP8" s="27">
+      <c r="BP8" s="25">
         <v>200</v>
       </c>
-      <c r="BQ8" s="28">
-        <f>IF($C8="win",BN8/2,IF($C8="rhel",1,IF($C8="suse",1,IF($C8="Ubuntu",1,IF($C8="Oracle Linux",1,IF($C8="Debian",1,IF($C8="OEM Specific",1,0)))))))</f>
+      <c r="BQ8" s="26">
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="BR8" s="29">
-        <f>IF($D8="MS SQL Standard Edition - Active VM",BN8/2,IF($D8="MS SQL Enterprise Edition - Active VM",BN8/2,IF($D8="My SQL Community Edition",1,IF($D8="My SQL Enterprise Edition",1,IF($D8="Postgre SQL Community edition",BN8,IF($D8="Postgre SQL Enterprise Edition",BN8,IF($D8="Oracle Standard Edition",1,IF($D8="Oracle Enterprise",BN8/2,IF($D8="Maria DB Community edition",1,IF($D8="MongoDB Community edition",1,IF($D8="MS SQL Standard Edition - Passive VM",,IF($D8="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="BR8" s="27">
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="BS8" s="30">
+      <c r="BS8" s="28">
         <v>4</v>
       </c>
-      <c r="BT8" s="30">
+      <c r="BT8" s="28">
         <v>4</v>
       </c>
-      <c r="BU8" s="30">
+      <c r="BU8" s="28">
         <v>8</v>
       </c>
-      <c r="BV8" s="30">
+      <c r="BV8" s="28">
         <v>200</v>
       </c>
-      <c r="BW8" s="31">
-        <f>IF($C8="win",BT8/2,IF($C8="rhel",1,IF($C8="suse",1,IF($C8="Ubuntu",1,IF($C8="Oracle Linux",1,IF($C8="Debian",1,IF($C8="OEM Specific",1,0)))))))</f>
+      <c r="BW8" s="29">
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="BX8" s="32">
-        <f>IF($D8="MS SQL Standard Edition - Active VM",BT8/2,IF($D8="MS SQL Enterprise Edition - Active VM",BT8/2,IF($D8="My SQL Community Edition",1,IF($D8="My SQL Enterprise Edition",1,IF($D8="Postgre SQL Community edition",BT8,IF($D8="Postgre SQL Enterprise Edition",BT8,IF($D8="Oracle Standard Edition",1,IF($D8="Oracle Enterprise",BT8/2,IF($D8="Maria DB Community edition",1,IF($D8="MongoDB Community edition",1,IF($D8="MS SQL Standard Edition - Passive VM",,IF($D8="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="BX8" s="30">
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="BY8" s="27">
+      <c r="BY8" s="25">
         <v>4</v>
       </c>
-      <c r="BZ8" s="27">
+      <c r="BZ8" s="25">
         <v>4</v>
       </c>
-      <c r="CA8" s="27">
+      <c r="CA8" s="25">
         <v>8</v>
       </c>
-      <c r="CB8" s="27">
+      <c r="CB8" s="25">
         <v>200</v>
       </c>
-      <c r="CC8" s="28">
-        <f>IF($C8="win",BZ8/2,IF($C8="rhel",1,IF($C8="suse",1,IF($C8="Ubuntu",1,IF($C8="Oracle Linux",1,IF($C8="Debian",1,IF($C8="OEM Specific",1,0)))))))</f>
+      <c r="CC8" s="26">
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="CD8" s="29">
-        <f>IF($D8="MS SQL Standard Edition - Active VM",BZ8/2,IF($D8="MS SQL Enterprise Edition - Active VM",BZ8/2,IF($D8="My SQL Community Edition",1,IF($D8="My SQL Enterprise Edition",1,IF($D8="Postgre SQL Community edition",BZ8,IF($D8="Postgre SQL Enterprise Edition",BZ8,IF($D8="Oracle Standard Edition",1,IF($D8="Oracle Enterprise",BZ8/2,IF($D8="Maria DB Community edition",1,IF($D8="MongoDB Community edition",1,IF($D8="MS SQL Standard Edition - Passive VM",,IF($D8="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="CD8" s="27">
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="CE8" s="30">
+      <c r="CE8" s="28">
         <v>4</v>
       </c>
-      <c r="CF8" s="30">
+      <c r="CF8" s="28">
         <v>4</v>
       </c>
-      <c r="CG8" s="30">
+      <c r="CG8" s="28">
         <v>8</v>
       </c>
-      <c r="CH8" s="30">
+      <c r="CH8" s="28">
         <v>200</v>
       </c>
-      <c r="CI8" s="31">
-        <f>IF($C8="win",CF8/2,IF($C8="rhel",1,IF($C8="suse",1,IF($C8="Ubuntu",1,IF($C8="Oracle Linux",1,IF($C8="Debian",1,IF($C8="OEM Specific",1,0)))))))</f>
+      <c r="CI8" s="29">
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="CJ8" s="32">
-        <f>IF($D8="MS SQL Standard Edition - Active VM",CF8/2,IF($D8="MS SQL Enterprise Edition - Active VM",CF8/2,IF($D8="My SQL Community Edition",1,IF($D8="My SQL Enterprise Edition",1,IF($D8="Postgre SQL Community edition",CF8,IF($D8="Postgre SQL Enterprise Edition",CF8,IF($D8="Oracle Standard Edition",1,IF($D8="Oracle Enterprise",CF8/2,IF($D8="Maria DB Community edition",1,IF($D8="MongoDB Community edition",1,IF($D8="MS SQL Standard Edition - Passive VM",,IF($D8="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="CJ8" s="30">
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="24" t="s">
         <v>7796</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -60722,289 +60730,289 @@
       <c r="D9" s="6" t="s">
         <v>7832</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="25">
         <v>16</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="25">
         <v>8</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="25">
         <v>50</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="25">
         <v>200</v>
       </c>
-      <c r="I9" s="28">
-        <f>IF($C9="win",F9/2,IF($C9="rhel",1,IF($C9="suse",1,IF($C9="Ubuntu",1,IF($C9="Oracle Linux",1,IF($C9="Debian",1,IF($C9="OEM Specific",1,0)))))))</f>
+      <c r="I9" s="26">
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="J9" s="29">
-        <f>IF($D9="MS SQL Standard Edition - Active VM",F9/2,IF($D9="MS SQL Enterprise Edition - Active VM",F9/2,IF($D9="My SQL Community Edition",1,IF($D9="My SQL Enterprise Edition",1,IF($D9="Postgre SQL Community edition",F9,IF($D9="Postgre SQL Enterprise Edition",F9,IF($D9="Oracle Standard Edition",1,IF($D9="Oracle Enterprise",F9/2,IF($D9="Maria DB Community edition",1,IF($D9="MongoDB Community edition",1,IF($D9="MS SQL Standard Edition - Passive VM",,IF($D9="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="J9" s="27">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K9" s="30">
+      <c r="K9" s="28">
         <v>4</v>
       </c>
-      <c r="L9" s="30">
+      <c r="L9" s="28">
         <v>4</v>
       </c>
-      <c r="M9" s="30">
+      <c r="M9" s="28">
         <v>8</v>
       </c>
-      <c r="N9" s="30">
+      <c r="N9" s="28">
         <v>200</v>
       </c>
-      <c r="O9" s="31">
-        <f>IF($C9="win",L9/2,IF($C9="rhel",1,IF($C9="suse",1,IF($C9="Ubuntu",1,IF($C9="Oracle Linux",1,IF($C9="Debian",1,IF($C9="OEM Specific",1,0)))))))</f>
+      <c r="O9" s="29">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P9" s="32">
-        <f>IF($D9="MS SQL Standard Edition - Active VM",L9/2,IF($D9="MS SQL Enterprise Edition - Active VM",L9/2,IF($D9="My SQL Community Edition",1,IF($D9="My SQL Enterprise Edition",1,IF($D9="Postgre SQL Community edition",L9,IF($D9="Postgre SQL Enterprise Edition",L9,IF($D9="Oracle Standard Edition",1,IF($D9="Oracle Enterprise",L9/2,IF($D9="Maria DB Community edition",1,IF($D9="MongoDB Community edition",1,IF($D9="MS SQL Standard Edition - Passive VM",,IF($D9="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="Q9" s="27">
+      <c r="P9" s="30">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q9" s="25">
         <v>4</v>
       </c>
-      <c r="R9" s="27">
+      <c r="R9" s="25">
         <v>4</v>
       </c>
-      <c r="S9" s="27">
+      <c r="S9" s="25">
         <v>8</v>
       </c>
-      <c r="T9" s="27">
+      <c r="T9" s="25">
         <v>200</v>
       </c>
-      <c r="U9" s="28">
-        <f>IF($C9="win",R9/2,IF($C9="rhel",1,IF($C9="suse",1,IF($C9="Ubuntu",1,IF($C9="Oracle Linux",1,IF($C9="Debian",1,IF($C9="OEM Specific",1,0)))))))</f>
+      <c r="U9" s="26">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V9" s="29">
-        <f>IF($D9="MS SQL Standard Edition - Active VM",R9/2,IF($D9="MS SQL Enterprise Edition - Active VM",R9/2,IF($D9="My SQL Community Edition",1,IF($D9="My SQL Enterprise Edition",1,IF($D9="Postgre SQL Community edition",R9,IF($D9="Postgre SQL Enterprise Edition",R9,IF($D9="Oracle Standard Edition",1,IF($D9="Oracle Enterprise",R9/2,IF($D9="Maria DB Community edition",1,IF($D9="MongoDB Community edition",1,IF($D9="MS SQL Standard Edition - Passive VM",,IF($D9="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="W9" s="30">
+      <c r="V9" s="27">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="W9" s="28">
         <v>4</v>
       </c>
-      <c r="X9" s="30">
+      <c r="X9" s="28">
         <v>4</v>
       </c>
-      <c r="Y9" s="30">
+      <c r="Y9" s="28">
         <v>8</v>
       </c>
-      <c r="Z9" s="30">
+      <c r="Z9" s="28">
         <v>200</v>
       </c>
-      <c r="AA9" s="31">
-        <f>IF($C9="win",X9/2,IF($C9="rhel",1,IF($C9="suse",1,IF($C9="Ubuntu",1,IF($C9="Oracle Linux",1,IF($C9="Debian",1,IF($C9="OEM Specific",1,0)))))))</f>
+      <c r="AA9" s="29">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AB9" s="32">
-        <f>IF($D9="MS SQL Standard Edition - Active VM",X9/2,IF($D9="MS SQL Enterprise Edition - Active VM",X9/2,IF($D9="My SQL Community Edition",1,IF($D9="My SQL Enterprise Edition",1,IF($D9="Postgre SQL Community edition",X9,IF($D9="Postgre SQL Enterprise Edition",X9,IF($D9="Oracle Standard Edition",1,IF($D9="Oracle Enterprise",X9/2,IF($D9="Maria DB Community edition",1,IF($D9="MongoDB Community edition",1,IF($D9="MS SQL Standard Edition - Passive VM",,IF($D9="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="AC9" s="27">
+      <c r="AB9" s="30">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AC9" s="25">
         <v>4</v>
       </c>
-      <c r="AD9" s="27">
+      <c r="AD9" s="25">
         <v>4</v>
       </c>
-      <c r="AE9" s="27">
+      <c r="AE9" s="25">
         <v>8</v>
       </c>
-      <c r="AF9" s="27">
+      <c r="AF9" s="25">
         <v>200</v>
       </c>
-      <c r="AG9" s="28">
-        <f>IF($C9="win",AD9/2,IF($C9="rhel",1,IF($C9="suse",1,IF($C9="Ubuntu",1,IF($C9="Oracle Linux",1,IF($C9="Debian",1,IF($C9="OEM Specific",1,0)))))))</f>
+      <c r="AG9" s="26">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AH9" s="29">
-        <f>IF($D9="MS SQL Standard Edition - Active VM",AD9/2,IF($D9="MS SQL Enterprise Edition - Active VM",AD9/2,IF($D9="My SQL Community Edition",1,IF($D9="My SQL Enterprise Edition",1,IF($D9="Postgre SQL Community edition",AD9,IF($D9="Postgre SQL Enterprise Edition",AD9,IF($D9="Oracle Standard Edition",1,IF($D9="Oracle Enterprise",AD9/2,IF($D9="Maria DB Community edition",1,IF($D9="MongoDB Community edition",1,IF($D9="MS SQL Standard Edition - Passive VM",,IF($D9="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="AI9" s="30">
+      <c r="AH9" s="27">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AI9" s="28">
         <v>4</v>
       </c>
-      <c r="AJ9" s="30">
+      <c r="AJ9" s="28">
         <v>4</v>
       </c>
-      <c r="AK9" s="30">
+      <c r="AK9" s="28">
         <v>8</v>
       </c>
-      <c r="AL9" s="30">
+      <c r="AL9" s="28">
         <v>200</v>
       </c>
-      <c r="AM9" s="31">
-        <f>IF($C9="win",AJ9/2,IF($C9="rhel",1,IF($C9="suse",1,IF($C9="Ubuntu",1,IF($C9="Oracle Linux",1,IF($C9="Debian",1,IF($C9="OEM Specific",1,0)))))))</f>
+      <c r="AM9" s="29">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AN9" s="32">
-        <f>IF($D9="MS SQL Standard Edition - Active VM",AJ9/2,IF($D9="MS SQL Enterprise Edition - Active VM",AJ9/2,IF($D9="My SQL Community Edition",1,IF($D9="My SQL Enterprise Edition",1,IF($D9="Postgre SQL Community edition",AJ9,IF($D9="Postgre SQL Enterprise Edition",AJ9,IF($D9="Oracle Standard Edition",1,IF($D9="Oracle Enterprise",AJ9/2,IF($D9="Maria DB Community edition",1,IF($D9="MongoDB Community edition",1,IF($D9="MS SQL Standard Edition - Passive VM",,IF($D9="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="AO9" s="27">
+      <c r="AN9" s="30">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="AO9" s="25">
         <v>4</v>
       </c>
-      <c r="AP9" s="27">
+      <c r="AP9" s="25">
         <v>4</v>
       </c>
-      <c r="AQ9" s="27">
+      <c r="AQ9" s="25">
         <v>8</v>
       </c>
-      <c r="AR9" s="27">
+      <c r="AR9" s="25">
         <v>200</v>
       </c>
-      <c r="AS9" s="28">
-        <f>IF($C9="win",AP9/2,IF($C9="rhel",1,IF($C9="suse",1,IF($C9="Ubuntu",1,IF($C9="Oracle Linux",1,IF($C9="Debian",1,IF($C9="OEM Specific",1,0)))))))</f>
+      <c r="AS9" s="26">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="AT9" s="29">
-        <f>IF($D9="MS SQL Standard Edition - Active VM",AP9/2,IF($D9="MS SQL Enterprise Edition - Active VM",AP9/2,IF($D9="My SQL Community Edition",1,IF($D9="My SQL Enterprise Edition",1,IF($D9="Postgre SQL Community edition",AP9,IF($D9="Postgre SQL Enterprise Edition",AP9,IF($D9="Oracle Standard Edition",1,IF($D9="Oracle Enterprise",AP9/2,IF($D9="Maria DB Community edition",1,IF($D9="MongoDB Community edition",1,IF($D9="MS SQL Standard Edition - Passive VM",,IF($D9="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="AU9" s="30">
+      <c r="AT9" s="27">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="AU9" s="28">
         <v>4</v>
       </c>
-      <c r="AV9" s="30">
+      <c r="AV9" s="28">
         <v>4</v>
       </c>
-      <c r="AW9" s="30">
+      <c r="AW9" s="28">
         <v>8</v>
       </c>
-      <c r="AX9" s="30">
+      <c r="AX9" s="28">
         <v>200</v>
       </c>
-      <c r="AY9" s="31">
-        <f>IF($C9="win",AV9/2,IF($C9="rhel",1,IF($C9="suse",1,IF($C9="Ubuntu",1,IF($C9="Oracle Linux",1,IF($C9="Debian",1,IF($C9="OEM Specific",1,0)))))))</f>
+      <c r="AY9" s="29">
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="AZ9" s="32">
-        <f>IF($D9="MS SQL Standard Edition - Active VM",AV9/2,IF($D9="MS SQL Enterprise Edition - Active VM",AV9/2,IF($D9="My SQL Community Edition",1,IF($D9="My SQL Enterprise Edition",1,IF($D9="Postgre SQL Community edition",AV9,IF($D9="Postgre SQL Enterprise Edition",AV9,IF($D9="Oracle Standard Edition",1,IF($D9="Oracle Enterprise",AV9/2,IF($D9="Maria DB Community edition",1,IF($D9="MongoDB Community edition",1,IF($D9="MS SQL Standard Edition - Passive VM",,IF($D9="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="BA9" s="27">
+      <c r="AZ9" s="30">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="BA9" s="25">
         <v>4</v>
       </c>
-      <c r="BB9" s="27">
+      <c r="BB9" s="25">
         <v>4</v>
       </c>
-      <c r="BC9" s="27">
+      <c r="BC9" s="25">
         <v>8</v>
       </c>
-      <c r="BD9" s="27">
+      <c r="BD9" s="25">
         <v>200</v>
       </c>
-      <c r="BE9" s="28">
-        <f>IF($C9="win",BB9/2,IF($C9="rhel",1,IF($C9="suse",1,IF($C9="Ubuntu",1,IF($C9="Oracle Linux",1,IF($C9="Debian",1,IF($C9="OEM Specific",1,0)))))))</f>
+      <c r="BE9" s="26">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="BF9" s="29">
-        <f>IF($D9="MS SQL Standard Edition - Active VM",BB9/2,IF($D9="MS SQL Enterprise Edition - Active VM",BB9/2,IF($D9="My SQL Community Edition",1,IF($D9="My SQL Enterprise Edition",1,IF($D9="Postgre SQL Community edition",BB9,IF($D9="Postgre SQL Enterprise Edition",BB9,IF($D9="Oracle Standard Edition",1,IF($D9="Oracle Enterprise",BB9/2,IF($D9="Maria DB Community edition",1,IF($D9="MongoDB Community edition",1,IF($D9="MS SQL Standard Edition - Passive VM",,IF($D9="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="BG9" s="30">
+      <c r="BF9" s="27">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="BG9" s="28">
         <v>4</v>
       </c>
-      <c r="BH9" s="30">
+      <c r="BH9" s="28">
         <v>4</v>
       </c>
-      <c r="BI9" s="30">
+      <c r="BI9" s="28">
         <v>8</v>
       </c>
-      <c r="BJ9" s="30">
+      <c r="BJ9" s="28">
         <v>200</v>
       </c>
-      <c r="BK9" s="31">
-        <f>IF($C9="win",BH9/2,IF($C9="rhel",1,IF($C9="suse",1,IF($C9="Ubuntu",1,IF($C9="Oracle Linux",1,IF($C9="Debian",1,IF($C9="OEM Specific",1,0)))))))</f>
+      <c r="BK9" s="29">
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="BL9" s="32">
-        <f>IF($D9="MS SQL Standard Edition - Active VM",BH9/2,IF($D9="MS SQL Enterprise Edition - Active VM",BH9/2,IF($D9="My SQL Community Edition",1,IF($D9="My SQL Enterprise Edition",1,IF($D9="Postgre SQL Community edition",BH9,IF($D9="Postgre SQL Enterprise Edition",BH9,IF($D9="Oracle Standard Edition",1,IF($D9="Oracle Enterprise",BH9/2,IF($D9="Maria DB Community edition",1,IF($D9="MongoDB Community edition",1,IF($D9="MS SQL Standard Edition - Passive VM",,IF($D9="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="BM9" s="27">
+      <c r="BL9" s="30">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="BM9" s="25">
         <v>4</v>
       </c>
-      <c r="BN9" s="27">
+      <c r="BN9" s="25">
         <v>4</v>
       </c>
-      <c r="BO9" s="27">
+      <c r="BO9" s="25">
         <v>8</v>
       </c>
-      <c r="BP9" s="27">
+      <c r="BP9" s="25">
         <v>200</v>
       </c>
-      <c r="BQ9" s="28">
-        <f>IF($C9="win",BN9/2,IF($C9="rhel",1,IF($C9="suse",1,IF($C9="Ubuntu",1,IF($C9="Oracle Linux",1,IF($C9="Debian",1,IF($C9="OEM Specific",1,0)))))))</f>
+      <c r="BQ9" s="26">
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="BR9" s="29">
-        <f>IF($D9="MS SQL Standard Edition - Active VM",BN9/2,IF($D9="MS SQL Enterprise Edition - Active VM",BN9/2,IF($D9="My SQL Community Edition",1,IF($D9="My SQL Enterprise Edition",1,IF($D9="Postgre SQL Community edition",BN9,IF($D9="Postgre SQL Enterprise Edition",BN9,IF($D9="Oracle Standard Edition",1,IF($D9="Oracle Enterprise",BN9/2,IF($D9="Maria DB Community edition",1,IF($D9="MongoDB Community edition",1,IF($D9="MS SQL Standard Edition - Passive VM",,IF($D9="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="BS9" s="30">
+      <c r="BR9" s="27">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="BS9" s="28">
         <v>4</v>
       </c>
-      <c r="BT9" s="30">
+      <c r="BT9" s="28">
         <v>4</v>
       </c>
-      <c r="BU9" s="30">
+      <c r="BU9" s="28">
         <v>8</v>
       </c>
-      <c r="BV9" s="30">
+      <c r="BV9" s="28">
         <v>200</v>
       </c>
-      <c r="BW9" s="31">
-        <f>IF($C9="win",BT9/2,IF($C9="rhel",1,IF($C9="suse",1,IF($C9="Ubuntu",1,IF($C9="Oracle Linux",1,IF($C9="Debian",1,IF($C9="OEM Specific",1,0)))))))</f>
+      <c r="BW9" s="29">
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="BX9" s="32">
-        <f>IF($D9="MS SQL Standard Edition - Active VM",BT9/2,IF($D9="MS SQL Enterprise Edition - Active VM",BT9/2,IF($D9="My SQL Community Edition",1,IF($D9="My SQL Enterprise Edition",1,IF($D9="Postgre SQL Community edition",BT9,IF($D9="Postgre SQL Enterprise Edition",BT9,IF($D9="Oracle Standard Edition",1,IF($D9="Oracle Enterprise",BT9/2,IF($D9="Maria DB Community edition",1,IF($D9="MongoDB Community edition",1,IF($D9="MS SQL Standard Edition - Passive VM",,IF($D9="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="BY9" s="27">
+      <c r="BX9" s="30">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="BY9" s="25">
         <v>4</v>
       </c>
-      <c r="BZ9" s="27">
+      <c r="BZ9" s="25">
         <v>4</v>
       </c>
-      <c r="CA9" s="27">
+      <c r="CA9" s="25">
         <v>8</v>
       </c>
-      <c r="CB9" s="27">
+      <c r="CB9" s="25">
         <v>200</v>
       </c>
-      <c r="CC9" s="28">
-        <f>IF($C9="win",BZ9/2,IF($C9="rhel",1,IF($C9="suse",1,IF($C9="Ubuntu",1,IF($C9="Oracle Linux",1,IF($C9="Debian",1,IF($C9="OEM Specific",1,0)))))))</f>
+      <c r="CC9" s="26">
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="CD9" s="29">
-        <f>IF($D9="MS SQL Standard Edition - Active VM",BZ9/2,IF($D9="MS SQL Enterprise Edition - Active VM",BZ9/2,IF($D9="My SQL Community Edition",1,IF($D9="My SQL Enterprise Edition",1,IF($D9="Postgre SQL Community edition",BZ9,IF($D9="Postgre SQL Enterprise Edition",BZ9,IF($D9="Oracle Standard Edition",1,IF($D9="Oracle Enterprise",BZ9/2,IF($D9="Maria DB Community edition",1,IF($D9="MongoDB Community edition",1,IF($D9="MS SQL Standard Edition - Passive VM",,IF($D9="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="CE9" s="30">
+      <c r="CD9" s="27">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="CE9" s="28">
         <v>4</v>
       </c>
-      <c r="CF9" s="30">
+      <c r="CF9" s="28">
         <v>4</v>
       </c>
-      <c r="CG9" s="30">
+      <c r="CG9" s="28">
         <v>8</v>
       </c>
-      <c r="CH9" s="30">
+      <c r="CH9" s="28">
         <v>200</v>
       </c>
-      <c r="CI9" s="31">
-        <f>IF($C9="win",CF9/2,IF($C9="rhel",1,IF($C9="suse",1,IF($C9="Ubuntu",1,IF($C9="Oracle Linux",1,IF($C9="Debian",1,IF($C9="OEM Specific",1,0)))))))</f>
+      <c r="CI9" s="29">
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="CJ9" s="32">
-        <f>IF($D9="MS SQL Standard Edition - Active VM",CF9/2,IF($D9="MS SQL Enterprise Edition - Active VM",CF9/2,IF($D9="My SQL Community Edition",1,IF($D9="My SQL Enterprise Edition",1,IF($D9="Postgre SQL Community edition",CF9,IF($D9="Postgre SQL Enterprise Edition",CF9,IF($D9="Oracle Standard Edition",1,IF($D9="Oracle Enterprise",CF9/2,IF($D9="Maria DB Community edition",1,IF($D9="MongoDB Community edition",1,IF($D9="MS SQL Standard Edition - Passive VM",,IF($D9="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="CJ9" s="30">
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="24" t="s">
         <v>7796</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -61016,289 +61024,289 @@
       <c r="D10" s="6" t="s">
         <v>7833</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="25">
         <v>18</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="25">
         <v>6</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="25">
         <v>48</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="25">
         <v>500</v>
       </c>
-      <c r="I10" s="28">
-        <f>IF($C10="win",F10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
+      <c r="I10" s="26">
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
-      <c r="J10" s="29">
-        <f>IF($D10="MS SQL Standard Edition - Active VM",F10/2,IF($D10="MS SQL Enterprise Edition - Active VM",F10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",F10,IF($D10="Postgre SQL Enterprise Edition",F10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",F10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="J10" s="27">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K10" s="30">
+      <c r="K10" s="28">
         <v>4</v>
       </c>
-      <c r="L10" s="30">
+      <c r="L10" s="28">
         <v>4</v>
       </c>
-      <c r="M10" s="30">
+      <c r="M10" s="28">
         <v>8</v>
       </c>
-      <c r="N10" s="30">
+      <c r="N10" s="28">
         <v>200</v>
       </c>
-      <c r="O10" s="31">
-        <f>IF($C10="win",L10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="P10" s="32">
-        <f>IF($D10="MS SQL Standard Edition - Active VM",L10/2,IF($D10="MS SQL Enterprise Edition - Active VM",L10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",L10,IF($D10="Postgre SQL Enterprise Edition",L10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",L10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="O10" s="29">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P10" s="30">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q10" s="27">
+      <c r="Q10" s="25">
         <v>4</v>
       </c>
-      <c r="R10" s="27">
+      <c r="R10" s="25">
         <v>4</v>
       </c>
-      <c r="S10" s="27">
+      <c r="S10" s="25">
         <v>8</v>
       </c>
-      <c r="T10" s="27">
+      <c r="T10" s="25">
         <v>200</v>
       </c>
-      <c r="U10" s="28">
-        <f>IF($C10="win",R10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="V10" s="29">
-        <f>IF($D10="MS SQL Standard Edition - Active VM",R10/2,IF($D10="MS SQL Enterprise Edition - Active VM",R10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",R10,IF($D10="Postgre SQL Enterprise Edition",R10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",R10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="U10" s="26">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="V10" s="27">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="W10" s="30">
+      <c r="W10" s="28">
         <v>4</v>
       </c>
-      <c r="X10" s="30">
+      <c r="X10" s="28">
         <v>4</v>
       </c>
-      <c r="Y10" s="30">
+      <c r="Y10" s="28">
         <v>8</v>
       </c>
-      <c r="Z10" s="30">
+      <c r="Z10" s="28">
         <v>200</v>
       </c>
-      <c r="AA10" s="31">
-        <f>IF($C10="win",X10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="AB10" s="32">
-        <f>IF($D10="MS SQL Standard Edition - Active VM",X10/2,IF($D10="MS SQL Enterprise Edition - Active VM",X10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",X10,IF($D10="Postgre SQL Enterprise Edition",X10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",X10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="AA10" s="29">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AB10" s="30">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AC10" s="27">
+      <c r="AC10" s="25">
         <v>4</v>
       </c>
-      <c r="AD10" s="27">
+      <c r="AD10" s="25">
         <v>4</v>
       </c>
-      <c r="AE10" s="27">
+      <c r="AE10" s="25">
         <v>8</v>
       </c>
-      <c r="AF10" s="27">
+      <c r="AF10" s="25">
         <v>200</v>
       </c>
-      <c r="AG10" s="28">
-        <f>IF($C10="win",AD10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="AH10" s="29">
-        <f>IF($D10="MS SQL Standard Edition - Active VM",AD10/2,IF($D10="MS SQL Enterprise Edition - Active VM",AD10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",AD10,IF($D10="Postgre SQL Enterprise Edition",AD10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",AD10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="AG10" s="26">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AH10" s="27">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AI10" s="30">
+      <c r="AI10" s="28">
         <v>4</v>
       </c>
-      <c r="AJ10" s="30">
+      <c r="AJ10" s="28">
         <v>4</v>
       </c>
-      <c r="AK10" s="30">
+      <c r="AK10" s="28">
         <v>8</v>
       </c>
-      <c r="AL10" s="30">
+      <c r="AL10" s="28">
         <v>200</v>
       </c>
-      <c r="AM10" s="31">
-        <f>IF($C10="win",AJ10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="AN10" s="32">
-        <f>IF($D10="MS SQL Standard Edition - Active VM",AJ10/2,IF($D10="MS SQL Enterprise Edition - Active VM",AJ10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",AJ10,IF($D10="Postgre SQL Enterprise Edition",AJ10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",AJ10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="AM10" s="29">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AN10" s="30">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AO10" s="27">
+      <c r="AO10" s="25">
         <v>4</v>
       </c>
-      <c r="AP10" s="27">
+      <c r="AP10" s="25">
         <v>4</v>
       </c>
-      <c r="AQ10" s="27">
+      <c r="AQ10" s="25">
         <v>8</v>
       </c>
-      <c r="AR10" s="27">
+      <c r="AR10" s="25">
         <v>200</v>
       </c>
-      <c r="AS10" s="28">
-        <f>IF($C10="win",AP10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="AT10" s="29">
-        <f>IF($D10="MS SQL Standard Edition - Active VM",AP10/2,IF($D10="MS SQL Enterprise Edition - Active VM",AP10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",AP10,IF($D10="Postgre SQL Enterprise Edition",AP10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",AP10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="AS10" s="26">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AT10" s="27">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="AU10" s="30">
+      <c r="AU10" s="28">
         <v>4</v>
       </c>
-      <c r="AV10" s="30">
+      <c r="AV10" s="28">
         <v>4</v>
       </c>
-      <c r="AW10" s="30">
+      <c r="AW10" s="28">
         <v>8</v>
       </c>
-      <c r="AX10" s="30">
+      <c r="AX10" s="28">
         <v>200</v>
       </c>
-      <c r="AY10" s="31">
-        <f>IF($C10="win",AV10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="AZ10" s="32">
-        <f>IF($D10="MS SQL Standard Edition - Active VM",AV10/2,IF($D10="MS SQL Enterprise Edition - Active VM",AV10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",AV10,IF($D10="Postgre SQL Enterprise Edition",AV10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",AV10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="AY10" s="29">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="AZ10" s="30">
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="BA10" s="27">
+      <c r="BA10" s="25">
         <v>4</v>
       </c>
-      <c r="BB10" s="27">
+      <c r="BB10" s="25">
         <v>4</v>
       </c>
-      <c r="BC10" s="27">
+      <c r="BC10" s="25">
         <v>8</v>
       </c>
-      <c r="BD10" s="27">
+      <c r="BD10" s="25">
         <v>200</v>
       </c>
-      <c r="BE10" s="28">
-        <f>IF($C10="win",BB10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="BF10" s="29">
-        <f>IF($D10="MS SQL Standard Edition - Active VM",BB10/2,IF($D10="MS SQL Enterprise Edition - Active VM",BB10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",BB10,IF($D10="Postgre SQL Enterprise Edition",BB10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",BB10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="BE10" s="26">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="BF10" s="27">
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="BG10" s="30">
+      <c r="BG10" s="28">
         <v>4</v>
       </c>
-      <c r="BH10" s="30">
+      <c r="BH10" s="28">
         <v>4</v>
       </c>
-      <c r="BI10" s="30">
+      <c r="BI10" s="28">
         <v>8</v>
       </c>
-      <c r="BJ10" s="30">
+      <c r="BJ10" s="28">
         <v>200</v>
       </c>
-      <c r="BK10" s="31">
-        <f>IF($C10="win",BH10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="BL10" s="32">
-        <f>IF($D10="MS SQL Standard Edition - Active VM",BH10/2,IF($D10="MS SQL Enterprise Edition - Active VM",BH10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",BH10,IF($D10="Postgre SQL Enterprise Edition",BH10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",BH10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="BK10" s="29">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="BL10" s="30">
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="BM10" s="27">
+      <c r="BM10" s="25">
         <v>4</v>
       </c>
-      <c r="BN10" s="27">
+      <c r="BN10" s="25">
         <v>4</v>
       </c>
-      <c r="BO10" s="27">
+      <c r="BO10" s="25">
         <v>8</v>
       </c>
-      <c r="BP10" s="27">
+      <c r="BP10" s="25">
         <v>200</v>
       </c>
-      <c r="BQ10" s="28">
-        <f>IF($C10="win",BN10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="BR10" s="29">
-        <f>IF($D10="MS SQL Standard Edition - Active VM",BN10/2,IF($D10="MS SQL Enterprise Edition - Active VM",BN10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",BN10,IF($D10="Postgre SQL Enterprise Edition",BN10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",BN10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="BQ10" s="26">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="BR10" s="27">
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="BS10" s="30">
+      <c r="BS10" s="28">
         <v>4</v>
       </c>
-      <c r="BT10" s="30">
+      <c r="BT10" s="28">
         <v>4</v>
       </c>
-      <c r="BU10" s="30">
+      <c r="BU10" s="28">
         <v>8</v>
       </c>
-      <c r="BV10" s="30">
+      <c r="BV10" s="28">
         <v>200</v>
       </c>
-      <c r="BW10" s="31">
-        <f>IF($C10="win",BT10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="BX10" s="32">
-        <f>IF($D10="MS SQL Standard Edition - Active VM",BT10/2,IF($D10="MS SQL Enterprise Edition - Active VM",BT10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",BT10,IF($D10="Postgre SQL Enterprise Edition",BT10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",BT10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="BW10" s="29">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="BX10" s="30">
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="BY10" s="27">
+      <c r="BY10" s="25">
         <v>4</v>
       </c>
-      <c r="BZ10" s="27">
+      <c r="BZ10" s="25">
         <v>4</v>
       </c>
-      <c r="CA10" s="27">
+      <c r="CA10" s="25">
         <v>8</v>
       </c>
-      <c r="CB10" s="27">
+      <c r="CB10" s="25">
         <v>200</v>
       </c>
-      <c r="CC10" s="28">
-        <f>IF($C10="win",BZ10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="CD10" s="29">
-        <f>IF($D10="MS SQL Standard Edition - Active VM",BZ10/2,IF($D10="MS SQL Enterprise Edition - Active VM",BZ10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",BZ10,IF($D10="Postgre SQL Enterprise Edition",BZ10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",BZ10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="CC10" s="26">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="CD10" s="27">
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="CE10" s="30">
+      <c r="CE10" s="28">
         <v>4</v>
       </c>
-      <c r="CF10" s="30">
+      <c r="CF10" s="28">
         <v>4</v>
       </c>
-      <c r="CG10" s="30">
+      <c r="CG10" s="28">
         <v>8</v>
       </c>
-      <c r="CH10" s="30">
+      <c r="CH10" s="28">
         <v>200</v>
       </c>
-      <c r="CI10" s="31">
-        <f>IF($C10="win",CF10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="CJ10" s="32">
-        <f>IF($D10="MS SQL Standard Edition - Active VM",CF10/2,IF($D10="MS SQL Enterprise Edition - Active VM",CF10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",CF10,IF($D10="Postgre SQL Enterprise Edition",CF10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",CF10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="CI10" s="29">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="CJ10" s="30">
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="24" t="s">
         <v>7796</v>
       </c>
       <c r="B11" s="15" t="s">
@@ -61310,289 +61318,289 @@
       <c r="D11" s="6" t="s">
         <v>7834</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="25">
         <v>20</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="25">
         <v>4</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="25">
         <v>46</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="25">
         <v>900</v>
       </c>
-      <c r="I11" s="28">
-        <f>IF($C11="win",F11/2,IF($C11="rhel",1,IF($C11="suse",1,IF($C11="Ubuntu",1,IF($C11="Oracle Linux",1,IF($C11="Debian",1,IF($C11="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="J11" s="29">
-        <f>IF($D11="MS SQL Standard Edition - Active VM",F11/2,IF($D11="MS SQL Enterprise Edition - Active VM",F11/2,IF($D11="My SQL Community Edition",1,IF($D11="My SQL Enterprise Edition",1,IF($D11="Postgre SQL Community edition",F11,IF($D11="Postgre SQL Enterprise Edition",F11,IF($D11="Oracle Standard Edition",1,IF($D11="Oracle Enterprise",F11/2,IF($D11="Maria DB Community edition",1,IF($D11="MongoDB Community edition",1,IF($D11="MS SQL Standard Edition - Passive VM",,IF($D11="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="I11" s="26">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+      <c r="J11" s="27">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K11" s="30">
+      <c r="K11" s="28">
         <v>4</v>
       </c>
-      <c r="L11" s="30">
+      <c r="L11" s="28">
         <v>4</v>
       </c>
-      <c r="M11" s="30">
+      <c r="M11" s="28">
         <v>8</v>
       </c>
-      <c r="N11" s="30">
+      <c r="N11" s="28">
         <v>200</v>
       </c>
-      <c r="O11" s="31">
-        <f>IF($C11="win",L11/2,IF($C11="rhel",1,IF($C11="suse",1,IF($C11="Ubuntu",1,IF($C11="Oracle Linux",1,IF($C11="Debian",1,IF($C11="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="P11" s="32">
-        <f>IF($D11="MS SQL Standard Edition - Active VM",L11/2,IF($D11="MS SQL Enterprise Edition - Active VM",L11/2,IF($D11="My SQL Community Edition",1,IF($D11="My SQL Enterprise Edition",1,IF($D11="Postgre SQL Community edition",L11,IF($D11="Postgre SQL Enterprise Edition",L11,IF($D11="Oracle Standard Edition",1,IF($D11="Oracle Enterprise",L11/2,IF($D11="Maria DB Community edition",1,IF($D11="MongoDB Community edition",1,IF($D11="MS SQL Standard Edition - Passive VM",,IF($D11="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="O11" s="29">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P11" s="30">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q11" s="27">
+      <c r="Q11" s="25">
         <v>4</v>
       </c>
-      <c r="R11" s="27">
+      <c r="R11" s="25">
         <v>4</v>
       </c>
-      <c r="S11" s="27">
+      <c r="S11" s="25">
         <v>8</v>
       </c>
-      <c r="T11" s="27">
+      <c r="T11" s="25">
         <v>200</v>
       </c>
-      <c r="U11" s="28">
-        <f>IF($C11="win",R11/2,IF($C11="rhel",1,IF($C11="suse",1,IF($C11="Ubuntu",1,IF($C11="Oracle Linux",1,IF($C11="Debian",1,IF($C11="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="V11" s="29">
-        <f>IF($D11="MS SQL Standard Edition - Active VM",R11/2,IF($D11="MS SQL Enterprise Edition - Active VM",R11/2,IF($D11="My SQL Community Edition",1,IF($D11="My SQL Enterprise Edition",1,IF($D11="Postgre SQL Community edition",R11,IF($D11="Postgre SQL Enterprise Edition",R11,IF($D11="Oracle Standard Edition",1,IF($D11="Oracle Enterprise",R11/2,IF($D11="Maria DB Community edition",1,IF($D11="MongoDB Community edition",1,IF($D11="MS SQL Standard Edition - Passive VM",,IF($D11="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="U11" s="26">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="V11" s="27">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="W11" s="30">
+      <c r="W11" s="28">
         <v>4</v>
       </c>
-      <c r="X11" s="30">
+      <c r="X11" s="28">
         <v>4</v>
       </c>
-      <c r="Y11" s="30">
+      <c r="Y11" s="28">
         <v>8</v>
       </c>
-      <c r="Z11" s="30">
+      <c r="Z11" s="28">
         <v>200</v>
       </c>
-      <c r="AA11" s="31">
-        <f>IF($C11="win",X11/2,IF($C11="rhel",1,IF($C11="suse",1,IF($C11="Ubuntu",1,IF($C11="Oracle Linux",1,IF($C11="Debian",1,IF($C11="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="AB11" s="32">
-        <f>IF($D11="MS SQL Standard Edition - Active VM",X11/2,IF($D11="MS SQL Enterprise Edition - Active VM",X11/2,IF($D11="My SQL Community Edition",1,IF($D11="My SQL Enterprise Edition",1,IF($D11="Postgre SQL Community edition",X11,IF($D11="Postgre SQL Enterprise Edition",X11,IF($D11="Oracle Standard Edition",1,IF($D11="Oracle Enterprise",X11/2,IF($D11="Maria DB Community edition",1,IF($D11="MongoDB Community edition",1,IF($D11="MS SQL Standard Edition - Passive VM",,IF($D11="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="AA11" s="29">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AB11" s="30">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AC11" s="27">
+      <c r="AC11" s="25">
         <v>4</v>
       </c>
-      <c r="AD11" s="27">
+      <c r="AD11" s="25">
         <v>4</v>
       </c>
-      <c r="AE11" s="27">
+      <c r="AE11" s="25">
         <v>8</v>
       </c>
-      <c r="AF11" s="27">
+      <c r="AF11" s="25">
         <v>200</v>
       </c>
-      <c r="AG11" s="28">
-        <f>IF($C11="win",AD11/2,IF($C11="rhel",1,IF($C11="suse",1,IF($C11="Ubuntu",1,IF($C11="Oracle Linux",1,IF($C11="Debian",1,IF($C11="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="AH11" s="29">
-        <f>IF($D11="MS SQL Standard Edition - Active VM",AD11/2,IF($D11="MS SQL Enterprise Edition - Active VM",AD11/2,IF($D11="My SQL Community Edition",1,IF($D11="My SQL Enterprise Edition",1,IF($D11="Postgre SQL Community edition",AD11,IF($D11="Postgre SQL Enterprise Edition",AD11,IF($D11="Oracle Standard Edition",1,IF($D11="Oracle Enterprise",AD11/2,IF($D11="Maria DB Community edition",1,IF($D11="MongoDB Community edition",1,IF($D11="MS SQL Standard Edition - Passive VM",,IF($D11="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="AG11" s="26">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AH11" s="27">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AI11" s="30">
+      <c r="AI11" s="28">
         <v>4</v>
       </c>
-      <c r="AJ11" s="30">
+      <c r="AJ11" s="28">
         <v>4</v>
       </c>
-      <c r="AK11" s="30">
+      <c r="AK11" s="28">
         <v>8</v>
       </c>
-      <c r="AL11" s="30">
+      <c r="AL11" s="28">
         <v>200</v>
       </c>
-      <c r="AM11" s="31">
-        <f>IF($C11="win",AJ11/2,IF($C11="rhel",1,IF($C11="suse",1,IF($C11="Ubuntu",1,IF($C11="Oracle Linux",1,IF($C11="Debian",1,IF($C11="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="AN11" s="32">
-        <f>IF($D11="MS SQL Standard Edition - Active VM",AJ11/2,IF($D11="MS SQL Enterprise Edition - Active VM",AJ11/2,IF($D11="My SQL Community Edition",1,IF($D11="My SQL Enterprise Edition",1,IF($D11="Postgre SQL Community edition",AJ11,IF($D11="Postgre SQL Enterprise Edition",AJ11,IF($D11="Oracle Standard Edition",1,IF($D11="Oracle Enterprise",AJ11/2,IF($D11="Maria DB Community edition",1,IF($D11="MongoDB Community edition",1,IF($D11="MS SQL Standard Edition - Passive VM",,IF($D11="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="AM11" s="29">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AN11" s="30">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AO11" s="27">
+      <c r="AO11" s="25">
         <v>4</v>
       </c>
-      <c r="AP11" s="27">
+      <c r="AP11" s="25">
         <v>4</v>
       </c>
-      <c r="AQ11" s="27">
+      <c r="AQ11" s="25">
         <v>8</v>
       </c>
-      <c r="AR11" s="27">
+      <c r="AR11" s="25">
         <v>200</v>
       </c>
-      <c r="AS11" s="28">
-        <f>IF($C11="win",AP11/2,IF($C11="rhel",1,IF($C11="suse",1,IF($C11="Ubuntu",1,IF($C11="Oracle Linux",1,IF($C11="Debian",1,IF($C11="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="AT11" s="29">
-        <f>IF($D11="MS SQL Standard Edition - Active VM",AP11/2,IF($D11="MS SQL Enterprise Edition - Active VM",AP11/2,IF($D11="My SQL Community Edition",1,IF($D11="My SQL Enterprise Edition",1,IF($D11="Postgre SQL Community edition",AP11,IF($D11="Postgre SQL Enterprise Edition",AP11,IF($D11="Oracle Standard Edition",1,IF($D11="Oracle Enterprise",AP11/2,IF($D11="Maria DB Community edition",1,IF($D11="MongoDB Community edition",1,IF($D11="MS SQL Standard Edition - Passive VM",,IF($D11="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="AS11" s="26">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AT11" s="27">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="AU11" s="30">
+      <c r="AU11" s="28">
         <v>4</v>
       </c>
-      <c r="AV11" s="30">
+      <c r="AV11" s="28">
         <v>4</v>
       </c>
-      <c r="AW11" s="30">
+      <c r="AW11" s="28">
         <v>8</v>
       </c>
-      <c r="AX11" s="30">
+      <c r="AX11" s="28">
         <v>200</v>
       </c>
-      <c r="AY11" s="31">
-        <f>IF($C11="win",AV11/2,IF($C11="rhel",1,IF($C11="suse",1,IF($C11="Ubuntu",1,IF($C11="Oracle Linux",1,IF($C11="Debian",1,IF($C11="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="AZ11" s="32">
-        <f>IF($D11="MS SQL Standard Edition - Active VM",AV11/2,IF($D11="MS SQL Enterprise Edition - Active VM",AV11/2,IF($D11="My SQL Community Edition",1,IF($D11="My SQL Enterprise Edition",1,IF($D11="Postgre SQL Community edition",AV11,IF($D11="Postgre SQL Enterprise Edition",AV11,IF($D11="Oracle Standard Edition",1,IF($D11="Oracle Enterprise",AV11/2,IF($D11="Maria DB Community edition",1,IF($D11="MongoDB Community edition",1,IF($D11="MS SQL Standard Edition - Passive VM",,IF($D11="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="AY11" s="29">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="AZ11" s="30">
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="BA11" s="27">
+      <c r="BA11" s="25">
         <v>4</v>
       </c>
-      <c r="BB11" s="27">
+      <c r="BB11" s="25">
         <v>4</v>
       </c>
-      <c r="BC11" s="27">
+      <c r="BC11" s="25">
         <v>8</v>
       </c>
-      <c r="BD11" s="27">
+      <c r="BD11" s="25">
         <v>200</v>
       </c>
-      <c r="BE11" s="28">
-        <f>IF($C11="win",BB11/2,IF($C11="rhel",1,IF($C11="suse",1,IF($C11="Ubuntu",1,IF($C11="Oracle Linux",1,IF($C11="Debian",1,IF($C11="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="BF11" s="29">
-        <f>IF($D11="MS SQL Standard Edition - Active VM",BB11/2,IF($D11="MS SQL Enterprise Edition - Active VM",BB11/2,IF($D11="My SQL Community Edition",1,IF($D11="My SQL Enterprise Edition",1,IF($D11="Postgre SQL Community edition",BB11,IF($D11="Postgre SQL Enterprise Edition",BB11,IF($D11="Oracle Standard Edition",1,IF($D11="Oracle Enterprise",BB11/2,IF($D11="Maria DB Community edition",1,IF($D11="MongoDB Community edition",1,IF($D11="MS SQL Standard Edition - Passive VM",,IF($D11="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="BE11" s="26">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="BF11" s="27">
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="BG11" s="30">
+      <c r="BG11" s="28">
         <v>4</v>
       </c>
-      <c r="BH11" s="30">
+      <c r="BH11" s="28">
         <v>4</v>
       </c>
-      <c r="BI11" s="30">
+      <c r="BI11" s="28">
         <v>8</v>
       </c>
-      <c r="BJ11" s="30">
+      <c r="BJ11" s="28">
         <v>200</v>
       </c>
-      <c r="BK11" s="31">
-        <f>IF($C11="win",BH11/2,IF($C11="rhel",1,IF($C11="suse",1,IF($C11="Ubuntu",1,IF($C11="Oracle Linux",1,IF($C11="Debian",1,IF($C11="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="BL11" s="32">
-        <f>IF($D11="MS SQL Standard Edition - Active VM",BH11/2,IF($D11="MS SQL Enterprise Edition - Active VM",BH11/2,IF($D11="My SQL Community Edition",1,IF($D11="My SQL Enterprise Edition",1,IF($D11="Postgre SQL Community edition",BH11,IF($D11="Postgre SQL Enterprise Edition",BH11,IF($D11="Oracle Standard Edition",1,IF($D11="Oracle Enterprise",BH11/2,IF($D11="Maria DB Community edition",1,IF($D11="MongoDB Community edition",1,IF($D11="MS SQL Standard Edition - Passive VM",,IF($D11="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="BK11" s="29">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="BL11" s="30">
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="BM11" s="27">
+      <c r="BM11" s="25">
         <v>4</v>
       </c>
-      <c r="BN11" s="27">
+      <c r="BN11" s="25">
         <v>4</v>
       </c>
-      <c r="BO11" s="27">
+      <c r="BO11" s="25">
         <v>8</v>
       </c>
-      <c r="BP11" s="27">
+      <c r="BP11" s="25">
         <v>200</v>
       </c>
-      <c r="BQ11" s="28">
-        <f>IF($C11="win",BN11/2,IF($C11="rhel",1,IF($C11="suse",1,IF($C11="Ubuntu",1,IF($C11="Oracle Linux",1,IF($C11="Debian",1,IF($C11="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="BR11" s="29">
-        <f>IF($D11="MS SQL Standard Edition - Active VM",BN11/2,IF($D11="MS SQL Enterprise Edition - Active VM",BN11/2,IF($D11="My SQL Community Edition",1,IF($D11="My SQL Enterprise Edition",1,IF($D11="Postgre SQL Community edition",BN11,IF($D11="Postgre SQL Enterprise Edition",BN11,IF($D11="Oracle Standard Edition",1,IF($D11="Oracle Enterprise",BN11/2,IF($D11="Maria DB Community edition",1,IF($D11="MongoDB Community edition",1,IF($D11="MS SQL Standard Edition - Passive VM",,IF($D11="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="BQ11" s="26">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="BR11" s="27">
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="BS11" s="30">
+      <c r="BS11" s="28">
         <v>4</v>
       </c>
-      <c r="BT11" s="30">
+      <c r="BT11" s="28">
         <v>4</v>
       </c>
-      <c r="BU11" s="30">
+      <c r="BU11" s="28">
         <v>8</v>
       </c>
-      <c r="BV11" s="30">
+      <c r="BV11" s="28">
         <v>200</v>
       </c>
-      <c r="BW11" s="31">
-        <f>IF($C11="win",BT11/2,IF($C11="rhel",1,IF($C11="suse",1,IF($C11="Ubuntu",1,IF($C11="Oracle Linux",1,IF($C11="Debian",1,IF($C11="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="BX11" s="32">
-        <f>IF($D11="MS SQL Standard Edition - Active VM",BT11/2,IF($D11="MS SQL Enterprise Edition - Active VM",BT11/2,IF($D11="My SQL Community Edition",1,IF($D11="My SQL Enterprise Edition",1,IF($D11="Postgre SQL Community edition",BT11,IF($D11="Postgre SQL Enterprise Edition",BT11,IF($D11="Oracle Standard Edition",1,IF($D11="Oracle Enterprise",BT11/2,IF($D11="Maria DB Community edition",1,IF($D11="MongoDB Community edition",1,IF($D11="MS SQL Standard Edition - Passive VM",,IF($D11="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="BW11" s="29">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="BX11" s="30">
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="BY11" s="27">
+      <c r="BY11" s="25">
         <v>4</v>
       </c>
-      <c r="BZ11" s="27">
+      <c r="BZ11" s="25">
         <v>4</v>
       </c>
-      <c r="CA11" s="27">
+      <c r="CA11" s="25">
         <v>8</v>
       </c>
-      <c r="CB11" s="27">
+      <c r="CB11" s="25">
         <v>200</v>
       </c>
-      <c r="CC11" s="28">
-        <f>IF($C11="win",BZ11/2,IF($C11="rhel",1,IF($C11="suse",1,IF($C11="Ubuntu",1,IF($C11="Oracle Linux",1,IF($C11="Debian",1,IF($C11="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="CD11" s="29">
-        <f>IF($D11="MS SQL Standard Edition - Active VM",BZ11/2,IF($D11="MS SQL Enterprise Edition - Active VM",BZ11/2,IF($D11="My SQL Community Edition",1,IF($D11="My SQL Enterprise Edition",1,IF($D11="Postgre SQL Community edition",BZ11,IF($D11="Postgre SQL Enterprise Edition",BZ11,IF($D11="Oracle Standard Edition",1,IF($D11="Oracle Enterprise",BZ11/2,IF($D11="Maria DB Community edition",1,IF($D11="MongoDB Community edition",1,IF($D11="MS SQL Standard Edition - Passive VM",,IF($D11="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="CC11" s="26">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="CD11" s="27">
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="CE11" s="30">
+      <c r="CE11" s="28">
         <v>4</v>
       </c>
-      <c r="CF11" s="30">
+      <c r="CF11" s="28">
         <v>4</v>
       </c>
-      <c r="CG11" s="30">
+      <c r="CG11" s="28">
         <v>8</v>
       </c>
-      <c r="CH11" s="30">
+      <c r="CH11" s="28">
         <v>200</v>
       </c>
-      <c r="CI11" s="31">
-        <f>IF($C11="win",CF11/2,IF($C11="rhel",1,IF($C11="suse",1,IF($C11="Ubuntu",1,IF($C11="Oracle Linux",1,IF($C11="Debian",1,IF($C11="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="CJ11" s="32">
-        <f>IF($D11="MS SQL Standard Edition - Active VM",CF11/2,IF($D11="MS SQL Enterprise Edition - Active VM",CF11/2,IF($D11="My SQL Community Edition",1,IF($D11="My SQL Enterprise Edition",1,IF($D11="Postgre SQL Community edition",CF11,IF($D11="Postgre SQL Enterprise Edition",CF11,IF($D11="Oracle Standard Edition",1,IF($D11="Oracle Enterprise",CF11/2,IF($D11="Maria DB Community edition",1,IF($D11="MongoDB Community edition",1,IF($D11="MS SQL Standard Edition - Passive VM",,IF($D11="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="CI11" s="29">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="CJ11" s="30">
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="24" t="s">
         <v>7796</v>
       </c>
       <c r="B12" s="14" t="s">
@@ -61604,293 +61612,587 @@
       <c r="D12" s="6" t="s">
         <v>7825</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="25">
         <v>22</v>
       </c>
-      <c r="F12" s="27">
-        <v>2</v>
-      </c>
-      <c r="G12" s="27">
+      <c r="F12" s="25">
+        <v>2</v>
+      </c>
+      <c r="G12" s="25">
         <v>44</v>
       </c>
-      <c r="H12" s="27">
+      <c r="H12" s="25">
         <v>10000</v>
       </c>
-      <c r="I12" s="28">
-        <f>IF($C12="win",F12/2,IF($C12="rhel",1,IF($C12="suse",1,IF($C12="Ubuntu",1,IF($C12="Oracle Linux",1,IF($C12="Debian",1,IF($C12="OEM Specific",1,0)))))))</f>
+      <c r="I12" s="26">
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="J12" s="29">
-        <f>IF($D12="MS SQL Standard Edition - Active VM",F12/2,IF($D12="MS SQL Enterprise Edition - Active VM",F12/2,IF($D12="My SQL Community Edition",1,IF($D12="My SQL Enterprise Edition",1,IF($D12="Postgre SQL Community edition",F12,IF($D12="Postgre SQL Enterprise Edition",F12,IF($D12="Oracle Standard Edition",1,IF($D12="Oracle Enterprise",F12/2,IF($D12="Maria DB Community edition",1,IF($D12="MongoDB Community edition",1,IF($D12="MS SQL Standard Edition - Passive VM",,IF($D12="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="J12" s="27">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K12" s="40">
+      <c r="K12" s="38">
         <v>4</v>
       </c>
-      <c r="L12" s="40">
+      <c r="L12" s="38">
         <v>4</v>
       </c>
-      <c r="M12" s="40">
+      <c r="M12" s="38">
         <v>8</v>
       </c>
-      <c r="N12" s="40">
+      <c r="N12" s="38">
         <v>200</v>
       </c>
-      <c r="O12" s="31">
-        <f>IF($C12="win",L12/2,IF($C12="rhel",1,IF($C12="suse",1,IF($C12="Ubuntu",1,IF($C12="Oracle Linux",1,IF($C12="Debian",1,IF($C12="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="P12" s="32">
-        <f>IF($D12="MS SQL Standard Edition - Active VM",L12/2,IF($D12="MS SQL Enterprise Edition - Active VM",L12/2,IF($D12="My SQL Community Edition",1,IF($D12="My SQL Enterprise Edition",1,IF($D12="Postgre SQL Community edition",L12,IF($D12="Postgre SQL Enterprise Edition",L12,IF($D12="Oracle Standard Edition",1,IF($D12="Oracle Enterprise",L12/2,IF($D12="Maria DB Community edition",1,IF($D12="MongoDB Community edition",1,IF($D12="MS SQL Standard Edition - Passive VM",,IF($D12="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="Q12" s="27">
+      <c r="O12" s="29">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P12" s="30">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q12" s="25">
         <v>4</v>
       </c>
-      <c r="R12" s="27">
+      <c r="R12" s="25">
         <v>4</v>
       </c>
-      <c r="S12" s="27">
+      <c r="S12" s="25">
         <v>8</v>
       </c>
-      <c r="T12" s="27">
+      <c r="T12" s="25">
         <v>200</v>
       </c>
-      <c r="U12" s="28">
-        <f>IF($C12="win",R12/2,IF($C12="rhel",1,IF($C12="suse",1,IF($C12="Ubuntu",1,IF($C12="Oracle Linux",1,IF($C12="Debian",1,IF($C12="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="V12" s="29">
-        <f>IF($D12="MS SQL Standard Edition - Active VM",R12/2,IF($D12="MS SQL Enterprise Edition - Active VM",R12/2,IF($D12="My SQL Community Edition",1,IF($D12="My SQL Enterprise Edition",1,IF($D12="Postgre SQL Community edition",R12,IF($D12="Postgre SQL Enterprise Edition",R12,IF($D12="Oracle Standard Edition",1,IF($D12="Oracle Enterprise",R12/2,IF($D12="Maria DB Community edition",1,IF($D12="MongoDB Community edition",1,IF($D12="MS SQL Standard Edition - Passive VM",,IF($D12="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="W12" s="40">
+      <c r="U12" s="26">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="V12" s="27">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="W12" s="38">
         <v>4</v>
       </c>
-      <c r="X12" s="40">
+      <c r="X12" s="38">
         <v>4</v>
       </c>
-      <c r="Y12" s="40">
+      <c r="Y12" s="38">
         <v>8</v>
       </c>
-      <c r="Z12" s="40">
+      <c r="Z12" s="38">
         <v>200</v>
       </c>
-      <c r="AA12" s="31">
-        <f>IF($C12="win",X12/2,IF($C12="rhel",1,IF($C12="suse",1,IF($C12="Ubuntu",1,IF($C12="Oracle Linux",1,IF($C12="Debian",1,IF($C12="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="AB12" s="32">
-        <f>IF($D12="MS SQL Standard Edition - Active VM",X12/2,IF($D12="MS SQL Enterprise Edition - Active VM",X12/2,IF($D12="My SQL Community Edition",1,IF($D12="My SQL Enterprise Edition",1,IF($D12="Postgre SQL Community edition",X12,IF($D12="Postgre SQL Enterprise Edition",X12,IF($D12="Oracle Standard Edition",1,IF($D12="Oracle Enterprise",X12/2,IF($D12="Maria DB Community edition",1,IF($D12="MongoDB Community edition",1,IF($D12="MS SQL Standard Edition - Passive VM",,IF($D12="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="AC12" s="27">
+      <c r="AA12" s="29">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AB12" s="30">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AC12" s="25">
         <v>4</v>
       </c>
-      <c r="AD12" s="27">
+      <c r="AD12" s="25">
         <v>4</v>
       </c>
-      <c r="AE12" s="27">
+      <c r="AE12" s="25">
         <v>8</v>
       </c>
-      <c r="AF12" s="27">
+      <c r="AF12" s="25">
         <v>200</v>
       </c>
-      <c r="AG12" s="28">
-        <f>IF($C12="win",AD12/2,IF($C12="rhel",1,IF($C12="suse",1,IF($C12="Ubuntu",1,IF($C12="Oracle Linux",1,IF($C12="Debian",1,IF($C12="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="AH12" s="29">
-        <f>IF($D12="MS SQL Standard Edition - Active VM",AD12/2,IF($D12="MS SQL Enterprise Edition - Active VM",AD12/2,IF($D12="My SQL Community Edition",1,IF($D12="My SQL Enterprise Edition",1,IF($D12="Postgre SQL Community edition",AD12,IF($D12="Postgre SQL Enterprise Edition",AD12,IF($D12="Oracle Standard Edition",1,IF($D12="Oracle Enterprise",AD12/2,IF($D12="Maria DB Community edition",1,IF($D12="MongoDB Community edition",1,IF($D12="MS SQL Standard Edition - Passive VM",,IF($D12="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="AI12" s="40">
+      <c r="AG12" s="26">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AH12" s="27">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AI12" s="38">
         <v>4</v>
       </c>
-      <c r="AJ12" s="40">
+      <c r="AJ12" s="38">
         <v>4</v>
       </c>
-      <c r="AK12" s="40">
+      <c r="AK12" s="38">
         <v>8</v>
       </c>
-      <c r="AL12" s="40">
+      <c r="AL12" s="38">
         <v>200</v>
       </c>
-      <c r="AM12" s="31">
-        <f>IF($C12="win",AJ12/2,IF($C12="rhel",1,IF($C12="suse",1,IF($C12="Ubuntu",1,IF($C12="Oracle Linux",1,IF($C12="Debian",1,IF($C12="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="AN12" s="32">
-        <f>IF($D12="MS SQL Standard Edition - Active VM",AJ12/2,IF($D12="MS SQL Enterprise Edition - Active VM",AJ12/2,IF($D12="My SQL Community Edition",1,IF($D12="My SQL Enterprise Edition",1,IF($D12="Postgre SQL Community edition",AJ12,IF($D12="Postgre SQL Enterprise Edition",AJ12,IF($D12="Oracle Standard Edition",1,IF($D12="Oracle Enterprise",AJ12/2,IF($D12="Maria DB Community edition",1,IF($D12="MongoDB Community edition",1,IF($D12="MS SQL Standard Edition - Passive VM",,IF($D12="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="AO12" s="27">
+      <c r="AM12" s="29">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AN12" s="30">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="AO12" s="25">
         <v>4</v>
       </c>
-      <c r="AP12" s="27">
+      <c r="AP12" s="25">
         <v>4</v>
       </c>
-      <c r="AQ12" s="27">
+      <c r="AQ12" s="25">
         <v>8</v>
       </c>
-      <c r="AR12" s="27">
+      <c r="AR12" s="25">
         <v>200</v>
       </c>
-      <c r="AS12" s="28">
-        <f>IF($C12="win",AP12/2,IF($C12="rhel",1,IF($C12="suse",1,IF($C12="Ubuntu",1,IF($C12="Oracle Linux",1,IF($C12="Debian",1,IF($C12="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="AT12" s="29">
-        <f>IF($D12="MS SQL Standard Edition - Active VM",AP12/2,IF($D12="MS SQL Enterprise Edition - Active VM",AP12/2,IF($D12="My SQL Community Edition",1,IF($D12="My SQL Enterprise Edition",1,IF($D12="Postgre SQL Community edition",AP12,IF($D12="Postgre SQL Enterprise Edition",AP12,IF($D12="Oracle Standard Edition",1,IF($D12="Oracle Enterprise",AP12/2,IF($D12="Maria DB Community edition",1,IF($D12="MongoDB Community edition",1,IF($D12="MS SQL Standard Edition - Passive VM",,IF($D12="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="AU12" s="40">
+      <c r="AS12" s="26">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AT12" s="27">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="AU12" s="38">
         <v>4</v>
       </c>
-      <c r="AV12" s="40">
+      <c r="AV12" s="38">
         <v>4</v>
       </c>
-      <c r="AW12" s="40">
+      <c r="AW12" s="38">
         <v>8</v>
       </c>
-      <c r="AX12" s="40">
+      <c r="AX12" s="38">
         <v>200</v>
       </c>
-      <c r="AY12" s="31">
-        <f>IF($C12="win",AV12/2,IF($C12="rhel",1,IF($C12="suse",1,IF($C12="Ubuntu",1,IF($C12="Oracle Linux",1,IF($C12="Debian",1,IF($C12="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="AZ12" s="32">
-        <f>IF($D12="MS SQL Standard Edition - Active VM",AV12/2,IF($D12="MS SQL Enterprise Edition - Active VM",AV12/2,IF($D12="My SQL Community Edition",1,IF($D12="My SQL Enterprise Edition",1,IF($D12="Postgre SQL Community edition",AV12,IF($D12="Postgre SQL Enterprise Edition",AV12,IF($D12="Oracle Standard Edition",1,IF($D12="Oracle Enterprise",AV12/2,IF($D12="Maria DB Community edition",1,IF($D12="MongoDB Community edition",1,IF($D12="MS SQL Standard Edition - Passive VM",,IF($D12="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="BA12" s="27">
+      <c r="AY12" s="29">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="AZ12" s="30">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="BA12" s="25">
         <v>4</v>
       </c>
-      <c r="BB12" s="27">
+      <c r="BB12" s="25">
         <v>4</v>
       </c>
-      <c r="BC12" s="27">
+      <c r="BC12" s="25">
         <v>8</v>
       </c>
-      <c r="BD12" s="27">
+      <c r="BD12" s="25">
         <v>200</v>
       </c>
-      <c r="BE12" s="28">
-        <f>IF($C12="win",BB12/2,IF($C12="rhel",1,IF($C12="suse",1,IF($C12="Ubuntu",1,IF($C12="Oracle Linux",1,IF($C12="Debian",1,IF($C12="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="BF12" s="29">
-        <f>IF($D12="MS SQL Standard Edition - Active VM",BB12/2,IF($D12="MS SQL Enterprise Edition - Active VM",BB12/2,IF($D12="My SQL Community Edition",1,IF($D12="My SQL Enterprise Edition",1,IF($D12="Postgre SQL Community edition",BB12,IF($D12="Postgre SQL Enterprise Edition",BB12,IF($D12="Oracle Standard Edition",1,IF($D12="Oracle Enterprise",BB12/2,IF($D12="Maria DB Community edition",1,IF($D12="MongoDB Community edition",1,IF($D12="MS SQL Standard Edition - Passive VM",,IF($D12="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="BG12" s="40">
+      <c r="BE12" s="26">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="BF12" s="27">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="BG12" s="38">
         <v>4</v>
       </c>
-      <c r="BH12" s="40">
+      <c r="BH12" s="38">
         <v>4</v>
       </c>
-      <c r="BI12" s="40">
+      <c r="BI12" s="38">
         <v>8</v>
       </c>
-      <c r="BJ12" s="40">
+      <c r="BJ12" s="38">
         <v>200</v>
       </c>
-      <c r="BK12" s="31">
-        <f>IF($C12="win",BH12/2,IF($C12="rhel",1,IF($C12="suse",1,IF($C12="Ubuntu",1,IF($C12="Oracle Linux",1,IF($C12="Debian",1,IF($C12="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="BL12" s="32">
-        <f>IF($D12="MS SQL Standard Edition - Active VM",BH12/2,IF($D12="MS SQL Enterprise Edition - Active VM",BH12/2,IF($D12="My SQL Community Edition",1,IF($D12="My SQL Enterprise Edition",1,IF($D12="Postgre SQL Community edition",BH12,IF($D12="Postgre SQL Enterprise Edition",BH12,IF($D12="Oracle Standard Edition",1,IF($D12="Oracle Enterprise",BH12/2,IF($D12="Maria DB Community edition",1,IF($D12="MongoDB Community edition",1,IF($D12="MS SQL Standard Edition - Passive VM",,IF($D12="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="BM12" s="27">
+      <c r="BK12" s="29">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="BL12" s="30">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="BM12" s="25">
         <v>4</v>
       </c>
-      <c r="BN12" s="27">
+      <c r="BN12" s="25">
         <v>4</v>
       </c>
-      <c r="BO12" s="27">
+      <c r="BO12" s="25">
         <v>8</v>
       </c>
-      <c r="BP12" s="27">
+      <c r="BP12" s="25">
         <v>200</v>
       </c>
-      <c r="BQ12" s="28">
-        <f>IF($C12="win",BN12/2,IF($C12="rhel",1,IF($C12="suse",1,IF($C12="Ubuntu",1,IF($C12="Oracle Linux",1,IF($C12="Debian",1,IF($C12="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="BR12" s="29">
-        <f>IF($D12="MS SQL Standard Edition - Active VM",BN12/2,IF($D12="MS SQL Enterprise Edition - Active VM",BN12/2,IF($D12="My SQL Community Edition",1,IF($D12="My SQL Enterprise Edition",1,IF($D12="Postgre SQL Community edition",BN12,IF($D12="Postgre SQL Enterprise Edition",BN12,IF($D12="Oracle Standard Edition",1,IF($D12="Oracle Enterprise",BN12/2,IF($D12="Maria DB Community edition",1,IF($D12="MongoDB Community edition",1,IF($D12="MS SQL Standard Edition - Passive VM",,IF($D12="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="BS12" s="40">
+      <c r="BQ12" s="26">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="BR12" s="27">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="BS12" s="38">
         <v>4</v>
       </c>
-      <c r="BT12" s="40">
+      <c r="BT12" s="38">
         <v>4</v>
       </c>
-      <c r="BU12" s="40">
+      <c r="BU12" s="38">
         <v>8</v>
       </c>
-      <c r="BV12" s="40">
+      <c r="BV12" s="38">
         <v>200</v>
       </c>
-      <c r="BW12" s="31">
-        <f>IF($C12="win",BT12/2,IF($C12="rhel",1,IF($C12="suse",1,IF($C12="Ubuntu",1,IF($C12="Oracle Linux",1,IF($C12="Debian",1,IF($C12="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="BX12" s="32">
-        <f>IF($D12="MS SQL Standard Edition - Active VM",BT12/2,IF($D12="MS SQL Enterprise Edition - Active VM",BT12/2,IF($D12="My SQL Community Edition",1,IF($D12="My SQL Enterprise Edition",1,IF($D12="Postgre SQL Community edition",BT12,IF($D12="Postgre SQL Enterprise Edition",BT12,IF($D12="Oracle Standard Edition",1,IF($D12="Oracle Enterprise",BT12/2,IF($D12="Maria DB Community edition",1,IF($D12="MongoDB Community edition",1,IF($D12="MS SQL Standard Edition - Passive VM",,IF($D12="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="BY12" s="27">
+      <c r="BW12" s="29">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="BX12" s="30">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="BY12" s="25">
         <v>4</v>
       </c>
-      <c r="BZ12" s="27">
+      <c r="BZ12" s="25">
         <v>4</v>
       </c>
-      <c r="CA12" s="27">
+      <c r="CA12" s="25">
         <v>8</v>
       </c>
-      <c r="CB12" s="27">
+      <c r="CB12" s="25">
         <v>200</v>
       </c>
-      <c r="CC12" s="28">
-        <f>IF($C12="win",BZ12/2,IF($C12="rhel",1,IF($C12="suse",1,IF($C12="Ubuntu",1,IF($C12="Oracle Linux",1,IF($C12="Debian",1,IF($C12="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="CD12" s="29">
-        <f>IF($D12="MS SQL Standard Edition - Active VM",BZ12/2,IF($D12="MS SQL Enterprise Edition - Active VM",BZ12/2,IF($D12="My SQL Community Edition",1,IF($D12="My SQL Enterprise Edition",1,IF($D12="Postgre SQL Community edition",BZ12,IF($D12="Postgre SQL Enterprise Edition",BZ12,IF($D12="Oracle Standard Edition",1,IF($D12="Oracle Enterprise",BZ12/2,IF($D12="Maria DB Community edition",1,IF($D12="MongoDB Community edition",1,IF($D12="MS SQL Standard Edition - Passive VM",,IF($D12="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="CE12" s="40">
+      <c r="CC12" s="26">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="CD12" s="27">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="CE12" s="38">
         <v>4</v>
       </c>
-      <c r="CF12" s="40">
+      <c r="CF12" s="38">
         <v>4</v>
       </c>
-      <c r="CG12" s="40">
+      <c r="CG12" s="38">
         <v>8</v>
       </c>
-      <c r="CH12" s="40">
+      <c r="CH12" s="38">
         <v>200</v>
       </c>
-      <c r="CI12" s="31">
-        <f>IF($C12="win",CF12/2,IF($C12="rhel",1,IF($C12="suse",1,IF($C12="Ubuntu",1,IF($C12="Oracle Linux",1,IF($C12="Debian",1,IF($C12="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="CJ12" s="32">
-        <f>IF($D12="MS SQL Standard Edition - Active VM",CF12/2,IF($D12="MS SQL Enterprise Edition - Active VM",CF12/2,IF($D12="My SQL Community Edition",1,IF($D12="My SQL Enterprise Edition",1,IF($D12="Postgre SQL Community edition",CF12,IF($D12="Postgre SQL Enterprise Edition",CF12,IF($D12="Oracle Standard Edition",1,IF($D12="Oracle Enterprise",CF12/2,IF($D12="Maria DB Community edition",1,IF($D12="MongoDB Community edition",1,IF($D12="MS SQL Standard Edition - Passive VM",,IF($D12="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+      <c r="CI12" s="29">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="CJ12" s="30">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:88" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>7839</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>7731</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>7720</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>7825</v>
+      </c>
+      <c r="E13" s="25">
+        <v>22</v>
+      </c>
+      <c r="F13" s="25">
+        <v>2</v>
+      </c>
+      <c r="G13" s="25">
+        <v>44</v>
+      </c>
+      <c r="H13" s="25">
+        <v>10000</v>
+      </c>
+      <c r="I13" s="26">
+        <f t="shared" ref="I13" si="28">IF($C13="win",F13/2,IF($C13="rhel",1,IF($C13="suse",1,IF($C13="Ubuntu",1,IF($C13="Oracle Linux",1,IF($C13="Debian",1,IF($C13="OEM Specific",1,0)))))))</f>
+        <v>1</v>
+      </c>
+      <c r="J13" s="27">
+        <f t="shared" ref="J13" si="29">IF($D13="MS SQL Standard Edition - Active VM",F13/2,IF($D13="MS SQL Enterprise Edition - Active VM",F13/2,IF($D13="My SQL Community Edition",1,IF($D13="My SQL Enterprise Edition",1,IF($D13="Postgre SQL Community edition",F13,IF($D13="Postgre SQL Enterprise Edition",F13,IF($D13="Oracle Standard Edition",1,IF($D13="Oracle Enterprise",F13/2,IF($D13="Maria DB Community edition",1,IF($D13="MongoDB Community edition",1,IF($D13="MS SQL Standard Edition - Passive VM",,IF($D13="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="K13" s="38">
+        <v>4</v>
+      </c>
+      <c r="L13" s="38">
+        <v>4</v>
+      </c>
+      <c r="M13" s="38">
+        <v>8</v>
+      </c>
+      <c r="N13" s="38">
+        <v>200</v>
+      </c>
+      <c r="O13" s="29">
+        <f t="shared" ref="O13" si="30">IF($C13="win",L13/2,IF($C13="rhel",1,IF($C13="suse",1,IF($C13="Ubuntu",1,IF($C13="Oracle Linux",1,IF($C13="Debian",1,IF($C13="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="P13" s="30">
+        <f t="shared" ref="P13" si="31">IF($D13="MS SQL Standard Edition - Active VM",L13/2,IF($D13="MS SQL Enterprise Edition - Active VM",L13/2,IF($D13="My SQL Community Edition",1,IF($D13="My SQL Enterprise Edition",1,IF($D13="Postgre SQL Community edition",L13,IF($D13="Postgre SQL Enterprise Edition",L13,IF($D13="Oracle Standard Edition",1,IF($D13="Oracle Enterprise",L13/2,IF($D13="Maria DB Community edition",1,IF($D13="MongoDB Community edition",1,IF($D13="MS SQL Standard Edition - Passive VM",,IF($D13="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="Q13" s="25">
+        <v>4</v>
+      </c>
+      <c r="R13" s="25">
+        <v>4</v>
+      </c>
+      <c r="S13" s="25">
+        <v>8</v>
+      </c>
+      <c r="T13" s="25">
+        <v>200</v>
+      </c>
+      <c r="U13" s="26">
+        <f t="shared" ref="U13" si="32">IF($C13="win",R13/2,IF($C13="rhel",1,IF($C13="suse",1,IF($C13="Ubuntu",1,IF($C13="Oracle Linux",1,IF($C13="Debian",1,IF($C13="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="V13" s="27">
+        <f t="shared" ref="V13" si="33">IF($D13="MS SQL Standard Edition - Active VM",R13/2,IF($D13="MS SQL Enterprise Edition - Active VM",R13/2,IF($D13="My SQL Community Edition",1,IF($D13="My SQL Enterprise Edition",1,IF($D13="Postgre SQL Community edition",R13,IF($D13="Postgre SQL Enterprise Edition",R13,IF($D13="Oracle Standard Edition",1,IF($D13="Oracle Enterprise",R13/2,IF($D13="Maria DB Community edition",1,IF($D13="MongoDB Community edition",1,IF($D13="MS SQL Standard Edition - Passive VM",,IF($D13="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="W13" s="38">
+        <v>4</v>
+      </c>
+      <c r="X13" s="38">
+        <v>4</v>
+      </c>
+      <c r="Y13" s="38">
+        <v>8</v>
+      </c>
+      <c r="Z13" s="38">
+        <v>200</v>
+      </c>
+      <c r="AA13" s="29">
+        <f t="shared" ref="AA13" si="34">IF($C13="win",X13/2,IF($C13="rhel",1,IF($C13="suse",1,IF($C13="Ubuntu",1,IF($C13="Oracle Linux",1,IF($C13="Debian",1,IF($C13="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AB13" s="30">
+        <f t="shared" ref="AB13" si="35">IF($D13="MS SQL Standard Edition - Active VM",X13/2,IF($D13="MS SQL Enterprise Edition - Active VM",X13/2,IF($D13="My SQL Community Edition",1,IF($D13="My SQL Enterprise Edition",1,IF($D13="Postgre SQL Community edition",X13,IF($D13="Postgre SQL Enterprise Edition",X13,IF($D13="Oracle Standard Edition",1,IF($D13="Oracle Enterprise",X13/2,IF($D13="Maria DB Community edition",1,IF($D13="MongoDB Community edition",1,IF($D13="MS SQL Standard Edition - Passive VM",,IF($D13="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AC13" s="25">
+        <v>4</v>
+      </c>
+      <c r="AD13" s="25">
+        <v>4</v>
+      </c>
+      <c r="AE13" s="25">
+        <v>8</v>
+      </c>
+      <c r="AF13" s="25">
+        <v>200</v>
+      </c>
+      <c r="AG13" s="26">
+        <f t="shared" ref="AG13" si="36">IF($C13="win",AD13/2,IF($C13="rhel",1,IF($C13="suse",1,IF($C13="Ubuntu",1,IF($C13="Oracle Linux",1,IF($C13="Debian",1,IF($C13="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AH13" s="27">
+        <f t="shared" ref="AH13" si="37">IF($D13="MS SQL Standard Edition - Active VM",AD13/2,IF($D13="MS SQL Enterprise Edition - Active VM",AD13/2,IF($D13="My SQL Community Edition",1,IF($D13="My SQL Enterprise Edition",1,IF($D13="Postgre SQL Community edition",AD13,IF($D13="Postgre SQL Enterprise Edition",AD13,IF($D13="Oracle Standard Edition",1,IF($D13="Oracle Enterprise",AD13/2,IF($D13="Maria DB Community edition",1,IF($D13="MongoDB Community edition",1,IF($D13="MS SQL Standard Edition - Passive VM",,IF($D13="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AI13" s="38">
+        <v>4</v>
+      </c>
+      <c r="AJ13" s="38">
+        <v>4</v>
+      </c>
+      <c r="AK13" s="38">
+        <v>8</v>
+      </c>
+      <c r="AL13" s="38">
+        <v>200</v>
+      </c>
+      <c r="AM13" s="29">
+        <f t="shared" ref="AM13" si="38">IF($C13="win",AJ13/2,IF($C13="rhel",1,IF($C13="suse",1,IF($C13="Ubuntu",1,IF($C13="Oracle Linux",1,IF($C13="Debian",1,IF($C13="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AN13" s="30">
+        <f t="shared" ref="AN13" si="39">IF($D13="MS SQL Standard Edition - Active VM",AJ13/2,IF($D13="MS SQL Enterprise Edition - Active VM",AJ13/2,IF($D13="My SQL Community Edition",1,IF($D13="My SQL Enterprise Edition",1,IF($D13="Postgre SQL Community edition",AJ13,IF($D13="Postgre SQL Enterprise Edition",AJ13,IF($D13="Oracle Standard Edition",1,IF($D13="Oracle Enterprise",AJ13/2,IF($D13="Maria DB Community edition",1,IF($D13="MongoDB Community edition",1,IF($D13="MS SQL Standard Edition - Passive VM",,IF($D13="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AO13" s="25">
+        <v>4</v>
+      </c>
+      <c r="AP13" s="25">
+        <v>4</v>
+      </c>
+      <c r="AQ13" s="25">
+        <v>8</v>
+      </c>
+      <c r="AR13" s="25">
+        <v>200</v>
+      </c>
+      <c r="AS13" s="26">
+        <f t="shared" ref="AS13" si="40">IF($C13="win",AP13/2,IF($C13="rhel",1,IF($C13="suse",1,IF($C13="Ubuntu",1,IF($C13="Oracle Linux",1,IF($C13="Debian",1,IF($C13="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AT13" s="27">
+        <f t="shared" ref="AT13" si="41">IF($D13="MS SQL Standard Edition - Active VM",AP13/2,IF($D13="MS SQL Enterprise Edition - Active VM",AP13/2,IF($D13="My SQL Community Edition",1,IF($D13="My SQL Enterprise Edition",1,IF($D13="Postgre SQL Community edition",AP13,IF($D13="Postgre SQL Enterprise Edition",AP13,IF($D13="Oracle Standard Edition",1,IF($D13="Oracle Enterprise",AP13/2,IF($D13="Maria DB Community edition",1,IF($D13="MongoDB Community edition",1,IF($D13="MS SQL Standard Edition - Passive VM",,IF($D13="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AU13" s="38">
+        <v>4</v>
+      </c>
+      <c r="AV13" s="38">
+        <v>4</v>
+      </c>
+      <c r="AW13" s="38">
+        <v>8</v>
+      </c>
+      <c r="AX13" s="38">
+        <v>200</v>
+      </c>
+      <c r="AY13" s="29">
+        <f t="shared" ref="AY13" si="42">IF($C13="win",AV13/2,IF($C13="rhel",1,IF($C13="suse",1,IF($C13="Ubuntu",1,IF($C13="Oracle Linux",1,IF($C13="Debian",1,IF($C13="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AZ13" s="30">
+        <f t="shared" ref="AZ13" si="43">IF($D13="MS SQL Standard Edition - Active VM",AV13/2,IF($D13="MS SQL Enterprise Edition - Active VM",AV13/2,IF($D13="My SQL Community Edition",1,IF($D13="My SQL Enterprise Edition",1,IF($D13="Postgre SQL Community edition",AV13,IF($D13="Postgre SQL Enterprise Edition",AV13,IF($D13="Oracle Standard Edition",1,IF($D13="Oracle Enterprise",AV13/2,IF($D13="Maria DB Community edition",1,IF($D13="MongoDB Community edition",1,IF($D13="MS SQL Standard Edition - Passive VM",,IF($D13="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="BA13" s="25">
+        <v>4</v>
+      </c>
+      <c r="BB13" s="25">
+        <v>4</v>
+      </c>
+      <c r="BC13" s="25">
+        <v>8</v>
+      </c>
+      <c r="BD13" s="25">
+        <v>200</v>
+      </c>
+      <c r="BE13" s="26">
+        <f t="shared" ref="BE13" si="44">IF($C13="win",BB13/2,IF($C13="rhel",1,IF($C13="suse",1,IF($C13="Ubuntu",1,IF($C13="Oracle Linux",1,IF($C13="Debian",1,IF($C13="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="BF13" s="27">
+        <f t="shared" ref="BF13" si="45">IF($D13="MS SQL Standard Edition - Active VM",BB13/2,IF($D13="MS SQL Enterprise Edition - Active VM",BB13/2,IF($D13="My SQL Community Edition",1,IF($D13="My SQL Enterprise Edition",1,IF($D13="Postgre SQL Community edition",BB13,IF($D13="Postgre SQL Enterprise Edition",BB13,IF($D13="Oracle Standard Edition",1,IF($D13="Oracle Enterprise",BB13/2,IF($D13="Maria DB Community edition",1,IF($D13="MongoDB Community edition",1,IF($D13="MS SQL Standard Edition - Passive VM",,IF($D13="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="BG13" s="38">
+        <v>4</v>
+      </c>
+      <c r="BH13" s="38">
+        <v>4</v>
+      </c>
+      <c r="BI13" s="38">
+        <v>8</v>
+      </c>
+      <c r="BJ13" s="38">
+        <v>200</v>
+      </c>
+      <c r="BK13" s="29">
+        <f t="shared" ref="BK13" si="46">IF($C13="win",BH13/2,IF($C13="rhel",1,IF($C13="suse",1,IF($C13="Ubuntu",1,IF($C13="Oracle Linux",1,IF($C13="Debian",1,IF($C13="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="BL13" s="30">
+        <f t="shared" ref="BL13" si="47">IF($D13="MS SQL Standard Edition - Active VM",BH13/2,IF($D13="MS SQL Enterprise Edition - Active VM",BH13/2,IF($D13="My SQL Community Edition",1,IF($D13="My SQL Enterprise Edition",1,IF($D13="Postgre SQL Community edition",BH13,IF($D13="Postgre SQL Enterprise Edition",BH13,IF($D13="Oracle Standard Edition",1,IF($D13="Oracle Enterprise",BH13/2,IF($D13="Maria DB Community edition",1,IF($D13="MongoDB Community edition",1,IF($D13="MS SQL Standard Edition - Passive VM",,IF($D13="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="BM13" s="25">
+        <v>4</v>
+      </c>
+      <c r="BN13" s="25">
+        <v>4</v>
+      </c>
+      <c r="BO13" s="25">
+        <v>8</v>
+      </c>
+      <c r="BP13" s="25">
+        <v>200</v>
+      </c>
+      <c r="BQ13" s="26">
+        <f t="shared" ref="BQ13" si="48">IF($C13="win",BN13/2,IF($C13="rhel",1,IF($C13="suse",1,IF($C13="Ubuntu",1,IF($C13="Oracle Linux",1,IF($C13="Debian",1,IF($C13="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="BR13" s="27">
+        <f t="shared" ref="BR13" si="49">IF($D13="MS SQL Standard Edition - Active VM",BN13/2,IF($D13="MS SQL Enterprise Edition - Active VM",BN13/2,IF($D13="My SQL Community Edition",1,IF($D13="My SQL Enterprise Edition",1,IF($D13="Postgre SQL Community edition",BN13,IF($D13="Postgre SQL Enterprise Edition",BN13,IF($D13="Oracle Standard Edition",1,IF($D13="Oracle Enterprise",BN13/2,IF($D13="Maria DB Community edition",1,IF($D13="MongoDB Community edition",1,IF($D13="MS SQL Standard Edition - Passive VM",,IF($D13="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="BS13" s="38">
+        <v>4</v>
+      </c>
+      <c r="BT13" s="38">
+        <v>4</v>
+      </c>
+      <c r="BU13" s="38">
+        <v>8</v>
+      </c>
+      <c r="BV13" s="38">
+        <v>200</v>
+      </c>
+      <c r="BW13" s="29">
+        <f t="shared" ref="BW13" si="50">IF($C13="win",BT13/2,IF($C13="rhel",1,IF($C13="suse",1,IF($C13="Ubuntu",1,IF($C13="Oracle Linux",1,IF($C13="Debian",1,IF($C13="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="BX13" s="30">
+        <f t="shared" ref="BX13" si="51">IF($D13="MS SQL Standard Edition - Active VM",BT13/2,IF($D13="MS SQL Enterprise Edition - Active VM",BT13/2,IF($D13="My SQL Community Edition",1,IF($D13="My SQL Enterprise Edition",1,IF($D13="Postgre SQL Community edition",BT13,IF($D13="Postgre SQL Enterprise Edition",BT13,IF($D13="Oracle Standard Edition",1,IF($D13="Oracle Enterprise",BT13/2,IF($D13="Maria DB Community edition",1,IF($D13="MongoDB Community edition",1,IF($D13="MS SQL Standard Edition - Passive VM",,IF($D13="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="BY13" s="25">
+        <v>4</v>
+      </c>
+      <c r="BZ13" s="25">
+        <v>4</v>
+      </c>
+      <c r="CA13" s="25">
+        <v>8</v>
+      </c>
+      <c r="CB13" s="25">
+        <v>200</v>
+      </c>
+      <c r="CC13" s="26">
+        <f t="shared" ref="CC13" si="52">IF($C13="win",BZ13/2,IF($C13="rhel",1,IF($C13="suse",1,IF($C13="Ubuntu",1,IF($C13="Oracle Linux",1,IF($C13="Debian",1,IF($C13="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="CD13" s="27">
+        <f t="shared" ref="CD13" si="53">IF($D13="MS SQL Standard Edition - Active VM",BZ13/2,IF($D13="MS SQL Enterprise Edition - Active VM",BZ13/2,IF($D13="My SQL Community Edition",1,IF($D13="My SQL Enterprise Edition",1,IF($D13="Postgre SQL Community edition",BZ13,IF($D13="Postgre SQL Enterprise Edition",BZ13,IF($D13="Oracle Standard Edition",1,IF($D13="Oracle Enterprise",BZ13/2,IF($D13="Maria DB Community edition",1,IF($D13="MongoDB Community edition",1,IF($D13="MS SQL Standard Edition - Passive VM",,IF($D13="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="CE13" s="38">
+        <v>4</v>
+      </c>
+      <c r="CF13" s="38">
+        <v>4</v>
+      </c>
+      <c r="CG13" s="38">
+        <v>8</v>
+      </c>
+      <c r="CH13" s="38">
+        <v>200</v>
+      </c>
+      <c r="CI13" s="29">
+        <f t="shared" ref="CI13" si="54">IF($C13="win",CF13/2,IF($C13="rhel",1,IF($C13="suse",1,IF($C13="Ubuntu",1,IF($C13="Oracle Linux",1,IF($C13="Debian",1,IF($C13="OEM Specific",1,0)))))))</f>
+        <v>2</v>
+      </c>
+      <c r="CJ13" s="30">
+        <f t="shared" ref="CJ13" si="55">IF($D13="MS SQL Standard Edition - Active VM",CF13/2,IF($D13="MS SQL Enterprise Edition - Active VM",CF13/2,IF($D13="My SQL Community Edition",1,IF($D13="My SQL Enterprise Edition",1,IF($D13="Postgre SQL Community edition",CF13,IF($D13="Postgre SQL Enterprise Edition",CF13,IF($D13="Oracle Standard Edition",1,IF($D13="Oracle Enterprise",CF13/2,IF($D13="Maria DB Community edition",1,IF($D13="MongoDB Community edition",1,IF($D13="MS SQL Standard Edition - Passive VM",,IF($D13="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D13">
       <formula1>$CQ$1:$CQ$16</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C13">
       <formula1>$CP$1:$CP$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -61904,7 +62206,7 @@
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61925,13 +62227,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="13" t="s">
         <v>7695</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="13" t="s">
         <v>114</v>
       </c>
       <c r="D1" s="13" t="s">
@@ -61978,25 +62280,25 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
@@ -62269,25 +62571,25 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
@@ -63748,25 +64050,25 @@
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="24"/>
-      <c r="O36" s="24"/>
-      <c r="P36" s="24"/>
-      <c r="Q36" s="24"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="str">
@@ -63877,25 +64179,25 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="24"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="str">
@@ -64870,25 +65172,25 @@
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="23" t="s">
+      <c r="A58" s="39" t="s">
         <v>323</v>
       </c>
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="24"/>
-      <c r="K58" s="24"/>
-      <c r="L58" s="24"/>
-      <c r="M58" s="24"/>
-      <c r="N58" s="24"/>
-      <c r="O58" s="24"/>
-      <c r="P58" s="24"/>
-      <c r="Q58" s="24"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="40"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="40"/>
+      <c r="K58" s="40"/>
+      <c r="L58" s="40"/>
+      <c r="M58" s="40"/>
+      <c r="N58" s="40"/>
+      <c r="O58" s="40"/>
+      <c r="P58" s="40"/>
+      <c r="Q58" s="40"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="str">
@@ -65387,4 +65689,3440 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q66"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="45.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>7695</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>7761</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>7709</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>7710</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>7711</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7712</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>7713</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>7714</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>7715</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>7716</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>7762</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>7717</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>7718</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>7719</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="str">
+        <f>$A$2</f>
+        <v>Software Licenses</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1">
+        <v>9</v>
+      </c>
+      <c r="I3" s="1">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1">
+        <v>11</v>
+      </c>
+      <c r="K3" s="1">
+        <v>12</v>
+      </c>
+      <c r="L3" s="1">
+        <v>13</v>
+      </c>
+      <c r="M3" s="1">
+        <v>14</v>
+      </c>
+      <c r="N3" s="1">
+        <v>15</v>
+      </c>
+      <c r="O3" s="1">
+        <v>13</v>
+      </c>
+      <c r="P3" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="str">
+        <f>$A$2</f>
+        <v>Software Licenses</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7696</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1">
+        <v>8</v>
+      </c>
+      <c r="H4" s="1">
+        <v>9</v>
+      </c>
+      <c r="I4" s="1">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1">
+        <v>11</v>
+      </c>
+      <c r="K4" s="1">
+        <v>12</v>
+      </c>
+      <c r="L4" s="1">
+        <v>13</v>
+      </c>
+      <c r="M4" s="1">
+        <v>14</v>
+      </c>
+      <c r="N4" s="1">
+        <v>15</v>
+      </c>
+      <c r="O4" s="1">
+        <v>13</v>
+      </c>
+      <c r="P4" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="str">
+        <f>$A$2</f>
+        <v>Software Licenses</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7697</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1">
+        <v>9</v>
+      </c>
+      <c r="I5" s="1">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1">
+        <v>11</v>
+      </c>
+      <c r="K5" s="1">
+        <v>12</v>
+      </c>
+      <c r="L5" s="1">
+        <v>13</v>
+      </c>
+      <c r="M5" s="1">
+        <v>14</v>
+      </c>
+      <c r="N5" s="1">
+        <v>15</v>
+      </c>
+      <c r="O5" s="1">
+        <v>13</v>
+      </c>
+      <c r="P5" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="str">
+        <f>$A$2</f>
+        <v>Software Licenses</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7698</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1">
+        <v>7</v>
+      </c>
+      <c r="G6" s="1">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1">
+        <v>9</v>
+      </c>
+      <c r="I6" s="1">
+        <v>10</v>
+      </c>
+      <c r="J6" s="1">
+        <v>11</v>
+      </c>
+      <c r="K6" s="1">
+        <v>12</v>
+      </c>
+      <c r="L6" s="1">
+        <v>13</v>
+      </c>
+      <c r="M6" s="1">
+        <v>14</v>
+      </c>
+      <c r="N6" s="1">
+        <v>15</v>
+      </c>
+      <c r="O6" s="1">
+        <v>13</v>
+      </c>
+      <c r="P6" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="str">
+        <f t="shared" ref="A8:A34" si="0">$A$7</f>
+        <v>Storage and Backup Services</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1">
+        <v>8</v>
+      </c>
+      <c r="H8" s="1">
+        <v>9</v>
+      </c>
+      <c r="I8" s="1">
+        <v>10</v>
+      </c>
+      <c r="J8" s="1">
+        <v>11</v>
+      </c>
+      <c r="K8" s="1">
+        <v>12</v>
+      </c>
+      <c r="L8" s="1">
+        <v>13</v>
+      </c>
+      <c r="M8" s="1">
+        <v>14</v>
+      </c>
+      <c r="N8" s="1">
+        <v>15</v>
+      </c>
+      <c r="O8" s="1">
+        <v>13</v>
+      </c>
+      <c r="P8" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Storage and Backup Services</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="1">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1">
+        <v>7</v>
+      </c>
+      <c r="G9" s="1">
+        <v>8</v>
+      </c>
+      <c r="H9" s="1">
+        <v>9</v>
+      </c>
+      <c r="I9" s="1">
+        <v>10</v>
+      </c>
+      <c r="J9" s="1">
+        <v>11</v>
+      </c>
+      <c r="K9" s="1">
+        <v>12</v>
+      </c>
+      <c r="L9" s="1">
+        <v>13</v>
+      </c>
+      <c r="M9" s="1">
+        <v>14</v>
+      </c>
+      <c r="N9" s="1">
+        <v>15</v>
+      </c>
+      <c r="O9" s="1">
+        <v>13</v>
+      </c>
+      <c r="P9" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Storage and Backup Services</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="1">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1">
+        <v>7</v>
+      </c>
+      <c r="G10" s="1">
+        <v>8</v>
+      </c>
+      <c r="H10" s="1">
+        <v>9</v>
+      </c>
+      <c r="I10" s="1">
+        <v>10</v>
+      </c>
+      <c r="J10" s="1">
+        <v>11</v>
+      </c>
+      <c r="K10" s="1">
+        <v>12</v>
+      </c>
+      <c r="L10" s="1">
+        <v>13</v>
+      </c>
+      <c r="M10" s="1">
+        <v>14</v>
+      </c>
+      <c r="N10" s="1">
+        <v>15</v>
+      </c>
+      <c r="O10" s="1">
+        <v>13</v>
+      </c>
+      <c r="P10" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Storage and Backup Services</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11" s="1">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1">
+        <v>7</v>
+      </c>
+      <c r="G11" s="1">
+        <v>8</v>
+      </c>
+      <c r="H11" s="1">
+        <v>9</v>
+      </c>
+      <c r="I11" s="1">
+        <v>10</v>
+      </c>
+      <c r="J11" s="1">
+        <v>11</v>
+      </c>
+      <c r="K11" s="1">
+        <v>12</v>
+      </c>
+      <c r="L11" s="1">
+        <v>13</v>
+      </c>
+      <c r="M11" s="1">
+        <v>14</v>
+      </c>
+      <c r="N11" s="1">
+        <v>15</v>
+      </c>
+      <c r="O11" s="1">
+        <v>13</v>
+      </c>
+      <c r="P11" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Storage and Backup Services</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="1">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1">
+        <v>7</v>
+      </c>
+      <c r="G12" s="1">
+        <v>8</v>
+      </c>
+      <c r="H12" s="1">
+        <v>9</v>
+      </c>
+      <c r="I12" s="1">
+        <v>10</v>
+      </c>
+      <c r="J12" s="1">
+        <v>11</v>
+      </c>
+      <c r="K12" s="1">
+        <v>12</v>
+      </c>
+      <c r="L12" s="1">
+        <v>13</v>
+      </c>
+      <c r="M12" s="1">
+        <v>14</v>
+      </c>
+      <c r="N12" s="1">
+        <v>15</v>
+      </c>
+      <c r="O12" s="1">
+        <v>13</v>
+      </c>
+      <c r="P12" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Storage and Backup Services</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" s="1">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1">
+        <v>6</v>
+      </c>
+      <c r="F13" s="1">
+        <v>7</v>
+      </c>
+      <c r="G13" s="1">
+        <v>8</v>
+      </c>
+      <c r="H13" s="1">
+        <v>9</v>
+      </c>
+      <c r="I13" s="1">
+        <v>10</v>
+      </c>
+      <c r="J13" s="1">
+        <v>11</v>
+      </c>
+      <c r="K13" s="1">
+        <v>12</v>
+      </c>
+      <c r="L13" s="1">
+        <v>13</v>
+      </c>
+      <c r="M13" s="1">
+        <v>14</v>
+      </c>
+      <c r="N13" s="1">
+        <v>15</v>
+      </c>
+      <c r="O13" s="1">
+        <v>13</v>
+      </c>
+      <c r="P13" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Storage and Backup Services</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" s="1">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1">
+        <v>6</v>
+      </c>
+      <c r="F14" s="1">
+        <v>7</v>
+      </c>
+      <c r="G14" s="1">
+        <v>8</v>
+      </c>
+      <c r="H14" s="1">
+        <v>9</v>
+      </c>
+      <c r="I14" s="1">
+        <v>10</v>
+      </c>
+      <c r="J14" s="1">
+        <v>11</v>
+      </c>
+      <c r="K14" s="1">
+        <v>12</v>
+      </c>
+      <c r="L14" s="1">
+        <v>13</v>
+      </c>
+      <c r="M14" s="1">
+        <v>14</v>
+      </c>
+      <c r="N14" s="1">
+        <v>15</v>
+      </c>
+      <c r="O14" s="1">
+        <v>13</v>
+      </c>
+      <c r="P14" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Storage and Backup Services</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D15" s="1">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1">
+        <v>6</v>
+      </c>
+      <c r="F15" s="1">
+        <v>7</v>
+      </c>
+      <c r="G15" s="1">
+        <v>8</v>
+      </c>
+      <c r="H15" s="1">
+        <v>9</v>
+      </c>
+      <c r="I15" s="1">
+        <v>10</v>
+      </c>
+      <c r="J15" s="1">
+        <v>11</v>
+      </c>
+      <c r="K15" s="1">
+        <v>12</v>
+      </c>
+      <c r="L15" s="1">
+        <v>13</v>
+      </c>
+      <c r="M15" s="1">
+        <v>14</v>
+      </c>
+      <c r="N15" s="1">
+        <v>15</v>
+      </c>
+      <c r="O15" s="1">
+        <v>13</v>
+      </c>
+      <c r="P15" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Storage and Backup Services</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" s="1">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1">
+        <v>6</v>
+      </c>
+      <c r="F16" s="1">
+        <v>7</v>
+      </c>
+      <c r="G16" s="1">
+        <v>8</v>
+      </c>
+      <c r="H16" s="1">
+        <v>9</v>
+      </c>
+      <c r="I16" s="1">
+        <v>10</v>
+      </c>
+      <c r="J16" s="1">
+        <v>11</v>
+      </c>
+      <c r="K16" s="1">
+        <v>12</v>
+      </c>
+      <c r="L16" s="1">
+        <v>13</v>
+      </c>
+      <c r="M16" s="1">
+        <v>14</v>
+      </c>
+      <c r="N16" s="1">
+        <v>15</v>
+      </c>
+      <c r="O16" s="1">
+        <v>13</v>
+      </c>
+      <c r="P16" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Storage and Backup Services</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D17" s="1">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1">
+        <v>6</v>
+      </c>
+      <c r="F17" s="1">
+        <v>7</v>
+      </c>
+      <c r="G17" s="1">
+        <v>8</v>
+      </c>
+      <c r="H17" s="1">
+        <v>9</v>
+      </c>
+      <c r="I17" s="1">
+        <v>10</v>
+      </c>
+      <c r="J17" s="1">
+        <v>11</v>
+      </c>
+      <c r="K17" s="1">
+        <v>12</v>
+      </c>
+      <c r="L17" s="1">
+        <v>13</v>
+      </c>
+      <c r="M17" s="1">
+        <v>14</v>
+      </c>
+      <c r="N17" s="1">
+        <v>15</v>
+      </c>
+      <c r="O17" s="1">
+        <v>13</v>
+      </c>
+      <c r="P17" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Storage and Backup Services</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D18" s="1">
+        <v>15</v>
+      </c>
+      <c r="E18" s="1">
+        <v>6</v>
+      </c>
+      <c r="F18" s="1">
+        <v>7</v>
+      </c>
+      <c r="G18" s="1">
+        <v>8</v>
+      </c>
+      <c r="H18" s="1">
+        <v>9</v>
+      </c>
+      <c r="I18" s="1">
+        <v>10</v>
+      </c>
+      <c r="J18" s="1">
+        <v>11</v>
+      </c>
+      <c r="K18" s="1">
+        <v>12</v>
+      </c>
+      <c r="L18" s="1">
+        <v>13</v>
+      </c>
+      <c r="M18" s="1">
+        <v>14</v>
+      </c>
+      <c r="N18" s="1">
+        <v>15</v>
+      </c>
+      <c r="O18" s="1">
+        <v>13</v>
+      </c>
+      <c r="P18" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Storage and Backup Services</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D19" s="1">
+        <v>16</v>
+      </c>
+      <c r="E19" s="1">
+        <v>6</v>
+      </c>
+      <c r="F19" s="1">
+        <v>7</v>
+      </c>
+      <c r="G19" s="1">
+        <v>8</v>
+      </c>
+      <c r="H19" s="1">
+        <v>9</v>
+      </c>
+      <c r="I19" s="1">
+        <v>10</v>
+      </c>
+      <c r="J19" s="1">
+        <v>11</v>
+      </c>
+      <c r="K19" s="1">
+        <v>12</v>
+      </c>
+      <c r="L19" s="1">
+        <v>13</v>
+      </c>
+      <c r="M19" s="1">
+        <v>14</v>
+      </c>
+      <c r="N19" s="1">
+        <v>15</v>
+      </c>
+      <c r="O19" s="1">
+        <v>13</v>
+      </c>
+      <c r="P19" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Storage and Backup Services</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" s="1">
+        <v>17</v>
+      </c>
+      <c r="E20" s="1">
+        <v>6</v>
+      </c>
+      <c r="F20" s="1">
+        <v>7</v>
+      </c>
+      <c r="G20" s="1">
+        <v>8</v>
+      </c>
+      <c r="H20" s="1">
+        <v>9</v>
+      </c>
+      <c r="I20" s="1">
+        <v>10</v>
+      </c>
+      <c r="J20" s="1">
+        <v>11</v>
+      </c>
+      <c r="K20" s="1">
+        <v>12</v>
+      </c>
+      <c r="L20" s="1">
+        <v>13</v>
+      </c>
+      <c r="M20" s="1">
+        <v>14</v>
+      </c>
+      <c r="N20" s="1">
+        <v>15</v>
+      </c>
+      <c r="O20" s="1">
+        <v>13</v>
+      </c>
+      <c r="P20" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Storage and Backup Services</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D21" s="1">
+        <v>18</v>
+      </c>
+      <c r="E21" s="1">
+        <v>6</v>
+      </c>
+      <c r="F21" s="1">
+        <v>7</v>
+      </c>
+      <c r="G21" s="1">
+        <v>8</v>
+      </c>
+      <c r="H21" s="1">
+        <v>9</v>
+      </c>
+      <c r="I21" s="1">
+        <v>10</v>
+      </c>
+      <c r="J21" s="1">
+        <v>11</v>
+      </c>
+      <c r="K21" s="1">
+        <v>12</v>
+      </c>
+      <c r="L21" s="1">
+        <v>13</v>
+      </c>
+      <c r="M21" s="1">
+        <v>14</v>
+      </c>
+      <c r="N21" s="1">
+        <v>15</v>
+      </c>
+      <c r="O21" s="1">
+        <v>13</v>
+      </c>
+      <c r="P21" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Storage and Backup Services</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D22" s="1">
+        <v>19</v>
+      </c>
+      <c r="E22" s="1">
+        <v>6</v>
+      </c>
+      <c r="F22" s="1">
+        <v>7</v>
+      </c>
+      <c r="G22" s="1">
+        <v>8</v>
+      </c>
+      <c r="H22" s="1">
+        <v>9</v>
+      </c>
+      <c r="I22" s="1">
+        <v>10</v>
+      </c>
+      <c r="J22" s="1">
+        <v>11</v>
+      </c>
+      <c r="K22" s="1">
+        <v>12</v>
+      </c>
+      <c r="L22" s="1">
+        <v>13</v>
+      </c>
+      <c r="M22" s="1">
+        <v>14</v>
+      </c>
+      <c r="N22" s="1">
+        <v>15</v>
+      </c>
+      <c r="O22" s="1">
+        <v>13</v>
+      </c>
+      <c r="P22" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Storage and Backup Services</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D23" s="1">
+        <v>20</v>
+      </c>
+      <c r="E23" s="1">
+        <v>6</v>
+      </c>
+      <c r="F23" s="1">
+        <v>7</v>
+      </c>
+      <c r="G23" s="1">
+        <v>8</v>
+      </c>
+      <c r="H23" s="1">
+        <v>9</v>
+      </c>
+      <c r="I23" s="1">
+        <v>10</v>
+      </c>
+      <c r="J23" s="1">
+        <v>11</v>
+      </c>
+      <c r="K23" s="1">
+        <v>12</v>
+      </c>
+      <c r="L23" s="1">
+        <v>13</v>
+      </c>
+      <c r="M23" s="1">
+        <v>14</v>
+      </c>
+      <c r="N23" s="1">
+        <v>15</v>
+      </c>
+      <c r="O23" s="1">
+        <v>13</v>
+      </c>
+      <c r="P23" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Storage and Backup Services</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D24" s="1">
+        <v>21</v>
+      </c>
+      <c r="E24" s="1">
+        <v>6</v>
+      </c>
+      <c r="F24" s="1">
+        <v>7</v>
+      </c>
+      <c r="G24" s="1">
+        <v>8</v>
+      </c>
+      <c r="H24" s="1">
+        <v>9</v>
+      </c>
+      <c r="I24" s="1">
+        <v>10</v>
+      </c>
+      <c r="J24" s="1">
+        <v>11</v>
+      </c>
+      <c r="K24" s="1">
+        <v>12</v>
+      </c>
+      <c r="L24" s="1">
+        <v>13</v>
+      </c>
+      <c r="M24" s="1">
+        <v>14</v>
+      </c>
+      <c r="N24" s="1">
+        <v>15</v>
+      </c>
+      <c r="O24" s="1">
+        <v>13</v>
+      </c>
+      <c r="P24" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Storage and Backup Services</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D25" s="1">
+        <v>22</v>
+      </c>
+      <c r="E25" s="1">
+        <v>6</v>
+      </c>
+      <c r="F25" s="1">
+        <v>7</v>
+      </c>
+      <c r="G25" s="1">
+        <v>8</v>
+      </c>
+      <c r="H25" s="1">
+        <v>9</v>
+      </c>
+      <c r="I25" s="1">
+        <v>10</v>
+      </c>
+      <c r="J25" s="1">
+        <v>11</v>
+      </c>
+      <c r="K25" s="1">
+        <v>12</v>
+      </c>
+      <c r="L25" s="1">
+        <v>13</v>
+      </c>
+      <c r="M25" s="1">
+        <v>14</v>
+      </c>
+      <c r="N25" s="1">
+        <v>15</v>
+      </c>
+      <c r="O25" s="1">
+        <v>13</v>
+      </c>
+      <c r="P25" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Storage and Backup Services</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D26" s="1">
+        <v>23</v>
+      </c>
+      <c r="E26" s="1">
+        <v>6</v>
+      </c>
+      <c r="F26" s="1">
+        <v>7</v>
+      </c>
+      <c r="G26" s="1">
+        <v>8</v>
+      </c>
+      <c r="H26" s="1">
+        <v>9</v>
+      </c>
+      <c r="I26" s="1">
+        <v>10</v>
+      </c>
+      <c r="J26" s="1">
+        <v>11</v>
+      </c>
+      <c r="K26" s="1">
+        <v>12</v>
+      </c>
+      <c r="L26" s="1">
+        <v>13</v>
+      </c>
+      <c r="M26" s="1">
+        <v>14</v>
+      </c>
+      <c r="N26" s="1">
+        <v>15</v>
+      </c>
+      <c r="O26" s="1">
+        <v>13</v>
+      </c>
+      <c r="P26" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Storage and Backup Services</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D27" s="1">
+        <v>24</v>
+      </c>
+      <c r="E27" s="1">
+        <v>6</v>
+      </c>
+      <c r="F27" s="1">
+        <v>7</v>
+      </c>
+      <c r="G27" s="1">
+        <v>8</v>
+      </c>
+      <c r="H27" s="1">
+        <v>9</v>
+      </c>
+      <c r="I27" s="1">
+        <v>10</v>
+      </c>
+      <c r="J27" s="1">
+        <v>11</v>
+      </c>
+      <c r="K27" s="1">
+        <v>12</v>
+      </c>
+      <c r="L27" s="1">
+        <v>13</v>
+      </c>
+      <c r="M27" s="1">
+        <v>14</v>
+      </c>
+      <c r="N27" s="1">
+        <v>15</v>
+      </c>
+      <c r="O27" s="1">
+        <v>13</v>
+      </c>
+      <c r="P27" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Storage and Backup Services</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D28" s="1">
+        <v>25</v>
+      </c>
+      <c r="E28" s="1">
+        <v>6</v>
+      </c>
+      <c r="F28" s="1">
+        <v>7</v>
+      </c>
+      <c r="G28" s="1">
+        <v>8</v>
+      </c>
+      <c r="H28" s="1">
+        <v>9</v>
+      </c>
+      <c r="I28" s="1">
+        <v>10</v>
+      </c>
+      <c r="J28" s="1">
+        <v>11</v>
+      </c>
+      <c r="K28" s="1">
+        <v>12</v>
+      </c>
+      <c r="L28" s="1">
+        <v>13</v>
+      </c>
+      <c r="M28" s="1">
+        <v>14</v>
+      </c>
+      <c r="N28" s="1">
+        <v>15</v>
+      </c>
+      <c r="O28" s="1">
+        <v>13</v>
+      </c>
+      <c r="P28" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Storage and Backup Services</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D29" s="1">
+        <v>26</v>
+      </c>
+      <c r="E29" s="1">
+        <v>6</v>
+      </c>
+      <c r="F29" s="1">
+        <v>7</v>
+      </c>
+      <c r="G29" s="1">
+        <v>8</v>
+      </c>
+      <c r="H29" s="1">
+        <v>9</v>
+      </c>
+      <c r="I29" s="1">
+        <v>10</v>
+      </c>
+      <c r="J29" s="1">
+        <v>11</v>
+      </c>
+      <c r="K29" s="1">
+        <v>12</v>
+      </c>
+      <c r="L29" s="1">
+        <v>13</v>
+      </c>
+      <c r="M29" s="1">
+        <v>14</v>
+      </c>
+      <c r="N29" s="1">
+        <v>15</v>
+      </c>
+      <c r="O29" s="1">
+        <v>13</v>
+      </c>
+      <c r="P29" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Storage and Backup Services</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D30" s="1">
+        <v>27</v>
+      </c>
+      <c r="E30" s="1">
+        <v>6</v>
+      </c>
+      <c r="F30" s="1">
+        <v>7</v>
+      </c>
+      <c r="G30" s="1">
+        <v>8</v>
+      </c>
+      <c r="H30" s="1">
+        <v>9</v>
+      </c>
+      <c r="I30" s="1">
+        <v>10</v>
+      </c>
+      <c r="J30" s="1">
+        <v>11</v>
+      </c>
+      <c r="K30" s="1">
+        <v>12</v>
+      </c>
+      <c r="L30" s="1">
+        <v>13</v>
+      </c>
+      <c r="M30" s="1">
+        <v>14</v>
+      </c>
+      <c r="N30" s="1">
+        <v>15</v>
+      </c>
+      <c r="O30" s="1">
+        <v>13</v>
+      </c>
+      <c r="P30" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Storage and Backup Services</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D31" s="1">
+        <v>28</v>
+      </c>
+      <c r="E31" s="1">
+        <v>6</v>
+      </c>
+      <c r="F31" s="1">
+        <v>7</v>
+      </c>
+      <c r="G31" s="1">
+        <v>8</v>
+      </c>
+      <c r="H31" s="1">
+        <v>9</v>
+      </c>
+      <c r="I31" s="1">
+        <v>10</v>
+      </c>
+      <c r="J31" s="1">
+        <v>11</v>
+      </c>
+      <c r="K31" s="1">
+        <v>12</v>
+      </c>
+      <c r="L31" s="1">
+        <v>13</v>
+      </c>
+      <c r="M31" s="1">
+        <v>14</v>
+      </c>
+      <c r="N31" s="1">
+        <v>15</v>
+      </c>
+      <c r="O31" s="1">
+        <v>13</v>
+      </c>
+      <c r="P31" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Storage and Backup Services</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D32" s="1">
+        <v>29</v>
+      </c>
+      <c r="E32" s="1">
+        <v>6</v>
+      </c>
+      <c r="F32" s="1">
+        <v>7</v>
+      </c>
+      <c r="G32" s="1">
+        <v>8</v>
+      </c>
+      <c r="H32" s="1">
+        <v>9</v>
+      </c>
+      <c r="I32" s="1">
+        <v>10</v>
+      </c>
+      <c r="J32" s="1">
+        <v>11</v>
+      </c>
+      <c r="K32" s="1">
+        <v>12</v>
+      </c>
+      <c r="L32" s="1">
+        <v>13</v>
+      </c>
+      <c r="M32" s="1">
+        <v>14</v>
+      </c>
+      <c r="N32" s="1">
+        <v>15</v>
+      </c>
+      <c r="O32" s="1">
+        <v>13</v>
+      </c>
+      <c r="P32" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Storage and Backup Services</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D33" s="1">
+        <v>30</v>
+      </c>
+      <c r="E33" s="1">
+        <v>6</v>
+      </c>
+      <c r="F33" s="1">
+        <v>7</v>
+      </c>
+      <c r="G33" s="1">
+        <v>8</v>
+      </c>
+      <c r="H33" s="1">
+        <v>9</v>
+      </c>
+      <c r="I33" s="1">
+        <v>10</v>
+      </c>
+      <c r="J33" s="1">
+        <v>11</v>
+      </c>
+      <c r="K33" s="1">
+        <v>12</v>
+      </c>
+      <c r="L33" s="1">
+        <v>13</v>
+      </c>
+      <c r="M33" s="1">
+        <v>14</v>
+      </c>
+      <c r="N33" s="1">
+        <v>15</v>
+      </c>
+      <c r="O33" s="1">
+        <v>13</v>
+      </c>
+      <c r="P33" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Storage and Backup Services</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D34" s="1">
+        <v>31</v>
+      </c>
+      <c r="E34" s="1">
+        <v>6</v>
+      </c>
+      <c r="F34" s="1">
+        <v>7</v>
+      </c>
+      <c r="G34" s="1">
+        <v>8</v>
+      </c>
+      <c r="H34" s="1">
+        <v>9</v>
+      </c>
+      <c r="I34" s="1">
+        <v>10</v>
+      </c>
+      <c r="J34" s="1">
+        <v>11</v>
+      </c>
+      <c r="K34" s="1">
+        <v>12</v>
+      </c>
+      <c r="L34" s="1">
+        <v>13</v>
+      </c>
+      <c r="M34" s="1">
+        <v>14</v>
+      </c>
+      <c r="N34" s="1">
+        <v>15</v>
+      </c>
+      <c r="O34" s="1">
+        <v>13</v>
+      </c>
+      <c r="P34" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="str">
+        <f>$A$35</f>
+        <v>Network and Connectivity Services</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D36" s="1">
+        <v>5</v>
+      </c>
+      <c r="E36" s="1">
+        <v>6</v>
+      </c>
+      <c r="F36" s="1">
+        <v>7</v>
+      </c>
+      <c r="G36" s="1">
+        <v>8</v>
+      </c>
+      <c r="H36" s="1">
+        <v>9</v>
+      </c>
+      <c r="I36" s="1">
+        <v>10</v>
+      </c>
+      <c r="J36" s="1">
+        <v>11</v>
+      </c>
+      <c r="K36" s="1">
+        <v>12</v>
+      </c>
+      <c r="L36" s="1">
+        <v>13</v>
+      </c>
+      <c r="M36" s="1">
+        <v>14</v>
+      </c>
+      <c r="N36" s="1">
+        <v>15</v>
+      </c>
+      <c r="O36" s="1">
+        <v>13</v>
+      </c>
+      <c r="P36" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="str">
+        <f>$A$35</f>
+        <v>Network and Connectivity Services</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D37" s="1">
+        <v>6</v>
+      </c>
+      <c r="E37" s="1">
+        <v>6</v>
+      </c>
+      <c r="F37" s="1">
+        <v>7</v>
+      </c>
+      <c r="G37" s="1">
+        <v>8</v>
+      </c>
+      <c r="H37" s="1">
+        <v>9</v>
+      </c>
+      <c r="I37" s="1">
+        <v>10</v>
+      </c>
+      <c r="J37" s="1">
+        <v>11</v>
+      </c>
+      <c r="K37" s="1">
+        <v>12</v>
+      </c>
+      <c r="L37" s="1">
+        <v>13</v>
+      </c>
+      <c r="M37" s="1">
+        <v>14</v>
+      </c>
+      <c r="N37" s="1">
+        <v>15</v>
+      </c>
+      <c r="O37" s="1">
+        <v>13</v>
+      </c>
+      <c r="P37" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="str">
+        <f t="shared" ref="A39:A56" si="1">$A$38</f>
+        <v>Security Solution</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>7699</v>
+      </c>
+      <c r="D39" s="1">
+        <v>5</v>
+      </c>
+      <c r="E39" s="1">
+        <v>6</v>
+      </c>
+      <c r="F39" s="1">
+        <v>7</v>
+      </c>
+      <c r="G39" s="1">
+        <v>8</v>
+      </c>
+      <c r="H39" s="1">
+        <v>9</v>
+      </c>
+      <c r="I39" s="1">
+        <v>10</v>
+      </c>
+      <c r="J39" s="1">
+        <v>11</v>
+      </c>
+      <c r="K39" s="1">
+        <v>12</v>
+      </c>
+      <c r="L39" s="1">
+        <v>13</v>
+      </c>
+      <c r="M39" s="1">
+        <v>14</v>
+      </c>
+      <c r="N39" s="1">
+        <v>15</v>
+      </c>
+      <c r="O39" s="1">
+        <v>13</v>
+      </c>
+      <c r="P39" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Security Solution</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>7700</v>
+      </c>
+      <c r="D40" s="1">
+        <v>6</v>
+      </c>
+      <c r="E40" s="1">
+        <v>6</v>
+      </c>
+      <c r="F40" s="1">
+        <v>7</v>
+      </c>
+      <c r="G40" s="1">
+        <v>8</v>
+      </c>
+      <c r="H40" s="1">
+        <v>9</v>
+      </c>
+      <c r="I40" s="1">
+        <v>10</v>
+      </c>
+      <c r="J40" s="1">
+        <v>11</v>
+      </c>
+      <c r="K40" s="1">
+        <v>12</v>
+      </c>
+      <c r="L40" s="1">
+        <v>13</v>
+      </c>
+      <c r="M40" s="1">
+        <v>14</v>
+      </c>
+      <c r="N40" s="1">
+        <v>15</v>
+      </c>
+      <c r="O40" s="1">
+        <v>13</v>
+      </c>
+      <c r="P40" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Security Solution</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>7701</v>
+      </c>
+      <c r="D41" s="1">
+        <v>7</v>
+      </c>
+      <c r="E41" s="1">
+        <v>6</v>
+      </c>
+      <c r="F41" s="1">
+        <v>7</v>
+      </c>
+      <c r="G41" s="1">
+        <v>8</v>
+      </c>
+      <c r="H41" s="1">
+        <v>9</v>
+      </c>
+      <c r="I41" s="1">
+        <v>10</v>
+      </c>
+      <c r="J41" s="1">
+        <v>11</v>
+      </c>
+      <c r="K41" s="1">
+        <v>12</v>
+      </c>
+      <c r="L41" s="1">
+        <v>13</v>
+      </c>
+      <c r="M41" s="1">
+        <v>14</v>
+      </c>
+      <c r="N41" s="1">
+        <v>15</v>
+      </c>
+      <c r="O41" s="1">
+        <v>13</v>
+      </c>
+      <c r="P41" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Security Solution</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D42" s="1">
+        <v>8</v>
+      </c>
+      <c r="E42" s="1">
+        <v>6</v>
+      </c>
+      <c r="F42" s="1">
+        <v>7</v>
+      </c>
+      <c r="G42" s="1">
+        <v>8</v>
+      </c>
+      <c r="H42" s="1">
+        <v>9</v>
+      </c>
+      <c r="I42" s="1">
+        <v>10</v>
+      </c>
+      <c r="J42" s="1">
+        <v>11</v>
+      </c>
+      <c r="K42" s="1">
+        <v>12</v>
+      </c>
+      <c r="L42" s="1">
+        <v>13</v>
+      </c>
+      <c r="M42" s="1">
+        <v>14</v>
+      </c>
+      <c r="N42" s="1">
+        <v>15</v>
+      </c>
+      <c r="O42" s="1">
+        <v>13</v>
+      </c>
+      <c r="P42" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Security Solution</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="1">
+        <v>9</v>
+      </c>
+      <c r="E43" s="1">
+        <v>6</v>
+      </c>
+      <c r="F43" s="1">
+        <v>7</v>
+      </c>
+      <c r="G43" s="1">
+        <v>8</v>
+      </c>
+      <c r="H43" s="1">
+        <v>9</v>
+      </c>
+      <c r="I43" s="1">
+        <v>10</v>
+      </c>
+      <c r="J43" s="1">
+        <v>11</v>
+      </c>
+      <c r="K43" s="1">
+        <v>12</v>
+      </c>
+      <c r="L43" s="1">
+        <v>13</v>
+      </c>
+      <c r="M43" s="1">
+        <v>14</v>
+      </c>
+      <c r="N43" s="1">
+        <v>15</v>
+      </c>
+      <c r="O43" s="1">
+        <v>13</v>
+      </c>
+      <c r="P43" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Security Solution</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>7702</v>
+      </c>
+      <c r="D44" s="1">
+        <v>10</v>
+      </c>
+      <c r="E44" s="1">
+        <v>6</v>
+      </c>
+      <c r="F44" s="1">
+        <v>7</v>
+      </c>
+      <c r="G44" s="1">
+        <v>8</v>
+      </c>
+      <c r="H44" s="1">
+        <v>9</v>
+      </c>
+      <c r="I44" s="1">
+        <v>10</v>
+      </c>
+      <c r="J44" s="1">
+        <v>11</v>
+      </c>
+      <c r="K44" s="1">
+        <v>12</v>
+      </c>
+      <c r="L44" s="1">
+        <v>13</v>
+      </c>
+      <c r="M44" s="1">
+        <v>14</v>
+      </c>
+      <c r="N44" s="1">
+        <v>15</v>
+      </c>
+      <c r="O44" s="1">
+        <v>13</v>
+      </c>
+      <c r="P44" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Security Solution</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D45" s="1">
+        <v>11</v>
+      </c>
+      <c r="E45" s="1">
+        <v>6</v>
+      </c>
+      <c r="F45" s="1">
+        <v>7</v>
+      </c>
+      <c r="G45" s="1">
+        <v>8</v>
+      </c>
+      <c r="H45" s="1">
+        <v>9</v>
+      </c>
+      <c r="I45" s="1">
+        <v>10</v>
+      </c>
+      <c r="J45" s="1">
+        <v>11</v>
+      </c>
+      <c r="K45" s="1">
+        <v>12</v>
+      </c>
+      <c r="L45" s="1">
+        <v>13</v>
+      </c>
+      <c r="M45" s="1">
+        <v>14</v>
+      </c>
+      <c r="N45" s="1">
+        <v>15</v>
+      </c>
+      <c r="O45" s="1">
+        <v>13</v>
+      </c>
+      <c r="P45" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Security Solution</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D46" s="1">
+        <v>12</v>
+      </c>
+      <c r="E46" s="1">
+        <v>6</v>
+      </c>
+      <c r="F46" s="1">
+        <v>7</v>
+      </c>
+      <c r="G46" s="1">
+        <v>8</v>
+      </c>
+      <c r="H46" s="1">
+        <v>9</v>
+      </c>
+      <c r="I46" s="1">
+        <v>10</v>
+      </c>
+      <c r="J46" s="1">
+        <v>11</v>
+      </c>
+      <c r="K46" s="1">
+        <v>12</v>
+      </c>
+      <c r="L46" s="1">
+        <v>13</v>
+      </c>
+      <c r="M46" s="1">
+        <v>14</v>
+      </c>
+      <c r="N46" s="1">
+        <v>15</v>
+      </c>
+      <c r="O46" s="1">
+        <v>13</v>
+      </c>
+      <c r="P46" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Security Solution</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>7703</v>
+      </c>
+      <c r="D47" s="1">
+        <v>13</v>
+      </c>
+      <c r="E47" s="1">
+        <v>6</v>
+      </c>
+      <c r="F47" s="1">
+        <v>7</v>
+      </c>
+      <c r="G47" s="1">
+        <v>8</v>
+      </c>
+      <c r="H47" s="1">
+        <v>9</v>
+      </c>
+      <c r="I47" s="1">
+        <v>10</v>
+      </c>
+      <c r="J47" s="1">
+        <v>11</v>
+      </c>
+      <c r="K47" s="1">
+        <v>12</v>
+      </c>
+      <c r="L47" s="1">
+        <v>13</v>
+      </c>
+      <c r="M47" s="1">
+        <v>14</v>
+      </c>
+      <c r="N47" s="1">
+        <v>15</v>
+      </c>
+      <c r="O47" s="1">
+        <v>13</v>
+      </c>
+      <c r="P47" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Security Solution</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>7704</v>
+      </c>
+      <c r="D48" s="1">
+        <v>14</v>
+      </c>
+      <c r="E48" s="1">
+        <v>6</v>
+      </c>
+      <c r="F48" s="1">
+        <v>7</v>
+      </c>
+      <c r="G48" s="1">
+        <v>8</v>
+      </c>
+      <c r="H48" s="1">
+        <v>9</v>
+      </c>
+      <c r="I48" s="1">
+        <v>10</v>
+      </c>
+      <c r="J48" s="1">
+        <v>11</v>
+      </c>
+      <c r="K48" s="1">
+        <v>12</v>
+      </c>
+      <c r="L48" s="1">
+        <v>13</v>
+      </c>
+      <c r="M48" s="1">
+        <v>14</v>
+      </c>
+      <c r="N48" s="1">
+        <v>15</v>
+      </c>
+      <c r="O48" s="1">
+        <v>13</v>
+      </c>
+      <c r="P48" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Security Solution</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>7705</v>
+      </c>
+      <c r="D49" s="1">
+        <v>15</v>
+      </c>
+      <c r="E49" s="1">
+        <v>6</v>
+      </c>
+      <c r="F49" s="1">
+        <v>7</v>
+      </c>
+      <c r="G49" s="1">
+        <v>8</v>
+      </c>
+      <c r="H49" s="1">
+        <v>9</v>
+      </c>
+      <c r="I49" s="1">
+        <v>10</v>
+      </c>
+      <c r="J49" s="1">
+        <v>11</v>
+      </c>
+      <c r="K49" s="1">
+        <v>12</v>
+      </c>
+      <c r="L49" s="1">
+        <v>13</v>
+      </c>
+      <c r="M49" s="1">
+        <v>14</v>
+      </c>
+      <c r="N49" s="1">
+        <v>15</v>
+      </c>
+      <c r="O49" s="1">
+        <v>13</v>
+      </c>
+      <c r="P49" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Security Solution</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D50" s="1">
+        <v>16</v>
+      </c>
+      <c r="E50" s="1">
+        <v>6</v>
+      </c>
+      <c r="F50" s="1">
+        <v>7</v>
+      </c>
+      <c r="G50" s="1">
+        <v>8</v>
+      </c>
+      <c r="H50" s="1">
+        <v>9</v>
+      </c>
+      <c r="I50" s="1">
+        <v>10</v>
+      </c>
+      <c r="J50" s="1">
+        <v>11</v>
+      </c>
+      <c r="K50" s="1">
+        <v>12</v>
+      </c>
+      <c r="L50" s="1">
+        <v>13</v>
+      </c>
+      <c r="M50" s="1">
+        <v>14</v>
+      </c>
+      <c r="N50" s="1">
+        <v>15</v>
+      </c>
+      <c r="O50" s="1">
+        <v>13</v>
+      </c>
+      <c r="P50" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Security Solution</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>7706</v>
+      </c>
+      <c r="D51" s="1">
+        <v>17</v>
+      </c>
+      <c r="E51" s="1">
+        <v>6</v>
+      </c>
+      <c r="F51" s="1">
+        <v>7</v>
+      </c>
+      <c r="G51" s="1">
+        <v>8</v>
+      </c>
+      <c r="H51" s="1">
+        <v>9</v>
+      </c>
+      <c r="I51" s="1">
+        <v>10</v>
+      </c>
+      <c r="J51" s="1">
+        <v>11</v>
+      </c>
+      <c r="K51" s="1">
+        <v>12</v>
+      </c>
+      <c r="L51" s="1">
+        <v>13</v>
+      </c>
+      <c r="M51" s="1">
+        <v>14</v>
+      </c>
+      <c r="N51" s="1">
+        <v>15</v>
+      </c>
+      <c r="O51" s="1">
+        <v>13</v>
+      </c>
+      <c r="P51" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Security Solution</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>7707</v>
+      </c>
+      <c r="D52" s="1">
+        <v>18</v>
+      </c>
+      <c r="E52" s="1">
+        <v>6</v>
+      </c>
+      <c r="F52" s="1">
+        <v>7</v>
+      </c>
+      <c r="G52" s="1">
+        <v>8</v>
+      </c>
+      <c r="H52" s="1">
+        <v>9</v>
+      </c>
+      <c r="I52" s="1">
+        <v>10</v>
+      </c>
+      <c r="J52" s="1">
+        <v>11</v>
+      </c>
+      <c r="K52" s="1">
+        <v>12</v>
+      </c>
+      <c r="L52" s="1">
+        <v>13</v>
+      </c>
+      <c r="M52" s="1">
+        <v>14</v>
+      </c>
+      <c r="N52" s="1">
+        <v>15</v>
+      </c>
+      <c r="O52" s="1">
+        <v>13</v>
+      </c>
+      <c r="P52" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Security Solution</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D53" s="1">
+        <v>19</v>
+      </c>
+      <c r="E53" s="1">
+        <v>6</v>
+      </c>
+      <c r="F53" s="1">
+        <v>7</v>
+      </c>
+      <c r="G53" s="1">
+        <v>8</v>
+      </c>
+      <c r="H53" s="1">
+        <v>9</v>
+      </c>
+      <c r="I53" s="1">
+        <v>10</v>
+      </c>
+      <c r="J53" s="1">
+        <v>11</v>
+      </c>
+      <c r="K53" s="1">
+        <v>12</v>
+      </c>
+      <c r="L53" s="1">
+        <v>13</v>
+      </c>
+      <c r="M53" s="1">
+        <v>14</v>
+      </c>
+      <c r="N53" s="1">
+        <v>15</v>
+      </c>
+      <c r="O53" s="1">
+        <v>13</v>
+      </c>
+      <c r="P53" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Security Solution</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D54" s="1">
+        <v>20</v>
+      </c>
+      <c r="E54" s="1">
+        <v>6</v>
+      </c>
+      <c r="F54" s="1">
+        <v>7</v>
+      </c>
+      <c r="G54" s="1">
+        <v>8</v>
+      </c>
+      <c r="H54" s="1">
+        <v>9</v>
+      </c>
+      <c r="I54" s="1">
+        <v>10</v>
+      </c>
+      <c r="J54" s="1">
+        <v>11</v>
+      </c>
+      <c r="K54" s="1">
+        <v>12</v>
+      </c>
+      <c r="L54" s="1">
+        <v>13</v>
+      </c>
+      <c r="M54" s="1">
+        <v>14</v>
+      </c>
+      <c r="N54" s="1">
+        <v>15</v>
+      </c>
+      <c r="O54" s="1">
+        <v>13</v>
+      </c>
+      <c r="P54" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Security Solution</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D55" s="1">
+        <v>21</v>
+      </c>
+      <c r="E55" s="1">
+        <v>6</v>
+      </c>
+      <c r="F55" s="1">
+        <v>7</v>
+      </c>
+      <c r="G55" s="1">
+        <v>8</v>
+      </c>
+      <c r="H55" s="1">
+        <v>9</v>
+      </c>
+      <c r="I55" s="1">
+        <v>10</v>
+      </c>
+      <c r="J55" s="1">
+        <v>11</v>
+      </c>
+      <c r="K55" s="1">
+        <v>12</v>
+      </c>
+      <c r="L55" s="1">
+        <v>13</v>
+      </c>
+      <c r="M55" s="1">
+        <v>14</v>
+      </c>
+      <c r="N55" s="1">
+        <v>15</v>
+      </c>
+      <c r="O55" s="1">
+        <v>13</v>
+      </c>
+      <c r="P55" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Security Solution</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D56" s="1">
+        <v>22</v>
+      </c>
+      <c r="E56" s="1">
+        <v>6</v>
+      </c>
+      <c r="F56" s="1">
+        <v>7</v>
+      </c>
+      <c r="G56" s="1">
+        <v>8</v>
+      </c>
+      <c r="H56" s="1">
+        <v>9</v>
+      </c>
+      <c r="I56" s="1">
+        <v>10</v>
+      </c>
+      <c r="J56" s="1">
+        <v>11</v>
+      </c>
+      <c r="K56" s="1">
+        <v>12</v>
+      </c>
+      <c r="L56" s="1">
+        <v>13</v>
+      </c>
+      <c r="M56" s="1">
+        <v>14</v>
+      </c>
+      <c r="N56" s="1">
+        <v>15</v>
+      </c>
+      <c r="O56" s="1">
+        <v>13</v>
+      </c>
+      <c r="P56" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="39" t="s">
+        <v>323</v>
+      </c>
+      <c r="B57" s="40"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="40"/>
+      <c r="I57" s="40"/>
+      <c r="J57" s="40"/>
+      <c r="K57" s="40"/>
+      <c r="L57" s="40"/>
+      <c r="M57" s="40"/>
+      <c r="N57" s="40"/>
+      <c r="O57" s="40"/>
+      <c r="P57" s="40"/>
+      <c r="Q57" s="40"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="str">
+        <f t="shared" ref="A58:A66" si="2">$A$57</f>
+        <v>Managed Services</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D58" s="1">
+        <v>5</v>
+      </c>
+      <c r="E58" s="1">
+        <v>6</v>
+      </c>
+      <c r="F58" s="1">
+        <v>7</v>
+      </c>
+      <c r="G58" s="1">
+        <v>8</v>
+      </c>
+      <c r="H58" s="1">
+        <v>9</v>
+      </c>
+      <c r="I58" s="1">
+        <v>10</v>
+      </c>
+      <c r="J58" s="1">
+        <v>11</v>
+      </c>
+      <c r="K58" s="1">
+        <v>12</v>
+      </c>
+      <c r="L58" s="1">
+        <v>13</v>
+      </c>
+      <c r="M58" s="1">
+        <v>14</v>
+      </c>
+      <c r="N58" s="1">
+        <v>15</v>
+      </c>
+      <c r="O58" s="1">
+        <v>13</v>
+      </c>
+      <c r="P58" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Managed Services</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D59" s="1">
+        <v>5</v>
+      </c>
+      <c r="E59" s="1">
+        <v>6</v>
+      </c>
+      <c r="F59" s="1">
+        <v>7</v>
+      </c>
+      <c r="G59" s="1">
+        <v>8</v>
+      </c>
+      <c r="H59" s="1">
+        <v>9</v>
+      </c>
+      <c r="I59" s="1">
+        <v>10</v>
+      </c>
+      <c r="J59" s="1">
+        <v>11</v>
+      </c>
+      <c r="K59" s="1">
+        <v>12</v>
+      </c>
+      <c r="L59" s="1">
+        <v>13</v>
+      </c>
+      <c r="M59" s="1">
+        <v>14</v>
+      </c>
+      <c r="N59" s="1">
+        <v>15</v>
+      </c>
+      <c r="O59" s="1">
+        <v>13</v>
+      </c>
+      <c r="P59" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Managed Services</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D60" s="1">
+        <v>4</v>
+      </c>
+      <c r="E60" s="1">
+        <v>4</v>
+      </c>
+      <c r="F60" s="1">
+        <v>4</v>
+      </c>
+      <c r="G60" s="1">
+        <v>4</v>
+      </c>
+      <c r="H60" s="1">
+        <v>4</v>
+      </c>
+      <c r="I60" s="1">
+        <v>4</v>
+      </c>
+      <c r="J60" s="1">
+        <v>4</v>
+      </c>
+      <c r="K60" s="1">
+        <v>4</v>
+      </c>
+      <c r="L60" s="1">
+        <v>4</v>
+      </c>
+      <c r="M60" s="1">
+        <v>4</v>
+      </c>
+      <c r="N60" s="1">
+        <v>4</v>
+      </c>
+      <c r="O60" s="1">
+        <v>4</v>
+      </c>
+      <c r="P60" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Managed Services</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D61" s="1">
+        <v>55</v>
+      </c>
+      <c r="E61" s="1">
+        <v>65</v>
+      </c>
+      <c r="F61" s="1">
+        <v>25</v>
+      </c>
+      <c r="G61" s="1">
+        <v>25</v>
+      </c>
+      <c r="H61" s="1">
+        <v>25</v>
+      </c>
+      <c r="I61" s="1">
+        <v>25</v>
+      </c>
+      <c r="J61" s="1">
+        <v>25</v>
+      </c>
+      <c r="K61" s="1">
+        <v>25</v>
+      </c>
+      <c r="L61" s="1">
+        <v>25</v>
+      </c>
+      <c r="M61" s="1">
+        <v>25</v>
+      </c>
+      <c r="N61" s="1">
+        <v>25</v>
+      </c>
+      <c r="O61" s="1">
+        <v>25</v>
+      </c>
+      <c r="P61" s="1">
+        <v>25</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Managed Services</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D62" s="1">
+        <v>4</v>
+      </c>
+      <c r="E62" s="1">
+        <v>4</v>
+      </c>
+      <c r="F62" s="1">
+        <v>4</v>
+      </c>
+      <c r="G62" s="1">
+        <v>4</v>
+      </c>
+      <c r="H62" s="1">
+        <v>4</v>
+      </c>
+      <c r="I62" s="1">
+        <v>4</v>
+      </c>
+      <c r="J62" s="1">
+        <v>4</v>
+      </c>
+      <c r="K62" s="1">
+        <v>4</v>
+      </c>
+      <c r="L62" s="1">
+        <v>4</v>
+      </c>
+      <c r="M62" s="1">
+        <v>4</v>
+      </c>
+      <c r="N62" s="1">
+        <v>4</v>
+      </c>
+      <c r="O62" s="1">
+        <v>4</v>
+      </c>
+      <c r="P62" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Managed Services</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D63" s="1">
+        <v>5</v>
+      </c>
+      <c r="E63" s="1">
+        <v>6</v>
+      </c>
+      <c r="F63" s="1">
+        <v>7</v>
+      </c>
+      <c r="G63" s="1">
+        <v>8</v>
+      </c>
+      <c r="H63" s="1">
+        <v>9</v>
+      </c>
+      <c r="I63" s="1">
+        <v>10</v>
+      </c>
+      <c r="J63" s="1">
+        <v>11</v>
+      </c>
+      <c r="K63" s="1">
+        <v>12</v>
+      </c>
+      <c r="L63" s="1">
+        <v>13</v>
+      </c>
+      <c r="M63" s="1">
+        <v>14</v>
+      </c>
+      <c r="N63" s="1">
+        <v>15</v>
+      </c>
+      <c r="O63" s="1">
+        <v>13</v>
+      </c>
+      <c r="P63" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Managed Services</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D64" s="1">
+        <v>5</v>
+      </c>
+      <c r="E64" s="1">
+        <v>6</v>
+      </c>
+      <c r="F64" s="1">
+        <v>7</v>
+      </c>
+      <c r="G64" s="1">
+        <v>8</v>
+      </c>
+      <c r="H64" s="1">
+        <v>9</v>
+      </c>
+      <c r="I64" s="1">
+        <v>10</v>
+      </c>
+      <c r="J64" s="1">
+        <v>11</v>
+      </c>
+      <c r="K64" s="1">
+        <v>12</v>
+      </c>
+      <c r="L64" s="1">
+        <v>13</v>
+      </c>
+      <c r="M64" s="1">
+        <v>14</v>
+      </c>
+      <c r="N64" s="1">
+        <v>15</v>
+      </c>
+      <c r="O64" s="1">
+        <v>13</v>
+      </c>
+      <c r="P64" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Managed Services</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D65" s="1">
+        <v>5</v>
+      </c>
+      <c r="E65" s="1">
+        <v>6</v>
+      </c>
+      <c r="F65" s="1">
+        <v>7</v>
+      </c>
+      <c r="G65" s="1">
+        <v>8</v>
+      </c>
+      <c r="H65" s="1">
+        <v>9</v>
+      </c>
+      <c r="I65" s="1">
+        <v>10</v>
+      </c>
+      <c r="J65" s="1">
+        <v>11</v>
+      </c>
+      <c r="K65" s="1">
+        <v>12</v>
+      </c>
+      <c r="L65" s="1">
+        <v>13</v>
+      </c>
+      <c r="M65" s="1">
+        <v>14</v>
+      </c>
+      <c r="N65" s="1">
+        <v>15</v>
+      </c>
+      <c r="O65" s="1">
+        <v>13</v>
+      </c>
+      <c r="P65" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Managed Services</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D66" s="1">
+        <v>9</v>
+      </c>
+      <c r="E66" s="1">
+        <v>9</v>
+      </c>
+      <c r="F66" s="1">
+        <v>9</v>
+      </c>
+      <c r="G66" s="1">
+        <v>9</v>
+      </c>
+      <c r="H66" s="1">
+        <v>9</v>
+      </c>
+      <c r="I66" s="1">
+        <v>9</v>
+      </c>
+      <c r="J66" s="1">
+        <v>9</v>
+      </c>
+      <c r="K66" s="1">
+        <v>9</v>
+      </c>
+      <c r="L66" s="1">
+        <v>9</v>
+      </c>
+      <c r="M66" s="1">
+        <v>9</v>
+      </c>
+      <c r="N66" s="1">
+        <v>9</v>
+      </c>
+      <c r="O66" s="1">
+        <v>9</v>
+      </c>
+      <c r="P66" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A7:Q7"/>
+    <mergeCell ref="A35:Q35"/>
+    <mergeCell ref="A38:Q38"/>
+    <mergeCell ref="A57:Q57"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+</worksheet>
 </file>
--- a/template.xlsx
+++ b/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PhasesDetails" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8294" uniqueCount="7840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8277" uniqueCount="7835">
   <si>
     <t>core_product_name</t>
   </si>
@@ -23214,9 +23214,6 @@
     <t>abc 4</t>
   </si>
   <si>
-    <t>abc 5</t>
-  </si>
-  <si>
     <t>abc 6</t>
   </si>
   <si>
@@ -23229,9 +23226,6 @@
     <t>abc 9</t>
   </si>
   <si>
-    <t>abc 10</t>
-  </si>
-  <si>
     <t>abc 11</t>
   </si>
   <si>
@@ -23526,9 +23520,6 @@
     <t>My SQL Enterprise Edition</t>
   </si>
   <si>
-    <t>Postgre SQL Community Edition</t>
-  </si>
-  <si>
     <t>Postgre SQL Enterprise Edition</t>
   </si>
   <si>
@@ -23541,9 +23532,6 @@
     <t>Maria DB Community Edition</t>
   </si>
   <si>
-    <t>MongoDB Community Edition</t>
-  </si>
-  <si>
     <t>SUSE</t>
   </si>
   <si>
@@ -23551,9 +23539,6 @@
   </si>
   <si>
     <t>Debian</t>
-  </si>
-  <si>
-    <t>OEM Specific</t>
   </si>
   <si>
     <t>BOM DR</t>
@@ -24419,15 +24404,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>7732</v>
+        <v>7730</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>7733</v>
+        <v>7731</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>7761</v>
+        <v>7759</v>
       </c>
       <c r="B2" s="8">
         <v>7</v>
@@ -24507,7 +24492,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>7762</v>
+        <v>7760</v>
       </c>
       <c r="B12" s="8">
         <v>12</v>
@@ -58307,10 +58292,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CJ13"/>
+  <dimension ref="A1:CJ10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58395,273 +58380,273 @@
   <sheetData>
     <row r="1" spans="1:88" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
+        <v>7793</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>7756</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>7757</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>7758</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>7785</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>7786</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>7787</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>7788</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>7795</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>7758</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>7759</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>7760</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>7787</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>7788</v>
-      </c>
-      <c r="G1" s="20" t="s">
+      <c r="J1" s="31" t="s">
+        <v>7796</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>7763</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>7732</v>
+      </c>
+      <c r="M1" s="32" t="s">
+        <v>7764</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>7733</v>
+      </c>
+      <c r="O1" s="33" t="s">
+        <v>7797</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>7810</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>7765</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>7734</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>7766</v>
+      </c>
+      <c r="T1" s="21" t="s">
+        <v>7735</v>
+      </c>
+      <c r="U1" s="21" t="s">
+        <v>7798</v>
+      </c>
+      <c r="V1" s="31" t="s">
+        <v>7811</v>
+      </c>
+      <c r="W1" s="34" t="s">
+        <v>7767</v>
+      </c>
+      <c r="X1" s="37" t="s">
+        <v>7736</v>
+      </c>
+      <c r="Y1" s="32" t="s">
+        <v>7768</v>
+      </c>
+      <c r="Z1" s="36" t="s">
+        <v>7737</v>
+      </c>
+      <c r="AA1" s="33" t="s">
+        <v>7799</v>
+      </c>
+      <c r="AB1" s="35" t="s">
+        <v>7812</v>
+      </c>
+      <c r="AC1" s="18" t="s">
+        <v>7769</v>
+      </c>
+      <c r="AD1" s="19" t="s">
+        <v>7738</v>
+      </c>
+      <c r="AE1" s="20" t="s">
+        <v>7770</v>
+      </c>
+      <c r="AF1" s="21" t="s">
+        <v>7739</v>
+      </c>
+      <c r="AG1" s="21" t="s">
+        <v>7800</v>
+      </c>
+      <c r="AH1" s="31" t="s">
+        <v>7813</v>
+      </c>
+      <c r="AI1" s="34" t="s">
+        <v>7771</v>
+      </c>
+      <c r="AJ1" s="37" t="s">
+        <v>7740</v>
+      </c>
+      <c r="AK1" s="32" t="s">
+        <v>7772</v>
+      </c>
+      <c r="AL1" s="36" t="s">
+        <v>7741</v>
+      </c>
+      <c r="AM1" s="33" t="s">
+        <v>7801</v>
+      </c>
+      <c r="AN1" s="35" t="s">
+        <v>7814</v>
+      </c>
+      <c r="AO1" s="18" t="s">
+        <v>7773</v>
+      </c>
+      <c r="AP1" s="19" t="s">
+        <v>7742</v>
+      </c>
+      <c r="AQ1" s="20" t="s">
+        <v>7774</v>
+      </c>
+      <c r="AR1" s="21" t="s">
+        <v>7743</v>
+      </c>
+      <c r="AS1" s="21" t="s">
+        <v>7802</v>
+      </c>
+      <c r="AT1" s="31" t="s">
+        <v>7815</v>
+      </c>
+      <c r="AU1" s="34" t="s">
+        <v>7762</v>
+      </c>
+      <c r="AV1" s="37" t="s">
+        <v>7744</v>
+      </c>
+      <c r="AW1" s="32" t="s">
+        <v>7775</v>
+      </c>
+      <c r="AX1" s="36" t="s">
+        <v>7745</v>
+      </c>
+      <c r="AY1" s="33" t="s">
+        <v>7803</v>
+      </c>
+      <c r="AZ1" s="35" t="s">
+        <v>7816</v>
+      </c>
+      <c r="BA1" s="18" t="s">
+        <v>7761</v>
+      </c>
+      <c r="BB1" s="19" t="s">
+        <v>7746</v>
+      </c>
+      <c r="BC1" s="20" t="s">
+        <v>7776</v>
+      </c>
+      <c r="BD1" s="21" t="s">
+        <v>7747</v>
+      </c>
+      <c r="BE1" s="21" t="s">
+        <v>7804</v>
+      </c>
+      <c r="BF1" s="31" t="s">
+        <v>7817</v>
+      </c>
+      <c r="BG1" s="34" t="s">
+        <v>7777</v>
+      </c>
+      <c r="BH1" s="37" t="s">
+        <v>7748</v>
+      </c>
+      <c r="BI1" s="32" t="s">
+        <v>7778</v>
+      </c>
+      <c r="BJ1" s="36" t="s">
+        <v>7749</v>
+      </c>
+      <c r="BK1" s="33" t="s">
+        <v>7805</v>
+      </c>
+      <c r="BL1" s="35" t="s">
+        <v>7818</v>
+      </c>
+      <c r="BM1" s="18" t="s">
         <v>7789</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="BN1" s="19" t="s">
         <v>7790</v>
       </c>
-      <c r="I1" s="21" t="s">
-        <v>7797</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>7798</v>
-      </c>
-      <c r="K1" s="34" t="s">
-        <v>7765</v>
-      </c>
-      <c r="L1" s="37" t="s">
-        <v>7734</v>
-      </c>
-      <c r="M1" s="32" t="s">
-        <v>7766</v>
-      </c>
-      <c r="N1" s="36" t="s">
-        <v>7735</v>
-      </c>
-      <c r="O1" s="33" t="s">
-        <v>7799</v>
-      </c>
-      <c r="P1" s="35" t="s">
-        <v>7812</v>
-      </c>
-      <c r="Q1" s="18" t="s">
-        <v>7767</v>
-      </c>
-      <c r="R1" s="19" t="s">
-        <v>7736</v>
-      </c>
-      <c r="S1" s="20" t="s">
-        <v>7768</v>
-      </c>
-      <c r="T1" s="21" t="s">
-        <v>7737</v>
-      </c>
-      <c r="U1" s="21" t="s">
-        <v>7800</v>
-      </c>
-      <c r="V1" s="31" t="s">
-        <v>7813</v>
-      </c>
-      <c r="W1" s="34" t="s">
-        <v>7769</v>
-      </c>
-      <c r="X1" s="37" t="s">
-        <v>7738</v>
-      </c>
-      <c r="Y1" s="32" t="s">
-        <v>7770</v>
-      </c>
-      <c r="Z1" s="36" t="s">
-        <v>7739</v>
-      </c>
-      <c r="AA1" s="33" t="s">
-        <v>7801</v>
-      </c>
-      <c r="AB1" s="35" t="s">
-        <v>7814</v>
-      </c>
-      <c r="AC1" s="18" t="s">
-        <v>7771</v>
-      </c>
-      <c r="AD1" s="19" t="s">
-        <v>7740</v>
-      </c>
-      <c r="AE1" s="20" t="s">
-        <v>7772</v>
-      </c>
-      <c r="AF1" s="21" t="s">
-        <v>7741</v>
-      </c>
-      <c r="AG1" s="21" t="s">
-        <v>7802</v>
-      </c>
-      <c r="AH1" s="31" t="s">
-        <v>7815</v>
-      </c>
-      <c r="AI1" s="34" t="s">
-        <v>7773</v>
-      </c>
-      <c r="AJ1" s="37" t="s">
-        <v>7742</v>
-      </c>
-      <c r="AK1" s="32" t="s">
-        <v>7774</v>
-      </c>
-      <c r="AL1" s="36" t="s">
-        <v>7743</v>
-      </c>
-      <c r="AM1" s="33" t="s">
-        <v>7803</v>
-      </c>
-      <c r="AN1" s="35" t="s">
-        <v>7816</v>
-      </c>
-      <c r="AO1" s="18" t="s">
-        <v>7775</v>
-      </c>
-      <c r="AP1" s="19" t="s">
-        <v>7744</v>
-      </c>
-      <c r="AQ1" s="20" t="s">
-        <v>7776</v>
-      </c>
-      <c r="AR1" s="21" t="s">
-        <v>7745</v>
-      </c>
-      <c r="AS1" s="21" t="s">
-        <v>7804</v>
-      </c>
-      <c r="AT1" s="31" t="s">
-        <v>7817</v>
-      </c>
-      <c r="AU1" s="34" t="s">
-        <v>7764</v>
-      </c>
-      <c r="AV1" s="37" t="s">
-        <v>7746</v>
-      </c>
-      <c r="AW1" s="32" t="s">
-        <v>7777</v>
-      </c>
-      <c r="AX1" s="36" t="s">
-        <v>7747</v>
-      </c>
-      <c r="AY1" s="33" t="s">
-        <v>7805</v>
-      </c>
-      <c r="AZ1" s="35" t="s">
-        <v>7818</v>
-      </c>
-      <c r="BA1" s="18" t="s">
-        <v>7763</v>
-      </c>
-      <c r="BB1" s="19" t="s">
-        <v>7748</v>
-      </c>
-      <c r="BC1" s="20" t="s">
-        <v>7778</v>
-      </c>
-      <c r="BD1" s="21" t="s">
-        <v>7749</v>
-      </c>
-      <c r="BE1" s="21" t="s">
+      <c r="BO1" s="20" t="s">
+        <v>7791</v>
+      </c>
+      <c r="BP1" s="21" t="s">
+        <v>7792</v>
+      </c>
+      <c r="BQ1" s="21" t="s">
         <v>7806</v>
       </c>
-      <c r="BF1" s="31" t="s">
+      <c r="BR1" s="31" t="s">
         <v>7819</v>
       </c>
-      <c r="BG1" s="34" t="s">
+      <c r="BS1" s="34" t="s">
         <v>7779</v>
       </c>
-      <c r="BH1" s="37" t="s">
+      <c r="BT1" s="37" t="s">
         <v>7750</v>
       </c>
-      <c r="BI1" s="32" t="s">
+      <c r="BU1" s="32" t="s">
         <v>7780</v>
       </c>
-      <c r="BJ1" s="36" t="s">
+      <c r="BV1" s="36" t="s">
         <v>7751</v>
       </c>
-      <c r="BK1" s="33" t="s">
+      <c r="BW1" s="33" t="s">
         <v>7807</v>
       </c>
-      <c r="BL1" s="35" t="s">
+      <c r="BX1" s="35" t="s">
         <v>7820</v>
       </c>
-      <c r="BM1" s="18" t="s">
-        <v>7791</v>
-      </c>
-      <c r="BN1" s="19" t="s">
-        <v>7792</v>
-      </c>
-      <c r="BO1" s="20" t="s">
-        <v>7793</v>
-      </c>
-      <c r="BP1" s="21" t="s">
-        <v>7794</v>
-      </c>
-      <c r="BQ1" s="21" t="s">
+      <c r="BY1" s="18" t="s">
+        <v>7781</v>
+      </c>
+      <c r="BZ1" s="19" t="s">
+        <v>7752</v>
+      </c>
+      <c r="CA1" s="20" t="s">
+        <v>7782</v>
+      </c>
+      <c r="CB1" s="21" t="s">
+        <v>7753</v>
+      </c>
+      <c r="CC1" s="21" t="s">
         <v>7808</v>
       </c>
-      <c r="BR1" s="31" t="s">
+      <c r="CD1" s="31" t="s">
         <v>7821</v>
       </c>
-      <c r="BS1" s="34" t="s">
-        <v>7781</v>
-      </c>
-      <c r="BT1" s="37" t="s">
-        <v>7752</v>
-      </c>
-      <c r="BU1" s="32" t="s">
-        <v>7782</v>
-      </c>
-      <c r="BV1" s="36" t="s">
-        <v>7753</v>
-      </c>
-      <c r="BW1" s="33" t="s">
+      <c r="CE1" s="34" t="s">
+        <v>7783</v>
+      </c>
+      <c r="CF1" s="37" t="s">
+        <v>7754</v>
+      </c>
+      <c r="CG1" s="32" t="s">
+        <v>7784</v>
+      </c>
+      <c r="CH1" s="36" t="s">
+        <v>7755</v>
+      </c>
+      <c r="CI1" s="33" t="s">
         <v>7809</v>
       </c>
-      <c r="BX1" s="35" t="s">
+      <c r="CJ1" s="35" t="s">
         <v>7822</v>
-      </c>
-      <c r="BY1" s="18" t="s">
-        <v>7783</v>
-      </c>
-      <c r="BZ1" s="19" t="s">
-        <v>7754</v>
-      </c>
-      <c r="CA1" s="20" t="s">
-        <v>7784</v>
-      </c>
-      <c r="CB1" s="21" t="s">
-        <v>7755</v>
-      </c>
-      <c r="CC1" s="21" t="s">
-        <v>7810</v>
-      </c>
-      <c r="CD1" s="31" t="s">
-        <v>7823</v>
-      </c>
-      <c r="CE1" s="34" t="s">
-        <v>7785</v>
-      </c>
-      <c r="CF1" s="37" t="s">
-        <v>7756</v>
-      </c>
-      <c r="CG1" s="32" t="s">
-        <v>7786</v>
-      </c>
-      <c r="CH1" s="36" t="s">
-        <v>7757</v>
-      </c>
-      <c r="CI1" s="33" t="s">
-        <v>7811</v>
-      </c>
-      <c r="CJ1" s="35" t="s">
-        <v>7824</v>
       </c>
     </row>
     <row r="2" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>7796</v>
+        <v>7794</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>7721</v>
@@ -58670,7 +58655,7 @@
         <v>7720</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>7825</v>
+        <v>7823</v>
       </c>
       <c r="E2" s="25">
         <v>2</v>
@@ -58689,7 +58674,7 @@
         <v>11</v>
       </c>
       <c r="J2" s="27">
-        <f t="shared" ref="J2:J12" si="0">IF($D2="MS SQL Standard Edition - Active VM",F2/2,IF($D2="MS SQL Enterprise Edition - Active VM",F2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",F2,IF($D2="Postgre SQL Enterprise Edition",F2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",F2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <f t="shared" ref="J2:J9" si="0">IF($D2="MS SQL Standard Edition - Active VM",F2/2,IF($D2="MS SQL Enterprise Edition - Active VM",F2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",F2,IF($D2="Postgre SQL Enterprise Edition",F2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",F2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
         <v>11</v>
       </c>
       <c r="K2" s="28">
@@ -58705,11 +58690,11 @@
         <v>200</v>
       </c>
       <c r="O2" s="29">
-        <f t="shared" ref="O2:O12" si="1">IF($C2="win",L2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
+        <f t="shared" ref="O2:O9" si="1">IF($C2="win",L2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
         <v>2</v>
       </c>
       <c r="P2" s="30">
-        <f t="shared" ref="P2:P12" si="2">IF($D2="MS SQL Standard Edition - Active VM",L2/2,IF($D2="MS SQL Enterprise Edition - Active VM",L2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",L2,IF($D2="Postgre SQL Enterprise Edition",L2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",L2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <f t="shared" ref="P2:P9" si="2">IF($D2="MS SQL Standard Edition - Active VM",L2/2,IF($D2="MS SQL Enterprise Edition - Active VM",L2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",L2,IF($D2="Postgre SQL Enterprise Edition",L2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",L2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
         <v>2</v>
       </c>
       <c r="Q2" s="25">
@@ -58725,11 +58710,11 @@
         <v>200</v>
       </c>
       <c r="U2" s="26">
-        <f t="shared" ref="U2:U12" si="3">IF($C2="win",R2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
+        <f t="shared" ref="U2:U9" si="3">IF($C2="win",R2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
         <v>2</v>
       </c>
       <c r="V2" s="27">
-        <f t="shared" ref="V2:V12" si="4">IF($D2="MS SQL Standard Edition - Active VM",R2/2,IF($D2="MS SQL Enterprise Edition - Active VM",R2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",R2,IF($D2="Postgre SQL Enterprise Edition",R2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",R2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <f t="shared" ref="V2:V9" si="4">IF($D2="MS SQL Standard Edition - Active VM",R2/2,IF($D2="MS SQL Enterprise Edition - Active VM",R2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",R2,IF($D2="Postgre SQL Enterprise Edition",R2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",R2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
         <v>2</v>
       </c>
       <c r="W2" s="28">
@@ -58745,11 +58730,11 @@
         <v>200</v>
       </c>
       <c r="AA2" s="29">
-        <f t="shared" ref="AA2:AA12" si="5">IF($C2="win",X2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
+        <f t="shared" ref="AA2:AA9" si="5">IF($C2="win",X2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
         <v>2</v>
       </c>
       <c r="AB2" s="30">
-        <f t="shared" ref="AB2:AB12" si="6">IF($D2="MS SQL Standard Edition - Active VM",X2/2,IF($D2="MS SQL Enterprise Edition - Active VM",X2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",X2,IF($D2="Postgre SQL Enterprise Edition",X2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",X2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <f t="shared" ref="AB2:AB9" si="6">IF($D2="MS SQL Standard Edition - Active VM",X2/2,IF($D2="MS SQL Enterprise Edition - Active VM",X2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",X2,IF($D2="Postgre SQL Enterprise Edition",X2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",X2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
         <v>2</v>
       </c>
       <c r="AC2" s="25">
@@ -58765,11 +58750,11 @@
         <v>200</v>
       </c>
       <c r="AG2" s="26">
-        <f t="shared" ref="AG2:AG12" si="7">IF($C2="win",AD2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
+        <f t="shared" ref="AG2:AG9" si="7">IF($C2="win",AD2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
         <v>2</v>
       </c>
       <c r="AH2" s="27">
-        <f t="shared" ref="AH2:AH12" si="8">IF($D2="MS SQL Standard Edition - Active VM",AD2/2,IF($D2="MS SQL Enterprise Edition - Active VM",AD2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",AD2,IF($D2="Postgre SQL Enterprise Edition",AD2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",AD2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <f t="shared" ref="AH2:AH9" si="8">IF($D2="MS SQL Standard Edition - Active VM",AD2/2,IF($D2="MS SQL Enterprise Edition - Active VM",AD2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",AD2,IF($D2="Postgre SQL Enterprise Edition",AD2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",AD2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
         <v>2</v>
       </c>
       <c r="AI2" s="28">
@@ -58785,11 +58770,11 @@
         <v>200</v>
       </c>
       <c r="AM2" s="29">
-        <f t="shared" ref="AM2:AM12" si="9">IF($C2="win",AJ2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
+        <f t="shared" ref="AM2:AM9" si="9">IF($C2="win",AJ2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
         <v>2</v>
       </c>
       <c r="AN2" s="30">
-        <f t="shared" ref="AN2:AN12" si="10">IF($D2="MS SQL Standard Edition - Active VM",AJ2/2,IF($D2="MS SQL Enterprise Edition - Active VM",AJ2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",AJ2,IF($D2="Postgre SQL Enterprise Edition",AJ2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",AJ2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <f t="shared" ref="AN2:AN9" si="10">IF($D2="MS SQL Standard Edition - Active VM",AJ2/2,IF($D2="MS SQL Enterprise Edition - Active VM",AJ2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",AJ2,IF($D2="Postgre SQL Enterprise Edition",AJ2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",AJ2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
         <v>2</v>
       </c>
       <c r="AO2" s="25">
@@ -58805,11 +58790,11 @@
         <v>200</v>
       </c>
       <c r="AS2" s="26">
-        <f t="shared" ref="AS2:AS12" si="11">IF($C2="win",AP2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
+        <f t="shared" ref="AS2:AS9" si="11">IF($C2="win",AP2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
         <v>2</v>
       </c>
       <c r="AT2" s="27">
-        <f t="shared" ref="AT2:AT12" si="12">IF($D2="MS SQL Standard Edition - Active VM",AP2/2,IF($D2="MS SQL Enterprise Edition - Active VM",AP2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",AP2,IF($D2="Postgre SQL Enterprise Edition",AP2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",AP2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <f t="shared" ref="AT2:AT9" si="12">IF($D2="MS SQL Standard Edition - Active VM",AP2/2,IF($D2="MS SQL Enterprise Edition - Active VM",AP2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",AP2,IF($D2="Postgre SQL Enterprise Edition",AP2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",AP2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
         <v>2</v>
       </c>
       <c r="AU2" s="28">
@@ -58825,11 +58810,11 @@
         <v>200</v>
       </c>
       <c r="AY2" s="29">
-        <f t="shared" ref="AY2:AY12" si="13">IF($C2="win",AV2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
+        <f t="shared" ref="AY2:AY9" si="13">IF($C2="win",AV2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
         <v>2</v>
       </c>
       <c r="AZ2" s="30">
-        <f t="shared" ref="AZ2:AZ12" si="14">IF($D2="MS SQL Standard Edition - Active VM",AV2/2,IF($D2="MS SQL Enterprise Edition - Active VM",AV2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",AV2,IF($D2="Postgre SQL Enterprise Edition",AV2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",AV2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <f t="shared" ref="AZ2:AZ9" si="14">IF($D2="MS SQL Standard Edition - Active VM",AV2/2,IF($D2="MS SQL Enterprise Edition - Active VM",AV2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",AV2,IF($D2="Postgre SQL Enterprise Edition",AV2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",AV2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
         <v>2</v>
       </c>
       <c r="BA2" s="25">
@@ -58845,11 +58830,11 @@
         <v>200</v>
       </c>
       <c r="BE2" s="26">
-        <f t="shared" ref="BE2:BE12" si="15">IF($C2="win",BB2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
+        <f t="shared" ref="BE2:BE9" si="15">IF($C2="win",BB2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
         <v>2</v>
       </c>
       <c r="BF2" s="27">
-        <f t="shared" ref="BF2:BF12" si="16">IF($D2="MS SQL Standard Edition - Active VM",BB2/2,IF($D2="MS SQL Enterprise Edition - Active VM",BB2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",BB2,IF($D2="Postgre SQL Enterprise Edition",BB2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",BB2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <f t="shared" ref="BF2:BF9" si="16">IF($D2="MS SQL Standard Edition - Active VM",BB2/2,IF($D2="MS SQL Enterprise Edition - Active VM",BB2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",BB2,IF($D2="Postgre SQL Enterprise Edition",BB2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",BB2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
         <v>2</v>
       </c>
       <c r="BG2" s="28">
@@ -58865,11 +58850,11 @@
         <v>200</v>
       </c>
       <c r="BK2" s="29">
-        <f t="shared" ref="BK2:BK12" si="17">IF($C2="win",BH2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
+        <f t="shared" ref="BK2:BK9" si="17">IF($C2="win",BH2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
         <v>2</v>
       </c>
       <c r="BL2" s="30">
-        <f t="shared" ref="BL2:BL12" si="18">IF($D2="MS SQL Standard Edition - Active VM",BH2/2,IF($D2="MS SQL Enterprise Edition - Active VM",BH2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",BH2,IF($D2="Postgre SQL Enterprise Edition",BH2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",BH2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <f t="shared" ref="BL2:BL9" si="18">IF($D2="MS SQL Standard Edition - Active VM",BH2/2,IF($D2="MS SQL Enterprise Edition - Active VM",BH2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",BH2,IF($D2="Postgre SQL Enterprise Edition",BH2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",BH2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
         <v>2</v>
       </c>
       <c r="BM2" s="25">
@@ -58885,11 +58870,11 @@
         <v>200</v>
       </c>
       <c r="BQ2" s="26">
-        <f t="shared" ref="BQ2:BQ12" si="19">IF($C2="win",BN2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
+        <f t="shared" ref="BQ2:BQ9" si="19">IF($C2="win",BN2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
         <v>2</v>
       </c>
       <c r="BR2" s="27">
-        <f t="shared" ref="BR2:BR12" si="20">IF($D2="MS SQL Standard Edition - Active VM",BN2/2,IF($D2="MS SQL Enterprise Edition - Active VM",BN2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",BN2,IF($D2="Postgre SQL Enterprise Edition",BN2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",BN2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <f t="shared" ref="BR2:BR9" si="20">IF($D2="MS SQL Standard Edition - Active VM",BN2/2,IF($D2="MS SQL Enterprise Edition - Active VM",BN2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",BN2,IF($D2="Postgre SQL Enterprise Edition",BN2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",BN2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
         <v>2</v>
       </c>
       <c r="BS2" s="28">
@@ -58905,11 +58890,11 @@
         <v>200</v>
       </c>
       <c r="BW2" s="29">
-        <f t="shared" ref="BW2:BW12" si="21">IF($C2="win",BT2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
+        <f t="shared" ref="BW2:BW9" si="21">IF($C2="win",BT2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
         <v>2</v>
       </c>
       <c r="BX2" s="30">
-        <f t="shared" ref="BX2:BX12" si="22">IF($D2="MS SQL Standard Edition - Active VM",BT2/2,IF($D2="MS SQL Enterprise Edition - Active VM",BT2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",BT2,IF($D2="Postgre SQL Enterprise Edition",BT2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",BT2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <f t="shared" ref="BX2:BX9" si="22">IF($D2="MS SQL Standard Edition - Active VM",BT2/2,IF($D2="MS SQL Enterprise Edition - Active VM",BT2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",BT2,IF($D2="Postgre SQL Enterprise Edition",BT2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",BT2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
         <v>2</v>
       </c>
       <c r="BY2" s="25">
@@ -58925,11 +58910,11 @@
         <v>200</v>
       </c>
       <c r="CC2" s="26">
-        <f t="shared" ref="CC2:CC12" si="23">IF($C2="win",BZ2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
+        <f t="shared" ref="CC2:CC9" si="23">IF($C2="win",BZ2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
         <v>2</v>
       </c>
       <c r="CD2" s="27">
-        <f t="shared" ref="CD2:CD12" si="24">IF($D2="MS SQL Standard Edition - Active VM",BZ2/2,IF($D2="MS SQL Enterprise Edition - Active VM",BZ2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",BZ2,IF($D2="Postgre SQL Enterprise Edition",BZ2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",BZ2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <f t="shared" ref="CD2:CD9" si="24">IF($D2="MS SQL Standard Edition - Active VM",BZ2/2,IF($D2="MS SQL Enterprise Edition - Active VM",BZ2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",BZ2,IF($D2="Postgre SQL Enterprise Edition",BZ2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",BZ2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
         <v>2</v>
       </c>
       <c r="CE2" s="28">
@@ -58945,26 +58930,26 @@
         <v>200</v>
       </c>
       <c r="CI2" s="29">
-        <f t="shared" ref="CI2:CI12" si="25">IF($C2="win",CF2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
+        <f t="shared" ref="CI2:CI9" si="25">IF($C2="win",CF2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
         <v>2</v>
       </c>
       <c r="CJ2" s="30">
-        <f t="shared" ref="CJ2:CJ12" si="26">IF($D2="MS SQL Standard Edition - Active VM",CF2/2,IF($D2="MS SQL Enterprise Edition - Active VM",CF2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",CF2,IF($D2="Postgre SQL Enterprise Edition",CF2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",CF2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <f t="shared" ref="CJ2:CJ9" si="26">IF($D2="MS SQL Standard Edition - Active VM",CF2/2,IF($D2="MS SQL Enterprise Edition - Active VM",CF2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",CF2,IF($D2="Postgre SQL Enterprise Edition",CF2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",CF2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>7796</v>
+        <v>7794</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>7722</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>7835</v>
+        <v>7831</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>7826</v>
+        <v>7824</v>
       </c>
       <c r="E3" s="25">
         <v>4</v>
@@ -58979,7 +58964,7 @@
         <v>1400</v>
       </c>
       <c r="I3" s="26">
-        <f t="shared" ref="I2:I12" si="27">IF($C3="win",F3/2,IF($C3="rhel",1,IF($C3="suse",1,IF($C3="Ubuntu",1,IF($C3="Oracle Linux",1,IF($C3="Debian",1,IF($C3="OEM Specific",1,0)))))))</f>
+        <f t="shared" ref="I3:I9" si="27">IF($C3="win",F3/2,IF($C3="rhel",1,IF($C3="suse",1,IF($C3="Ubuntu",1,IF($C3="Oracle Linux",1,IF($C3="Debian",1,IF($C3="OEM Specific",1,0)))))))</f>
         <v>1</v>
       </c>
       <c r="J3" s="27">
@@ -59249,16 +59234,16 @@
     </row>
     <row r="4" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>7796</v>
+        <v>7794</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>7723</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>7836</v>
+        <v>7832</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>7827</v>
+        <v>7825</v>
       </c>
       <c r="E4" s="25">
         <v>6</v>
@@ -59543,16 +59528,16 @@
     </row>
     <row r="5" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>7796</v>
+        <v>7794</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>7724</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>7837</v>
+        <v>7833</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>7828</v>
+        <v>7826</v>
       </c>
       <c r="E5" s="25">
         <v>8</v>
@@ -59837,28 +59822,28 @@
     </row>
     <row r="6" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>7796</v>
+        <v>7794</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>7725</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>7838</v>
+        <v>7833</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>7829</v>
+        <v>7827</v>
       </c>
       <c r="E6" s="25">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F6" s="25">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G6" s="25">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H6" s="25">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="I6" s="26">
         <f t="shared" si="27"/>
@@ -59866,7 +59851,7 @@
       </c>
       <c r="J6" s="27">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K6" s="28">
         <v>4</v>
@@ -60131,28 +60116,28 @@
     </row>
     <row r="7" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>7796</v>
+        <v>7794</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>7726</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>7837</v>
+        <v>7833</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>7830</v>
+        <v>7828</v>
       </c>
       <c r="E7" s="25">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F7" s="25">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G7" s="25">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H7" s="25">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="I7" s="26">
         <f t="shared" si="27"/>
@@ -60160,7 +60145,7 @@
       </c>
       <c r="J7" s="27">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K7" s="28">
         <v>4</v>
@@ -60180,7 +60165,7 @@
       </c>
       <c r="P7" s="30">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="25">
         <v>4</v>
@@ -60200,7 +60185,7 @@
       </c>
       <c r="V7" s="27">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W7" s="28">
         <v>4</v>
@@ -60220,7 +60205,7 @@
       </c>
       <c r="AB7" s="30">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC7" s="25">
         <v>4</v>
@@ -60240,7 +60225,7 @@
       </c>
       <c r="AH7" s="27">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI7" s="28">
         <v>4</v>
@@ -60260,7 +60245,7 @@
       </c>
       <c r="AN7" s="30">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AO7" s="25">
         <v>4</v>
@@ -60280,7 +60265,7 @@
       </c>
       <c r="AT7" s="27">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AU7" s="28">
         <v>4</v>
@@ -60300,7 +60285,7 @@
       </c>
       <c r="AZ7" s="30">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BA7" s="25">
         <v>4</v>
@@ -60320,7 +60305,7 @@
       </c>
       <c r="BF7" s="27">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BG7" s="28">
         <v>4</v>
@@ -60340,7 +60325,7 @@
       </c>
       <c r="BL7" s="30">
         <f t="shared" si="18"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BM7" s="25">
         <v>4</v>
@@ -60360,7 +60345,7 @@
       </c>
       <c r="BR7" s="27">
         <f t="shared" si="20"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BS7" s="28">
         <v>4</v>
@@ -60380,7 +60365,7 @@
       </c>
       <c r="BX7" s="30">
         <f t="shared" si="22"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BY7" s="25">
         <v>4</v>
@@ -60400,7 +60385,7 @@
       </c>
       <c r="CD7" s="27">
         <f t="shared" si="24"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CE7" s="28">
         <v>4</v>
@@ -60420,33 +60405,33 @@
       </c>
       <c r="CJ7" s="30">
         <f t="shared" si="26"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
-        <v>7796</v>
+        <v>7794</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>7727</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>7837</v>
+        <v>7833</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>7831</v>
+        <v>7829</v>
       </c>
       <c r="E8" s="25">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F8" s="25">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G8" s="25">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H8" s="25">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I8" s="26">
         <f t="shared" si="27"/>
@@ -60454,7 +60439,7 @@
       </c>
       <c r="J8" s="27">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K8" s="28">
         <v>4</v>
@@ -60474,7 +60459,7 @@
       </c>
       <c r="P8" s="30">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q8" s="25">
         <v>4</v>
@@ -60494,7 +60479,7 @@
       </c>
       <c r="V8" s="27">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W8" s="28">
         <v>4</v>
@@ -60514,7 +60499,7 @@
       </c>
       <c r="AB8" s="30">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC8" s="25">
         <v>4</v>
@@ -60534,7 +60519,7 @@
       </c>
       <c r="AH8" s="27">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI8" s="28">
         <v>4</v>
@@ -60554,7 +60539,7 @@
       </c>
       <c r="AN8" s="30">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO8" s="25">
         <v>4</v>
@@ -60574,7 +60559,7 @@
       </c>
       <c r="AT8" s="27">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU8" s="28">
         <v>4</v>
@@ -60594,7 +60579,7 @@
       </c>
       <c r="AZ8" s="30">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA8" s="25">
         <v>4</v>
@@ -60614,7 +60599,7 @@
       </c>
       <c r="BF8" s="27">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG8" s="28">
         <v>4</v>
@@ -60634,7 +60619,7 @@
       </c>
       <c r="BL8" s="30">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BM8" s="25">
         <v>4</v>
@@ -60654,7 +60639,7 @@
       </c>
       <c r="BR8" s="27">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BS8" s="28">
         <v>4</v>
@@ -60674,7 +60659,7 @@
       </c>
       <c r="BX8" s="30">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BY8" s="25">
         <v>4</v>
@@ -60694,7 +60679,7 @@
       </c>
       <c r="CD8" s="27">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CE8" s="28">
         <v>4</v>
@@ -60714,41 +60699,41 @@
       </c>
       <c r="CJ8" s="30">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>7796</v>
+        <v>7794</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>7728</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>7837</v>
+        <v>7720</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>7832</v>
+        <v>7830</v>
       </c>
       <c r="E9" s="25">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F9" s="25">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G9" s="25">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H9" s="25">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I9" s="26">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9" s="27">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K9" s="28">
         <v>4</v>
@@ -60764,11 +60749,11 @@
       </c>
       <c r="O9" s="29">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P9" s="30">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="25">
         <v>4</v>
@@ -60784,11 +60769,11 @@
       </c>
       <c r="U9" s="26">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V9" s="27">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W9" s="28">
         <v>4</v>
@@ -60804,11 +60789,11 @@
       </c>
       <c r="AA9" s="29">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB9" s="30">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC9" s="25">
         <v>4</v>
@@ -60824,11 +60809,11 @@
       </c>
       <c r="AG9" s="26">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH9" s="27">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI9" s="28">
         <v>4</v>
@@ -60844,11 +60829,11 @@
       </c>
       <c r="AM9" s="29">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN9" s="30">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO9" s="25">
         <v>4</v>
@@ -60864,11 +60849,11 @@
       </c>
       <c r="AS9" s="26">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT9" s="27">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU9" s="28">
         <v>4</v>
@@ -60884,11 +60869,11 @@
       </c>
       <c r="AY9" s="29">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ9" s="30">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA9" s="25">
         <v>4</v>
@@ -60904,11 +60889,11 @@
       </c>
       <c r="BE9" s="26">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF9" s="27">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG9" s="28">
         <v>4</v>
@@ -60924,11 +60909,11 @@
       </c>
       <c r="BK9" s="29">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL9" s="30">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BM9" s="25">
         <v>4</v>
@@ -60944,11 +60929,11 @@
       </c>
       <c r="BQ9" s="26">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BR9" s="27">
         <f t="shared" si="20"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BS9" s="28">
         <v>4</v>
@@ -60964,11 +60949,11 @@
       </c>
       <c r="BW9" s="29">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BX9" s="30">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BY9" s="25">
         <v>4</v>
@@ -60984,11 +60969,11 @@
       </c>
       <c r="CC9" s="26">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CD9" s="27">
         <f t="shared" si="24"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CE9" s="28">
         <v>4</v>
@@ -61004,65 +60989,65 @@
       </c>
       <c r="CI9" s="29">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CJ9" s="30">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>7796</v>
-      </c>
-      <c r="B10" s="15" t="s">
+        <v>7834</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>7729</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>7720</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>7833</v>
+        <v>7823</v>
       </c>
       <c r="E10" s="25">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F10" s="25">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G10" s="25">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H10" s="25">
-        <v>500</v>
+        <v>10000</v>
       </c>
       <c r="I10" s="26">
-        <f t="shared" si="27"/>
-        <v>3</v>
+        <f t="shared" ref="I10" si="28">IF($C10="win",F10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
+        <v>1</v>
       </c>
       <c r="J10" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J10" si="29">IF($D10="MS SQL Standard Edition - Active VM",F10/2,IF($D10="MS SQL Enterprise Edition - Active VM",F10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",F10,IF($D10="Postgre SQL Enterprise Edition",F10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",F10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
         <v>1</v>
       </c>
-      <c r="K10" s="28">
+      <c r="K10" s="38">
         <v>4</v>
       </c>
-      <c r="L10" s="28">
+      <c r="L10" s="38">
         <v>4</v>
       </c>
-      <c r="M10" s="28">
+      <c r="M10" s="38">
         <v>8</v>
       </c>
-      <c r="N10" s="28">
+      <c r="N10" s="38">
         <v>200</v>
       </c>
       <c r="O10" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="O10" si="30">IF($C10="win",L10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
         <v>2</v>
       </c>
       <c r="P10" s="30">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" ref="P10" si="31">IF($D10="MS SQL Standard Edition - Active VM",L10/2,IF($D10="MS SQL Enterprise Edition - Active VM",L10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",L10,IF($D10="Postgre SQL Enterprise Edition",L10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",L10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
       </c>
       <c r="Q10" s="25">
         <v>4</v>
@@ -61077,32 +61062,32 @@
         <v>200</v>
       </c>
       <c r="U10" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="U10" si="32">IF($C10="win",R10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
         <v>2</v>
       </c>
       <c r="V10" s="27">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="W10" s="28">
+        <f t="shared" ref="V10" si="33">IF($D10="MS SQL Standard Edition - Active VM",R10/2,IF($D10="MS SQL Enterprise Edition - Active VM",R10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",R10,IF($D10="Postgre SQL Enterprise Edition",R10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",R10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="W10" s="38">
         <v>4</v>
       </c>
-      <c r="X10" s="28">
+      <c r="X10" s="38">
         <v>4</v>
       </c>
-      <c r="Y10" s="28">
+      <c r="Y10" s="38">
         <v>8</v>
       </c>
-      <c r="Z10" s="28">
+      <c r="Z10" s="38">
         <v>200</v>
       </c>
       <c r="AA10" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AA10" si="34">IF($C10="win",X10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
         <v>2</v>
       </c>
       <c r="AB10" s="30">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" ref="AB10" si="35">IF($D10="MS SQL Standard Edition - Active VM",X10/2,IF($D10="MS SQL Enterprise Edition - Active VM",X10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",X10,IF($D10="Postgre SQL Enterprise Edition",X10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",X10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
       </c>
       <c r="AC10" s="25">
         <v>4</v>
@@ -61117,32 +61102,32 @@
         <v>200</v>
       </c>
       <c r="AG10" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="AG10" si="36">IF($C10="win",AD10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
         <v>2</v>
       </c>
       <c r="AH10" s="27">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AI10" s="28">
+        <f t="shared" ref="AH10" si="37">IF($D10="MS SQL Standard Edition - Active VM",AD10/2,IF($D10="MS SQL Enterprise Edition - Active VM",AD10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",AD10,IF($D10="Postgre SQL Enterprise Edition",AD10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",AD10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AI10" s="38">
         <v>4</v>
       </c>
-      <c r="AJ10" s="28">
+      <c r="AJ10" s="38">
         <v>4</v>
       </c>
-      <c r="AK10" s="28">
+      <c r="AK10" s="38">
         <v>8</v>
       </c>
-      <c r="AL10" s="28">
+      <c r="AL10" s="38">
         <v>200</v>
       </c>
       <c r="AM10" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="AM10" si="38">IF($C10="win",AJ10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
         <v>2</v>
       </c>
       <c r="AN10" s="30">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" ref="AN10" si="39">IF($D10="MS SQL Standard Edition - Active VM",AJ10/2,IF($D10="MS SQL Enterprise Edition - Active VM",AJ10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",AJ10,IF($D10="Postgre SQL Enterprise Edition",AJ10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",AJ10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
       </c>
       <c r="AO10" s="25">
         <v>4</v>
@@ -61157,32 +61142,32 @@
         <v>200</v>
       </c>
       <c r="AS10" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="AS10" si="40">IF($C10="win",AP10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
         <v>2</v>
       </c>
       <c r="AT10" s="27">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AU10" s="28">
+        <f t="shared" ref="AT10" si="41">IF($D10="MS SQL Standard Edition - Active VM",AP10/2,IF($D10="MS SQL Enterprise Edition - Active VM",AP10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",AP10,IF($D10="Postgre SQL Enterprise Edition",AP10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",AP10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AU10" s="38">
         <v>4</v>
       </c>
-      <c r="AV10" s="28">
+      <c r="AV10" s="38">
         <v>4</v>
       </c>
-      <c r="AW10" s="28">
+      <c r="AW10" s="38">
         <v>8</v>
       </c>
-      <c r="AX10" s="28">
+      <c r="AX10" s="38">
         <v>200</v>
       </c>
       <c r="AY10" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="AY10" si="42">IF($C10="win",AV10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
         <v>2</v>
       </c>
       <c r="AZ10" s="30">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <f t="shared" ref="AZ10" si="43">IF($D10="MS SQL Standard Edition - Active VM",AV10/2,IF($D10="MS SQL Enterprise Edition - Active VM",AV10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",AV10,IF($D10="Postgre SQL Enterprise Edition",AV10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",AV10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
       </c>
       <c r="BA10" s="25">
         <v>4</v>
@@ -61197,32 +61182,32 @@
         <v>200</v>
       </c>
       <c r="BE10" s="26">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="BE10" si="44">IF($C10="win",BB10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
         <v>2</v>
       </c>
       <c r="BF10" s="27">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="BG10" s="28">
+        <f t="shared" ref="BF10" si="45">IF($D10="MS SQL Standard Edition - Active VM",BB10/2,IF($D10="MS SQL Enterprise Edition - Active VM",BB10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",BB10,IF($D10="Postgre SQL Enterprise Edition",BB10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",BB10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="BG10" s="38">
         <v>4</v>
       </c>
-      <c r="BH10" s="28">
+      <c r="BH10" s="38">
         <v>4</v>
       </c>
-      <c r="BI10" s="28">
+      <c r="BI10" s="38">
         <v>8</v>
       </c>
-      <c r="BJ10" s="28">
+      <c r="BJ10" s="38">
         <v>200</v>
       </c>
       <c r="BK10" s="29">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="BK10" si="46">IF($C10="win",BH10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
         <v>2</v>
       </c>
       <c r="BL10" s="30">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <f t="shared" ref="BL10" si="47">IF($D10="MS SQL Standard Edition - Active VM",BH10/2,IF($D10="MS SQL Enterprise Edition - Active VM",BH10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",BH10,IF($D10="Postgre SQL Enterprise Edition",BH10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",BH10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
       </c>
       <c r="BM10" s="25">
         <v>4</v>
@@ -61237,32 +61222,32 @@
         <v>200</v>
       </c>
       <c r="BQ10" s="26">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="BQ10" si="48">IF($C10="win",BN10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
         <v>2</v>
       </c>
       <c r="BR10" s="27">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="BS10" s="28">
+        <f t="shared" ref="BR10" si="49">IF($D10="MS SQL Standard Edition - Active VM",BN10/2,IF($D10="MS SQL Enterprise Edition - Active VM",BN10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",BN10,IF($D10="Postgre SQL Enterprise Edition",BN10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",BN10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="BS10" s="38">
         <v>4</v>
       </c>
-      <c r="BT10" s="28">
+      <c r="BT10" s="38">
         <v>4</v>
       </c>
-      <c r="BU10" s="28">
+      <c r="BU10" s="38">
         <v>8</v>
       </c>
-      <c r="BV10" s="28">
+      <c r="BV10" s="38">
         <v>200</v>
       </c>
       <c r="BW10" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="BW10" si="50">IF($C10="win",BT10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
         <v>2</v>
       </c>
       <c r="BX10" s="30">
-        <f t="shared" si="22"/>
-        <v>1</v>
+        <f t="shared" ref="BX10" si="51">IF($D10="MS SQL Standard Edition - Active VM",BT10/2,IF($D10="MS SQL Enterprise Edition - Active VM",BT10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",BT10,IF($D10="Postgre SQL Enterprise Edition",BT10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",BT10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
       </c>
       <c r="BY10" s="25">
         <v>4</v>
@@ -61277,923 +61262,41 @@
         <v>200</v>
       </c>
       <c r="CC10" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="CC10" si="52">IF($C10="win",BZ10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
         <v>2</v>
       </c>
       <c r="CD10" s="27">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="CE10" s="28">
+        <f t="shared" ref="CD10" si="53">IF($D10="MS SQL Standard Edition - Active VM",BZ10/2,IF($D10="MS SQL Enterprise Edition - Active VM",BZ10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",BZ10,IF($D10="Postgre SQL Enterprise Edition",BZ10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",BZ10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="CE10" s="38">
         <v>4</v>
       </c>
-      <c r="CF10" s="28">
+      <c r="CF10" s="38">
         <v>4</v>
       </c>
-      <c r="CG10" s="28">
+      <c r="CG10" s="38">
         <v>8</v>
       </c>
-      <c r="CH10" s="28">
+      <c r="CH10" s="38">
         <v>200</v>
       </c>
       <c r="CI10" s="29">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="CI10" si="54">IF($C10="win",CF10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
         <v>2</v>
       </c>
       <c r="CJ10" s="30">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
-        <v>7796</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>7730</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>7720</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>7834</v>
-      </c>
-      <c r="E11" s="25">
-        <v>20</v>
-      </c>
-      <c r="F11" s="25">
-        <v>4</v>
-      </c>
-      <c r="G11" s="25">
-        <v>46</v>
-      </c>
-      <c r="H11" s="25">
-        <v>900</v>
-      </c>
-      <c r="I11" s="26">
-        <f t="shared" si="27"/>
-        <v>2</v>
-      </c>
-      <c r="J11" s="27">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K11" s="28">
-        <v>4</v>
-      </c>
-      <c r="L11" s="28">
-        <v>4</v>
-      </c>
-      <c r="M11" s="28">
-        <v>8</v>
-      </c>
-      <c r="N11" s="28">
-        <v>200</v>
-      </c>
-      <c r="O11" s="29">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="P11" s="30">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q11" s="25">
-        <v>4</v>
-      </c>
-      <c r="R11" s="25">
-        <v>4</v>
-      </c>
-      <c r="S11" s="25">
-        <v>8</v>
-      </c>
-      <c r="T11" s="25">
-        <v>200</v>
-      </c>
-      <c r="U11" s="26">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="V11" s="27">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="W11" s="28">
-        <v>4</v>
-      </c>
-      <c r="X11" s="28">
-        <v>4</v>
-      </c>
-      <c r="Y11" s="28">
-        <v>8</v>
-      </c>
-      <c r="Z11" s="28">
-        <v>200</v>
-      </c>
-      <c r="AA11" s="29">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AB11" s="30">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AC11" s="25">
-        <v>4</v>
-      </c>
-      <c r="AD11" s="25">
-        <v>4</v>
-      </c>
-      <c r="AE11" s="25">
-        <v>8</v>
-      </c>
-      <c r="AF11" s="25">
-        <v>200</v>
-      </c>
-      <c r="AG11" s="26">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AH11" s="27">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AI11" s="28">
-        <v>4</v>
-      </c>
-      <c r="AJ11" s="28">
-        <v>4</v>
-      </c>
-      <c r="AK11" s="28">
-        <v>8</v>
-      </c>
-      <c r="AL11" s="28">
-        <v>200</v>
-      </c>
-      <c r="AM11" s="29">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="AN11" s="30">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AO11" s="25">
-        <v>4</v>
-      </c>
-      <c r="AP11" s="25">
-        <v>4</v>
-      </c>
-      <c r="AQ11" s="25">
-        <v>8</v>
-      </c>
-      <c r="AR11" s="25">
-        <v>200</v>
-      </c>
-      <c r="AS11" s="26">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="AT11" s="27">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AU11" s="28">
-        <v>4</v>
-      </c>
-      <c r="AV11" s="28">
-        <v>4</v>
-      </c>
-      <c r="AW11" s="28">
-        <v>8</v>
-      </c>
-      <c r="AX11" s="28">
-        <v>200</v>
-      </c>
-      <c r="AY11" s="29">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="AZ11" s="30">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="BA11" s="25">
-        <v>4</v>
-      </c>
-      <c r="BB11" s="25">
-        <v>4</v>
-      </c>
-      <c r="BC11" s="25">
-        <v>8</v>
-      </c>
-      <c r="BD11" s="25">
-        <v>200</v>
-      </c>
-      <c r="BE11" s="26">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="BF11" s="27">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="BG11" s="28">
-        <v>4</v>
-      </c>
-      <c r="BH11" s="28">
-        <v>4</v>
-      </c>
-      <c r="BI11" s="28">
-        <v>8</v>
-      </c>
-      <c r="BJ11" s="28">
-        <v>200</v>
-      </c>
-      <c r="BK11" s="29">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="BL11" s="30">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="BM11" s="25">
-        <v>4</v>
-      </c>
-      <c r="BN11" s="25">
-        <v>4</v>
-      </c>
-      <c r="BO11" s="25">
-        <v>8</v>
-      </c>
-      <c r="BP11" s="25">
-        <v>200</v>
-      </c>
-      <c r="BQ11" s="26">
-        <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="BR11" s="27">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="BS11" s="28">
-        <v>4</v>
-      </c>
-      <c r="BT11" s="28">
-        <v>4</v>
-      </c>
-      <c r="BU11" s="28">
-        <v>8</v>
-      </c>
-      <c r="BV11" s="28">
-        <v>200</v>
-      </c>
-      <c r="BW11" s="29">
-        <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="BX11" s="30">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="BY11" s="25">
-        <v>4</v>
-      </c>
-      <c r="BZ11" s="25">
-        <v>4</v>
-      </c>
-      <c r="CA11" s="25">
-        <v>8</v>
-      </c>
-      <c r="CB11" s="25">
-        <v>200</v>
-      </c>
-      <c r="CC11" s="26">
-        <f t="shared" si="23"/>
-        <v>2</v>
-      </c>
-      <c r="CD11" s="27">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="CE11" s="28">
-        <v>4</v>
-      </c>
-      <c r="CF11" s="28">
-        <v>4</v>
-      </c>
-      <c r="CG11" s="28">
-        <v>8</v>
-      </c>
-      <c r="CH11" s="28">
-        <v>200</v>
-      </c>
-      <c r="CI11" s="29">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
-      <c r="CJ11" s="30">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
-        <v>7796</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>7731</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>7720</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>7825</v>
-      </c>
-      <c r="E12" s="25">
-        <v>22</v>
-      </c>
-      <c r="F12" s="25">
-        <v>2</v>
-      </c>
-      <c r="G12" s="25">
-        <v>44</v>
-      </c>
-      <c r="H12" s="25">
-        <v>10000</v>
-      </c>
-      <c r="I12" s="26">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="J12" s="27">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K12" s="38">
-        <v>4</v>
-      </c>
-      <c r="L12" s="38">
-        <v>4</v>
-      </c>
-      <c r="M12" s="38">
-        <v>8</v>
-      </c>
-      <c r="N12" s="38">
-        <v>200</v>
-      </c>
-      <c r="O12" s="29">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="P12" s="30">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="Q12" s="25">
-        <v>4</v>
-      </c>
-      <c r="R12" s="25">
-        <v>4</v>
-      </c>
-      <c r="S12" s="25">
-        <v>8</v>
-      </c>
-      <c r="T12" s="25">
-        <v>200</v>
-      </c>
-      <c r="U12" s="26">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="V12" s="27">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="W12" s="38">
-        <v>4</v>
-      </c>
-      <c r="X12" s="38">
-        <v>4</v>
-      </c>
-      <c r="Y12" s="38">
-        <v>8</v>
-      </c>
-      <c r="Z12" s="38">
-        <v>200</v>
-      </c>
-      <c r="AA12" s="29">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AB12" s="30">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="AC12" s="25">
-        <v>4</v>
-      </c>
-      <c r="AD12" s="25">
-        <v>4</v>
-      </c>
-      <c r="AE12" s="25">
-        <v>8</v>
-      </c>
-      <c r="AF12" s="25">
-        <v>200</v>
-      </c>
-      <c r="AG12" s="26">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AH12" s="27">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="AI12" s="38">
-        <v>4</v>
-      </c>
-      <c r="AJ12" s="38">
-        <v>4</v>
-      </c>
-      <c r="AK12" s="38">
-        <v>8</v>
-      </c>
-      <c r="AL12" s="38">
-        <v>200</v>
-      </c>
-      <c r="AM12" s="29">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="AN12" s="30">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="AO12" s="25">
-        <v>4</v>
-      </c>
-      <c r="AP12" s="25">
-        <v>4</v>
-      </c>
-      <c r="AQ12" s="25">
-        <v>8</v>
-      </c>
-      <c r="AR12" s="25">
-        <v>200</v>
-      </c>
-      <c r="AS12" s="26">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="AT12" s="27">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AU12" s="38">
-        <v>4</v>
-      </c>
-      <c r="AV12" s="38">
-        <v>4</v>
-      </c>
-      <c r="AW12" s="38">
-        <v>8</v>
-      </c>
-      <c r="AX12" s="38">
-        <v>200</v>
-      </c>
-      <c r="AY12" s="29">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="AZ12" s="30">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="BA12" s="25">
-        <v>4</v>
-      </c>
-      <c r="BB12" s="25">
-        <v>4</v>
-      </c>
-      <c r="BC12" s="25">
-        <v>8</v>
-      </c>
-      <c r="BD12" s="25">
-        <v>200</v>
-      </c>
-      <c r="BE12" s="26">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="BF12" s="27">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="BG12" s="38">
-        <v>4</v>
-      </c>
-      <c r="BH12" s="38">
-        <v>4</v>
-      </c>
-      <c r="BI12" s="38">
-        <v>8</v>
-      </c>
-      <c r="BJ12" s="38">
-        <v>200</v>
-      </c>
-      <c r="BK12" s="29">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="BL12" s="30">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="BM12" s="25">
-        <v>4</v>
-      </c>
-      <c r="BN12" s="25">
-        <v>4</v>
-      </c>
-      <c r="BO12" s="25">
-        <v>8</v>
-      </c>
-      <c r="BP12" s="25">
-        <v>200</v>
-      </c>
-      <c r="BQ12" s="26">
-        <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="BR12" s="27">
-        <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="BS12" s="38">
-        <v>4</v>
-      </c>
-      <c r="BT12" s="38">
-        <v>4</v>
-      </c>
-      <c r="BU12" s="38">
-        <v>8</v>
-      </c>
-      <c r="BV12" s="38">
-        <v>200</v>
-      </c>
-      <c r="BW12" s="29">
-        <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="BX12" s="30">
-        <f t="shared" si="22"/>
-        <v>2</v>
-      </c>
-      <c r="BY12" s="25">
-        <v>4</v>
-      </c>
-      <c r="BZ12" s="25">
-        <v>4</v>
-      </c>
-      <c r="CA12" s="25">
-        <v>8</v>
-      </c>
-      <c r="CB12" s="25">
-        <v>200</v>
-      </c>
-      <c r="CC12" s="26">
-        <f t="shared" si="23"/>
-        <v>2</v>
-      </c>
-      <c r="CD12" s="27">
-        <f t="shared" si="24"/>
-        <v>2</v>
-      </c>
-      <c r="CE12" s="38">
-        <v>4</v>
-      </c>
-      <c r="CF12" s="38">
-        <v>4</v>
-      </c>
-      <c r="CG12" s="38">
-        <v>8</v>
-      </c>
-      <c r="CH12" s="38">
-        <v>200</v>
-      </c>
-      <c r="CI12" s="29">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
-      <c r="CJ12" s="30">
-        <f t="shared" si="26"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
-        <v>7839</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>7731</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>7720</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>7825</v>
-      </c>
-      <c r="E13" s="25">
-        <v>22</v>
-      </c>
-      <c r="F13" s="25">
-        <v>2</v>
-      </c>
-      <c r="G13" s="25">
-        <v>44</v>
-      </c>
-      <c r="H13" s="25">
-        <v>10000</v>
-      </c>
-      <c r="I13" s="26">
-        <f t="shared" ref="I13" si="28">IF($C13="win",F13/2,IF($C13="rhel",1,IF($C13="suse",1,IF($C13="Ubuntu",1,IF($C13="Oracle Linux",1,IF($C13="Debian",1,IF($C13="OEM Specific",1,0)))))))</f>
-        <v>1</v>
-      </c>
-      <c r="J13" s="27">
-        <f t="shared" ref="J13" si="29">IF($D13="MS SQL Standard Edition - Active VM",F13/2,IF($D13="MS SQL Enterprise Edition - Active VM",F13/2,IF($D13="My SQL Community Edition",1,IF($D13="My SQL Enterprise Edition",1,IF($D13="Postgre SQL Community edition",F13,IF($D13="Postgre SQL Enterprise Edition",F13,IF($D13="Oracle Standard Edition",1,IF($D13="Oracle Enterprise",F13/2,IF($D13="Maria DB Community edition",1,IF($D13="MongoDB Community edition",1,IF($D13="MS SQL Standard Edition - Passive VM",,IF($D13="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>1</v>
-      </c>
-      <c r="K13" s="38">
-        <v>4</v>
-      </c>
-      <c r="L13" s="38">
-        <v>4</v>
-      </c>
-      <c r="M13" s="38">
-        <v>8</v>
-      </c>
-      <c r="N13" s="38">
-        <v>200</v>
-      </c>
-      <c r="O13" s="29">
-        <f t="shared" ref="O13" si="30">IF($C13="win",L13/2,IF($C13="rhel",1,IF($C13="suse",1,IF($C13="Ubuntu",1,IF($C13="Oracle Linux",1,IF($C13="Debian",1,IF($C13="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="P13" s="30">
-        <f t="shared" ref="P13" si="31">IF($D13="MS SQL Standard Edition - Active VM",L13/2,IF($D13="MS SQL Enterprise Edition - Active VM",L13/2,IF($D13="My SQL Community Edition",1,IF($D13="My SQL Enterprise Edition",1,IF($D13="Postgre SQL Community edition",L13,IF($D13="Postgre SQL Enterprise Edition",L13,IF($D13="Oracle Standard Edition",1,IF($D13="Oracle Enterprise",L13/2,IF($D13="Maria DB Community edition",1,IF($D13="MongoDB Community edition",1,IF($D13="MS SQL Standard Edition - Passive VM",,IF($D13="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="Q13" s="25">
-        <v>4</v>
-      </c>
-      <c r="R13" s="25">
-        <v>4</v>
-      </c>
-      <c r="S13" s="25">
-        <v>8</v>
-      </c>
-      <c r="T13" s="25">
-        <v>200</v>
-      </c>
-      <c r="U13" s="26">
-        <f t="shared" ref="U13" si="32">IF($C13="win",R13/2,IF($C13="rhel",1,IF($C13="suse",1,IF($C13="Ubuntu",1,IF($C13="Oracle Linux",1,IF($C13="Debian",1,IF($C13="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="V13" s="27">
-        <f t="shared" ref="V13" si="33">IF($D13="MS SQL Standard Edition - Active VM",R13/2,IF($D13="MS SQL Enterprise Edition - Active VM",R13/2,IF($D13="My SQL Community Edition",1,IF($D13="My SQL Enterprise Edition",1,IF($D13="Postgre SQL Community edition",R13,IF($D13="Postgre SQL Enterprise Edition",R13,IF($D13="Oracle Standard Edition",1,IF($D13="Oracle Enterprise",R13/2,IF($D13="Maria DB Community edition",1,IF($D13="MongoDB Community edition",1,IF($D13="MS SQL Standard Edition - Passive VM",,IF($D13="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="W13" s="38">
-        <v>4</v>
-      </c>
-      <c r="X13" s="38">
-        <v>4</v>
-      </c>
-      <c r="Y13" s="38">
-        <v>8</v>
-      </c>
-      <c r="Z13" s="38">
-        <v>200</v>
-      </c>
-      <c r="AA13" s="29">
-        <f t="shared" ref="AA13" si="34">IF($C13="win",X13/2,IF($C13="rhel",1,IF($C13="suse",1,IF($C13="Ubuntu",1,IF($C13="Oracle Linux",1,IF($C13="Debian",1,IF($C13="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="AB13" s="30">
-        <f t="shared" ref="AB13" si="35">IF($D13="MS SQL Standard Edition - Active VM",X13/2,IF($D13="MS SQL Enterprise Edition - Active VM",X13/2,IF($D13="My SQL Community Edition",1,IF($D13="My SQL Enterprise Edition",1,IF($D13="Postgre SQL Community edition",X13,IF($D13="Postgre SQL Enterprise Edition",X13,IF($D13="Oracle Standard Edition",1,IF($D13="Oracle Enterprise",X13/2,IF($D13="Maria DB Community edition",1,IF($D13="MongoDB Community edition",1,IF($D13="MS SQL Standard Edition - Passive VM",,IF($D13="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="AC13" s="25">
-        <v>4</v>
-      </c>
-      <c r="AD13" s="25">
-        <v>4</v>
-      </c>
-      <c r="AE13" s="25">
-        <v>8</v>
-      </c>
-      <c r="AF13" s="25">
-        <v>200</v>
-      </c>
-      <c r="AG13" s="26">
-        <f t="shared" ref="AG13" si="36">IF($C13="win",AD13/2,IF($C13="rhel",1,IF($C13="suse",1,IF($C13="Ubuntu",1,IF($C13="Oracle Linux",1,IF($C13="Debian",1,IF($C13="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="AH13" s="27">
-        <f t="shared" ref="AH13" si="37">IF($D13="MS SQL Standard Edition - Active VM",AD13/2,IF($D13="MS SQL Enterprise Edition - Active VM",AD13/2,IF($D13="My SQL Community Edition",1,IF($D13="My SQL Enterprise Edition",1,IF($D13="Postgre SQL Community edition",AD13,IF($D13="Postgre SQL Enterprise Edition",AD13,IF($D13="Oracle Standard Edition",1,IF($D13="Oracle Enterprise",AD13/2,IF($D13="Maria DB Community edition",1,IF($D13="MongoDB Community edition",1,IF($D13="MS SQL Standard Edition - Passive VM",,IF($D13="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="AI13" s="38">
-        <v>4</v>
-      </c>
-      <c r="AJ13" s="38">
-        <v>4</v>
-      </c>
-      <c r="AK13" s="38">
-        <v>8</v>
-      </c>
-      <c r="AL13" s="38">
-        <v>200</v>
-      </c>
-      <c r="AM13" s="29">
-        <f t="shared" ref="AM13" si="38">IF($C13="win",AJ13/2,IF($C13="rhel",1,IF($C13="suse",1,IF($C13="Ubuntu",1,IF($C13="Oracle Linux",1,IF($C13="Debian",1,IF($C13="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="AN13" s="30">
-        <f t="shared" ref="AN13" si="39">IF($D13="MS SQL Standard Edition - Active VM",AJ13/2,IF($D13="MS SQL Enterprise Edition - Active VM",AJ13/2,IF($D13="My SQL Community Edition",1,IF($D13="My SQL Enterprise Edition",1,IF($D13="Postgre SQL Community edition",AJ13,IF($D13="Postgre SQL Enterprise Edition",AJ13,IF($D13="Oracle Standard Edition",1,IF($D13="Oracle Enterprise",AJ13/2,IF($D13="Maria DB Community edition",1,IF($D13="MongoDB Community edition",1,IF($D13="MS SQL Standard Edition - Passive VM",,IF($D13="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="AO13" s="25">
-        <v>4</v>
-      </c>
-      <c r="AP13" s="25">
-        <v>4</v>
-      </c>
-      <c r="AQ13" s="25">
-        <v>8</v>
-      </c>
-      <c r="AR13" s="25">
-        <v>200</v>
-      </c>
-      <c r="AS13" s="26">
-        <f t="shared" ref="AS13" si="40">IF($C13="win",AP13/2,IF($C13="rhel",1,IF($C13="suse",1,IF($C13="Ubuntu",1,IF($C13="Oracle Linux",1,IF($C13="Debian",1,IF($C13="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="AT13" s="27">
-        <f t="shared" ref="AT13" si="41">IF($D13="MS SQL Standard Edition - Active VM",AP13/2,IF($D13="MS SQL Enterprise Edition - Active VM",AP13/2,IF($D13="My SQL Community Edition",1,IF($D13="My SQL Enterprise Edition",1,IF($D13="Postgre SQL Community edition",AP13,IF($D13="Postgre SQL Enterprise Edition",AP13,IF($D13="Oracle Standard Edition",1,IF($D13="Oracle Enterprise",AP13/2,IF($D13="Maria DB Community edition",1,IF($D13="MongoDB Community edition",1,IF($D13="MS SQL Standard Edition - Passive VM",,IF($D13="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="AU13" s="38">
-        <v>4</v>
-      </c>
-      <c r="AV13" s="38">
-        <v>4</v>
-      </c>
-      <c r="AW13" s="38">
-        <v>8</v>
-      </c>
-      <c r="AX13" s="38">
-        <v>200</v>
-      </c>
-      <c r="AY13" s="29">
-        <f t="shared" ref="AY13" si="42">IF($C13="win",AV13/2,IF($C13="rhel",1,IF($C13="suse",1,IF($C13="Ubuntu",1,IF($C13="Oracle Linux",1,IF($C13="Debian",1,IF($C13="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="AZ13" s="30">
-        <f t="shared" ref="AZ13" si="43">IF($D13="MS SQL Standard Edition - Active VM",AV13/2,IF($D13="MS SQL Enterprise Edition - Active VM",AV13/2,IF($D13="My SQL Community Edition",1,IF($D13="My SQL Enterprise Edition",1,IF($D13="Postgre SQL Community edition",AV13,IF($D13="Postgre SQL Enterprise Edition",AV13,IF($D13="Oracle Standard Edition",1,IF($D13="Oracle Enterprise",AV13/2,IF($D13="Maria DB Community edition",1,IF($D13="MongoDB Community edition",1,IF($D13="MS SQL Standard Edition - Passive VM",,IF($D13="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="BA13" s="25">
-        <v>4</v>
-      </c>
-      <c r="BB13" s="25">
-        <v>4</v>
-      </c>
-      <c r="BC13" s="25">
-        <v>8</v>
-      </c>
-      <c r="BD13" s="25">
-        <v>200</v>
-      </c>
-      <c r="BE13" s="26">
-        <f t="shared" ref="BE13" si="44">IF($C13="win",BB13/2,IF($C13="rhel",1,IF($C13="suse",1,IF($C13="Ubuntu",1,IF($C13="Oracle Linux",1,IF($C13="Debian",1,IF($C13="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="BF13" s="27">
-        <f t="shared" ref="BF13" si="45">IF($D13="MS SQL Standard Edition - Active VM",BB13/2,IF($D13="MS SQL Enterprise Edition - Active VM",BB13/2,IF($D13="My SQL Community Edition",1,IF($D13="My SQL Enterprise Edition",1,IF($D13="Postgre SQL Community edition",BB13,IF($D13="Postgre SQL Enterprise Edition",BB13,IF($D13="Oracle Standard Edition",1,IF($D13="Oracle Enterprise",BB13/2,IF($D13="Maria DB Community edition",1,IF($D13="MongoDB Community edition",1,IF($D13="MS SQL Standard Edition - Passive VM",,IF($D13="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="BG13" s="38">
-        <v>4</v>
-      </c>
-      <c r="BH13" s="38">
-        <v>4</v>
-      </c>
-      <c r="BI13" s="38">
-        <v>8</v>
-      </c>
-      <c r="BJ13" s="38">
-        <v>200</v>
-      </c>
-      <c r="BK13" s="29">
-        <f t="shared" ref="BK13" si="46">IF($C13="win",BH13/2,IF($C13="rhel",1,IF($C13="suse",1,IF($C13="Ubuntu",1,IF($C13="Oracle Linux",1,IF($C13="Debian",1,IF($C13="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="BL13" s="30">
-        <f t="shared" ref="BL13" si="47">IF($D13="MS SQL Standard Edition - Active VM",BH13/2,IF($D13="MS SQL Enterprise Edition - Active VM",BH13/2,IF($D13="My SQL Community Edition",1,IF($D13="My SQL Enterprise Edition",1,IF($D13="Postgre SQL Community edition",BH13,IF($D13="Postgre SQL Enterprise Edition",BH13,IF($D13="Oracle Standard Edition",1,IF($D13="Oracle Enterprise",BH13/2,IF($D13="Maria DB Community edition",1,IF($D13="MongoDB Community edition",1,IF($D13="MS SQL Standard Edition - Passive VM",,IF($D13="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="BM13" s="25">
-        <v>4</v>
-      </c>
-      <c r="BN13" s="25">
-        <v>4</v>
-      </c>
-      <c r="BO13" s="25">
-        <v>8</v>
-      </c>
-      <c r="BP13" s="25">
-        <v>200</v>
-      </c>
-      <c r="BQ13" s="26">
-        <f t="shared" ref="BQ13" si="48">IF($C13="win",BN13/2,IF($C13="rhel",1,IF($C13="suse",1,IF($C13="Ubuntu",1,IF($C13="Oracle Linux",1,IF($C13="Debian",1,IF($C13="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="BR13" s="27">
-        <f t="shared" ref="BR13" si="49">IF($D13="MS SQL Standard Edition - Active VM",BN13/2,IF($D13="MS SQL Enterprise Edition - Active VM",BN13/2,IF($D13="My SQL Community Edition",1,IF($D13="My SQL Enterprise Edition",1,IF($D13="Postgre SQL Community edition",BN13,IF($D13="Postgre SQL Enterprise Edition",BN13,IF($D13="Oracle Standard Edition",1,IF($D13="Oracle Enterprise",BN13/2,IF($D13="Maria DB Community edition",1,IF($D13="MongoDB Community edition",1,IF($D13="MS SQL Standard Edition - Passive VM",,IF($D13="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="BS13" s="38">
-        <v>4</v>
-      </c>
-      <c r="BT13" s="38">
-        <v>4</v>
-      </c>
-      <c r="BU13" s="38">
-        <v>8</v>
-      </c>
-      <c r="BV13" s="38">
-        <v>200</v>
-      </c>
-      <c r="BW13" s="29">
-        <f t="shared" ref="BW13" si="50">IF($C13="win",BT13/2,IF($C13="rhel",1,IF($C13="suse",1,IF($C13="Ubuntu",1,IF($C13="Oracle Linux",1,IF($C13="Debian",1,IF($C13="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="BX13" s="30">
-        <f t="shared" ref="BX13" si="51">IF($D13="MS SQL Standard Edition - Active VM",BT13/2,IF($D13="MS SQL Enterprise Edition - Active VM",BT13/2,IF($D13="My SQL Community Edition",1,IF($D13="My SQL Enterprise Edition",1,IF($D13="Postgre SQL Community edition",BT13,IF($D13="Postgre SQL Enterprise Edition",BT13,IF($D13="Oracle Standard Edition",1,IF($D13="Oracle Enterprise",BT13/2,IF($D13="Maria DB Community edition",1,IF($D13="MongoDB Community edition",1,IF($D13="MS SQL Standard Edition - Passive VM",,IF($D13="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="BY13" s="25">
-        <v>4</v>
-      </c>
-      <c r="BZ13" s="25">
-        <v>4</v>
-      </c>
-      <c r="CA13" s="25">
-        <v>8</v>
-      </c>
-      <c r="CB13" s="25">
-        <v>200</v>
-      </c>
-      <c r="CC13" s="26">
-        <f t="shared" ref="CC13" si="52">IF($C13="win",BZ13/2,IF($C13="rhel",1,IF($C13="suse",1,IF($C13="Ubuntu",1,IF($C13="Oracle Linux",1,IF($C13="Debian",1,IF($C13="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="CD13" s="27">
-        <f t="shared" ref="CD13" si="53">IF($D13="MS SQL Standard Edition - Active VM",BZ13/2,IF($D13="MS SQL Enterprise Edition - Active VM",BZ13/2,IF($D13="My SQL Community Edition",1,IF($D13="My SQL Enterprise Edition",1,IF($D13="Postgre SQL Community edition",BZ13,IF($D13="Postgre SQL Enterprise Edition",BZ13,IF($D13="Oracle Standard Edition",1,IF($D13="Oracle Enterprise",BZ13/2,IF($D13="Maria DB Community edition",1,IF($D13="MongoDB Community edition",1,IF($D13="MS SQL Standard Edition - Passive VM",,IF($D13="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="CE13" s="38">
-        <v>4</v>
-      </c>
-      <c r="CF13" s="38">
-        <v>4</v>
-      </c>
-      <c r="CG13" s="38">
-        <v>8</v>
-      </c>
-      <c r="CH13" s="38">
-        <v>200</v>
-      </c>
-      <c r="CI13" s="29">
-        <f t="shared" ref="CI13" si="54">IF($C13="win",CF13/2,IF($C13="rhel",1,IF($C13="suse",1,IF($C13="Ubuntu",1,IF($C13="Oracle Linux",1,IF($C13="Debian",1,IF($C13="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="CJ13" s="30">
-        <f t="shared" ref="CJ13" si="55">IF($D13="MS SQL Standard Edition - Active VM",CF13/2,IF($D13="MS SQL Enterprise Edition - Active VM",CF13/2,IF($D13="My SQL Community Edition",1,IF($D13="My SQL Enterprise Edition",1,IF($D13="Postgre SQL Community edition",CF13,IF($D13="Postgre SQL Enterprise Edition",CF13,IF($D13="Oracle Standard Edition",1,IF($D13="Oracle Enterprise",CF13/2,IF($D13="Maria DB Community edition",1,IF($D13="MongoDB Community edition",1,IF($D13="MS SQL Standard Edition - Passive VM",,IF($D13="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <f t="shared" ref="CJ10" si="55">IF($D10="MS SQL Standard Edition - Active VM",CF10/2,IF($D10="MS SQL Enterprise Edition - Active VM",CF10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",CF10,IF($D10="Postgre SQL Enterprise Edition",CF10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",CF10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D13">
-      <formula1>$CQ$1:$CQ$16</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10">
+      <formula1>$CQ$1:$CQ$13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C13">
-      <formula1>$CP$1:$CP$8</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C10">
+      <formula1>$CP$1:$CP$7</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -62206,7 +61309,7 @@
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -62237,7 +61340,7 @@
         <v>114</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>7761</v>
+        <v>7759</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>7709</v>
@@ -62267,7 +61370,7 @@
         <v>7716</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>7762</v>
+        <v>7760</v>
       </c>
       <c r="O1" s="13" t="s">
         <v>7717</v>
@@ -65693,10 +64796,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q66"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -65727,7 +64830,7 @@
         <v>114</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>7761</v>
+        <v>7759</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>7709</v>
@@ -65757,7 +64860,7 @@
         <v>7716</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>7762</v>
+        <v>7760</v>
       </c>
       <c r="O1" s="13" t="s">
         <v>7717</v>
@@ -67487,7 +66590,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="39" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="B35" s="40"/>
       <c r="C35" s="40"/>
@@ -67508,14 +66611,14 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="str">
-        <f>$A$35</f>
-        <v>Network and Connectivity Services</v>
+        <f t="shared" ref="A36:A53" si="1">$A$35</f>
+        <v>Security Solution</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>248</v>
+        <v>7699</v>
       </c>
       <c r="D36" s="1">
         <v>5</v>
@@ -67562,14 +66665,14 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="str">
-        <f>$A$35</f>
-        <v>Network and Connectivity Services</v>
+        <f t="shared" si="1"/>
+        <v>Security Solution</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>251</v>
+        <v>7700</v>
       </c>
       <c r="D37" s="1">
         <v>6</v>
@@ -67615,39 +66718,72 @@
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="39" t="s">
-        <v>266</v>
-      </c>
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
+      <c r="A38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Security Solution</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>7701</v>
+      </c>
+      <c r="D38" s="1">
+        <v>7</v>
+      </c>
+      <c r="E38" s="1">
+        <v>6</v>
+      </c>
+      <c r="F38" s="1">
+        <v>7</v>
+      </c>
+      <c r="G38" s="1">
+        <v>8</v>
+      </c>
+      <c r="H38" s="1">
+        <v>9</v>
+      </c>
+      <c r="I38" s="1">
+        <v>10</v>
+      </c>
+      <c r="J38" s="1">
+        <v>11</v>
+      </c>
+      <c r="K38" s="1">
+        <v>12</v>
+      </c>
+      <c r="L38" s="1">
+        <v>13</v>
+      </c>
+      <c r="M38" s="1">
+        <v>14</v>
+      </c>
+      <c r="N38" s="1">
+        <v>15</v>
+      </c>
+      <c r="O38" s="1">
+        <v>13</v>
+      </c>
+      <c r="P38" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="str">
-        <f t="shared" ref="A39:A56" si="1">$A$38</f>
+        <f t="shared" si="1"/>
         <v>Security Solution</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>7699</v>
+        <v>278</v>
       </c>
       <c r="D39" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E39" s="1">
         <v>6</v>
@@ -67698,10 +66834,10 @@
         <v>247</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>7700</v>
+        <v>83</v>
       </c>
       <c r="D40" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E40" s="1">
         <v>6</v>
@@ -67752,10 +66888,10 @@
         <v>247</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>7701</v>
+        <v>7702</v>
       </c>
       <c r="D41" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E41" s="1">
         <v>6</v>
@@ -67806,10 +66942,10 @@
         <v>247</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="D42" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E42" s="1">
         <v>6</v>
@@ -67860,10 +66996,10 @@
         <v>247</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>83</v>
+        <v>290</v>
       </c>
       <c r="D43" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E43" s="1">
         <v>6</v>
@@ -67914,10 +67050,10 @@
         <v>247</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>7702</v>
+        <v>7703</v>
       </c>
       <c r="D44" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E44" s="1">
         <v>6</v>
@@ -67968,10 +67104,10 @@
         <v>247</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>287</v>
+        <v>7704</v>
       </c>
       <c r="D45" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E45" s="1">
         <v>6</v>
@@ -68022,10 +67158,10 @@
         <v>247</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>290</v>
+        <v>7705</v>
       </c>
       <c r="D46" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E46" s="1">
         <v>6</v>
@@ -68076,10 +67212,10 @@
         <v>247</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>7703</v>
+        <v>302</v>
       </c>
       <c r="D47" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E47" s="1">
         <v>6</v>
@@ -68130,10 +67266,10 @@
         <v>247</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>7704</v>
+        <v>7706</v>
       </c>
       <c r="D48" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E48" s="1">
         <v>6</v>
@@ -68184,10 +67320,10 @@
         <v>247</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>7705</v>
+        <v>7707</v>
       </c>
       <c r="D49" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E49" s="1">
         <v>6</v>
@@ -68238,10 +67374,10 @@
         <v>247</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="D50" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E50" s="1">
         <v>6</v>
@@ -68292,10 +67428,10 @@
         <v>247</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>7706</v>
+        <v>314</v>
       </c>
       <c r="D51" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E51" s="1">
         <v>6</v>
@@ -68346,10 +67482,10 @@
         <v>247</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>7707</v>
+        <v>317</v>
       </c>
       <c r="D52" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E52" s="1">
         <v>6</v>
@@ -68400,10 +67536,10 @@
         <v>247</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="D53" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E53" s="1">
         <v>6</v>
@@ -68446,72 +67582,39 @@
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Security Solution</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D54" s="1">
-        <v>20</v>
-      </c>
-      <c r="E54" s="1">
-        <v>6</v>
-      </c>
-      <c r="F54" s="1">
-        <v>7</v>
-      </c>
-      <c r="G54" s="1">
-        <v>8</v>
-      </c>
-      <c r="H54" s="1">
-        <v>9</v>
-      </c>
-      <c r="I54" s="1">
-        <v>10</v>
-      </c>
-      <c r="J54" s="1">
-        <v>11</v>
-      </c>
-      <c r="K54" s="1">
-        <v>12</v>
-      </c>
-      <c r="L54" s="1">
-        <v>13</v>
-      </c>
-      <c r="M54" s="1">
-        <v>14</v>
-      </c>
-      <c r="N54" s="1">
-        <v>15</v>
-      </c>
-      <c r="O54" s="1">
-        <v>13</v>
-      </c>
-      <c r="P54" s="1">
-        <v>14</v>
-      </c>
-      <c r="Q54" s="1">
-        <v>15</v>
-      </c>
+      <c r="A54" s="39" t="s">
+        <v>323</v>
+      </c>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="40"/>
+      <c r="O54" s="40"/>
+      <c r="P54" s="40"/>
+      <c r="Q54" s="40"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Security Solution</v>
+        <f t="shared" ref="A55:A63" si="2">$A$54</f>
+        <v>Managed Services</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="D55" s="1">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E55" s="1">
         <v>6</v>
@@ -68555,17 +67658,17 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Security Solution</v>
+        <f t="shared" si="2"/>
+        <v>Managed Services</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="D56" s="1">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E56" s="1">
         <v>6</v>
@@ -68608,78 +67711,111 @@
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="39" t="s">
-        <v>323</v>
-      </c>
-      <c r="B57" s="40"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="40"/>
-      <c r="G57" s="40"/>
-      <c r="H57" s="40"/>
-      <c r="I57" s="40"/>
-      <c r="J57" s="40"/>
-      <c r="K57" s="40"/>
-      <c r="L57" s="40"/>
-      <c r="M57" s="40"/>
-      <c r="N57" s="40"/>
-      <c r="O57" s="40"/>
-      <c r="P57" s="40"/>
-      <c r="Q57" s="40"/>
+      <c r="A57" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Managed Services</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D57" s="1">
+        <v>4</v>
+      </c>
+      <c r="E57" s="1">
+        <v>4</v>
+      </c>
+      <c r="F57" s="1">
+        <v>4</v>
+      </c>
+      <c r="G57" s="1">
+        <v>4</v>
+      </c>
+      <c r="H57" s="1">
+        <v>4</v>
+      </c>
+      <c r="I57" s="1">
+        <v>4</v>
+      </c>
+      <c r="J57" s="1">
+        <v>4</v>
+      </c>
+      <c r="K57" s="1">
+        <v>4</v>
+      </c>
+      <c r="L57" s="1">
+        <v>4</v>
+      </c>
+      <c r="M57" s="1">
+        <v>4</v>
+      </c>
+      <c r="N57" s="1">
+        <v>4</v>
+      </c>
+      <c r="O57" s="1">
+        <v>4</v>
+      </c>
+      <c r="P57" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="str">
-        <f t="shared" ref="A58:A66" si="2">$A$57</f>
+        <f t="shared" si="2"/>
         <v>Managed Services</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>247</v>
+        <v>344</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="D58" s="1">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="E58" s="1">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="F58" s="1">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G58" s="1">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="H58" s="1">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I58" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J58" s="1">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="K58" s="1">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L58" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M58" s="1">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N58" s="1">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="O58" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="P58" s="1">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="Q58" s="1">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
@@ -68688,52 +67824,52 @@
         <v>Managed Services</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>247</v>
+        <v>344</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="D59" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E59" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F59" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G59" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H59" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I59" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J59" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K59" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L59" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="M59" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="N59" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="O59" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="P59" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="Q59" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
@@ -68742,52 +67878,52 @@
         <v>Managed Services</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>247</v>
+        <v>344</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="D60" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E60" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F60" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G60" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H60" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I60" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J60" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K60" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="L60" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="M60" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="N60" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="O60" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="P60" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="Q60" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
@@ -68799,49 +67935,49 @@
         <v>344</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="D61" s="1">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="E61" s="1">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="F61" s="1">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="G61" s="1">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="H61" s="1">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="I61" s="1">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J61" s="1">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K61" s="1">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="L61" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M61" s="1">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N61" s="1">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="O61" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="P61" s="1">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="Q61" s="1">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
@@ -68853,49 +67989,49 @@
         <v>344</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="D62" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E62" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F62" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G62" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H62" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I62" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J62" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K62" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="L62" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="M62" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="N62" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="O62" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="P62" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="Q62" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -68904,223 +68040,60 @@
         <v>Managed Services</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>344</v>
+        <v>247</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="D63" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E63" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F63" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G63" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H63" s="1">
         <v>9</v>
       </c>
       <c r="I63" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J63" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K63" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L63" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M63" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N63" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="O63" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="P63" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Q63" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Managed Services</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="D64" s="1">
-        <v>5</v>
-      </c>
-      <c r="E64" s="1">
-        <v>6</v>
-      </c>
-      <c r="F64" s="1">
-        <v>7</v>
-      </c>
-      <c r="G64" s="1">
-        <v>8</v>
-      </c>
-      <c r="H64" s="1">
         <v>9</v>
       </c>
-      <c r="I64" s="1">
-        <v>10</v>
-      </c>
-      <c r="J64" s="1">
-        <v>11</v>
-      </c>
-      <c r="K64" s="1">
-        <v>12</v>
-      </c>
-      <c r="L64" s="1">
-        <v>13</v>
-      </c>
-      <c r="M64" s="1">
-        <v>14</v>
-      </c>
-      <c r="N64" s="1">
-        <v>15</v>
-      </c>
-      <c r="O64" s="1">
-        <v>13</v>
-      </c>
-      <c r="P64" s="1">
-        <v>14</v>
-      </c>
-      <c r="Q64" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Managed Services</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="D65" s="1">
-        <v>5</v>
-      </c>
-      <c r="E65" s="1">
-        <v>6</v>
-      </c>
-      <c r="F65" s="1">
-        <v>7</v>
-      </c>
-      <c r="G65" s="1">
-        <v>8</v>
-      </c>
-      <c r="H65" s="1">
-        <v>9</v>
-      </c>
-      <c r="I65" s="1">
-        <v>10</v>
-      </c>
-      <c r="J65" s="1">
-        <v>11</v>
-      </c>
-      <c r="K65" s="1">
-        <v>12</v>
-      </c>
-      <c r="L65" s="1">
-        <v>13</v>
-      </c>
-      <c r="M65" s="1">
-        <v>14</v>
-      </c>
-      <c r="N65" s="1">
-        <v>15</v>
-      </c>
-      <c r="O65" s="1">
-        <v>13</v>
-      </c>
-      <c r="P65" s="1">
-        <v>14</v>
-      </c>
-      <c r="Q65" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Managed Services</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="D66" s="1">
-        <v>9</v>
-      </c>
-      <c r="E66" s="1">
-        <v>9</v>
-      </c>
-      <c r="F66" s="1">
-        <v>9</v>
-      </c>
-      <c r="G66" s="1">
-        <v>9</v>
-      </c>
-      <c r="H66" s="1">
-        <v>9</v>
-      </c>
-      <c r="I66" s="1">
-        <v>9</v>
-      </c>
-      <c r="J66" s="1">
-        <v>9</v>
-      </c>
-      <c r="K66" s="1">
-        <v>9</v>
-      </c>
-      <c r="L66" s="1">
-        <v>9</v>
-      </c>
-      <c r="M66" s="1">
-        <v>9</v>
-      </c>
-      <c r="N66" s="1">
-        <v>9</v>
-      </c>
-      <c r="O66" s="1">
-        <v>9</v>
-      </c>
-      <c r="P66" s="1">
-        <v>9</v>
-      </c>
-      <c r="Q66" s="1">
-        <v>9</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A7:Q7"/>
     <mergeCell ref="A35:Q35"/>
-    <mergeCell ref="A38:Q38"/>
-    <mergeCell ref="A57:Q57"/>
+    <mergeCell ref="A54:Q54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
